--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T290"/>
+  <dimension ref="A1:T292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44176</v>
+        <v>44413</v>
       </c>
       <c r="E127" t="n">
         <v>16</v>
@@ -10524,16 +10524,16 @@
         </is>
       </c>
       <c r="M127" t="n">
-        <v>640</v>
+        <v>200</v>
       </c>
       <c r="N127" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O127" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P127" t="n">
-        <v>13688</v>
+        <v>11000</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>684</v>
+        <v>550</v>
       </c>
       <c r="T127" t="n">
         <v>20</v>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44176</v>
+        <v>44413</v>
       </c>
       <c r="E128" t="n">
         <v>16</v>
@@ -10604,16 +10604,16 @@
         </is>
       </c>
       <c r="M128" t="n">
-        <v>280</v>
+        <v>600</v>
       </c>
       <c r="N128" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="O128" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P128" t="n">
-        <v>14714</v>
+        <v>12500</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>736</v>
+        <v>625</v>
       </c>
       <c r="T128" t="n">
         <v>20</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44222</v>
+        <v>44176</v>
       </c>
       <c r="E129" t="n">
         <v>16</v>
@@ -10684,7 +10684,7 @@
         </is>
       </c>
       <c r="M129" t="n">
-        <v>740</v>
+        <v>640</v>
       </c>
       <c r="N129" t="n">
         <v>13000</v>
@@ -10693,7 +10693,7 @@
         <v>14000</v>
       </c>
       <c r="P129" t="n">
-        <v>13595</v>
+        <v>13688</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         </is>
       </c>
       <c r="S129" t="n">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="T129" t="n">
         <v>20</v>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44222</v>
+        <v>44176</v>
       </c>
       <c r="E130" t="n">
         <v>16</v>
@@ -10764,16 +10764,16 @@
         </is>
       </c>
       <c r="M130" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N130" t="n">
+        <v>14500</v>
+      </c>
+      <c r="O130" t="n">
         <v>15000</v>
       </c>
-      <c r="O130" t="n">
-        <v>16000</v>
-      </c>
       <c r="P130" t="n">
-        <v>15500</v>
+        <v>14714</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>775</v>
+        <v>736</v>
       </c>
       <c r="T130" t="n">
         <v>20</v>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44237</v>
+        <v>44222</v>
       </c>
       <c r="E131" t="n">
         <v>16</v>
@@ -10844,16 +10844,16 @@
         </is>
       </c>
       <c r="M131" t="n">
-        <v>80</v>
+        <v>740</v>
       </c>
       <c r="N131" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O131" t="n">
         <v>14000</v>
       </c>
       <c r="P131" t="n">
-        <v>14000</v>
+        <v>13595</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         </is>
       </c>
       <c r="S131" t="n">
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="T131" t="n">
         <v>20</v>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44237</v>
+        <v>44222</v>
       </c>
       <c r="E132" t="n">
         <v>16</v>
@@ -10924,7 +10924,7 @@
         </is>
       </c>
       <c r="M132" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N132" t="n">
         <v>15000</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44273</v>
+        <v>44237</v>
       </c>
       <c r="E133" t="n">
         <v>16</v>
@@ -11004,16 +11004,16 @@
         </is>
       </c>
       <c r="M133" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N133" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O133" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P133" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         </is>
       </c>
       <c r="S133" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T133" t="n">
         <v>20</v>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44273</v>
+        <v>44237</v>
       </c>
       <c r="E134" t="n">
         <v>16</v>
@@ -11084,16 +11084,16 @@
         </is>
       </c>
       <c r="M134" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N134" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O134" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P134" t="n">
-        <v>13500</v>
+        <v>15500</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="T134" t="n">
         <v>20</v>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44377</v>
+        <v>44273</v>
       </c>
       <c r="E135" t="n">
         <v>16</v>
@@ -11164,16 +11164,16 @@
         </is>
       </c>
       <c r="M135" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N135" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O135" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P135" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="T135" t="n">
         <v>20</v>
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44377</v>
+        <v>44273</v>
       </c>
       <c r="E136" t="n">
         <v>16</v>
@@ -11244,16 +11244,16 @@
         </is>
       </c>
       <c r="M136" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N136" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O136" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P136" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="T136" t="n">
         <v>20</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44257</v>
+        <v>44377</v>
       </c>
       <c r="E137" t="n">
         <v>16</v>
@@ -11324,16 +11324,16 @@
         </is>
       </c>
       <c r="M137" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N137" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O137" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P137" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="S137" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="T137" t="n">
         <v>20</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44257</v>
+        <v>44377</v>
       </c>
       <c r="E138" t="n">
         <v>16</v>
@@ -11404,16 +11404,16 @@
         </is>
       </c>
       <c r="M138" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="N138" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O138" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P138" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         </is>
       </c>
       <c r="S138" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="T138" t="n">
         <v>20</v>
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44400</v>
+        <v>44257</v>
       </c>
       <c r="E139" t="n">
         <v>16</v>
@@ -11480,20 +11480,20 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M139" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N139" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="O139" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P139" t="n">
-        <v>19500</v>
+        <v>13000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>975</v>
+        <v>650</v>
       </c>
       <c r="T139" t="n">
         <v>20</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44225</v>
+        <v>44257</v>
       </c>
       <c r="E140" t="n">
         <v>16</v>
@@ -11560,20 +11560,20 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M140" t="n">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="N140" t="n">
         <v>14000</v>
       </c>
       <c r="O140" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P140" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>700</v>
+        <v>725</v>
       </c>
       <c r="T140" t="n">
         <v>20</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44225</v>
+        <v>44400</v>
       </c>
       <c r="E141" t="n">
         <v>16</v>
@@ -11647,13 +11647,13 @@
         <v>160</v>
       </c>
       <c r="N141" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O141" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P141" t="n">
-        <v>15500</v>
+        <v>19500</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>775</v>
+        <v>975</v>
       </c>
       <c r="T141" t="n">
         <v>20</v>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44295</v>
+        <v>44225</v>
       </c>
       <c r="E142" t="n">
         <v>16</v>
@@ -11720,20 +11720,20 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M142" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="N142" t="n">
         <v>14000</v>
       </c>
       <c r="O142" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P142" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>725</v>
+        <v>700</v>
       </c>
       <c r="T142" t="n">
         <v>20</v>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44194</v>
+        <v>44225</v>
       </c>
       <c r="E143" t="n">
         <v>16</v>
@@ -11800,20 +11800,20 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M143" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N143" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O143" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P143" t="n">
-        <v>11000</v>
+        <v>15500</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
@@ -11826,7 +11826,7 @@
         </is>
       </c>
       <c r="S143" t="n">
-        <v>550</v>
+        <v>775</v>
       </c>
       <c r="T143" t="n">
         <v>20</v>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44194</v>
+        <v>44295</v>
       </c>
       <c r="E144" t="n">
         <v>16</v>
@@ -11884,16 +11884,16 @@
         </is>
       </c>
       <c r="M144" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N144" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O144" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P144" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         </is>
       </c>
       <c r="S144" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="T144" t="n">
         <v>20</v>
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44390</v>
+        <v>44194</v>
       </c>
       <c r="E145" t="n">
         <v>16</v>
@@ -11964,7 +11964,7 @@
         </is>
       </c>
       <c r="M145" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N145" t="n">
         <v>11000</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44390</v>
+        <v>44194</v>
       </c>
       <c r="E146" t="n">
         <v>16</v>
@@ -12044,16 +12044,16 @@
         </is>
       </c>
       <c r="M146" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N146" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O146" t="n">
         <v>13000</v>
       </c>
-      <c r="O146" t="n">
-        <v>14000</v>
-      </c>
       <c r="P146" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="T146" t="n">
         <v>20</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44321</v>
+        <v>44390</v>
       </c>
       <c r="E147" t="n">
         <v>16</v>
@@ -12124,16 +12124,16 @@
         </is>
       </c>
       <c r="M147" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N147" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O147" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P147" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="T147" t="n">
         <v>20</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44321</v>
+        <v>44390</v>
       </c>
       <c r="E148" t="n">
         <v>16</v>
@@ -12207,13 +12207,13 @@
         <v>240</v>
       </c>
       <c r="N148" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O148" t="n">
         <v>14000</v>
       </c>
-      <c r="O148" t="n">
-        <v>15000</v>
-      </c>
       <c r="P148" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="T148" t="n">
         <v>20</v>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E149" t="n">
         <v>16</v>
@@ -12284,16 +12284,16 @@
         </is>
       </c>
       <c r="M149" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N149" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O149" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P149" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="T149" t="n">
         <v>20</v>
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E150" t="n">
         <v>16</v>
@@ -12367,13 +12367,13 @@
         <v>240</v>
       </c>
       <c r="N150" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O150" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P150" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="T150" t="n">
         <v>20</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44383</v>
+        <v>44298</v>
       </c>
       <c r="E151" t="n">
         <v>16</v>
@@ -12447,13 +12447,13 @@
         <v>80</v>
       </c>
       <c r="N151" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O151" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P151" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T151" t="n">
         <v>20</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44383</v>
+        <v>44298</v>
       </c>
       <c r="E152" t="n">
         <v>16</v>
@@ -12524,16 +12524,16 @@
         </is>
       </c>
       <c r="M152" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N152" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O152" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P152" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="T152" t="n">
         <v>20</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44354</v>
+        <v>44383</v>
       </c>
       <c r="E153" t="n">
         <v>16</v>
@@ -12607,13 +12607,13 @@
         <v>80</v>
       </c>
       <c r="N153" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O153" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P153" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         </is>
       </c>
       <c r="S153" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="T153" t="n">
         <v>20</v>
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44354</v>
+        <v>44383</v>
       </c>
       <c r="E154" t="n">
         <v>16</v>
@@ -12684,16 +12684,16 @@
         </is>
       </c>
       <c r="M154" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N154" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O154" t="n">
         <v>12000</v>
       </c>
-      <c r="O154" t="n">
-        <v>13000</v>
-      </c>
       <c r="P154" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="T154" t="n">
         <v>20</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44169</v>
+        <v>44354</v>
       </c>
       <c r="E155" t="n">
         <v>16</v>
@@ -12767,13 +12767,13 @@
         <v>80</v>
       </c>
       <c r="N155" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="O155" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P155" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="T155" t="n">
         <v>20</v>
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44169</v>
+        <v>44354</v>
       </c>
       <c r="E156" t="n">
         <v>16</v>
@@ -12847,13 +12847,13 @@
         <v>240</v>
       </c>
       <c r="N156" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O156" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P156" t="n">
-        <v>18500</v>
+        <v>12500</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         </is>
       </c>
       <c r="S156" t="n">
-        <v>925</v>
+        <v>625</v>
       </c>
       <c r="T156" t="n">
         <v>20</v>
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44410</v>
+        <v>44169</v>
       </c>
       <c r="E157" t="n">
         <v>16</v>
@@ -12924,16 +12924,16 @@
         </is>
       </c>
       <c r="M157" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="N157" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="O157" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P157" t="n">
-        <v>12750</v>
+        <v>17000</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="S157" t="n">
-        <v>638</v>
+        <v>850</v>
       </c>
       <c r="T157" t="n">
         <v>20</v>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44410</v>
+        <v>44169</v>
       </c>
       <c r="E158" t="n">
         <v>16</v>
@@ -13004,16 +13004,16 @@
         </is>
       </c>
       <c r="M158" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="N158" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O158" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P158" t="n">
-        <v>14500</v>
+        <v>18500</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>725</v>
+        <v>925</v>
       </c>
       <c r="T158" t="n">
         <v>20</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44412</v>
+        <v>44410</v>
       </c>
       <c r="E159" t="n">
         <v>16</v>
@@ -13084,16 +13084,16 @@
         </is>
       </c>
       <c r="M159" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N159" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="O159" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P159" t="n">
-        <v>11750</v>
+        <v>12750</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         </is>
       </c>
       <c r="S159" t="n">
-        <v>588</v>
+        <v>638</v>
       </c>
       <c r="T159" t="n">
         <v>20</v>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44412</v>
+        <v>44410</v>
       </c>
       <c r="E160" t="n">
         <v>16</v>
@@ -13164,16 +13164,16 @@
         </is>
       </c>
       <c r="M160" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N160" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O160" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P160" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="T160" t="n">
         <v>20</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E161" t="n">
         <v>16</v>
@@ -13240,20 +13240,20 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M161" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N161" t="n">
+        <v>11500</v>
+      </c>
+      <c r="O161" t="n">
         <v>12000</v>
       </c>
-      <c r="O161" t="n">
-        <v>13000</v>
-      </c>
       <c r="P161" t="n">
-        <v>12500</v>
+        <v>11750</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>625</v>
+        <v>588</v>
       </c>
       <c r="T161" t="n">
         <v>20</v>
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44300</v>
+        <v>44412</v>
       </c>
       <c r="E162" t="n">
         <v>16</v>
@@ -13320,20 +13320,20 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M162" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N162" t="n">
         <v>13000</v>
       </c>
       <c r="O162" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P162" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="T162" t="n">
         <v>20</v>
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44300</v>
+        <v>44336</v>
       </c>
       <c r="E163" t="n">
         <v>16</v>
@@ -13404,16 +13404,16 @@
         </is>
       </c>
       <c r="M163" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N163" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O163" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P163" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="T163" t="n">
         <v>20</v>
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44172</v>
+        <v>44300</v>
       </c>
       <c r="E164" t="n">
         <v>16</v>
@@ -13484,16 +13484,16 @@
         </is>
       </c>
       <c r="M164" t="n">
-        <v>480</v>
+        <v>80</v>
       </c>
       <c r="N164" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="O164" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P164" t="n">
-        <v>15375</v>
+        <v>13000</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>769</v>
+        <v>650</v>
       </c>
       <c r="T164" t="n">
         <v>20</v>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44172</v>
+        <v>44300</v>
       </c>
       <c r="E165" t="n">
         <v>16</v>
@@ -13564,16 +13564,16 @@
         </is>
       </c>
       <c r="M165" t="n">
-        <v>380</v>
+        <v>240</v>
       </c>
       <c r="N165" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O165" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P165" t="n">
-        <v>17526</v>
+        <v>14500</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>876</v>
+        <v>725</v>
       </c>
       <c r="T165" t="n">
         <v>20</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44214</v>
+        <v>44172</v>
       </c>
       <c r="E166" t="n">
         <v>16</v>
@@ -13644,16 +13644,16 @@
         </is>
       </c>
       <c r="M166" t="n">
-        <v>740</v>
+        <v>480</v>
       </c>
       <c r="N166" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="O166" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="P166" t="n">
-        <v>10230</v>
+        <v>15375</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>512</v>
+        <v>769</v>
       </c>
       <c r="T166" t="n">
         <v>20</v>
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44214</v>
+        <v>44172</v>
       </c>
       <c r="E167" t="n">
         <v>16</v>
@@ -13724,16 +13724,16 @@
         </is>
       </c>
       <c r="M167" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="N167" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="O167" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P167" t="n">
-        <v>11429</v>
+        <v>17526</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>571</v>
+        <v>876</v>
       </c>
       <c r="T167" t="n">
         <v>20</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44371</v>
+        <v>44214</v>
       </c>
       <c r="E168" t="n">
         <v>16</v>
@@ -13804,16 +13804,16 @@
         </is>
       </c>
       <c r="M168" t="n">
-        <v>120</v>
+        <v>740</v>
       </c>
       <c r="N168" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O168" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="P168" t="n">
-        <v>11000</v>
+        <v>10230</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>550</v>
+        <v>512</v>
       </c>
       <c r="T168" t="n">
         <v>20</v>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44371</v>
+        <v>44214</v>
       </c>
       <c r="E169" t="n">
         <v>16</v>
@@ -13884,16 +13884,16 @@
         </is>
       </c>
       <c r="M169" t="n">
-        <v>240</v>
+        <v>350</v>
       </c>
       <c r="N169" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O169" t="n">
         <v>12000</v>
       </c>
-      <c r="O169" t="n">
-        <v>13000</v>
-      </c>
       <c r="P169" t="n">
-        <v>12500</v>
+        <v>11429</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>625</v>
+        <v>571</v>
       </c>
       <c r="T169" t="n">
         <v>20</v>
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44238</v>
+        <v>44371</v>
       </c>
       <c r="E170" t="n">
         <v>16</v>
@@ -13967,13 +13967,13 @@
         <v>120</v>
       </c>
       <c r="N170" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O170" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P170" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="T170" t="n">
         <v>20</v>
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44238</v>
+        <v>44371</v>
       </c>
       <c r="E171" t="n">
         <v>16</v>
@@ -14047,13 +14047,13 @@
         <v>240</v>
       </c>
       <c r="N171" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O171" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P171" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>775</v>
+        <v>625</v>
       </c>
       <c r="T171" t="n">
         <v>20</v>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44274</v>
+        <v>44238</v>
       </c>
       <c r="E172" t="n">
         <v>16</v>
@@ -14124,16 +14124,16 @@
         </is>
       </c>
       <c r="M172" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N172" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O172" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P172" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T172" t="n">
         <v>20</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44274</v>
+        <v>44238</v>
       </c>
       <c r="E173" t="n">
         <v>16</v>
@@ -14207,13 +14207,13 @@
         <v>240</v>
       </c>
       <c r="N173" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O173" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P173" t="n">
-        <v>13500</v>
+        <v>15500</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="T173" t="n">
         <v>20</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44320</v>
+        <v>44274</v>
       </c>
       <c r="E174" t="n">
         <v>16</v>
@@ -14280,20 +14280,20 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M174" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N174" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O174" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P174" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>725</v>
+        <v>600</v>
       </c>
       <c r="T174" t="n">
         <v>20</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44314</v>
+        <v>44274</v>
       </c>
       <c r="E175" t="n">
         <v>16</v>
@@ -14364,16 +14364,16 @@
         </is>
       </c>
       <c r="M175" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="N175" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O175" t="n">
         <v>14000</v>
       </c>
-      <c r="O175" t="n">
-        <v>15000</v>
-      </c>
       <c r="P175" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="T175" t="n">
         <v>20</v>
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44364</v>
+        <v>44320</v>
       </c>
       <c r="E176" t="n">
         <v>16</v>
@@ -14440,20 +14440,20 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M176" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="N176" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O176" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P176" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>650</v>
+        <v>725</v>
       </c>
       <c r="T176" t="n">
         <v>20</v>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E177" t="n">
         <v>16</v>
@@ -14524,7 +14524,7 @@
         </is>
       </c>
       <c r="M177" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N177" t="n">
         <v>14000</v>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E178" t="n">
         <v>16</v>
@@ -14600,20 +14600,20 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M178" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N178" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="O178" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P178" t="n">
-        <v>17500</v>
+        <v>13000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="T178" t="n">
         <v>20</v>
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44224</v>
+        <v>44364</v>
       </c>
       <c r="E179" t="n">
         <v>16</v>
@@ -14680,20 +14680,20 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M179" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="N179" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O179" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P179" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>650</v>
+        <v>725</v>
       </c>
       <c r="T179" t="n">
         <v>20</v>
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44224</v>
+        <v>44405</v>
       </c>
       <c r="E180" t="n">
         <v>16</v>
@@ -14767,13 +14767,13 @@
         <v>240</v>
       </c>
       <c r="N180" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O180" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P180" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>725</v>
+        <v>875</v>
       </c>
       <c r="T180" t="n">
         <v>20</v>
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44260</v>
+        <v>44224</v>
       </c>
       <c r="E181" t="n">
         <v>16</v>
@@ -14844,16 +14844,16 @@
         </is>
       </c>
       <c r="M181" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N181" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O181" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P181" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="T181" t="n">
         <v>20</v>
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44260</v>
+        <v>44224</v>
       </c>
       <c r="E182" t="n">
         <v>16</v>
@@ -14924,16 +14924,16 @@
         </is>
       </c>
       <c r="M182" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N182" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O182" t="n">
         <v>15000</v>
       </c>
-      <c r="O182" t="n">
-        <v>16000</v>
-      </c>
       <c r="P182" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="T182" t="n">
         <v>20</v>
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44327</v>
+        <v>44260</v>
       </c>
       <c r="E183" t="n">
         <v>16</v>
@@ -15004,7 +15004,7 @@
         </is>
       </c>
       <c r="M183" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N183" t="n">
         <v>14000</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44327</v>
+        <v>44260</v>
       </c>
       <c r="E184" t="n">
         <v>16</v>
@@ -15087,13 +15087,13 @@
         <v>360</v>
       </c>
       <c r="N184" t="n">
-        <v>15500</v>
+        <v>15000</v>
       </c>
       <c r="O184" t="n">
         <v>16000</v>
       </c>
       <c r="P184" t="n">
-        <v>15750</v>
+        <v>15500</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>788</v>
+        <v>775</v>
       </c>
       <c r="T184" t="n">
         <v>20</v>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44231</v>
+        <v>44327</v>
       </c>
       <c r="E185" t="n">
         <v>16</v>
@@ -15164,16 +15164,16 @@
         </is>
       </c>
       <c r="M185" t="n">
-        <v>740</v>
+        <v>120</v>
       </c>
       <c r="N185" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O185" t="n">
         <v>14000</v>
       </c>
       <c r="P185" t="n">
-        <v>13541</v>
+        <v>14000</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>677</v>
+        <v>700</v>
       </c>
       <c r="T185" t="n">
         <v>20</v>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44231</v>
+        <v>44327</v>
       </c>
       <c r="E186" t="n">
         <v>16</v>
@@ -15244,16 +15244,16 @@
         </is>
       </c>
       <c r="M186" t="n">
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="N186" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="O186" t="n">
         <v>16000</v>
       </c>
       <c r="P186" t="n">
-        <v>15641</v>
+        <v>15750</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="T186" t="n">
         <v>20</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44313</v>
+        <v>44231</v>
       </c>
       <c r="E187" t="n">
         <v>16</v>
@@ -15324,16 +15324,16 @@
         </is>
       </c>
       <c r="M187" t="n">
-        <v>80</v>
+        <v>740</v>
       </c>
       <c r="N187" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O187" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P187" t="n">
-        <v>12000</v>
+        <v>13541</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>600</v>
+        <v>677</v>
       </c>
       <c r="T187" t="n">
         <v>20</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44313</v>
+        <v>44231</v>
       </c>
       <c r="E188" t="n">
         <v>16</v>
@@ -15404,16 +15404,16 @@
         </is>
       </c>
       <c r="M188" t="n">
-        <v>240</v>
+        <v>390</v>
       </c>
       <c r="N188" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O188" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P188" t="n">
-        <v>13500</v>
+        <v>15641</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>675</v>
+        <v>782</v>
       </c>
       <c r="T188" t="n">
         <v>20</v>
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E189" t="n">
         <v>16</v>
@@ -15484,7 +15484,7 @@
         </is>
       </c>
       <c r="M189" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N189" t="n">
         <v>12000</v>
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E190" t="n">
         <v>16</v>
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E191" t="n">
         <v>16</v>
@@ -15647,13 +15647,13 @@
         <v>120</v>
       </c>
       <c r="N191" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O191" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P191" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         </is>
       </c>
       <c r="S191" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="T191" t="n">
         <v>20</v>
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E192" t="n">
         <v>16</v>
@@ -15727,13 +15727,13 @@
         <v>240</v>
       </c>
       <c r="N192" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O192" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P192" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="S192" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="T192" t="n">
         <v>20</v>
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44193</v>
+        <v>44391</v>
       </c>
       <c r="E193" t="n">
         <v>16</v>
@@ -15804,16 +15804,16 @@
         </is>
       </c>
       <c r="M193" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N193" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O193" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P193" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         </is>
       </c>
       <c r="S193" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="T193" t="n">
         <v>20</v>
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44193</v>
+        <v>44391</v>
       </c>
       <c r="E194" t="n">
         <v>16</v>
@@ -15884,16 +15884,16 @@
         </is>
       </c>
       <c r="M194" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N194" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O194" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P194" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         </is>
       </c>
       <c r="S194" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="T194" t="n">
         <v>20</v>
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44351</v>
+        <v>44193</v>
       </c>
       <c r="E195" t="n">
         <v>16</v>
@@ -15964,16 +15964,16 @@
         </is>
       </c>
       <c r="M195" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="N195" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O195" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P195" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         </is>
       </c>
       <c r="S195" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="T195" t="n">
         <v>20</v>
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44351</v>
+        <v>44193</v>
       </c>
       <c r="E196" t="n">
         <v>16</v>
@@ -16044,16 +16044,16 @@
         </is>
       </c>
       <c r="M196" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="N196" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O196" t="n">
         <v>12000</v>
       </c>
-      <c r="O196" t="n">
-        <v>13000</v>
-      </c>
       <c r="P196" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         </is>
       </c>
       <c r="S196" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="T196" t="n">
         <v>20</v>
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E197" t="n">
         <v>16</v>
@@ -16120,20 +16120,20 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M197" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="N197" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O197" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P197" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="S197" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="T197" t="n">
         <v>20</v>
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44196</v>
+        <v>44351</v>
       </c>
       <c r="E198" t="n">
         <v>16</v>
@@ -16200,11 +16200,11 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M198" t="n">
-        <v>540</v>
+        <v>160</v>
       </c>
       <c r="N198" t="n">
         <v>12000</v>
@@ -16213,7 +16213,7 @@
         <v>13000</v>
       </c>
       <c r="P198" t="n">
-        <v>12370</v>
+        <v>12500</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         </is>
       </c>
       <c r="S198" t="n">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="T198" t="n">
         <v>20</v>
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44196</v>
+        <v>44350</v>
       </c>
       <c r="E199" t="n">
         <v>16</v>
@@ -16284,16 +16284,16 @@
         </is>
       </c>
       <c r="M199" t="n">
-        <v>280</v>
+        <v>160</v>
       </c>
       <c r="N199" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O199" t="n">
         <v>14000</v>
       </c>
-      <c r="O199" t="n">
-        <v>15000</v>
-      </c>
       <c r="P199" t="n">
-        <v>14536</v>
+        <v>13500</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         </is>
       </c>
       <c r="S199" t="n">
-        <v>727</v>
+        <v>675</v>
       </c>
       <c r="T199" t="n">
         <v>20</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44315</v>
+        <v>44196</v>
       </c>
       <c r="E200" t="n">
         <v>16</v>
@@ -16364,16 +16364,16 @@
         </is>
       </c>
       <c r="M200" t="n">
-        <v>80</v>
+        <v>540</v>
       </c>
       <c r="N200" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O200" t="n">
         <v>13000</v>
       </c>
       <c r="P200" t="n">
-        <v>13000</v>
+        <v>12370</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         </is>
       </c>
       <c r="S200" t="n">
-        <v>650</v>
+        <v>618</v>
       </c>
       <c r="T200" t="n">
         <v>20</v>
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44315</v>
+        <v>44196</v>
       </c>
       <c r="E201" t="n">
         <v>16</v>
@@ -16444,7 +16444,7 @@
         </is>
       </c>
       <c r="M201" t="n">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="N201" t="n">
         <v>14000</v>
@@ -16453,7 +16453,7 @@
         <v>15000</v>
       </c>
       <c r="P201" t="n">
-        <v>14500</v>
+        <v>14536</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         </is>
       </c>
       <c r="S201" t="n">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="T201" t="n">
         <v>20</v>
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44278</v>
+        <v>44315</v>
       </c>
       <c r="E202" t="n">
         <v>16</v>
@@ -16520,20 +16520,20 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M202" t="n">
-        <v>360</v>
+        <v>80</v>
       </c>
       <c r="N202" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O202" t="n">
         <v>13000</v>
       </c>
       <c r="P202" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="S202" t="n">
-        <v>625</v>
+        <v>650</v>
       </c>
       <c r="T202" t="n">
         <v>20</v>
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44358</v>
+        <v>44315</v>
       </c>
       <c r="E203" t="n">
         <v>16</v>
@@ -16600,20 +16600,20 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M203" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="N203" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O203" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P203" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         </is>
       </c>
       <c r="S203" t="n">
-        <v>550</v>
+        <v>725</v>
       </c>
       <c r="T203" t="n">
         <v>20</v>
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E204" t="n">
         <v>16</v>
@@ -16684,7 +16684,7 @@
         </is>
       </c>
       <c r="M204" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="N204" t="n">
         <v>12000</v>
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E205" t="n">
         <v>16</v>
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E206" t="n">
         <v>16</v>
@@ -16844,7 +16844,7 @@
         </is>
       </c>
       <c r="M206" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N206" t="n">
         <v>12000</v>
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E207" t="n">
         <v>16</v>
@@ -16920,20 +16920,20 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M207" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N207" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O207" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P207" t="n">
-        <v>16500</v>
+        <v>11000</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="S207" t="n">
-        <v>825</v>
+        <v>550</v>
       </c>
       <c r="T207" t="n">
         <v>20</v>
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E208" t="n">
         <v>16</v>
@@ -17000,20 +17000,20 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M208" t="n">
-        <v>660</v>
+        <v>240</v>
       </c>
       <c r="N208" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O208" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="P208" t="n">
-        <v>9273</v>
+        <v>12500</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         </is>
       </c>
       <c r="S208" t="n">
-        <v>464</v>
+        <v>625</v>
       </c>
       <c r="T208" t="n">
         <v>20</v>
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44251</v>
+        <v>44399</v>
       </c>
       <c r="E209" t="n">
         <v>16</v>
@@ -17084,16 +17084,16 @@
         </is>
       </c>
       <c r="M209" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N209" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O209" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P209" t="n">
-        <v>10667</v>
+        <v>16500</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         </is>
       </c>
       <c r="S209" t="n">
-        <v>533</v>
+        <v>825</v>
       </c>
       <c r="T209" t="n">
         <v>20</v>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44292</v>
+        <v>44251</v>
       </c>
       <c r="E210" t="n">
         <v>16</v>
@@ -17160,20 +17160,20 @@
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M210" t="n">
-        <v>240</v>
+        <v>660</v>
       </c>
       <c r="N210" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O210" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="P210" t="n">
-        <v>14500</v>
+        <v>9273</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>725</v>
+        <v>464</v>
       </c>
       <c r="T210" t="n">
         <v>20</v>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44305</v>
+        <v>44251</v>
       </c>
       <c r="E211" t="n">
         <v>16</v>
@@ -17240,20 +17240,20 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M211" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N211" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O211" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P211" t="n">
-        <v>13000</v>
+        <v>10667</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>650</v>
+        <v>533</v>
       </c>
       <c r="T211" t="n">
         <v>20</v>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44305</v>
+        <v>44292</v>
       </c>
       <c r="E212" t="n">
         <v>16</v>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E213" t="n">
         <v>16</v>
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E214" t="n">
         <v>16</v>
@@ -17484,7 +17484,7 @@
         </is>
       </c>
       <c r="M214" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N214" t="n">
         <v>14000</v>
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44245</v>
+        <v>44294</v>
       </c>
       <c r="E215" t="n">
         <v>16</v>
@@ -17567,13 +17567,13 @@
         <v>80</v>
       </c>
       <c r="N215" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O215" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P215" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         </is>
       </c>
       <c r="S215" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="T215" t="n">
         <v>20</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44245</v>
+        <v>44294</v>
       </c>
       <c r="E216" t="n">
         <v>16</v>
@@ -17640,20 +17640,20 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M216" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="N216" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O216" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P216" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>600</v>
+        <v>725</v>
       </c>
       <c r="T216" t="n">
         <v>20</v>
@@ -17720,20 +17720,20 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M217" t="n">
         <v>80</v>
       </c>
       <c r="N217" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O217" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P217" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="S217" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="T217" t="n">
         <v>20</v>
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44202</v>
+        <v>44245</v>
       </c>
       <c r="E218" t="n">
         <v>16</v>
@@ -17800,20 +17800,20 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M218" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="N218" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O218" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P218" t="n">
-        <v>15500</v>
+        <v>12000</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>775</v>
+        <v>600</v>
       </c>
       <c r="T218" t="n">
         <v>20</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44181</v>
+        <v>44245</v>
       </c>
       <c r="E219" t="n">
         <v>16</v>
@@ -17880,20 +17880,20 @@
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M219" t="n">
-        <v>640</v>
+        <v>80</v>
       </c>
       <c r="N219" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="O219" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="P219" t="n">
-        <v>12031</v>
+        <v>11000</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>602</v>
+        <v>550</v>
       </c>
       <c r="T219" t="n">
         <v>20</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44181</v>
+        <v>44202</v>
       </c>
       <c r="E220" t="n">
         <v>16</v>
@@ -17960,20 +17960,20 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M220" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N220" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O220" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P220" t="n">
-        <v>13600</v>
+        <v>15500</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>680</v>
+        <v>775</v>
       </c>
       <c r="T220" t="n">
         <v>20</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44369</v>
+        <v>44181</v>
       </c>
       <c r="E221" t="n">
         <v>16</v>
@@ -18044,16 +18044,16 @@
         </is>
       </c>
       <c r="M221" t="n">
-        <v>80</v>
+        <v>640</v>
       </c>
       <c r="N221" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="O221" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="P221" t="n">
-        <v>11000</v>
+        <v>12031</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>550</v>
+        <v>602</v>
       </c>
       <c r="T221" t="n">
         <v>20</v>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44369</v>
+        <v>44181</v>
       </c>
       <c r="E222" t="n">
         <v>16</v>
@@ -18124,16 +18124,16 @@
         </is>
       </c>
       <c r="M222" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="N222" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O222" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P222" t="n">
-        <v>12500</v>
+        <v>13600</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>625</v>
+        <v>680</v>
       </c>
       <c r="T222" t="n">
         <v>20</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E223" t="n">
         <v>16</v>
@@ -18204,16 +18204,16 @@
         </is>
       </c>
       <c r="M223" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="N223" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="O223" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P223" t="n">
-        <v>11750</v>
+        <v>11000</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>588</v>
+        <v>550</v>
       </c>
       <c r="T223" t="n">
         <v>20</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E224" t="n">
         <v>16</v>
@@ -18284,16 +18284,16 @@
         </is>
       </c>
       <c r="M224" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N224" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O224" t="n">
         <v>13000</v>
       </c>
-      <c r="O224" t="n">
-        <v>14000</v>
-      </c>
       <c r="P224" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="T224" t="n">
         <v>20</v>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44161</v>
+        <v>44307</v>
       </c>
       <c r="E225" t="n">
         <v>16</v>
@@ -18364,16 +18364,16 @@
         </is>
       </c>
       <c r="M225" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="N225" t="n">
-        <v>16000</v>
+        <v>11500</v>
       </c>
       <c r="O225" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P225" t="n">
-        <v>16000</v>
+        <v>11750</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>800</v>
+        <v>588</v>
       </c>
       <c r="T225" t="n">
         <v>20</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44161</v>
+        <v>44307</v>
       </c>
       <c r="E226" t="n">
         <v>16</v>
@@ -18444,16 +18444,16 @@
         </is>
       </c>
       <c r="M226" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N226" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="O226" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P226" t="n">
-        <v>17500</v>
+        <v>13500</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="T226" t="n">
         <v>20</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E227" t="n">
         <v>16</v>
@@ -18524,16 +18524,16 @@
         </is>
       </c>
       <c r="M227" t="n">
-        <v>590</v>
+        <v>80</v>
       </c>
       <c r="N227" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="O227" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P227" t="n">
-        <v>12797</v>
+        <v>16000</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>640</v>
+        <v>800</v>
       </c>
       <c r="T227" t="n">
         <v>20</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E228" t="n">
         <v>16</v>
@@ -18604,16 +18604,16 @@
         </is>
       </c>
       <c r="M228" t="n">
-        <v>450</v>
+        <v>160</v>
       </c>
       <c r="N228" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O228" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P228" t="n">
-        <v>14556</v>
+        <v>17500</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>728</v>
+        <v>875</v>
       </c>
       <c r="T228" t="n">
         <v>20</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44265</v>
+        <v>44195</v>
       </c>
       <c r="E229" t="n">
         <v>16</v>
@@ -18684,16 +18684,16 @@
         </is>
       </c>
       <c r="M229" t="n">
-        <v>80</v>
+        <v>590</v>
       </c>
       <c r="N229" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="O229" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P229" t="n">
-        <v>14000</v>
+        <v>12797</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>700</v>
+        <v>640</v>
       </c>
       <c r="T229" t="n">
         <v>20</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44265</v>
+        <v>44195</v>
       </c>
       <c r="E230" t="n">
         <v>16</v>
@@ -18764,16 +18764,16 @@
         </is>
       </c>
       <c r="M230" t="n">
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="N230" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O230" t="n">
         <v>15000</v>
       </c>
-      <c r="O230" t="n">
-        <v>16000</v>
-      </c>
       <c r="P230" t="n">
-        <v>15500</v>
+        <v>14556</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>775</v>
+        <v>728</v>
       </c>
       <c r="T230" t="n">
         <v>20</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44159</v>
+        <v>44265</v>
       </c>
       <c r="E231" t="n">
         <v>16</v>
@@ -18847,13 +18847,13 @@
         <v>80</v>
       </c>
       <c r="N231" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O231" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P231" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="T231" t="n">
         <v>20</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44159</v>
+        <v>44265</v>
       </c>
       <c r="E232" t="n">
         <v>16</v>
@@ -18924,16 +18924,16 @@
         </is>
       </c>
       <c r="M232" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="N232" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O232" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P232" t="n">
-        <v>18500</v>
+        <v>15500</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>925</v>
+        <v>775</v>
       </c>
       <c r="T232" t="n">
         <v>20</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44333</v>
+        <v>44159</v>
       </c>
       <c r="E233" t="n">
         <v>16</v>
@@ -19000,20 +19000,20 @@
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M233" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N233" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O233" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P233" t="n">
-        <v>13500</v>
+        <v>17000</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="T233" t="n">
         <v>20</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44201</v>
+        <v>44159</v>
       </c>
       <c r="E234" t="n">
         <v>16</v>
@@ -19080,20 +19080,20 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M234" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N234" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O234" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P234" t="n">
-        <v>15500</v>
+        <v>18500</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>775</v>
+        <v>925</v>
       </c>
       <c r="T234" t="n">
         <v>20</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44277</v>
+        <v>44333</v>
       </c>
       <c r="E235" t="n">
         <v>16</v>
@@ -19160,20 +19160,20 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M235" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="N235" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O235" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P235" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>600</v>
+        <v>675</v>
       </c>
       <c r="T235" t="n">
         <v>20</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44277</v>
+        <v>44201</v>
       </c>
       <c r="E236" t="n">
         <v>16</v>
@@ -19240,20 +19240,20 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M236" t="n">
         <v>240</v>
       </c>
       <c r="N236" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O236" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P236" t="n">
-        <v>13500</v>
+        <v>15500</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="T236" t="n">
         <v>20</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44309</v>
+        <v>44277</v>
       </c>
       <c r="E237" t="n">
         <v>16</v>
@@ -19320,20 +19320,20 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M237" t="n">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="N237" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O237" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P237" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>675</v>
+        <v>600</v>
       </c>
       <c r="T237" t="n">
         <v>20</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44188</v>
+        <v>44277</v>
       </c>
       <c r="E238" t="n">
         <v>16</v>
@@ -19400,20 +19400,20 @@
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M238" t="n">
-        <v>790</v>
+        <v>240</v>
       </c>
       <c r="N238" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O238" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P238" t="n">
-        <v>10557</v>
+        <v>13500</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>528</v>
+        <v>675</v>
       </c>
       <c r="T238" t="n">
         <v>20</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44188</v>
+        <v>44309</v>
       </c>
       <c r="E239" t="n">
         <v>16</v>
@@ -19484,16 +19484,16 @@
         </is>
       </c>
       <c r="M239" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="N239" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O239" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P239" t="n">
-        <v>12429</v>
+        <v>13500</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>621</v>
+        <v>675</v>
       </c>
       <c r="T239" t="n">
         <v>20</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44344</v>
+        <v>44188</v>
       </c>
       <c r="E240" t="n">
         <v>16</v>
@@ -19564,16 +19564,16 @@
         </is>
       </c>
       <c r="M240" t="n">
-        <v>80</v>
+        <v>790</v>
       </c>
       <c r="N240" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O240" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P240" t="n">
-        <v>12000</v>
+        <v>10557</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>600</v>
+        <v>528</v>
       </c>
       <c r="T240" t="n">
         <v>20</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44344</v>
+        <v>44188</v>
       </c>
       <c r="E241" t="n">
         <v>16</v>
@@ -19644,16 +19644,16 @@
         </is>
       </c>
       <c r="M241" t="n">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="N241" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O241" t="n">
         <v>13000</v>
       </c>
-      <c r="O241" t="n">
-        <v>14000</v>
-      </c>
       <c r="P241" t="n">
-        <v>13500</v>
+        <v>12429</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>675</v>
+        <v>621</v>
       </c>
       <c r="T241" t="n">
         <v>20</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E242" t="n">
         <v>16</v>
@@ -19727,13 +19727,13 @@
         <v>80</v>
       </c>
       <c r="N242" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O242" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P242" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="T242" t="n">
         <v>20</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E243" t="n">
         <v>16</v>
@@ -19804,16 +19804,16 @@
         </is>
       </c>
       <c r="M243" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N243" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="O243" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P243" t="n">
-        <v>14750</v>
+        <v>13500</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>738</v>
+        <v>675</v>
       </c>
       <c r="T243" t="n">
         <v>20</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E244" t="n">
         <v>16</v>
@@ -19880,20 +19880,20 @@
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M244" t="n">
-        <v>360</v>
+        <v>80</v>
       </c>
       <c r="N244" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="O244" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P244" t="n">
-        <v>14750</v>
+        <v>13000</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>738</v>
+        <v>650</v>
       </c>
       <c r="T244" t="n">
         <v>20</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44253</v>
+        <v>44319</v>
       </c>
       <c r="E245" t="n">
         <v>16</v>
@@ -19960,20 +19960,20 @@
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M245" t="n">
-        <v>740</v>
+        <v>240</v>
       </c>
       <c r="N245" t="n">
-        <v>9000</v>
+        <v>14500</v>
       </c>
       <c r="O245" t="n">
-        <v>9500</v>
+        <v>15000</v>
       </c>
       <c r="P245" t="n">
-        <v>9216</v>
+        <v>14750</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>461</v>
+        <v>738</v>
       </c>
       <c r="T245" t="n">
         <v>20</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E246" t="n">
         <v>16</v>
@@ -20044,16 +20044,16 @@
         </is>
       </c>
       <c r="M246" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="N246" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="O246" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P246" t="n">
-        <v>10286</v>
+        <v>14750</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>514</v>
+        <v>738</v>
       </c>
       <c r="T246" t="n">
         <v>20</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="E247" t="n">
         <v>16</v>
@@ -20124,16 +20124,16 @@
         </is>
       </c>
       <c r="M247" t="n">
-        <v>120</v>
+        <v>740</v>
       </c>
       <c r="N247" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O247" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="P247" t="n">
-        <v>11000</v>
+        <v>9216</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>550</v>
+        <v>461</v>
       </c>
       <c r="T247" t="n">
         <v>20</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="E248" t="n">
         <v>16</v>
@@ -20204,16 +20204,16 @@
         </is>
       </c>
       <c r="M248" t="n">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="N248" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O248" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="P248" t="n">
-        <v>12500</v>
+        <v>10286</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>625</v>
+        <v>514</v>
       </c>
       <c r="T248" t="n">
         <v>20</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44160</v>
+        <v>44281</v>
       </c>
       <c r="E249" t="n">
         <v>16</v>
@@ -20284,16 +20284,16 @@
         </is>
       </c>
       <c r="M249" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N249" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O249" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P249" t="n">
-        <v>16500</v>
+        <v>11000</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>825</v>
+        <v>550</v>
       </c>
       <c r="T249" t="n">
         <v>20</v>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44160</v>
+        <v>44281</v>
       </c>
       <c r="E250" t="n">
         <v>16</v>
@@ -20364,16 +20364,16 @@
         </is>
       </c>
       <c r="M250" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N250" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O250" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P250" t="n">
-        <v>18500</v>
+        <v>12500</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>925</v>
+        <v>625</v>
       </c>
       <c r="T250" t="n">
         <v>20</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44186</v>
+        <v>44160</v>
       </c>
       <c r="E251" t="n">
         <v>16</v>
@@ -20444,16 +20444,16 @@
         </is>
       </c>
       <c r="M251" t="n">
-        <v>740</v>
+        <v>160</v>
       </c>
       <c r="N251" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O251" t="n">
-        <v>10500</v>
+        <v>17000</v>
       </c>
       <c r="P251" t="n">
-        <v>10297</v>
+        <v>16500</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>515</v>
+        <v>825</v>
       </c>
       <c r="T251" t="n">
         <v>20</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44186</v>
+        <v>44160</v>
       </c>
       <c r="E252" t="n">
         <v>16</v>
@@ -20524,16 +20524,16 @@
         </is>
       </c>
       <c r="M252" t="n">
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="N252" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="O252" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P252" t="n">
-        <v>11571</v>
+        <v>18500</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>579</v>
+        <v>925</v>
       </c>
       <c r="T252" t="n">
         <v>20</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44211</v>
+        <v>44186</v>
       </c>
       <c r="E253" t="n">
         <v>16</v>
@@ -20604,16 +20604,16 @@
         </is>
       </c>
       <c r="M253" t="n">
-        <v>640</v>
+        <v>740</v>
       </c>
       <c r="N253" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O253" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="P253" t="n">
-        <v>12469</v>
+        <v>10297</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>623</v>
+        <v>515</v>
       </c>
       <c r="T253" t="n">
         <v>20</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44211</v>
+        <v>44186</v>
       </c>
       <c r="E254" t="n">
         <v>16</v>
@@ -20684,16 +20684,16 @@
         </is>
       </c>
       <c r="M254" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N254" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O254" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P254" t="n">
-        <v>14600</v>
+        <v>11571</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>730</v>
+        <v>579</v>
       </c>
       <c r="T254" t="n">
         <v>20</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44301</v>
+        <v>44211</v>
       </c>
       <c r="E255" t="n">
         <v>16</v>
@@ -20764,16 +20764,16 @@
         </is>
       </c>
       <c r="M255" t="n">
-        <v>80</v>
+        <v>640</v>
       </c>
       <c r="N255" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O255" t="n">
         <v>13000</v>
       </c>
       <c r="P255" t="n">
-        <v>13000</v>
+        <v>12469</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>650</v>
+        <v>623</v>
       </c>
       <c r="T255" t="n">
         <v>20</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44301</v>
+        <v>44211</v>
       </c>
       <c r="E256" t="n">
         <v>16</v>
@@ -20844,7 +20844,7 @@
         </is>
       </c>
       <c r="M256" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N256" t="n">
         <v>14000</v>
@@ -20853,7 +20853,7 @@
         <v>15000</v>
       </c>
       <c r="P256" t="n">
-        <v>14500</v>
+        <v>14600</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="T256" t="n">
         <v>20</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44370</v>
+        <v>44301</v>
       </c>
       <c r="E257" t="n">
         <v>16</v>
@@ -20924,16 +20924,16 @@
         </is>
       </c>
       <c r="M257" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N257" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O257" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P257" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="T257" t="n">
         <v>20</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44370</v>
+        <v>44301</v>
       </c>
       <c r="E258" t="n">
         <v>16</v>
@@ -21004,16 +21004,16 @@
         </is>
       </c>
       <c r="M258" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N258" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O258" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P258" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="T258" t="n">
         <v>20</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44230</v>
+        <v>44370</v>
       </c>
       <c r="E259" t="n">
         <v>16</v>
@@ -21084,16 +21084,16 @@
         </is>
       </c>
       <c r="M259" t="n">
-        <v>740</v>
+        <v>60</v>
       </c>
       <c r="N259" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="O259" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P259" t="n">
-        <v>12770</v>
+        <v>11000</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>638</v>
+        <v>550</v>
       </c>
       <c r="T259" t="n">
         <v>20</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44230</v>
+        <v>44370</v>
       </c>
       <c r="E260" t="n">
         <v>16</v>
@@ -21164,16 +21164,16 @@
         </is>
       </c>
       <c r="M260" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N260" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="O260" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P260" t="n">
-        <v>13667</v>
+        <v>12500</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>683</v>
+        <v>625</v>
       </c>
       <c r="T260" t="n">
         <v>20</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44382</v>
+        <v>44230</v>
       </c>
       <c r="E261" t="n">
         <v>16</v>
@@ -21244,16 +21244,16 @@
         </is>
       </c>
       <c r="M261" t="n">
-        <v>80</v>
+        <v>740</v>
       </c>
       <c r="N261" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="O261" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P261" t="n">
-        <v>10000</v>
+        <v>12770</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>500</v>
+        <v>638</v>
       </c>
       <c r="T261" t="n">
         <v>20</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44382</v>
+        <v>44230</v>
       </c>
       <c r="E262" t="n">
         <v>16</v>
@@ -21324,16 +21324,16 @@
         </is>
       </c>
       <c r="M262" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N262" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="O262" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P262" t="n">
-        <v>11500</v>
+        <v>13667</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>575</v>
+        <v>683</v>
       </c>
       <c r="T262" t="n">
         <v>20</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44232</v>
+        <v>44382</v>
       </c>
       <c r="E263" t="n">
         <v>16</v>
@@ -21404,16 +21404,16 @@
         </is>
       </c>
       <c r="M263" t="n">
-        <v>760</v>
+        <v>80</v>
       </c>
       <c r="N263" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="O263" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P263" t="n">
-        <v>14789</v>
+        <v>10000</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>739</v>
+        <v>500</v>
       </c>
       <c r="T263" t="n">
         <v>20</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44232</v>
+        <v>44382</v>
       </c>
       <c r="E264" t="n">
         <v>16</v>
@@ -21484,16 +21484,16 @@
         </is>
       </c>
       <c r="M264" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N264" t="n">
-        <v>15500</v>
+        <v>11000</v>
       </c>
       <c r="O264" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P264" t="n">
-        <v>15750</v>
+        <v>11500</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>788</v>
+        <v>575</v>
       </c>
       <c r="T264" t="n">
         <v>20</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44398</v>
+        <v>44232</v>
       </c>
       <c r="E265" t="n">
         <v>16</v>
@@ -21564,16 +21564,16 @@
         </is>
       </c>
       <c r="M265" t="n">
-        <v>80</v>
+        <v>760</v>
       </c>
       <c r="N265" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="O265" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P265" t="n">
-        <v>11000</v>
+        <v>14789</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>550</v>
+        <v>739</v>
       </c>
       <c r="T265" t="n">
         <v>20</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44398</v>
+        <v>44232</v>
       </c>
       <c r="E266" t="n">
         <v>16</v>
@@ -21644,16 +21644,16 @@
         </is>
       </c>
       <c r="M266" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="N266" t="n">
-        <v>12000</v>
+        <v>15500</v>
       </c>
       <c r="O266" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P266" t="n">
-        <v>12500</v>
+        <v>15750</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>625</v>
+        <v>788</v>
       </c>
       <c r="T266" t="n">
         <v>20</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E267" t="n">
         <v>16</v>
@@ -21727,13 +21727,13 @@
         <v>80</v>
       </c>
       <c r="N267" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O267" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P267" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="T267" t="n">
         <v>20</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E268" t="n">
         <v>16</v>
@@ -21804,16 +21804,16 @@
         </is>
       </c>
       <c r="M268" t="n">
-        <v>360</v>
+        <v>160</v>
       </c>
       <c r="N268" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O268" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P268" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="T268" t="n">
         <v>20</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E269" t="n">
         <v>16</v>
@@ -21887,13 +21887,13 @@
         <v>80</v>
       </c>
       <c r="N269" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O269" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P269" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="T269" t="n">
         <v>20</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E270" t="n">
         <v>16</v>
@@ -21964,16 +21964,16 @@
         </is>
       </c>
       <c r="M270" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="N270" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O270" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P270" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="T270" t="n">
         <v>20</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44286</v>
+        <v>44355</v>
       </c>
       <c r="E271" t="n">
         <v>16</v>
@@ -22044,16 +22044,16 @@
         </is>
       </c>
       <c r="M271" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N271" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O271" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P271" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="T271" t="n">
         <v>20</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44286</v>
+        <v>44355</v>
       </c>
       <c r="E272" t="n">
         <v>16</v>
@@ -22124,16 +22124,16 @@
         </is>
       </c>
       <c r="M272" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N272" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O272" t="n">
         <v>13000</v>
       </c>
-      <c r="O272" t="n">
-        <v>14000</v>
-      </c>
       <c r="P272" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="T272" t="n">
         <v>20</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44244</v>
+        <v>44286</v>
       </c>
       <c r="E273" t="n">
         <v>16</v>
@@ -22207,13 +22207,13 @@
         <v>120</v>
       </c>
       <c r="N273" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O273" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P273" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="T273" t="n">
         <v>20</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44244</v>
+        <v>44286</v>
       </c>
       <c r="E274" t="n">
         <v>16</v>
@@ -22287,13 +22287,13 @@
         <v>240</v>
       </c>
       <c r="N274" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O274" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P274" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="T274" t="n">
         <v>20</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44343</v>
+        <v>44244</v>
       </c>
       <c r="E275" t="n">
         <v>16</v>
@@ -22364,16 +22364,16 @@
         </is>
       </c>
       <c r="M275" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N275" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O275" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P275" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="T275" t="n">
         <v>20</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44343</v>
+        <v>44244</v>
       </c>
       <c r="E276" t="n">
         <v>16</v>
@@ -22444,16 +22444,16 @@
         </is>
       </c>
       <c r="M276" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N276" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O276" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P276" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="T276" t="n">
         <v>20</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44223</v>
+        <v>44343</v>
       </c>
       <c r="E277" t="n">
         <v>16</v>
@@ -22524,16 +22524,16 @@
         </is>
       </c>
       <c r="M277" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N277" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O277" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P277" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="T277" t="n">
         <v>20</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44223</v>
+        <v>44343</v>
       </c>
       <c r="E278" t="n">
         <v>16</v>
@@ -22604,16 +22604,16 @@
         </is>
       </c>
       <c r="M278" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N278" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="O278" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P278" t="n">
-        <v>13750</v>
+        <v>12500</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>688</v>
+        <v>625</v>
       </c>
       <c r="T278" t="n">
         <v>20</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44376</v>
+        <v>44223</v>
       </c>
       <c r="E279" t="n">
         <v>16</v>
@@ -22684,16 +22684,16 @@
         </is>
       </c>
       <c r="M279" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N279" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O279" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P279" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="T279" t="n">
         <v>20</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44376</v>
+        <v>44223</v>
       </c>
       <c r="E280" t="n">
         <v>16</v>
@@ -22767,13 +22767,13 @@
         <v>240</v>
       </c>
       <c r="N280" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="O280" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P280" t="n">
-        <v>12500</v>
+        <v>13750</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>625</v>
+        <v>688</v>
       </c>
       <c r="T280" t="n">
         <v>20</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E281" t="n">
         <v>16</v>
@@ -22844,16 +22844,16 @@
         </is>
       </c>
       <c r="M281" t="n">
-        <v>840</v>
+        <v>80</v>
       </c>
       <c r="N281" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O281" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P281" t="n">
-        <v>12524</v>
+        <v>11000</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>626</v>
+        <v>550</v>
       </c>
       <c r="T281" t="n">
         <v>20</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E282" t="n">
         <v>16</v>
@@ -22924,16 +22924,16 @@
         </is>
       </c>
       <c r="M282" t="n">
-        <v>450</v>
+        <v>240</v>
       </c>
       <c r="N282" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="O282" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P282" t="n">
-        <v>13778</v>
+        <v>12500</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>689</v>
+        <v>625</v>
       </c>
       <c r="T282" t="n">
         <v>20</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44179</v>
+        <v>44208</v>
       </c>
       <c r="E283" t="n">
         <v>16</v>
@@ -23004,16 +23004,16 @@
         </is>
       </c>
       <c r="M283" t="n">
-        <v>640</v>
+        <v>840</v>
       </c>
       <c r="N283" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="O283" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P283" t="n">
-        <v>11766</v>
+        <v>12524</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>588</v>
+        <v>626</v>
       </c>
       <c r="T283" t="n">
         <v>20</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44179</v>
+        <v>44208</v>
       </c>
       <c r="E284" t="n">
         <v>16</v>
@@ -23084,16 +23084,16 @@
         </is>
       </c>
       <c r="M284" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="N284" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="O284" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P284" t="n">
-        <v>12667</v>
+        <v>13778</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>633</v>
+        <v>689</v>
       </c>
       <c r="T284" t="n">
         <v>20</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44284</v>
+        <v>44179</v>
       </c>
       <c r="E285" t="n">
         <v>16</v>
@@ -23164,16 +23164,16 @@
         </is>
       </c>
       <c r="M285" t="n">
-        <v>120</v>
+        <v>640</v>
       </c>
       <c r="N285" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="O285" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P285" t="n">
-        <v>13000</v>
+        <v>11766</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>650</v>
+        <v>588</v>
       </c>
       <c r="T285" t="n">
         <v>20</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44284</v>
+        <v>44179</v>
       </c>
       <c r="E286" t="n">
         <v>16</v>
@@ -23244,16 +23244,16 @@
         </is>
       </c>
       <c r="M286" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N286" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="O286" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P286" t="n">
-        <v>14500</v>
+        <v>12667</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>725</v>
+        <v>633</v>
       </c>
       <c r="T286" t="n">
         <v>20</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44334</v>
+        <v>44284</v>
       </c>
       <c r="E287" t="n">
         <v>16</v>
@@ -23324,16 +23324,16 @@
         </is>
       </c>
       <c r="M287" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N287" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O287" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P287" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="T287" t="n">
         <v>20</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44334</v>
+        <v>44284</v>
       </c>
       <c r="E288" t="n">
         <v>16</v>
@@ -23404,16 +23404,16 @@
         </is>
       </c>
       <c r="M288" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N288" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O288" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P288" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="T288" t="n">
         <v>20</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E289" t="n">
         <v>16</v>
@@ -23487,13 +23487,13 @@
         <v>80</v>
       </c>
       <c r="N289" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O289" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P289" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="T289" t="n">
         <v>20</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E290" t="n">
         <v>16</v>
@@ -23567,28 +23567,188 @@
         <v>240</v>
       </c>
       <c r="N290" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O290" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P290" t="n">
+        <v>12500</v>
+      </c>
+      <c r="Q290" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R290" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S290" t="n">
+        <v>625</v>
+      </c>
+      <c r="T290" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>7</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D291" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E291" t="n">
+        <v>16</v>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G291" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I291" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>Pintón</t>
+        </is>
+      </c>
+      <c r="M291" t="n">
+        <v>80</v>
+      </c>
+      <c r="N291" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O291" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P291" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q291" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R291" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S291" t="n">
+        <v>800</v>
+      </c>
+      <c r="T291" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>7</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D292" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E292" t="n">
+        <v>16</v>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G292" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I292" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>Primera Pintón</t>
+        </is>
+      </c>
+      <c r="M292" t="n">
+        <v>240</v>
+      </c>
+      <c r="N292" t="n">
         <v>17000</v>
       </c>
-      <c r="O290" t="n">
+      <c r="O292" t="n">
         <v>18000</v>
       </c>
-      <c r="P290" t="n">
+      <c r="P292" t="n">
         <v>17500</v>
       </c>
-      <c r="Q290" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R290" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S290" t="n">
+      <c r="Q292" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R292" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S292" t="n">
         <v>875</v>
       </c>
-      <c r="T290" t="n">
+      <c r="T292" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T292"/>
+  <dimension ref="A1:T294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44215</v>
+        <v>44414</v>
       </c>
       <c r="E74" t="n">
         <v>16</v>
@@ -6284,16 +6284,16 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>640</v>
+        <v>300</v>
       </c>
       <c r="N74" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O74" t="n">
         <v>11000</v>
       </c>
       <c r="P74" t="n">
-        <v>10469</v>
+        <v>11000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>523</v>
+        <v>550</v>
       </c>
       <c r="T74" t="n">
         <v>20</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44215</v>
+        <v>44414</v>
       </c>
       <c r="E75" t="n">
         <v>16</v>
@@ -6364,16 +6364,16 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N75" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="O75" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P75" t="n">
-        <v>11750</v>
+        <v>12500</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>588</v>
+        <v>625</v>
       </c>
       <c r="T75" t="n">
         <v>20</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44308</v>
+        <v>44215</v>
       </c>
       <c r="E76" t="n">
         <v>16</v>
@@ -6444,16 +6444,16 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>80</v>
+        <v>640</v>
       </c>
       <c r="N76" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O76" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P76" t="n">
-        <v>13000</v>
+        <v>10469</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>650</v>
+        <v>523</v>
       </c>
       <c r="T76" t="n">
         <v>20</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44308</v>
+        <v>44215</v>
       </c>
       <c r="E77" t="n">
         <v>16</v>
@@ -6524,16 +6524,16 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N77" t="n">
-        <v>14000</v>
+        <v>11500</v>
       </c>
       <c r="O77" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P77" t="n">
-        <v>14500</v>
+        <v>11750</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>725</v>
+        <v>588</v>
       </c>
       <c r="T77" t="n">
         <v>20</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44239</v>
+        <v>44308</v>
       </c>
       <c r="E78" t="n">
         <v>16</v>
@@ -6600,20 +6600,20 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="N78" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O78" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P78" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="T78" t="n">
         <v>20</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44379</v>
+        <v>44308</v>
       </c>
       <c r="E79" t="n">
         <v>16</v>
@@ -6680,20 +6680,20 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N79" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O79" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P79" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>500</v>
+        <v>725</v>
       </c>
       <c r="T79" t="n">
         <v>20</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44379</v>
+        <v>44239</v>
       </c>
       <c r="E80" t="n">
         <v>16</v>
@@ -6764,7 +6764,7 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N80" t="n">
         <v>11000</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44306</v>
+        <v>44379</v>
       </c>
       <c r="E81" t="n">
         <v>16</v>
@@ -6844,16 +6844,16 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N81" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O81" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P81" t="n">
-        <v>11500</v>
+        <v>10000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>575</v>
+        <v>500</v>
       </c>
       <c r="T81" t="n">
         <v>20</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44306</v>
+        <v>44379</v>
       </c>
       <c r="E82" t="n">
         <v>16</v>
@@ -6924,16 +6924,16 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N82" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O82" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P82" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="T82" t="n">
         <v>20</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44356</v>
+        <v>44306</v>
       </c>
       <c r="E83" t="n">
         <v>16</v>
@@ -7004,16 +7004,16 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="N83" t="n">
         <v>11000</v>
       </c>
       <c r="O83" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P83" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="T83" t="n">
         <v>20</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44356</v>
+        <v>44306</v>
       </c>
       <c r="E84" t="n">
         <v>16</v>
@@ -7084,16 +7084,16 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="N84" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O84" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P84" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="T84" t="n">
         <v>20</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44396</v>
+        <v>44356</v>
       </c>
       <c r="E85" t="n">
         <v>16</v>
@@ -7164,7 +7164,7 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N85" t="n">
         <v>11000</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44396</v>
+        <v>44356</v>
       </c>
       <c r="E86" t="n">
         <v>16</v>
@@ -7244,7 +7244,7 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N86" t="n">
         <v>12000</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44340</v>
+        <v>44396</v>
       </c>
       <c r="E87" t="n">
         <v>16</v>
@@ -7324,7 +7324,7 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N87" t="n">
         <v>11000</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44340</v>
+        <v>44396</v>
       </c>
       <c r="E88" t="n">
         <v>16</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44174</v>
+        <v>44340</v>
       </c>
       <c r="E89" t="n">
         <v>16</v>
@@ -7484,16 +7484,16 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>640</v>
+        <v>120</v>
       </c>
       <c r="N89" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O89" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P89" t="n">
-        <v>14469</v>
+        <v>11000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>723</v>
+        <v>550</v>
       </c>
       <c r="T89" t="n">
         <v>20</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44174</v>
+        <v>44340</v>
       </c>
       <c r="E90" t="n">
         <v>16</v>
@@ -7564,16 +7564,16 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N90" t="n">
-        <v>15500</v>
+        <v>12000</v>
       </c>
       <c r="O90" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P90" t="n">
-        <v>15667</v>
+        <v>12500</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>783</v>
+        <v>625</v>
       </c>
       <c r="T90" t="n">
         <v>20</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44221</v>
+        <v>44174</v>
       </c>
       <c r="E91" t="n">
         <v>16</v>
@@ -7644,16 +7644,16 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>80</v>
+        <v>640</v>
       </c>
       <c r="N91" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O91" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P91" t="n">
-        <v>12000</v>
+        <v>14469</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>600</v>
+        <v>723</v>
       </c>
       <c r="T91" t="n">
         <v>20</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44221</v>
+        <v>44174</v>
       </c>
       <c r="E92" t="n">
         <v>16</v>
@@ -7724,16 +7724,16 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N92" t="n">
-        <v>13000</v>
+        <v>15500</v>
       </c>
       <c r="O92" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P92" t="n">
-        <v>13500</v>
+        <v>15667</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>675</v>
+        <v>783</v>
       </c>
       <c r="T92" t="n">
         <v>20</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44271</v>
+        <v>44221</v>
       </c>
       <c r="E93" t="n">
         <v>16</v>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N93" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O93" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P93" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="T93" t="n">
         <v>20</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44271</v>
+        <v>44221</v>
       </c>
       <c r="E94" t="n">
         <v>16</v>
@@ -7887,13 +7887,13 @@
         <v>240</v>
       </c>
       <c r="N94" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O94" t="n">
         <v>14000</v>
       </c>
-      <c r="O94" t="n">
-        <v>15000</v>
-      </c>
       <c r="P94" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="T94" t="n">
         <v>20</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44280</v>
+        <v>44271</v>
       </c>
       <c r="E95" t="n">
         <v>16</v>
@@ -7964,16 +7964,16 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N95" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O95" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P95" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="T95" t="n">
         <v>20</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44280</v>
+        <v>44271</v>
       </c>
       <c r="E96" t="n">
         <v>16</v>
@@ -8044,16 +8044,16 @@
         </is>
       </c>
       <c r="M96" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="N96" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O96" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P96" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="T96" t="n">
         <v>20</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44299</v>
+        <v>44280</v>
       </c>
       <c r="E97" t="n">
         <v>16</v>
@@ -8127,13 +8127,13 @@
         <v>80</v>
       </c>
       <c r="N97" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O97" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P97" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="T97" t="n">
         <v>20</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44299</v>
+        <v>44280</v>
       </c>
       <c r="E98" t="n">
         <v>16</v>
@@ -8204,16 +8204,16 @@
         </is>
       </c>
       <c r="M98" t="n">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="N98" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O98" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P98" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="T98" t="n">
         <v>20</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44162</v>
+        <v>44299</v>
       </c>
       <c r="E99" t="n">
         <v>16</v>
@@ -8284,16 +8284,16 @@
         </is>
       </c>
       <c r="M99" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N99" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O99" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P99" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="T99" t="n">
         <v>20</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44162</v>
+        <v>44299</v>
       </c>
       <c r="E100" t="n">
         <v>16</v>
@@ -8364,16 +8364,16 @@
         </is>
       </c>
       <c r="M100" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N100" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O100" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P100" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="T100" t="n">
         <v>20</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44342</v>
+        <v>44162</v>
       </c>
       <c r="E101" t="n">
         <v>16</v>
@@ -8444,16 +8444,16 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N101" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O101" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P101" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="T101" t="n">
         <v>20</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44342</v>
+        <v>44162</v>
       </c>
       <c r="E102" t="n">
         <v>16</v>
@@ -8527,13 +8527,13 @@
         <v>240</v>
       </c>
       <c r="N102" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O102" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P102" t="n">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>625</v>
+        <v>825</v>
       </c>
       <c r="T102" t="n">
         <v>20</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44362</v>
+        <v>44342</v>
       </c>
       <c r="E103" t="n">
         <v>16</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44362</v>
+        <v>44342</v>
       </c>
       <c r="E104" t="n">
         <v>16</v>
@@ -8684,7 +8684,7 @@
         </is>
       </c>
       <c r="M104" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N104" t="n">
         <v>12000</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44175</v>
+        <v>44362</v>
       </c>
       <c r="E105" t="n">
         <v>16</v>
@@ -8764,16 +8764,16 @@
         </is>
       </c>
       <c r="M105" t="n">
-        <v>480</v>
+        <v>80</v>
       </c>
       <c r="N105" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O105" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P105" t="n">
-        <v>14417</v>
+        <v>11000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>721</v>
+        <v>550</v>
       </c>
       <c r="T105" t="n">
         <v>20</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44175</v>
+        <v>44362</v>
       </c>
       <c r="E106" t="n">
         <v>16</v>
@@ -8844,16 +8844,16 @@
         </is>
       </c>
       <c r="M106" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="N106" t="n">
-        <v>15500</v>
+        <v>12000</v>
       </c>
       <c r="O106" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P106" t="n">
-        <v>15826</v>
+        <v>12500</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>791</v>
+        <v>625</v>
       </c>
       <c r="T106" t="n">
         <v>20</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44384</v>
+        <v>44175</v>
       </c>
       <c r="E107" t="n">
         <v>16</v>
@@ -8924,16 +8924,16 @@
         </is>
       </c>
       <c r="M107" t="n">
-        <v>80</v>
+        <v>480</v>
       </c>
       <c r="N107" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O107" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P107" t="n">
-        <v>11000</v>
+        <v>14417</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>550</v>
+        <v>721</v>
       </c>
       <c r="T107" t="n">
         <v>20</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44384</v>
+        <v>44175</v>
       </c>
       <c r="E108" t="n">
         <v>16</v>
@@ -9004,16 +9004,16 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="N108" t="n">
-        <v>12000</v>
+        <v>15500</v>
       </c>
       <c r="O108" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P108" t="n">
-        <v>12500</v>
+        <v>15826</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>625</v>
+        <v>791</v>
       </c>
       <c r="T108" t="n">
         <v>20</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44242</v>
+        <v>44384</v>
       </c>
       <c r="E109" t="n">
         <v>16</v>
@@ -9087,13 +9087,13 @@
         <v>80</v>
       </c>
       <c r="N109" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O109" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P109" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="T109" t="n">
         <v>20</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44242</v>
+        <v>44384</v>
       </c>
       <c r="E110" t="n">
         <v>16</v>
@@ -9164,16 +9164,16 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N110" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O110" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P110" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         </is>
       </c>
       <c r="S110" t="n">
-        <v>475</v>
+        <v>625</v>
       </c>
       <c r="T110" t="n">
         <v>20</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44204</v>
+        <v>44242</v>
       </c>
       <c r="E111" t="n">
         <v>16</v>
@@ -9244,16 +9244,16 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N111" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O111" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P111" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="T111" t="n">
         <v>20</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44204</v>
+        <v>44242</v>
       </c>
       <c r="E112" t="n">
         <v>16</v>
@@ -9324,16 +9324,16 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N112" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O112" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P112" t="n">
-        <v>16500</v>
+        <v>9500</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>825</v>
+        <v>475</v>
       </c>
       <c r="T112" t="n">
         <v>20</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44323</v>
+        <v>44204</v>
       </c>
       <c r="E113" t="n">
         <v>16</v>
@@ -9400,20 +9400,20 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N113" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O113" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P113" t="n">
-        <v>16500</v>
+        <v>15000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>825</v>
+        <v>750</v>
       </c>
       <c r="T113" t="n">
         <v>20</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44200</v>
+        <v>44204</v>
       </c>
       <c r="E114" t="n">
         <v>16</v>
@@ -9480,20 +9480,20 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M114" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N114" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O114" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P114" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="T114" t="n">
         <v>20</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44200</v>
+        <v>44323</v>
       </c>
       <c r="E115" t="n">
         <v>16</v>
@@ -9567,13 +9567,13 @@
         <v>240</v>
       </c>
       <c r="N115" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O115" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P115" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="T115" t="n">
         <v>20</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44363</v>
+        <v>44200</v>
       </c>
       <c r="E116" t="n">
         <v>16</v>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="N116" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O116" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P116" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>600</v>
+        <v>725</v>
       </c>
       <c r="T116" t="n">
         <v>20</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44363</v>
+        <v>44200</v>
       </c>
       <c r="E117" t="n">
         <v>16</v>
@@ -9727,13 +9727,13 @@
         <v>240</v>
       </c>
       <c r="N117" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O117" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P117" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="T117" t="n">
         <v>20</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44216</v>
+        <v>44363</v>
       </c>
       <c r="E118" t="n">
         <v>16</v>
@@ -9804,16 +9804,16 @@
         </is>
       </c>
       <c r="M118" t="n">
-        <v>740</v>
+        <v>80</v>
       </c>
       <c r="N118" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O118" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P118" t="n">
-        <v>10405</v>
+        <v>12000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="T118" t="n">
         <v>20</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44216</v>
+        <v>44363</v>
       </c>
       <c r="E119" t="n">
         <v>16</v>
@@ -9884,16 +9884,16 @@
         </is>
       </c>
       <c r="M119" t="n">
-        <v>450</v>
+        <v>240</v>
       </c>
       <c r="N119" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="O119" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P119" t="n">
-        <v>11667</v>
+        <v>13500</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>583</v>
+        <v>675</v>
       </c>
       <c r="T119" t="n">
         <v>20</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44349</v>
+        <v>44216</v>
       </c>
       <c r="E120" t="n">
         <v>16</v>
@@ -9964,7 +9964,7 @@
         </is>
       </c>
       <c r="M120" t="n">
-        <v>120</v>
+        <v>740</v>
       </c>
       <c r="N120" t="n">
         <v>10000</v>
@@ -9973,7 +9973,7 @@
         <v>11000</v>
       </c>
       <c r="P120" t="n">
-        <v>10500</v>
+        <v>10405</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="T120" t="n">
         <v>20</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44349</v>
+        <v>44216</v>
       </c>
       <c r="E121" t="n">
         <v>16</v>
@@ -10044,16 +10044,16 @@
         </is>
       </c>
       <c r="M121" t="n">
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="N121" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="O121" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P121" t="n">
-        <v>13500</v>
+        <v>11667</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>675</v>
+        <v>583</v>
       </c>
       <c r="T121" t="n">
         <v>20</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44385</v>
+        <v>44349</v>
       </c>
       <c r="E122" t="n">
         <v>16</v>
@@ -10124,16 +10124,16 @@
         </is>
       </c>
       <c r="M122" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N122" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O122" t="n">
         <v>11000</v>
       </c>
       <c r="P122" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="T122" t="n">
         <v>20</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44385</v>
+        <v>44349</v>
       </c>
       <c r="E123" t="n">
         <v>16</v>
@@ -10204,16 +10204,16 @@
         </is>
       </c>
       <c r="M123" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N123" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O123" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P123" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="T123" t="n">
         <v>20</v>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44258</v>
+        <v>44385</v>
       </c>
       <c r="E124" t="n">
         <v>16</v>
@@ -10280,20 +10280,20 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M124" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="N124" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="O124" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P124" t="n">
-        <v>14750</v>
+        <v>11000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>738</v>
+        <v>550</v>
       </c>
       <c r="T124" t="n">
         <v>20</v>
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44243</v>
+        <v>44385</v>
       </c>
       <c r="E125" t="n">
         <v>16</v>
@@ -10360,20 +10360,20 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M125" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N125" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O125" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="P125" t="n">
-        <v>8250</v>
+        <v>12500</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>412</v>
+        <v>625</v>
       </c>
       <c r="T125" t="n">
         <v>20</v>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44243</v>
+        <v>44258</v>
       </c>
       <c r="E126" t="n">
         <v>16</v>
@@ -10444,16 +10444,16 @@
         </is>
       </c>
       <c r="M126" t="n">
-        <v>360</v>
+        <v>160</v>
       </c>
       <c r="N126" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="O126" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P126" t="n">
-        <v>9750</v>
+        <v>14750</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>488</v>
+        <v>738</v>
       </c>
       <c r="T126" t="n">
         <v>20</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44413</v>
+        <v>44243</v>
       </c>
       <c r="E127" t="n">
         <v>16</v>
@@ -10524,16 +10524,16 @@
         </is>
       </c>
       <c r="M127" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N127" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O127" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="P127" t="n">
-        <v>11000</v>
+        <v>8250</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>550</v>
+        <v>412</v>
       </c>
       <c r="T127" t="n">
         <v>20</v>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44413</v>
+        <v>44243</v>
       </c>
       <c r="E128" t="n">
         <v>16</v>
@@ -10604,16 +10604,16 @@
         </is>
       </c>
       <c r="M128" t="n">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="N128" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="O128" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P128" t="n">
-        <v>12500</v>
+        <v>9750</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>625</v>
+        <v>488</v>
       </c>
       <c r="T128" t="n">
         <v>20</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44176</v>
+        <v>44413</v>
       </c>
       <c r="E129" t="n">
         <v>16</v>
@@ -10684,16 +10684,16 @@
         </is>
       </c>
       <c r="M129" t="n">
-        <v>640</v>
+        <v>200</v>
       </c>
       <c r="N129" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O129" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P129" t="n">
-        <v>13688</v>
+        <v>11000</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         </is>
       </c>
       <c r="S129" t="n">
-        <v>684</v>
+        <v>550</v>
       </c>
       <c r="T129" t="n">
         <v>20</v>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44176</v>
+        <v>44413</v>
       </c>
       <c r="E130" t="n">
         <v>16</v>
@@ -10764,16 +10764,16 @@
         </is>
       </c>
       <c r="M130" t="n">
-        <v>280</v>
+        <v>600</v>
       </c>
       <c r="N130" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="O130" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P130" t="n">
-        <v>14714</v>
+        <v>12500</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>736</v>
+        <v>625</v>
       </c>
       <c r="T130" t="n">
         <v>20</v>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44222</v>
+        <v>44176</v>
       </c>
       <c r="E131" t="n">
         <v>16</v>
@@ -10844,7 +10844,7 @@
         </is>
       </c>
       <c r="M131" t="n">
-        <v>740</v>
+        <v>640</v>
       </c>
       <c r="N131" t="n">
         <v>13000</v>
@@ -10853,7 +10853,7 @@
         <v>14000</v>
       </c>
       <c r="P131" t="n">
-        <v>13595</v>
+        <v>13688</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         </is>
       </c>
       <c r="S131" t="n">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="T131" t="n">
         <v>20</v>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44222</v>
+        <v>44176</v>
       </c>
       <c r="E132" t="n">
         <v>16</v>
@@ -10924,16 +10924,16 @@
         </is>
       </c>
       <c r="M132" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N132" t="n">
+        <v>14500</v>
+      </c>
+      <c r="O132" t="n">
         <v>15000</v>
       </c>
-      <c r="O132" t="n">
-        <v>16000</v>
-      </c>
       <c r="P132" t="n">
-        <v>15500</v>
+        <v>14714</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="S132" t="n">
-        <v>775</v>
+        <v>736</v>
       </c>
       <c r="T132" t="n">
         <v>20</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44237</v>
+        <v>44222</v>
       </c>
       <c r="E133" t="n">
         <v>16</v>
@@ -11004,16 +11004,16 @@
         </is>
       </c>
       <c r="M133" t="n">
-        <v>80</v>
+        <v>740</v>
       </c>
       <c r="N133" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O133" t="n">
         <v>14000</v>
       </c>
       <c r="P133" t="n">
-        <v>14000</v>
+        <v>13595</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         </is>
       </c>
       <c r="S133" t="n">
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="T133" t="n">
         <v>20</v>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44237</v>
+        <v>44222</v>
       </c>
       <c r="E134" t="n">
         <v>16</v>
@@ -11084,7 +11084,7 @@
         </is>
       </c>
       <c r="M134" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N134" t="n">
         <v>15000</v>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44273</v>
+        <v>44237</v>
       </c>
       <c r="E135" t="n">
         <v>16</v>
@@ -11164,16 +11164,16 @@
         </is>
       </c>
       <c r="M135" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N135" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O135" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P135" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T135" t="n">
         <v>20</v>
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44273</v>
+        <v>44237</v>
       </c>
       <c r="E136" t="n">
         <v>16</v>
@@ -11244,16 +11244,16 @@
         </is>
       </c>
       <c r="M136" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N136" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O136" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P136" t="n">
-        <v>13500</v>
+        <v>15500</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="T136" t="n">
         <v>20</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44377</v>
+        <v>44273</v>
       </c>
       <c r="E137" t="n">
         <v>16</v>
@@ -11324,16 +11324,16 @@
         </is>
       </c>
       <c r="M137" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N137" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O137" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P137" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="S137" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="T137" t="n">
         <v>20</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44377</v>
+        <v>44273</v>
       </c>
       <c r="E138" t="n">
         <v>16</v>
@@ -11404,16 +11404,16 @@
         </is>
       </c>
       <c r="M138" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N138" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O138" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P138" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         </is>
       </c>
       <c r="S138" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="T138" t="n">
         <v>20</v>
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44257</v>
+        <v>44377</v>
       </c>
       <c r="E139" t="n">
         <v>16</v>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="M139" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N139" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O139" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P139" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="T139" t="n">
         <v>20</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44257</v>
+        <v>44377</v>
       </c>
       <c r="E140" t="n">
         <v>16</v>
@@ -11564,16 +11564,16 @@
         </is>
       </c>
       <c r="M140" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="N140" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O140" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P140" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="T140" t="n">
         <v>20</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44400</v>
+        <v>44257</v>
       </c>
       <c r="E141" t="n">
         <v>16</v>
@@ -11640,20 +11640,20 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M141" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N141" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="O141" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P141" t="n">
-        <v>19500</v>
+        <v>13000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>975</v>
+        <v>650</v>
       </c>
       <c r="T141" t="n">
         <v>20</v>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44225</v>
+        <v>44257</v>
       </c>
       <c r="E142" t="n">
         <v>16</v>
@@ -11720,20 +11720,20 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M142" t="n">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="N142" t="n">
         <v>14000</v>
       </c>
       <c r="O142" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P142" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>700</v>
+        <v>725</v>
       </c>
       <c r="T142" t="n">
         <v>20</v>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44225</v>
+        <v>44400</v>
       </c>
       <c r="E143" t="n">
         <v>16</v>
@@ -11807,13 +11807,13 @@
         <v>160</v>
       </c>
       <c r="N143" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O143" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P143" t="n">
-        <v>15500</v>
+        <v>19500</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
@@ -11826,7 +11826,7 @@
         </is>
       </c>
       <c r="S143" t="n">
-        <v>775</v>
+        <v>975</v>
       </c>
       <c r="T143" t="n">
         <v>20</v>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44295</v>
+        <v>44225</v>
       </c>
       <c r="E144" t="n">
         <v>16</v>
@@ -11880,20 +11880,20 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M144" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="N144" t="n">
         <v>14000</v>
       </c>
       <c r="O144" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P144" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         </is>
       </c>
       <c r="S144" t="n">
-        <v>725</v>
+        <v>700</v>
       </c>
       <c r="T144" t="n">
         <v>20</v>
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44194</v>
+        <v>44225</v>
       </c>
       <c r="E145" t="n">
         <v>16</v>
@@ -11960,20 +11960,20 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M145" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N145" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O145" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P145" t="n">
-        <v>11000</v>
+        <v>15500</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>550</v>
+        <v>775</v>
       </c>
       <c r="T145" t="n">
         <v>20</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44194</v>
+        <v>44295</v>
       </c>
       <c r="E146" t="n">
         <v>16</v>
@@ -12044,16 +12044,16 @@
         </is>
       </c>
       <c r="M146" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N146" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O146" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P146" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="T146" t="n">
         <v>20</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44390</v>
+        <v>44194</v>
       </c>
       <c r="E147" t="n">
         <v>16</v>
@@ -12124,7 +12124,7 @@
         </is>
       </c>
       <c r="M147" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N147" t="n">
         <v>11000</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44390</v>
+        <v>44194</v>
       </c>
       <c r="E148" t="n">
         <v>16</v>
@@ -12204,16 +12204,16 @@
         </is>
       </c>
       <c r="M148" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N148" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O148" t="n">
         <v>13000</v>
       </c>
-      <c r="O148" t="n">
-        <v>14000</v>
-      </c>
       <c r="P148" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="T148" t="n">
         <v>20</v>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44321</v>
+        <v>44390</v>
       </c>
       <c r="E149" t="n">
         <v>16</v>
@@ -12284,16 +12284,16 @@
         </is>
       </c>
       <c r="M149" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N149" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O149" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P149" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="T149" t="n">
         <v>20</v>
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44321</v>
+        <v>44390</v>
       </c>
       <c r="E150" t="n">
         <v>16</v>
@@ -12367,13 +12367,13 @@
         <v>240</v>
       </c>
       <c r="N150" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O150" t="n">
         <v>14000</v>
       </c>
-      <c r="O150" t="n">
-        <v>15000</v>
-      </c>
       <c r="P150" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="T150" t="n">
         <v>20</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E151" t="n">
         <v>16</v>
@@ -12444,16 +12444,16 @@
         </is>
       </c>
       <c r="M151" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N151" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O151" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P151" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="T151" t="n">
         <v>20</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E152" t="n">
         <v>16</v>
@@ -12527,13 +12527,13 @@
         <v>240</v>
       </c>
       <c r="N152" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O152" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P152" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="T152" t="n">
         <v>20</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44383</v>
+        <v>44298</v>
       </c>
       <c r="E153" t="n">
         <v>16</v>
@@ -12607,13 +12607,13 @@
         <v>80</v>
       </c>
       <c r="N153" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O153" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P153" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         </is>
       </c>
       <c r="S153" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T153" t="n">
         <v>20</v>
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44383</v>
+        <v>44298</v>
       </c>
       <c r="E154" t="n">
         <v>16</v>
@@ -12684,16 +12684,16 @@
         </is>
       </c>
       <c r="M154" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N154" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O154" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P154" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="T154" t="n">
         <v>20</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44354</v>
+        <v>44383</v>
       </c>
       <c r="E155" t="n">
         <v>16</v>
@@ -12767,13 +12767,13 @@
         <v>80</v>
       </c>
       <c r="N155" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O155" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P155" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="T155" t="n">
         <v>20</v>
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44354</v>
+        <v>44383</v>
       </c>
       <c r="E156" t="n">
         <v>16</v>
@@ -12844,16 +12844,16 @@
         </is>
       </c>
       <c r="M156" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N156" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O156" t="n">
         <v>12000</v>
       </c>
-      <c r="O156" t="n">
-        <v>13000</v>
-      </c>
       <c r="P156" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         </is>
       </c>
       <c r="S156" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="T156" t="n">
         <v>20</v>
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44169</v>
+        <v>44354</v>
       </c>
       <c r="E157" t="n">
         <v>16</v>
@@ -12927,13 +12927,13 @@
         <v>80</v>
       </c>
       <c r="N157" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="O157" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P157" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="S157" t="n">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="T157" t="n">
         <v>20</v>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44169</v>
+        <v>44354</v>
       </c>
       <c r="E158" t="n">
         <v>16</v>
@@ -13007,13 +13007,13 @@
         <v>240</v>
       </c>
       <c r="N158" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O158" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P158" t="n">
-        <v>18500</v>
+        <v>12500</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>925</v>
+        <v>625</v>
       </c>
       <c r="T158" t="n">
         <v>20</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44410</v>
+        <v>44169</v>
       </c>
       <c r="E159" t="n">
         <v>16</v>
@@ -13084,16 +13084,16 @@
         </is>
       </c>
       <c r="M159" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="N159" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="O159" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P159" t="n">
-        <v>12750</v>
+        <v>17000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         </is>
       </c>
       <c r="S159" t="n">
-        <v>638</v>
+        <v>850</v>
       </c>
       <c r="T159" t="n">
         <v>20</v>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44410</v>
+        <v>44169</v>
       </c>
       <c r="E160" t="n">
         <v>16</v>
@@ -13164,16 +13164,16 @@
         </is>
       </c>
       <c r="M160" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="N160" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O160" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P160" t="n">
-        <v>14500</v>
+        <v>18500</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>725</v>
+        <v>925</v>
       </c>
       <c r="T160" t="n">
         <v>20</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44412</v>
+        <v>44410</v>
       </c>
       <c r="E161" t="n">
         <v>16</v>
@@ -13244,16 +13244,16 @@
         </is>
       </c>
       <c r="M161" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N161" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="O161" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P161" t="n">
-        <v>11750</v>
+        <v>12750</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>588</v>
+        <v>638</v>
       </c>
       <c r="T161" t="n">
         <v>20</v>
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44412</v>
+        <v>44410</v>
       </c>
       <c r="E162" t="n">
         <v>16</v>
@@ -13324,16 +13324,16 @@
         </is>
       </c>
       <c r="M162" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N162" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O162" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P162" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="T162" t="n">
         <v>20</v>
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E163" t="n">
         <v>16</v>
@@ -13400,20 +13400,20 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M163" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N163" t="n">
+        <v>11500</v>
+      </c>
+      <c r="O163" t="n">
         <v>12000</v>
       </c>
-      <c r="O163" t="n">
-        <v>13000</v>
-      </c>
       <c r="P163" t="n">
-        <v>12500</v>
+        <v>11750</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>625</v>
+        <v>588</v>
       </c>
       <c r="T163" t="n">
         <v>20</v>
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44300</v>
+        <v>44412</v>
       </c>
       <c r="E164" t="n">
         <v>16</v>
@@ -13480,20 +13480,20 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M164" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N164" t="n">
         <v>13000</v>
       </c>
       <c r="O164" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P164" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="T164" t="n">
         <v>20</v>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44300</v>
+        <v>44336</v>
       </c>
       <c r="E165" t="n">
         <v>16</v>
@@ -13564,16 +13564,16 @@
         </is>
       </c>
       <c r="M165" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N165" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O165" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P165" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="T165" t="n">
         <v>20</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44172</v>
+        <v>44300</v>
       </c>
       <c r="E166" t="n">
         <v>16</v>
@@ -13644,16 +13644,16 @@
         </is>
       </c>
       <c r="M166" t="n">
-        <v>480</v>
+        <v>80</v>
       </c>
       <c r="N166" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="O166" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P166" t="n">
-        <v>15375</v>
+        <v>13000</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>769</v>
+        <v>650</v>
       </c>
       <c r="T166" t="n">
         <v>20</v>
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44172</v>
+        <v>44300</v>
       </c>
       <c r="E167" t="n">
         <v>16</v>
@@ -13724,16 +13724,16 @@
         </is>
       </c>
       <c r="M167" t="n">
-        <v>380</v>
+        <v>240</v>
       </c>
       <c r="N167" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O167" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P167" t="n">
-        <v>17526</v>
+        <v>14500</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>876</v>
+        <v>725</v>
       </c>
       <c r="T167" t="n">
         <v>20</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44214</v>
+        <v>44172</v>
       </c>
       <c r="E168" t="n">
         <v>16</v>
@@ -13804,16 +13804,16 @@
         </is>
       </c>
       <c r="M168" t="n">
-        <v>740</v>
+        <v>480</v>
       </c>
       <c r="N168" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="O168" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="P168" t="n">
-        <v>10230</v>
+        <v>15375</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>512</v>
+        <v>769</v>
       </c>
       <c r="T168" t="n">
         <v>20</v>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44214</v>
+        <v>44172</v>
       </c>
       <c r="E169" t="n">
         <v>16</v>
@@ -13884,16 +13884,16 @@
         </is>
       </c>
       <c r="M169" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="N169" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="O169" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P169" t="n">
-        <v>11429</v>
+        <v>17526</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>571</v>
+        <v>876</v>
       </c>
       <c r="T169" t="n">
         <v>20</v>
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44371</v>
+        <v>44214</v>
       </c>
       <c r="E170" t="n">
         <v>16</v>
@@ -13964,16 +13964,16 @@
         </is>
       </c>
       <c r="M170" t="n">
-        <v>120</v>
+        <v>740</v>
       </c>
       <c r="N170" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O170" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="P170" t="n">
-        <v>11000</v>
+        <v>10230</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>550</v>
+        <v>512</v>
       </c>
       <c r="T170" t="n">
         <v>20</v>
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44371</v>
+        <v>44214</v>
       </c>
       <c r="E171" t="n">
         <v>16</v>
@@ -14044,16 +14044,16 @@
         </is>
       </c>
       <c r="M171" t="n">
-        <v>240</v>
+        <v>350</v>
       </c>
       <c r="N171" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O171" t="n">
         <v>12000</v>
       </c>
-      <c r="O171" t="n">
-        <v>13000</v>
-      </c>
       <c r="P171" t="n">
-        <v>12500</v>
+        <v>11429</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>625</v>
+        <v>571</v>
       </c>
       <c r="T171" t="n">
         <v>20</v>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44238</v>
+        <v>44371</v>
       </c>
       <c r="E172" t="n">
         <v>16</v>
@@ -14127,13 +14127,13 @@
         <v>120</v>
       </c>
       <c r="N172" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O172" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P172" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="T172" t="n">
         <v>20</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44238</v>
+        <v>44371</v>
       </c>
       <c r="E173" t="n">
         <v>16</v>
@@ -14207,13 +14207,13 @@
         <v>240</v>
       </c>
       <c r="N173" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O173" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P173" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>775</v>
+        <v>625</v>
       </c>
       <c r="T173" t="n">
         <v>20</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44274</v>
+        <v>44238</v>
       </c>
       <c r="E174" t="n">
         <v>16</v>
@@ -14284,16 +14284,16 @@
         </is>
       </c>
       <c r="M174" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N174" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O174" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P174" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T174" t="n">
         <v>20</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44274</v>
+        <v>44238</v>
       </c>
       <c r="E175" t="n">
         <v>16</v>
@@ -14367,13 +14367,13 @@
         <v>240</v>
       </c>
       <c r="N175" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O175" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P175" t="n">
-        <v>13500</v>
+        <v>15500</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="T175" t="n">
         <v>20</v>
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44320</v>
+        <v>44274</v>
       </c>
       <c r="E176" t="n">
         <v>16</v>
@@ -14440,20 +14440,20 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M176" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N176" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O176" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P176" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>725</v>
+        <v>600</v>
       </c>
       <c r="T176" t="n">
         <v>20</v>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44314</v>
+        <v>44274</v>
       </c>
       <c r="E177" t="n">
         <v>16</v>
@@ -14524,16 +14524,16 @@
         </is>
       </c>
       <c r="M177" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="N177" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O177" t="n">
         <v>14000</v>
       </c>
-      <c r="O177" t="n">
-        <v>15000</v>
-      </c>
       <c r="P177" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="T177" t="n">
         <v>20</v>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44364</v>
+        <v>44320</v>
       </c>
       <c r="E178" t="n">
         <v>16</v>
@@ -14600,20 +14600,20 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M178" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="N178" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O178" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P178" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>650</v>
+        <v>725</v>
       </c>
       <c r="T178" t="n">
         <v>20</v>
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E179" t="n">
         <v>16</v>
@@ -14684,7 +14684,7 @@
         </is>
       </c>
       <c r="M179" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N179" t="n">
         <v>14000</v>
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E180" t="n">
         <v>16</v>
@@ -14760,20 +14760,20 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M180" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N180" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="O180" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P180" t="n">
-        <v>17500</v>
+        <v>13000</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="T180" t="n">
         <v>20</v>
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44224</v>
+        <v>44364</v>
       </c>
       <c r="E181" t="n">
         <v>16</v>
@@ -14840,20 +14840,20 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M181" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="N181" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O181" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P181" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>650</v>
+        <v>725</v>
       </c>
       <c r="T181" t="n">
         <v>20</v>
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44224</v>
+        <v>44405</v>
       </c>
       <c r="E182" t="n">
         <v>16</v>
@@ -14927,13 +14927,13 @@
         <v>240</v>
       </c>
       <c r="N182" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O182" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P182" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>725</v>
+        <v>875</v>
       </c>
       <c r="T182" t="n">
         <v>20</v>
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44260</v>
+        <v>44224</v>
       </c>
       <c r="E183" t="n">
         <v>16</v>
@@ -15004,16 +15004,16 @@
         </is>
       </c>
       <c r="M183" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N183" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O183" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P183" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="T183" t="n">
         <v>20</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44260</v>
+        <v>44224</v>
       </c>
       <c r="E184" t="n">
         <v>16</v>
@@ -15084,16 +15084,16 @@
         </is>
       </c>
       <c r="M184" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N184" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O184" t="n">
         <v>15000</v>
       </c>
-      <c r="O184" t="n">
-        <v>16000</v>
-      </c>
       <c r="P184" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="T184" t="n">
         <v>20</v>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44327</v>
+        <v>44260</v>
       </c>
       <c r="E185" t="n">
         <v>16</v>
@@ -15164,7 +15164,7 @@
         </is>
       </c>
       <c r="M185" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N185" t="n">
         <v>14000</v>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44327</v>
+        <v>44260</v>
       </c>
       <c r="E186" t="n">
         <v>16</v>
@@ -15247,13 +15247,13 @@
         <v>360</v>
       </c>
       <c r="N186" t="n">
-        <v>15500</v>
+        <v>15000</v>
       </c>
       <c r="O186" t="n">
         <v>16000</v>
       </c>
       <c r="P186" t="n">
-        <v>15750</v>
+        <v>15500</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>788</v>
+        <v>775</v>
       </c>
       <c r="T186" t="n">
         <v>20</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44231</v>
+        <v>44327</v>
       </c>
       <c r="E187" t="n">
         <v>16</v>
@@ -15324,16 +15324,16 @@
         </is>
       </c>
       <c r="M187" t="n">
-        <v>740</v>
+        <v>120</v>
       </c>
       <c r="N187" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O187" t="n">
         <v>14000</v>
       </c>
       <c r="P187" t="n">
-        <v>13541</v>
+        <v>14000</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>677</v>
+        <v>700</v>
       </c>
       <c r="T187" t="n">
         <v>20</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44231</v>
+        <v>44327</v>
       </c>
       <c r="E188" t="n">
         <v>16</v>
@@ -15404,16 +15404,16 @@
         </is>
       </c>
       <c r="M188" t="n">
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="N188" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="O188" t="n">
         <v>16000</v>
       </c>
       <c r="P188" t="n">
-        <v>15641</v>
+        <v>15750</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="T188" t="n">
         <v>20</v>
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44313</v>
+        <v>44231</v>
       </c>
       <c r="E189" t="n">
         <v>16</v>
@@ -15484,16 +15484,16 @@
         </is>
       </c>
       <c r="M189" t="n">
-        <v>80</v>
+        <v>740</v>
       </c>
       <c r="N189" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O189" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P189" t="n">
-        <v>12000</v>
+        <v>13541</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         </is>
       </c>
       <c r="S189" t="n">
-        <v>600</v>
+        <v>677</v>
       </c>
       <c r="T189" t="n">
         <v>20</v>
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44313</v>
+        <v>44231</v>
       </c>
       <c r="E190" t="n">
         <v>16</v>
@@ -15564,16 +15564,16 @@
         </is>
       </c>
       <c r="M190" t="n">
-        <v>240</v>
+        <v>390</v>
       </c>
       <c r="N190" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O190" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P190" t="n">
-        <v>13500</v>
+        <v>15641</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>675</v>
+        <v>782</v>
       </c>
       <c r="T190" t="n">
         <v>20</v>
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E191" t="n">
         <v>16</v>
@@ -15644,7 +15644,7 @@
         </is>
       </c>
       <c r="M191" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N191" t="n">
         <v>12000</v>
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E192" t="n">
         <v>16</v>
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E193" t="n">
         <v>16</v>
@@ -15807,13 +15807,13 @@
         <v>120</v>
       </c>
       <c r="N193" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O193" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P193" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         </is>
       </c>
       <c r="S193" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="T193" t="n">
         <v>20</v>
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E194" t="n">
         <v>16</v>
@@ -15887,13 +15887,13 @@
         <v>240</v>
       </c>
       <c r="N194" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O194" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P194" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         </is>
       </c>
       <c r="S194" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="T194" t="n">
         <v>20</v>
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44193</v>
+        <v>44391</v>
       </c>
       <c r="E195" t="n">
         <v>16</v>
@@ -15964,16 +15964,16 @@
         </is>
       </c>
       <c r="M195" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N195" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O195" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P195" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         </is>
       </c>
       <c r="S195" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="T195" t="n">
         <v>20</v>
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44193</v>
+        <v>44391</v>
       </c>
       <c r="E196" t="n">
         <v>16</v>
@@ -16044,16 +16044,16 @@
         </is>
       </c>
       <c r="M196" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N196" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O196" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P196" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         </is>
       </c>
       <c r="S196" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="T196" t="n">
         <v>20</v>
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44351</v>
+        <v>44193</v>
       </c>
       <c r="E197" t="n">
         <v>16</v>
@@ -16124,16 +16124,16 @@
         </is>
       </c>
       <c r="M197" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="N197" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O197" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P197" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="S197" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="T197" t="n">
         <v>20</v>
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44351</v>
+        <v>44193</v>
       </c>
       <c r="E198" t="n">
         <v>16</v>
@@ -16204,16 +16204,16 @@
         </is>
       </c>
       <c r="M198" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="N198" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O198" t="n">
         <v>12000</v>
       </c>
-      <c r="O198" t="n">
-        <v>13000</v>
-      </c>
       <c r="P198" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         </is>
       </c>
       <c r="S198" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="T198" t="n">
         <v>20</v>
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E199" t="n">
         <v>16</v>
@@ -16280,20 +16280,20 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M199" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="N199" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O199" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P199" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         </is>
       </c>
       <c r="S199" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="T199" t="n">
         <v>20</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44196</v>
+        <v>44351</v>
       </c>
       <c r="E200" t="n">
         <v>16</v>
@@ -16360,11 +16360,11 @@
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M200" t="n">
-        <v>540</v>
+        <v>160</v>
       </c>
       <c r="N200" t="n">
         <v>12000</v>
@@ -16373,7 +16373,7 @@
         <v>13000</v>
       </c>
       <c r="P200" t="n">
-        <v>12370</v>
+        <v>12500</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         </is>
       </c>
       <c r="S200" t="n">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="T200" t="n">
         <v>20</v>
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44196</v>
+        <v>44350</v>
       </c>
       <c r="E201" t="n">
         <v>16</v>
@@ -16444,16 +16444,16 @@
         </is>
       </c>
       <c r="M201" t="n">
-        <v>280</v>
+        <v>160</v>
       </c>
       <c r="N201" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O201" t="n">
         <v>14000</v>
       </c>
-      <c r="O201" t="n">
-        <v>15000</v>
-      </c>
       <c r="P201" t="n">
-        <v>14536</v>
+        <v>13500</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         </is>
       </c>
       <c r="S201" t="n">
-        <v>727</v>
+        <v>675</v>
       </c>
       <c r="T201" t="n">
         <v>20</v>
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44315</v>
+        <v>44196</v>
       </c>
       <c r="E202" t="n">
         <v>16</v>
@@ -16524,16 +16524,16 @@
         </is>
       </c>
       <c r="M202" t="n">
-        <v>80</v>
+        <v>540</v>
       </c>
       <c r="N202" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O202" t="n">
         <v>13000</v>
       </c>
       <c r="P202" t="n">
-        <v>13000</v>
+        <v>12370</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="S202" t="n">
-        <v>650</v>
+        <v>618</v>
       </c>
       <c r="T202" t="n">
         <v>20</v>
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44315</v>
+        <v>44196</v>
       </c>
       <c r="E203" t="n">
         <v>16</v>
@@ -16604,7 +16604,7 @@
         </is>
       </c>
       <c r="M203" t="n">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="N203" t="n">
         <v>14000</v>
@@ -16613,7 +16613,7 @@
         <v>15000</v>
       </c>
       <c r="P203" t="n">
-        <v>14500</v>
+        <v>14536</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         </is>
       </c>
       <c r="S203" t="n">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="T203" t="n">
         <v>20</v>
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44278</v>
+        <v>44315</v>
       </c>
       <c r="E204" t="n">
         <v>16</v>
@@ -16680,20 +16680,20 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M204" t="n">
-        <v>360</v>
+        <v>80</v>
       </c>
       <c r="N204" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O204" t="n">
         <v>13000</v>
       </c>
       <c r="P204" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         </is>
       </c>
       <c r="S204" t="n">
-        <v>625</v>
+        <v>650</v>
       </c>
       <c r="T204" t="n">
         <v>20</v>
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44358</v>
+        <v>44315</v>
       </c>
       <c r="E205" t="n">
         <v>16</v>
@@ -16760,20 +16760,20 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M205" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="N205" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O205" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P205" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         </is>
       </c>
       <c r="S205" t="n">
-        <v>550</v>
+        <v>725</v>
       </c>
       <c r="T205" t="n">
         <v>20</v>
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E206" t="n">
         <v>16</v>
@@ -16844,7 +16844,7 @@
         </is>
       </c>
       <c r="M206" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="N206" t="n">
         <v>12000</v>
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E207" t="n">
         <v>16</v>
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E208" t="n">
         <v>16</v>
@@ -17004,7 +17004,7 @@
         </is>
       </c>
       <c r="M208" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N208" t="n">
         <v>12000</v>
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E209" t="n">
         <v>16</v>
@@ -17080,20 +17080,20 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M209" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N209" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O209" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P209" t="n">
-        <v>16500</v>
+        <v>11000</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         </is>
       </c>
       <c r="S209" t="n">
-        <v>825</v>
+        <v>550</v>
       </c>
       <c r="T209" t="n">
         <v>20</v>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E210" t="n">
         <v>16</v>
@@ -17160,20 +17160,20 @@
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M210" t="n">
-        <v>660</v>
+        <v>240</v>
       </c>
       <c r="N210" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O210" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="P210" t="n">
-        <v>9273</v>
+        <v>12500</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>464</v>
+        <v>625</v>
       </c>
       <c r="T210" t="n">
         <v>20</v>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44251</v>
+        <v>44399</v>
       </c>
       <c r="E211" t="n">
         <v>16</v>
@@ -17244,16 +17244,16 @@
         </is>
       </c>
       <c r="M211" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N211" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O211" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P211" t="n">
-        <v>10667</v>
+        <v>16500</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>533</v>
+        <v>825</v>
       </c>
       <c r="T211" t="n">
         <v>20</v>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44292</v>
+        <v>44251</v>
       </c>
       <c r="E212" t="n">
         <v>16</v>
@@ -17320,20 +17320,20 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M212" t="n">
-        <v>240</v>
+        <v>660</v>
       </c>
       <c r="N212" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O212" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="P212" t="n">
-        <v>14500</v>
+        <v>9273</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>725</v>
+        <v>464</v>
       </c>
       <c r="T212" t="n">
         <v>20</v>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44305</v>
+        <v>44251</v>
       </c>
       <c r="E213" t="n">
         <v>16</v>
@@ -17400,20 +17400,20 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M213" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N213" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O213" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P213" t="n">
-        <v>13000</v>
+        <v>10667</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         </is>
       </c>
       <c r="S213" t="n">
-        <v>650</v>
+        <v>533</v>
       </c>
       <c r="T213" t="n">
         <v>20</v>
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44305</v>
+        <v>44292</v>
       </c>
       <c r="E214" t="n">
         <v>16</v>
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E215" t="n">
         <v>16</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E216" t="n">
         <v>16</v>
@@ -17644,7 +17644,7 @@
         </is>
       </c>
       <c r="M216" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N216" t="n">
         <v>14000</v>
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44245</v>
+        <v>44294</v>
       </c>
       <c r="E217" t="n">
         <v>16</v>
@@ -17727,13 +17727,13 @@
         <v>80</v>
       </c>
       <c r="N217" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O217" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P217" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="S217" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="T217" t="n">
         <v>20</v>
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44245</v>
+        <v>44294</v>
       </c>
       <c r="E218" t="n">
         <v>16</v>
@@ -17800,20 +17800,20 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M218" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="N218" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O218" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P218" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>600</v>
+        <v>725</v>
       </c>
       <c r="T218" t="n">
         <v>20</v>
@@ -17880,20 +17880,20 @@
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M219" t="n">
         <v>80</v>
       </c>
       <c r="N219" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O219" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P219" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="T219" t="n">
         <v>20</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44202</v>
+        <v>44245</v>
       </c>
       <c r="E220" t="n">
         <v>16</v>
@@ -17960,20 +17960,20 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M220" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="N220" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O220" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P220" t="n">
-        <v>15500</v>
+        <v>12000</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>775</v>
+        <v>600</v>
       </c>
       <c r="T220" t="n">
         <v>20</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44181</v>
+        <v>44245</v>
       </c>
       <c r="E221" t="n">
         <v>16</v>
@@ -18040,20 +18040,20 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M221" t="n">
-        <v>640</v>
+        <v>80</v>
       </c>
       <c r="N221" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="O221" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="P221" t="n">
-        <v>12031</v>
+        <v>11000</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>602</v>
+        <v>550</v>
       </c>
       <c r="T221" t="n">
         <v>20</v>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44181</v>
+        <v>44202</v>
       </c>
       <c r="E222" t="n">
         <v>16</v>
@@ -18120,20 +18120,20 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M222" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N222" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O222" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P222" t="n">
-        <v>13600</v>
+        <v>15500</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>680</v>
+        <v>775</v>
       </c>
       <c r="T222" t="n">
         <v>20</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44369</v>
+        <v>44181</v>
       </c>
       <c r="E223" t="n">
         <v>16</v>
@@ -18204,16 +18204,16 @@
         </is>
       </c>
       <c r="M223" t="n">
-        <v>80</v>
+        <v>640</v>
       </c>
       <c r="N223" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="O223" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="P223" t="n">
-        <v>11000</v>
+        <v>12031</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>550</v>
+        <v>602</v>
       </c>
       <c r="T223" t="n">
         <v>20</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44369</v>
+        <v>44181</v>
       </c>
       <c r="E224" t="n">
         <v>16</v>
@@ -18284,16 +18284,16 @@
         </is>
       </c>
       <c r="M224" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="N224" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O224" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P224" t="n">
-        <v>12500</v>
+        <v>13600</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>625</v>
+        <v>680</v>
       </c>
       <c r="T224" t="n">
         <v>20</v>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E225" t="n">
         <v>16</v>
@@ -18364,16 +18364,16 @@
         </is>
       </c>
       <c r="M225" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="N225" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="O225" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P225" t="n">
-        <v>11750</v>
+        <v>11000</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>588</v>
+        <v>550</v>
       </c>
       <c r="T225" t="n">
         <v>20</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E226" t="n">
         <v>16</v>
@@ -18444,16 +18444,16 @@
         </is>
       </c>
       <c r="M226" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N226" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O226" t="n">
         <v>13000</v>
       </c>
-      <c r="O226" t="n">
-        <v>14000</v>
-      </c>
       <c r="P226" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="T226" t="n">
         <v>20</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44161</v>
+        <v>44307</v>
       </c>
       <c r="E227" t="n">
         <v>16</v>
@@ -18524,16 +18524,16 @@
         </is>
       </c>
       <c r="M227" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="N227" t="n">
-        <v>16000</v>
+        <v>11500</v>
       </c>
       <c r="O227" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P227" t="n">
-        <v>16000</v>
+        <v>11750</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>800</v>
+        <v>588</v>
       </c>
       <c r="T227" t="n">
         <v>20</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44161</v>
+        <v>44307</v>
       </c>
       <c r="E228" t="n">
         <v>16</v>
@@ -18604,16 +18604,16 @@
         </is>
       </c>
       <c r="M228" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N228" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="O228" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P228" t="n">
-        <v>17500</v>
+        <v>13500</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="T228" t="n">
         <v>20</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E229" t="n">
         <v>16</v>
@@ -18684,16 +18684,16 @@
         </is>
       </c>
       <c r="M229" t="n">
-        <v>590</v>
+        <v>80</v>
       </c>
       <c r="N229" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="O229" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P229" t="n">
-        <v>12797</v>
+        <v>16000</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>640</v>
+        <v>800</v>
       </c>
       <c r="T229" t="n">
         <v>20</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E230" t="n">
         <v>16</v>
@@ -18764,16 +18764,16 @@
         </is>
       </c>
       <c r="M230" t="n">
-        <v>450</v>
+        <v>160</v>
       </c>
       <c r="N230" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O230" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P230" t="n">
-        <v>14556</v>
+        <v>17500</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>728</v>
+        <v>875</v>
       </c>
       <c r="T230" t="n">
         <v>20</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44265</v>
+        <v>44195</v>
       </c>
       <c r="E231" t="n">
         <v>16</v>
@@ -18844,16 +18844,16 @@
         </is>
       </c>
       <c r="M231" t="n">
-        <v>80</v>
+        <v>590</v>
       </c>
       <c r="N231" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="O231" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P231" t="n">
-        <v>14000</v>
+        <v>12797</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>700</v>
+        <v>640</v>
       </c>
       <c r="T231" t="n">
         <v>20</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44265</v>
+        <v>44195</v>
       </c>
       <c r="E232" t="n">
         <v>16</v>
@@ -18924,16 +18924,16 @@
         </is>
       </c>
       <c r="M232" t="n">
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="N232" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O232" t="n">
         <v>15000</v>
       </c>
-      <c r="O232" t="n">
-        <v>16000</v>
-      </c>
       <c r="P232" t="n">
-        <v>15500</v>
+        <v>14556</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>775</v>
+        <v>728</v>
       </c>
       <c r="T232" t="n">
         <v>20</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44159</v>
+        <v>44265</v>
       </c>
       <c r="E233" t="n">
         <v>16</v>
@@ -19007,13 +19007,13 @@
         <v>80</v>
       </c>
       <c r="N233" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O233" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P233" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="T233" t="n">
         <v>20</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44159</v>
+        <v>44265</v>
       </c>
       <c r="E234" t="n">
         <v>16</v>
@@ -19084,16 +19084,16 @@
         </is>
       </c>
       <c r="M234" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="N234" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O234" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P234" t="n">
-        <v>18500</v>
+        <v>15500</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>925</v>
+        <v>775</v>
       </c>
       <c r="T234" t="n">
         <v>20</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44333</v>
+        <v>44159</v>
       </c>
       <c r="E235" t="n">
         <v>16</v>
@@ -19160,20 +19160,20 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M235" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N235" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O235" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P235" t="n">
-        <v>13500</v>
+        <v>17000</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="T235" t="n">
         <v>20</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44201</v>
+        <v>44159</v>
       </c>
       <c r="E236" t="n">
         <v>16</v>
@@ -19240,20 +19240,20 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M236" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N236" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O236" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P236" t="n">
-        <v>15500</v>
+        <v>18500</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>775</v>
+        <v>925</v>
       </c>
       <c r="T236" t="n">
         <v>20</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44277</v>
+        <v>44333</v>
       </c>
       <c r="E237" t="n">
         <v>16</v>
@@ -19320,20 +19320,20 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M237" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="N237" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O237" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P237" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>600</v>
+        <v>675</v>
       </c>
       <c r="T237" t="n">
         <v>20</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44277</v>
+        <v>44201</v>
       </c>
       <c r="E238" t="n">
         <v>16</v>
@@ -19400,20 +19400,20 @@
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M238" t="n">
         <v>240</v>
       </c>
       <c r="N238" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O238" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P238" t="n">
-        <v>13500</v>
+        <v>15500</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="T238" t="n">
         <v>20</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44309</v>
+        <v>44277</v>
       </c>
       <c r="E239" t="n">
         <v>16</v>
@@ -19480,20 +19480,20 @@
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M239" t="n">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="N239" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O239" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P239" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>675</v>
+        <v>600</v>
       </c>
       <c r="T239" t="n">
         <v>20</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44188</v>
+        <v>44277</v>
       </c>
       <c r="E240" t="n">
         <v>16</v>
@@ -19560,20 +19560,20 @@
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M240" t="n">
-        <v>790</v>
+        <v>240</v>
       </c>
       <c r="N240" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O240" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P240" t="n">
-        <v>10557</v>
+        <v>13500</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>528</v>
+        <v>675</v>
       </c>
       <c r="T240" t="n">
         <v>20</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44188</v>
+        <v>44309</v>
       </c>
       <c r="E241" t="n">
         <v>16</v>
@@ -19644,16 +19644,16 @@
         </is>
       </c>
       <c r="M241" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="N241" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O241" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P241" t="n">
-        <v>12429</v>
+        <v>13500</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>621</v>
+        <v>675</v>
       </c>
       <c r="T241" t="n">
         <v>20</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44344</v>
+        <v>44188</v>
       </c>
       <c r="E242" t="n">
         <v>16</v>
@@ -19724,16 +19724,16 @@
         </is>
       </c>
       <c r="M242" t="n">
-        <v>80</v>
+        <v>790</v>
       </c>
       <c r="N242" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O242" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P242" t="n">
-        <v>12000</v>
+        <v>10557</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>600</v>
+        <v>528</v>
       </c>
       <c r="T242" t="n">
         <v>20</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44344</v>
+        <v>44188</v>
       </c>
       <c r="E243" t="n">
         <v>16</v>
@@ -19804,16 +19804,16 @@
         </is>
       </c>
       <c r="M243" t="n">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="N243" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O243" t="n">
         <v>13000</v>
       </c>
-      <c r="O243" t="n">
-        <v>14000</v>
-      </c>
       <c r="P243" t="n">
-        <v>13500</v>
+        <v>12429</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>675</v>
+        <v>621</v>
       </c>
       <c r="T243" t="n">
         <v>20</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E244" t="n">
         <v>16</v>
@@ -19887,13 +19887,13 @@
         <v>80</v>
       </c>
       <c r="N244" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O244" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P244" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="T244" t="n">
         <v>20</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E245" t="n">
         <v>16</v>
@@ -19964,16 +19964,16 @@
         </is>
       </c>
       <c r="M245" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N245" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="O245" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P245" t="n">
-        <v>14750</v>
+        <v>13500</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>738</v>
+        <v>675</v>
       </c>
       <c r="T245" t="n">
         <v>20</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E246" t="n">
         <v>16</v>
@@ -20040,20 +20040,20 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M246" t="n">
-        <v>360</v>
+        <v>80</v>
       </c>
       <c r="N246" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="O246" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P246" t="n">
-        <v>14750</v>
+        <v>13000</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>738</v>
+        <v>650</v>
       </c>
       <c r="T246" t="n">
         <v>20</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44253</v>
+        <v>44319</v>
       </c>
       <c r="E247" t="n">
         <v>16</v>
@@ -20120,20 +20120,20 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M247" t="n">
-        <v>740</v>
+        <v>240</v>
       </c>
       <c r="N247" t="n">
-        <v>9000</v>
+        <v>14500</v>
       </c>
       <c r="O247" t="n">
-        <v>9500</v>
+        <v>15000</v>
       </c>
       <c r="P247" t="n">
-        <v>9216</v>
+        <v>14750</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>461</v>
+        <v>738</v>
       </c>
       <c r="T247" t="n">
         <v>20</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E248" t="n">
         <v>16</v>
@@ -20204,16 +20204,16 @@
         </is>
       </c>
       <c r="M248" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="N248" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="O248" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P248" t="n">
-        <v>10286</v>
+        <v>14750</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>514</v>
+        <v>738</v>
       </c>
       <c r="T248" t="n">
         <v>20</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="E249" t="n">
         <v>16</v>
@@ -20284,16 +20284,16 @@
         </is>
       </c>
       <c r="M249" t="n">
-        <v>120</v>
+        <v>740</v>
       </c>
       <c r="N249" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O249" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="P249" t="n">
-        <v>11000</v>
+        <v>9216</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>550</v>
+        <v>461</v>
       </c>
       <c r="T249" t="n">
         <v>20</v>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="E250" t="n">
         <v>16</v>
@@ -20364,16 +20364,16 @@
         </is>
       </c>
       <c r="M250" t="n">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="N250" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O250" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="P250" t="n">
-        <v>12500</v>
+        <v>10286</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>625</v>
+        <v>514</v>
       </c>
       <c r="T250" t="n">
         <v>20</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44160</v>
+        <v>44281</v>
       </c>
       <c r="E251" t="n">
         <v>16</v>
@@ -20444,16 +20444,16 @@
         </is>
       </c>
       <c r="M251" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N251" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O251" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P251" t="n">
-        <v>16500</v>
+        <v>11000</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>825</v>
+        <v>550</v>
       </c>
       <c r="T251" t="n">
         <v>20</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44160</v>
+        <v>44281</v>
       </c>
       <c r="E252" t="n">
         <v>16</v>
@@ -20524,16 +20524,16 @@
         </is>
       </c>
       <c r="M252" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N252" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O252" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P252" t="n">
-        <v>18500</v>
+        <v>12500</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>925</v>
+        <v>625</v>
       </c>
       <c r="T252" t="n">
         <v>20</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44186</v>
+        <v>44160</v>
       </c>
       <c r="E253" t="n">
         <v>16</v>
@@ -20604,16 +20604,16 @@
         </is>
       </c>
       <c r="M253" t="n">
-        <v>740</v>
+        <v>160</v>
       </c>
       <c r="N253" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O253" t="n">
-        <v>10500</v>
+        <v>17000</v>
       </c>
       <c r="P253" t="n">
-        <v>10297</v>
+        <v>16500</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>515</v>
+        <v>825</v>
       </c>
       <c r="T253" t="n">
         <v>20</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44186</v>
+        <v>44160</v>
       </c>
       <c r="E254" t="n">
         <v>16</v>
@@ -20684,16 +20684,16 @@
         </is>
       </c>
       <c r="M254" t="n">
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="N254" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="O254" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P254" t="n">
-        <v>11571</v>
+        <v>18500</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>579</v>
+        <v>925</v>
       </c>
       <c r="T254" t="n">
         <v>20</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44211</v>
+        <v>44186</v>
       </c>
       <c r="E255" t="n">
         <v>16</v>
@@ -20764,16 +20764,16 @@
         </is>
       </c>
       <c r="M255" t="n">
-        <v>640</v>
+        <v>740</v>
       </c>
       <c r="N255" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O255" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="P255" t="n">
-        <v>12469</v>
+        <v>10297</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>623</v>
+        <v>515</v>
       </c>
       <c r="T255" t="n">
         <v>20</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44211</v>
+        <v>44186</v>
       </c>
       <c r="E256" t="n">
         <v>16</v>
@@ -20844,16 +20844,16 @@
         </is>
       </c>
       <c r="M256" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N256" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O256" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P256" t="n">
-        <v>14600</v>
+        <v>11571</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>730</v>
+        <v>579</v>
       </c>
       <c r="T256" t="n">
         <v>20</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44301</v>
+        <v>44211</v>
       </c>
       <c r="E257" t="n">
         <v>16</v>
@@ -20924,16 +20924,16 @@
         </is>
       </c>
       <c r="M257" t="n">
-        <v>80</v>
+        <v>640</v>
       </c>
       <c r="N257" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O257" t="n">
         <v>13000</v>
       </c>
       <c r="P257" t="n">
-        <v>13000</v>
+        <v>12469</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>650</v>
+        <v>623</v>
       </c>
       <c r="T257" t="n">
         <v>20</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44301</v>
+        <v>44211</v>
       </c>
       <c r="E258" t="n">
         <v>16</v>
@@ -21004,7 +21004,7 @@
         </is>
       </c>
       <c r="M258" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N258" t="n">
         <v>14000</v>
@@ -21013,7 +21013,7 @@
         <v>15000</v>
       </c>
       <c r="P258" t="n">
-        <v>14500</v>
+        <v>14600</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="T258" t="n">
         <v>20</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44370</v>
+        <v>44301</v>
       </c>
       <c r="E259" t="n">
         <v>16</v>
@@ -21084,16 +21084,16 @@
         </is>
       </c>
       <c r="M259" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N259" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O259" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P259" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="T259" t="n">
         <v>20</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44370</v>
+        <v>44301</v>
       </c>
       <c r="E260" t="n">
         <v>16</v>
@@ -21164,16 +21164,16 @@
         </is>
       </c>
       <c r="M260" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N260" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O260" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P260" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="T260" t="n">
         <v>20</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44230</v>
+        <v>44370</v>
       </c>
       <c r="E261" t="n">
         <v>16</v>
@@ -21244,16 +21244,16 @@
         </is>
       </c>
       <c r="M261" t="n">
-        <v>740</v>
+        <v>60</v>
       </c>
       <c r="N261" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="O261" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P261" t="n">
-        <v>12770</v>
+        <v>11000</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>638</v>
+        <v>550</v>
       </c>
       <c r="T261" t="n">
         <v>20</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44230</v>
+        <v>44370</v>
       </c>
       <c r="E262" t="n">
         <v>16</v>
@@ -21324,16 +21324,16 @@
         </is>
       </c>
       <c r="M262" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N262" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="O262" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P262" t="n">
-        <v>13667</v>
+        <v>12500</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>683</v>
+        <v>625</v>
       </c>
       <c r="T262" t="n">
         <v>20</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44382</v>
+        <v>44230</v>
       </c>
       <c r="E263" t="n">
         <v>16</v>
@@ -21404,16 +21404,16 @@
         </is>
       </c>
       <c r="M263" t="n">
-        <v>80</v>
+        <v>740</v>
       </c>
       <c r="N263" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="O263" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P263" t="n">
-        <v>10000</v>
+        <v>12770</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>500</v>
+        <v>638</v>
       </c>
       <c r="T263" t="n">
         <v>20</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44382</v>
+        <v>44230</v>
       </c>
       <c r="E264" t="n">
         <v>16</v>
@@ -21484,16 +21484,16 @@
         </is>
       </c>
       <c r="M264" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N264" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="O264" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P264" t="n">
-        <v>11500</v>
+        <v>13667</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>575</v>
+        <v>683</v>
       </c>
       <c r="T264" t="n">
         <v>20</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44232</v>
+        <v>44382</v>
       </c>
       <c r="E265" t="n">
         <v>16</v>
@@ -21564,16 +21564,16 @@
         </is>
       </c>
       <c r="M265" t="n">
-        <v>760</v>
+        <v>80</v>
       </c>
       <c r="N265" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="O265" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P265" t="n">
-        <v>14789</v>
+        <v>10000</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>739</v>
+        <v>500</v>
       </c>
       <c r="T265" t="n">
         <v>20</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44232</v>
+        <v>44382</v>
       </c>
       <c r="E266" t="n">
         <v>16</v>
@@ -21644,16 +21644,16 @@
         </is>
       </c>
       <c r="M266" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N266" t="n">
-        <v>15500</v>
+        <v>11000</v>
       </c>
       <c r="O266" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P266" t="n">
-        <v>15750</v>
+        <v>11500</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>788</v>
+        <v>575</v>
       </c>
       <c r="T266" t="n">
         <v>20</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44398</v>
+        <v>44232</v>
       </c>
       <c r="E267" t="n">
         <v>16</v>
@@ -21724,16 +21724,16 @@
         </is>
       </c>
       <c r="M267" t="n">
-        <v>80</v>
+        <v>760</v>
       </c>
       <c r="N267" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="O267" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P267" t="n">
-        <v>11000</v>
+        <v>14789</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>550</v>
+        <v>739</v>
       </c>
       <c r="T267" t="n">
         <v>20</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44398</v>
+        <v>44232</v>
       </c>
       <c r="E268" t="n">
         <v>16</v>
@@ -21804,16 +21804,16 @@
         </is>
       </c>
       <c r="M268" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="N268" t="n">
-        <v>12000</v>
+        <v>15500</v>
       </c>
       <c r="O268" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P268" t="n">
-        <v>12500</v>
+        <v>15750</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>625</v>
+        <v>788</v>
       </c>
       <c r="T268" t="n">
         <v>20</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E269" t="n">
         <v>16</v>
@@ -21887,13 +21887,13 @@
         <v>80</v>
       </c>
       <c r="N269" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O269" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P269" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="T269" t="n">
         <v>20</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E270" t="n">
         <v>16</v>
@@ -21964,16 +21964,16 @@
         </is>
       </c>
       <c r="M270" t="n">
-        <v>360</v>
+        <v>160</v>
       </c>
       <c r="N270" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O270" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P270" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="T270" t="n">
         <v>20</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E271" t="n">
         <v>16</v>
@@ -22047,13 +22047,13 @@
         <v>80</v>
       </c>
       <c r="N271" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O271" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P271" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="T271" t="n">
         <v>20</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E272" t="n">
         <v>16</v>
@@ -22124,16 +22124,16 @@
         </is>
       </c>
       <c r="M272" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="N272" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O272" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P272" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="T272" t="n">
         <v>20</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44286</v>
+        <v>44355</v>
       </c>
       <c r="E273" t="n">
         <v>16</v>
@@ -22204,16 +22204,16 @@
         </is>
       </c>
       <c r="M273" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N273" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O273" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P273" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="T273" t="n">
         <v>20</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44286</v>
+        <v>44355</v>
       </c>
       <c r="E274" t="n">
         <v>16</v>
@@ -22284,16 +22284,16 @@
         </is>
       </c>
       <c r="M274" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N274" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O274" t="n">
         <v>13000</v>
       </c>
-      <c r="O274" t="n">
-        <v>14000</v>
-      </c>
       <c r="P274" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="T274" t="n">
         <v>20</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44244</v>
+        <v>44286</v>
       </c>
       <c r="E275" t="n">
         <v>16</v>
@@ -22367,13 +22367,13 @@
         <v>120</v>
       </c>
       <c r="N275" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O275" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P275" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="T275" t="n">
         <v>20</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44244</v>
+        <v>44286</v>
       </c>
       <c r="E276" t="n">
         <v>16</v>
@@ -22447,13 +22447,13 @@
         <v>240</v>
       </c>
       <c r="N276" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O276" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P276" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="T276" t="n">
         <v>20</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44343</v>
+        <v>44244</v>
       </c>
       <c r="E277" t="n">
         <v>16</v>
@@ -22524,16 +22524,16 @@
         </is>
       </c>
       <c r="M277" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N277" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O277" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P277" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="T277" t="n">
         <v>20</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44343</v>
+        <v>44244</v>
       </c>
       <c r="E278" t="n">
         <v>16</v>
@@ -22604,16 +22604,16 @@
         </is>
       </c>
       <c r="M278" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N278" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O278" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P278" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="T278" t="n">
         <v>20</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44223</v>
+        <v>44343</v>
       </c>
       <c r="E279" t="n">
         <v>16</v>
@@ -22684,16 +22684,16 @@
         </is>
       </c>
       <c r="M279" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N279" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O279" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P279" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="T279" t="n">
         <v>20</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44223</v>
+        <v>44343</v>
       </c>
       <c r="E280" t="n">
         <v>16</v>
@@ -22764,16 +22764,16 @@
         </is>
       </c>
       <c r="M280" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N280" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="O280" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P280" t="n">
-        <v>13750</v>
+        <v>12500</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>688</v>
+        <v>625</v>
       </c>
       <c r="T280" t="n">
         <v>20</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44376</v>
+        <v>44223</v>
       </c>
       <c r="E281" t="n">
         <v>16</v>
@@ -22844,16 +22844,16 @@
         </is>
       </c>
       <c r="M281" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N281" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O281" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P281" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="T281" t="n">
         <v>20</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44376</v>
+        <v>44223</v>
       </c>
       <c r="E282" t="n">
         <v>16</v>
@@ -22927,13 +22927,13 @@
         <v>240</v>
       </c>
       <c r="N282" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="O282" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P282" t="n">
-        <v>12500</v>
+        <v>13750</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>625</v>
+        <v>688</v>
       </c>
       <c r="T282" t="n">
         <v>20</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E283" t="n">
         <v>16</v>
@@ -23004,16 +23004,16 @@
         </is>
       </c>
       <c r="M283" t="n">
-        <v>840</v>
+        <v>80</v>
       </c>
       <c r="N283" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O283" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P283" t="n">
-        <v>12524</v>
+        <v>11000</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>626</v>
+        <v>550</v>
       </c>
       <c r="T283" t="n">
         <v>20</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E284" t="n">
         <v>16</v>
@@ -23084,16 +23084,16 @@
         </is>
       </c>
       <c r="M284" t="n">
-        <v>450</v>
+        <v>240</v>
       </c>
       <c r="N284" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="O284" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P284" t="n">
-        <v>13778</v>
+        <v>12500</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>689</v>
+        <v>625</v>
       </c>
       <c r="T284" t="n">
         <v>20</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44179</v>
+        <v>44208</v>
       </c>
       <c r="E285" t="n">
         <v>16</v>
@@ -23164,16 +23164,16 @@
         </is>
       </c>
       <c r="M285" t="n">
-        <v>640</v>
+        <v>840</v>
       </c>
       <c r="N285" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="O285" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P285" t="n">
-        <v>11766</v>
+        <v>12524</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>588</v>
+        <v>626</v>
       </c>
       <c r="T285" t="n">
         <v>20</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44179</v>
+        <v>44208</v>
       </c>
       <c r="E286" t="n">
         <v>16</v>
@@ -23244,16 +23244,16 @@
         </is>
       </c>
       <c r="M286" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="N286" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="O286" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P286" t="n">
-        <v>12667</v>
+        <v>13778</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>633</v>
+        <v>689</v>
       </c>
       <c r="T286" t="n">
         <v>20</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44284</v>
+        <v>44179</v>
       </c>
       <c r="E287" t="n">
         <v>16</v>
@@ -23324,16 +23324,16 @@
         </is>
       </c>
       <c r="M287" t="n">
-        <v>120</v>
+        <v>640</v>
       </c>
       <c r="N287" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="O287" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P287" t="n">
-        <v>13000</v>
+        <v>11766</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>650</v>
+        <v>588</v>
       </c>
       <c r="T287" t="n">
         <v>20</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44284</v>
+        <v>44179</v>
       </c>
       <c r="E288" t="n">
         <v>16</v>
@@ -23404,16 +23404,16 @@
         </is>
       </c>
       <c r="M288" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N288" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="O288" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P288" t="n">
-        <v>14500</v>
+        <v>12667</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>725</v>
+        <v>633</v>
       </c>
       <c r="T288" t="n">
         <v>20</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44334</v>
+        <v>44284</v>
       </c>
       <c r="E289" t="n">
         <v>16</v>
@@ -23484,16 +23484,16 @@
         </is>
       </c>
       <c r="M289" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N289" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O289" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P289" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="T289" t="n">
         <v>20</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44334</v>
+        <v>44284</v>
       </c>
       <c r="E290" t="n">
         <v>16</v>
@@ -23564,16 +23564,16 @@
         </is>
       </c>
       <c r="M290" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N290" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O290" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P290" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="T290" t="n">
         <v>20</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E291" t="n">
         <v>16</v>
@@ -23647,13 +23647,13 @@
         <v>80</v>
       </c>
       <c r="N291" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O291" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P291" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="T291" t="n">
         <v>20</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E292" t="n">
         <v>16</v>
@@ -23727,28 +23727,188 @@
         <v>240</v>
       </c>
       <c r="N292" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O292" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P292" t="n">
+        <v>12500</v>
+      </c>
+      <c r="Q292" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R292" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S292" t="n">
+        <v>625</v>
+      </c>
+      <c r="T292" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>7</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D293" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E293" t="n">
+        <v>16</v>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G293" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I293" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>Pintón</t>
+        </is>
+      </c>
+      <c r="M293" t="n">
+        <v>80</v>
+      </c>
+      <c r="N293" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O293" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P293" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q293" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R293" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S293" t="n">
+        <v>800</v>
+      </c>
+      <c r="T293" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>7</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D294" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E294" t="n">
+        <v>16</v>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G294" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I294" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>Primera Pintón</t>
+        </is>
+      </c>
+      <c r="M294" t="n">
+        <v>240</v>
+      </c>
+      <c r="N294" t="n">
         <v>17000</v>
       </c>
-      <c r="O292" t="n">
+      <c r="O294" t="n">
         <v>18000</v>
       </c>
-      <c r="P292" t="n">
+      <c r="P294" t="n">
         <v>17500</v>
       </c>
-      <c r="Q292" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R292" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S292" t="n">
+      <c r="Q294" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R294" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S294" t="n">
         <v>875</v>
       </c>
-      <c r="T292" t="n">
+      <c r="T294" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T312"/>
+  <dimension ref="A1:T322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44340</v>
+        <v>44434</v>
       </c>
       <c r="E93" t="n">
         <v>16</v>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N93" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="O93" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P93" t="n">
-        <v>11000</v>
+        <v>14750</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>550</v>
+        <v>738</v>
       </c>
       <c r="T93" t="n">
         <v>20</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44340</v>
+        <v>44434</v>
       </c>
       <c r="E94" t="n">
         <v>16</v>
@@ -7884,16 +7884,16 @@
         </is>
       </c>
       <c r="M94" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="N94" t="n">
-        <v>12000</v>
+        <v>15500</v>
       </c>
       <c r="O94" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P94" t="n">
-        <v>12500</v>
+        <v>15750</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>625</v>
+        <v>788</v>
       </c>
       <c r="T94" t="n">
         <v>20</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44174</v>
+        <v>44340</v>
       </c>
       <c r="E95" t="n">
         <v>16</v>
@@ -7964,16 +7964,16 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>640</v>
+        <v>120</v>
       </c>
       <c r="N95" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O95" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P95" t="n">
-        <v>14469</v>
+        <v>11000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>723</v>
+        <v>550</v>
       </c>
       <c r="T95" t="n">
         <v>20</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44174</v>
+        <v>44340</v>
       </c>
       <c r="E96" t="n">
         <v>16</v>
@@ -8044,16 +8044,16 @@
         </is>
       </c>
       <c r="M96" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N96" t="n">
-        <v>15500</v>
+        <v>12000</v>
       </c>
       <c r="O96" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P96" t="n">
-        <v>15667</v>
+        <v>12500</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>783</v>
+        <v>625</v>
       </c>
       <c r="T96" t="n">
         <v>20</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44221</v>
+        <v>44174</v>
       </c>
       <c r="E97" t="n">
         <v>16</v>
@@ -8124,16 +8124,16 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>80</v>
+        <v>640</v>
       </c>
       <c r="N97" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O97" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P97" t="n">
-        <v>12000</v>
+        <v>14469</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>600</v>
+        <v>723</v>
       </c>
       <c r="T97" t="n">
         <v>20</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44221</v>
+        <v>44174</v>
       </c>
       <c r="E98" t="n">
         <v>16</v>
@@ -8204,16 +8204,16 @@
         </is>
       </c>
       <c r="M98" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N98" t="n">
-        <v>13000</v>
+        <v>15500</v>
       </c>
       <c r="O98" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P98" t="n">
-        <v>13500</v>
+        <v>15667</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>675</v>
+        <v>783</v>
       </c>
       <c r="T98" t="n">
         <v>20</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44271</v>
+        <v>44221</v>
       </c>
       <c r="E99" t="n">
         <v>16</v>
@@ -8284,16 +8284,16 @@
         </is>
       </c>
       <c r="M99" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N99" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O99" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P99" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="T99" t="n">
         <v>20</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44271</v>
+        <v>44221</v>
       </c>
       <c r="E100" t="n">
         <v>16</v>
@@ -8367,13 +8367,13 @@
         <v>240</v>
       </c>
       <c r="N100" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O100" t="n">
         <v>14000</v>
       </c>
-      <c r="O100" t="n">
-        <v>15000</v>
-      </c>
       <c r="P100" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="T100" t="n">
         <v>20</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44280</v>
+        <v>44271</v>
       </c>
       <c r="E101" t="n">
         <v>16</v>
@@ -8444,16 +8444,16 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N101" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O101" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P101" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="T101" t="n">
         <v>20</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44280</v>
+        <v>44271</v>
       </c>
       <c r="E102" t="n">
         <v>16</v>
@@ -8524,16 +8524,16 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="N102" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O102" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P102" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="T102" t="n">
         <v>20</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44299</v>
+        <v>44280</v>
       </c>
       <c r="E103" t="n">
         <v>16</v>
@@ -8607,13 +8607,13 @@
         <v>80</v>
       </c>
       <c r="N103" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O103" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P103" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="T103" t="n">
         <v>20</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44299</v>
+        <v>44280</v>
       </c>
       <c r="E104" t="n">
         <v>16</v>
@@ -8684,16 +8684,16 @@
         </is>
       </c>
       <c r="M104" t="n">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="N104" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O104" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P104" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="T104" t="n">
         <v>20</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44162</v>
+        <v>44299</v>
       </c>
       <c r="E105" t="n">
         <v>16</v>
@@ -8764,16 +8764,16 @@
         </is>
       </c>
       <c r="M105" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N105" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O105" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P105" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="T105" t="n">
         <v>20</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44162</v>
+        <v>44299</v>
       </c>
       <c r="E106" t="n">
         <v>16</v>
@@ -8844,16 +8844,16 @@
         </is>
       </c>
       <c r="M106" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N106" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O106" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P106" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="T106" t="n">
         <v>20</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44342</v>
+        <v>44162</v>
       </c>
       <c r="E107" t="n">
         <v>16</v>
@@ -8924,16 +8924,16 @@
         </is>
       </c>
       <c r="M107" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N107" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O107" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P107" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="T107" t="n">
         <v>20</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44342</v>
+        <v>44162</v>
       </c>
       <c r="E108" t="n">
         <v>16</v>
@@ -9007,13 +9007,13 @@
         <v>240</v>
       </c>
       <c r="N108" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O108" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P108" t="n">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>625</v>
+        <v>825</v>
       </c>
       <c r="T108" t="n">
         <v>20</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44362</v>
+        <v>44342</v>
       </c>
       <c r="E109" t="n">
         <v>16</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44362</v>
+        <v>44342</v>
       </c>
       <c r="E110" t="n">
         <v>16</v>
@@ -9164,7 +9164,7 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N110" t="n">
         <v>12000</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44175</v>
+        <v>44362</v>
       </c>
       <c r="E111" t="n">
         <v>16</v>
@@ -9244,16 +9244,16 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>480</v>
+        <v>80</v>
       </c>
       <c r="N111" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O111" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P111" t="n">
-        <v>14417</v>
+        <v>11000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>721</v>
+        <v>550</v>
       </c>
       <c r="T111" t="n">
         <v>20</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44175</v>
+        <v>44362</v>
       </c>
       <c r="E112" t="n">
         <v>16</v>
@@ -9324,16 +9324,16 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="N112" t="n">
-        <v>15500</v>
+        <v>12000</v>
       </c>
       <c r="O112" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P112" t="n">
-        <v>15826</v>
+        <v>12500</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>791</v>
+        <v>625</v>
       </c>
       <c r="T112" t="n">
         <v>20</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44384</v>
+        <v>44175</v>
       </c>
       <c r="E113" t="n">
         <v>16</v>
@@ -9404,16 +9404,16 @@
         </is>
       </c>
       <c r="M113" t="n">
-        <v>80</v>
+        <v>480</v>
       </c>
       <c r="N113" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O113" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P113" t="n">
-        <v>11000</v>
+        <v>14417</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>550</v>
+        <v>721</v>
       </c>
       <c r="T113" t="n">
         <v>20</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44384</v>
+        <v>44175</v>
       </c>
       <c r="E114" t="n">
         <v>16</v>
@@ -9484,16 +9484,16 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="N114" t="n">
-        <v>12000</v>
+        <v>15500</v>
       </c>
       <c r="O114" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P114" t="n">
-        <v>12500</v>
+        <v>15826</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>625</v>
+        <v>791</v>
       </c>
       <c r="T114" t="n">
         <v>20</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44242</v>
+        <v>44384</v>
       </c>
       <c r="E115" t="n">
         <v>16</v>
@@ -9567,13 +9567,13 @@
         <v>80</v>
       </c>
       <c r="N115" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O115" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P115" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="T115" t="n">
         <v>20</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44242</v>
+        <v>44384</v>
       </c>
       <c r="E116" t="n">
         <v>16</v>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N116" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O116" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P116" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>475</v>
+        <v>625</v>
       </c>
       <c r="T116" t="n">
         <v>20</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44204</v>
+        <v>44242</v>
       </c>
       <c r="E117" t="n">
         <v>16</v>
@@ -9724,16 +9724,16 @@
         </is>
       </c>
       <c r="M117" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N117" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O117" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P117" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="T117" t="n">
         <v>20</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44204</v>
+        <v>44242</v>
       </c>
       <c r="E118" t="n">
         <v>16</v>
@@ -9804,16 +9804,16 @@
         </is>
       </c>
       <c r="M118" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N118" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O118" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P118" t="n">
-        <v>16500</v>
+        <v>9500</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>825</v>
+        <v>475</v>
       </c>
       <c r="T118" t="n">
         <v>20</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44323</v>
+        <v>44204</v>
       </c>
       <c r="E119" t="n">
         <v>16</v>
@@ -9880,20 +9880,20 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N119" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O119" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P119" t="n">
-        <v>16500</v>
+        <v>15000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>825</v>
+        <v>750</v>
       </c>
       <c r="T119" t="n">
         <v>20</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44200</v>
+        <v>44204</v>
       </c>
       <c r="E120" t="n">
         <v>16</v>
@@ -9960,20 +9960,20 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N120" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O120" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P120" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="T120" t="n">
         <v>20</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44200</v>
+        <v>44323</v>
       </c>
       <c r="E121" t="n">
         <v>16</v>
@@ -10047,13 +10047,13 @@
         <v>240</v>
       </c>
       <c r="N121" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O121" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P121" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="T121" t="n">
         <v>20</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44363</v>
+        <v>44200</v>
       </c>
       <c r="E122" t="n">
         <v>16</v>
@@ -10124,16 +10124,16 @@
         </is>
       </c>
       <c r="M122" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="N122" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O122" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P122" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>600</v>
+        <v>725</v>
       </c>
       <c r="T122" t="n">
         <v>20</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44363</v>
+        <v>44200</v>
       </c>
       <c r="E123" t="n">
         <v>16</v>
@@ -10207,13 +10207,13 @@
         <v>240</v>
       </c>
       <c r="N123" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O123" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P123" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="T123" t="n">
         <v>20</v>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44216</v>
+        <v>44363</v>
       </c>
       <c r="E124" t="n">
         <v>16</v>
@@ -10284,16 +10284,16 @@
         </is>
       </c>
       <c r="M124" t="n">
-        <v>740</v>
+        <v>80</v>
       </c>
       <c r="N124" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O124" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P124" t="n">
-        <v>10405</v>
+        <v>12000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="T124" t="n">
         <v>20</v>
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44216</v>
+        <v>44363</v>
       </c>
       <c r="E125" t="n">
         <v>16</v>
@@ -10364,16 +10364,16 @@
         </is>
       </c>
       <c r="M125" t="n">
-        <v>450</v>
+        <v>240</v>
       </c>
       <c r="N125" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="O125" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P125" t="n">
-        <v>11667</v>
+        <v>13500</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>583</v>
+        <v>675</v>
       </c>
       <c r="T125" t="n">
         <v>20</v>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44349</v>
+        <v>44216</v>
       </c>
       <c r="E126" t="n">
         <v>16</v>
@@ -10444,7 +10444,7 @@
         </is>
       </c>
       <c r="M126" t="n">
-        <v>120</v>
+        <v>740</v>
       </c>
       <c r="N126" t="n">
         <v>10000</v>
@@ -10453,7 +10453,7 @@
         <v>11000</v>
       </c>
       <c r="P126" t="n">
-        <v>10500</v>
+        <v>10405</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="T126" t="n">
         <v>20</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44349</v>
+        <v>44216</v>
       </c>
       <c r="E127" t="n">
         <v>16</v>
@@ -10524,16 +10524,16 @@
         </is>
       </c>
       <c r="M127" t="n">
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="N127" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="O127" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P127" t="n">
-        <v>13500</v>
+        <v>11667</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>675</v>
+        <v>583</v>
       </c>
       <c r="T127" t="n">
         <v>20</v>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44385</v>
+        <v>44349</v>
       </c>
       <c r="E128" t="n">
         <v>16</v>
@@ -10604,16 +10604,16 @@
         </is>
       </c>
       <c r="M128" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N128" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O128" t="n">
         <v>11000</v>
       </c>
       <c r="P128" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="T128" t="n">
         <v>20</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44385</v>
+        <v>44349</v>
       </c>
       <c r="E129" t="n">
         <v>16</v>
@@ -10684,16 +10684,16 @@
         </is>
       </c>
       <c r="M129" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N129" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O129" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P129" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         </is>
       </c>
       <c r="S129" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="T129" t="n">
         <v>20</v>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44258</v>
+        <v>44385</v>
       </c>
       <c r="E130" t="n">
         <v>16</v>
@@ -10760,20 +10760,20 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M130" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="N130" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="O130" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P130" t="n">
-        <v>14750</v>
+        <v>11000</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>738</v>
+        <v>550</v>
       </c>
       <c r="T130" t="n">
         <v>20</v>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44243</v>
+        <v>44385</v>
       </c>
       <c r="E131" t="n">
         <v>16</v>
@@ -10840,20 +10840,20 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M131" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N131" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O131" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="P131" t="n">
-        <v>8250</v>
+        <v>12500</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         </is>
       </c>
       <c r="S131" t="n">
-        <v>412</v>
+        <v>625</v>
       </c>
       <c r="T131" t="n">
         <v>20</v>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44243</v>
+        <v>44258</v>
       </c>
       <c r="E132" t="n">
         <v>16</v>
@@ -10924,16 +10924,16 @@
         </is>
       </c>
       <c r="M132" t="n">
-        <v>360</v>
+        <v>160</v>
       </c>
       <c r="N132" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="O132" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P132" t="n">
-        <v>9750</v>
+        <v>14750</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="S132" t="n">
-        <v>488</v>
+        <v>738</v>
       </c>
       <c r="T132" t="n">
         <v>20</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44427</v>
+        <v>44243</v>
       </c>
       <c r="E133" t="n">
         <v>16</v>
@@ -11004,16 +11004,16 @@
         </is>
       </c>
       <c r="M133" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N133" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O133" t="n">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="P133" t="n">
-        <v>12250</v>
+        <v>8250</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         </is>
       </c>
       <c r="S133" t="n">
-        <v>612</v>
+        <v>412</v>
       </c>
       <c r="T133" t="n">
         <v>20</v>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44427</v>
+        <v>44243</v>
       </c>
       <c r="E134" t="n">
         <v>16</v>
@@ -11084,16 +11084,16 @@
         </is>
       </c>
       <c r="M134" t="n">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="N134" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="O134" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P134" t="n">
-        <v>13500</v>
+        <v>9750</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>675</v>
+        <v>488</v>
       </c>
       <c r="T134" t="n">
         <v>20</v>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44413</v>
+        <v>44427</v>
       </c>
       <c r="E135" t="n">
         <v>16</v>
@@ -11164,16 +11164,16 @@
         </is>
       </c>
       <c r="M135" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N135" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O135" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="P135" t="n">
-        <v>11000</v>
+        <v>12250</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>550</v>
+        <v>612</v>
       </c>
       <c r="T135" t="n">
         <v>20</v>
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44413</v>
+        <v>44427</v>
       </c>
       <c r="E136" t="n">
         <v>16</v>
@@ -11247,13 +11247,13 @@
         <v>600</v>
       </c>
       <c r="N136" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O136" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P136" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="T136" t="n">
         <v>20</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44176</v>
+        <v>44413</v>
       </c>
       <c r="E137" t="n">
         <v>16</v>
@@ -11324,16 +11324,16 @@
         </is>
       </c>
       <c r="M137" t="n">
-        <v>640</v>
+        <v>200</v>
       </c>
       <c r="N137" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O137" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P137" t="n">
-        <v>13688</v>
+        <v>11000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="S137" t="n">
-        <v>684</v>
+        <v>550</v>
       </c>
       <c r="T137" t="n">
         <v>20</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44176</v>
+        <v>44413</v>
       </c>
       <c r="E138" t="n">
         <v>16</v>
@@ -11404,16 +11404,16 @@
         </is>
       </c>
       <c r="M138" t="n">
-        <v>280</v>
+        <v>600</v>
       </c>
       <c r="N138" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="O138" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P138" t="n">
-        <v>14714</v>
+        <v>12500</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         </is>
       </c>
       <c r="S138" t="n">
-        <v>736</v>
+        <v>625</v>
       </c>
       <c r="T138" t="n">
         <v>20</v>
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44421</v>
+        <v>44176</v>
       </c>
       <c r="E139" t="n">
         <v>16</v>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="M139" t="n">
-        <v>300</v>
+        <v>640</v>
       </c>
       <c r="N139" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O139" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P139" t="n">
-        <v>12000</v>
+        <v>13688</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>600</v>
+        <v>684</v>
       </c>
       <c r="T139" t="n">
         <v>20</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44421</v>
+        <v>44176</v>
       </c>
       <c r="E140" t="n">
         <v>16</v>
@@ -11564,16 +11564,16 @@
         </is>
       </c>
       <c r="M140" t="n">
-        <v>600</v>
+        <v>280</v>
       </c>
       <c r="N140" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="O140" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P140" t="n">
-        <v>13500</v>
+        <v>14714</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>675</v>
+        <v>736</v>
       </c>
       <c r="T140" t="n">
         <v>20</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44222</v>
+        <v>44421</v>
       </c>
       <c r="E141" t="n">
         <v>16</v>
@@ -11644,16 +11644,16 @@
         </is>
       </c>
       <c r="M141" t="n">
-        <v>740</v>
+        <v>300</v>
       </c>
       <c r="N141" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O141" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P141" t="n">
-        <v>13595</v>
+        <v>12000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>680</v>
+        <v>600</v>
       </c>
       <c r="T141" t="n">
         <v>20</v>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44222</v>
+        <v>44421</v>
       </c>
       <c r="E142" t="n">
         <v>16</v>
@@ -11724,16 +11724,16 @@
         </is>
       </c>
       <c r="M142" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N142" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O142" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P142" t="n">
-        <v>15500</v>
+        <v>13500</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="T142" t="n">
         <v>20</v>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44237</v>
+        <v>44222</v>
       </c>
       <c r="E143" t="n">
         <v>16</v>
@@ -11804,16 +11804,16 @@
         </is>
       </c>
       <c r="M143" t="n">
-        <v>80</v>
+        <v>740</v>
       </c>
       <c r="N143" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O143" t="n">
         <v>14000</v>
       </c>
       <c r="P143" t="n">
-        <v>14000</v>
+        <v>13595</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
@@ -11826,7 +11826,7 @@
         </is>
       </c>
       <c r="S143" t="n">
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="T143" t="n">
         <v>20</v>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44237</v>
+        <v>44222</v>
       </c>
       <c r="E144" t="n">
         <v>16</v>
@@ -11884,7 +11884,7 @@
         </is>
       </c>
       <c r="M144" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N144" t="n">
         <v>15000</v>
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44273</v>
+        <v>44237</v>
       </c>
       <c r="E145" t="n">
         <v>16</v>
@@ -11964,16 +11964,16 @@
         </is>
       </c>
       <c r="M145" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N145" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O145" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P145" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T145" t="n">
         <v>20</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44273</v>
+        <v>44237</v>
       </c>
       <c r="E146" t="n">
         <v>16</v>
@@ -12044,16 +12044,16 @@
         </is>
       </c>
       <c r="M146" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N146" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O146" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P146" t="n">
-        <v>13500</v>
+        <v>15500</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="T146" t="n">
         <v>20</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44377</v>
+        <v>44273</v>
       </c>
       <c r="E147" t="n">
         <v>16</v>
@@ -12124,16 +12124,16 @@
         </is>
       </c>
       <c r="M147" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N147" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O147" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P147" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="T147" t="n">
         <v>20</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44377</v>
+        <v>44273</v>
       </c>
       <c r="E148" t="n">
         <v>16</v>
@@ -12204,16 +12204,16 @@
         </is>
       </c>
       <c r="M148" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N148" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O148" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P148" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="T148" t="n">
         <v>20</v>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44257</v>
+        <v>44377</v>
       </c>
       <c r="E149" t="n">
         <v>16</v>
@@ -12284,16 +12284,16 @@
         </is>
       </c>
       <c r="M149" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N149" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O149" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P149" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="T149" t="n">
         <v>20</v>
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44257</v>
+        <v>44377</v>
       </c>
       <c r="E150" t="n">
         <v>16</v>
@@ -12364,16 +12364,16 @@
         </is>
       </c>
       <c r="M150" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="N150" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O150" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P150" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="T150" t="n">
         <v>20</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44400</v>
+        <v>44257</v>
       </c>
       <c r="E151" t="n">
         <v>16</v>
@@ -12440,20 +12440,20 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M151" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N151" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="O151" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P151" t="n">
-        <v>19500</v>
+        <v>13000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>975</v>
+        <v>650</v>
       </c>
       <c r="T151" t="n">
         <v>20</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44426</v>
+        <v>44257</v>
       </c>
       <c r="E152" t="n">
         <v>16</v>
@@ -12520,20 +12520,20 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M152" t="n">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="N152" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O152" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P152" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>650</v>
+        <v>725</v>
       </c>
       <c r="T152" t="n">
         <v>20</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44426</v>
+        <v>44400</v>
       </c>
       <c r="E153" t="n">
         <v>16</v>
@@ -12604,16 +12604,16 @@
         </is>
       </c>
       <c r="M153" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="N153" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="O153" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P153" t="n">
-        <v>14455</v>
+        <v>19500</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         </is>
       </c>
       <c r="S153" t="n">
-        <v>723</v>
+        <v>975</v>
       </c>
       <c r="T153" t="n">
         <v>20</v>
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44225</v>
+        <v>44426</v>
       </c>
       <c r="E154" t="n">
         <v>16</v>
@@ -12684,16 +12684,16 @@
         </is>
       </c>
       <c r="M154" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N154" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O154" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P154" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="T154" t="n">
         <v>20</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44225</v>
+        <v>44426</v>
       </c>
       <c r="E155" t="n">
         <v>16</v>
@@ -12764,16 +12764,16 @@
         </is>
       </c>
       <c r="M155" t="n">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="N155" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O155" t="n">
         <v>15000</v>
       </c>
-      <c r="O155" t="n">
-        <v>16000</v>
-      </c>
       <c r="P155" t="n">
-        <v>15500</v>
+        <v>14455</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>775</v>
+        <v>723</v>
       </c>
       <c r="T155" t="n">
         <v>20</v>
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44295</v>
+        <v>44225</v>
       </c>
       <c r="E156" t="n">
         <v>16</v>
@@ -12840,20 +12840,20 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M156" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="N156" t="n">
         <v>14000</v>
       </c>
       <c r="O156" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P156" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         </is>
       </c>
       <c r="S156" t="n">
-        <v>725</v>
+        <v>700</v>
       </c>
       <c r="T156" t="n">
         <v>20</v>
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44194</v>
+        <v>44225</v>
       </c>
       <c r="E157" t="n">
         <v>16</v>
@@ -12920,20 +12920,20 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M157" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N157" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O157" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P157" t="n">
-        <v>11000</v>
+        <v>15500</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="S157" t="n">
-        <v>550</v>
+        <v>775</v>
       </c>
       <c r="T157" t="n">
         <v>20</v>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44194</v>
+        <v>44295</v>
       </c>
       <c r="E158" t="n">
         <v>16</v>
@@ -13004,16 +13004,16 @@
         </is>
       </c>
       <c r="M158" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N158" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O158" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P158" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="T158" t="n">
         <v>20</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44390</v>
+        <v>44194</v>
       </c>
       <c r="E159" t="n">
         <v>16</v>
@@ -13084,7 +13084,7 @@
         </is>
       </c>
       <c r="M159" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N159" t="n">
         <v>11000</v>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44390</v>
+        <v>44194</v>
       </c>
       <c r="E160" t="n">
         <v>16</v>
@@ -13164,16 +13164,16 @@
         </is>
       </c>
       <c r="M160" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N160" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O160" t="n">
         <v>13000</v>
       </c>
-      <c r="O160" t="n">
-        <v>14000</v>
-      </c>
       <c r="P160" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="T160" t="n">
         <v>20</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44321</v>
+        <v>44390</v>
       </c>
       <c r="E161" t="n">
         <v>16</v>
@@ -13244,16 +13244,16 @@
         </is>
       </c>
       <c r="M161" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N161" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O161" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P161" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="T161" t="n">
         <v>20</v>
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44321</v>
+        <v>44390</v>
       </c>
       <c r="E162" t="n">
         <v>16</v>
@@ -13327,13 +13327,13 @@
         <v>240</v>
       </c>
       <c r="N162" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O162" t="n">
         <v>14000</v>
       </c>
-      <c r="O162" t="n">
-        <v>15000</v>
-      </c>
       <c r="P162" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="T162" t="n">
         <v>20</v>
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E163" t="n">
         <v>16</v>
@@ -13404,16 +13404,16 @@
         </is>
       </c>
       <c r="M163" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N163" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O163" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P163" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="T163" t="n">
         <v>20</v>
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E164" t="n">
         <v>16</v>
@@ -13487,13 +13487,13 @@
         <v>240</v>
       </c>
       <c r="N164" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O164" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P164" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="T164" t="n">
         <v>20</v>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44383</v>
+        <v>44298</v>
       </c>
       <c r="E165" t="n">
         <v>16</v>
@@ -13567,13 +13567,13 @@
         <v>80</v>
       </c>
       <c r="N165" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O165" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P165" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T165" t="n">
         <v>20</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44383</v>
+        <v>44298</v>
       </c>
       <c r="E166" t="n">
         <v>16</v>
@@ -13644,16 +13644,16 @@
         </is>
       </c>
       <c r="M166" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N166" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O166" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P166" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="T166" t="n">
         <v>20</v>
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44354</v>
+        <v>44383</v>
       </c>
       <c r="E167" t="n">
         <v>16</v>
@@ -13727,13 +13727,13 @@
         <v>80</v>
       </c>
       <c r="N167" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O167" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P167" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="T167" t="n">
         <v>20</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44354</v>
+        <v>44383</v>
       </c>
       <c r="E168" t="n">
         <v>16</v>
@@ -13804,16 +13804,16 @@
         </is>
       </c>
       <c r="M168" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N168" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O168" t="n">
         <v>12000</v>
       </c>
-      <c r="O168" t="n">
-        <v>13000</v>
-      </c>
       <c r="P168" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="T168" t="n">
         <v>20</v>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44169</v>
+        <v>44354</v>
       </c>
       <c r="E169" t="n">
         <v>16</v>
@@ -13887,13 +13887,13 @@
         <v>80</v>
       </c>
       <c r="N169" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="O169" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P169" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="T169" t="n">
         <v>20</v>
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44169</v>
+        <v>44354</v>
       </c>
       <c r="E170" t="n">
         <v>16</v>
@@ -13967,13 +13967,13 @@
         <v>240</v>
       </c>
       <c r="N170" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O170" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P170" t="n">
-        <v>18500</v>
+        <v>12500</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>925</v>
+        <v>625</v>
       </c>
       <c r="T170" t="n">
         <v>20</v>
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44410</v>
+        <v>44169</v>
       </c>
       <c r="E171" t="n">
         <v>16</v>
@@ -14044,16 +14044,16 @@
         </is>
       </c>
       <c r="M171" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="N171" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="O171" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P171" t="n">
-        <v>12750</v>
+        <v>17000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>638</v>
+        <v>850</v>
       </c>
       <c r="T171" t="n">
         <v>20</v>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44410</v>
+        <v>44169</v>
       </c>
       <c r="E172" t="n">
         <v>16</v>
@@ -14124,16 +14124,16 @@
         </is>
       </c>
       <c r="M172" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="N172" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O172" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P172" t="n">
-        <v>14500</v>
+        <v>18500</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>725</v>
+        <v>925</v>
       </c>
       <c r="T172" t="n">
         <v>20</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44412</v>
+        <v>44410</v>
       </c>
       <c r="E173" t="n">
         <v>16</v>
@@ -14204,16 +14204,16 @@
         </is>
       </c>
       <c r="M173" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N173" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="O173" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P173" t="n">
-        <v>11750</v>
+        <v>12750</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>588</v>
+        <v>638</v>
       </c>
       <c r="T173" t="n">
         <v>20</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44412</v>
+        <v>44410</v>
       </c>
       <c r="E174" t="n">
         <v>16</v>
@@ -14284,16 +14284,16 @@
         </is>
       </c>
       <c r="M174" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N174" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O174" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P174" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="T174" t="n">
         <v>20</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E175" t="n">
         <v>16</v>
@@ -14360,20 +14360,20 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M175" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N175" t="n">
+        <v>11500</v>
+      </c>
+      <c r="O175" t="n">
         <v>12000</v>
       </c>
-      <c r="O175" t="n">
-        <v>13000</v>
-      </c>
       <c r="P175" t="n">
-        <v>12500</v>
+        <v>11750</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>625</v>
+        <v>588</v>
       </c>
       <c r="T175" t="n">
         <v>20</v>
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44300</v>
+        <v>44412</v>
       </c>
       <c r="E176" t="n">
         <v>16</v>
@@ -14440,20 +14440,20 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M176" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N176" t="n">
         <v>13000</v>
       </c>
       <c r="O176" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P176" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="T176" t="n">
         <v>20</v>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44300</v>
+        <v>44336</v>
       </c>
       <c r="E177" t="n">
         <v>16</v>
@@ -14524,16 +14524,16 @@
         </is>
       </c>
       <c r="M177" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N177" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O177" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P177" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="T177" t="n">
         <v>20</v>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44172</v>
+        <v>44300</v>
       </c>
       <c r="E178" t="n">
         <v>16</v>
@@ -14604,16 +14604,16 @@
         </is>
       </c>
       <c r="M178" t="n">
-        <v>480</v>
+        <v>80</v>
       </c>
       <c r="N178" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="O178" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P178" t="n">
-        <v>15375</v>
+        <v>13000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>769</v>
+        <v>650</v>
       </c>
       <c r="T178" t="n">
         <v>20</v>
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44172</v>
+        <v>44300</v>
       </c>
       <c r="E179" t="n">
         <v>16</v>
@@ -14684,16 +14684,16 @@
         </is>
       </c>
       <c r="M179" t="n">
-        <v>380</v>
+        <v>240</v>
       </c>
       <c r="N179" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O179" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P179" t="n">
-        <v>17526</v>
+        <v>14500</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>876</v>
+        <v>725</v>
       </c>
       <c r="T179" t="n">
         <v>20</v>
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44214</v>
+        <v>44172</v>
       </c>
       <c r="E180" t="n">
         <v>16</v>
@@ -14764,16 +14764,16 @@
         </is>
       </c>
       <c r="M180" t="n">
-        <v>740</v>
+        <v>480</v>
       </c>
       <c r="N180" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="O180" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="P180" t="n">
-        <v>10230</v>
+        <v>15375</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>512</v>
+        <v>769</v>
       </c>
       <c r="T180" t="n">
         <v>20</v>
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44214</v>
+        <v>44172</v>
       </c>
       <c r="E181" t="n">
         <v>16</v>
@@ -14844,16 +14844,16 @@
         </is>
       </c>
       <c r="M181" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="N181" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="O181" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P181" t="n">
-        <v>11429</v>
+        <v>17526</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>571</v>
+        <v>876</v>
       </c>
       <c r="T181" t="n">
         <v>20</v>
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44371</v>
+        <v>44214</v>
       </c>
       <c r="E182" t="n">
         <v>16</v>
@@ -14924,16 +14924,16 @@
         </is>
       </c>
       <c r="M182" t="n">
-        <v>120</v>
+        <v>740</v>
       </c>
       <c r="N182" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O182" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="P182" t="n">
-        <v>11000</v>
+        <v>10230</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>550</v>
+        <v>512</v>
       </c>
       <c r="T182" t="n">
         <v>20</v>
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44371</v>
+        <v>44214</v>
       </c>
       <c r="E183" t="n">
         <v>16</v>
@@ -15004,16 +15004,16 @@
         </is>
       </c>
       <c r="M183" t="n">
-        <v>240</v>
+        <v>350</v>
       </c>
       <c r="N183" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O183" t="n">
         <v>12000</v>
       </c>
-      <c r="O183" t="n">
-        <v>13000</v>
-      </c>
       <c r="P183" t="n">
-        <v>12500</v>
+        <v>11429</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>625</v>
+        <v>571</v>
       </c>
       <c r="T183" t="n">
         <v>20</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44238</v>
+        <v>44371</v>
       </c>
       <c r="E184" t="n">
         <v>16</v>
@@ -15087,13 +15087,13 @@
         <v>120</v>
       </c>
       <c r="N184" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O184" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P184" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="T184" t="n">
         <v>20</v>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44238</v>
+        <v>44371</v>
       </c>
       <c r="E185" t="n">
         <v>16</v>
@@ -15167,13 +15167,13 @@
         <v>240</v>
       </c>
       <c r="N185" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O185" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P185" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>775</v>
+        <v>625</v>
       </c>
       <c r="T185" t="n">
         <v>20</v>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44274</v>
+        <v>44238</v>
       </c>
       <c r="E186" t="n">
         <v>16</v>
@@ -15244,16 +15244,16 @@
         </is>
       </c>
       <c r="M186" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N186" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O186" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P186" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T186" t="n">
         <v>20</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44274</v>
+        <v>44238</v>
       </c>
       <c r="E187" t="n">
         <v>16</v>
@@ -15327,13 +15327,13 @@
         <v>240</v>
       </c>
       <c r="N187" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O187" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P187" t="n">
-        <v>13500</v>
+        <v>15500</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="T187" t="n">
         <v>20</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44320</v>
+        <v>44274</v>
       </c>
       <c r="E188" t="n">
         <v>16</v>
@@ -15400,20 +15400,20 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M188" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N188" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O188" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P188" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>725</v>
+        <v>600</v>
       </c>
       <c r="T188" t="n">
         <v>20</v>
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44314</v>
+        <v>44274</v>
       </c>
       <c r="E189" t="n">
         <v>16</v>
@@ -15484,16 +15484,16 @@
         </is>
       </c>
       <c r="M189" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="N189" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O189" t="n">
         <v>14000</v>
       </c>
-      <c r="O189" t="n">
-        <v>15000</v>
-      </c>
       <c r="P189" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         </is>
       </c>
       <c r="S189" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="T189" t="n">
         <v>20</v>
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44364</v>
+        <v>44320</v>
       </c>
       <c r="E190" t="n">
         <v>16</v>
@@ -15560,20 +15560,20 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M190" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="N190" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O190" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P190" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>650</v>
+        <v>725</v>
       </c>
       <c r="T190" t="n">
         <v>20</v>
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E191" t="n">
         <v>16</v>
@@ -15644,7 +15644,7 @@
         </is>
       </c>
       <c r="M191" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N191" t="n">
         <v>14000</v>
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E192" t="n">
         <v>16</v>
@@ -15720,20 +15720,20 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M192" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N192" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="O192" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P192" t="n">
-        <v>17500</v>
+        <v>13000</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="S192" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="T192" t="n">
         <v>20</v>
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44224</v>
+        <v>44364</v>
       </c>
       <c r="E193" t="n">
         <v>16</v>
@@ -15800,20 +15800,20 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M193" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="N193" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O193" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P193" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         </is>
       </c>
       <c r="S193" t="n">
-        <v>650</v>
+        <v>725</v>
       </c>
       <c r="T193" t="n">
         <v>20</v>
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44224</v>
+        <v>44435</v>
       </c>
       <c r="E194" t="n">
         <v>16</v>
@@ -15880,20 +15880,20 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M194" t="n">
-        <v>240</v>
+        <v>1340</v>
       </c>
       <c r="N194" t="n">
-        <v>14000</v>
+        <v>11500</v>
       </c>
       <c r="O194" t="n">
         <v>15000</v>
       </c>
       <c r="P194" t="n">
-        <v>14500</v>
+        <v>13177</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         </is>
       </c>
       <c r="S194" t="n">
-        <v>725</v>
+        <v>659</v>
       </c>
       <c r="T194" t="n">
         <v>20</v>
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44260</v>
+        <v>44435</v>
       </c>
       <c r="E195" t="n">
         <v>16</v>
@@ -15960,20 +15960,20 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M195" t="n">
-        <v>180</v>
+        <v>2020</v>
       </c>
       <c r="N195" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="O195" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P195" t="n">
-        <v>14000</v>
+        <v>14505</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         </is>
       </c>
       <c r="S195" t="n">
-        <v>700</v>
+        <v>725</v>
       </c>
       <c r="T195" t="n">
         <v>20</v>
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44260</v>
+        <v>44431</v>
       </c>
       <c r="E196" t="n">
         <v>16</v>
@@ -16040,20 +16040,20 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M196" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N196" t="n">
-        <v>15000</v>
+        <v>11500</v>
       </c>
       <c r="O196" t="n">
-        <v>16000</v>
+        <v>11800</v>
       </c>
       <c r="P196" t="n">
-        <v>15500</v>
+        <v>11650</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         </is>
       </c>
       <c r="S196" t="n">
-        <v>775</v>
+        <v>582</v>
       </c>
       <c r="T196" t="n">
         <v>20</v>
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44327</v>
+        <v>44431</v>
       </c>
       <c r="E197" t="n">
         <v>16</v>
@@ -16120,20 +16120,20 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M197" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N197" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="O197" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P197" t="n">
-        <v>14000</v>
+        <v>12750</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="S197" t="n">
-        <v>700</v>
+        <v>638</v>
       </c>
       <c r="T197" t="n">
         <v>20</v>
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44327</v>
+        <v>44405</v>
       </c>
       <c r="E198" t="n">
         <v>16</v>
@@ -16204,16 +16204,16 @@
         </is>
       </c>
       <c r="M198" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N198" t="n">
-        <v>15500</v>
+        <v>17000</v>
       </c>
       <c r="O198" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P198" t="n">
-        <v>15750</v>
+        <v>17500</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         </is>
       </c>
       <c r="S198" t="n">
-        <v>788</v>
+        <v>875</v>
       </c>
       <c r="T198" t="n">
         <v>20</v>
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44231</v>
+        <v>44224</v>
       </c>
       <c r="E199" t="n">
         <v>16</v>
@@ -16284,16 +16284,16 @@
         </is>
       </c>
       <c r="M199" t="n">
-        <v>740</v>
+        <v>120</v>
       </c>
       <c r="N199" t="n">
         <v>13000</v>
       </c>
       <c r="O199" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P199" t="n">
-        <v>13541</v>
+        <v>13000</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         </is>
       </c>
       <c r="S199" t="n">
-        <v>677</v>
+        <v>650</v>
       </c>
       <c r="T199" t="n">
         <v>20</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44231</v>
+        <v>44224</v>
       </c>
       <c r="E200" t="n">
         <v>16</v>
@@ -16364,16 +16364,16 @@
         </is>
       </c>
       <c r="M200" t="n">
-        <v>390</v>
+        <v>240</v>
       </c>
       <c r="N200" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O200" t="n">
         <v>15000</v>
       </c>
-      <c r="O200" t="n">
-        <v>16000</v>
-      </c>
       <c r="P200" t="n">
-        <v>15641</v>
+        <v>14500</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         </is>
       </c>
       <c r="S200" t="n">
-        <v>782</v>
+        <v>725</v>
       </c>
       <c r="T200" t="n">
         <v>20</v>
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44313</v>
+        <v>44260</v>
       </c>
       <c r="E201" t="n">
         <v>16</v>
@@ -16444,16 +16444,16 @@
         </is>
       </c>
       <c r="M201" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="N201" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O201" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P201" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         </is>
       </c>
       <c r="S201" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T201" t="n">
         <v>20</v>
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44313</v>
+        <v>44260</v>
       </c>
       <c r="E202" t="n">
         <v>16</v>
@@ -16524,16 +16524,16 @@
         </is>
       </c>
       <c r="M202" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N202" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O202" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P202" t="n">
-        <v>13500</v>
+        <v>15500</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="S202" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="T202" t="n">
         <v>20</v>
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44330</v>
+        <v>44327</v>
       </c>
       <c r="E203" t="n">
         <v>16</v>
@@ -16607,13 +16607,13 @@
         <v>120</v>
       </c>
       <c r="N203" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O203" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P203" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         </is>
       </c>
       <c r="S203" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T203" t="n">
         <v>20</v>
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44330</v>
+        <v>44327</v>
       </c>
       <c r="E204" t="n">
         <v>16</v>
@@ -16684,16 +16684,16 @@
         </is>
       </c>
       <c r="M204" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N204" t="n">
-        <v>13000</v>
+        <v>15500</v>
       </c>
       <c r="O204" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P204" t="n">
-        <v>13500</v>
+        <v>15750</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         </is>
       </c>
       <c r="S204" t="n">
-        <v>675</v>
+        <v>788</v>
       </c>
       <c r="T204" t="n">
         <v>20</v>
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44391</v>
+        <v>44231</v>
       </c>
       <c r="E205" t="n">
         <v>16</v>
@@ -16764,16 +16764,16 @@
         </is>
       </c>
       <c r="M205" t="n">
-        <v>120</v>
+        <v>740</v>
       </c>
       <c r="N205" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O205" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P205" t="n">
-        <v>11000</v>
+        <v>13541</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         </is>
       </c>
       <c r="S205" t="n">
-        <v>550</v>
+        <v>677</v>
       </c>
       <c r="T205" t="n">
         <v>20</v>
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44391</v>
+        <v>44231</v>
       </c>
       <c r="E206" t="n">
         <v>16</v>
@@ -16844,16 +16844,16 @@
         </is>
       </c>
       <c r="M206" t="n">
-        <v>240</v>
+        <v>390</v>
       </c>
       <c r="N206" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O206" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P206" t="n">
-        <v>12500</v>
+        <v>15641</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         </is>
       </c>
       <c r="S206" t="n">
-        <v>625</v>
+        <v>782</v>
       </c>
       <c r="T206" t="n">
         <v>20</v>
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44193</v>
+        <v>44313</v>
       </c>
       <c r="E207" t="n">
         <v>16</v>
@@ -16924,16 +16924,16 @@
         </is>
       </c>
       <c r="M207" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="N207" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O207" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P207" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="S207" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T207" t="n">
         <v>20</v>
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44193</v>
+        <v>44313</v>
       </c>
       <c r="E208" t="n">
         <v>16</v>
@@ -17004,16 +17004,16 @@
         </is>
       </c>
       <c r="M208" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N208" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O208" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P208" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         </is>
       </c>
       <c r="S208" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="T208" t="n">
         <v>20</v>
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44351</v>
+        <v>44330</v>
       </c>
       <c r="E209" t="n">
         <v>16</v>
@@ -17084,16 +17084,16 @@
         </is>
       </c>
       <c r="M209" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N209" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O209" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P209" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         </is>
       </c>
       <c r="S209" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="T209" t="n">
         <v>20</v>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44351</v>
+        <v>44330</v>
       </c>
       <c r="E210" t="n">
         <v>16</v>
@@ -17164,16 +17164,16 @@
         </is>
       </c>
       <c r="M210" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N210" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O210" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P210" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="T210" t="n">
         <v>20</v>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44350</v>
+        <v>44391</v>
       </c>
       <c r="E211" t="n">
         <v>16</v>
@@ -17240,20 +17240,20 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M211" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N211" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O211" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P211" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="T211" t="n">
         <v>20</v>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44196</v>
+        <v>44391</v>
       </c>
       <c r="E212" t="n">
         <v>16</v>
@@ -17320,11 +17320,11 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M212" t="n">
-        <v>540</v>
+        <v>240</v>
       </c>
       <c r="N212" t="n">
         <v>12000</v>
@@ -17333,7 +17333,7 @@
         <v>13000</v>
       </c>
       <c r="P212" t="n">
-        <v>12370</v>
+        <v>12500</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="T212" t="n">
         <v>20</v>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44196</v>
+        <v>44193</v>
       </c>
       <c r="E213" t="n">
         <v>16</v>
@@ -17400,20 +17400,20 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M213" t="n">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="N213" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O213" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P213" t="n">
-        <v>14536</v>
+        <v>10000</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         </is>
       </c>
       <c r="S213" t="n">
-        <v>727</v>
+        <v>500</v>
       </c>
       <c r="T213" t="n">
         <v>20</v>
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44315</v>
+        <v>44193</v>
       </c>
       <c r="E214" t="n">
         <v>16</v>
@@ -17480,20 +17480,20 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M214" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="N214" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O214" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P214" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         </is>
       </c>
       <c r="S214" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="T214" t="n">
         <v>20</v>
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44315</v>
+        <v>44351</v>
       </c>
       <c r="E215" t="n">
         <v>16</v>
@@ -17560,20 +17560,20 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M215" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N215" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O215" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P215" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         </is>
       </c>
       <c r="S215" t="n">
-        <v>725</v>
+        <v>550</v>
       </c>
       <c r="T215" t="n">
         <v>20</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44278</v>
+        <v>44351</v>
       </c>
       <c r="E216" t="n">
         <v>16</v>
@@ -17644,7 +17644,7 @@
         </is>
       </c>
       <c r="M216" t="n">
-        <v>360</v>
+        <v>160</v>
       </c>
       <c r="N216" t="n">
         <v>12000</v>
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44358</v>
+        <v>44350</v>
       </c>
       <c r="E217" t="n">
         <v>16</v>
@@ -17720,20 +17720,20 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M217" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="N217" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O217" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P217" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="S217" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="T217" t="n">
         <v>20</v>
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44358</v>
+        <v>44196</v>
       </c>
       <c r="E218" t="n">
         <v>16</v>
@@ -17800,11 +17800,11 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M218" t="n">
-        <v>160</v>
+        <v>540</v>
       </c>
       <c r="N218" t="n">
         <v>12000</v>
@@ -17813,7 +17813,7 @@
         <v>13000</v>
       </c>
       <c r="P218" t="n">
-        <v>12500</v>
+        <v>12370</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="T218" t="n">
         <v>20</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44389</v>
+        <v>44196</v>
       </c>
       <c r="E219" t="n">
         <v>16</v>
@@ -17880,20 +17880,20 @@
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M219" t="n">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="N219" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O219" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P219" t="n">
-        <v>11000</v>
+        <v>14536</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>550</v>
+        <v>727</v>
       </c>
       <c r="T219" t="n">
         <v>20</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44389</v>
+        <v>44315</v>
       </c>
       <c r="E220" t="n">
         <v>16</v>
@@ -17960,20 +17960,20 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M220" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N220" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O220" t="n">
         <v>13000</v>
       </c>
       <c r="P220" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>625</v>
+        <v>650</v>
       </c>
       <c r="T220" t="n">
         <v>20</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44399</v>
+        <v>44315</v>
       </c>
       <c r="E221" t="n">
         <v>16</v>
@@ -18047,13 +18047,13 @@
         <v>240</v>
       </c>
       <c r="N221" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O221" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P221" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="T221" t="n">
         <v>20</v>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44251</v>
+        <v>44278</v>
       </c>
       <c r="E222" t="n">
         <v>16</v>
@@ -18120,20 +18120,20 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M222" t="n">
-        <v>660</v>
+        <v>360</v>
       </c>
       <c r="N222" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O222" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="P222" t="n">
-        <v>9273</v>
+        <v>12500</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>464</v>
+        <v>625</v>
       </c>
       <c r="T222" t="n">
         <v>20</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44251</v>
+        <v>44358</v>
       </c>
       <c r="E223" t="n">
         <v>16</v>
@@ -18200,20 +18200,20 @@
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M223" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="N223" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O223" t="n">
         <v>11000</v>
       </c>
       <c r="P223" t="n">
-        <v>10667</v>
+        <v>11000</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>533</v>
+        <v>550</v>
       </c>
       <c r="T223" t="n">
         <v>20</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44292</v>
+        <v>44358</v>
       </c>
       <c r="E224" t="n">
         <v>16</v>
@@ -18284,16 +18284,16 @@
         </is>
       </c>
       <c r="M224" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N224" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O224" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P224" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="T224" t="n">
         <v>20</v>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44305</v>
+        <v>44389</v>
       </c>
       <c r="E225" t="n">
         <v>16</v>
@@ -18367,13 +18367,13 @@
         <v>80</v>
       </c>
       <c r="N225" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O225" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P225" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="T225" t="n">
         <v>20</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44305</v>
+        <v>44389</v>
       </c>
       <c r="E226" t="n">
         <v>16</v>
@@ -18447,13 +18447,13 @@
         <v>240</v>
       </c>
       <c r="N226" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O226" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P226" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="T226" t="n">
         <v>20</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44294</v>
+        <v>44399</v>
       </c>
       <c r="E227" t="n">
         <v>16</v>
@@ -18520,20 +18520,20 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M227" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="N227" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O227" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P227" t="n">
-        <v>13000</v>
+        <v>16500</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>650</v>
+        <v>825</v>
       </c>
       <c r="T227" t="n">
         <v>20</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44294</v>
+        <v>44251</v>
       </c>
       <c r="E228" t="n">
         <v>16</v>
@@ -18600,20 +18600,20 @@
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M228" t="n">
-        <v>160</v>
+        <v>660</v>
       </c>
       <c r="N228" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O228" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="P228" t="n">
-        <v>14500</v>
+        <v>9273</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>725</v>
+        <v>464</v>
       </c>
       <c r="T228" t="n">
         <v>20</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44417</v>
+        <v>44251</v>
       </c>
       <c r="E229" t="n">
         <v>16</v>
@@ -18680,20 +18680,20 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M229" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N229" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O229" t="n">
         <v>11000</v>
       </c>
       <c r="P229" t="n">
-        <v>11000</v>
+        <v>10667</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>550</v>
+        <v>533</v>
       </c>
       <c r="T229" t="n">
         <v>20</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44417</v>
+        <v>44292</v>
       </c>
       <c r="E230" t="n">
         <v>16</v>
@@ -18764,16 +18764,16 @@
         </is>
       </c>
       <c r="M230" t="n">
-        <v>680</v>
+        <v>240</v>
       </c>
       <c r="N230" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O230" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P230" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="T230" t="n">
         <v>20</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44419</v>
+        <v>44305</v>
       </c>
       <c r="E231" t="n">
         <v>16</v>
@@ -18844,16 +18844,16 @@
         </is>
       </c>
       <c r="M231" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="N231" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O231" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P231" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="T231" t="n">
         <v>20</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44419</v>
+        <v>44305</v>
       </c>
       <c r="E232" t="n">
         <v>16</v>
@@ -18924,16 +18924,16 @@
         </is>
       </c>
       <c r="M232" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="N232" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O232" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P232" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="T232" t="n">
         <v>20</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44420</v>
+        <v>44294</v>
       </c>
       <c r="E233" t="n">
         <v>16</v>
@@ -19004,16 +19004,16 @@
         </is>
       </c>
       <c r="M233" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N233" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O233" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P233" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="T233" t="n">
         <v>20</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44420</v>
+        <v>44294</v>
       </c>
       <c r="E234" t="n">
         <v>16</v>
@@ -19084,16 +19084,16 @@
         </is>
       </c>
       <c r="M234" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N234" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O234" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P234" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="T234" t="n">
         <v>20</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44245</v>
+        <v>44417</v>
       </c>
       <c r="E235" t="n">
         <v>16</v>
@@ -19164,16 +19164,16 @@
         </is>
       </c>
       <c r="M235" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="N235" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O235" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P235" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="T235" t="n">
         <v>20</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44245</v>
+        <v>44417</v>
       </c>
       <c r="E236" t="n">
         <v>16</v>
@@ -19240,20 +19240,20 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M236" t="n">
-        <v>80</v>
+        <v>680</v>
       </c>
       <c r="N236" t="n">
         <v>12000</v>
       </c>
       <c r="O236" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P236" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>600</v>
+        <v>625</v>
       </c>
       <c r="T236" t="n">
         <v>20</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44245</v>
+        <v>44419</v>
       </c>
       <c r="E237" t="n">
         <v>16</v>
@@ -19320,11 +19320,11 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M237" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N237" t="n">
         <v>11000</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44202</v>
+        <v>44419</v>
       </c>
       <c r="E238" t="n">
         <v>16</v>
@@ -19400,20 +19400,20 @@
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M238" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N238" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O238" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P238" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>775</v>
+        <v>625</v>
       </c>
       <c r="T238" t="n">
         <v>20</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44181</v>
+        <v>44420</v>
       </c>
       <c r="E239" t="n">
         <v>16</v>
@@ -19484,16 +19484,16 @@
         </is>
       </c>
       <c r="M239" t="n">
-        <v>640</v>
+        <v>100</v>
       </c>
       <c r="N239" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="O239" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="P239" t="n">
-        <v>12031</v>
+        <v>11000</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>602</v>
+        <v>550</v>
       </c>
       <c r="T239" t="n">
         <v>20</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44181</v>
+        <v>44420</v>
       </c>
       <c r="E240" t="n">
         <v>16</v>
@@ -19564,16 +19564,16 @@
         </is>
       </c>
       <c r="M240" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="N240" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O240" t="n">
         <v>13000</v>
       </c>
-      <c r="O240" t="n">
-        <v>14000</v>
-      </c>
       <c r="P240" t="n">
-        <v>13600</v>
+        <v>12500</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>680</v>
+        <v>625</v>
       </c>
       <c r="T240" t="n">
         <v>20</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44369</v>
+        <v>44245</v>
       </c>
       <c r="E241" t="n">
         <v>16</v>
@@ -19647,13 +19647,13 @@
         <v>80</v>
       </c>
       <c r="N241" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O241" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P241" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="T241" t="n">
         <v>20</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44369</v>
+        <v>44245</v>
       </c>
       <c r="E242" t="n">
         <v>16</v>
@@ -19720,20 +19720,20 @@
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M242" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="N242" t="n">
         <v>12000</v>
       </c>
       <c r="O242" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P242" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>625</v>
+        <v>600</v>
       </c>
       <c r="T242" t="n">
         <v>20</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44307</v>
+        <v>44245</v>
       </c>
       <c r="E243" t="n">
         <v>16</v>
@@ -19800,20 +19800,20 @@
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M243" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="N243" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="O243" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P243" t="n">
-        <v>11750</v>
+        <v>11000</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>588</v>
+        <v>550</v>
       </c>
       <c r="T243" t="n">
         <v>20</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44307</v>
+        <v>44202</v>
       </c>
       <c r="E244" t="n">
         <v>16</v>
@@ -19880,20 +19880,20 @@
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M244" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N244" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O244" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P244" t="n">
-        <v>13500</v>
+        <v>15500</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="T244" t="n">
         <v>20</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44161</v>
+        <v>44181</v>
       </c>
       <c r="E245" t="n">
         <v>16</v>
@@ -19964,16 +19964,16 @@
         </is>
       </c>
       <c r="M245" t="n">
-        <v>80</v>
+        <v>640</v>
       </c>
       <c r="N245" t="n">
-        <v>16000</v>
+        <v>11500</v>
       </c>
       <c r="O245" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="P245" t="n">
-        <v>16000</v>
+        <v>12031</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>800</v>
+        <v>602</v>
       </c>
       <c r="T245" t="n">
         <v>20</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44161</v>
+        <v>44181</v>
       </c>
       <c r="E246" t="n">
         <v>16</v>
@@ -20044,16 +20044,16 @@
         </is>
       </c>
       <c r="M246" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="N246" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="O246" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P246" t="n">
-        <v>17500</v>
+        <v>13600</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>875</v>
+        <v>680</v>
       </c>
       <c r="T246" t="n">
         <v>20</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44195</v>
+        <v>44369</v>
       </c>
       <c r="E247" t="n">
         <v>16</v>
@@ -20124,16 +20124,16 @@
         </is>
       </c>
       <c r="M247" t="n">
-        <v>590</v>
+        <v>80</v>
       </c>
       <c r="N247" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="O247" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P247" t="n">
-        <v>12797</v>
+        <v>11000</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>640</v>
+        <v>550</v>
       </c>
       <c r="T247" t="n">
         <v>20</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44195</v>
+        <v>44369</v>
       </c>
       <c r="E248" t="n">
         <v>16</v>
@@ -20204,16 +20204,16 @@
         </is>
       </c>
       <c r="M248" t="n">
-        <v>450</v>
+        <v>160</v>
       </c>
       <c r="N248" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O248" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P248" t="n">
-        <v>14556</v>
+        <v>12500</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>728</v>
+        <v>625</v>
       </c>
       <c r="T248" t="n">
         <v>20</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44265</v>
+        <v>44307</v>
       </c>
       <c r="E249" t="n">
         <v>16</v>
@@ -20284,16 +20284,16 @@
         </is>
       </c>
       <c r="M249" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="N249" t="n">
-        <v>14000</v>
+        <v>11500</v>
       </c>
       <c r="O249" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P249" t="n">
-        <v>14000</v>
+        <v>11750</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>700</v>
+        <v>588</v>
       </c>
       <c r="T249" t="n">
         <v>20</v>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44265</v>
+        <v>44307</v>
       </c>
       <c r="E250" t="n">
         <v>16</v>
@@ -20364,16 +20364,16 @@
         </is>
       </c>
       <c r="M250" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N250" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O250" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P250" t="n">
-        <v>15500</v>
+        <v>13500</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="T250" t="n">
         <v>20</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44159</v>
+        <v>44161</v>
       </c>
       <c r="E251" t="n">
         <v>16</v>
@@ -20447,13 +20447,13 @@
         <v>80</v>
       </c>
       <c r="N251" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O251" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P251" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="T251" t="n">
         <v>20</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44159</v>
+        <v>44161</v>
       </c>
       <c r="E252" t="n">
         <v>16</v>
@@ -20527,13 +20527,13 @@
         <v>160</v>
       </c>
       <c r="N252" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O252" t="n">
         <v>18000</v>
       </c>
-      <c r="O252" t="n">
-        <v>19000</v>
-      </c>
       <c r="P252" t="n">
-        <v>18500</v>
+        <v>17500</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>925</v>
+        <v>875</v>
       </c>
       <c r="T252" t="n">
         <v>20</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44333</v>
+        <v>44195</v>
       </c>
       <c r="E253" t="n">
         <v>16</v>
@@ -20600,20 +20600,20 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M253" t="n">
-        <v>240</v>
+        <v>590</v>
       </c>
       <c r="N253" t="n">
+        <v>12500</v>
+      </c>
+      <c r="O253" t="n">
         <v>13000</v>
       </c>
-      <c r="O253" t="n">
-        <v>14000</v>
-      </c>
       <c r="P253" t="n">
-        <v>13500</v>
+        <v>12797</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>675</v>
+        <v>640</v>
       </c>
       <c r="T253" t="n">
         <v>20</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44201</v>
+        <v>44195</v>
       </c>
       <c r="E254" t="n">
         <v>16</v>
@@ -20680,20 +20680,20 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M254" t="n">
-        <v>240</v>
+        <v>450</v>
       </c>
       <c r="N254" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O254" t="n">
         <v>15000</v>
       </c>
-      <c r="O254" t="n">
-        <v>16000</v>
-      </c>
       <c r="P254" t="n">
-        <v>15500</v>
+        <v>14556</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>775</v>
+        <v>728</v>
       </c>
       <c r="T254" t="n">
         <v>20</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44277</v>
+        <v>44265</v>
       </c>
       <c r="E255" t="n">
         <v>16</v>
@@ -20764,16 +20764,16 @@
         </is>
       </c>
       <c r="M255" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N255" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O255" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P255" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T255" t="n">
         <v>20</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44277</v>
+        <v>44265</v>
       </c>
       <c r="E256" t="n">
         <v>16</v>
@@ -20844,16 +20844,16 @@
         </is>
       </c>
       <c r="M256" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N256" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O256" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P256" t="n">
-        <v>13500</v>
+        <v>15500</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="T256" t="n">
         <v>20</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44309</v>
+        <v>44159</v>
       </c>
       <c r="E257" t="n">
         <v>16</v>
@@ -20920,20 +20920,20 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M257" t="n">
-        <v>360</v>
+        <v>80</v>
       </c>
       <c r="N257" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O257" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P257" t="n">
-        <v>13500</v>
+        <v>17000</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="T257" t="n">
         <v>20</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44188</v>
+        <v>44159</v>
       </c>
       <c r="E258" t="n">
         <v>16</v>
@@ -21000,20 +21000,20 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M258" t="n">
-        <v>790</v>
+        <v>160</v>
       </c>
       <c r="N258" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O258" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="P258" t="n">
-        <v>10557</v>
+        <v>18500</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>528</v>
+        <v>925</v>
       </c>
       <c r="T258" t="n">
         <v>20</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44188</v>
+        <v>44333</v>
       </c>
       <c r="E259" t="n">
         <v>16</v>
@@ -21084,16 +21084,16 @@
         </is>
       </c>
       <c r="M259" t="n">
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="N259" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O259" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P259" t="n">
-        <v>12429</v>
+        <v>13500</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>621</v>
+        <v>675</v>
       </c>
       <c r="T259" t="n">
         <v>20</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44344</v>
+        <v>44201</v>
       </c>
       <c r="E260" t="n">
         <v>16</v>
@@ -21164,16 +21164,16 @@
         </is>
       </c>
       <c r="M260" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="N260" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O260" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P260" t="n">
-        <v>12000</v>
+        <v>15500</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>600</v>
+        <v>775</v>
       </c>
       <c r="T260" t="n">
         <v>20</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44344</v>
+        <v>44277</v>
       </c>
       <c r="E261" t="n">
         <v>16</v>
@@ -21240,20 +21240,20 @@
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M261" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N261" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O261" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P261" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>675</v>
+        <v>600</v>
       </c>
       <c r="T261" t="n">
         <v>20</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44319</v>
+        <v>44277</v>
       </c>
       <c r="E262" t="n">
         <v>16</v>
@@ -21320,20 +21320,20 @@
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M262" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="N262" t="n">
         <v>13000</v>
       </c>
       <c r="O262" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P262" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="T262" t="n">
         <v>20</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44319</v>
+        <v>44433</v>
       </c>
       <c r="E263" t="n">
         <v>16</v>
@@ -21400,20 +21400,20 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M263" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N263" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="O263" t="n">
-        <v>15000</v>
+        <v>11800</v>
       </c>
       <c r="P263" t="n">
-        <v>14750</v>
+        <v>11650</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>738</v>
+        <v>582</v>
       </c>
       <c r="T263" t="n">
         <v>20</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E264" t="n">
         <v>16</v>
@@ -21484,16 +21484,16 @@
         </is>
       </c>
       <c r="M264" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N264" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="O264" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P264" t="n">
-        <v>14750</v>
+        <v>12750</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>738</v>
+        <v>638</v>
       </c>
       <c r="T264" t="n">
         <v>20</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44253</v>
+        <v>44309</v>
       </c>
       <c r="E265" t="n">
         <v>16</v>
@@ -21560,20 +21560,20 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M265" t="n">
-        <v>740</v>
+        <v>360</v>
       </c>
       <c r="N265" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O265" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="P265" t="n">
-        <v>9216</v>
+        <v>13500</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>461</v>
+        <v>675</v>
       </c>
       <c r="T265" t="n">
         <v>20</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44253</v>
+        <v>44188</v>
       </c>
       <c r="E266" t="n">
         <v>16</v>
@@ -21640,20 +21640,20 @@
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M266" t="n">
-        <v>350</v>
+        <v>790</v>
       </c>
       <c r="N266" t="n">
         <v>10000</v>
       </c>
       <c r="O266" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="P266" t="n">
-        <v>10286</v>
+        <v>10557</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="T266" t="n">
         <v>20</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44281</v>
+        <v>44188</v>
       </c>
       <c r="E267" t="n">
         <v>16</v>
@@ -21720,20 +21720,20 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M267" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="N267" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O267" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P267" t="n">
-        <v>11000</v>
+        <v>12429</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>550</v>
+        <v>621</v>
       </c>
       <c r="T267" t="n">
         <v>20</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44281</v>
+        <v>44344</v>
       </c>
       <c r="E268" t="n">
         <v>16</v>
@@ -21800,20 +21800,20 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M268" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="N268" t="n">
         <v>12000</v>
       </c>
       <c r="O268" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P268" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>625</v>
+        <v>600</v>
       </c>
       <c r="T268" t="n">
         <v>20</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44160</v>
+        <v>44344</v>
       </c>
       <c r="E269" t="n">
         <v>16</v>
@@ -21880,20 +21880,20 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M269" t="n">
         <v>160</v>
       </c>
       <c r="N269" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O269" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P269" t="n">
-        <v>16500</v>
+        <v>13500</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>825</v>
+        <v>675</v>
       </c>
       <c r="T269" t="n">
         <v>20</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44160</v>
+        <v>44319</v>
       </c>
       <c r="E270" t="n">
         <v>16</v>
@@ -21960,20 +21960,20 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M270" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N270" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O270" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P270" t="n">
-        <v>18500</v>
+        <v>13000</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>925</v>
+        <v>650</v>
       </c>
       <c r="T270" t="n">
         <v>20</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44186</v>
+        <v>44319</v>
       </c>
       <c r="E271" t="n">
         <v>16</v>
@@ -22040,20 +22040,20 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M271" t="n">
-        <v>740</v>
+        <v>240</v>
       </c>
       <c r="N271" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="O271" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P271" t="n">
-        <v>10297</v>
+        <v>14750</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>515</v>
+        <v>738</v>
       </c>
       <c r="T271" t="n">
         <v>20</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44186</v>
+        <v>44316</v>
       </c>
       <c r="E272" t="n">
         <v>16</v>
@@ -22124,16 +22124,16 @@
         </is>
       </c>
       <c r="M272" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="N272" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="O272" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P272" t="n">
-        <v>11571</v>
+        <v>14750</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>579</v>
+        <v>738</v>
       </c>
       <c r="T272" t="n">
         <v>20</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44211</v>
+        <v>44253</v>
       </c>
       <c r="E273" t="n">
         <v>16</v>
@@ -22204,16 +22204,16 @@
         </is>
       </c>
       <c r="M273" t="n">
-        <v>640</v>
+        <v>740</v>
       </c>
       <c r="N273" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O273" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="P273" t="n">
-        <v>12469</v>
+        <v>9216</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>623</v>
+        <v>461</v>
       </c>
       <c r="T273" t="n">
         <v>20</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44211</v>
+        <v>44253</v>
       </c>
       <c r="E274" t="n">
         <v>16</v>
@@ -22284,16 +22284,16 @@
         </is>
       </c>
       <c r="M274" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N274" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O274" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P274" t="n">
-        <v>14600</v>
+        <v>10286</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>730</v>
+        <v>514</v>
       </c>
       <c r="T274" t="n">
         <v>20</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44301</v>
+        <v>44281</v>
       </c>
       <c r="E275" t="n">
         <v>16</v>
@@ -22364,16 +22364,16 @@
         </is>
       </c>
       <c r="M275" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N275" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O275" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P275" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="T275" t="n">
         <v>20</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44301</v>
+        <v>44281</v>
       </c>
       <c r="E276" t="n">
         <v>16</v>
@@ -22447,13 +22447,13 @@
         <v>160</v>
       </c>
       <c r="N276" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O276" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P276" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="T276" t="n">
         <v>20</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44370</v>
+        <v>44160</v>
       </c>
       <c r="E277" t="n">
         <v>16</v>
@@ -22524,16 +22524,16 @@
         </is>
       </c>
       <c r="M277" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="N277" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O277" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P277" t="n">
-        <v>11000</v>
+        <v>16500</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>550</v>
+        <v>825</v>
       </c>
       <c r="T277" t="n">
         <v>20</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44370</v>
+        <v>44160</v>
       </c>
       <c r="E278" t="n">
         <v>16</v>
@@ -22604,16 +22604,16 @@
         </is>
       </c>
       <c r="M278" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="N278" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O278" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P278" t="n">
-        <v>12500</v>
+        <v>18500</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>625</v>
+        <v>925</v>
       </c>
       <c r="T278" t="n">
         <v>20</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44230</v>
+        <v>44186</v>
       </c>
       <c r="E279" t="n">
         <v>16</v>
@@ -22687,13 +22687,13 @@
         <v>740</v>
       </c>
       <c r="N279" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="O279" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="P279" t="n">
-        <v>12770</v>
+        <v>10297</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>638</v>
+        <v>515</v>
       </c>
       <c r="T279" t="n">
         <v>20</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44230</v>
+        <v>44186</v>
       </c>
       <c r="E280" t="n">
         <v>16</v>
@@ -22764,16 +22764,16 @@
         </is>
       </c>
       <c r="M280" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N280" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="O280" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P280" t="n">
-        <v>13667</v>
+        <v>11571</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>683</v>
+        <v>579</v>
       </c>
       <c r="T280" t="n">
         <v>20</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44382</v>
+        <v>44211</v>
       </c>
       <c r="E281" t="n">
         <v>16</v>
@@ -22844,16 +22844,16 @@
         </is>
       </c>
       <c r="M281" t="n">
-        <v>80</v>
+        <v>640</v>
       </c>
       <c r="N281" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O281" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P281" t="n">
-        <v>10000</v>
+        <v>12469</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>500</v>
+        <v>623</v>
       </c>
       <c r="T281" t="n">
         <v>20</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44382</v>
+        <v>44211</v>
       </c>
       <c r="E282" t="n">
         <v>16</v>
@@ -22924,16 +22924,16 @@
         </is>
       </c>
       <c r="M282" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N282" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O282" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P282" t="n">
-        <v>11500</v>
+        <v>14600</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>575</v>
+        <v>730</v>
       </c>
       <c r="T282" t="n">
         <v>20</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44232</v>
+        <v>44301</v>
       </c>
       <c r="E283" t="n">
         <v>16</v>
@@ -23004,16 +23004,16 @@
         </is>
       </c>
       <c r="M283" t="n">
-        <v>760</v>
+        <v>80</v>
       </c>
       <c r="N283" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="O283" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P283" t="n">
-        <v>14789</v>
+        <v>13000</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>739</v>
+        <v>650</v>
       </c>
       <c r="T283" t="n">
         <v>20</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44232</v>
+        <v>44301</v>
       </c>
       <c r="E284" t="n">
         <v>16</v>
@@ -23084,16 +23084,16 @@
         </is>
       </c>
       <c r="M284" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="N284" t="n">
-        <v>15500</v>
+        <v>14000</v>
       </c>
       <c r="O284" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P284" t="n">
-        <v>15750</v>
+        <v>14500</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>788</v>
+        <v>725</v>
       </c>
       <c r="T284" t="n">
         <v>20</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44398</v>
+        <v>44370</v>
       </c>
       <c r="E285" t="n">
         <v>16</v>
@@ -23164,7 +23164,7 @@
         </is>
       </c>
       <c r="M285" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N285" t="n">
         <v>11000</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44398</v>
+        <v>44370</v>
       </c>
       <c r="E286" t="n">
         <v>16</v>
@@ -23244,7 +23244,7 @@
         </is>
       </c>
       <c r="M286" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N286" t="n">
         <v>12000</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44270</v>
+        <v>44230</v>
       </c>
       <c r="E287" t="n">
         <v>16</v>
@@ -23324,16 +23324,16 @@
         </is>
       </c>
       <c r="M287" t="n">
-        <v>80</v>
+        <v>740</v>
       </c>
       <c r="N287" t="n">
-        <v>13000</v>
+        <v>12500</v>
       </c>
       <c r="O287" t="n">
         <v>13000</v>
       </c>
       <c r="P287" t="n">
-        <v>13000</v>
+        <v>12770</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="T287" t="n">
         <v>20</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44270</v>
+        <v>44230</v>
       </c>
       <c r="E288" t="n">
         <v>16</v>
@@ -23404,16 +23404,16 @@
         </is>
       </c>
       <c r="M288" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N288" t="n">
+        <v>13500</v>
+      </c>
+      <c r="O288" t="n">
         <v>14000</v>
       </c>
-      <c r="O288" t="n">
-        <v>15000</v>
-      </c>
       <c r="P288" t="n">
-        <v>14500</v>
+        <v>13667</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>725</v>
+        <v>683</v>
       </c>
       <c r="T288" t="n">
         <v>20</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44355</v>
+        <v>44382</v>
       </c>
       <c r="E289" t="n">
         <v>16</v>
@@ -23487,13 +23487,13 @@
         <v>80</v>
       </c>
       <c r="N289" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O289" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P289" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="T289" t="n">
         <v>20</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44355</v>
+        <v>44382</v>
       </c>
       <c r="E290" t="n">
         <v>16</v>
@@ -23564,16 +23564,16 @@
         </is>
       </c>
       <c r="M290" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N290" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O290" t="n">
         <v>12000</v>
       </c>
-      <c r="O290" t="n">
-        <v>13000</v>
-      </c>
       <c r="P290" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="T290" t="n">
         <v>20</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44286</v>
+        <v>44232</v>
       </c>
       <c r="E291" t="n">
         <v>16</v>
@@ -23644,16 +23644,16 @@
         </is>
       </c>
       <c r="M291" t="n">
-        <v>120</v>
+        <v>760</v>
       </c>
       <c r="N291" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="O291" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P291" t="n">
-        <v>12000</v>
+        <v>14789</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>600</v>
+        <v>739</v>
       </c>
       <c r="T291" t="n">
         <v>20</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44286</v>
+        <v>44232</v>
       </c>
       <c r="E292" t="n">
         <v>16</v>
@@ -23724,16 +23724,16 @@
         </is>
       </c>
       <c r="M292" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="N292" t="n">
-        <v>13000</v>
+        <v>15500</v>
       </c>
       <c r="O292" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P292" t="n">
-        <v>13500</v>
+        <v>15750</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>675</v>
+        <v>788</v>
       </c>
       <c r="T292" t="n">
         <v>20</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44244</v>
+        <v>44398</v>
       </c>
       <c r="E293" t="n">
         <v>16</v>
@@ -23804,16 +23804,16 @@
         </is>
       </c>
       <c r="M293" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N293" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O293" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P293" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="T293" t="n">
         <v>20</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44244</v>
+        <v>44398</v>
       </c>
       <c r="E294" t="n">
         <v>16</v>
@@ -23884,16 +23884,16 @@
         </is>
       </c>
       <c r="M294" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N294" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O294" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P294" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="T294" t="n">
         <v>20</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44343</v>
+        <v>44270</v>
       </c>
       <c r="E295" t="n">
         <v>16</v>
@@ -23967,13 +23967,13 @@
         <v>80</v>
       </c>
       <c r="N295" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O295" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P295" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="T295" t="n">
         <v>20</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44343</v>
+        <v>44270</v>
       </c>
       <c r="E296" t="n">
         <v>16</v>
@@ -24044,16 +24044,16 @@
         </is>
       </c>
       <c r="M296" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="N296" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O296" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P296" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="T296" t="n">
         <v>20</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44223</v>
+        <v>44355</v>
       </c>
       <c r="E297" t="n">
         <v>16</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="M297" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N297" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O297" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P297" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="T297" t="n">
         <v>20</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44223</v>
+        <v>44355</v>
       </c>
       <c r="E298" t="n">
         <v>16</v>
@@ -24204,16 +24204,16 @@
         </is>
       </c>
       <c r="M298" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N298" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="O298" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P298" t="n">
-        <v>13750</v>
+        <v>12500</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>688</v>
+        <v>625</v>
       </c>
       <c r="T298" t="n">
         <v>20</v>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44376</v>
+        <v>44286</v>
       </c>
       <c r="E299" t="n">
         <v>16</v>
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="M299" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N299" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O299" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P299" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="T299" t="n">
         <v>20</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44376</v>
+        <v>44286</v>
       </c>
       <c r="E300" t="n">
         <v>16</v>
@@ -24367,13 +24367,13 @@
         <v>240</v>
       </c>
       <c r="N300" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O300" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P300" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="T300" t="n">
         <v>20</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44208</v>
+        <v>44244</v>
       </c>
       <c r="E301" t="n">
         <v>16</v>
@@ -24444,16 +24444,16 @@
         </is>
       </c>
       <c r="M301" t="n">
-        <v>840</v>
+        <v>120</v>
       </c>
       <c r="N301" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O301" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P301" t="n">
-        <v>12524</v>
+        <v>9000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>626</v>
+        <v>450</v>
       </c>
       <c r="T301" t="n">
         <v>20</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44208</v>
+        <v>44244</v>
       </c>
       <c r="E302" t="n">
         <v>16</v>
@@ -24524,16 +24524,16 @@
         </is>
       </c>
       <c r="M302" t="n">
-        <v>450</v>
+        <v>240</v>
       </c>
       <c r="N302" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="O302" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P302" t="n">
-        <v>13778</v>
+        <v>10500</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>689</v>
+        <v>525</v>
       </c>
       <c r="T302" t="n">
         <v>20</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44179</v>
+        <v>44343</v>
       </c>
       <c r="E303" t="n">
         <v>16</v>
@@ -24604,16 +24604,16 @@
         </is>
       </c>
       <c r="M303" t="n">
-        <v>640</v>
+        <v>80</v>
       </c>
       <c r="N303" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="O303" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P303" t="n">
-        <v>11766</v>
+        <v>11000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>588</v>
+        <v>550</v>
       </c>
       <c r="T303" t="n">
         <v>20</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44179</v>
+        <v>44343</v>
       </c>
       <c r="E304" t="n">
         <v>16</v>
@@ -24684,16 +24684,16 @@
         </is>
       </c>
       <c r="M304" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N304" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="O304" t="n">
         <v>13000</v>
       </c>
       <c r="P304" t="n">
-        <v>12667</v>
+        <v>12500</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="T304" t="n">
         <v>20</v>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44284</v>
+        <v>44223</v>
       </c>
       <c r="E305" t="n">
         <v>16</v>
@@ -24767,13 +24767,13 @@
         <v>120</v>
       </c>
       <c r="N305" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O305" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P305" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="T305" t="n">
         <v>20</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44284</v>
+        <v>44223</v>
       </c>
       <c r="E306" t="n">
         <v>16</v>
@@ -24844,16 +24844,16 @@
         </is>
       </c>
       <c r="M306" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N306" t="n">
+        <v>13500</v>
+      </c>
+      <c r="O306" t="n">
         <v>14000</v>
       </c>
-      <c r="O306" t="n">
-        <v>15000</v>
-      </c>
       <c r="P306" t="n">
-        <v>14500</v>
+        <v>13750</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>725</v>
+        <v>688</v>
       </c>
       <c r="T306" t="n">
         <v>20</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44334</v>
+        <v>44376</v>
       </c>
       <c r="E307" t="n">
         <v>16</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44334</v>
+        <v>44376</v>
       </c>
       <c r="E308" t="n">
         <v>16</v>
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44168</v>
+        <v>44208</v>
       </c>
       <c r="E309" t="n">
         <v>16</v>
@@ -25084,16 +25084,16 @@
         </is>
       </c>
       <c r="M309" t="n">
-        <v>80</v>
+        <v>840</v>
       </c>
       <c r="N309" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O309" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P309" t="n">
-        <v>16000</v>
+        <v>12524</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>800</v>
+        <v>626</v>
       </c>
       <c r="T309" t="n">
         <v>20</v>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44168</v>
+        <v>44208</v>
       </c>
       <c r="E310" t="n">
         <v>16</v>
@@ -25164,16 +25164,16 @@
         </is>
       </c>
       <c r="M310" t="n">
-        <v>240</v>
+        <v>450</v>
       </c>
       <c r="N310" t="n">
-        <v>17000</v>
+        <v>13500</v>
       </c>
       <c r="O310" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P310" t="n">
-        <v>17500</v>
+        <v>13778</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>875</v>
+        <v>689</v>
       </c>
       <c r="T310" t="n">
         <v>20</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44418</v>
+        <v>44179</v>
       </c>
       <c r="E311" t="n">
         <v>16</v>
@@ -25244,16 +25244,16 @@
         </is>
       </c>
       <c r="M311" t="n">
-        <v>200</v>
+        <v>640</v>
       </c>
       <c r="N311" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="O311" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P311" t="n">
-        <v>11000</v>
+        <v>11766</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>550</v>
+        <v>588</v>
       </c>
       <c r="T311" t="n">
         <v>20</v>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44418</v>
+        <v>44179</v>
       </c>
       <c r="E312" t="n">
         <v>16</v>
@@ -25324,31 +25324,831 @@
         </is>
       </c>
       <c r="M312" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N312" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="O312" t="n">
         <v>13000</v>
       </c>
       <c r="P312" t="n">
+        <v>12667</v>
+      </c>
+      <c r="Q312" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R312" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S312" t="n">
+        <v>633</v>
+      </c>
+      <c r="T312" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>7</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D313" s="2" t="n">
+        <v>44284</v>
+      </c>
+      <c r="E313" t="n">
+        <v>16</v>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G313" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I313" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>Pintón</t>
+        </is>
+      </c>
+      <c r="M313" t="n">
+        <v>120</v>
+      </c>
+      <c r="N313" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O313" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P313" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q313" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R313" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S313" t="n">
+        <v>650</v>
+      </c>
+      <c r="T313" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>7</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D314" s="2" t="n">
+        <v>44284</v>
+      </c>
+      <c r="E314" t="n">
+        <v>16</v>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G314" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I314" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>Primera Pintón</t>
+        </is>
+      </c>
+      <c r="M314" t="n">
+        <v>360</v>
+      </c>
+      <c r="N314" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O314" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P314" t="n">
+        <v>14500</v>
+      </c>
+      <c r="Q314" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R314" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S314" t="n">
+        <v>725</v>
+      </c>
+      <c r="T314" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>7</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D315" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E315" t="n">
+        <v>16</v>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G315" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I315" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>Pintón</t>
+        </is>
+      </c>
+      <c r="M315" t="n">
+        <v>80</v>
+      </c>
+      <c r="N315" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O315" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P315" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q315" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R315" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S315" t="n">
+        <v>550</v>
+      </c>
+      <c r="T315" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>7</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D316" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E316" t="n">
+        <v>16</v>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G316" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I316" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>Primera Pintón</t>
+        </is>
+      </c>
+      <c r="M316" t="n">
+        <v>240</v>
+      </c>
+      <c r="N316" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O316" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P316" t="n">
         <v>12500</v>
       </c>
-      <c r="Q312" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R312" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S312" t="n">
+      <c r="Q316" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R316" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S316" t="n">
         <v>625</v>
       </c>
-      <c r="T312" t="n">
+      <c r="T316" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>7</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D317" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E317" t="n">
+        <v>16</v>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G317" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I317" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>Pintón</t>
+        </is>
+      </c>
+      <c r="M317" t="n">
+        <v>80</v>
+      </c>
+      <c r="N317" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O317" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P317" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q317" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R317" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S317" t="n">
+        <v>800</v>
+      </c>
+      <c r="T317" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>7</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D318" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E318" t="n">
+        <v>16</v>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G318" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I318" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>Primera Pintón</t>
+        </is>
+      </c>
+      <c r="M318" t="n">
+        <v>240</v>
+      </c>
+      <c r="N318" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O318" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P318" t="n">
+        <v>17500</v>
+      </c>
+      <c r="Q318" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R318" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S318" t="n">
+        <v>875</v>
+      </c>
+      <c r="T318" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>7</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D319" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E319" t="n">
+        <v>16</v>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G319" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I319" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>Pintón</t>
+        </is>
+      </c>
+      <c r="M319" t="n">
+        <v>200</v>
+      </c>
+      <c r="N319" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O319" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P319" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q319" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R319" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S319" t="n">
+        <v>550</v>
+      </c>
+      <c r="T319" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>7</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D320" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E320" t="n">
+        <v>16</v>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G320" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I320" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>Primera Pintón</t>
+        </is>
+      </c>
+      <c r="M320" t="n">
+        <v>400</v>
+      </c>
+      <c r="N320" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O320" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P320" t="n">
+        <v>12500</v>
+      </c>
+      <c r="Q320" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R320" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S320" t="n">
+        <v>625</v>
+      </c>
+      <c r="T320" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>7</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D321" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E321" t="n">
+        <v>16</v>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G321" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I321" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>Pintón</t>
+        </is>
+      </c>
+      <c r="M321" t="n">
+        <v>240</v>
+      </c>
+      <c r="N321" t="n">
+        <v>11500</v>
+      </c>
+      <c r="O321" t="n">
+        <v>11800</v>
+      </c>
+      <c r="P321" t="n">
+        <v>11650</v>
+      </c>
+      <c r="Q321" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R321" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S321" t="n">
+        <v>582</v>
+      </c>
+      <c r="T321" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>7</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D322" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E322" t="n">
+        <v>16</v>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G322" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I322" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>Primera Pintón</t>
+        </is>
+      </c>
+      <c r="M322" t="n">
+        <v>300</v>
+      </c>
+      <c r="N322" t="n">
+        <v>12500</v>
+      </c>
+      <c r="O322" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P322" t="n">
+        <v>12750</v>
+      </c>
+      <c r="Q322" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R322" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S322" t="n">
+        <v>638</v>
+      </c>
+      <c r="T322" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T322"/>
+  <dimension ref="A1:T324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44260</v>
+        <v>44438</v>
       </c>
       <c r="E201" t="n">
         <v>16</v>
@@ -16444,7 +16444,7 @@
         </is>
       </c>
       <c r="M201" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="N201" t="n">
         <v>14000</v>
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44260</v>
+        <v>44438</v>
       </c>
       <c r="E202" t="n">
         <v>16</v>
@@ -16527,13 +16527,13 @@
         <v>360</v>
       </c>
       <c r="N202" t="n">
+        <v>14500</v>
+      </c>
+      <c r="O202" t="n">
         <v>15000</v>
       </c>
-      <c r="O202" t="n">
-        <v>16000</v>
-      </c>
       <c r="P202" t="n">
-        <v>15500</v>
+        <v>14750</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="S202" t="n">
-        <v>775</v>
+        <v>738</v>
       </c>
       <c r="T202" t="n">
         <v>20</v>
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44327</v>
+        <v>44260</v>
       </c>
       <c r="E203" t="n">
         <v>16</v>
@@ -16604,7 +16604,7 @@
         </is>
       </c>
       <c r="M203" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N203" t="n">
         <v>14000</v>
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44327</v>
+        <v>44260</v>
       </c>
       <c r="E204" t="n">
         <v>16</v>
@@ -16687,13 +16687,13 @@
         <v>360</v>
       </c>
       <c r="N204" t="n">
-        <v>15500</v>
+        <v>15000</v>
       </c>
       <c r="O204" t="n">
         <v>16000</v>
       </c>
       <c r="P204" t="n">
-        <v>15750</v>
+        <v>15500</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         </is>
       </c>
       <c r="S204" t="n">
-        <v>788</v>
+        <v>775</v>
       </c>
       <c r="T204" t="n">
         <v>20</v>
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44231</v>
+        <v>44327</v>
       </c>
       <c r="E205" t="n">
         <v>16</v>
@@ -16764,16 +16764,16 @@
         </is>
       </c>
       <c r="M205" t="n">
-        <v>740</v>
+        <v>120</v>
       </c>
       <c r="N205" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O205" t="n">
         <v>14000</v>
       </c>
       <c r="P205" t="n">
-        <v>13541</v>
+        <v>14000</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         </is>
       </c>
       <c r="S205" t="n">
-        <v>677</v>
+        <v>700</v>
       </c>
       <c r="T205" t="n">
         <v>20</v>
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44231</v>
+        <v>44327</v>
       </c>
       <c r="E206" t="n">
         <v>16</v>
@@ -16844,16 +16844,16 @@
         </is>
       </c>
       <c r="M206" t="n">
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="N206" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="O206" t="n">
         <v>16000</v>
       </c>
       <c r="P206" t="n">
-        <v>15641</v>
+        <v>15750</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         </is>
       </c>
       <c r="S206" t="n">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="T206" t="n">
         <v>20</v>
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44313</v>
+        <v>44231</v>
       </c>
       <c r="E207" t="n">
         <v>16</v>
@@ -16924,16 +16924,16 @@
         </is>
       </c>
       <c r="M207" t="n">
-        <v>80</v>
+        <v>740</v>
       </c>
       <c r="N207" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O207" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P207" t="n">
-        <v>12000</v>
+        <v>13541</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="S207" t="n">
-        <v>600</v>
+        <v>677</v>
       </c>
       <c r="T207" t="n">
         <v>20</v>
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44313</v>
+        <v>44231</v>
       </c>
       <c r="E208" t="n">
         <v>16</v>
@@ -17004,16 +17004,16 @@
         </is>
       </c>
       <c r="M208" t="n">
-        <v>240</v>
+        <v>390</v>
       </c>
       <c r="N208" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O208" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P208" t="n">
-        <v>13500</v>
+        <v>15641</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         </is>
       </c>
       <c r="S208" t="n">
-        <v>675</v>
+        <v>782</v>
       </c>
       <c r="T208" t="n">
         <v>20</v>
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E209" t="n">
         <v>16</v>
@@ -17084,7 +17084,7 @@
         </is>
       </c>
       <c r="M209" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N209" t="n">
         <v>12000</v>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E210" t="n">
         <v>16</v>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E211" t="n">
         <v>16</v>
@@ -17247,13 +17247,13 @@
         <v>120</v>
       </c>
       <c r="N211" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O211" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P211" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="T211" t="n">
         <v>20</v>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E212" t="n">
         <v>16</v>
@@ -17327,13 +17327,13 @@
         <v>240</v>
       </c>
       <c r="N212" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O212" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P212" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="T212" t="n">
         <v>20</v>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44193</v>
+        <v>44391</v>
       </c>
       <c r="E213" t="n">
         <v>16</v>
@@ -17404,16 +17404,16 @@
         </is>
       </c>
       <c r="M213" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N213" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O213" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P213" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         </is>
       </c>
       <c r="S213" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="T213" t="n">
         <v>20</v>
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44193</v>
+        <v>44391</v>
       </c>
       <c r="E214" t="n">
         <v>16</v>
@@ -17484,16 +17484,16 @@
         </is>
       </c>
       <c r="M214" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N214" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O214" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P214" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         </is>
       </c>
       <c r="S214" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="T214" t="n">
         <v>20</v>
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44351</v>
+        <v>44193</v>
       </c>
       <c r="E215" t="n">
         <v>16</v>
@@ -17564,16 +17564,16 @@
         </is>
       </c>
       <c r="M215" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="N215" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O215" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P215" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         </is>
       </c>
       <c r="S215" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="T215" t="n">
         <v>20</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44351</v>
+        <v>44193</v>
       </c>
       <c r="E216" t="n">
         <v>16</v>
@@ -17644,16 +17644,16 @@
         </is>
       </c>
       <c r="M216" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="N216" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O216" t="n">
         <v>12000</v>
       </c>
-      <c r="O216" t="n">
-        <v>13000</v>
-      </c>
       <c r="P216" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="T216" t="n">
         <v>20</v>
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E217" t="n">
         <v>16</v>
@@ -17720,20 +17720,20 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M217" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="N217" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O217" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P217" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="S217" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="T217" t="n">
         <v>20</v>
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44196</v>
+        <v>44351</v>
       </c>
       <c r="E218" t="n">
         <v>16</v>
@@ -17800,11 +17800,11 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M218" t="n">
-        <v>540</v>
+        <v>160</v>
       </c>
       <c r="N218" t="n">
         <v>12000</v>
@@ -17813,7 +17813,7 @@
         <v>13000</v>
       </c>
       <c r="P218" t="n">
-        <v>12370</v>
+        <v>12500</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="T218" t="n">
         <v>20</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44196</v>
+        <v>44350</v>
       </c>
       <c r="E219" t="n">
         <v>16</v>
@@ -17884,16 +17884,16 @@
         </is>
       </c>
       <c r="M219" t="n">
-        <v>280</v>
+        <v>160</v>
       </c>
       <c r="N219" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O219" t="n">
         <v>14000</v>
       </c>
-      <c r="O219" t="n">
-        <v>15000</v>
-      </c>
       <c r="P219" t="n">
-        <v>14536</v>
+        <v>13500</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>727</v>
+        <v>675</v>
       </c>
       <c r="T219" t="n">
         <v>20</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44315</v>
+        <v>44196</v>
       </c>
       <c r="E220" t="n">
         <v>16</v>
@@ -17964,16 +17964,16 @@
         </is>
       </c>
       <c r="M220" t="n">
-        <v>80</v>
+        <v>540</v>
       </c>
       <c r="N220" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O220" t="n">
         <v>13000</v>
       </c>
       <c r="P220" t="n">
-        <v>13000</v>
+        <v>12370</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>650</v>
+        <v>618</v>
       </c>
       <c r="T220" t="n">
         <v>20</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44315</v>
+        <v>44196</v>
       </c>
       <c r="E221" t="n">
         <v>16</v>
@@ -18044,7 +18044,7 @@
         </is>
       </c>
       <c r="M221" t="n">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="N221" t="n">
         <v>14000</v>
@@ -18053,7 +18053,7 @@
         <v>15000</v>
       </c>
       <c r="P221" t="n">
-        <v>14500</v>
+        <v>14536</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="T221" t="n">
         <v>20</v>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44278</v>
+        <v>44315</v>
       </c>
       <c r="E222" t="n">
         <v>16</v>
@@ -18120,20 +18120,20 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M222" t="n">
-        <v>360</v>
+        <v>80</v>
       </c>
       <c r="N222" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O222" t="n">
         <v>13000</v>
       </c>
       <c r="P222" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>625</v>
+        <v>650</v>
       </c>
       <c r="T222" t="n">
         <v>20</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44358</v>
+        <v>44315</v>
       </c>
       <c r="E223" t="n">
         <v>16</v>
@@ -18200,20 +18200,20 @@
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M223" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="N223" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O223" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P223" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>550</v>
+        <v>725</v>
       </c>
       <c r="T223" t="n">
         <v>20</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E224" t="n">
         <v>16</v>
@@ -18284,7 +18284,7 @@
         </is>
       </c>
       <c r="M224" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="N224" t="n">
         <v>12000</v>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E225" t="n">
         <v>16</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E226" t="n">
         <v>16</v>
@@ -18444,7 +18444,7 @@
         </is>
       </c>
       <c r="M226" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N226" t="n">
         <v>12000</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E227" t="n">
         <v>16</v>
@@ -18520,20 +18520,20 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M227" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N227" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O227" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P227" t="n">
-        <v>16500</v>
+        <v>11000</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>825</v>
+        <v>550</v>
       </c>
       <c r="T227" t="n">
         <v>20</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E228" t="n">
         <v>16</v>
@@ -18600,20 +18600,20 @@
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M228" t="n">
-        <v>660</v>
+        <v>240</v>
       </c>
       <c r="N228" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O228" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="P228" t="n">
-        <v>9273</v>
+        <v>12500</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>464</v>
+        <v>625</v>
       </c>
       <c r="T228" t="n">
         <v>20</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44251</v>
+        <v>44399</v>
       </c>
       <c r="E229" t="n">
         <v>16</v>
@@ -18684,16 +18684,16 @@
         </is>
       </c>
       <c r="M229" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N229" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O229" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P229" t="n">
-        <v>10667</v>
+        <v>16500</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>533</v>
+        <v>825</v>
       </c>
       <c r="T229" t="n">
         <v>20</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44292</v>
+        <v>44251</v>
       </c>
       <c r="E230" t="n">
         <v>16</v>
@@ -18760,20 +18760,20 @@
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M230" t="n">
-        <v>240</v>
+        <v>660</v>
       </c>
       <c r="N230" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O230" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="P230" t="n">
-        <v>14500</v>
+        <v>9273</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>725</v>
+        <v>464</v>
       </c>
       <c r="T230" t="n">
         <v>20</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44305</v>
+        <v>44251</v>
       </c>
       <c r="E231" t="n">
         <v>16</v>
@@ -18840,20 +18840,20 @@
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M231" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N231" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O231" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P231" t="n">
-        <v>13000</v>
+        <v>10667</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>650</v>
+        <v>533</v>
       </c>
       <c r="T231" t="n">
         <v>20</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44305</v>
+        <v>44292</v>
       </c>
       <c r="E232" t="n">
         <v>16</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E233" t="n">
         <v>16</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E234" t="n">
         <v>16</v>
@@ -19084,7 +19084,7 @@
         </is>
       </c>
       <c r="M234" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N234" t="n">
         <v>14000</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44417</v>
+        <v>44294</v>
       </c>
       <c r="E235" t="n">
         <v>16</v>
@@ -19164,16 +19164,16 @@
         </is>
       </c>
       <c r="M235" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="N235" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O235" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P235" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="T235" t="n">
         <v>20</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44417</v>
+        <v>44294</v>
       </c>
       <c r="E236" t="n">
         <v>16</v>
@@ -19244,16 +19244,16 @@
         </is>
       </c>
       <c r="M236" t="n">
-        <v>680</v>
+        <v>160</v>
       </c>
       <c r="N236" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O236" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P236" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="T236" t="n">
         <v>20</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44419</v>
+        <v>44417</v>
       </c>
       <c r="E237" t="n">
         <v>16</v>
@@ -19324,7 +19324,7 @@
         </is>
       </c>
       <c r="M237" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N237" t="n">
         <v>11000</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44419</v>
+        <v>44417</v>
       </c>
       <c r="E238" t="n">
         <v>16</v>
@@ -19404,7 +19404,7 @@
         </is>
       </c>
       <c r="M238" t="n">
-        <v>600</v>
+        <v>680</v>
       </c>
       <c r="N238" t="n">
         <v>12000</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="E239" t="n">
         <v>16</v>
@@ -19484,7 +19484,7 @@
         </is>
       </c>
       <c r="M239" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N239" t="n">
         <v>11000</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="E240" t="n">
         <v>16</v>
@@ -19564,7 +19564,7 @@
         </is>
       </c>
       <c r="M240" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="N240" t="n">
         <v>12000</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44245</v>
+        <v>44420</v>
       </c>
       <c r="E241" t="n">
         <v>16</v>
@@ -19644,16 +19644,16 @@
         </is>
       </c>
       <c r="M241" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N241" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O241" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P241" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="T241" t="n">
         <v>20</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44245</v>
+        <v>44420</v>
       </c>
       <c r="E242" t="n">
         <v>16</v>
@@ -19720,20 +19720,20 @@
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M242" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="N242" t="n">
         <v>12000</v>
       </c>
       <c r="O242" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P242" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>600</v>
+        <v>625</v>
       </c>
       <c r="T242" t="n">
         <v>20</v>
@@ -19800,20 +19800,20 @@
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M243" t="n">
         <v>80</v>
       </c>
       <c r="N243" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O243" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P243" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="T243" t="n">
         <v>20</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44202</v>
+        <v>44245</v>
       </c>
       <c r="E244" t="n">
         <v>16</v>
@@ -19880,20 +19880,20 @@
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M244" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="N244" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O244" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P244" t="n">
-        <v>15500</v>
+        <v>12000</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>775</v>
+        <v>600</v>
       </c>
       <c r="T244" t="n">
         <v>20</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44181</v>
+        <v>44245</v>
       </c>
       <c r="E245" t="n">
         <v>16</v>
@@ -19960,20 +19960,20 @@
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M245" t="n">
-        <v>640</v>
+        <v>80</v>
       </c>
       <c r="N245" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="O245" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="P245" t="n">
-        <v>12031</v>
+        <v>11000</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>602</v>
+        <v>550</v>
       </c>
       <c r="T245" t="n">
         <v>20</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44181</v>
+        <v>44202</v>
       </c>
       <c r="E246" t="n">
         <v>16</v>
@@ -20040,20 +20040,20 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M246" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N246" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O246" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P246" t="n">
-        <v>13600</v>
+        <v>15500</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>680</v>
+        <v>775</v>
       </c>
       <c r="T246" t="n">
         <v>20</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44369</v>
+        <v>44181</v>
       </c>
       <c r="E247" t="n">
         <v>16</v>
@@ -20124,16 +20124,16 @@
         </is>
       </c>
       <c r="M247" t="n">
-        <v>80</v>
+        <v>640</v>
       </c>
       <c r="N247" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="O247" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="P247" t="n">
-        <v>11000</v>
+        <v>12031</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>550</v>
+        <v>602</v>
       </c>
       <c r="T247" t="n">
         <v>20</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44369</v>
+        <v>44181</v>
       </c>
       <c r="E248" t="n">
         <v>16</v>
@@ -20204,16 +20204,16 @@
         </is>
       </c>
       <c r="M248" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="N248" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O248" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P248" t="n">
-        <v>12500</v>
+        <v>13600</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>625</v>
+        <v>680</v>
       </c>
       <c r="T248" t="n">
         <v>20</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E249" t="n">
         <v>16</v>
@@ -20284,16 +20284,16 @@
         </is>
       </c>
       <c r="M249" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="N249" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="O249" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P249" t="n">
-        <v>11750</v>
+        <v>11000</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>588</v>
+        <v>550</v>
       </c>
       <c r="T249" t="n">
         <v>20</v>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E250" t="n">
         <v>16</v>
@@ -20364,16 +20364,16 @@
         </is>
       </c>
       <c r="M250" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N250" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O250" t="n">
         <v>13000</v>
       </c>
-      <c r="O250" t="n">
-        <v>14000</v>
-      </c>
       <c r="P250" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="T250" t="n">
         <v>20</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44161</v>
+        <v>44307</v>
       </c>
       <c r="E251" t="n">
         <v>16</v>
@@ -20444,16 +20444,16 @@
         </is>
       </c>
       <c r="M251" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="N251" t="n">
-        <v>16000</v>
+        <v>11500</v>
       </c>
       <c r="O251" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P251" t="n">
-        <v>16000</v>
+        <v>11750</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>800</v>
+        <v>588</v>
       </c>
       <c r="T251" t="n">
         <v>20</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44161</v>
+        <v>44307</v>
       </c>
       <c r="E252" t="n">
         <v>16</v>
@@ -20524,16 +20524,16 @@
         </is>
       </c>
       <c r="M252" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N252" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="O252" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P252" t="n">
-        <v>17500</v>
+        <v>13500</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="T252" t="n">
         <v>20</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E253" t="n">
         <v>16</v>
@@ -20604,16 +20604,16 @@
         </is>
       </c>
       <c r="M253" t="n">
-        <v>590</v>
+        <v>80</v>
       </c>
       <c r="N253" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="O253" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P253" t="n">
-        <v>12797</v>
+        <v>16000</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>640</v>
+        <v>800</v>
       </c>
       <c r="T253" t="n">
         <v>20</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E254" t="n">
         <v>16</v>
@@ -20684,16 +20684,16 @@
         </is>
       </c>
       <c r="M254" t="n">
-        <v>450</v>
+        <v>160</v>
       </c>
       <c r="N254" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O254" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P254" t="n">
-        <v>14556</v>
+        <v>17500</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>728</v>
+        <v>875</v>
       </c>
       <c r="T254" t="n">
         <v>20</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44265</v>
+        <v>44195</v>
       </c>
       <c r="E255" t="n">
         <v>16</v>
@@ -20764,16 +20764,16 @@
         </is>
       </c>
       <c r="M255" t="n">
-        <v>80</v>
+        <v>590</v>
       </c>
       <c r="N255" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="O255" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P255" t="n">
-        <v>14000</v>
+        <v>12797</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>700</v>
+        <v>640</v>
       </c>
       <c r="T255" t="n">
         <v>20</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44265</v>
+        <v>44195</v>
       </c>
       <c r="E256" t="n">
         <v>16</v>
@@ -20844,16 +20844,16 @@
         </is>
       </c>
       <c r="M256" t="n">
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="N256" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O256" t="n">
         <v>15000</v>
       </c>
-      <c r="O256" t="n">
-        <v>16000</v>
-      </c>
       <c r="P256" t="n">
-        <v>15500</v>
+        <v>14556</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>775</v>
+        <v>728</v>
       </c>
       <c r="T256" t="n">
         <v>20</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44159</v>
+        <v>44265</v>
       </c>
       <c r="E257" t="n">
         <v>16</v>
@@ -20927,13 +20927,13 @@
         <v>80</v>
       </c>
       <c r="N257" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O257" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P257" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="T257" t="n">
         <v>20</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44159</v>
+        <v>44265</v>
       </c>
       <c r="E258" t="n">
         <v>16</v>
@@ -21004,16 +21004,16 @@
         </is>
       </c>
       <c r="M258" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="N258" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O258" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P258" t="n">
-        <v>18500</v>
+        <v>15500</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>925</v>
+        <v>775</v>
       </c>
       <c r="T258" t="n">
         <v>20</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44333</v>
+        <v>44159</v>
       </c>
       <c r="E259" t="n">
         <v>16</v>
@@ -21080,20 +21080,20 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M259" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N259" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O259" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P259" t="n">
-        <v>13500</v>
+        <v>17000</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="T259" t="n">
         <v>20</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44201</v>
+        <v>44159</v>
       </c>
       <c r="E260" t="n">
         <v>16</v>
@@ -21160,20 +21160,20 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M260" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N260" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O260" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P260" t="n">
-        <v>15500</v>
+        <v>18500</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>775</v>
+        <v>925</v>
       </c>
       <c r="T260" t="n">
         <v>20</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44277</v>
+        <v>44333</v>
       </c>
       <c r="E261" t="n">
         <v>16</v>
@@ -21240,20 +21240,20 @@
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M261" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="N261" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O261" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P261" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>600</v>
+        <v>675</v>
       </c>
       <c r="T261" t="n">
         <v>20</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44277</v>
+        <v>44201</v>
       </c>
       <c r="E262" t="n">
         <v>16</v>
@@ -21320,20 +21320,20 @@
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M262" t="n">
         <v>240</v>
       </c>
       <c r="N262" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O262" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P262" t="n">
-        <v>13500</v>
+        <v>15500</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="T262" t="n">
         <v>20</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44433</v>
+        <v>44277</v>
       </c>
       <c r="E263" t="n">
         <v>16</v>
@@ -21404,16 +21404,16 @@
         </is>
       </c>
       <c r="M263" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N263" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="O263" t="n">
-        <v>11800</v>
+        <v>12000</v>
       </c>
       <c r="P263" t="n">
-        <v>11650</v>
+        <v>12000</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>582</v>
+        <v>600</v>
       </c>
       <c r="T263" t="n">
         <v>20</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44433</v>
+        <v>44277</v>
       </c>
       <c r="E264" t="n">
         <v>16</v>
@@ -21487,13 +21487,13 @@
         <v>240</v>
       </c>
       <c r="N264" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="O264" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P264" t="n">
-        <v>12750</v>
+        <v>13500</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>638</v>
+        <v>675</v>
       </c>
       <c r="T264" t="n">
         <v>20</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44309</v>
+        <v>44433</v>
       </c>
       <c r="E265" t="n">
         <v>16</v>
@@ -21560,20 +21560,20 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M265" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="N265" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="O265" t="n">
-        <v>14000</v>
+        <v>11800</v>
       </c>
       <c r="P265" t="n">
-        <v>13500</v>
+        <v>11650</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>675</v>
+        <v>582</v>
       </c>
       <c r="T265" t="n">
         <v>20</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44188</v>
+        <v>44433</v>
       </c>
       <c r="E266" t="n">
         <v>16</v>
@@ -21640,20 +21640,20 @@
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M266" t="n">
-        <v>790</v>
+        <v>240</v>
       </c>
       <c r="N266" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="O266" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P266" t="n">
-        <v>10557</v>
+        <v>12750</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>528</v>
+        <v>638</v>
       </c>
       <c r="T266" t="n">
         <v>20</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44188</v>
+        <v>44309</v>
       </c>
       <c r="E267" t="n">
         <v>16</v>
@@ -21724,16 +21724,16 @@
         </is>
       </c>
       <c r="M267" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="N267" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O267" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P267" t="n">
-        <v>12429</v>
+        <v>13500</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>621</v>
+        <v>675</v>
       </c>
       <c r="T267" t="n">
         <v>20</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44344</v>
+        <v>44188</v>
       </c>
       <c r="E268" t="n">
         <v>16</v>
@@ -21804,16 +21804,16 @@
         </is>
       </c>
       <c r="M268" t="n">
-        <v>80</v>
+        <v>790</v>
       </c>
       <c r="N268" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O268" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P268" t="n">
-        <v>12000</v>
+        <v>10557</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>600</v>
+        <v>528</v>
       </c>
       <c r="T268" t="n">
         <v>20</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44344</v>
+        <v>44188</v>
       </c>
       <c r="E269" t="n">
         <v>16</v>
@@ -21884,16 +21884,16 @@
         </is>
       </c>
       <c r="M269" t="n">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="N269" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O269" t="n">
         <v>13000</v>
       </c>
-      <c r="O269" t="n">
-        <v>14000</v>
-      </c>
       <c r="P269" t="n">
-        <v>13500</v>
+        <v>12429</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>675</v>
+        <v>621</v>
       </c>
       <c r="T269" t="n">
         <v>20</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E270" t="n">
         <v>16</v>
@@ -21967,13 +21967,13 @@
         <v>80</v>
       </c>
       <c r="N270" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O270" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P270" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="T270" t="n">
         <v>20</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E271" t="n">
         <v>16</v>
@@ -22044,16 +22044,16 @@
         </is>
       </c>
       <c r="M271" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N271" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="O271" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P271" t="n">
-        <v>14750</v>
+        <v>13500</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>738</v>
+        <v>675</v>
       </c>
       <c r="T271" t="n">
         <v>20</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E272" t="n">
         <v>16</v>
@@ -22120,20 +22120,20 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M272" t="n">
-        <v>360</v>
+        <v>80</v>
       </c>
       <c r="N272" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="O272" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P272" t="n">
-        <v>14750</v>
+        <v>13000</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>738</v>
+        <v>650</v>
       </c>
       <c r="T272" t="n">
         <v>20</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44253</v>
+        <v>44319</v>
       </c>
       <c r="E273" t="n">
         <v>16</v>
@@ -22200,20 +22200,20 @@
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M273" t="n">
-        <v>740</v>
+        <v>240</v>
       </c>
       <c r="N273" t="n">
-        <v>9000</v>
+        <v>14500</v>
       </c>
       <c r="O273" t="n">
-        <v>9500</v>
+        <v>15000</v>
       </c>
       <c r="P273" t="n">
-        <v>9216</v>
+        <v>14750</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>461</v>
+        <v>738</v>
       </c>
       <c r="T273" t="n">
         <v>20</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E274" t="n">
         <v>16</v>
@@ -22284,16 +22284,16 @@
         </is>
       </c>
       <c r="M274" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="N274" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="O274" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P274" t="n">
-        <v>10286</v>
+        <v>14750</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>514</v>
+        <v>738</v>
       </c>
       <c r="T274" t="n">
         <v>20</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="E275" t="n">
         <v>16</v>
@@ -22364,16 +22364,16 @@
         </is>
       </c>
       <c r="M275" t="n">
-        <v>120</v>
+        <v>740</v>
       </c>
       <c r="N275" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O275" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="P275" t="n">
-        <v>11000</v>
+        <v>9216</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>550</v>
+        <v>461</v>
       </c>
       <c r="T275" t="n">
         <v>20</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="E276" t="n">
         <v>16</v>
@@ -22444,16 +22444,16 @@
         </is>
       </c>
       <c r="M276" t="n">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="N276" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O276" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="P276" t="n">
-        <v>12500</v>
+        <v>10286</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>625</v>
+        <v>514</v>
       </c>
       <c r="T276" t="n">
         <v>20</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44160</v>
+        <v>44281</v>
       </c>
       <c r="E277" t="n">
         <v>16</v>
@@ -22524,16 +22524,16 @@
         </is>
       </c>
       <c r="M277" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N277" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O277" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P277" t="n">
-        <v>16500</v>
+        <v>11000</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>825</v>
+        <v>550</v>
       </c>
       <c r="T277" t="n">
         <v>20</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44160</v>
+        <v>44281</v>
       </c>
       <c r="E278" t="n">
         <v>16</v>
@@ -22604,16 +22604,16 @@
         </is>
       </c>
       <c r="M278" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N278" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O278" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P278" t="n">
-        <v>18500</v>
+        <v>12500</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>925</v>
+        <v>625</v>
       </c>
       <c r="T278" t="n">
         <v>20</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44186</v>
+        <v>44160</v>
       </c>
       <c r="E279" t="n">
         <v>16</v>
@@ -22684,16 +22684,16 @@
         </is>
       </c>
       <c r="M279" t="n">
-        <v>740</v>
+        <v>160</v>
       </c>
       <c r="N279" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O279" t="n">
-        <v>10500</v>
+        <v>17000</v>
       </c>
       <c r="P279" t="n">
-        <v>10297</v>
+        <v>16500</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>515</v>
+        <v>825</v>
       </c>
       <c r="T279" t="n">
         <v>20</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44186</v>
+        <v>44160</v>
       </c>
       <c r="E280" t="n">
         <v>16</v>
@@ -22764,16 +22764,16 @@
         </is>
       </c>
       <c r="M280" t="n">
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="N280" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="O280" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P280" t="n">
-        <v>11571</v>
+        <v>18500</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>579</v>
+        <v>925</v>
       </c>
       <c r="T280" t="n">
         <v>20</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44211</v>
+        <v>44186</v>
       </c>
       <c r="E281" t="n">
         <v>16</v>
@@ -22844,16 +22844,16 @@
         </is>
       </c>
       <c r="M281" t="n">
-        <v>640</v>
+        <v>740</v>
       </c>
       <c r="N281" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O281" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="P281" t="n">
-        <v>12469</v>
+        <v>10297</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>623</v>
+        <v>515</v>
       </c>
       <c r="T281" t="n">
         <v>20</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44211</v>
+        <v>44186</v>
       </c>
       <c r="E282" t="n">
         <v>16</v>
@@ -22924,16 +22924,16 @@
         </is>
       </c>
       <c r="M282" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N282" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O282" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P282" t="n">
-        <v>14600</v>
+        <v>11571</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>730</v>
+        <v>579</v>
       </c>
       <c r="T282" t="n">
         <v>20</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44301</v>
+        <v>44211</v>
       </c>
       <c r="E283" t="n">
         <v>16</v>
@@ -23004,16 +23004,16 @@
         </is>
       </c>
       <c r="M283" t="n">
-        <v>80</v>
+        <v>640</v>
       </c>
       <c r="N283" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O283" t="n">
         <v>13000</v>
       </c>
       <c r="P283" t="n">
-        <v>13000</v>
+        <v>12469</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>650</v>
+        <v>623</v>
       </c>
       <c r="T283" t="n">
         <v>20</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44301</v>
+        <v>44211</v>
       </c>
       <c r="E284" t="n">
         <v>16</v>
@@ -23084,7 +23084,7 @@
         </is>
       </c>
       <c r="M284" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N284" t="n">
         <v>14000</v>
@@ -23093,7 +23093,7 @@
         <v>15000</v>
       </c>
       <c r="P284" t="n">
-        <v>14500</v>
+        <v>14600</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="T284" t="n">
         <v>20</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44370</v>
+        <v>44301</v>
       </c>
       <c r="E285" t="n">
         <v>16</v>
@@ -23164,16 +23164,16 @@
         </is>
       </c>
       <c r="M285" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N285" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O285" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P285" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="T285" t="n">
         <v>20</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44370</v>
+        <v>44301</v>
       </c>
       <c r="E286" t="n">
         <v>16</v>
@@ -23244,16 +23244,16 @@
         </is>
       </c>
       <c r="M286" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N286" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O286" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P286" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="T286" t="n">
         <v>20</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44230</v>
+        <v>44370</v>
       </c>
       <c r="E287" t="n">
         <v>16</v>
@@ -23324,16 +23324,16 @@
         </is>
       </c>
       <c r="M287" t="n">
-        <v>740</v>
+        <v>60</v>
       </c>
       <c r="N287" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="O287" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P287" t="n">
-        <v>12770</v>
+        <v>11000</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>638</v>
+        <v>550</v>
       </c>
       <c r="T287" t="n">
         <v>20</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44230</v>
+        <v>44370</v>
       </c>
       <c r="E288" t="n">
         <v>16</v>
@@ -23404,16 +23404,16 @@
         </is>
       </c>
       <c r="M288" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N288" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="O288" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P288" t="n">
-        <v>13667</v>
+        <v>12500</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>683</v>
+        <v>625</v>
       </c>
       <c r="T288" t="n">
         <v>20</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44382</v>
+        <v>44230</v>
       </c>
       <c r="E289" t="n">
         <v>16</v>
@@ -23484,16 +23484,16 @@
         </is>
       </c>
       <c r="M289" t="n">
-        <v>80</v>
+        <v>740</v>
       </c>
       <c r="N289" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="O289" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P289" t="n">
-        <v>10000</v>
+        <v>12770</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>500</v>
+        <v>638</v>
       </c>
       <c r="T289" t="n">
         <v>20</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44382</v>
+        <v>44230</v>
       </c>
       <c r="E290" t="n">
         <v>16</v>
@@ -23564,16 +23564,16 @@
         </is>
       </c>
       <c r="M290" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N290" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="O290" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P290" t="n">
-        <v>11500</v>
+        <v>13667</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>575</v>
+        <v>683</v>
       </c>
       <c r="T290" t="n">
         <v>20</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44232</v>
+        <v>44382</v>
       </c>
       <c r="E291" t="n">
         <v>16</v>
@@ -23644,16 +23644,16 @@
         </is>
       </c>
       <c r="M291" t="n">
-        <v>760</v>
+        <v>80</v>
       </c>
       <c r="N291" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="O291" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P291" t="n">
-        <v>14789</v>
+        <v>10000</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>739</v>
+        <v>500</v>
       </c>
       <c r="T291" t="n">
         <v>20</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44232</v>
+        <v>44382</v>
       </c>
       <c r="E292" t="n">
         <v>16</v>
@@ -23724,16 +23724,16 @@
         </is>
       </c>
       <c r="M292" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N292" t="n">
-        <v>15500</v>
+        <v>11000</v>
       </c>
       <c r="O292" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P292" t="n">
-        <v>15750</v>
+        <v>11500</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>788</v>
+        <v>575</v>
       </c>
       <c r="T292" t="n">
         <v>20</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44398</v>
+        <v>44232</v>
       </c>
       <c r="E293" t="n">
         <v>16</v>
@@ -23804,16 +23804,16 @@
         </is>
       </c>
       <c r="M293" t="n">
-        <v>80</v>
+        <v>760</v>
       </c>
       <c r="N293" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="O293" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P293" t="n">
-        <v>11000</v>
+        <v>14789</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>550</v>
+        <v>739</v>
       </c>
       <c r="T293" t="n">
         <v>20</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44398</v>
+        <v>44232</v>
       </c>
       <c r="E294" t="n">
         <v>16</v>
@@ -23884,16 +23884,16 @@
         </is>
       </c>
       <c r="M294" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="N294" t="n">
-        <v>12000</v>
+        <v>15500</v>
       </c>
       <c r="O294" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P294" t="n">
-        <v>12500</v>
+        <v>15750</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>625</v>
+        <v>788</v>
       </c>
       <c r="T294" t="n">
         <v>20</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E295" t="n">
         <v>16</v>
@@ -23967,13 +23967,13 @@
         <v>80</v>
       </c>
       <c r="N295" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O295" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P295" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="T295" t="n">
         <v>20</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E296" t="n">
         <v>16</v>
@@ -24044,16 +24044,16 @@
         </is>
       </c>
       <c r="M296" t="n">
-        <v>360</v>
+        <v>160</v>
       </c>
       <c r="N296" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O296" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P296" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="T296" t="n">
         <v>20</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E297" t="n">
         <v>16</v>
@@ -24127,13 +24127,13 @@
         <v>80</v>
       </c>
       <c r="N297" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O297" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P297" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="T297" t="n">
         <v>20</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E298" t="n">
         <v>16</v>
@@ -24204,16 +24204,16 @@
         </is>
       </c>
       <c r="M298" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="N298" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O298" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P298" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="T298" t="n">
         <v>20</v>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44286</v>
+        <v>44355</v>
       </c>
       <c r="E299" t="n">
         <v>16</v>
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="M299" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N299" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O299" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P299" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="T299" t="n">
         <v>20</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44286</v>
+        <v>44355</v>
       </c>
       <c r="E300" t="n">
         <v>16</v>
@@ -24364,16 +24364,16 @@
         </is>
       </c>
       <c r="M300" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N300" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O300" t="n">
         <v>13000</v>
       </c>
-      <c r="O300" t="n">
-        <v>14000</v>
-      </c>
       <c r="P300" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="T300" t="n">
         <v>20</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44244</v>
+        <v>44286</v>
       </c>
       <c r="E301" t="n">
         <v>16</v>
@@ -24447,13 +24447,13 @@
         <v>120</v>
       </c>
       <c r="N301" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O301" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P301" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="T301" t="n">
         <v>20</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44244</v>
+        <v>44286</v>
       </c>
       <c r="E302" t="n">
         <v>16</v>
@@ -24527,13 +24527,13 @@
         <v>240</v>
       </c>
       <c r="N302" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O302" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P302" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="T302" t="n">
         <v>20</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44343</v>
+        <v>44244</v>
       </c>
       <c r="E303" t="n">
         <v>16</v>
@@ -24604,16 +24604,16 @@
         </is>
       </c>
       <c r="M303" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N303" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O303" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P303" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="T303" t="n">
         <v>20</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44343</v>
+        <v>44244</v>
       </c>
       <c r="E304" t="n">
         <v>16</v>
@@ -24684,16 +24684,16 @@
         </is>
       </c>
       <c r="M304" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N304" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O304" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P304" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="T304" t="n">
         <v>20</v>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44223</v>
+        <v>44343</v>
       </c>
       <c r="E305" t="n">
         <v>16</v>
@@ -24764,16 +24764,16 @@
         </is>
       </c>
       <c r="M305" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N305" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O305" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P305" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="T305" t="n">
         <v>20</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44223</v>
+        <v>44343</v>
       </c>
       <c r="E306" t="n">
         <v>16</v>
@@ -24844,16 +24844,16 @@
         </is>
       </c>
       <c r="M306" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N306" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="O306" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P306" t="n">
-        <v>13750</v>
+        <v>12500</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>688</v>
+        <v>625</v>
       </c>
       <c r="T306" t="n">
         <v>20</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44376</v>
+        <v>44223</v>
       </c>
       <c r="E307" t="n">
         <v>16</v>
@@ -24924,16 +24924,16 @@
         </is>
       </c>
       <c r="M307" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N307" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O307" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P307" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="T307" t="n">
         <v>20</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44376</v>
+        <v>44223</v>
       </c>
       <c r="E308" t="n">
         <v>16</v>
@@ -25007,13 +25007,13 @@
         <v>240</v>
       </c>
       <c r="N308" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="O308" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P308" t="n">
-        <v>12500</v>
+        <v>13750</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>625</v>
+        <v>688</v>
       </c>
       <c r="T308" t="n">
         <v>20</v>
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E309" t="n">
         <v>16</v>
@@ -25084,16 +25084,16 @@
         </is>
       </c>
       <c r="M309" t="n">
-        <v>840</v>
+        <v>80</v>
       </c>
       <c r="N309" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O309" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P309" t="n">
-        <v>12524</v>
+        <v>11000</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>626</v>
+        <v>550</v>
       </c>
       <c r="T309" t="n">
         <v>20</v>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E310" t="n">
         <v>16</v>
@@ -25164,16 +25164,16 @@
         </is>
       </c>
       <c r="M310" t="n">
-        <v>450</v>
+        <v>240</v>
       </c>
       <c r="N310" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="O310" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P310" t="n">
-        <v>13778</v>
+        <v>12500</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>689</v>
+        <v>625</v>
       </c>
       <c r="T310" t="n">
         <v>20</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44179</v>
+        <v>44208</v>
       </c>
       <c r="E311" t="n">
         <v>16</v>
@@ -25244,16 +25244,16 @@
         </is>
       </c>
       <c r="M311" t="n">
-        <v>640</v>
+        <v>840</v>
       </c>
       <c r="N311" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="O311" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P311" t="n">
-        <v>11766</v>
+        <v>12524</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>588</v>
+        <v>626</v>
       </c>
       <c r="T311" t="n">
         <v>20</v>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44179</v>
+        <v>44208</v>
       </c>
       <c r="E312" t="n">
         <v>16</v>
@@ -25324,16 +25324,16 @@
         </is>
       </c>
       <c r="M312" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="N312" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="O312" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P312" t="n">
-        <v>12667</v>
+        <v>13778</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>633</v>
+        <v>689</v>
       </c>
       <c r="T312" t="n">
         <v>20</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44284</v>
+        <v>44179</v>
       </c>
       <c r="E313" t="n">
         <v>16</v>
@@ -25404,16 +25404,16 @@
         </is>
       </c>
       <c r="M313" t="n">
-        <v>120</v>
+        <v>640</v>
       </c>
       <c r="N313" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="O313" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P313" t="n">
-        <v>13000</v>
+        <v>11766</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>650</v>
+        <v>588</v>
       </c>
       <c r="T313" t="n">
         <v>20</v>
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44284</v>
+        <v>44179</v>
       </c>
       <c r="E314" t="n">
         <v>16</v>
@@ -25484,16 +25484,16 @@
         </is>
       </c>
       <c r="M314" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N314" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="O314" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P314" t="n">
-        <v>14500</v>
+        <v>12667</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>725</v>
+        <v>633</v>
       </c>
       <c r="T314" t="n">
         <v>20</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44334</v>
+        <v>44284</v>
       </c>
       <c r="E315" t="n">
         <v>16</v>
@@ -25564,16 +25564,16 @@
         </is>
       </c>
       <c r="M315" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N315" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O315" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P315" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="T315" t="n">
         <v>20</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44334</v>
+        <v>44284</v>
       </c>
       <c r="E316" t="n">
         <v>16</v>
@@ -25644,16 +25644,16 @@
         </is>
       </c>
       <c r="M316" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N316" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O316" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P316" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="T316" t="n">
         <v>20</v>
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E317" t="n">
         <v>16</v>
@@ -25727,13 +25727,13 @@
         <v>80</v>
       </c>
       <c r="N317" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O317" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P317" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="T317" t="n">
         <v>20</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E318" t="n">
         <v>16</v>
@@ -25807,13 +25807,13 @@
         <v>240</v>
       </c>
       <c r="N318" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O318" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P318" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T318" t="n">
         <v>20</v>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44418</v>
+        <v>44168</v>
       </c>
       <c r="E319" t="n">
         <v>16</v>
@@ -25884,16 +25884,16 @@
         </is>
       </c>
       <c r="M319" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N319" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O319" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P319" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="T319" t="n">
         <v>20</v>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44418</v>
+        <v>44168</v>
       </c>
       <c r="E320" t="n">
         <v>16</v>
@@ -25964,16 +25964,16 @@
         </is>
       </c>
       <c r="M320" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N320" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O320" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P320" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T320" t="n">
         <v>20</v>
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44432</v>
+        <v>44418</v>
       </c>
       <c r="E321" t="n">
         <v>16</v>
@@ -26044,16 +26044,16 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N321" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="O321" t="n">
-        <v>11800</v>
+        <v>11000</v>
       </c>
       <c r="P321" t="n">
-        <v>11650</v>
+        <v>11000</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>582</v>
+        <v>550</v>
       </c>
       <c r="T321" t="n">
         <v>20</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44432</v>
+        <v>44418</v>
       </c>
       <c r="E322" t="n">
         <v>16</v>
@@ -26124,31 +26124,191 @@
         </is>
       </c>
       <c r="M322" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N322" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="O322" t="n">
         <v>13000</v>
       </c>
       <c r="P322" t="n">
+        <v>12500</v>
+      </c>
+      <c r="Q322" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R322" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S322" t="n">
+        <v>625</v>
+      </c>
+      <c r="T322" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>7</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D323" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E323" t="n">
+        <v>16</v>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G323" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I323" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>Pintón</t>
+        </is>
+      </c>
+      <c r="M323" t="n">
+        <v>240</v>
+      </c>
+      <c r="N323" t="n">
+        <v>11500</v>
+      </c>
+      <c r="O323" t="n">
+        <v>11800</v>
+      </c>
+      <c r="P323" t="n">
+        <v>11650</v>
+      </c>
+      <c r="Q323" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R323" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S323" t="n">
+        <v>582</v>
+      </c>
+      <c r="T323" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>7</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D324" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E324" t="n">
+        <v>16</v>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G324" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I324" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>Primera Pintón</t>
+        </is>
+      </c>
+      <c r="M324" t="n">
+        <v>300</v>
+      </c>
+      <c r="N324" t="n">
+        <v>12500</v>
+      </c>
+      <c r="O324" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P324" t="n">
         <v>12750</v>
       </c>
-      <c r="Q322" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R322" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S322" t="n">
+      <c r="Q324" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R324" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S324" t="n">
         <v>638</v>
       </c>
-      <c r="T322" t="n">
+      <c r="T324" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T332"/>
+  <dimension ref="A1:T334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44267</v>
+        <v>44447</v>
       </c>
       <c r="E186" t="n">
         <v>16</v>
@@ -15240,20 +15240,20 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M186" t="n">
-        <v>360</v>
+        <v>150</v>
       </c>
       <c r="N186" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O186" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P186" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>725</v>
+        <v>800</v>
       </c>
       <c r="T186" t="n">
         <v>20</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44292</v>
+        <v>44447</v>
       </c>
       <c r="E187" t="n">
         <v>16</v>
@@ -15327,13 +15327,13 @@
         <v>240</v>
       </c>
       <c r="N187" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O187" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P187" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>725</v>
+        <v>875</v>
       </c>
       <c r="T187" t="n">
         <v>20</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44300</v>
+        <v>44267</v>
       </c>
       <c r="E188" t="n">
         <v>16</v>
@@ -15400,20 +15400,20 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M188" t="n">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="N188" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O188" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P188" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>650</v>
+        <v>725</v>
       </c>
       <c r="T188" t="n">
         <v>20</v>
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44300</v>
+        <v>44292</v>
       </c>
       <c r="E189" t="n">
         <v>16</v>
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44277</v>
+        <v>44300</v>
       </c>
       <c r="E190" t="n">
         <v>16</v>
@@ -15564,16 +15564,16 @@
         </is>
       </c>
       <c r="M190" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N190" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O190" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P190" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="T190" t="n">
         <v>20</v>
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44277</v>
+        <v>44300</v>
       </c>
       <c r="E191" t="n">
         <v>16</v>
@@ -15647,13 +15647,13 @@
         <v>240</v>
       </c>
       <c r="N191" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O191" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P191" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         </is>
       </c>
       <c r="S191" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="T191" t="n">
         <v>20</v>
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44392</v>
+        <v>44277</v>
       </c>
       <c r="E192" t="n">
         <v>16</v>
@@ -15727,13 +15727,13 @@
         <v>120</v>
       </c>
       <c r="N192" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O192" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P192" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="S192" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="T192" t="n">
         <v>20</v>
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44392</v>
+        <v>44277</v>
       </c>
       <c r="E193" t="n">
         <v>16</v>
@@ -15804,16 +15804,16 @@
         </is>
       </c>
       <c r="M193" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N193" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O193" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P193" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         </is>
       </c>
       <c r="S193" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="T193" t="n">
         <v>20</v>
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44224</v>
+        <v>44392</v>
       </c>
       <c r="E194" t="n">
         <v>16</v>
@@ -15887,13 +15887,13 @@
         <v>120</v>
       </c>
       <c r="N194" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O194" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P194" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         </is>
       </c>
       <c r="S194" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="T194" t="n">
         <v>20</v>
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44224</v>
+        <v>44392</v>
       </c>
       <c r="E195" t="n">
         <v>16</v>
@@ -15964,16 +15964,16 @@
         </is>
       </c>
       <c r="M195" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N195" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O195" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P195" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         </is>
       </c>
       <c r="S195" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="T195" t="n">
         <v>20</v>
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44295</v>
+        <v>44224</v>
       </c>
       <c r="E196" t="n">
         <v>16</v>
@@ -16040,20 +16040,20 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M196" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N196" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O196" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P196" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         </is>
       </c>
       <c r="S196" t="n">
-        <v>725</v>
+        <v>650</v>
       </c>
       <c r="T196" t="n">
         <v>20</v>
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44179</v>
+        <v>44224</v>
       </c>
       <c r="E197" t="n">
         <v>16</v>
@@ -16120,20 +16120,20 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M197" t="n">
-        <v>640</v>
+        <v>240</v>
       </c>
       <c r="N197" t="n">
-        <v>11500</v>
+        <v>14000</v>
       </c>
       <c r="O197" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P197" t="n">
-        <v>11766</v>
+        <v>14500</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="S197" t="n">
-        <v>588</v>
+        <v>725</v>
       </c>
       <c r="T197" t="n">
         <v>20</v>
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44179</v>
+        <v>44295</v>
       </c>
       <c r="E198" t="n">
         <v>16</v>
@@ -16204,16 +16204,16 @@
         </is>
       </c>
       <c r="M198" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N198" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="O198" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P198" t="n">
-        <v>12667</v>
+        <v>14500</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         </is>
       </c>
       <c r="S198" t="n">
-        <v>633</v>
+        <v>725</v>
       </c>
       <c r="T198" t="n">
         <v>20</v>
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44362</v>
+        <v>44179</v>
       </c>
       <c r="E199" t="n">
         <v>16</v>
@@ -16284,16 +16284,16 @@
         </is>
       </c>
       <c r="M199" t="n">
-        <v>80</v>
+        <v>640</v>
       </c>
       <c r="N199" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="O199" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P199" t="n">
-        <v>11000</v>
+        <v>11766</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         </is>
       </c>
       <c r="S199" t="n">
-        <v>550</v>
+        <v>588</v>
       </c>
       <c r="T199" t="n">
         <v>20</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44362</v>
+        <v>44179</v>
       </c>
       <c r="E200" t="n">
         <v>16</v>
@@ -16364,16 +16364,16 @@
         </is>
       </c>
       <c r="M200" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N200" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="O200" t="n">
         <v>13000</v>
       </c>
       <c r="P200" t="n">
-        <v>12500</v>
+        <v>12667</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         </is>
       </c>
       <c r="S200" t="n">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="T200" t="n">
         <v>20</v>
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44249</v>
+        <v>44362</v>
       </c>
       <c r="E201" t="n">
         <v>16</v>
@@ -16444,16 +16444,16 @@
         </is>
       </c>
       <c r="M201" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="N201" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="O201" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P201" t="n">
-        <v>9750</v>
+        <v>11000</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         </is>
       </c>
       <c r="S201" t="n">
-        <v>488</v>
+        <v>550</v>
       </c>
       <c r="T201" t="n">
         <v>20</v>
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44249</v>
+        <v>44362</v>
       </c>
       <c r="E202" t="n">
         <v>16</v>
@@ -16524,16 +16524,16 @@
         </is>
       </c>
       <c r="M202" t="n">
-        <v>360</v>
+        <v>160</v>
       </c>
       <c r="N202" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O202" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P202" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="S202" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="T202" t="n">
         <v>20</v>
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44309</v>
+        <v>44249</v>
       </c>
       <c r="E203" t="n">
         <v>16</v>
@@ -16600,20 +16600,20 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M203" t="n">
-        <v>360</v>
+        <v>160</v>
       </c>
       <c r="N203" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="O203" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P203" t="n">
-        <v>13500</v>
+        <v>9750</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         </is>
       </c>
       <c r="S203" t="n">
-        <v>675</v>
+        <v>488</v>
       </c>
       <c r="T203" t="n">
         <v>20</v>
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44384</v>
+        <v>44249</v>
       </c>
       <c r="E204" t="n">
         <v>16</v>
@@ -16680,20 +16680,20 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M204" t="n">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="N204" t="n">
         <v>11000</v>
       </c>
       <c r="O204" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P204" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         </is>
       </c>
       <c r="S204" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="T204" t="n">
         <v>20</v>
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44384</v>
+        <v>44309</v>
       </c>
       <c r="E205" t="n">
         <v>16</v>
@@ -16764,16 +16764,16 @@
         </is>
       </c>
       <c r="M205" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="N205" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O205" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P205" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         </is>
       </c>
       <c r="S205" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="T205" t="n">
         <v>20</v>
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44168</v>
+        <v>44384</v>
       </c>
       <c r="E206" t="n">
         <v>16</v>
@@ -16847,13 +16847,13 @@
         <v>80</v>
       </c>
       <c r="N206" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O206" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P206" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         </is>
       </c>
       <c r="S206" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="T206" t="n">
         <v>20</v>
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44168</v>
+        <v>44384</v>
       </c>
       <c r="E207" t="n">
         <v>16</v>
@@ -16924,16 +16924,16 @@
         </is>
       </c>
       <c r="M207" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N207" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O207" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P207" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="S207" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T207" t="n">
         <v>20</v>
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44322</v>
+        <v>44168</v>
       </c>
       <c r="E208" t="n">
         <v>16</v>
@@ -17004,16 +17004,16 @@
         </is>
       </c>
       <c r="M208" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N208" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O208" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P208" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         </is>
       </c>
       <c r="S208" t="n">
-        <v>725</v>
+        <v>800</v>
       </c>
       <c r="T208" t="n">
         <v>20</v>
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44196</v>
+        <v>44168</v>
       </c>
       <c r="E209" t="n">
         <v>16</v>
@@ -17080,20 +17080,20 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M209" t="n">
-        <v>540</v>
+        <v>240</v>
       </c>
       <c r="N209" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O209" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P209" t="n">
-        <v>12370</v>
+        <v>17500</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         </is>
       </c>
       <c r="S209" t="n">
-        <v>618</v>
+        <v>875</v>
       </c>
       <c r="T209" t="n">
         <v>20</v>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44196</v>
+        <v>44322</v>
       </c>
       <c r="E210" t="n">
         <v>16</v>
@@ -17160,11 +17160,11 @@
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M210" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="N210" t="n">
         <v>14000</v>
@@ -17173,7 +17173,7 @@
         <v>15000</v>
       </c>
       <c r="P210" t="n">
-        <v>14536</v>
+        <v>14500</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="T210" t="n">
         <v>20</v>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44365</v>
+        <v>44196</v>
       </c>
       <c r="E211" t="n">
         <v>16</v>
@@ -17244,16 +17244,16 @@
         </is>
       </c>
       <c r="M211" t="n">
-        <v>120</v>
+        <v>540</v>
       </c>
       <c r="N211" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="O211" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P211" t="n">
-        <v>14750</v>
+        <v>12370</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>738</v>
+        <v>618</v>
       </c>
       <c r="T211" t="n">
         <v>20</v>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44235</v>
+        <v>44196</v>
       </c>
       <c r="E212" t="n">
         <v>16</v>
@@ -17320,20 +17320,20 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M212" t="n">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="N212" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O212" t="n">
         <v>15000</v>
       </c>
       <c r="P212" t="n">
-        <v>15000</v>
+        <v>14536</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>750</v>
+        <v>727</v>
       </c>
       <c r="T212" t="n">
         <v>20</v>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44235</v>
+        <v>44365</v>
       </c>
       <c r="E213" t="n">
         <v>16</v>
@@ -17400,20 +17400,20 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M213" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N213" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="O213" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P213" t="n">
-        <v>16500</v>
+        <v>14750</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         </is>
       </c>
       <c r="S213" t="n">
-        <v>825</v>
+        <v>738</v>
       </c>
       <c r="T213" t="n">
         <v>20</v>
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44358</v>
+        <v>44235</v>
       </c>
       <c r="E214" t="n">
         <v>16</v>
@@ -17484,16 +17484,16 @@
         </is>
       </c>
       <c r="M214" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="N214" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O214" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P214" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         </is>
       </c>
       <c r="S214" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="T214" t="n">
         <v>20</v>
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44358</v>
+        <v>44235</v>
       </c>
       <c r="E215" t="n">
         <v>16</v>
@@ -17564,16 +17564,16 @@
         </is>
       </c>
       <c r="M215" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N215" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O215" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P215" t="n">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         </is>
       </c>
       <c r="S215" t="n">
-        <v>625</v>
+        <v>825</v>
       </c>
       <c r="T215" t="n">
         <v>20</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E216" t="n">
         <v>16</v>
@@ -17644,16 +17644,16 @@
         </is>
       </c>
       <c r="M216" t="n">
-        <v>720</v>
+        <v>80</v>
       </c>
       <c r="N216" t="n">
         <v>11000</v>
       </c>
       <c r="O216" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P216" t="n">
-        <v>11472</v>
+        <v>11000</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>574</v>
+        <v>550</v>
       </c>
       <c r="T216" t="n">
         <v>20</v>
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E217" t="n">
         <v>16</v>
@@ -17724,16 +17724,16 @@
         </is>
       </c>
       <c r="M217" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N217" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="O217" t="n">
         <v>13000</v>
       </c>
       <c r="P217" t="n">
-        <v>12733</v>
+        <v>12500</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="S217" t="n">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="T217" t="n">
         <v>20</v>
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E218" t="n">
         <v>16</v>
@@ -17804,16 +17804,16 @@
         </is>
       </c>
       <c r="M218" t="n">
-        <v>200</v>
+        <v>720</v>
       </c>
       <c r="N218" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="O218" t="n">
-        <v>11800</v>
+        <v>12000</v>
       </c>
       <c r="P218" t="n">
-        <v>11650</v>
+        <v>11472</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="T218" t="n">
         <v>20</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E219" t="n">
         <v>16</v>
@@ -17884,7 +17884,7 @@
         </is>
       </c>
       <c r="M219" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N219" t="n">
         <v>12500</v>
@@ -17893,7 +17893,7 @@
         <v>13000</v>
       </c>
       <c r="P219" t="n">
-        <v>12750</v>
+        <v>12733</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T219" t="n">
         <v>20</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E220" t="n">
         <v>16</v>
@@ -17964,16 +17964,16 @@
         </is>
       </c>
       <c r="M220" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N220" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="O220" t="n">
-        <v>11000</v>
+        <v>11800</v>
       </c>
       <c r="P220" t="n">
-        <v>11000</v>
+        <v>11650</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>550</v>
+        <v>582</v>
       </c>
       <c r="T220" t="n">
         <v>20</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E221" t="n">
         <v>16</v>
@@ -18047,13 +18047,13 @@
         <v>240</v>
       </c>
       <c r="N221" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="O221" t="n">
         <v>13000</v>
       </c>
       <c r="P221" t="n">
-        <v>12500</v>
+        <v>12750</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>625</v>
+        <v>638</v>
       </c>
       <c r="T221" t="n">
         <v>20</v>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E222" t="n">
         <v>16</v>
@@ -18127,13 +18127,13 @@
         <v>80</v>
       </c>
       <c r="N222" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O222" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P222" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="T222" t="n">
         <v>20</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E223" t="n">
         <v>16</v>
@@ -18207,13 +18207,13 @@
         <v>240</v>
       </c>
       <c r="N223" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O223" t="n">
         <v>13000</v>
       </c>
-      <c r="O223" t="n">
-        <v>14000</v>
-      </c>
       <c r="P223" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="T223" t="n">
         <v>20</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E224" t="n">
         <v>16</v>
@@ -18284,16 +18284,16 @@
         </is>
       </c>
       <c r="M224" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N224" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O224" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P224" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="T224" t="n">
         <v>20</v>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E225" t="n">
         <v>16</v>
@@ -18367,13 +18367,13 @@
         <v>240</v>
       </c>
       <c r="N225" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O225" t="n">
         <v>14000</v>
       </c>
-      <c r="O225" t="n">
-        <v>15000</v>
-      </c>
       <c r="P225" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="T225" t="n">
         <v>20</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="E226" t="n">
         <v>16</v>
@@ -18444,7 +18444,7 @@
         </is>
       </c>
       <c r="M226" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N226" t="n">
         <v>13000</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="E227" t="n">
         <v>16</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44335</v>
+        <v>44291</v>
       </c>
       <c r="E228" t="n">
         <v>16</v>
@@ -18604,16 +18604,16 @@
         </is>
       </c>
       <c r="M228" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N228" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O228" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P228" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="T228" t="n">
         <v>20</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44335</v>
+        <v>44291</v>
       </c>
       <c r="E229" t="n">
         <v>16</v>
@@ -18687,13 +18687,13 @@
         <v>240</v>
       </c>
       <c r="N229" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O229" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P229" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="T229" t="n">
         <v>20</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E230" t="n">
         <v>16</v>
@@ -18764,16 +18764,16 @@
         </is>
       </c>
       <c r="M230" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N230" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O230" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P230" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="T230" t="n">
         <v>20</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E231" t="n">
         <v>16</v>
@@ -18844,16 +18844,16 @@
         </is>
       </c>
       <c r="M231" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="N231" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O231" t="n">
         <v>14000</v>
       </c>
-      <c r="O231" t="n">
-        <v>15000</v>
-      </c>
       <c r="P231" t="n">
-        <v>14455</v>
+        <v>13500</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>723</v>
+        <v>675</v>
       </c>
       <c r="T231" t="n">
         <v>20</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E232" t="n">
         <v>16</v>
@@ -18924,16 +18924,16 @@
         </is>
       </c>
       <c r="M232" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N232" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O232" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P232" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="T232" t="n">
         <v>20</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E233" t="n">
         <v>16</v>
@@ -19004,16 +19004,16 @@
         </is>
       </c>
       <c r="M233" t="n">
-        <v>600</v>
+        <v>220</v>
       </c>
       <c r="N233" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O233" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P233" t="n">
-        <v>13500</v>
+        <v>14455</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>675</v>
+        <v>723</v>
       </c>
       <c r="T233" t="n">
         <v>20</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E234" t="n">
         <v>16</v>
@@ -19087,13 +19087,13 @@
         <v>300</v>
       </c>
       <c r="N234" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="O234" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P234" t="n">
-        <v>14750</v>
+        <v>12000</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>738</v>
+        <v>600</v>
       </c>
       <c r="T234" t="n">
         <v>20</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E235" t="n">
         <v>16</v>
@@ -19167,13 +19167,13 @@
         <v>600</v>
       </c>
       <c r="N235" t="n">
-        <v>15500</v>
+        <v>13000</v>
       </c>
       <c r="O235" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P235" t="n">
-        <v>15750</v>
+        <v>13500</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>788</v>
+        <v>675</v>
       </c>
       <c r="T235" t="n">
         <v>20</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E236" t="n">
         <v>16</v>
@@ -19244,16 +19244,16 @@
         </is>
       </c>
       <c r="M236" t="n">
-        <v>640</v>
+        <v>300</v>
       </c>
       <c r="N236" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="O236" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P236" t="n">
-        <v>10469</v>
+        <v>14750</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>523</v>
+        <v>738</v>
       </c>
       <c r="T236" t="n">
         <v>20</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E237" t="n">
         <v>16</v>
@@ -19324,16 +19324,16 @@
         </is>
       </c>
       <c r="M237" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N237" t="n">
-        <v>11500</v>
+        <v>15500</v>
       </c>
       <c r="O237" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P237" t="n">
-        <v>11750</v>
+        <v>15750</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>588</v>
+        <v>788</v>
       </c>
       <c r="T237" t="n">
         <v>20</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E238" t="n">
         <v>16</v>
@@ -19404,16 +19404,16 @@
         </is>
       </c>
       <c r="M238" t="n">
-        <v>200</v>
+        <v>640</v>
       </c>
       <c r="N238" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O238" t="n">
         <v>11000</v>
       </c>
       <c r="P238" t="n">
-        <v>11000</v>
+        <v>10469</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>550</v>
+        <v>523</v>
       </c>
       <c r="T238" t="n">
         <v>20</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E239" t="n">
         <v>16</v>
@@ -19487,13 +19487,13 @@
         <v>300</v>
       </c>
       <c r="N239" t="n">
+        <v>11500</v>
+      </c>
+      <c r="O239" t="n">
         <v>12000</v>
       </c>
-      <c r="O239" t="n">
-        <v>13000</v>
-      </c>
       <c r="P239" t="n">
-        <v>12500</v>
+        <v>11750</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>625</v>
+        <v>588</v>
       </c>
       <c r="T239" t="n">
         <v>20</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E240" t="n">
         <v>16</v>
@@ -19564,16 +19564,16 @@
         </is>
       </c>
       <c r="M240" t="n">
-        <v>740</v>
+        <v>200</v>
       </c>
       <c r="N240" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O240" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P240" t="n">
-        <v>13595</v>
+        <v>11000</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>680</v>
+        <v>550</v>
       </c>
       <c r="T240" t="n">
         <v>20</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E241" t="n">
         <v>16</v>
@@ -19647,13 +19647,13 @@
         <v>300</v>
       </c>
       <c r="N241" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O241" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P241" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>775</v>
+        <v>625</v>
       </c>
       <c r="T241" t="n">
         <v>20</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44398</v>
+        <v>44222</v>
       </c>
       <c r="E242" t="n">
         <v>16</v>
@@ -19724,16 +19724,16 @@
         </is>
       </c>
       <c r="M242" t="n">
-        <v>80</v>
+        <v>740</v>
       </c>
       <c r="N242" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O242" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P242" t="n">
-        <v>11000</v>
+        <v>13595</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>550</v>
+        <v>680</v>
       </c>
       <c r="T242" t="n">
         <v>20</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44398</v>
+        <v>44222</v>
       </c>
       <c r="E243" t="n">
         <v>16</v>
@@ -19804,16 +19804,16 @@
         </is>
       </c>
       <c r="M243" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N243" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O243" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P243" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>625</v>
+        <v>775</v>
       </c>
       <c r="T243" t="n">
         <v>20</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E244" t="n">
         <v>16</v>
@@ -19884,7 +19884,7 @@
         </is>
       </c>
       <c r="M244" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N244" t="n">
         <v>11000</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E245" t="n">
         <v>16</v>
@@ -19964,7 +19964,7 @@
         </is>
       </c>
       <c r="M245" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N245" t="n">
         <v>12000</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44264</v>
+        <v>44420</v>
       </c>
       <c r="E246" t="n">
         <v>16</v>
@@ -20044,16 +20044,16 @@
         </is>
       </c>
       <c r="M246" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N246" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O246" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P246" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="T246" t="n">
         <v>20</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44264</v>
+        <v>44420</v>
       </c>
       <c r="E247" t="n">
         <v>16</v>
@@ -20124,16 +20124,16 @@
         </is>
       </c>
       <c r="M247" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N247" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O247" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P247" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>775</v>
+        <v>625</v>
       </c>
       <c r="T247" t="n">
         <v>20</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44348</v>
+        <v>44264</v>
       </c>
       <c r="E248" t="n">
         <v>16</v>
@@ -20200,20 +20200,20 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M248" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="N248" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O248" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P248" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="T248" t="n">
         <v>20</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="E249" t="n">
         <v>16</v>
@@ -20280,20 +20280,20 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M249" t="n">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="N249" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O249" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P249" t="n">
-        <v>14000</v>
+        <v>15500</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>700</v>
+        <v>775</v>
       </c>
       <c r="T249" t="n">
         <v>20</v>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E250" t="n">
         <v>16</v>
@@ -20364,16 +20364,16 @@
         </is>
       </c>
       <c r="M250" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N250" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O250" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P250" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>775</v>
+        <v>625</v>
       </c>
       <c r="T250" t="n">
         <v>20</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E251" t="n">
         <v>16</v>
@@ -20440,20 +20440,20 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M251" t="n">
-        <v>360</v>
+        <v>80</v>
       </c>
       <c r="N251" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="O251" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P251" t="n">
-        <v>14750</v>
+        <v>14000</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>738</v>
+        <v>700</v>
       </c>
       <c r="T251" t="n">
         <v>20</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44210</v>
+        <v>44263</v>
       </c>
       <c r="E252" t="n">
         <v>16</v>
@@ -20520,20 +20520,20 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M252" t="n">
-        <v>760</v>
+        <v>160</v>
       </c>
       <c r="N252" t="n">
-        <v>11500</v>
+        <v>15000</v>
       </c>
       <c r="O252" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="P252" t="n">
-        <v>12079</v>
+        <v>15500</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>604</v>
+        <v>775</v>
       </c>
       <c r="T252" t="n">
         <v>20</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E253" t="n">
         <v>16</v>
@@ -20604,16 +20604,16 @@
         </is>
       </c>
       <c r="M253" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="N253" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="O253" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P253" t="n">
-        <v>13312</v>
+        <v>14750</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>666</v>
+        <v>738</v>
       </c>
       <c r="T253" t="n">
         <v>20</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E254" t="n">
         <v>16</v>
@@ -20684,16 +20684,16 @@
         </is>
       </c>
       <c r="M254" t="n">
-        <v>740</v>
+        <v>760</v>
       </c>
       <c r="N254" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="O254" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="P254" t="n">
-        <v>9216</v>
+        <v>12079</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>461</v>
+        <v>604</v>
       </c>
       <c r="T254" t="n">
         <v>20</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E255" t="n">
         <v>16</v>
@@ -20764,16 +20764,16 @@
         </is>
       </c>
       <c r="M255" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="N255" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O255" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="P255" t="n">
-        <v>10286</v>
+        <v>13312</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>514</v>
+        <v>666</v>
       </c>
       <c r="T255" t="n">
         <v>20</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E256" t="n">
         <v>16</v>
@@ -20844,16 +20844,16 @@
         </is>
       </c>
       <c r="M256" t="n">
-        <v>300</v>
+        <v>740</v>
       </c>
       <c r="N256" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O256" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="P256" t="n">
-        <v>12250</v>
+        <v>9216</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>612</v>
+        <v>461</v>
       </c>
       <c r="T256" t="n">
         <v>20</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E257" t="n">
         <v>16</v>
@@ -20924,16 +20924,16 @@
         </is>
       </c>
       <c r="M257" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="N257" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O257" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="P257" t="n">
-        <v>13500</v>
+        <v>10286</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>675</v>
+        <v>514</v>
       </c>
       <c r="T257" t="n">
         <v>20</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E258" t="n">
         <v>16</v>
@@ -21004,16 +21004,16 @@
         </is>
       </c>
       <c r="M258" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N258" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O258" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="P258" t="n">
-        <v>11000</v>
+        <v>12250</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>550</v>
+        <v>612</v>
       </c>
       <c r="T258" t="n">
         <v>20</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E259" t="n">
         <v>16</v>
@@ -21084,16 +21084,16 @@
         </is>
       </c>
       <c r="M259" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="N259" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O259" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P259" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="T259" t="n">
         <v>20</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E260" t="n">
         <v>16</v>
@@ -21164,7 +21164,7 @@
         </is>
       </c>
       <c r="M260" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="N260" t="n">
         <v>11000</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E261" t="n">
         <v>16</v>
@@ -21244,7 +21244,7 @@
         </is>
       </c>
       <c r="M261" t="n">
-        <v>800</v>
+        <v>240</v>
       </c>
       <c r="N261" t="n">
         <v>12000</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E262" t="n">
         <v>16</v>
@@ -21324,16 +21324,16 @@
         </is>
       </c>
       <c r="M262" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N262" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O262" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P262" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="T262" t="n">
         <v>20</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E263" t="n">
         <v>16</v>
@@ -21404,16 +21404,16 @@
         </is>
       </c>
       <c r="M263" t="n">
-        <v>160</v>
+        <v>800</v>
       </c>
       <c r="N263" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O263" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P263" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="T263" t="n">
         <v>20</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E264" t="n">
         <v>16</v>
@@ -21484,16 +21484,16 @@
         </is>
       </c>
       <c r="M264" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N264" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O264" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P264" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="T264" t="n">
         <v>20</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E265" t="n">
         <v>16</v>
@@ -21564,16 +21564,16 @@
         </is>
       </c>
       <c r="M265" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N265" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O265" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P265" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="T265" t="n">
         <v>20</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E266" t="n">
         <v>16</v>
@@ -21644,16 +21644,16 @@
         </is>
       </c>
       <c r="M266" t="n">
-        <v>640</v>
+        <v>120</v>
       </c>
       <c r="N266" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O266" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P266" t="n">
-        <v>13688</v>
+        <v>9000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>684</v>
+        <v>450</v>
       </c>
       <c r="T266" t="n">
         <v>20</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E267" t="n">
         <v>16</v>
@@ -21724,16 +21724,16 @@
         </is>
       </c>
       <c r="M267" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="N267" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="O267" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P267" t="n">
-        <v>14714</v>
+        <v>10500</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>736</v>
+        <v>525</v>
       </c>
       <c r="T267" t="n">
         <v>20</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E268" t="n">
         <v>16</v>
@@ -21804,16 +21804,16 @@
         </is>
       </c>
       <c r="M268" t="n">
-        <v>400</v>
+        <v>640</v>
       </c>
       <c r="N268" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O268" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P268" t="n">
-        <v>11000</v>
+        <v>13688</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>550</v>
+        <v>684</v>
       </c>
       <c r="T268" t="n">
         <v>20</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E269" t="n">
         <v>16</v>
@@ -21884,16 +21884,16 @@
         </is>
       </c>
       <c r="M269" t="n">
-        <v>680</v>
+        <v>280</v>
       </c>
       <c r="N269" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="O269" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P269" t="n">
-        <v>12500</v>
+        <v>14714</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>625</v>
+        <v>736</v>
       </c>
       <c r="T269" t="n">
         <v>20</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E270" t="n">
         <v>16</v>
@@ -21964,16 +21964,16 @@
         </is>
       </c>
       <c r="M270" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N270" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="O270" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P270" t="n">
-        <v>13750</v>
+        <v>11000</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>688</v>
+        <v>550</v>
       </c>
       <c r="T270" t="n">
         <v>20</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E271" t="n">
         <v>16</v>
@@ -22044,16 +22044,16 @@
         </is>
       </c>
       <c r="M271" t="n">
-        <v>360</v>
+        <v>680</v>
       </c>
       <c r="N271" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="O271" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P271" t="n">
-        <v>14750</v>
+        <v>12500</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>738</v>
+        <v>625</v>
       </c>
       <c r="T271" t="n">
         <v>20</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E272" t="n">
         <v>16</v>
@@ -22124,16 +22124,16 @@
         </is>
       </c>
       <c r="M272" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N272" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="O272" t="n">
         <v>14000</v>
       </c>
       <c r="P272" t="n">
-        <v>14000</v>
+        <v>13750</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="T272" t="n">
         <v>20</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E273" t="n">
         <v>16</v>
@@ -22204,16 +22204,16 @@
         </is>
       </c>
       <c r="M273" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="N273" t="n">
+        <v>14500</v>
+      </c>
+      <c r="O273" t="n">
         <v>15000</v>
       </c>
-      <c r="O273" t="n">
-        <v>16000</v>
-      </c>
       <c r="P273" t="n">
-        <v>15500</v>
+        <v>14750</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>775</v>
+        <v>738</v>
       </c>
       <c r="T273" t="n">
         <v>20</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44432</v>
+        <v>44237</v>
       </c>
       <c r="E274" t="n">
         <v>16</v>
@@ -22284,16 +22284,16 @@
         </is>
       </c>
       <c r="M274" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N274" t="n">
-        <v>11500</v>
+        <v>14000</v>
       </c>
       <c r="O274" t="n">
-        <v>11800</v>
+        <v>14000</v>
       </c>
       <c r="P274" t="n">
-        <v>11650</v>
+        <v>14000</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>582</v>
+        <v>700</v>
       </c>
       <c r="T274" t="n">
         <v>20</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44432</v>
+        <v>44237</v>
       </c>
       <c r="E275" t="n">
         <v>16</v>
@@ -22364,16 +22364,16 @@
         </is>
       </c>
       <c r="M275" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N275" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="O275" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P275" t="n">
-        <v>12750</v>
+        <v>15500</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>638</v>
+        <v>775</v>
       </c>
       <c r="T275" t="n">
         <v>20</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E276" t="n">
         <v>16</v>
@@ -22444,16 +22444,16 @@
         </is>
       </c>
       <c r="M276" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="N276" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="O276" t="n">
-        <v>11000</v>
+        <v>11800</v>
       </c>
       <c r="P276" t="n">
-        <v>11000</v>
+        <v>11650</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>550</v>
+        <v>582</v>
       </c>
       <c r="T276" t="n">
         <v>20</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E277" t="n">
         <v>16</v>
@@ -22524,16 +22524,16 @@
         </is>
       </c>
       <c r="M277" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N277" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="O277" t="n">
         <v>13000</v>
       </c>
       <c r="P277" t="n">
-        <v>12500</v>
+        <v>12750</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>625</v>
+        <v>638</v>
       </c>
       <c r="T277" t="n">
         <v>20</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E278" t="n">
         <v>16</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E279" t="n">
         <v>16</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E280" t="n">
         <v>16</v>
@@ -22764,16 +22764,16 @@
         </is>
       </c>
       <c r="M280" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N280" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O280" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P280" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="T280" t="n">
         <v>20</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E281" t="n">
         <v>16</v>
@@ -22844,16 +22844,16 @@
         </is>
       </c>
       <c r="M281" t="n">
-        <v>360</v>
+        <v>160</v>
       </c>
       <c r="N281" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O281" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P281" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="T281" t="n">
         <v>20</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E282" t="n">
         <v>16</v>
@@ -22924,16 +22924,16 @@
         </is>
       </c>
       <c r="M282" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N282" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O282" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P282" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="T282" t="n">
         <v>20</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E283" t="n">
         <v>16</v>
@@ -23004,16 +23004,16 @@
         </is>
       </c>
       <c r="M283" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N283" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O283" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P283" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="T283" t="n">
         <v>20</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E284" t="n">
         <v>16</v>
@@ -23084,16 +23084,16 @@
         </is>
       </c>
       <c r="M284" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N284" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O284" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P284" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="T284" t="n">
         <v>20</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E285" t="n">
         <v>16</v>
@@ -23167,13 +23167,13 @@
         <v>240</v>
       </c>
       <c r="N285" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O285" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P285" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="T285" t="n">
         <v>20</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E286" t="n">
         <v>16</v>
@@ -23247,13 +23247,13 @@
         <v>80</v>
       </c>
       <c r="N286" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O286" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P286" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="T286" t="n">
         <v>20</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E287" t="n">
         <v>16</v>
@@ -23324,16 +23324,16 @@
         </is>
       </c>
       <c r="M287" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N287" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O287" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P287" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="T287" t="n">
         <v>20</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E288" t="n">
         <v>16</v>
@@ -23404,16 +23404,16 @@
         </is>
       </c>
       <c r="M288" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N288" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O288" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P288" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="T288" t="n">
         <v>20</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E289" t="n">
         <v>16</v>
@@ -23484,16 +23484,16 @@
         </is>
       </c>
       <c r="M289" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N289" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O289" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P289" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>575</v>
+        <v>725</v>
       </c>
       <c r="T289" t="n">
         <v>20</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E290" t="n">
         <v>16</v>
@@ -23564,16 +23564,16 @@
         </is>
       </c>
       <c r="M290" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N290" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O290" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P290" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="T290" t="n">
         <v>20</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E291" t="n">
         <v>16</v>
@@ -23644,16 +23644,16 @@
         </is>
       </c>
       <c r="M291" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N291" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O291" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P291" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="T291" t="n">
         <v>20</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E292" t="n">
         <v>16</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E293" t="n">
         <v>16</v>
@@ -23804,7 +23804,7 @@
         </is>
       </c>
       <c r="M293" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N293" t="n">
         <v>14000</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E294" t="n">
         <v>16</v>
@@ -23884,16 +23884,16 @@
         </is>
       </c>
       <c r="M294" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N294" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O294" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P294" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="T294" t="n">
         <v>20</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E295" t="n">
         <v>16</v>
@@ -23967,13 +23967,13 @@
         <v>240</v>
       </c>
       <c r="N295" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O295" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P295" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="T295" t="n">
         <v>20</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E296" t="n">
         <v>16</v>
@@ -24044,16 +24044,16 @@
         </is>
       </c>
       <c r="M296" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N296" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O296" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P296" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="T296" t="n">
         <v>20</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E297" t="n">
         <v>16</v>
@@ -24127,13 +24127,13 @@
         <v>240</v>
       </c>
       <c r="N297" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O297" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P297" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T297" t="n">
         <v>20</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E298" t="n">
         <v>16</v>
@@ -24204,16 +24204,16 @@
         </is>
       </c>
       <c r="M298" t="n">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="N298" t="n">
-        <v>11500</v>
+        <v>16000</v>
       </c>
       <c r="O298" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P298" t="n">
-        <v>11750</v>
+        <v>16000</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>588</v>
+        <v>800</v>
       </c>
       <c r="T298" t="n">
         <v>20</v>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E299" t="n">
         <v>16</v>
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="M299" t="n">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="N299" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O299" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P299" t="n">
-        <v>13500</v>
+        <v>17500</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="T299" t="n">
         <v>20</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E300" t="n">
         <v>16</v>
@@ -24364,16 +24364,16 @@
         </is>
       </c>
       <c r="M300" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="N300" t="n">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="O300" t="n">
         <v>12000</v>
       </c>
       <c r="P300" t="n">
-        <v>12000</v>
+        <v>11750</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="T300" t="n">
         <v>20</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E301" t="n">
         <v>16</v>
@@ -24444,7 +24444,7 @@
         </is>
       </c>
       <c r="M301" t="n">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="N301" t="n">
         <v>13000</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E302" t="n">
         <v>16</v>
@@ -24524,16 +24524,16 @@
         </is>
       </c>
       <c r="M302" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N302" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O302" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P302" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T302" t="n">
         <v>20</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E303" t="n">
         <v>16</v>
@@ -24607,13 +24607,13 @@
         <v>240</v>
       </c>
       <c r="N303" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O303" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P303" t="n">
-        <v>15500</v>
+        <v>13500</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="T303" t="n">
         <v>20</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44161</v>
+        <v>44329</v>
       </c>
       <c r="E304" t="n">
         <v>16</v>
@@ -24684,16 +24684,16 @@
         </is>
       </c>
       <c r="M304" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N304" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O304" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P304" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T304" t="n">
         <v>20</v>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44161</v>
+        <v>44329</v>
       </c>
       <c r="E305" t="n">
         <v>16</v>
@@ -24764,16 +24764,16 @@
         </is>
       </c>
       <c r="M305" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N305" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O305" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P305" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="T305" t="n">
         <v>20</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E306" t="n">
         <v>16</v>
@@ -24844,16 +24844,16 @@
         </is>
       </c>
       <c r="M306" t="n">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="N306" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O306" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P306" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T306" t="n">
         <v>20</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E307" t="n">
         <v>16</v>
@@ -24924,16 +24924,16 @@
         </is>
       </c>
       <c r="M307" t="n">
-        <v>360</v>
+        <v>160</v>
       </c>
       <c r="N307" t="n">
-        <v>14500</v>
+        <v>17000</v>
       </c>
       <c r="O307" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P307" t="n">
-        <v>14750</v>
+        <v>17500</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>738</v>
+        <v>875</v>
       </c>
       <c r="T307" t="n">
         <v>20</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E308" t="n">
         <v>16</v>
@@ -25004,16 +25004,16 @@
         </is>
       </c>
       <c r="M308" t="n">
-        <v>660</v>
+        <v>220</v>
       </c>
       <c r="N308" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O308" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="P308" t="n">
-        <v>9273</v>
+        <v>14000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>464</v>
+        <v>700</v>
       </c>
       <c r="T308" t="n">
         <v>20</v>
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E309" t="n">
         <v>16</v>
@@ -25084,16 +25084,16 @@
         </is>
       </c>
       <c r="M309" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N309" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="O309" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P309" t="n">
-        <v>10667</v>
+        <v>14750</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>533</v>
+        <v>738</v>
       </c>
       <c r="T309" t="n">
         <v>20</v>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44442</v>
+        <v>44251</v>
       </c>
       <c r="E310" t="n">
         <v>16</v>
@@ -25164,16 +25164,16 @@
         </is>
       </c>
       <c r="M310" t="n">
-        <v>300</v>
+        <v>660</v>
       </c>
       <c r="N310" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="O310" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="P310" t="n">
-        <v>13750</v>
+        <v>9273</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>688</v>
+        <v>464</v>
       </c>
       <c r="T310" t="n">
         <v>20</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44442</v>
+        <v>44251</v>
       </c>
       <c r="E311" t="n">
         <v>16</v>
@@ -25247,13 +25247,13 @@
         <v>300</v>
       </c>
       <c r="N311" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="O311" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P311" t="n">
-        <v>14750</v>
+        <v>10667</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>738</v>
+        <v>533</v>
       </c>
       <c r="T311" t="n">
         <v>20</v>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E312" t="n">
         <v>16</v>
@@ -25324,16 +25324,16 @@
         </is>
       </c>
       <c r="M312" t="n">
-        <v>1340</v>
+        <v>300</v>
       </c>
       <c r="N312" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="O312" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P312" t="n">
-        <v>13177</v>
+        <v>13750</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>659</v>
+        <v>688</v>
       </c>
       <c r="T312" t="n">
         <v>20</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E313" t="n">
         <v>16</v>
@@ -25404,16 +25404,16 @@
         </is>
       </c>
       <c r="M313" t="n">
-        <v>2020</v>
+        <v>300</v>
       </c>
       <c r="N313" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="O313" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P313" t="n">
-        <v>14505</v>
+        <v>14750</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>725</v>
+        <v>738</v>
       </c>
       <c r="T313" t="n">
         <v>20</v>
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E314" t="n">
         <v>16</v>
@@ -25484,16 +25484,16 @@
         </is>
       </c>
       <c r="M314" t="n">
-        <v>80</v>
+        <v>1340</v>
       </c>
       <c r="N314" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="O314" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P314" t="n">
-        <v>13000</v>
+        <v>13177</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>650</v>
+        <v>659</v>
       </c>
       <c r="T314" t="n">
         <v>20</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E315" t="n">
         <v>16</v>
@@ -25564,16 +25564,16 @@
         </is>
       </c>
       <c r="M315" t="n">
-        <v>240</v>
+        <v>2020</v>
       </c>
       <c r="N315" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="O315" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P315" t="n">
-        <v>14750</v>
+        <v>14505</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>738</v>
+        <v>725</v>
       </c>
       <c r="T315" t="n">
         <v>20</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E316" t="n">
         <v>16</v>
@@ -25644,16 +25644,16 @@
         </is>
       </c>
       <c r="M316" t="n">
-        <v>480</v>
+        <v>80</v>
       </c>
       <c r="N316" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O316" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P316" t="n">
-        <v>14417</v>
+        <v>13000</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>721</v>
+        <v>650</v>
       </c>
       <c r="T316" t="n">
         <v>20</v>
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E317" t="n">
         <v>16</v>
@@ -25724,16 +25724,16 @@
         </is>
       </c>
       <c r="M317" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="N317" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="O317" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P317" t="n">
-        <v>15826</v>
+        <v>14750</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>791</v>
+        <v>738</v>
       </c>
       <c r="T317" t="n">
         <v>20</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E318" t="n">
         <v>16</v>
@@ -25804,16 +25804,16 @@
         </is>
       </c>
       <c r="M318" t="n">
-        <v>80</v>
+        <v>480</v>
       </c>
       <c r="N318" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O318" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P318" t="n">
-        <v>11000</v>
+        <v>14417</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>550</v>
+        <v>721</v>
       </c>
       <c r="T318" t="n">
         <v>20</v>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E319" t="n">
         <v>16</v>
@@ -25884,16 +25884,16 @@
         </is>
       </c>
       <c r="M319" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="N319" t="n">
-        <v>12000</v>
+        <v>15500</v>
       </c>
       <c r="O319" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P319" t="n">
-        <v>12500</v>
+        <v>15826</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>625</v>
+        <v>791</v>
       </c>
       <c r="T319" t="n">
         <v>20</v>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E320" t="n">
         <v>16</v>
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E321" t="n">
         <v>16</v>
@@ -26044,7 +26044,7 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N321" t="n">
         <v>12000</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E322" t="n">
         <v>16</v>
@@ -26124,16 +26124,16 @@
         </is>
       </c>
       <c r="M322" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="N322" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="O322" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P322" t="n">
-        <v>11750</v>
+        <v>11000</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>588</v>
+        <v>550</v>
       </c>
       <c r="T322" t="n">
         <v>20</v>
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E323" t="n">
         <v>16</v>
@@ -26204,16 +26204,16 @@
         </is>
       </c>
       <c r="M323" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N323" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O323" t="n">
         <v>13000</v>
       </c>
-      <c r="O323" t="n">
-        <v>14000</v>
-      </c>
       <c r="P323" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="T323" t="n">
         <v>20</v>
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E324" t="n">
         <v>16</v>
@@ -26284,16 +26284,16 @@
         </is>
       </c>
       <c r="M324" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N324" t="n">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="O324" t="n">
         <v>12000</v>
       </c>
       <c r="P324" t="n">
-        <v>12000</v>
+        <v>11750</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="T324" t="n">
         <v>20</v>
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E325" t="n">
         <v>16</v>
@@ -26364,16 +26364,16 @@
         </is>
       </c>
       <c r="M325" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N325" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="O325" t="n">
         <v>14000</v>
       </c>
       <c r="P325" t="n">
-        <v>13750</v>
+        <v>13500</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="T325" t="n">
         <v>20</v>
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E326" t="n">
         <v>16</v>
@@ -26440,20 +26440,20 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M326" t="n">
         <v>120</v>
       </c>
       <c r="N326" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O326" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P326" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>725</v>
+        <v>600</v>
       </c>
       <c r="T326" t="n">
         <v>20</v>
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44167</v>
+        <v>44223</v>
       </c>
       <c r="E327" t="n">
         <v>16</v>
@@ -26520,20 +26520,20 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M327" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="N327" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="O327" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P327" t="n">
-        <v>16000</v>
+        <v>13750</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>800</v>
+        <v>688</v>
       </c>
       <c r="T327" t="n">
         <v>20</v>
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44167</v>
+        <v>44314</v>
       </c>
       <c r="E328" t="n">
         <v>16</v>
@@ -26604,16 +26604,16 @@
         </is>
       </c>
       <c r="M328" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N328" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O328" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P328" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>875</v>
+        <v>725</v>
       </c>
       <c r="T328" t="n">
         <v>20</v>
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E329" t="n">
         <v>16</v>
@@ -26684,16 +26684,16 @@
         </is>
       </c>
       <c r="M329" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N329" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O329" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P329" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T329" t="n">
         <v>20</v>
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E330" t="n">
         <v>16</v>
@@ -26764,16 +26764,16 @@
         </is>
       </c>
       <c r="M330" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N330" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O330" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P330" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>775</v>
+        <v>875</v>
       </c>
       <c r="T330" t="n">
         <v>20</v>
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E331" t="n">
         <v>16</v>
@@ -26840,20 +26840,20 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M331" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N331" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O331" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P331" t="n">
-        <v>16500</v>
+        <v>14000</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>825</v>
+        <v>700</v>
       </c>
       <c r="T331" t="n">
         <v>20</v>
@@ -26887,68 +26887,228 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
+        <v>44238</v>
+      </c>
+      <c r="E332" t="n">
+        <v>16</v>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G332" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I332" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>Primera Pintón</t>
+        </is>
+      </c>
+      <c r="M332" t="n">
+        <v>240</v>
+      </c>
+      <c r="N332" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O332" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P332" t="n">
+        <v>15500</v>
+      </c>
+      <c r="Q332" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R332" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S332" t="n">
+        <v>775</v>
+      </c>
+      <c r="T332" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>7</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D333" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E333" t="n">
+        <v>16</v>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G333" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I333" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>Primera Pintón</t>
+        </is>
+      </c>
+      <c r="M333" t="n">
+        <v>240</v>
+      </c>
+      <c r="N333" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O333" t="n">
+        <v>17000</v>
+      </c>
+      <c r="P333" t="n">
+        <v>16500</v>
+      </c>
+      <c r="Q333" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R333" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S333" t="n">
+        <v>825</v>
+      </c>
+      <c r="T333" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>7</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D334" s="2" t="n">
         <v>44400</v>
       </c>
-      <c r="E332" t="n">
-        <v>16</v>
-      </c>
-      <c r="F332" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G332" t="n">
-        <v>100108</v>
-      </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>Tropicales y subtropicales</t>
-        </is>
-      </c>
-      <c r="I332" t="n">
-        <v>100108006</v>
-      </c>
-      <c r="J332" t="inlineStr">
-        <is>
-          <t>Plátano</t>
-        </is>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L332" t="inlineStr">
+      <c r="E334" t="n">
+        <v>16</v>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G334" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I334" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L334" t="inlineStr">
         <is>
           <t>Primera Pintón</t>
         </is>
       </c>
-      <c r="M332" t="n">
+      <c r="M334" t="n">
         <v>160</v>
       </c>
-      <c r="N332" t="n">
+      <c r="N334" t="n">
         <v>19000</v>
       </c>
-      <c r="O332" t="n">
+      <c r="O334" t="n">
         <v>20000</v>
       </c>
-      <c r="P332" t="n">
+      <c r="P334" t="n">
         <v>19500</v>
       </c>
-      <c r="Q332" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R332" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S332" t="n">
+      <c r="Q334" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R334" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S334" t="n">
         <v>975</v>
       </c>
-      <c r="T332" t="n">
+      <c r="T334" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T334"/>
+  <dimension ref="A1:T336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E329" t="n">
         <v>16</v>
@@ -26684,16 +26684,16 @@
         </is>
       </c>
       <c r="M329" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="N329" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O329" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P329" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T329" t="n">
         <v>20</v>
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E330" t="n">
         <v>16</v>
@@ -26764,16 +26764,16 @@
         </is>
       </c>
       <c r="M330" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="N330" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O330" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="P330" t="n">
-        <v>17500</v>
+        <v>20500</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>875</v>
+        <v>1025</v>
       </c>
       <c r="T330" t="n">
         <v>20</v>
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E331" t="n">
         <v>16</v>
@@ -26844,16 +26844,16 @@
         </is>
       </c>
       <c r="M331" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N331" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O331" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P331" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T331" t="n">
         <v>20</v>
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E332" t="n">
         <v>16</v>
@@ -26924,16 +26924,16 @@
         </is>
       </c>
       <c r="M332" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N332" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O332" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P332" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>775</v>
+        <v>875</v>
       </c>
       <c r="T332" t="n">
         <v>20</v>
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E333" t="n">
         <v>16</v>
@@ -27000,20 +27000,20 @@
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M333" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N333" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O333" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P333" t="n">
-        <v>16500</v>
+        <v>14000</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>825</v>
+        <v>700</v>
       </c>
       <c r="T333" t="n">
         <v>20</v>
@@ -27047,68 +27047,228 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
+        <v>44238</v>
+      </c>
+      <c r="E334" t="n">
+        <v>16</v>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G334" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I334" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>Primera Pintón</t>
+        </is>
+      </c>
+      <c r="M334" t="n">
+        <v>240</v>
+      </c>
+      <c r="N334" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O334" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P334" t="n">
+        <v>15500</v>
+      </c>
+      <c r="Q334" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R334" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S334" t="n">
+        <v>775</v>
+      </c>
+      <c r="T334" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>7</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D335" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E335" t="n">
+        <v>16</v>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G335" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I335" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>Primera Pintón</t>
+        </is>
+      </c>
+      <c r="M335" t="n">
+        <v>240</v>
+      </c>
+      <c r="N335" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O335" t="n">
+        <v>17000</v>
+      </c>
+      <c r="P335" t="n">
+        <v>16500</v>
+      </c>
+      <c r="Q335" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R335" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S335" t="n">
+        <v>825</v>
+      </c>
+      <c r="T335" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>7</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D336" s="2" t="n">
         <v>44400</v>
       </c>
-      <c r="E334" t="n">
-        <v>16</v>
-      </c>
-      <c r="F334" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G334" t="n">
-        <v>100108</v>
-      </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>Tropicales y subtropicales</t>
-        </is>
-      </c>
-      <c r="I334" t="n">
-        <v>100108006</v>
-      </c>
-      <c r="J334" t="inlineStr">
-        <is>
-          <t>Plátano</t>
-        </is>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L334" t="inlineStr">
+      <c r="E336" t="n">
+        <v>16</v>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G336" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I336" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L336" t="inlineStr">
         <is>
           <t>Primera Pintón</t>
         </is>
       </c>
-      <c r="M334" t="n">
+      <c r="M336" t="n">
         <v>160</v>
       </c>
-      <c r="N334" t="n">
+      <c r="N336" t="n">
         <v>19000</v>
       </c>
-      <c r="O334" t="n">
+      <c r="O336" t="n">
         <v>20000</v>
       </c>
-      <c r="P334" t="n">
+      <c r="P336" t="n">
         <v>19500</v>
       </c>
-      <c r="Q334" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R334" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S334" t="n">
+      <c r="Q336" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R336" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S336" t="n">
         <v>975</v>
       </c>
-      <c r="T334" t="n">
+      <c r="T336" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T336"/>
+  <dimension ref="A1:T338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E216" t="n">
         <v>16</v>
@@ -17647,13 +17647,13 @@
         <v>80</v>
       </c>
       <c r="N216" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O216" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="P216" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="T216" t="n">
         <v>20</v>
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E217" t="n">
         <v>16</v>
@@ -17724,16 +17724,16 @@
         </is>
       </c>
       <c r="M217" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N217" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="O217" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P217" t="n">
-        <v>12500</v>
+        <v>21500</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="S217" t="n">
-        <v>625</v>
+        <v>1075</v>
       </c>
       <c r="T217" t="n">
         <v>20</v>
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E218" t="n">
         <v>16</v>
@@ -17804,16 +17804,16 @@
         </is>
       </c>
       <c r="M218" t="n">
-        <v>720</v>
+        <v>80</v>
       </c>
       <c r="N218" t="n">
         <v>11000</v>
       </c>
       <c r="O218" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P218" t="n">
-        <v>11472</v>
+        <v>11000</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>574</v>
+        <v>550</v>
       </c>
       <c r="T218" t="n">
         <v>20</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E219" t="n">
         <v>16</v>
@@ -17884,16 +17884,16 @@
         </is>
       </c>
       <c r="M219" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N219" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="O219" t="n">
         <v>13000</v>
       </c>
       <c r="P219" t="n">
-        <v>12733</v>
+        <v>12500</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="T219" t="n">
         <v>20</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E220" t="n">
         <v>16</v>
@@ -17964,16 +17964,16 @@
         </is>
       </c>
       <c r="M220" t="n">
-        <v>200</v>
+        <v>720</v>
       </c>
       <c r="N220" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="O220" t="n">
-        <v>11800</v>
+        <v>12000</v>
       </c>
       <c r="P220" t="n">
-        <v>11650</v>
+        <v>11472</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="T220" t="n">
         <v>20</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E221" t="n">
         <v>16</v>
@@ -18044,7 +18044,7 @@
         </is>
       </c>
       <c r="M221" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N221" t="n">
         <v>12500</v>
@@ -18053,7 +18053,7 @@
         <v>13000</v>
       </c>
       <c r="P221" t="n">
-        <v>12750</v>
+        <v>12733</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T221" t="n">
         <v>20</v>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E222" t="n">
         <v>16</v>
@@ -18124,16 +18124,16 @@
         </is>
       </c>
       <c r="M222" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N222" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="O222" t="n">
-        <v>11000</v>
+        <v>11800</v>
       </c>
       <c r="P222" t="n">
-        <v>11000</v>
+        <v>11650</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>550</v>
+        <v>582</v>
       </c>
       <c r="T222" t="n">
         <v>20</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E223" t="n">
         <v>16</v>
@@ -18207,13 +18207,13 @@
         <v>240</v>
       </c>
       <c r="N223" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="O223" t="n">
         <v>13000</v>
       </c>
       <c r="P223" t="n">
-        <v>12500</v>
+        <v>12750</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>625</v>
+        <v>638</v>
       </c>
       <c r="T223" t="n">
         <v>20</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E224" t="n">
         <v>16</v>
@@ -18287,13 +18287,13 @@
         <v>80</v>
       </c>
       <c r="N224" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O224" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P224" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="T224" t="n">
         <v>20</v>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E225" t="n">
         <v>16</v>
@@ -18367,13 +18367,13 @@
         <v>240</v>
       </c>
       <c r="N225" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O225" t="n">
         <v>13000</v>
       </c>
-      <c r="O225" t="n">
-        <v>14000</v>
-      </c>
       <c r="P225" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="T225" t="n">
         <v>20</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E226" t="n">
         <v>16</v>
@@ -18444,16 +18444,16 @@
         </is>
       </c>
       <c r="M226" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N226" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O226" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P226" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="T226" t="n">
         <v>20</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E227" t="n">
         <v>16</v>
@@ -18527,13 +18527,13 @@
         <v>240</v>
       </c>
       <c r="N227" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O227" t="n">
         <v>14000</v>
       </c>
-      <c r="O227" t="n">
-        <v>15000</v>
-      </c>
       <c r="P227" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="T227" t="n">
         <v>20</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="E228" t="n">
         <v>16</v>
@@ -18604,7 +18604,7 @@
         </is>
       </c>
       <c r="M228" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N228" t="n">
         <v>13000</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="E229" t="n">
         <v>16</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44335</v>
+        <v>44291</v>
       </c>
       <c r="E230" t="n">
         <v>16</v>
@@ -18764,16 +18764,16 @@
         </is>
       </c>
       <c r="M230" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N230" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O230" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P230" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="T230" t="n">
         <v>20</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44335</v>
+        <v>44291</v>
       </c>
       <c r="E231" t="n">
         <v>16</v>
@@ -18847,13 +18847,13 @@
         <v>240</v>
       </c>
       <c r="N231" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O231" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P231" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="T231" t="n">
         <v>20</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E232" t="n">
         <v>16</v>
@@ -18924,16 +18924,16 @@
         </is>
       </c>
       <c r="M232" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N232" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O232" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P232" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="T232" t="n">
         <v>20</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E233" t="n">
         <v>16</v>
@@ -19004,16 +19004,16 @@
         </is>
       </c>
       <c r="M233" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="N233" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O233" t="n">
         <v>14000</v>
       </c>
-      <c r="O233" t="n">
-        <v>15000</v>
-      </c>
       <c r="P233" t="n">
-        <v>14455</v>
+        <v>13500</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>723</v>
+        <v>675</v>
       </c>
       <c r="T233" t="n">
         <v>20</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E234" t="n">
         <v>16</v>
@@ -19084,16 +19084,16 @@
         </is>
       </c>
       <c r="M234" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N234" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O234" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P234" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="T234" t="n">
         <v>20</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E235" t="n">
         <v>16</v>
@@ -19164,16 +19164,16 @@
         </is>
       </c>
       <c r="M235" t="n">
-        <v>600</v>
+        <v>220</v>
       </c>
       <c r="N235" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O235" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P235" t="n">
-        <v>13500</v>
+        <v>14455</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>675</v>
+        <v>723</v>
       </c>
       <c r="T235" t="n">
         <v>20</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E236" t="n">
         <v>16</v>
@@ -19247,13 +19247,13 @@
         <v>300</v>
       </c>
       <c r="N236" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="O236" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P236" t="n">
-        <v>14750</v>
+        <v>12000</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>738</v>
+        <v>600</v>
       </c>
       <c r="T236" t="n">
         <v>20</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E237" t="n">
         <v>16</v>
@@ -19327,13 +19327,13 @@
         <v>600</v>
       </c>
       <c r="N237" t="n">
-        <v>15500</v>
+        <v>13000</v>
       </c>
       <c r="O237" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P237" t="n">
-        <v>15750</v>
+        <v>13500</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>788</v>
+        <v>675</v>
       </c>
       <c r="T237" t="n">
         <v>20</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E238" t="n">
         <v>16</v>
@@ -19404,16 +19404,16 @@
         </is>
       </c>
       <c r="M238" t="n">
-        <v>640</v>
+        <v>300</v>
       </c>
       <c r="N238" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="O238" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P238" t="n">
-        <v>10469</v>
+        <v>14750</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>523</v>
+        <v>738</v>
       </c>
       <c r="T238" t="n">
         <v>20</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E239" t="n">
         <v>16</v>
@@ -19484,16 +19484,16 @@
         </is>
       </c>
       <c r="M239" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N239" t="n">
-        <v>11500</v>
+        <v>15500</v>
       </c>
       <c r="O239" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P239" t="n">
-        <v>11750</v>
+        <v>15750</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>588</v>
+        <v>788</v>
       </c>
       <c r="T239" t="n">
         <v>20</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E240" t="n">
         <v>16</v>
@@ -19564,16 +19564,16 @@
         </is>
       </c>
       <c r="M240" t="n">
-        <v>200</v>
+        <v>640</v>
       </c>
       <c r="N240" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O240" t="n">
         <v>11000</v>
       </c>
       <c r="P240" t="n">
-        <v>11000</v>
+        <v>10469</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>550</v>
+        <v>523</v>
       </c>
       <c r="T240" t="n">
         <v>20</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E241" t="n">
         <v>16</v>
@@ -19647,13 +19647,13 @@
         <v>300</v>
       </c>
       <c r="N241" t="n">
+        <v>11500</v>
+      </c>
+      <c r="O241" t="n">
         <v>12000</v>
       </c>
-      <c r="O241" t="n">
-        <v>13000</v>
-      </c>
       <c r="P241" t="n">
-        <v>12500</v>
+        <v>11750</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>625</v>
+        <v>588</v>
       </c>
       <c r="T241" t="n">
         <v>20</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E242" t="n">
         <v>16</v>
@@ -19724,16 +19724,16 @@
         </is>
       </c>
       <c r="M242" t="n">
-        <v>740</v>
+        <v>200</v>
       </c>
       <c r="N242" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O242" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P242" t="n">
-        <v>13595</v>
+        <v>11000</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>680</v>
+        <v>550</v>
       </c>
       <c r="T242" t="n">
         <v>20</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E243" t="n">
         <v>16</v>
@@ -19807,13 +19807,13 @@
         <v>300</v>
       </c>
       <c r="N243" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O243" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P243" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>775</v>
+        <v>625</v>
       </c>
       <c r="T243" t="n">
         <v>20</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44398</v>
+        <v>44222</v>
       </c>
       <c r="E244" t="n">
         <v>16</v>
@@ -19884,16 +19884,16 @@
         </is>
       </c>
       <c r="M244" t="n">
-        <v>80</v>
+        <v>740</v>
       </c>
       <c r="N244" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O244" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P244" t="n">
-        <v>11000</v>
+        <v>13595</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>550</v>
+        <v>680</v>
       </c>
       <c r="T244" t="n">
         <v>20</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44398</v>
+        <v>44222</v>
       </c>
       <c r="E245" t="n">
         <v>16</v>
@@ -19964,16 +19964,16 @@
         </is>
       </c>
       <c r="M245" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N245" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O245" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P245" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>625</v>
+        <v>775</v>
       </c>
       <c r="T245" t="n">
         <v>20</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E246" t="n">
         <v>16</v>
@@ -20044,7 +20044,7 @@
         </is>
       </c>
       <c r="M246" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N246" t="n">
         <v>11000</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E247" t="n">
         <v>16</v>
@@ -20124,7 +20124,7 @@
         </is>
       </c>
       <c r="M247" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N247" t="n">
         <v>12000</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44264</v>
+        <v>44420</v>
       </c>
       <c r="E248" t="n">
         <v>16</v>
@@ -20204,16 +20204,16 @@
         </is>
       </c>
       <c r="M248" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N248" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O248" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P248" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="T248" t="n">
         <v>20</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44264</v>
+        <v>44420</v>
       </c>
       <c r="E249" t="n">
         <v>16</v>
@@ -20284,16 +20284,16 @@
         </is>
       </c>
       <c r="M249" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N249" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O249" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P249" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>775</v>
+        <v>625</v>
       </c>
       <c r="T249" t="n">
         <v>20</v>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44348</v>
+        <v>44264</v>
       </c>
       <c r="E250" t="n">
         <v>16</v>
@@ -20360,20 +20360,20 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M250" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="N250" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O250" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P250" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="T250" t="n">
         <v>20</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="E251" t="n">
         <v>16</v>
@@ -20440,20 +20440,20 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M251" t="n">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="N251" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O251" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P251" t="n">
-        <v>14000</v>
+        <v>15500</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>700</v>
+        <v>775</v>
       </c>
       <c r="T251" t="n">
         <v>20</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E252" t="n">
         <v>16</v>
@@ -20524,16 +20524,16 @@
         </is>
       </c>
       <c r="M252" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N252" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O252" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P252" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>775</v>
+        <v>625</v>
       </c>
       <c r="T252" t="n">
         <v>20</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E253" t="n">
         <v>16</v>
@@ -20600,20 +20600,20 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M253" t="n">
-        <v>360</v>
+        <v>80</v>
       </c>
       <c r="N253" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="O253" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P253" t="n">
-        <v>14750</v>
+        <v>14000</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>738</v>
+        <v>700</v>
       </c>
       <c r="T253" t="n">
         <v>20</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44210</v>
+        <v>44263</v>
       </c>
       <c r="E254" t="n">
         <v>16</v>
@@ -20680,20 +20680,20 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M254" t="n">
-        <v>760</v>
+        <v>160</v>
       </c>
       <c r="N254" t="n">
-        <v>11500</v>
+        <v>15000</v>
       </c>
       <c r="O254" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="P254" t="n">
-        <v>12079</v>
+        <v>15500</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>604</v>
+        <v>775</v>
       </c>
       <c r="T254" t="n">
         <v>20</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E255" t="n">
         <v>16</v>
@@ -20764,16 +20764,16 @@
         </is>
       </c>
       <c r="M255" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="N255" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="O255" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P255" t="n">
-        <v>13312</v>
+        <v>14750</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>666</v>
+        <v>738</v>
       </c>
       <c r="T255" t="n">
         <v>20</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E256" t="n">
         <v>16</v>
@@ -20844,16 +20844,16 @@
         </is>
       </c>
       <c r="M256" t="n">
-        <v>740</v>
+        <v>760</v>
       </c>
       <c r="N256" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="O256" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="P256" t="n">
-        <v>9216</v>
+        <v>12079</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>461</v>
+        <v>604</v>
       </c>
       <c r="T256" t="n">
         <v>20</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E257" t="n">
         <v>16</v>
@@ -20924,16 +20924,16 @@
         </is>
       </c>
       <c r="M257" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="N257" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O257" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="P257" t="n">
-        <v>10286</v>
+        <v>13312</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>514</v>
+        <v>666</v>
       </c>
       <c r="T257" t="n">
         <v>20</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E258" t="n">
         <v>16</v>
@@ -21004,16 +21004,16 @@
         </is>
       </c>
       <c r="M258" t="n">
-        <v>300</v>
+        <v>740</v>
       </c>
       <c r="N258" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O258" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="P258" t="n">
-        <v>12250</v>
+        <v>9216</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>612</v>
+        <v>461</v>
       </c>
       <c r="T258" t="n">
         <v>20</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E259" t="n">
         <v>16</v>
@@ -21084,16 +21084,16 @@
         </is>
       </c>
       <c r="M259" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="N259" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O259" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="P259" t="n">
-        <v>13500</v>
+        <v>10286</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>675</v>
+        <v>514</v>
       </c>
       <c r="T259" t="n">
         <v>20</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E260" t="n">
         <v>16</v>
@@ -21164,16 +21164,16 @@
         </is>
       </c>
       <c r="M260" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N260" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O260" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="P260" t="n">
-        <v>11000</v>
+        <v>12250</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>550</v>
+        <v>612</v>
       </c>
       <c r="T260" t="n">
         <v>20</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E261" t="n">
         <v>16</v>
@@ -21244,16 +21244,16 @@
         </is>
       </c>
       <c r="M261" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="N261" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O261" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P261" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="T261" t="n">
         <v>20</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E262" t="n">
         <v>16</v>
@@ -21324,7 +21324,7 @@
         </is>
       </c>
       <c r="M262" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="N262" t="n">
         <v>11000</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E263" t="n">
         <v>16</v>
@@ -21404,7 +21404,7 @@
         </is>
       </c>
       <c r="M263" t="n">
-        <v>800</v>
+        <v>240</v>
       </c>
       <c r="N263" t="n">
         <v>12000</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E264" t="n">
         <v>16</v>
@@ -21484,16 +21484,16 @@
         </is>
       </c>
       <c r="M264" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N264" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O264" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P264" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="T264" t="n">
         <v>20</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E265" t="n">
         <v>16</v>
@@ -21564,16 +21564,16 @@
         </is>
       </c>
       <c r="M265" t="n">
-        <v>160</v>
+        <v>800</v>
       </c>
       <c r="N265" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O265" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P265" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="T265" t="n">
         <v>20</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E266" t="n">
         <v>16</v>
@@ -21644,16 +21644,16 @@
         </is>
       </c>
       <c r="M266" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N266" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O266" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P266" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="T266" t="n">
         <v>20</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E267" t="n">
         <v>16</v>
@@ -21724,16 +21724,16 @@
         </is>
       </c>
       <c r="M267" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N267" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O267" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P267" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="T267" t="n">
         <v>20</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E268" t="n">
         <v>16</v>
@@ -21804,16 +21804,16 @@
         </is>
       </c>
       <c r="M268" t="n">
-        <v>640</v>
+        <v>120</v>
       </c>
       <c r="N268" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O268" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P268" t="n">
-        <v>13688</v>
+        <v>9000</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>684</v>
+        <v>450</v>
       </c>
       <c r="T268" t="n">
         <v>20</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E269" t="n">
         <v>16</v>
@@ -21884,16 +21884,16 @@
         </is>
       </c>
       <c r="M269" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="N269" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="O269" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P269" t="n">
-        <v>14714</v>
+        <v>10500</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>736</v>
+        <v>525</v>
       </c>
       <c r="T269" t="n">
         <v>20</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E270" t="n">
         <v>16</v>
@@ -21964,16 +21964,16 @@
         </is>
       </c>
       <c r="M270" t="n">
-        <v>400</v>
+        <v>640</v>
       </c>
       <c r="N270" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O270" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P270" t="n">
-        <v>11000</v>
+        <v>13688</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>550</v>
+        <v>684</v>
       </c>
       <c r="T270" t="n">
         <v>20</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E271" t="n">
         <v>16</v>
@@ -22044,16 +22044,16 @@
         </is>
       </c>
       <c r="M271" t="n">
-        <v>680</v>
+        <v>280</v>
       </c>
       <c r="N271" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="O271" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P271" t="n">
-        <v>12500</v>
+        <v>14714</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>625</v>
+        <v>736</v>
       </c>
       <c r="T271" t="n">
         <v>20</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E272" t="n">
         <v>16</v>
@@ -22124,16 +22124,16 @@
         </is>
       </c>
       <c r="M272" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N272" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="O272" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P272" t="n">
-        <v>13750</v>
+        <v>11000</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>688</v>
+        <v>550</v>
       </c>
       <c r="T272" t="n">
         <v>20</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E273" t="n">
         <v>16</v>
@@ -22204,16 +22204,16 @@
         </is>
       </c>
       <c r="M273" t="n">
-        <v>360</v>
+        <v>680</v>
       </c>
       <c r="N273" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="O273" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P273" t="n">
-        <v>14750</v>
+        <v>12500</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>738</v>
+        <v>625</v>
       </c>
       <c r="T273" t="n">
         <v>20</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E274" t="n">
         <v>16</v>
@@ -22284,16 +22284,16 @@
         </is>
       </c>
       <c r="M274" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N274" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="O274" t="n">
         <v>14000</v>
       </c>
       <c r="P274" t="n">
-        <v>14000</v>
+        <v>13750</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="T274" t="n">
         <v>20</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E275" t="n">
         <v>16</v>
@@ -22364,16 +22364,16 @@
         </is>
       </c>
       <c r="M275" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="N275" t="n">
+        <v>14500</v>
+      </c>
+      <c r="O275" t="n">
         <v>15000</v>
       </c>
-      <c r="O275" t="n">
-        <v>16000</v>
-      </c>
       <c r="P275" t="n">
-        <v>15500</v>
+        <v>14750</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>775</v>
+        <v>738</v>
       </c>
       <c r="T275" t="n">
         <v>20</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44432</v>
+        <v>44237</v>
       </c>
       <c r="E276" t="n">
         <v>16</v>
@@ -22444,16 +22444,16 @@
         </is>
       </c>
       <c r="M276" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N276" t="n">
-        <v>11500</v>
+        <v>14000</v>
       </c>
       <c r="O276" t="n">
-        <v>11800</v>
+        <v>14000</v>
       </c>
       <c r="P276" t="n">
-        <v>11650</v>
+        <v>14000</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>582</v>
+        <v>700</v>
       </c>
       <c r="T276" t="n">
         <v>20</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44432</v>
+        <v>44237</v>
       </c>
       <c r="E277" t="n">
         <v>16</v>
@@ -22524,16 +22524,16 @@
         </is>
       </c>
       <c r="M277" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N277" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="O277" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P277" t="n">
-        <v>12750</v>
+        <v>15500</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>638</v>
+        <v>775</v>
       </c>
       <c r="T277" t="n">
         <v>20</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E278" t="n">
         <v>16</v>
@@ -22604,16 +22604,16 @@
         </is>
       </c>
       <c r="M278" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="N278" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="O278" t="n">
-        <v>11000</v>
+        <v>11800</v>
       </c>
       <c r="P278" t="n">
-        <v>11000</v>
+        <v>11650</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>550</v>
+        <v>582</v>
       </c>
       <c r="T278" t="n">
         <v>20</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E279" t="n">
         <v>16</v>
@@ -22684,16 +22684,16 @@
         </is>
       </c>
       <c r="M279" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N279" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="O279" t="n">
         <v>13000</v>
       </c>
       <c r="P279" t="n">
-        <v>12500</v>
+        <v>12750</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>625</v>
+        <v>638</v>
       </c>
       <c r="T279" t="n">
         <v>20</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E280" t="n">
         <v>16</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E281" t="n">
         <v>16</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E282" t="n">
         <v>16</v>
@@ -22924,16 +22924,16 @@
         </is>
       </c>
       <c r="M282" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N282" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O282" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P282" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="T282" t="n">
         <v>20</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E283" t="n">
         <v>16</v>
@@ -23004,16 +23004,16 @@
         </is>
       </c>
       <c r="M283" t="n">
-        <v>360</v>
+        <v>160</v>
       </c>
       <c r="N283" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O283" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P283" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="T283" t="n">
         <v>20</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E284" t="n">
         <v>16</v>
@@ -23084,16 +23084,16 @@
         </is>
       </c>
       <c r="M284" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N284" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O284" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P284" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="T284" t="n">
         <v>20</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E285" t="n">
         <v>16</v>
@@ -23164,16 +23164,16 @@
         </is>
       </c>
       <c r="M285" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N285" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O285" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P285" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="T285" t="n">
         <v>20</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E286" t="n">
         <v>16</v>
@@ -23244,16 +23244,16 @@
         </is>
       </c>
       <c r="M286" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N286" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O286" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P286" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="T286" t="n">
         <v>20</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E287" t="n">
         <v>16</v>
@@ -23327,13 +23327,13 @@
         <v>240</v>
       </c>
       <c r="N287" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O287" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P287" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="T287" t="n">
         <v>20</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E288" t="n">
         <v>16</v>
@@ -23407,13 +23407,13 @@
         <v>80</v>
       </c>
       <c r="N288" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O288" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P288" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="T288" t="n">
         <v>20</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E289" t="n">
         <v>16</v>
@@ -23484,16 +23484,16 @@
         </is>
       </c>
       <c r="M289" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N289" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O289" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P289" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="T289" t="n">
         <v>20</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E290" t="n">
         <v>16</v>
@@ -23564,16 +23564,16 @@
         </is>
       </c>
       <c r="M290" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N290" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O290" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P290" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="T290" t="n">
         <v>20</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E291" t="n">
         <v>16</v>
@@ -23644,16 +23644,16 @@
         </is>
       </c>
       <c r="M291" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N291" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O291" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P291" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>575</v>
+        <v>725</v>
       </c>
       <c r="T291" t="n">
         <v>20</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E292" t="n">
         <v>16</v>
@@ -23724,16 +23724,16 @@
         </is>
       </c>
       <c r="M292" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N292" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O292" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P292" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="T292" t="n">
         <v>20</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E293" t="n">
         <v>16</v>
@@ -23804,16 +23804,16 @@
         </is>
       </c>
       <c r="M293" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N293" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O293" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P293" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="T293" t="n">
         <v>20</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E294" t="n">
         <v>16</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E295" t="n">
         <v>16</v>
@@ -23964,7 +23964,7 @@
         </is>
       </c>
       <c r="M295" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N295" t="n">
         <v>14000</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E296" t="n">
         <v>16</v>
@@ -24044,16 +24044,16 @@
         </is>
       </c>
       <c r="M296" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N296" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O296" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P296" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="T296" t="n">
         <v>20</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E297" t="n">
         <v>16</v>
@@ -24127,13 +24127,13 @@
         <v>240</v>
       </c>
       <c r="N297" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O297" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P297" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="T297" t="n">
         <v>20</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E298" t="n">
         <v>16</v>
@@ -24204,16 +24204,16 @@
         </is>
       </c>
       <c r="M298" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N298" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O298" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P298" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="T298" t="n">
         <v>20</v>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E299" t="n">
         <v>16</v>
@@ -24287,13 +24287,13 @@
         <v>240</v>
       </c>
       <c r="N299" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O299" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P299" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T299" t="n">
         <v>20</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E300" t="n">
         <v>16</v>
@@ -24364,16 +24364,16 @@
         </is>
       </c>
       <c r="M300" t="n">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="N300" t="n">
-        <v>11500</v>
+        <v>16000</v>
       </c>
       <c r="O300" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P300" t="n">
-        <v>11750</v>
+        <v>16000</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>588</v>
+        <v>800</v>
       </c>
       <c r="T300" t="n">
         <v>20</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E301" t="n">
         <v>16</v>
@@ -24444,16 +24444,16 @@
         </is>
       </c>
       <c r="M301" t="n">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="N301" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O301" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P301" t="n">
-        <v>13500</v>
+        <v>17500</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="T301" t="n">
         <v>20</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E302" t="n">
         <v>16</v>
@@ -24524,16 +24524,16 @@
         </is>
       </c>
       <c r="M302" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="N302" t="n">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="O302" t="n">
         <v>12000</v>
       </c>
       <c r="P302" t="n">
-        <v>12000</v>
+        <v>11750</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="T302" t="n">
         <v>20</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E303" t="n">
         <v>16</v>
@@ -24604,7 +24604,7 @@
         </is>
       </c>
       <c r="M303" t="n">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="N303" t="n">
         <v>13000</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E304" t="n">
         <v>16</v>
@@ -24684,16 +24684,16 @@
         </is>
       </c>
       <c r="M304" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N304" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O304" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P304" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T304" t="n">
         <v>20</v>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E305" t="n">
         <v>16</v>
@@ -24767,13 +24767,13 @@
         <v>240</v>
       </c>
       <c r="N305" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O305" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P305" t="n">
-        <v>15500</v>
+        <v>13500</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="T305" t="n">
         <v>20</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44161</v>
+        <v>44329</v>
       </c>
       <c r="E306" t="n">
         <v>16</v>
@@ -24844,16 +24844,16 @@
         </is>
       </c>
       <c r="M306" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N306" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O306" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P306" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T306" t="n">
         <v>20</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44161</v>
+        <v>44329</v>
       </c>
       <c r="E307" t="n">
         <v>16</v>
@@ -24924,16 +24924,16 @@
         </is>
       </c>
       <c r="M307" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N307" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O307" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P307" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="T307" t="n">
         <v>20</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E308" t="n">
         <v>16</v>
@@ -25004,16 +25004,16 @@
         </is>
       </c>
       <c r="M308" t="n">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="N308" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O308" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P308" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T308" t="n">
         <v>20</v>
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E309" t="n">
         <v>16</v>
@@ -25084,16 +25084,16 @@
         </is>
       </c>
       <c r="M309" t="n">
-        <v>360</v>
+        <v>160</v>
       </c>
       <c r="N309" t="n">
-        <v>14500</v>
+        <v>17000</v>
       </c>
       <c r="O309" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P309" t="n">
-        <v>14750</v>
+        <v>17500</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>738</v>
+        <v>875</v>
       </c>
       <c r="T309" t="n">
         <v>20</v>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E310" t="n">
         <v>16</v>
@@ -25164,16 +25164,16 @@
         </is>
       </c>
       <c r="M310" t="n">
-        <v>660</v>
+        <v>220</v>
       </c>
       <c r="N310" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O310" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="P310" t="n">
-        <v>9273</v>
+        <v>14000</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>464</v>
+        <v>700</v>
       </c>
       <c r="T310" t="n">
         <v>20</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E311" t="n">
         <v>16</v>
@@ -25244,16 +25244,16 @@
         </is>
       </c>
       <c r="M311" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N311" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="O311" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P311" t="n">
-        <v>10667</v>
+        <v>14750</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>533</v>
+        <v>738</v>
       </c>
       <c r="T311" t="n">
         <v>20</v>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44442</v>
+        <v>44251</v>
       </c>
       <c r="E312" t="n">
         <v>16</v>
@@ -25324,16 +25324,16 @@
         </is>
       </c>
       <c r="M312" t="n">
-        <v>300</v>
+        <v>660</v>
       </c>
       <c r="N312" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="O312" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="P312" t="n">
-        <v>13750</v>
+        <v>9273</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>688</v>
+        <v>464</v>
       </c>
       <c r="T312" t="n">
         <v>20</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44442</v>
+        <v>44251</v>
       </c>
       <c r="E313" t="n">
         <v>16</v>
@@ -25407,13 +25407,13 @@
         <v>300</v>
       </c>
       <c r="N313" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="O313" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P313" t="n">
-        <v>14750</v>
+        <v>10667</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>738</v>
+        <v>533</v>
       </c>
       <c r="T313" t="n">
         <v>20</v>
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E314" t="n">
         <v>16</v>
@@ -25484,16 +25484,16 @@
         </is>
       </c>
       <c r="M314" t="n">
-        <v>1340</v>
+        <v>300</v>
       </c>
       <c r="N314" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="O314" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P314" t="n">
-        <v>13177</v>
+        <v>13750</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>659</v>
+        <v>688</v>
       </c>
       <c r="T314" t="n">
         <v>20</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E315" t="n">
         <v>16</v>
@@ -25564,16 +25564,16 @@
         </is>
       </c>
       <c r="M315" t="n">
-        <v>2020</v>
+        <v>300</v>
       </c>
       <c r="N315" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="O315" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P315" t="n">
-        <v>14505</v>
+        <v>14750</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>725</v>
+        <v>738</v>
       </c>
       <c r="T315" t="n">
         <v>20</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E316" t="n">
         <v>16</v>
@@ -25644,16 +25644,16 @@
         </is>
       </c>
       <c r="M316" t="n">
-        <v>80</v>
+        <v>1340</v>
       </c>
       <c r="N316" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="O316" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P316" t="n">
-        <v>13000</v>
+        <v>13177</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>650</v>
+        <v>659</v>
       </c>
       <c r="T316" t="n">
         <v>20</v>
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E317" t="n">
         <v>16</v>
@@ -25724,16 +25724,16 @@
         </is>
       </c>
       <c r="M317" t="n">
-        <v>240</v>
+        <v>2020</v>
       </c>
       <c r="N317" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="O317" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P317" t="n">
-        <v>14750</v>
+        <v>14505</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>738</v>
+        <v>725</v>
       </c>
       <c r="T317" t="n">
         <v>20</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E318" t="n">
         <v>16</v>
@@ -25804,16 +25804,16 @@
         </is>
       </c>
       <c r="M318" t="n">
-        <v>480</v>
+        <v>80</v>
       </c>
       <c r="N318" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O318" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P318" t="n">
-        <v>14417</v>
+        <v>13000</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>721</v>
+        <v>650</v>
       </c>
       <c r="T318" t="n">
         <v>20</v>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E319" t="n">
         <v>16</v>
@@ -25884,16 +25884,16 @@
         </is>
       </c>
       <c r="M319" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="N319" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="O319" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P319" t="n">
-        <v>15826</v>
+        <v>14750</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>791</v>
+        <v>738</v>
       </c>
       <c r="T319" t="n">
         <v>20</v>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E320" t="n">
         <v>16</v>
@@ -25964,16 +25964,16 @@
         </is>
       </c>
       <c r="M320" t="n">
-        <v>80</v>
+        <v>480</v>
       </c>
       <c r="N320" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O320" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P320" t="n">
-        <v>11000</v>
+        <v>14417</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>550</v>
+        <v>721</v>
       </c>
       <c r="T320" t="n">
         <v>20</v>
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E321" t="n">
         <v>16</v>
@@ -26044,16 +26044,16 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="N321" t="n">
-        <v>12000</v>
+        <v>15500</v>
       </c>
       <c r="O321" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P321" t="n">
-        <v>12500</v>
+        <v>15826</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>625</v>
+        <v>791</v>
       </c>
       <c r="T321" t="n">
         <v>20</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E322" t="n">
         <v>16</v>
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E323" t="n">
         <v>16</v>
@@ -26204,7 +26204,7 @@
         </is>
       </c>
       <c r="M323" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N323" t="n">
         <v>12000</v>
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E324" t="n">
         <v>16</v>
@@ -26284,16 +26284,16 @@
         </is>
       </c>
       <c r="M324" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="N324" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="O324" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P324" t="n">
-        <v>11750</v>
+        <v>11000</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>588</v>
+        <v>550</v>
       </c>
       <c r="T324" t="n">
         <v>20</v>
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E325" t="n">
         <v>16</v>
@@ -26364,16 +26364,16 @@
         </is>
       </c>
       <c r="M325" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N325" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O325" t="n">
         <v>13000</v>
       </c>
-      <c r="O325" t="n">
-        <v>14000</v>
-      </c>
       <c r="P325" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="T325" t="n">
         <v>20</v>
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E326" t="n">
         <v>16</v>
@@ -26444,16 +26444,16 @@
         </is>
       </c>
       <c r="M326" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N326" t="n">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="O326" t="n">
         <v>12000</v>
       </c>
       <c r="P326" t="n">
-        <v>12000</v>
+        <v>11750</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="T326" t="n">
         <v>20</v>
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E327" t="n">
         <v>16</v>
@@ -26524,16 +26524,16 @@
         </is>
       </c>
       <c r="M327" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N327" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="O327" t="n">
         <v>14000</v>
       </c>
       <c r="P327" t="n">
-        <v>13750</v>
+        <v>13500</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="T327" t="n">
         <v>20</v>
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E328" t="n">
         <v>16</v>
@@ -26600,20 +26600,20 @@
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M328" t="n">
         <v>120</v>
       </c>
       <c r="N328" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O328" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P328" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>725</v>
+        <v>600</v>
       </c>
       <c r="T328" t="n">
         <v>20</v>
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44448</v>
+        <v>44223</v>
       </c>
       <c r="E329" t="n">
         <v>16</v>
@@ -26680,20 +26680,20 @@
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M329" t="n">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="N329" t="n">
-        <v>19000</v>
+        <v>13500</v>
       </c>
       <c r="O329" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P329" t="n">
-        <v>19000</v>
+        <v>13750</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>950</v>
+        <v>688</v>
       </c>
       <c r="T329" t="n">
         <v>20</v>
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E330" t="n">
         <v>16</v>
@@ -26764,16 +26764,16 @@
         </is>
       </c>
       <c r="M330" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="N330" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O330" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P330" t="n">
-        <v>20500</v>
+        <v>14500</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>1025</v>
+        <v>725</v>
       </c>
       <c r="T330" t="n">
         <v>20</v>
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E331" t="n">
         <v>16</v>
@@ -26844,16 +26844,16 @@
         </is>
       </c>
       <c r="M331" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="N331" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O331" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P331" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T331" t="n">
         <v>20</v>
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E332" t="n">
         <v>16</v>
@@ -26924,16 +26924,16 @@
         </is>
       </c>
       <c r="M332" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="N332" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O332" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="P332" t="n">
-        <v>17500</v>
+        <v>20500</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>875</v>
+        <v>1025</v>
       </c>
       <c r="T332" t="n">
         <v>20</v>
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E333" t="n">
         <v>16</v>
@@ -27004,16 +27004,16 @@
         </is>
       </c>
       <c r="M333" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N333" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O333" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P333" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T333" t="n">
         <v>20</v>
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E334" t="n">
         <v>16</v>
@@ -27084,16 +27084,16 @@
         </is>
       </c>
       <c r="M334" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N334" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O334" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P334" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>775</v>
+        <v>875</v>
       </c>
       <c r="T334" t="n">
         <v>20</v>
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E335" t="n">
         <v>16</v>
@@ -27160,20 +27160,20 @@
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M335" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N335" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O335" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P335" t="n">
-        <v>16500</v>
+        <v>14000</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>825</v>
+        <v>700</v>
       </c>
       <c r="T335" t="n">
         <v>20</v>
@@ -27207,68 +27207,228 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
+        <v>44238</v>
+      </c>
+      <c r="E336" t="n">
+        <v>16</v>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G336" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I336" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>Primera Pintón</t>
+        </is>
+      </c>
+      <c r="M336" t="n">
+        <v>240</v>
+      </c>
+      <c r="N336" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O336" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P336" t="n">
+        <v>15500</v>
+      </c>
+      <c r="Q336" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R336" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S336" t="n">
+        <v>775</v>
+      </c>
+      <c r="T336" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>7</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D337" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E337" t="n">
+        <v>16</v>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G337" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I337" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>Primera Pintón</t>
+        </is>
+      </c>
+      <c r="M337" t="n">
+        <v>240</v>
+      </c>
+      <c r="N337" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O337" t="n">
+        <v>17000</v>
+      </c>
+      <c r="P337" t="n">
+        <v>16500</v>
+      </c>
+      <c r="Q337" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R337" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S337" t="n">
+        <v>825</v>
+      </c>
+      <c r="T337" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>7</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D338" s="2" t="n">
         <v>44400</v>
       </c>
-      <c r="E336" t="n">
-        <v>16</v>
-      </c>
-      <c r="F336" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G336" t="n">
-        <v>100108</v>
-      </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>Tropicales y subtropicales</t>
-        </is>
-      </c>
-      <c r="I336" t="n">
-        <v>100108006</v>
-      </c>
-      <c r="J336" t="inlineStr">
-        <is>
-          <t>Plátano</t>
-        </is>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L336" t="inlineStr">
+      <c r="E338" t="n">
+        <v>16</v>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G338" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I338" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J338" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L338" t="inlineStr">
         <is>
           <t>Primera Pintón</t>
         </is>
       </c>
-      <c r="M336" t="n">
+      <c r="M338" t="n">
         <v>160</v>
       </c>
-      <c r="N336" t="n">
+      <c r="N338" t="n">
         <v>19000</v>
       </c>
-      <c r="O336" t="n">
+      <c r="O338" t="n">
         <v>20000</v>
       </c>
-      <c r="P336" t="n">
+      <c r="P338" t="n">
         <v>19500</v>
       </c>
-      <c r="Q336" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R336" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S336" t="n">
+      <c r="Q338" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R338" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S338" t="n">
         <v>975</v>
       </c>
-      <c r="T336" t="n">
+      <c r="T338" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T338"/>
+  <dimension ref="A1:T340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44162</v>
+        <v>44453</v>
       </c>
       <c r="E76" t="n">
         <v>16</v>
@@ -6444,16 +6444,16 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="N76" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O76" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P76" t="n">
-        <v>15000</v>
+        <v>18500</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>750</v>
+        <v>925</v>
       </c>
       <c r="T76" t="n">
         <v>20</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44162</v>
+        <v>44453</v>
       </c>
       <c r="E77" t="n">
         <v>16</v>
@@ -6524,16 +6524,16 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="N77" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O77" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P77" t="n">
-        <v>16500</v>
+        <v>20500</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>825</v>
+        <v>1025</v>
       </c>
       <c r="T77" t="n">
         <v>20</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44413</v>
+        <v>44162</v>
       </c>
       <c r="E78" t="n">
         <v>16</v>
@@ -6604,16 +6604,16 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N78" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O78" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P78" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="T78" t="n">
         <v>20</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44413</v>
+        <v>44162</v>
       </c>
       <c r="E79" t="n">
         <v>16</v>
@@ -6684,16 +6684,16 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="N79" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O79" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P79" t="n">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>625</v>
+        <v>825</v>
       </c>
       <c r="T79" t="n">
         <v>20</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44202</v>
+        <v>44413</v>
       </c>
       <c r="E80" t="n">
         <v>16</v>
@@ -6764,16 +6764,16 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N80" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O80" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P80" t="n">
-        <v>15500</v>
+        <v>11000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>775</v>
+        <v>550</v>
       </c>
       <c r="T80" t="n">
         <v>20</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44323</v>
+        <v>44413</v>
       </c>
       <c r="E81" t="n">
         <v>16</v>
@@ -6844,16 +6844,16 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="N81" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O81" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P81" t="n">
-        <v>16500</v>
+        <v>12500</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>825</v>
+        <v>625</v>
       </c>
       <c r="T81" t="n">
         <v>20</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44165</v>
+        <v>44202</v>
       </c>
       <c r="E82" t="n">
         <v>16</v>
@@ -6924,16 +6924,16 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N82" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O82" t="n">
         <v>16000</v>
       </c>
       <c r="P82" t="n">
-        <v>16000</v>
+        <v>15500</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>800</v>
+        <v>775</v>
       </c>
       <c r="T82" t="n">
         <v>20</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44165</v>
+        <v>44323</v>
       </c>
       <c r="E83" t="n">
         <v>16</v>
@@ -7007,13 +7007,13 @@
         <v>240</v>
       </c>
       <c r="N83" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O83" t="n">
         <v>17000</v>
       </c>
-      <c r="O83" t="n">
-        <v>18000</v>
-      </c>
       <c r="P83" t="n">
-        <v>17500</v>
+        <v>16500</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>875</v>
+        <v>825</v>
       </c>
       <c r="T83" t="n">
         <v>20</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44242</v>
+        <v>44165</v>
       </c>
       <c r="E84" t="n">
         <v>16</v>
@@ -7084,16 +7084,16 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N84" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="O84" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P84" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="T84" t="n">
         <v>20</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44242</v>
+        <v>44165</v>
       </c>
       <c r="E85" t="n">
         <v>16</v>
@@ -7164,16 +7164,16 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N85" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="O85" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P85" t="n">
-        <v>9500</v>
+        <v>17500</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>475</v>
+        <v>875</v>
       </c>
       <c r="T85" t="n">
         <v>20</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44169</v>
+        <v>44242</v>
       </c>
       <c r="E86" t="n">
         <v>16</v>
@@ -7247,13 +7247,13 @@
         <v>80</v>
       </c>
       <c r="N86" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="O86" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="P86" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="T86" t="n">
         <v>20</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44169</v>
+        <v>44242</v>
       </c>
       <c r="E87" t="n">
         <v>16</v>
@@ -7324,16 +7324,16 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N87" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="O87" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="P87" t="n">
-        <v>18500</v>
+        <v>9500</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>925</v>
+        <v>475</v>
       </c>
       <c r="T87" t="n">
         <v>20</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44216</v>
+        <v>44169</v>
       </c>
       <c r="E88" t="n">
         <v>16</v>
@@ -7404,16 +7404,16 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>740</v>
+        <v>80</v>
       </c>
       <c r="N88" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O88" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P88" t="n">
-        <v>10405</v>
+        <v>17000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>520</v>
+        <v>850</v>
       </c>
       <c r="T88" t="n">
         <v>20</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44216</v>
+        <v>44169</v>
       </c>
       <c r="E89" t="n">
         <v>16</v>
@@ -7484,16 +7484,16 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>450</v>
+        <v>240</v>
       </c>
       <c r="N89" t="n">
-        <v>11500</v>
+        <v>18000</v>
       </c>
       <c r="O89" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P89" t="n">
-        <v>11667</v>
+        <v>18500</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>583</v>
+        <v>925</v>
       </c>
       <c r="T89" t="n">
         <v>20</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44405</v>
+        <v>44216</v>
       </c>
       <c r="E90" t="n">
         <v>16</v>
@@ -7560,20 +7560,20 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>240</v>
+        <v>740</v>
       </c>
       <c r="N90" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O90" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P90" t="n">
-        <v>17500</v>
+        <v>10405</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>875</v>
+        <v>520</v>
       </c>
       <c r="T90" t="n">
         <v>20</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44260</v>
+        <v>44216</v>
       </c>
       <c r="E91" t="n">
         <v>16</v>
@@ -7640,20 +7640,20 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>180</v>
+        <v>450</v>
       </c>
       <c r="N91" t="n">
-        <v>14000</v>
+        <v>11500</v>
       </c>
       <c r="O91" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P91" t="n">
-        <v>14000</v>
+        <v>11667</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>700</v>
+        <v>583</v>
       </c>
       <c r="T91" t="n">
         <v>20</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44260</v>
+        <v>44405</v>
       </c>
       <c r="E92" t="n">
         <v>16</v>
@@ -7724,16 +7724,16 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N92" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O92" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P92" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>775</v>
+        <v>875</v>
       </c>
       <c r="T92" t="n">
         <v>20</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44281</v>
+        <v>44260</v>
       </c>
       <c r="E93" t="n">
         <v>16</v>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N93" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O93" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P93" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="T93" t="n">
         <v>20</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44281</v>
+        <v>44260</v>
       </c>
       <c r="E94" t="n">
         <v>16</v>
@@ -7884,16 +7884,16 @@
         </is>
       </c>
       <c r="M94" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="N94" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O94" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P94" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>625</v>
+        <v>775</v>
       </c>
       <c r="T94" t="n">
         <v>20</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44308</v>
+        <v>44281</v>
       </c>
       <c r="E95" t="n">
         <v>16</v>
@@ -7964,16 +7964,16 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N95" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O95" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P95" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="T95" t="n">
         <v>20</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44308</v>
+        <v>44281</v>
       </c>
       <c r="E96" t="n">
         <v>16</v>
@@ -8047,13 +8047,13 @@
         <v>160</v>
       </c>
       <c r="N96" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O96" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P96" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="T96" t="n">
         <v>20</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44271</v>
+        <v>44308</v>
       </c>
       <c r="E97" t="n">
         <v>16</v>
@@ -8124,7 +8124,7 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N97" t="n">
         <v>13000</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44271</v>
+        <v>44308</v>
       </c>
       <c r="E98" t="n">
         <v>16</v>
@@ -8204,7 +8204,7 @@
         </is>
       </c>
       <c r="M98" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N98" t="n">
         <v>14000</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44363</v>
+        <v>44271</v>
       </c>
       <c r="E99" t="n">
         <v>16</v>
@@ -8284,16 +8284,16 @@
         </is>
       </c>
       <c r="M99" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N99" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O99" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P99" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="T99" t="n">
         <v>20</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44363</v>
+        <v>44271</v>
       </c>
       <c r="E100" t="n">
         <v>16</v>
@@ -8367,13 +8367,13 @@
         <v>240</v>
       </c>
       <c r="N100" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O100" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P100" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="T100" t="n">
         <v>20</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44229</v>
+        <v>44363</v>
       </c>
       <c r="E101" t="n">
         <v>16</v>
@@ -8444,16 +8444,16 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>590</v>
+        <v>80</v>
       </c>
       <c r="N101" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="O101" t="n">
         <v>12000</v>
       </c>
       <c r="P101" t="n">
-        <v>11703</v>
+        <v>12000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="T101" t="n">
         <v>20</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44229</v>
+        <v>44363</v>
       </c>
       <c r="E102" t="n">
         <v>16</v>
@@ -8524,16 +8524,16 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N102" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="O102" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P102" t="n">
-        <v>12812</v>
+        <v>13500</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>641</v>
+        <v>675</v>
       </c>
       <c r="T102" t="n">
         <v>20</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44431</v>
+        <v>44229</v>
       </c>
       <c r="E103" t="n">
         <v>16</v>
@@ -8604,16 +8604,16 @@
         </is>
       </c>
       <c r="M103" t="n">
-        <v>240</v>
+        <v>590</v>
       </c>
       <c r="N103" t="n">
         <v>11500</v>
       </c>
       <c r="O103" t="n">
-        <v>11800</v>
+        <v>12000</v>
       </c>
       <c r="P103" t="n">
-        <v>11650</v>
+        <v>11703</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="T103" t="n">
         <v>20</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44431</v>
+        <v>44229</v>
       </c>
       <c r="E104" t="n">
         <v>16</v>
@@ -8684,7 +8684,7 @@
         </is>
       </c>
       <c r="M104" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N104" t="n">
         <v>12500</v>
@@ -8693,7 +8693,7 @@
         <v>13000</v>
       </c>
       <c r="P104" t="n">
-        <v>12750</v>
+        <v>12812</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="T104" t="n">
         <v>20</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44189</v>
+        <v>44431</v>
       </c>
       <c r="E105" t="n">
         <v>16</v>
@@ -8764,16 +8764,16 @@
         </is>
       </c>
       <c r="M105" t="n">
-        <v>680</v>
+        <v>240</v>
       </c>
       <c r="N105" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="O105" t="n">
-        <v>10500</v>
+        <v>11800</v>
       </c>
       <c r="P105" t="n">
-        <v>10279</v>
+        <v>11650</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>514</v>
+        <v>582</v>
       </c>
       <c r="T105" t="n">
         <v>20</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44189</v>
+        <v>44431</v>
       </c>
       <c r="E106" t="n">
         <v>16</v>
@@ -8844,16 +8844,16 @@
         </is>
       </c>
       <c r="M106" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="N106" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="O106" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="P106" t="n">
-        <v>12278</v>
+        <v>12750</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>614</v>
+        <v>638</v>
       </c>
       <c r="T106" t="n">
         <v>20</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44181</v>
+        <v>44189</v>
       </c>
       <c r="E107" t="n">
         <v>16</v>
@@ -8924,16 +8924,16 @@
         </is>
       </c>
       <c r="M107" t="n">
-        <v>640</v>
+        <v>680</v>
       </c>
       <c r="N107" t="n">
-        <v>11500</v>
+        <v>10000</v>
       </c>
       <c r="O107" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="P107" t="n">
-        <v>12031</v>
+        <v>10279</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>602</v>
+        <v>514</v>
       </c>
       <c r="T107" t="n">
         <v>20</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44181</v>
+        <v>44189</v>
       </c>
       <c r="E108" t="n">
         <v>16</v>
@@ -9004,16 +9004,16 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N108" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O108" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="P108" t="n">
-        <v>13600</v>
+        <v>12278</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>680</v>
+        <v>614</v>
       </c>
       <c r="T108" t="n">
         <v>20</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44231</v>
+        <v>44181</v>
       </c>
       <c r="E109" t="n">
         <v>16</v>
@@ -9084,16 +9084,16 @@
         </is>
       </c>
       <c r="M109" t="n">
-        <v>740</v>
+        <v>640</v>
       </c>
       <c r="N109" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="O109" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="P109" t="n">
-        <v>13541</v>
+        <v>12031</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>677</v>
+        <v>602</v>
       </c>
       <c r="T109" t="n">
         <v>20</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44231</v>
+        <v>44181</v>
       </c>
       <c r="E110" t="n">
         <v>16</v>
@@ -9164,16 +9164,16 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>390</v>
+        <v>250</v>
       </c>
       <c r="N110" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O110" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P110" t="n">
-        <v>15641</v>
+        <v>13600</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         </is>
       </c>
       <c r="S110" t="n">
-        <v>782</v>
+        <v>680</v>
       </c>
       <c r="T110" t="n">
         <v>20</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44355</v>
+        <v>44231</v>
       </c>
       <c r="E111" t="n">
         <v>16</v>
@@ -9244,16 +9244,16 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>80</v>
+        <v>740</v>
       </c>
       <c r="N111" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O111" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P111" t="n">
-        <v>11000</v>
+        <v>13541</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>550</v>
+        <v>677</v>
       </c>
       <c r="T111" t="n">
         <v>20</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44355</v>
+        <v>44231</v>
       </c>
       <c r="E112" t="n">
         <v>16</v>
@@ -9324,16 +9324,16 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>160</v>
+        <v>390</v>
       </c>
       <c r="N112" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O112" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P112" t="n">
-        <v>12500</v>
+        <v>15641</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>625</v>
+        <v>782</v>
       </c>
       <c r="T112" t="n">
         <v>20</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44372</v>
+        <v>44355</v>
       </c>
       <c r="E113" t="n">
         <v>16</v>
@@ -9400,20 +9400,20 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N113" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O113" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P113" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="T113" t="n">
         <v>20</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44372</v>
+        <v>44355</v>
       </c>
       <c r="E114" t="n">
         <v>16</v>
@@ -9484,16 +9484,16 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N114" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O114" t="n">
         <v>13000</v>
       </c>
       <c r="P114" t="n">
-        <v>13000</v>
+        <v>12500</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="T114" t="n">
         <v>20</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44246</v>
+        <v>44372</v>
       </c>
       <c r="E115" t="n">
         <v>16</v>
@@ -9560,20 +9560,20 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N115" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O115" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P115" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T115" t="n">
         <v>20</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44246</v>
+        <v>44372</v>
       </c>
       <c r="E116" t="n">
         <v>16</v>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>320</v>
+        <v>120</v>
       </c>
       <c r="N116" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O116" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P116" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="T116" t="n">
         <v>20</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44203</v>
+        <v>44246</v>
       </c>
       <c r="E117" t="n">
         <v>16</v>
@@ -9724,16 +9724,16 @@
         </is>
       </c>
       <c r="M117" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N117" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O117" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P117" t="n">
-        <v>15500</v>
+        <v>10000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>775</v>
+        <v>500</v>
       </c>
       <c r="T117" t="n">
         <v>20</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44203</v>
+        <v>44246</v>
       </c>
       <c r="E118" t="n">
         <v>16</v>
@@ -9804,16 +9804,16 @@
         </is>
       </c>
       <c r="M118" t="n">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="N118" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="O118" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P118" t="n">
-        <v>17000</v>
+        <v>11500</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>850</v>
+        <v>575</v>
       </c>
       <c r="T118" t="n">
         <v>20</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44230</v>
+        <v>44203</v>
       </c>
       <c r="E119" t="n">
         <v>16</v>
@@ -9884,16 +9884,16 @@
         </is>
       </c>
       <c r="M119" t="n">
-        <v>740</v>
+        <v>240</v>
       </c>
       <c r="N119" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="O119" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P119" t="n">
-        <v>12770</v>
+        <v>15500</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>638</v>
+        <v>775</v>
       </c>
       <c r="T119" t="n">
         <v>20</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44230</v>
+        <v>44203</v>
       </c>
       <c r="E120" t="n">
         <v>16</v>
@@ -9964,16 +9964,16 @@
         </is>
       </c>
       <c r="M120" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N120" t="n">
-        <v>13500</v>
+        <v>17000</v>
       </c>
       <c r="O120" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P120" t="n">
-        <v>13667</v>
+        <v>17000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>683</v>
+        <v>850</v>
       </c>
       <c r="T120" t="n">
         <v>20</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44239</v>
+        <v>44230</v>
       </c>
       <c r="E121" t="n">
         <v>16</v>
@@ -10040,20 +10040,20 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>160</v>
+        <v>740</v>
       </c>
       <c r="N121" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="O121" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P121" t="n">
-        <v>11500</v>
+        <v>12770</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>575</v>
+        <v>638</v>
       </c>
       <c r="T121" t="n">
         <v>20</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44418</v>
+        <v>44230</v>
       </c>
       <c r="E122" t="n">
         <v>16</v>
@@ -10120,20 +10120,20 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N122" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="O122" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P122" t="n">
-        <v>11000</v>
+        <v>13667</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>550</v>
+        <v>683</v>
       </c>
       <c r="T122" t="n">
         <v>20</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44418</v>
+        <v>44239</v>
       </c>
       <c r="E123" t="n">
         <v>16</v>
@@ -10204,16 +10204,16 @@
         </is>
       </c>
       <c r="M123" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="N123" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O123" t="n">
         <v>12000</v>
       </c>
-      <c r="O123" t="n">
-        <v>13000</v>
-      </c>
       <c r="P123" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="T123" t="n">
         <v>20</v>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44312</v>
+        <v>44418</v>
       </c>
       <c r="E124" t="n">
         <v>16</v>
@@ -10284,7 +10284,7 @@
         </is>
       </c>
       <c r="M124" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N124" t="n">
         <v>11000</v>
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44312</v>
+        <v>44418</v>
       </c>
       <c r="E125" t="n">
         <v>16</v>
@@ -10364,7 +10364,7 @@
         </is>
       </c>
       <c r="M125" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="N125" t="n">
         <v>12000</v>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44172</v>
+        <v>44312</v>
       </c>
       <c r="E126" t="n">
         <v>16</v>
@@ -10444,16 +10444,16 @@
         </is>
       </c>
       <c r="M126" t="n">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="N126" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="O126" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P126" t="n">
-        <v>15375</v>
+        <v>11000</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>769</v>
+        <v>550</v>
       </c>
       <c r="T126" t="n">
         <v>20</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44172</v>
+        <v>44312</v>
       </c>
       <c r="E127" t="n">
         <v>16</v>
@@ -10524,16 +10524,16 @@
         </is>
       </c>
       <c r="M127" t="n">
-        <v>380</v>
+        <v>240</v>
       </c>
       <c r="N127" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O127" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P127" t="n">
-        <v>17526</v>
+        <v>12500</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>876</v>
+        <v>625</v>
       </c>
       <c r="T127" t="n">
         <v>20</v>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44258</v>
+        <v>44172</v>
       </c>
       <c r="E128" t="n">
         <v>16</v>
@@ -10600,20 +10600,20 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M128" t="n">
-        <v>160</v>
+        <v>480</v>
       </c>
       <c r="N128" t="n">
         <v>14500</v>
       </c>
       <c r="O128" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P128" t="n">
-        <v>14750</v>
+        <v>15375</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>738</v>
+        <v>769</v>
       </c>
       <c r="T128" t="n">
         <v>20</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44174</v>
+        <v>44172</v>
       </c>
       <c r="E129" t="n">
         <v>16</v>
@@ -10680,20 +10680,20 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M129" t="n">
-        <v>640</v>
+        <v>380</v>
       </c>
       <c r="N129" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O129" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P129" t="n">
-        <v>14469</v>
+        <v>17526</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         </is>
       </c>
       <c r="S129" t="n">
-        <v>723</v>
+        <v>876</v>
       </c>
       <c r="T129" t="n">
         <v>20</v>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44174</v>
+        <v>44258</v>
       </c>
       <c r="E130" t="n">
         <v>16</v>
@@ -10764,16 +10764,16 @@
         </is>
       </c>
       <c r="M130" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N130" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="O130" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P130" t="n">
-        <v>15667</v>
+        <v>14750</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>783</v>
+        <v>738</v>
       </c>
       <c r="T130" t="n">
         <v>20</v>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44407</v>
+        <v>44174</v>
       </c>
       <c r="E131" t="n">
         <v>16</v>
@@ -10844,16 +10844,16 @@
         </is>
       </c>
       <c r="M131" t="n">
-        <v>80</v>
+        <v>640</v>
       </c>
       <c r="N131" t="n">
         <v>14000</v>
       </c>
       <c r="O131" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P131" t="n">
-        <v>14000</v>
+        <v>14469</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         </is>
       </c>
       <c r="S131" t="n">
-        <v>700</v>
+        <v>723</v>
       </c>
       <c r="T131" t="n">
         <v>20</v>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44407</v>
+        <v>44174</v>
       </c>
       <c r="E132" t="n">
         <v>16</v>
@@ -10924,16 +10924,16 @@
         </is>
       </c>
       <c r="M132" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N132" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="O132" t="n">
         <v>16000</v>
       </c>
       <c r="P132" t="n">
-        <v>15500</v>
+        <v>15667</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="S132" t="n">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="T132" t="n">
         <v>20</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44410</v>
+        <v>44407</v>
       </c>
       <c r="E133" t="n">
         <v>16</v>
@@ -11004,16 +11004,16 @@
         </is>
       </c>
       <c r="M133" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="N133" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="O133" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P133" t="n">
-        <v>12750</v>
+        <v>14000</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         </is>
       </c>
       <c r="S133" t="n">
-        <v>638</v>
+        <v>700</v>
       </c>
       <c r="T133" t="n">
         <v>20</v>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44410</v>
+        <v>44407</v>
       </c>
       <c r="E134" t="n">
         <v>16</v>
@@ -11084,16 +11084,16 @@
         </is>
       </c>
       <c r="M134" t="n">
-        <v>600</v>
+        <v>160</v>
       </c>
       <c r="N134" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O134" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P134" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="T134" t="n">
         <v>20</v>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44284</v>
+        <v>44410</v>
       </c>
       <c r="E135" t="n">
         <v>16</v>
@@ -11164,16 +11164,16 @@
         </is>
       </c>
       <c r="M135" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N135" t="n">
-        <v>13000</v>
+        <v>12500</v>
       </c>
       <c r="O135" t="n">
         <v>13000</v>
       </c>
       <c r="P135" t="n">
-        <v>13000</v>
+        <v>12750</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="T135" t="n">
         <v>20</v>
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44284</v>
+        <v>44410</v>
       </c>
       <c r="E136" t="n">
         <v>16</v>
@@ -11244,7 +11244,7 @@
         </is>
       </c>
       <c r="M136" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="N136" t="n">
         <v>14000</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44236</v>
+        <v>44284</v>
       </c>
       <c r="E137" t="n">
         <v>16</v>
@@ -11324,16 +11324,16 @@
         </is>
       </c>
       <c r="M137" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N137" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O137" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P137" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="S137" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="T137" t="n">
         <v>20</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44236</v>
+        <v>44284</v>
       </c>
       <c r="E138" t="n">
         <v>16</v>
@@ -11404,16 +11404,16 @@
         </is>
       </c>
       <c r="M138" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N138" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O138" t="n">
         <v>15000</v>
       </c>
-      <c r="O138" t="n">
-        <v>16000</v>
-      </c>
       <c r="P138" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         </is>
       </c>
       <c r="S138" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="T138" t="n">
         <v>20</v>
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44159</v>
+        <v>44236</v>
       </c>
       <c r="E139" t="n">
         <v>16</v>
@@ -11487,13 +11487,13 @@
         <v>80</v>
       </c>
       <c r="N139" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O139" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P139" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="T139" t="n">
         <v>20</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44159</v>
+        <v>44236</v>
       </c>
       <c r="E140" t="n">
         <v>16</v>
@@ -11564,16 +11564,16 @@
         </is>
       </c>
       <c r="M140" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N140" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O140" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P140" t="n">
-        <v>18500</v>
+        <v>15500</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>925</v>
+        <v>775</v>
       </c>
       <c r="T140" t="n">
         <v>20</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44245</v>
+        <v>44159</v>
       </c>
       <c r="E141" t="n">
         <v>16</v>
@@ -11647,13 +11647,13 @@
         <v>80</v>
       </c>
       <c r="N141" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O141" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P141" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="T141" t="n">
         <v>20</v>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44245</v>
+        <v>44159</v>
       </c>
       <c r="E142" t="n">
         <v>16</v>
@@ -11720,20 +11720,20 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M142" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="N142" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O142" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P142" t="n">
-        <v>12000</v>
+        <v>18500</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>600</v>
+        <v>925</v>
       </c>
       <c r="T142" t="n">
         <v>20</v>
@@ -11800,20 +11800,20 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M143" t="n">
         <v>80</v>
       </c>
       <c r="N143" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O143" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P143" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
@@ -11826,7 +11826,7 @@
         </is>
       </c>
       <c r="S143" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="T143" t="n">
         <v>20</v>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44330</v>
+        <v>44245</v>
       </c>
       <c r="E144" t="n">
         <v>16</v>
@@ -11880,11 +11880,11 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M144" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N144" t="n">
         <v>12000</v>
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44330</v>
+        <v>44245</v>
       </c>
       <c r="E145" t="n">
         <v>16</v>
@@ -11964,16 +11964,16 @@
         </is>
       </c>
       <c r="M145" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N145" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O145" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P145" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="T145" t="n">
         <v>20</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44187</v>
+        <v>44330</v>
       </c>
       <c r="E146" t="n">
         <v>16</v>
@@ -12044,16 +12044,16 @@
         </is>
       </c>
       <c r="M146" t="n">
-        <v>640</v>
+        <v>120</v>
       </c>
       <c r="N146" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="O146" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P146" t="n">
-        <v>9734</v>
+        <v>12000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>487</v>
+        <v>600</v>
       </c>
       <c r="T146" t="n">
         <v>20</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44187</v>
+        <v>44330</v>
       </c>
       <c r="E147" t="n">
         <v>16</v>
@@ -12124,16 +12124,16 @@
         </is>
       </c>
       <c r="M147" t="n">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="N147" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O147" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P147" t="n">
-        <v>11469</v>
+        <v>13500</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>573</v>
+        <v>675</v>
       </c>
       <c r="T147" t="n">
         <v>20</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44343</v>
+        <v>44187</v>
       </c>
       <c r="E148" t="n">
         <v>16</v>
@@ -12204,16 +12204,16 @@
         </is>
       </c>
       <c r="M148" t="n">
-        <v>80</v>
+        <v>640</v>
       </c>
       <c r="N148" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="O148" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P148" t="n">
-        <v>11000</v>
+        <v>9734</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>550</v>
+        <v>487</v>
       </c>
       <c r="T148" t="n">
         <v>20</v>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44343</v>
+        <v>44187</v>
       </c>
       <c r="E149" t="n">
         <v>16</v>
@@ -12284,16 +12284,16 @@
         </is>
       </c>
       <c r="M149" t="n">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="N149" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O149" t="n">
         <v>12000</v>
       </c>
-      <c r="O149" t="n">
-        <v>13000</v>
-      </c>
       <c r="P149" t="n">
-        <v>12500</v>
+        <v>11469</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>625</v>
+        <v>573</v>
       </c>
       <c r="T149" t="n">
         <v>20</v>
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44293</v>
+        <v>44343</v>
       </c>
       <c r="E150" t="n">
         <v>16</v>
@@ -12367,13 +12367,13 @@
         <v>80</v>
       </c>
       <c r="N150" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O150" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P150" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="T150" t="n">
         <v>20</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44293</v>
+        <v>44343</v>
       </c>
       <c r="E151" t="n">
         <v>16</v>
@@ -12444,16 +12444,16 @@
         </is>
       </c>
       <c r="M151" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N151" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O151" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P151" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="T151" t="n">
         <v>20</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44344</v>
+        <v>44293</v>
       </c>
       <c r="E152" t="n">
         <v>16</v>
@@ -12527,13 +12527,13 @@
         <v>80</v>
       </c>
       <c r="N152" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O152" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P152" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="T152" t="n">
         <v>20</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44344</v>
+        <v>44293</v>
       </c>
       <c r="E153" t="n">
         <v>16</v>
@@ -12604,16 +12604,16 @@
         </is>
       </c>
       <c r="M153" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N153" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O153" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P153" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         </is>
       </c>
       <c r="S153" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="T153" t="n">
         <v>20</v>
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44195</v>
+        <v>44344</v>
       </c>
       <c r="E154" t="n">
         <v>16</v>
@@ -12684,16 +12684,16 @@
         </is>
       </c>
       <c r="M154" t="n">
-        <v>590</v>
+        <v>80</v>
       </c>
       <c r="N154" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="O154" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P154" t="n">
-        <v>12797</v>
+        <v>12000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>640</v>
+        <v>600</v>
       </c>
       <c r="T154" t="n">
         <v>20</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44195</v>
+        <v>44344</v>
       </c>
       <c r="E155" t="n">
         <v>16</v>
@@ -12764,16 +12764,16 @@
         </is>
       </c>
       <c r="M155" t="n">
-        <v>450</v>
+        <v>160</v>
       </c>
       <c r="N155" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O155" t="n">
         <v>14000</v>
       </c>
-      <c r="O155" t="n">
-        <v>15000</v>
-      </c>
       <c r="P155" t="n">
-        <v>14556</v>
+        <v>13500</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>728</v>
+        <v>675</v>
       </c>
       <c r="T155" t="n">
         <v>20</v>
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44320</v>
+        <v>44195</v>
       </c>
       <c r="E156" t="n">
         <v>16</v>
@@ -12840,20 +12840,20 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M156" t="n">
-        <v>240</v>
+        <v>590</v>
       </c>
       <c r="N156" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="O156" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P156" t="n">
-        <v>14500</v>
+        <v>12797</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         </is>
       </c>
       <c r="S156" t="n">
-        <v>725</v>
+        <v>640</v>
       </c>
       <c r="T156" t="n">
         <v>20</v>
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44396</v>
+        <v>44195</v>
       </c>
       <c r="E157" t="n">
         <v>16</v>
@@ -12920,20 +12920,20 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M157" t="n">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="N157" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O157" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P157" t="n">
-        <v>11000</v>
+        <v>14556</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="S157" t="n">
-        <v>550</v>
+        <v>728</v>
       </c>
       <c r="T157" t="n">
         <v>20</v>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44396</v>
+        <v>44320</v>
       </c>
       <c r="E158" t="n">
         <v>16</v>
@@ -13007,13 +13007,13 @@
         <v>240</v>
       </c>
       <c r="N158" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O158" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P158" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="T158" t="n">
         <v>20</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44278</v>
+        <v>44396</v>
       </c>
       <c r="E159" t="n">
         <v>16</v>
@@ -13080,20 +13080,20 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M159" t="n">
-        <v>360</v>
+        <v>80</v>
       </c>
       <c r="N159" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O159" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P159" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         </is>
       </c>
       <c r="S159" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="T159" t="n">
         <v>20</v>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44406</v>
+        <v>44396</v>
       </c>
       <c r="E160" t="n">
         <v>16</v>
@@ -13160,20 +13160,20 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M160" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="N160" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O160" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P160" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>700</v>
+        <v>625</v>
       </c>
       <c r="T160" t="n">
         <v>20</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44406</v>
+        <v>44278</v>
       </c>
       <c r="E161" t="n">
         <v>16</v>
@@ -13244,16 +13244,16 @@
         </is>
       </c>
       <c r="M161" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N161" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O161" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P161" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>775</v>
+        <v>625</v>
       </c>
       <c r="T161" t="n">
         <v>20</v>
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44385</v>
+        <v>44406</v>
       </c>
       <c r="E162" t="n">
         <v>16</v>
@@ -13327,13 +13327,13 @@
         <v>80</v>
       </c>
       <c r="N162" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O162" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P162" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="T162" t="n">
         <v>20</v>
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44385</v>
+        <v>44406</v>
       </c>
       <c r="E163" t="n">
         <v>16</v>
@@ -13407,13 +13407,13 @@
         <v>240</v>
       </c>
       <c r="N163" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O163" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P163" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>625</v>
+        <v>775</v>
       </c>
       <c r="T163" t="n">
         <v>20</v>
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44221</v>
+        <v>44385</v>
       </c>
       <c r="E164" t="n">
         <v>16</v>
@@ -13487,13 +13487,13 @@
         <v>80</v>
       </c>
       <c r="N164" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O164" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P164" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="T164" t="n">
         <v>20</v>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44221</v>
+        <v>44385</v>
       </c>
       <c r="E165" t="n">
         <v>16</v>
@@ -13567,13 +13567,13 @@
         <v>240</v>
       </c>
       <c r="N165" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O165" t="n">
         <v>13000</v>
       </c>
-      <c r="O165" t="n">
-        <v>14000</v>
-      </c>
       <c r="P165" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="T165" t="n">
         <v>20</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44334</v>
+        <v>44221</v>
       </c>
       <c r="E166" t="n">
         <v>16</v>
@@ -13647,13 +13647,13 @@
         <v>80</v>
       </c>
       <c r="N166" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O166" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P166" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="T166" t="n">
         <v>20</v>
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44334</v>
+        <v>44221</v>
       </c>
       <c r="E167" t="n">
         <v>16</v>
@@ -13727,13 +13727,13 @@
         <v>240</v>
       </c>
       <c r="N167" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O167" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P167" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="T167" t="n">
         <v>20</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44299</v>
+        <v>44334</v>
       </c>
       <c r="E168" t="n">
         <v>16</v>
@@ -13807,13 +13807,13 @@
         <v>80</v>
       </c>
       <c r="N168" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O168" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P168" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="T168" t="n">
         <v>20</v>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44299</v>
+        <v>44334</v>
       </c>
       <c r="E169" t="n">
         <v>16</v>
@@ -13884,16 +13884,16 @@
         </is>
       </c>
       <c r="M169" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N169" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O169" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P169" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="T169" t="n">
         <v>20</v>
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44340</v>
+        <v>44299</v>
       </c>
       <c r="E170" t="n">
         <v>16</v>
@@ -13964,16 +13964,16 @@
         </is>
       </c>
       <c r="M170" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N170" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O170" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P170" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="T170" t="n">
         <v>20</v>
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44340</v>
+        <v>44299</v>
       </c>
       <c r="E171" t="n">
         <v>16</v>
@@ -14044,16 +14044,16 @@
         </is>
       </c>
       <c r="M171" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N171" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O171" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P171" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="T171" t="n">
         <v>20</v>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44200</v>
+        <v>44340</v>
       </c>
       <c r="E172" t="n">
         <v>16</v>
@@ -14124,16 +14124,16 @@
         </is>
       </c>
       <c r="M172" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N172" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O172" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P172" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>725</v>
+        <v>550</v>
       </c>
       <c r="T172" t="n">
         <v>20</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44200</v>
+        <v>44340</v>
       </c>
       <c r="E173" t="n">
         <v>16</v>
@@ -14207,13 +14207,13 @@
         <v>240</v>
       </c>
       <c r="N173" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O173" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P173" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="T173" t="n">
         <v>20</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44265</v>
+        <v>44200</v>
       </c>
       <c r="E174" t="n">
         <v>16</v>
@@ -14284,16 +14284,16 @@
         </is>
       </c>
       <c r="M174" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="N174" t="n">
         <v>14000</v>
       </c>
       <c r="O174" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P174" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>700</v>
+        <v>725</v>
       </c>
       <c r="T174" t="n">
         <v>20</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44265</v>
+        <v>44200</v>
       </c>
       <c r="E175" t="n">
         <v>16</v>
@@ -14364,16 +14364,16 @@
         </is>
       </c>
       <c r="M175" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N175" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O175" t="n">
         <v>15000</v>
       </c>
-      <c r="O175" t="n">
-        <v>16000</v>
-      </c>
       <c r="P175" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="T175" t="n">
         <v>20</v>
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44186</v>
+        <v>44265</v>
       </c>
       <c r="E176" t="n">
         <v>16</v>
@@ -14444,16 +14444,16 @@
         </is>
       </c>
       <c r="M176" t="n">
-        <v>740</v>
+        <v>80</v>
       </c>
       <c r="N176" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O176" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="P176" t="n">
-        <v>10297</v>
+        <v>14000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>515</v>
+        <v>700</v>
       </c>
       <c r="T176" t="n">
         <v>20</v>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44186</v>
+        <v>44265</v>
       </c>
       <c r="E177" t="n">
         <v>16</v>
@@ -14524,16 +14524,16 @@
         </is>
       </c>
       <c r="M177" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="N177" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O177" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P177" t="n">
-        <v>11571</v>
+        <v>15500</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>579</v>
+        <v>775</v>
       </c>
       <c r="T177" t="n">
         <v>20</v>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44252</v>
+        <v>44186</v>
       </c>
       <c r="E178" t="n">
         <v>16</v>
@@ -14604,16 +14604,16 @@
         </is>
       </c>
       <c r="M178" t="n">
-        <v>570</v>
+        <v>740</v>
       </c>
       <c r="N178" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O178" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="P178" t="n">
-        <v>9000</v>
+        <v>10297</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>450</v>
+        <v>515</v>
       </c>
       <c r="T178" t="n">
         <v>20</v>
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44252</v>
+        <v>44186</v>
       </c>
       <c r="E179" t="n">
         <v>16</v>
@@ -14684,16 +14684,16 @@
         </is>
       </c>
       <c r="M179" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="N179" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O179" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P179" t="n">
-        <v>10394</v>
+        <v>11571</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>520</v>
+        <v>579</v>
       </c>
       <c r="T179" t="n">
         <v>20</v>
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44371</v>
+        <v>44252</v>
       </c>
       <c r="E180" t="n">
         <v>16</v>
@@ -14764,16 +14764,16 @@
         </is>
       </c>
       <c r="M180" t="n">
-        <v>120</v>
+        <v>570</v>
       </c>
       <c r="N180" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O180" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P180" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="T180" t="n">
         <v>20</v>
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44371</v>
+        <v>44252</v>
       </c>
       <c r="E181" t="n">
         <v>16</v>
@@ -14844,16 +14844,16 @@
         </is>
       </c>
       <c r="M181" t="n">
-        <v>240</v>
+        <v>330</v>
       </c>
       <c r="N181" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O181" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P181" t="n">
-        <v>12500</v>
+        <v>10394</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>625</v>
+        <v>520</v>
       </c>
       <c r="T181" t="n">
         <v>20</v>
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44419</v>
+        <v>44371</v>
       </c>
       <c r="E182" t="n">
         <v>16</v>
@@ -14924,7 +14924,7 @@
         </is>
       </c>
       <c r="M182" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N182" t="n">
         <v>11000</v>
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44419</v>
+        <v>44371</v>
       </c>
       <c r="E183" t="n">
         <v>16</v>
@@ -15004,7 +15004,7 @@
         </is>
       </c>
       <c r="M183" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="N183" t="n">
         <v>12000</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44370</v>
+        <v>44419</v>
       </c>
       <c r="E184" t="n">
         <v>16</v>
@@ -15084,7 +15084,7 @@
         </is>
       </c>
       <c r="M184" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N184" t="n">
         <v>11000</v>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44370</v>
+        <v>44419</v>
       </c>
       <c r="E185" t="n">
         <v>16</v>
@@ -15164,7 +15164,7 @@
         </is>
       </c>
       <c r="M185" t="n">
-        <v>120</v>
+        <v>600</v>
       </c>
       <c r="N185" t="n">
         <v>12000</v>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44447</v>
+        <v>44370</v>
       </c>
       <c r="E186" t="n">
         <v>16</v>
@@ -15244,16 +15244,16 @@
         </is>
       </c>
       <c r="M186" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N186" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O186" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P186" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="T186" t="n">
         <v>20</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44447</v>
+        <v>44370</v>
       </c>
       <c r="E187" t="n">
         <v>16</v>
@@ -15324,16 +15324,16 @@
         </is>
       </c>
       <c r="M187" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N187" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O187" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P187" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T187" t="n">
         <v>20</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44267</v>
+        <v>44447</v>
       </c>
       <c r="E188" t="n">
         <v>16</v>
@@ -15400,20 +15400,20 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M188" t="n">
-        <v>360</v>
+        <v>150</v>
       </c>
       <c r="N188" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O188" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P188" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>725</v>
+        <v>800</v>
       </c>
       <c r="T188" t="n">
         <v>20</v>
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44292</v>
+        <v>44447</v>
       </c>
       <c r="E189" t="n">
         <v>16</v>
@@ -15487,13 +15487,13 @@
         <v>240</v>
       </c>
       <c r="N189" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O189" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P189" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         </is>
       </c>
       <c r="S189" t="n">
-        <v>725</v>
+        <v>875</v>
       </c>
       <c r="T189" t="n">
         <v>20</v>
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44300</v>
+        <v>44267</v>
       </c>
       <c r="E190" t="n">
         <v>16</v>
@@ -15560,20 +15560,20 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M190" t="n">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="N190" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O190" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P190" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>650</v>
+        <v>725</v>
       </c>
       <c r="T190" t="n">
         <v>20</v>
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44300</v>
+        <v>44292</v>
       </c>
       <c r="E191" t="n">
         <v>16</v>
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44277</v>
+        <v>44300</v>
       </c>
       <c r="E192" t="n">
         <v>16</v>
@@ -15724,16 +15724,16 @@
         </is>
       </c>
       <c r="M192" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N192" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O192" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P192" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="S192" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="T192" t="n">
         <v>20</v>
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44277</v>
+        <v>44300</v>
       </c>
       <c r="E193" t="n">
         <v>16</v>
@@ -15807,13 +15807,13 @@
         <v>240</v>
       </c>
       <c r="N193" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O193" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P193" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         </is>
       </c>
       <c r="S193" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="T193" t="n">
         <v>20</v>
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44392</v>
+        <v>44277</v>
       </c>
       <c r="E194" t="n">
         <v>16</v>
@@ -15887,13 +15887,13 @@
         <v>120</v>
       </c>
       <c r="N194" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O194" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P194" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         </is>
       </c>
       <c r="S194" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="T194" t="n">
         <v>20</v>
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44392</v>
+        <v>44277</v>
       </c>
       <c r="E195" t="n">
         <v>16</v>
@@ -15964,16 +15964,16 @@
         </is>
       </c>
       <c r="M195" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N195" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O195" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P195" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         </is>
       </c>
       <c r="S195" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="T195" t="n">
         <v>20</v>
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44224</v>
+        <v>44392</v>
       </c>
       <c r="E196" t="n">
         <v>16</v>
@@ -16047,13 +16047,13 @@
         <v>120</v>
       </c>
       <c r="N196" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O196" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P196" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         </is>
       </c>
       <c r="S196" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="T196" t="n">
         <v>20</v>
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44224</v>
+        <v>44392</v>
       </c>
       <c r="E197" t="n">
         <v>16</v>
@@ -16124,16 +16124,16 @@
         </is>
       </c>
       <c r="M197" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N197" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O197" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P197" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="S197" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="T197" t="n">
         <v>20</v>
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44295</v>
+        <v>44224</v>
       </c>
       <c r="E198" t="n">
         <v>16</v>
@@ -16200,20 +16200,20 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M198" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N198" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O198" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P198" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         </is>
       </c>
       <c r="S198" t="n">
-        <v>725</v>
+        <v>650</v>
       </c>
       <c r="T198" t="n">
         <v>20</v>
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44179</v>
+        <v>44224</v>
       </c>
       <c r="E199" t="n">
         <v>16</v>
@@ -16280,20 +16280,20 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M199" t="n">
-        <v>640</v>
+        <v>240</v>
       </c>
       <c r="N199" t="n">
-        <v>11500</v>
+        <v>14000</v>
       </c>
       <c r="O199" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P199" t="n">
-        <v>11766</v>
+        <v>14500</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         </is>
       </c>
       <c r="S199" t="n">
-        <v>588</v>
+        <v>725</v>
       </c>
       <c r="T199" t="n">
         <v>20</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44179</v>
+        <v>44295</v>
       </c>
       <c r="E200" t="n">
         <v>16</v>
@@ -16364,16 +16364,16 @@
         </is>
       </c>
       <c r="M200" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N200" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="O200" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P200" t="n">
-        <v>12667</v>
+        <v>14500</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         </is>
       </c>
       <c r="S200" t="n">
-        <v>633</v>
+        <v>725</v>
       </c>
       <c r="T200" t="n">
         <v>20</v>
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44362</v>
+        <v>44179</v>
       </c>
       <c r="E201" t="n">
         <v>16</v>
@@ -16444,16 +16444,16 @@
         </is>
       </c>
       <c r="M201" t="n">
-        <v>80</v>
+        <v>640</v>
       </c>
       <c r="N201" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="O201" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P201" t="n">
-        <v>11000</v>
+        <v>11766</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         </is>
       </c>
       <c r="S201" t="n">
-        <v>550</v>
+        <v>588</v>
       </c>
       <c r="T201" t="n">
         <v>20</v>
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44362</v>
+        <v>44179</v>
       </c>
       <c r="E202" t="n">
         <v>16</v>
@@ -16524,16 +16524,16 @@
         </is>
       </c>
       <c r="M202" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N202" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="O202" t="n">
         <v>13000</v>
       </c>
       <c r="P202" t="n">
-        <v>12500</v>
+        <v>12667</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="S202" t="n">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="T202" t="n">
         <v>20</v>
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44249</v>
+        <v>44362</v>
       </c>
       <c r="E203" t="n">
         <v>16</v>
@@ -16604,16 +16604,16 @@
         </is>
       </c>
       <c r="M203" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="N203" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="O203" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P203" t="n">
-        <v>9750</v>
+        <v>11000</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         </is>
       </c>
       <c r="S203" t="n">
-        <v>488</v>
+        <v>550</v>
       </c>
       <c r="T203" t="n">
         <v>20</v>
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44249</v>
+        <v>44362</v>
       </c>
       <c r="E204" t="n">
         <v>16</v>
@@ -16684,16 +16684,16 @@
         </is>
       </c>
       <c r="M204" t="n">
-        <v>360</v>
+        <v>160</v>
       </c>
       <c r="N204" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O204" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P204" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         </is>
       </c>
       <c r="S204" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="T204" t="n">
         <v>20</v>
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44309</v>
+        <v>44249</v>
       </c>
       <c r="E205" t="n">
         <v>16</v>
@@ -16760,20 +16760,20 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M205" t="n">
-        <v>360</v>
+        <v>160</v>
       </c>
       <c r="N205" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="O205" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P205" t="n">
-        <v>13500</v>
+        <v>9750</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         </is>
       </c>
       <c r="S205" t="n">
-        <v>675</v>
+        <v>488</v>
       </c>
       <c r="T205" t="n">
         <v>20</v>
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44384</v>
+        <v>44249</v>
       </c>
       <c r="E206" t="n">
         <v>16</v>
@@ -16840,20 +16840,20 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M206" t="n">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="N206" t="n">
         <v>11000</v>
       </c>
       <c r="O206" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P206" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         </is>
       </c>
       <c r="S206" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="T206" t="n">
         <v>20</v>
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44384</v>
+        <v>44309</v>
       </c>
       <c r="E207" t="n">
         <v>16</v>
@@ -16924,16 +16924,16 @@
         </is>
       </c>
       <c r="M207" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="N207" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O207" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P207" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="S207" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="T207" t="n">
         <v>20</v>
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44168</v>
+        <v>44384</v>
       </c>
       <c r="E208" t="n">
         <v>16</v>
@@ -17007,13 +17007,13 @@
         <v>80</v>
       </c>
       <c r="N208" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O208" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P208" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         </is>
       </c>
       <c r="S208" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="T208" t="n">
         <v>20</v>
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44168</v>
+        <v>44384</v>
       </c>
       <c r="E209" t="n">
         <v>16</v>
@@ -17084,16 +17084,16 @@
         </is>
       </c>
       <c r="M209" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N209" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O209" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P209" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         </is>
       </c>
       <c r="S209" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T209" t="n">
         <v>20</v>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44322</v>
+        <v>44168</v>
       </c>
       <c r="E210" t="n">
         <v>16</v>
@@ -17164,16 +17164,16 @@
         </is>
       </c>
       <c r="M210" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N210" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O210" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P210" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>725</v>
+        <v>800</v>
       </c>
       <c r="T210" t="n">
         <v>20</v>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44196</v>
+        <v>44168</v>
       </c>
       <c r="E211" t="n">
         <v>16</v>
@@ -17240,20 +17240,20 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M211" t="n">
-        <v>540</v>
+        <v>240</v>
       </c>
       <c r="N211" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O211" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P211" t="n">
-        <v>12370</v>
+        <v>17500</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>618</v>
+        <v>875</v>
       </c>
       <c r="T211" t="n">
         <v>20</v>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44196</v>
+        <v>44322</v>
       </c>
       <c r="E212" t="n">
         <v>16</v>
@@ -17320,11 +17320,11 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M212" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="N212" t="n">
         <v>14000</v>
@@ -17333,7 +17333,7 @@
         <v>15000</v>
       </c>
       <c r="P212" t="n">
-        <v>14536</v>
+        <v>14500</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="T212" t="n">
         <v>20</v>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44365</v>
+        <v>44196</v>
       </c>
       <c r="E213" t="n">
         <v>16</v>
@@ -17404,16 +17404,16 @@
         </is>
       </c>
       <c r="M213" t="n">
-        <v>120</v>
+        <v>540</v>
       </c>
       <c r="N213" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="O213" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P213" t="n">
-        <v>14750</v>
+        <v>12370</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         </is>
       </c>
       <c r="S213" t="n">
-        <v>738</v>
+        <v>618</v>
       </c>
       <c r="T213" t="n">
         <v>20</v>
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44235</v>
+        <v>44196</v>
       </c>
       <c r="E214" t="n">
         <v>16</v>
@@ -17480,20 +17480,20 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M214" t="n">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="N214" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O214" t="n">
         <v>15000</v>
       </c>
       <c r="P214" t="n">
-        <v>15000</v>
+        <v>14536</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         </is>
       </c>
       <c r="S214" t="n">
-        <v>750</v>
+        <v>727</v>
       </c>
       <c r="T214" t="n">
         <v>20</v>
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44235</v>
+        <v>44365</v>
       </c>
       <c r="E215" t="n">
         <v>16</v>
@@ -17560,20 +17560,20 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M215" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N215" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="O215" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P215" t="n">
-        <v>16500</v>
+        <v>14750</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         </is>
       </c>
       <c r="S215" t="n">
-        <v>825</v>
+        <v>738</v>
       </c>
       <c r="T215" t="n">
         <v>20</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44452</v>
+        <v>44235</v>
       </c>
       <c r="E216" t="n">
         <v>16</v>
@@ -17644,16 +17644,16 @@
         </is>
       </c>
       <c r="M216" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="N216" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O216" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P216" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T216" t="n">
         <v>20</v>
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44452</v>
+        <v>44235</v>
       </c>
       <c r="E217" t="n">
         <v>16</v>
@@ -17727,13 +17727,13 @@
         <v>240</v>
       </c>
       <c r="N217" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O217" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P217" t="n">
-        <v>21500</v>
+        <v>16500</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="S217" t="n">
-        <v>1075</v>
+        <v>825</v>
       </c>
       <c r="T217" t="n">
         <v>20</v>
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E218" t="n">
         <v>16</v>
@@ -17807,13 +17807,13 @@
         <v>80</v>
       </c>
       <c r="N218" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O218" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="P218" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="T218" t="n">
         <v>20</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E219" t="n">
         <v>16</v>
@@ -17884,16 +17884,16 @@
         </is>
       </c>
       <c r="M219" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N219" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="O219" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P219" t="n">
-        <v>12500</v>
+        <v>21500</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>625</v>
+        <v>1075</v>
       </c>
       <c r="T219" t="n">
         <v>20</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E220" t="n">
         <v>16</v>
@@ -17964,16 +17964,16 @@
         </is>
       </c>
       <c r="M220" t="n">
-        <v>720</v>
+        <v>80</v>
       </c>
       <c r="N220" t="n">
         <v>11000</v>
       </c>
       <c r="O220" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P220" t="n">
-        <v>11472</v>
+        <v>11000</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>574</v>
+        <v>550</v>
       </c>
       <c r="T220" t="n">
         <v>20</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E221" t="n">
         <v>16</v>
@@ -18044,16 +18044,16 @@
         </is>
       </c>
       <c r="M221" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N221" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="O221" t="n">
         <v>13000</v>
       </c>
       <c r="P221" t="n">
-        <v>12733</v>
+        <v>12500</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="T221" t="n">
         <v>20</v>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E222" t="n">
         <v>16</v>
@@ -18124,16 +18124,16 @@
         </is>
       </c>
       <c r="M222" t="n">
-        <v>200</v>
+        <v>720</v>
       </c>
       <c r="N222" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="O222" t="n">
-        <v>11800</v>
+        <v>12000</v>
       </c>
       <c r="P222" t="n">
-        <v>11650</v>
+        <v>11472</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="T222" t="n">
         <v>20</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E223" t="n">
         <v>16</v>
@@ -18204,7 +18204,7 @@
         </is>
       </c>
       <c r="M223" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N223" t="n">
         <v>12500</v>
@@ -18213,7 +18213,7 @@
         <v>13000</v>
       </c>
       <c r="P223" t="n">
-        <v>12750</v>
+        <v>12733</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T223" t="n">
         <v>20</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E224" t="n">
         <v>16</v>
@@ -18284,16 +18284,16 @@
         </is>
       </c>
       <c r="M224" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N224" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="O224" t="n">
-        <v>11000</v>
+        <v>11800</v>
       </c>
       <c r="P224" t="n">
-        <v>11000</v>
+        <v>11650</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>550</v>
+        <v>582</v>
       </c>
       <c r="T224" t="n">
         <v>20</v>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E225" t="n">
         <v>16</v>
@@ -18367,13 +18367,13 @@
         <v>240</v>
       </c>
       <c r="N225" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="O225" t="n">
         <v>13000</v>
       </c>
       <c r="P225" t="n">
-        <v>12500</v>
+        <v>12750</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>625</v>
+        <v>638</v>
       </c>
       <c r="T225" t="n">
         <v>20</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E226" t="n">
         <v>16</v>
@@ -18447,13 +18447,13 @@
         <v>80</v>
       </c>
       <c r="N226" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O226" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P226" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="T226" t="n">
         <v>20</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E227" t="n">
         <v>16</v>
@@ -18527,13 +18527,13 @@
         <v>240</v>
       </c>
       <c r="N227" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O227" t="n">
         <v>13000</v>
       </c>
-      <c r="O227" t="n">
-        <v>14000</v>
-      </c>
       <c r="P227" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="T227" t="n">
         <v>20</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E228" t="n">
         <v>16</v>
@@ -18604,16 +18604,16 @@
         </is>
       </c>
       <c r="M228" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N228" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O228" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P228" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="T228" t="n">
         <v>20</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E229" t="n">
         <v>16</v>
@@ -18687,13 +18687,13 @@
         <v>240</v>
       </c>
       <c r="N229" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O229" t="n">
         <v>14000</v>
       </c>
-      <c r="O229" t="n">
-        <v>15000</v>
-      </c>
       <c r="P229" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="T229" t="n">
         <v>20</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="E230" t="n">
         <v>16</v>
@@ -18764,7 +18764,7 @@
         </is>
       </c>
       <c r="M230" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N230" t="n">
         <v>13000</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="E231" t="n">
         <v>16</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44335</v>
+        <v>44291</v>
       </c>
       <c r="E232" t="n">
         <v>16</v>
@@ -18924,16 +18924,16 @@
         </is>
       </c>
       <c r="M232" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N232" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O232" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P232" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="T232" t="n">
         <v>20</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44335</v>
+        <v>44291</v>
       </c>
       <c r="E233" t="n">
         <v>16</v>
@@ -19007,13 +19007,13 @@
         <v>240</v>
       </c>
       <c r="N233" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O233" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P233" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="T233" t="n">
         <v>20</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E234" t="n">
         <v>16</v>
@@ -19084,16 +19084,16 @@
         </is>
       </c>
       <c r="M234" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N234" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O234" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P234" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="T234" t="n">
         <v>20</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E235" t="n">
         <v>16</v>
@@ -19164,16 +19164,16 @@
         </is>
       </c>
       <c r="M235" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="N235" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O235" t="n">
         <v>14000</v>
       </c>
-      <c r="O235" t="n">
-        <v>15000</v>
-      </c>
       <c r="P235" t="n">
-        <v>14455</v>
+        <v>13500</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>723</v>
+        <v>675</v>
       </c>
       <c r="T235" t="n">
         <v>20</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E236" t="n">
         <v>16</v>
@@ -19244,16 +19244,16 @@
         </is>
       </c>
       <c r="M236" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N236" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O236" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P236" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="T236" t="n">
         <v>20</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E237" t="n">
         <v>16</v>
@@ -19324,16 +19324,16 @@
         </is>
       </c>
       <c r="M237" t="n">
-        <v>600</v>
+        <v>220</v>
       </c>
       <c r="N237" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O237" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P237" t="n">
-        <v>13500</v>
+        <v>14455</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>675</v>
+        <v>723</v>
       </c>
       <c r="T237" t="n">
         <v>20</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E238" t="n">
         <v>16</v>
@@ -19407,13 +19407,13 @@
         <v>300</v>
       </c>
       <c r="N238" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="O238" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P238" t="n">
-        <v>14750</v>
+        <v>12000</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>738</v>
+        <v>600</v>
       </c>
       <c r="T238" t="n">
         <v>20</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E239" t="n">
         <v>16</v>
@@ -19487,13 +19487,13 @@
         <v>600</v>
       </c>
       <c r="N239" t="n">
-        <v>15500</v>
+        <v>13000</v>
       </c>
       <c r="O239" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P239" t="n">
-        <v>15750</v>
+        <v>13500</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>788</v>
+        <v>675</v>
       </c>
       <c r="T239" t="n">
         <v>20</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E240" t="n">
         <v>16</v>
@@ -19564,16 +19564,16 @@
         </is>
       </c>
       <c r="M240" t="n">
-        <v>640</v>
+        <v>300</v>
       </c>
       <c r="N240" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="O240" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P240" t="n">
-        <v>10469</v>
+        <v>14750</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>523</v>
+        <v>738</v>
       </c>
       <c r="T240" t="n">
         <v>20</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E241" t="n">
         <v>16</v>
@@ -19644,16 +19644,16 @@
         </is>
       </c>
       <c r="M241" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N241" t="n">
-        <v>11500</v>
+        <v>15500</v>
       </c>
       <c r="O241" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P241" t="n">
-        <v>11750</v>
+        <v>15750</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>588</v>
+        <v>788</v>
       </c>
       <c r="T241" t="n">
         <v>20</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E242" t="n">
         <v>16</v>
@@ -19724,16 +19724,16 @@
         </is>
       </c>
       <c r="M242" t="n">
-        <v>200</v>
+        <v>640</v>
       </c>
       <c r="N242" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O242" t="n">
         <v>11000</v>
       </c>
       <c r="P242" t="n">
-        <v>11000</v>
+        <v>10469</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>550</v>
+        <v>523</v>
       </c>
       <c r="T242" t="n">
         <v>20</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E243" t="n">
         <v>16</v>
@@ -19807,13 +19807,13 @@
         <v>300</v>
       </c>
       <c r="N243" t="n">
+        <v>11500</v>
+      </c>
+      <c r="O243" t="n">
         <v>12000</v>
       </c>
-      <c r="O243" t="n">
-        <v>13000</v>
-      </c>
       <c r="P243" t="n">
-        <v>12500</v>
+        <v>11750</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>625</v>
+        <v>588</v>
       </c>
       <c r="T243" t="n">
         <v>20</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E244" t="n">
         <v>16</v>
@@ -19884,16 +19884,16 @@
         </is>
       </c>
       <c r="M244" t="n">
-        <v>740</v>
+        <v>200</v>
       </c>
       <c r="N244" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O244" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P244" t="n">
-        <v>13595</v>
+        <v>11000</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>680</v>
+        <v>550</v>
       </c>
       <c r="T244" t="n">
         <v>20</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E245" t="n">
         <v>16</v>
@@ -19967,13 +19967,13 @@
         <v>300</v>
       </c>
       <c r="N245" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O245" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P245" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>775</v>
+        <v>625</v>
       </c>
       <c r="T245" t="n">
         <v>20</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44398</v>
+        <v>44222</v>
       </c>
       <c r="E246" t="n">
         <v>16</v>
@@ -20044,16 +20044,16 @@
         </is>
       </c>
       <c r="M246" t="n">
-        <v>80</v>
+        <v>740</v>
       </c>
       <c r="N246" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O246" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P246" t="n">
-        <v>11000</v>
+        <v>13595</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>550</v>
+        <v>680</v>
       </c>
       <c r="T246" t="n">
         <v>20</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44398</v>
+        <v>44222</v>
       </c>
       <c r="E247" t="n">
         <v>16</v>
@@ -20124,16 +20124,16 @@
         </is>
       </c>
       <c r="M247" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N247" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O247" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P247" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>625</v>
+        <v>775</v>
       </c>
       <c r="T247" t="n">
         <v>20</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E248" t="n">
         <v>16</v>
@@ -20204,7 +20204,7 @@
         </is>
       </c>
       <c r="M248" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N248" t="n">
         <v>11000</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E249" t="n">
         <v>16</v>
@@ -20284,7 +20284,7 @@
         </is>
       </c>
       <c r="M249" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N249" t="n">
         <v>12000</v>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44264</v>
+        <v>44420</v>
       </c>
       <c r="E250" t="n">
         <v>16</v>
@@ -20364,16 +20364,16 @@
         </is>
       </c>
       <c r="M250" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N250" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O250" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P250" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="T250" t="n">
         <v>20</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44264</v>
+        <v>44420</v>
       </c>
       <c r="E251" t="n">
         <v>16</v>
@@ -20444,16 +20444,16 @@
         </is>
       </c>
       <c r="M251" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N251" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O251" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P251" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>775</v>
+        <v>625</v>
       </c>
       <c r="T251" t="n">
         <v>20</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44348</v>
+        <v>44264</v>
       </c>
       <c r="E252" t="n">
         <v>16</v>
@@ -20520,20 +20520,20 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M252" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="N252" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O252" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P252" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="T252" t="n">
         <v>20</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="E253" t="n">
         <v>16</v>
@@ -20600,20 +20600,20 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M253" t="n">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="N253" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O253" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P253" t="n">
-        <v>14000</v>
+        <v>15500</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>700</v>
+        <v>775</v>
       </c>
       <c r="T253" t="n">
         <v>20</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E254" t="n">
         <v>16</v>
@@ -20684,16 +20684,16 @@
         </is>
       </c>
       <c r="M254" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N254" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O254" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P254" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>775</v>
+        <v>625</v>
       </c>
       <c r="T254" t="n">
         <v>20</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E255" t="n">
         <v>16</v>
@@ -20760,20 +20760,20 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M255" t="n">
-        <v>360</v>
+        <v>80</v>
       </c>
       <c r="N255" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="O255" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P255" t="n">
-        <v>14750</v>
+        <v>14000</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>738</v>
+        <v>700</v>
       </c>
       <c r="T255" t="n">
         <v>20</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44210</v>
+        <v>44263</v>
       </c>
       <c r="E256" t="n">
         <v>16</v>
@@ -20840,20 +20840,20 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M256" t="n">
-        <v>760</v>
+        <v>160</v>
       </c>
       <c r="N256" t="n">
-        <v>11500</v>
+        <v>15000</v>
       </c>
       <c r="O256" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="P256" t="n">
-        <v>12079</v>
+        <v>15500</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>604</v>
+        <v>775</v>
       </c>
       <c r="T256" t="n">
         <v>20</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E257" t="n">
         <v>16</v>
@@ -20924,16 +20924,16 @@
         </is>
       </c>
       <c r="M257" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="N257" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="O257" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P257" t="n">
-        <v>13312</v>
+        <v>14750</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>666</v>
+        <v>738</v>
       </c>
       <c r="T257" t="n">
         <v>20</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E258" t="n">
         <v>16</v>
@@ -21004,16 +21004,16 @@
         </is>
       </c>
       <c r="M258" t="n">
-        <v>740</v>
+        <v>760</v>
       </c>
       <c r="N258" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="O258" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="P258" t="n">
-        <v>9216</v>
+        <v>12079</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>461</v>
+        <v>604</v>
       </c>
       <c r="T258" t="n">
         <v>20</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E259" t="n">
         <v>16</v>
@@ -21084,16 +21084,16 @@
         </is>
       </c>
       <c r="M259" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="N259" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O259" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="P259" t="n">
-        <v>10286</v>
+        <v>13312</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>514</v>
+        <v>666</v>
       </c>
       <c r="T259" t="n">
         <v>20</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E260" t="n">
         <v>16</v>
@@ -21164,16 +21164,16 @@
         </is>
       </c>
       <c r="M260" t="n">
-        <v>300</v>
+        <v>740</v>
       </c>
       <c r="N260" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O260" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="P260" t="n">
-        <v>12250</v>
+        <v>9216</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>612</v>
+        <v>461</v>
       </c>
       <c r="T260" t="n">
         <v>20</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E261" t="n">
         <v>16</v>
@@ -21244,16 +21244,16 @@
         </is>
       </c>
       <c r="M261" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="N261" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O261" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="P261" t="n">
-        <v>13500</v>
+        <v>10286</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>675</v>
+        <v>514</v>
       </c>
       <c r="T261" t="n">
         <v>20</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E262" t="n">
         <v>16</v>
@@ -21324,16 +21324,16 @@
         </is>
       </c>
       <c r="M262" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N262" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O262" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="P262" t="n">
-        <v>11000</v>
+        <v>12250</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>550</v>
+        <v>612</v>
       </c>
       <c r="T262" t="n">
         <v>20</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E263" t="n">
         <v>16</v>
@@ -21404,16 +21404,16 @@
         </is>
       </c>
       <c r="M263" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="N263" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O263" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P263" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="T263" t="n">
         <v>20</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E264" t="n">
         <v>16</v>
@@ -21484,7 +21484,7 @@
         </is>
       </c>
       <c r="M264" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="N264" t="n">
         <v>11000</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E265" t="n">
         <v>16</v>
@@ -21564,7 +21564,7 @@
         </is>
       </c>
       <c r="M265" t="n">
-        <v>800</v>
+        <v>240</v>
       </c>
       <c r="N265" t="n">
         <v>12000</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E266" t="n">
         <v>16</v>
@@ -21644,16 +21644,16 @@
         </is>
       </c>
       <c r="M266" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N266" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O266" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P266" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="T266" t="n">
         <v>20</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E267" t="n">
         <v>16</v>
@@ -21724,16 +21724,16 @@
         </is>
       </c>
       <c r="M267" t="n">
-        <v>160</v>
+        <v>800</v>
       </c>
       <c r="N267" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O267" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P267" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="T267" t="n">
         <v>20</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E268" t="n">
         <v>16</v>
@@ -21804,16 +21804,16 @@
         </is>
       </c>
       <c r="M268" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N268" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O268" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P268" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="T268" t="n">
         <v>20</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E269" t="n">
         <v>16</v>
@@ -21884,16 +21884,16 @@
         </is>
       </c>
       <c r="M269" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N269" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O269" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P269" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="T269" t="n">
         <v>20</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E270" t="n">
         <v>16</v>
@@ -21964,16 +21964,16 @@
         </is>
       </c>
       <c r="M270" t="n">
-        <v>640</v>
+        <v>120</v>
       </c>
       <c r="N270" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O270" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P270" t="n">
-        <v>13688</v>
+        <v>9000</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>684</v>
+        <v>450</v>
       </c>
       <c r="T270" t="n">
         <v>20</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E271" t="n">
         <v>16</v>
@@ -22044,16 +22044,16 @@
         </is>
       </c>
       <c r="M271" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="N271" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="O271" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P271" t="n">
-        <v>14714</v>
+        <v>10500</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>736</v>
+        <v>525</v>
       </c>
       <c r="T271" t="n">
         <v>20</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E272" t="n">
         <v>16</v>
@@ -22124,16 +22124,16 @@
         </is>
       </c>
       <c r="M272" t="n">
-        <v>400</v>
+        <v>640</v>
       </c>
       <c r="N272" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O272" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P272" t="n">
-        <v>11000</v>
+        <v>13688</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>550</v>
+        <v>684</v>
       </c>
       <c r="T272" t="n">
         <v>20</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E273" t="n">
         <v>16</v>
@@ -22204,16 +22204,16 @@
         </is>
       </c>
       <c r="M273" t="n">
-        <v>680</v>
+        <v>280</v>
       </c>
       <c r="N273" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="O273" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P273" t="n">
-        <v>12500</v>
+        <v>14714</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>625</v>
+        <v>736</v>
       </c>
       <c r="T273" t="n">
         <v>20</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E274" t="n">
         <v>16</v>
@@ -22284,16 +22284,16 @@
         </is>
       </c>
       <c r="M274" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N274" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="O274" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P274" t="n">
-        <v>13750</v>
+        <v>11000</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>688</v>
+        <v>550</v>
       </c>
       <c r="T274" t="n">
         <v>20</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E275" t="n">
         <v>16</v>
@@ -22364,16 +22364,16 @@
         </is>
       </c>
       <c r="M275" t="n">
-        <v>360</v>
+        <v>680</v>
       </c>
       <c r="N275" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="O275" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P275" t="n">
-        <v>14750</v>
+        <v>12500</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>738</v>
+        <v>625</v>
       </c>
       <c r="T275" t="n">
         <v>20</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E276" t="n">
         <v>16</v>
@@ -22444,16 +22444,16 @@
         </is>
       </c>
       <c r="M276" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N276" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="O276" t="n">
         <v>14000</v>
       </c>
       <c r="P276" t="n">
-        <v>14000</v>
+        <v>13750</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="T276" t="n">
         <v>20</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E277" t="n">
         <v>16</v>
@@ -22524,16 +22524,16 @@
         </is>
       </c>
       <c r="M277" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="N277" t="n">
+        <v>14500</v>
+      </c>
+      <c r="O277" t="n">
         <v>15000</v>
       </c>
-      <c r="O277" t="n">
-        <v>16000</v>
-      </c>
       <c r="P277" t="n">
-        <v>15500</v>
+        <v>14750</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>775</v>
+        <v>738</v>
       </c>
       <c r="T277" t="n">
         <v>20</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44432</v>
+        <v>44237</v>
       </c>
       <c r="E278" t="n">
         <v>16</v>
@@ -22604,16 +22604,16 @@
         </is>
       </c>
       <c r="M278" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N278" t="n">
-        <v>11500</v>
+        <v>14000</v>
       </c>
       <c r="O278" t="n">
-        <v>11800</v>
+        <v>14000</v>
       </c>
       <c r="P278" t="n">
-        <v>11650</v>
+        <v>14000</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>582</v>
+        <v>700</v>
       </c>
       <c r="T278" t="n">
         <v>20</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44432</v>
+        <v>44237</v>
       </c>
       <c r="E279" t="n">
         <v>16</v>
@@ -22684,16 +22684,16 @@
         </is>
       </c>
       <c r="M279" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N279" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="O279" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P279" t="n">
-        <v>12750</v>
+        <v>15500</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>638</v>
+        <v>775</v>
       </c>
       <c r="T279" t="n">
         <v>20</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E280" t="n">
         <v>16</v>
@@ -22764,16 +22764,16 @@
         </is>
       </c>
       <c r="M280" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="N280" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="O280" t="n">
-        <v>11000</v>
+        <v>11800</v>
       </c>
       <c r="P280" t="n">
-        <v>11000</v>
+        <v>11650</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>550</v>
+        <v>582</v>
       </c>
       <c r="T280" t="n">
         <v>20</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E281" t="n">
         <v>16</v>
@@ -22844,16 +22844,16 @@
         </is>
       </c>
       <c r="M281" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N281" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="O281" t="n">
         <v>13000</v>
       </c>
       <c r="P281" t="n">
-        <v>12500</v>
+        <v>12750</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>625</v>
+        <v>638</v>
       </c>
       <c r="T281" t="n">
         <v>20</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E282" t="n">
         <v>16</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E283" t="n">
         <v>16</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E284" t="n">
         <v>16</v>
@@ -23084,16 +23084,16 @@
         </is>
       </c>
       <c r="M284" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N284" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O284" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P284" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="T284" t="n">
         <v>20</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E285" t="n">
         <v>16</v>
@@ -23164,16 +23164,16 @@
         </is>
       </c>
       <c r="M285" t="n">
-        <v>360</v>
+        <v>160</v>
       </c>
       <c r="N285" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O285" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P285" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="T285" t="n">
         <v>20</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E286" t="n">
         <v>16</v>
@@ -23244,16 +23244,16 @@
         </is>
       </c>
       <c r="M286" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N286" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O286" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P286" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="T286" t="n">
         <v>20</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E287" t="n">
         <v>16</v>
@@ -23324,16 +23324,16 @@
         </is>
       </c>
       <c r="M287" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N287" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O287" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P287" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="T287" t="n">
         <v>20</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E288" t="n">
         <v>16</v>
@@ -23404,16 +23404,16 @@
         </is>
       </c>
       <c r="M288" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N288" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O288" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P288" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="T288" t="n">
         <v>20</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E289" t="n">
         <v>16</v>
@@ -23487,13 +23487,13 @@
         <v>240</v>
       </c>
       <c r="N289" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O289" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P289" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="T289" t="n">
         <v>20</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E290" t="n">
         <v>16</v>
@@ -23567,13 +23567,13 @@
         <v>80</v>
       </c>
       <c r="N290" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O290" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P290" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="T290" t="n">
         <v>20</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E291" t="n">
         <v>16</v>
@@ -23644,16 +23644,16 @@
         </is>
       </c>
       <c r="M291" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N291" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O291" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P291" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="T291" t="n">
         <v>20</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E292" t="n">
         <v>16</v>
@@ -23724,16 +23724,16 @@
         </is>
       </c>
       <c r="M292" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N292" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O292" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P292" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="T292" t="n">
         <v>20</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E293" t="n">
         <v>16</v>
@@ -23804,16 +23804,16 @@
         </is>
       </c>
       <c r="M293" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N293" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O293" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P293" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>575</v>
+        <v>725</v>
       </c>
       <c r="T293" t="n">
         <v>20</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E294" t="n">
         <v>16</v>
@@ -23884,16 +23884,16 @@
         </is>
       </c>
       <c r="M294" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N294" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O294" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P294" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="T294" t="n">
         <v>20</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E295" t="n">
         <v>16</v>
@@ -23964,16 +23964,16 @@
         </is>
       </c>
       <c r="M295" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N295" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O295" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P295" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="T295" t="n">
         <v>20</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E296" t="n">
         <v>16</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E297" t="n">
         <v>16</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="M297" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N297" t="n">
         <v>14000</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E298" t="n">
         <v>16</v>
@@ -24204,16 +24204,16 @@
         </is>
       </c>
       <c r="M298" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N298" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O298" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P298" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="T298" t="n">
         <v>20</v>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E299" t="n">
         <v>16</v>
@@ -24287,13 +24287,13 @@
         <v>240</v>
       </c>
       <c r="N299" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O299" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P299" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="T299" t="n">
         <v>20</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E300" t="n">
         <v>16</v>
@@ -24364,16 +24364,16 @@
         </is>
       </c>
       <c r="M300" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N300" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O300" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P300" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="T300" t="n">
         <v>20</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E301" t="n">
         <v>16</v>
@@ -24447,13 +24447,13 @@
         <v>240</v>
       </c>
       <c r="N301" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O301" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P301" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T301" t="n">
         <v>20</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E302" t="n">
         <v>16</v>
@@ -24524,16 +24524,16 @@
         </is>
       </c>
       <c r="M302" t="n">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="N302" t="n">
-        <v>11500</v>
+        <v>16000</v>
       </c>
       <c r="O302" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P302" t="n">
-        <v>11750</v>
+        <v>16000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>588</v>
+        <v>800</v>
       </c>
       <c r="T302" t="n">
         <v>20</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E303" t="n">
         <v>16</v>
@@ -24604,16 +24604,16 @@
         </is>
       </c>
       <c r="M303" t="n">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="N303" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O303" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P303" t="n">
-        <v>13500</v>
+        <v>17500</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="T303" t="n">
         <v>20</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E304" t="n">
         <v>16</v>
@@ -24684,16 +24684,16 @@
         </is>
       </c>
       <c r="M304" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="N304" t="n">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="O304" t="n">
         <v>12000</v>
       </c>
       <c r="P304" t="n">
-        <v>12000</v>
+        <v>11750</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="T304" t="n">
         <v>20</v>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E305" t="n">
         <v>16</v>
@@ -24764,7 +24764,7 @@
         </is>
       </c>
       <c r="M305" t="n">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="N305" t="n">
         <v>13000</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E306" t="n">
         <v>16</v>
@@ -24844,16 +24844,16 @@
         </is>
       </c>
       <c r="M306" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N306" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O306" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P306" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T306" t="n">
         <v>20</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E307" t="n">
         <v>16</v>
@@ -24927,13 +24927,13 @@
         <v>240</v>
       </c>
       <c r="N307" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O307" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P307" t="n">
-        <v>15500</v>
+        <v>13500</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="T307" t="n">
         <v>20</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44161</v>
+        <v>44329</v>
       </c>
       <c r="E308" t="n">
         <v>16</v>
@@ -25004,16 +25004,16 @@
         </is>
       </c>
       <c r="M308" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N308" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O308" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P308" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T308" t="n">
         <v>20</v>
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44161</v>
+        <v>44329</v>
       </c>
       <c r="E309" t="n">
         <v>16</v>
@@ -25084,16 +25084,16 @@
         </is>
       </c>
       <c r="M309" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N309" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O309" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P309" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="T309" t="n">
         <v>20</v>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E310" t="n">
         <v>16</v>
@@ -25164,16 +25164,16 @@
         </is>
       </c>
       <c r="M310" t="n">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="N310" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O310" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P310" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T310" t="n">
         <v>20</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E311" t="n">
         <v>16</v>
@@ -25244,16 +25244,16 @@
         </is>
       </c>
       <c r="M311" t="n">
-        <v>360</v>
+        <v>160</v>
       </c>
       <c r="N311" t="n">
-        <v>14500</v>
+        <v>17000</v>
       </c>
       <c r="O311" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P311" t="n">
-        <v>14750</v>
+        <v>17500</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>738</v>
+        <v>875</v>
       </c>
       <c r="T311" t="n">
         <v>20</v>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E312" t="n">
         <v>16</v>
@@ -25324,16 +25324,16 @@
         </is>
       </c>
       <c r="M312" t="n">
-        <v>660</v>
+        <v>220</v>
       </c>
       <c r="N312" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O312" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="P312" t="n">
-        <v>9273</v>
+        <v>14000</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>464</v>
+        <v>700</v>
       </c>
       <c r="T312" t="n">
         <v>20</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E313" t="n">
         <v>16</v>
@@ -25404,16 +25404,16 @@
         </is>
       </c>
       <c r="M313" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N313" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="O313" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P313" t="n">
-        <v>10667</v>
+        <v>14750</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>533</v>
+        <v>738</v>
       </c>
       <c r="T313" t="n">
         <v>20</v>
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44442</v>
+        <v>44251</v>
       </c>
       <c r="E314" t="n">
         <v>16</v>
@@ -25484,16 +25484,16 @@
         </is>
       </c>
       <c r="M314" t="n">
-        <v>300</v>
+        <v>660</v>
       </c>
       <c r="N314" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="O314" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="P314" t="n">
-        <v>13750</v>
+        <v>9273</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>688</v>
+        <v>464</v>
       </c>
       <c r="T314" t="n">
         <v>20</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44442</v>
+        <v>44251</v>
       </c>
       <c r="E315" t="n">
         <v>16</v>
@@ -25567,13 +25567,13 @@
         <v>300</v>
       </c>
       <c r="N315" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="O315" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P315" t="n">
-        <v>14750</v>
+        <v>10667</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>738</v>
+        <v>533</v>
       </c>
       <c r="T315" t="n">
         <v>20</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E316" t="n">
         <v>16</v>
@@ -25644,16 +25644,16 @@
         </is>
       </c>
       <c r="M316" t="n">
-        <v>1340</v>
+        <v>300</v>
       </c>
       <c r="N316" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="O316" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P316" t="n">
-        <v>13177</v>
+        <v>13750</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>659</v>
+        <v>688</v>
       </c>
       <c r="T316" t="n">
         <v>20</v>
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E317" t="n">
         <v>16</v>
@@ -25724,16 +25724,16 @@
         </is>
       </c>
       <c r="M317" t="n">
-        <v>2020</v>
+        <v>300</v>
       </c>
       <c r="N317" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="O317" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P317" t="n">
-        <v>14505</v>
+        <v>14750</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>725</v>
+        <v>738</v>
       </c>
       <c r="T317" t="n">
         <v>20</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E318" t="n">
         <v>16</v>
@@ -25804,16 +25804,16 @@
         </is>
       </c>
       <c r="M318" t="n">
-        <v>80</v>
+        <v>1340</v>
       </c>
       <c r="N318" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="O318" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P318" t="n">
-        <v>13000</v>
+        <v>13177</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>650</v>
+        <v>659</v>
       </c>
       <c r="T318" t="n">
         <v>20</v>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E319" t="n">
         <v>16</v>
@@ -25884,16 +25884,16 @@
         </is>
       </c>
       <c r="M319" t="n">
-        <v>240</v>
+        <v>2020</v>
       </c>
       <c r="N319" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="O319" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P319" t="n">
-        <v>14750</v>
+        <v>14505</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>738</v>
+        <v>725</v>
       </c>
       <c r="T319" t="n">
         <v>20</v>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E320" t="n">
         <v>16</v>
@@ -25964,16 +25964,16 @@
         </is>
       </c>
       <c r="M320" t="n">
-        <v>480</v>
+        <v>80</v>
       </c>
       <c r="N320" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O320" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P320" t="n">
-        <v>14417</v>
+        <v>13000</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>721</v>
+        <v>650</v>
       </c>
       <c r="T320" t="n">
         <v>20</v>
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E321" t="n">
         <v>16</v>
@@ -26044,16 +26044,16 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="N321" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="O321" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P321" t="n">
-        <v>15826</v>
+        <v>14750</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>791</v>
+        <v>738</v>
       </c>
       <c r="T321" t="n">
         <v>20</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E322" t="n">
         <v>16</v>
@@ -26124,16 +26124,16 @@
         </is>
       </c>
       <c r="M322" t="n">
-        <v>80</v>
+        <v>480</v>
       </c>
       <c r="N322" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O322" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P322" t="n">
-        <v>11000</v>
+        <v>14417</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>550</v>
+        <v>721</v>
       </c>
       <c r="T322" t="n">
         <v>20</v>
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E323" t="n">
         <v>16</v>
@@ -26204,16 +26204,16 @@
         </is>
       </c>
       <c r="M323" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="N323" t="n">
-        <v>12000</v>
+        <v>15500</v>
       </c>
       <c r="O323" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P323" t="n">
-        <v>12500</v>
+        <v>15826</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>625</v>
+        <v>791</v>
       </c>
       <c r="T323" t="n">
         <v>20</v>
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E324" t="n">
         <v>16</v>
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E325" t="n">
         <v>16</v>
@@ -26364,7 +26364,7 @@
         </is>
       </c>
       <c r="M325" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N325" t="n">
         <v>12000</v>
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E326" t="n">
         <v>16</v>
@@ -26444,16 +26444,16 @@
         </is>
       </c>
       <c r="M326" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="N326" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="O326" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P326" t="n">
-        <v>11750</v>
+        <v>11000</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>588</v>
+        <v>550</v>
       </c>
       <c r="T326" t="n">
         <v>20</v>
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E327" t="n">
         <v>16</v>
@@ -26524,16 +26524,16 @@
         </is>
       </c>
       <c r="M327" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N327" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O327" t="n">
         <v>13000</v>
       </c>
-      <c r="O327" t="n">
-        <v>14000</v>
-      </c>
       <c r="P327" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="T327" t="n">
         <v>20</v>
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E328" t="n">
         <v>16</v>
@@ -26604,16 +26604,16 @@
         </is>
       </c>
       <c r="M328" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N328" t="n">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="O328" t="n">
         <v>12000</v>
       </c>
       <c r="P328" t="n">
-        <v>12000</v>
+        <v>11750</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="T328" t="n">
         <v>20</v>
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E329" t="n">
         <v>16</v>
@@ -26684,16 +26684,16 @@
         </is>
       </c>
       <c r="M329" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N329" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="O329" t="n">
         <v>14000</v>
       </c>
       <c r="P329" t="n">
-        <v>13750</v>
+        <v>13500</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="T329" t="n">
         <v>20</v>
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E330" t="n">
         <v>16</v>
@@ -26760,20 +26760,20 @@
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M330" t="n">
         <v>120</v>
       </c>
       <c r="N330" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O330" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P330" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>725</v>
+        <v>600</v>
       </c>
       <c r="T330" t="n">
         <v>20</v>
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44448</v>
+        <v>44223</v>
       </c>
       <c r="E331" t="n">
         <v>16</v>
@@ -26840,20 +26840,20 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M331" t="n">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="N331" t="n">
-        <v>19000</v>
+        <v>13500</v>
       </c>
       <c r="O331" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P331" t="n">
-        <v>19000</v>
+        <v>13750</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>950</v>
+        <v>688</v>
       </c>
       <c r="T331" t="n">
         <v>20</v>
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E332" t="n">
         <v>16</v>
@@ -26924,16 +26924,16 @@
         </is>
       </c>
       <c r="M332" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="N332" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O332" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P332" t="n">
-        <v>20500</v>
+        <v>14500</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>1025</v>
+        <v>725</v>
       </c>
       <c r="T332" t="n">
         <v>20</v>
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E333" t="n">
         <v>16</v>
@@ -27004,16 +27004,16 @@
         </is>
       </c>
       <c r="M333" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="N333" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O333" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P333" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T333" t="n">
         <v>20</v>
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E334" t="n">
         <v>16</v>
@@ -27084,16 +27084,16 @@
         </is>
       </c>
       <c r="M334" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="N334" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O334" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="P334" t="n">
-        <v>17500</v>
+        <v>20500</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>875</v>
+        <v>1025</v>
       </c>
       <c r="T334" t="n">
         <v>20</v>
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E335" t="n">
         <v>16</v>
@@ -27164,16 +27164,16 @@
         </is>
       </c>
       <c r="M335" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N335" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O335" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P335" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T335" t="n">
         <v>20</v>
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E336" t="n">
         <v>16</v>
@@ -27244,16 +27244,16 @@
         </is>
       </c>
       <c r="M336" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N336" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O336" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P336" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>775</v>
+        <v>875</v>
       </c>
       <c r="T336" t="n">
         <v>20</v>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E337" t="n">
         <v>16</v>
@@ -27320,20 +27320,20 @@
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M337" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N337" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O337" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P337" t="n">
-        <v>16500</v>
+        <v>14000</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>825</v>
+        <v>700</v>
       </c>
       <c r="T337" t="n">
         <v>20</v>
@@ -27367,68 +27367,228 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
+        <v>44238</v>
+      </c>
+      <c r="E338" t="n">
+        <v>16</v>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G338" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I338" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J338" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>Primera Pintón</t>
+        </is>
+      </c>
+      <c r="M338" t="n">
+        <v>240</v>
+      </c>
+      <c r="N338" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O338" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P338" t="n">
+        <v>15500</v>
+      </c>
+      <c r="Q338" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R338" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S338" t="n">
+        <v>775</v>
+      </c>
+      <c r="T338" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>7</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D339" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E339" t="n">
+        <v>16</v>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G339" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I339" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>Primera Pintón</t>
+        </is>
+      </c>
+      <c r="M339" t="n">
+        <v>240</v>
+      </c>
+      <c r="N339" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O339" t="n">
+        <v>17000</v>
+      </c>
+      <c r="P339" t="n">
+        <v>16500</v>
+      </c>
+      <c r="Q339" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R339" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S339" t="n">
+        <v>825</v>
+      </c>
+      <c r="T339" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>7</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D340" s="2" t="n">
         <v>44400</v>
       </c>
-      <c r="E338" t="n">
-        <v>16</v>
-      </c>
-      <c r="F338" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G338" t="n">
-        <v>100108</v>
-      </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>Tropicales y subtropicales</t>
-        </is>
-      </c>
-      <c r="I338" t="n">
-        <v>100108006</v>
-      </c>
-      <c r="J338" t="inlineStr">
-        <is>
-          <t>Plátano</t>
-        </is>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L338" t="inlineStr">
+      <c r="E340" t="n">
+        <v>16</v>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G340" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I340" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J340" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L340" t="inlineStr">
         <is>
           <t>Primera Pintón</t>
         </is>
       </c>
-      <c r="M338" t="n">
+      <c r="M340" t="n">
         <v>160</v>
       </c>
-      <c r="N338" t="n">
+      <c r="N340" t="n">
         <v>19000</v>
       </c>
-      <c r="O338" t="n">
+      <c r="O340" t="n">
         <v>20000</v>
       </c>
-      <c r="P338" t="n">
+      <c r="P340" t="n">
         <v>19500</v>
       </c>
-      <c r="Q338" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R338" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S338" t="n">
+      <c r="Q340" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R340" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S340" t="n">
         <v>975</v>
       </c>
-      <c r="T338" t="n">
+      <c r="T340" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T342"/>
+  <dimension ref="A1:T344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E222" t="n">
         <v>16</v>
@@ -18124,16 +18124,16 @@
         </is>
       </c>
       <c r="M222" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N222" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="O222" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="P222" t="n">
-        <v>11000</v>
+        <v>18500</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>550</v>
+        <v>925</v>
       </c>
       <c r="T222" t="n">
         <v>20</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E223" t="n">
         <v>16</v>
@@ -18207,13 +18207,13 @@
         <v>400</v>
       </c>
       <c r="N223" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O223" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="P223" t="n">
-        <v>12500</v>
+        <v>20500</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>625</v>
+        <v>1025</v>
       </c>
       <c r="T223" t="n">
         <v>20</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E224" t="n">
         <v>16</v>
@@ -18284,7 +18284,7 @@
         </is>
       </c>
       <c r="M224" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N224" t="n">
         <v>11000</v>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E225" t="n">
         <v>16</v>
@@ -18364,7 +18364,7 @@
         </is>
       </c>
       <c r="M225" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N225" t="n">
         <v>12000</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E226" t="n">
         <v>16</v>
@@ -18444,16 +18444,16 @@
         </is>
       </c>
       <c r="M226" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N226" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O226" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P226" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="T226" t="n">
         <v>20</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E227" t="n">
         <v>16</v>
@@ -18524,16 +18524,16 @@
         </is>
       </c>
       <c r="M227" t="n">
-        <v>240</v>
+        <v>800</v>
       </c>
       <c r="N227" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O227" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P227" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T227" t="n">
         <v>20</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E228" t="n">
         <v>16</v>
@@ -18604,16 +18604,16 @@
         </is>
       </c>
       <c r="M228" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N228" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O228" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="P228" t="n">
-        <v>12250</v>
+        <v>16000</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>612</v>
+        <v>800</v>
       </c>
       <c r="T228" t="n">
         <v>20</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E229" t="n">
         <v>16</v>
@@ -18684,16 +18684,16 @@
         </is>
       </c>
       <c r="M229" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="N229" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O229" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P229" t="n">
-        <v>13500</v>
+        <v>17500</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="T229" t="n">
         <v>20</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E230" t="n">
         <v>16</v>
@@ -18764,16 +18764,16 @@
         </is>
       </c>
       <c r="M230" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="N230" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="O230" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="P230" t="n">
-        <v>15375</v>
+        <v>12250</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>769</v>
+        <v>612</v>
       </c>
       <c r="T230" t="n">
         <v>20</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E231" t="n">
         <v>16</v>
@@ -18844,16 +18844,16 @@
         </is>
       </c>
       <c r="M231" t="n">
-        <v>380</v>
+        <v>600</v>
       </c>
       <c r="N231" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="O231" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P231" t="n">
-        <v>17526</v>
+        <v>13500</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>876</v>
+        <v>675</v>
       </c>
       <c r="T231" t="n">
         <v>20</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E232" t="n">
         <v>16</v>
@@ -18924,16 +18924,16 @@
         </is>
       </c>
       <c r="M232" t="n">
-        <v>80</v>
+        <v>480</v>
       </c>
       <c r="N232" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="O232" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P232" t="n">
-        <v>11000</v>
+        <v>15375</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>550</v>
+        <v>769</v>
       </c>
       <c r="T232" t="n">
         <v>20</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E233" t="n">
         <v>16</v>
@@ -19004,16 +19004,16 @@
         </is>
       </c>
       <c r="M233" t="n">
-        <v>240</v>
+        <v>380</v>
       </c>
       <c r="N233" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O233" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P233" t="n">
-        <v>12500</v>
+        <v>17526</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>625</v>
+        <v>876</v>
       </c>
       <c r="T233" t="n">
         <v>20</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E234" t="n">
         <v>16</v>
@@ -19084,16 +19084,16 @@
         </is>
       </c>
       <c r="M234" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="N234" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="O234" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P234" t="n">
-        <v>9750</v>
+        <v>11000</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>488</v>
+        <v>550</v>
       </c>
       <c r="T234" t="n">
         <v>20</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E235" t="n">
         <v>16</v>
@@ -19164,16 +19164,16 @@
         </is>
       </c>
       <c r="M235" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N235" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O235" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P235" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="T235" t="n">
         <v>20</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E236" t="n">
         <v>16</v>
@@ -19244,16 +19244,16 @@
         </is>
       </c>
       <c r="M236" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="N236" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="O236" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P236" t="n">
-        <v>14000</v>
+        <v>9750</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>700</v>
+        <v>488</v>
       </c>
       <c r="T236" t="n">
         <v>20</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E237" t="n">
         <v>16</v>
@@ -19327,13 +19327,13 @@
         <v>360</v>
       </c>
       <c r="N237" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O237" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P237" t="n">
-        <v>15500</v>
+        <v>11500</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="T237" t="n">
         <v>20</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E238" t="n">
         <v>16</v>
@@ -19407,13 +19407,13 @@
         <v>80</v>
       </c>
       <c r="N238" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O238" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P238" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="T238" t="n">
         <v>20</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E239" t="n">
         <v>16</v>
@@ -19484,16 +19484,16 @@
         </is>
       </c>
       <c r="M239" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="N239" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O239" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P239" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>625</v>
+        <v>775</v>
       </c>
       <c r="T239" t="n">
         <v>20</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E240" t="n">
         <v>16</v>
@@ -19564,16 +19564,16 @@
         </is>
       </c>
       <c r="M240" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N240" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O240" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P240" t="n">
-        <v>15500</v>
+        <v>11000</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>775</v>
+        <v>550</v>
       </c>
       <c r="T240" t="n">
         <v>20</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E241" t="n">
         <v>16</v>
@@ -19640,20 +19640,20 @@
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M241" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="N241" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O241" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P241" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="T241" t="n">
         <v>20</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E242" t="n">
         <v>16</v>
@@ -19720,20 +19720,20 @@
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M242" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="N242" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O242" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P242" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>625</v>
+        <v>775</v>
       </c>
       <c r="T242" t="n">
         <v>20</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E243" t="n">
         <v>16</v>
@@ -19804,16 +19804,16 @@
         </is>
       </c>
       <c r="M243" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N243" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O243" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P243" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="T243" t="n">
         <v>20</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E244" t="n">
         <v>16</v>
@@ -19884,16 +19884,16 @@
         </is>
       </c>
       <c r="M244" t="n">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="N244" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O244" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P244" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T244" t="n">
         <v>20</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E245" t="n">
         <v>16</v>
@@ -19964,16 +19964,16 @@
         </is>
       </c>
       <c r="M245" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N245" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O245" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P245" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="T245" t="n">
         <v>20</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E246" t="n">
         <v>16</v>
@@ -20044,16 +20044,16 @@
         </is>
       </c>
       <c r="M246" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N246" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O246" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P246" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>725</v>
+        <v>875</v>
       </c>
       <c r="T246" t="n">
         <v>20</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E247" t="n">
         <v>16</v>
@@ -20124,16 +20124,16 @@
         </is>
       </c>
       <c r="M247" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="N247" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O247" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P247" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="T247" t="n">
         <v>20</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E248" t="n">
         <v>16</v>
@@ -20207,13 +20207,13 @@
         <v>360</v>
       </c>
       <c r="N248" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O248" t="n">
         <v>15000</v>
       </c>
-      <c r="O248" t="n">
-        <v>16000</v>
-      </c>
       <c r="P248" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="T248" t="n">
         <v>20</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E249" t="n">
         <v>16</v>
@@ -20280,20 +20280,20 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M249" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="N249" t="n">
         <v>14000</v>
       </c>
       <c r="O249" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P249" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>725</v>
+        <v>700</v>
       </c>
       <c r="T249" t="n">
         <v>20</v>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44312</v>
+        <v>44260</v>
       </c>
       <c r="E250" t="n">
         <v>16</v>
@@ -20360,20 +20360,20 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M250" t="n">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="N250" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O250" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P250" t="n">
-        <v>11000</v>
+        <v>15500</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>550</v>
+        <v>775</v>
       </c>
       <c r="T250" t="n">
         <v>20</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E251" t="n">
         <v>16</v>
@@ -20444,16 +20444,16 @@
         </is>
       </c>
       <c r="M251" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N251" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O251" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P251" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="T251" t="n">
         <v>20</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E252" t="n">
         <v>16</v>
@@ -20524,16 +20524,16 @@
         </is>
       </c>
       <c r="M252" t="n">
-        <v>640</v>
+        <v>120</v>
       </c>
       <c r="N252" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="O252" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P252" t="n">
-        <v>9734</v>
+        <v>11000</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>487</v>
+        <v>550</v>
       </c>
       <c r="T252" t="n">
         <v>20</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E253" t="n">
         <v>16</v>
@@ -20604,16 +20604,16 @@
         </is>
       </c>
       <c r="M253" t="n">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="N253" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O253" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P253" t="n">
-        <v>11469</v>
+        <v>12500</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>573</v>
+        <v>625</v>
       </c>
       <c r="T253" t="n">
         <v>20</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E254" t="n">
         <v>16</v>
@@ -20684,16 +20684,16 @@
         </is>
       </c>
       <c r="M254" t="n">
-        <v>80</v>
+        <v>640</v>
       </c>
       <c r="N254" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="O254" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P254" t="n">
-        <v>11000</v>
+        <v>9734</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>550</v>
+        <v>487</v>
       </c>
       <c r="T254" t="n">
         <v>20</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E255" t="n">
         <v>16</v>
@@ -20764,16 +20764,16 @@
         </is>
       </c>
       <c r="M255" t="n">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="N255" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O255" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P255" t="n">
-        <v>13500</v>
+        <v>11469</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>675</v>
+        <v>573</v>
       </c>
       <c r="T255" t="n">
         <v>20</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E256" t="n">
         <v>16</v>
@@ -20844,16 +20844,16 @@
         </is>
       </c>
       <c r="M256" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N256" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O256" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P256" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="T256" t="n">
         <v>20</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E257" t="n">
         <v>16</v>
@@ -20927,13 +20927,13 @@
         <v>240</v>
       </c>
       <c r="N257" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O257" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P257" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="T257" t="n">
         <v>20</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E258" t="n">
         <v>16</v>
@@ -21004,16 +21004,16 @@
         </is>
       </c>
       <c r="M258" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N258" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O258" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P258" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="T258" t="n">
         <v>20</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E259" t="n">
         <v>16</v>
@@ -21084,16 +21084,16 @@
         </is>
       </c>
       <c r="M259" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N259" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O259" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P259" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="T259" t="n">
         <v>20</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E260" t="n">
         <v>16</v>
@@ -21167,13 +21167,13 @@
         <v>80</v>
       </c>
       <c r="N260" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O260" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P260" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="T260" t="n">
         <v>20</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E261" t="n">
         <v>16</v>
@@ -21244,16 +21244,16 @@
         </is>
       </c>
       <c r="M261" t="n">
-        <v>360</v>
+        <v>160</v>
       </c>
       <c r="N261" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O261" t="n">
         <v>15000</v>
       </c>
-      <c r="O261" t="n">
-        <v>16000</v>
-      </c>
       <c r="P261" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="T261" t="n">
         <v>20</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E262" t="n">
         <v>16</v>
@@ -21324,16 +21324,16 @@
         </is>
       </c>
       <c r="M262" t="n">
-        <v>540</v>
+        <v>80</v>
       </c>
       <c r="N262" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O262" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P262" t="n">
-        <v>12370</v>
+        <v>14000</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>618</v>
+        <v>700</v>
       </c>
       <c r="T262" t="n">
         <v>20</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E263" t="n">
         <v>16</v>
@@ -21404,16 +21404,16 @@
         </is>
       </c>
       <c r="M263" t="n">
-        <v>280</v>
+        <v>360</v>
       </c>
       <c r="N263" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O263" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P263" t="n">
-        <v>14536</v>
+        <v>15500</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>727</v>
+        <v>775</v>
       </c>
       <c r="T263" t="n">
         <v>20</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E264" t="n">
         <v>16</v>
@@ -21484,16 +21484,16 @@
         </is>
       </c>
       <c r="M264" t="n">
-        <v>80</v>
+        <v>540</v>
       </c>
       <c r="N264" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O264" t="n">
         <v>13000</v>
       </c>
       <c r="P264" t="n">
-        <v>13000</v>
+        <v>12370</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>650</v>
+        <v>618</v>
       </c>
       <c r="T264" t="n">
         <v>20</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E265" t="n">
         <v>16</v>
@@ -21564,7 +21564,7 @@
         </is>
       </c>
       <c r="M265" t="n">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="N265" t="n">
         <v>14000</v>
@@ -21573,7 +21573,7 @@
         <v>15000</v>
       </c>
       <c r="P265" t="n">
-        <v>14500</v>
+        <v>14536</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="T265" t="n">
         <v>20</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E266" t="n">
         <v>16</v>
@@ -21644,16 +21644,16 @@
         </is>
       </c>
       <c r="M266" t="n">
-        <v>660</v>
+        <v>80</v>
       </c>
       <c r="N266" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O266" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="P266" t="n">
-        <v>9273</v>
+        <v>13000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>464</v>
+        <v>650</v>
       </c>
       <c r="T266" t="n">
         <v>20</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E267" t="n">
         <v>16</v>
@@ -21724,16 +21724,16 @@
         </is>
       </c>
       <c r="M267" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N267" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O267" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P267" t="n">
-        <v>10667</v>
+        <v>14500</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>533</v>
+        <v>725</v>
       </c>
       <c r="T267" t="n">
         <v>20</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E268" t="n">
         <v>16</v>
@@ -21804,16 +21804,16 @@
         </is>
       </c>
       <c r="M268" t="n">
-        <v>160</v>
+        <v>660</v>
       </c>
       <c r="N268" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O268" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="P268" t="n">
-        <v>8250</v>
+        <v>9273</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>412</v>
+        <v>464</v>
       </c>
       <c r="T268" t="n">
         <v>20</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E269" t="n">
         <v>16</v>
@@ -21884,16 +21884,16 @@
         </is>
       </c>
       <c r="M269" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N269" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="O269" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P269" t="n">
-        <v>9750</v>
+        <v>10667</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>488</v>
+        <v>533</v>
       </c>
       <c r="T269" t="n">
         <v>20</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E270" t="n">
         <v>16</v>
@@ -21964,16 +21964,16 @@
         </is>
       </c>
       <c r="M270" t="n">
-        <v>570</v>
+        <v>160</v>
       </c>
       <c r="N270" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O270" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="P270" t="n">
-        <v>9000</v>
+        <v>8250</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>450</v>
+        <v>412</v>
       </c>
       <c r="T270" t="n">
         <v>20</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E271" t="n">
         <v>16</v>
@@ -22044,16 +22044,16 @@
         </is>
       </c>
       <c r="M271" t="n">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="N271" t="n">
+        <v>9500</v>
+      </c>
+      <c r="O271" t="n">
         <v>10000</v>
       </c>
-      <c r="O271" t="n">
-        <v>11000</v>
-      </c>
       <c r="P271" t="n">
-        <v>10394</v>
+        <v>9750</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>520</v>
+        <v>488</v>
       </c>
       <c r="T271" t="n">
         <v>20</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E272" t="n">
         <v>16</v>
@@ -22124,16 +22124,16 @@
         </is>
       </c>
       <c r="M272" t="n">
-        <v>80</v>
+        <v>570</v>
       </c>
       <c r="N272" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O272" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P272" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="T272" t="n">
         <v>20</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E273" t="n">
         <v>16</v>
@@ -22204,16 +22204,16 @@
         </is>
       </c>
       <c r="M273" t="n">
-        <v>240</v>
+        <v>330</v>
       </c>
       <c r="N273" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O273" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P273" t="n">
-        <v>17500</v>
+        <v>10394</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>875</v>
+        <v>520</v>
       </c>
       <c r="T273" t="n">
         <v>20</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E274" t="n">
         <v>16</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E275" t="n">
         <v>16</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E276" t="n">
         <v>16</v>
@@ -22447,13 +22447,13 @@
         <v>80</v>
       </c>
       <c r="N276" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O276" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P276" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="T276" t="n">
         <v>20</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E277" t="n">
         <v>16</v>
@@ -22524,16 +22524,16 @@
         </is>
       </c>
       <c r="M277" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N277" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O277" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P277" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T277" t="n">
         <v>20</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E278" t="n">
         <v>16</v>
@@ -22604,16 +22604,16 @@
         </is>
       </c>
       <c r="M278" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N278" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="O278" t="n">
-        <v>11800</v>
+        <v>11000</v>
       </c>
       <c r="P278" t="n">
-        <v>11650</v>
+        <v>11000</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>582</v>
+        <v>550</v>
       </c>
       <c r="T278" t="n">
         <v>20</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E279" t="n">
         <v>16</v>
@@ -22684,16 +22684,16 @@
         </is>
       </c>
       <c r="M279" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N279" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="O279" t="n">
         <v>13000</v>
       </c>
       <c r="P279" t="n">
-        <v>12750</v>
+        <v>12500</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="T279" t="n">
         <v>20</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E280" t="n">
         <v>16</v>
@@ -22764,16 +22764,16 @@
         </is>
       </c>
       <c r="M280" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N280" t="n">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="O280" t="n">
-        <v>12000</v>
+        <v>11800</v>
       </c>
       <c r="P280" t="n">
-        <v>12000</v>
+        <v>11650</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="T280" t="n">
         <v>20</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E281" t="n">
         <v>16</v>
@@ -22847,13 +22847,13 @@
         <v>240</v>
       </c>
       <c r="N281" t="n">
+        <v>12500</v>
+      </c>
+      <c r="O281" t="n">
         <v>13000</v>
       </c>
-      <c r="O281" t="n">
-        <v>14000</v>
-      </c>
       <c r="P281" t="n">
-        <v>13500</v>
+        <v>12750</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>675</v>
+        <v>638</v>
       </c>
       <c r="T281" t="n">
         <v>20</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E282" t="n">
         <v>16</v>
@@ -22924,16 +22924,16 @@
         </is>
       </c>
       <c r="M282" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N282" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O282" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P282" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="T282" t="n">
         <v>20</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E283" t="n">
         <v>16</v>
@@ -23007,13 +23007,13 @@
         <v>240</v>
       </c>
       <c r="N283" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O283" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P283" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="T283" t="n">
         <v>20</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E284" t="n">
         <v>16</v>
@@ -23080,20 +23080,20 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M284" t="n">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="N284" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="O284" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P284" t="n">
-        <v>14750</v>
+        <v>11000</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>738</v>
+        <v>550</v>
       </c>
       <c r="T284" t="n">
         <v>20</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E285" t="n">
         <v>16</v>
@@ -23160,20 +23160,20 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M285" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="N285" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O285" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P285" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="T285" t="n">
         <v>20</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E286" t="n">
         <v>16</v>
@@ -23247,13 +23247,13 @@
         <v>360</v>
       </c>
       <c r="N286" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="O286" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P286" t="n">
-        <v>12500</v>
+        <v>14750</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>625</v>
+        <v>738</v>
       </c>
       <c r="T286" t="n">
         <v>20</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E287" t="n">
         <v>16</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E288" t="n">
         <v>16</v>
@@ -23404,7 +23404,7 @@
         </is>
       </c>
       <c r="M288" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N288" t="n">
         <v>12000</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E289" t="n">
         <v>16</v>
@@ -23487,13 +23487,13 @@
         <v>80</v>
       </c>
       <c r="N289" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O289" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P289" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="T289" t="n">
         <v>20</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E290" t="n">
         <v>16</v>
@@ -23567,13 +23567,13 @@
         <v>240</v>
       </c>
       <c r="N290" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O290" t="n">
         <v>13000</v>
       </c>
-      <c r="O290" t="n">
-        <v>14000</v>
-      </c>
       <c r="P290" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="T290" t="n">
         <v>20</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E291" t="n">
         <v>16</v>
@@ -23644,7 +23644,7 @@
         </is>
       </c>
       <c r="M291" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N291" t="n">
         <v>12000</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E292" t="n">
         <v>16</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E293" t="n">
         <v>16</v>
@@ -23804,16 +23804,16 @@
         </is>
       </c>
       <c r="M293" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N293" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O293" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P293" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="T293" t="n">
         <v>20</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E294" t="n">
         <v>16</v>
@@ -23887,13 +23887,13 @@
         <v>240</v>
       </c>
       <c r="N294" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O294" t="n">
         <v>14000</v>
       </c>
-      <c r="O294" t="n">
-        <v>15000</v>
-      </c>
       <c r="P294" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="T294" t="n">
         <v>20</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E295" t="n">
         <v>16</v>
@@ -23964,16 +23964,16 @@
         </is>
       </c>
       <c r="M295" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N295" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O295" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P295" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="T295" t="n">
         <v>20</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E296" t="n">
         <v>16</v>
@@ -24047,13 +24047,13 @@
         <v>240</v>
       </c>
       <c r="N296" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O296" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P296" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="T296" t="n">
         <v>20</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E297" t="n">
         <v>16</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="M297" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="N297" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O297" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P297" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T297" t="n">
         <v>20</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E298" t="n">
         <v>16</v>
@@ -24204,16 +24204,16 @@
         </is>
       </c>
       <c r="M298" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N298" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="O298" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P298" t="n">
-        <v>14750</v>
+        <v>13500</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>738</v>
+        <v>675</v>
       </c>
       <c r="T298" t="n">
         <v>20</v>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E299" t="n">
         <v>16</v>
@@ -24280,11 +24280,11 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M299" t="n">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="N299" t="n">
         <v>14000</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E300" t="n">
         <v>16</v>
@@ -24364,16 +24364,16 @@
         </is>
       </c>
       <c r="M300" t="n">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="N300" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="O300" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P300" t="n">
-        <v>13000</v>
+        <v>14750</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>650</v>
+        <v>738</v>
       </c>
       <c r="T300" t="n">
         <v>20</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E301" t="n">
         <v>16</v>
@@ -24440,20 +24440,20 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M301" t="n">
         <v>120</v>
       </c>
       <c r="N301" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O301" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P301" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T301" t="n">
         <v>20</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E302" t="n">
         <v>16</v>
@@ -24524,16 +24524,16 @@
         </is>
       </c>
       <c r="M302" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N302" t="n">
         <v>13000</v>
       </c>
       <c r="O302" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P302" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="T302" t="n">
         <v>20</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E303" t="n">
         <v>16</v>
@@ -24604,16 +24604,16 @@
         </is>
       </c>
       <c r="M303" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N303" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O303" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P303" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="T303" t="n">
         <v>20</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E304" t="n">
         <v>16</v>
@@ -24684,16 +24684,16 @@
         </is>
       </c>
       <c r="M304" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="N304" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O304" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P304" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="T304" t="n">
         <v>20</v>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E305" t="n">
         <v>16</v>
@@ -24764,16 +24764,16 @@
         </is>
       </c>
       <c r="M305" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="N305" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O305" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P305" t="n">
-        <v>16500</v>
+        <v>11000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>825</v>
+        <v>550</v>
       </c>
       <c r="T305" t="n">
         <v>20</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E306" t="n">
         <v>16</v>
@@ -24844,16 +24844,16 @@
         </is>
       </c>
       <c r="M306" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N306" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O306" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P306" t="n">
-        <v>18500</v>
+        <v>12500</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>925</v>
+        <v>625</v>
       </c>
       <c r="T306" t="n">
         <v>20</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E307" t="n">
         <v>16</v>
@@ -24924,16 +24924,16 @@
         </is>
       </c>
       <c r="M307" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="N307" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O307" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P307" t="n">
-        <v>11000</v>
+        <v>16500</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>550</v>
+        <v>825</v>
       </c>
       <c r="T307" t="n">
         <v>20</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E308" t="n">
         <v>16</v>
@@ -25004,16 +25004,16 @@
         </is>
       </c>
       <c r="M308" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N308" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O308" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P308" t="n">
-        <v>12500</v>
+        <v>18500</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>625</v>
+        <v>925</v>
       </c>
       <c r="T308" t="n">
         <v>20</v>
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E309" t="n">
         <v>16</v>
@@ -25084,16 +25084,16 @@
         </is>
       </c>
       <c r="M309" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N309" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="O309" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P309" t="n">
-        <v>14750</v>
+        <v>11000</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>738</v>
+        <v>550</v>
       </c>
       <c r="T309" t="n">
         <v>20</v>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E310" t="n">
         <v>16</v>
@@ -25160,20 +25160,20 @@
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M310" t="n">
         <v>160</v>
       </c>
       <c r="N310" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O310" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P310" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="T310" t="n">
         <v>20</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E311" t="n">
         <v>16</v>
@@ -25240,20 +25240,20 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M311" t="n">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="N311" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="O311" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P311" t="n">
-        <v>13500</v>
+        <v>14750</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>675</v>
+        <v>738</v>
       </c>
       <c r="T311" t="n">
         <v>20</v>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E312" t="n">
         <v>16</v>
@@ -25324,16 +25324,16 @@
         </is>
       </c>
       <c r="M312" t="n">
-        <v>640</v>
+        <v>160</v>
       </c>
       <c r="N312" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O312" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P312" t="n">
-        <v>10469</v>
+        <v>11500</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>523</v>
+        <v>575</v>
       </c>
       <c r="T312" t="n">
         <v>20</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E313" t="n">
         <v>16</v>
@@ -25404,16 +25404,16 @@
         </is>
       </c>
       <c r="M313" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N313" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="O313" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P313" t="n">
-        <v>11750</v>
+        <v>13500</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>588</v>
+        <v>675</v>
       </c>
       <c r="T313" t="n">
         <v>20</v>
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E314" t="n">
         <v>16</v>
@@ -25484,16 +25484,16 @@
         </is>
       </c>
       <c r="M314" t="n">
-        <v>480</v>
+        <v>640</v>
       </c>
       <c r="N314" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O314" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P314" t="n">
-        <v>14417</v>
+        <v>10469</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>721</v>
+        <v>523</v>
       </c>
       <c r="T314" t="n">
         <v>20</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E315" t="n">
         <v>16</v>
@@ -25564,16 +25564,16 @@
         </is>
       </c>
       <c r="M315" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N315" t="n">
-        <v>15500</v>
+        <v>11500</v>
       </c>
       <c r="O315" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P315" t="n">
-        <v>15826</v>
+        <v>11750</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>791</v>
+        <v>588</v>
       </c>
       <c r="T315" t="n">
         <v>20</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E316" t="n">
         <v>16</v>
@@ -25644,16 +25644,16 @@
         </is>
       </c>
       <c r="M316" t="n">
-        <v>80</v>
+        <v>480</v>
       </c>
       <c r="N316" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O316" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P316" t="n">
-        <v>11000</v>
+        <v>14417</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>550</v>
+        <v>721</v>
       </c>
       <c r="T316" t="n">
         <v>20</v>
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E317" t="n">
         <v>16</v>
@@ -25724,16 +25724,16 @@
         </is>
       </c>
       <c r="M317" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="N317" t="n">
-        <v>12000</v>
+        <v>15500</v>
       </c>
       <c r="O317" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P317" t="n">
-        <v>12500</v>
+        <v>15826</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>625</v>
+        <v>791</v>
       </c>
       <c r="T317" t="n">
         <v>20</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E318" t="n">
         <v>16</v>
@@ -25804,16 +25804,16 @@
         </is>
       </c>
       <c r="M318" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N318" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O318" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P318" t="n">
-        <v>15500</v>
+        <v>11000</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>775</v>
+        <v>550</v>
       </c>
       <c r="T318" t="n">
         <v>20</v>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E319" t="n">
         <v>16</v>
@@ -25884,16 +25884,16 @@
         </is>
       </c>
       <c r="M319" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N319" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O319" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P319" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>850</v>
+        <v>625</v>
       </c>
       <c r="T319" t="n">
         <v>20</v>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E320" t="n">
         <v>16</v>
@@ -25964,16 +25964,16 @@
         </is>
       </c>
       <c r="M320" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="N320" t="n">
         <v>15000</v>
       </c>
       <c r="O320" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P320" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="T320" t="n">
         <v>20</v>
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E321" t="n">
         <v>16</v>
@@ -26044,16 +26044,16 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N321" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O321" t="n">
         <v>17000</v>
       </c>
       <c r="P321" t="n">
-        <v>16500</v>
+        <v>17000</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>825</v>
+        <v>850</v>
       </c>
       <c r="T321" t="n">
         <v>20</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E322" t="n">
         <v>16</v>
@@ -26124,16 +26124,16 @@
         </is>
       </c>
       <c r="M322" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N322" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="O322" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P322" t="n">
-        <v>12750</v>
+        <v>15000</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>638</v>
+        <v>750</v>
       </c>
       <c r="T322" t="n">
         <v>20</v>
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E323" t="n">
         <v>16</v>
@@ -26204,16 +26204,16 @@
         </is>
       </c>
       <c r="M323" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="N323" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O323" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P323" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="T323" t="n">
         <v>20</v>
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E324" t="n">
         <v>16</v>
@@ -26284,16 +26284,16 @@
         </is>
       </c>
       <c r="M324" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N324" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="O324" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P324" t="n">
-        <v>11750</v>
+        <v>12750</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>588</v>
+        <v>638</v>
       </c>
       <c r="T324" t="n">
         <v>20</v>
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E325" t="n">
         <v>16</v>
@@ -26364,16 +26364,16 @@
         </is>
       </c>
       <c r="M325" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="N325" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O325" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P325" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="T325" t="n">
         <v>20</v>
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E326" t="n">
         <v>16</v>
@@ -26444,16 +26444,16 @@
         </is>
       </c>
       <c r="M326" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N326" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="O326" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P326" t="n">
-        <v>13000</v>
+        <v>11750</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>650</v>
+        <v>588</v>
       </c>
       <c r="T326" t="n">
         <v>20</v>
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E327" t="n">
         <v>16</v>
@@ -26524,16 +26524,16 @@
         </is>
       </c>
       <c r="M327" t="n">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="N327" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O327" t="n">
         <v>14000</v>
       </c>
-      <c r="O327" t="n">
-        <v>15000</v>
-      </c>
       <c r="P327" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="T327" t="n">
         <v>20</v>
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E328" t="n">
         <v>16</v>
@@ -26604,16 +26604,16 @@
         </is>
       </c>
       <c r="M328" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N328" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O328" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P328" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="T328" t="n">
         <v>20</v>
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E329" t="n">
         <v>16</v>
@@ -26684,16 +26684,16 @@
         </is>
       </c>
       <c r="M329" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N329" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O329" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P329" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="T329" t="n">
         <v>20</v>
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E330" t="n">
         <v>16</v>
@@ -26764,16 +26764,16 @@
         </is>
       </c>
       <c r="M330" t="n">
-        <v>640</v>
+        <v>120</v>
       </c>
       <c r="N330" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O330" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P330" t="n">
-        <v>13688</v>
+        <v>9000</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>684</v>
+        <v>450</v>
       </c>
       <c r="T330" t="n">
         <v>20</v>
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E331" t="n">
         <v>16</v>
@@ -26844,16 +26844,16 @@
         </is>
       </c>
       <c r="M331" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="N331" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="O331" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P331" t="n">
-        <v>14714</v>
+        <v>10500</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>736</v>
+        <v>525</v>
       </c>
       <c r="T331" t="n">
         <v>20</v>
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E332" t="n">
         <v>16</v>
@@ -26920,20 +26920,20 @@
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M332" t="n">
-        <v>160</v>
+        <v>640</v>
       </c>
       <c r="N332" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O332" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P332" t="n">
-        <v>11500</v>
+        <v>13688</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>575</v>
+        <v>684</v>
       </c>
       <c r="T332" t="n">
         <v>20</v>
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E333" t="n">
         <v>16</v>
@@ -27000,20 +27000,20 @@
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M333" t="n">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="N333" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="O333" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P333" t="n">
-        <v>11000</v>
+        <v>14714</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>550</v>
+        <v>736</v>
       </c>
       <c r="T333" t="n">
         <v>20</v>
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E334" t="n">
         <v>16</v>
@@ -27084,16 +27084,16 @@
         </is>
       </c>
       <c r="M334" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N334" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O334" t="n">
         <v>12000</v>
       </c>
-      <c r="O334" t="n">
-        <v>13000</v>
-      </c>
       <c r="P334" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="T334" t="n">
         <v>20</v>
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E335" t="n">
         <v>16</v>
@@ -27160,20 +27160,20 @@
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M335" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N335" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O335" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P335" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>725</v>
+        <v>550</v>
       </c>
       <c r="T335" t="n">
         <v>20</v>
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E336" t="n">
         <v>16</v>
@@ -27240,20 +27240,20 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M336" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="N336" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O336" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P336" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="T336" t="n">
         <v>20</v>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E337" t="n">
         <v>16</v>
@@ -27324,16 +27324,16 @@
         </is>
       </c>
       <c r="M337" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N337" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O337" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P337" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="T337" t="n">
         <v>20</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E338" t="n">
         <v>16</v>
@@ -27404,16 +27404,16 @@
         </is>
       </c>
       <c r="M338" t="n">
-        <v>640</v>
+        <v>80</v>
       </c>
       <c r="N338" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O338" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P338" t="n">
-        <v>12469</v>
+        <v>11000</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>623</v>
+        <v>550</v>
       </c>
       <c r="T338" t="n">
         <v>20</v>
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E339" t="n">
         <v>16</v>
@@ -27484,16 +27484,16 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N339" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O339" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P339" t="n">
-        <v>14600</v>
+        <v>12500</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>730</v>
+        <v>625</v>
       </c>
       <c r="T339" t="n">
         <v>20</v>
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E340" t="n">
         <v>16</v>
@@ -27564,16 +27564,16 @@
         </is>
       </c>
       <c r="M340" t="n">
-        <v>100</v>
+        <v>640</v>
       </c>
       <c r="N340" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O340" t="n">
         <v>13000</v>
       </c>
       <c r="P340" t="n">
-        <v>13000</v>
+        <v>12469</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>650</v>
+        <v>623</v>
       </c>
       <c r="T340" t="n">
         <v>20</v>
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E341" t="n">
         <v>16</v>
@@ -27653,7 +27653,7 @@
         <v>15000</v>
       </c>
       <c r="P341" t="n">
-        <v>14500</v>
+        <v>14600</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="T341" t="n">
         <v>20</v>
@@ -27687,68 +27687,228 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E342" t="n">
+        <v>16</v>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G342" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I342" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>Pintón</t>
+        </is>
+      </c>
+      <c r="M342" t="n">
+        <v>100</v>
+      </c>
+      <c r="N342" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O342" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P342" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q342" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R342" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S342" t="n">
+        <v>650</v>
+      </c>
+      <c r="T342" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>7</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D343" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E343" t="n">
+        <v>16</v>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G343" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I343" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>Primera Pintón</t>
+        </is>
+      </c>
+      <c r="M343" t="n">
+        <v>300</v>
+      </c>
+      <c r="N343" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O343" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P343" t="n">
+        <v>14500</v>
+      </c>
+      <c r="Q343" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R343" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S343" t="n">
+        <v>725</v>
+      </c>
+      <c r="T343" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>7</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D344" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E342" t="n">
-        <v>16</v>
-      </c>
-      <c r="F342" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G342" t="n">
-        <v>100108</v>
-      </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>Tropicales y subtropicales</t>
-        </is>
-      </c>
-      <c r="I342" t="n">
-        <v>100108006</v>
-      </c>
-      <c r="J342" t="inlineStr">
-        <is>
-          <t>Plátano</t>
-        </is>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L342" t="inlineStr">
+      <c r="E344" t="n">
+        <v>16</v>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G344" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I344" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L344" t="inlineStr">
         <is>
           <t>Primera Pintón</t>
         </is>
       </c>
-      <c r="M342" t="n">
+      <c r="M344" t="n">
         <v>240</v>
       </c>
-      <c r="N342" t="n">
+      <c r="N344" t="n">
         <v>16000</v>
       </c>
-      <c r="O342" t="n">
+      <c r="O344" t="n">
         <v>17000</v>
       </c>
-      <c r="P342" t="n">
+      <c r="P344" t="n">
         <v>16500</v>
       </c>
-      <c r="Q342" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R342" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S342" t="n">
+      <c r="Q344" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R344" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S344" t="n">
         <v>825</v>
       </c>
-      <c r="T342" t="n">
+      <c r="T344" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T344"/>
+  <dimension ref="A1:T346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E226" t="n">
         <v>16</v>
@@ -18444,16 +18444,16 @@
         </is>
       </c>
       <c r="M226" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N226" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="O226" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P226" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="T226" t="n">
         <v>20</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E227" t="n">
         <v>16</v>
@@ -18524,16 +18524,16 @@
         </is>
       </c>
       <c r="M227" t="n">
-        <v>800</v>
+        <v>360</v>
       </c>
       <c r="N227" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O227" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P227" t="n">
-        <v>12500</v>
+        <v>18500</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>625</v>
+        <v>925</v>
       </c>
       <c r="T227" t="n">
         <v>20</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E228" t="n">
         <v>16</v>
@@ -18604,16 +18604,16 @@
         </is>
       </c>
       <c r="M228" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N228" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O228" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P228" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="T228" t="n">
         <v>20</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E229" t="n">
         <v>16</v>
@@ -18684,16 +18684,16 @@
         </is>
       </c>
       <c r="M229" t="n">
-        <v>240</v>
+        <v>800</v>
       </c>
       <c r="N229" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O229" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P229" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T229" t="n">
         <v>20</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E230" t="n">
         <v>16</v>
@@ -18764,16 +18764,16 @@
         </is>
       </c>
       <c r="M230" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N230" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O230" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="P230" t="n">
-        <v>12250</v>
+        <v>16000</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>612</v>
+        <v>800</v>
       </c>
       <c r="T230" t="n">
         <v>20</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E231" t="n">
         <v>16</v>
@@ -18844,16 +18844,16 @@
         </is>
       </c>
       <c r="M231" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="N231" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O231" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P231" t="n">
-        <v>13500</v>
+        <v>17500</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="T231" t="n">
         <v>20</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E232" t="n">
         <v>16</v>
@@ -18924,16 +18924,16 @@
         </is>
       </c>
       <c r="M232" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="N232" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="O232" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="P232" t="n">
-        <v>15375</v>
+        <v>12250</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>769</v>
+        <v>612</v>
       </c>
       <c r="T232" t="n">
         <v>20</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E233" t="n">
         <v>16</v>
@@ -19004,16 +19004,16 @@
         </is>
       </c>
       <c r="M233" t="n">
-        <v>380</v>
+        <v>600</v>
       </c>
       <c r="N233" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="O233" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P233" t="n">
-        <v>17526</v>
+        <v>13500</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>876</v>
+        <v>675</v>
       </c>
       <c r="T233" t="n">
         <v>20</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E234" t="n">
         <v>16</v>
@@ -19084,16 +19084,16 @@
         </is>
       </c>
       <c r="M234" t="n">
-        <v>80</v>
+        <v>480</v>
       </c>
       <c r="N234" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="O234" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P234" t="n">
-        <v>11000</v>
+        <v>15375</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>550</v>
+        <v>769</v>
       </c>
       <c r="T234" t="n">
         <v>20</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E235" t="n">
         <v>16</v>
@@ -19164,16 +19164,16 @@
         </is>
       </c>
       <c r="M235" t="n">
-        <v>240</v>
+        <v>380</v>
       </c>
       <c r="N235" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O235" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P235" t="n">
-        <v>12500</v>
+        <v>17526</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>625</v>
+        <v>876</v>
       </c>
       <c r="T235" t="n">
         <v>20</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E236" t="n">
         <v>16</v>
@@ -19244,16 +19244,16 @@
         </is>
       </c>
       <c r="M236" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="N236" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="O236" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P236" t="n">
-        <v>9750</v>
+        <v>11000</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>488</v>
+        <v>550</v>
       </c>
       <c r="T236" t="n">
         <v>20</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E237" t="n">
         <v>16</v>
@@ -19324,16 +19324,16 @@
         </is>
       </c>
       <c r="M237" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N237" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O237" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P237" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="T237" t="n">
         <v>20</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E238" t="n">
         <v>16</v>
@@ -19404,16 +19404,16 @@
         </is>
       </c>
       <c r="M238" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="N238" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="O238" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P238" t="n">
-        <v>14000</v>
+        <v>9750</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>700</v>
+        <v>488</v>
       </c>
       <c r="T238" t="n">
         <v>20</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E239" t="n">
         <v>16</v>
@@ -19487,13 +19487,13 @@
         <v>360</v>
       </c>
       <c r="N239" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O239" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P239" t="n">
-        <v>15500</v>
+        <v>11500</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="T239" t="n">
         <v>20</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E240" t="n">
         <v>16</v>
@@ -19567,13 +19567,13 @@
         <v>80</v>
       </c>
       <c r="N240" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O240" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P240" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="T240" t="n">
         <v>20</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E241" t="n">
         <v>16</v>
@@ -19644,16 +19644,16 @@
         </is>
       </c>
       <c r="M241" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="N241" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O241" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P241" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>625</v>
+        <v>775</v>
       </c>
       <c r="T241" t="n">
         <v>20</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E242" t="n">
         <v>16</v>
@@ -19724,16 +19724,16 @@
         </is>
       </c>
       <c r="M242" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N242" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O242" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P242" t="n">
-        <v>15500</v>
+        <v>11000</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>775</v>
+        <v>550</v>
       </c>
       <c r="T242" t="n">
         <v>20</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E243" t="n">
         <v>16</v>
@@ -19800,20 +19800,20 @@
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M243" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="N243" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O243" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P243" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="T243" t="n">
         <v>20</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E244" t="n">
         <v>16</v>
@@ -19880,20 +19880,20 @@
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M244" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="N244" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O244" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P244" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>625</v>
+        <v>775</v>
       </c>
       <c r="T244" t="n">
         <v>20</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E245" t="n">
         <v>16</v>
@@ -19964,16 +19964,16 @@
         </is>
       </c>
       <c r="M245" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N245" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O245" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P245" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="T245" t="n">
         <v>20</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E246" t="n">
         <v>16</v>
@@ -20044,16 +20044,16 @@
         </is>
       </c>
       <c r="M246" t="n">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="N246" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O246" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P246" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T246" t="n">
         <v>20</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E247" t="n">
         <v>16</v>
@@ -20124,16 +20124,16 @@
         </is>
       </c>
       <c r="M247" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N247" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O247" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P247" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="T247" t="n">
         <v>20</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E248" t="n">
         <v>16</v>
@@ -20204,16 +20204,16 @@
         </is>
       </c>
       <c r="M248" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N248" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O248" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P248" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>725</v>
+        <v>875</v>
       </c>
       <c r="T248" t="n">
         <v>20</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E249" t="n">
         <v>16</v>
@@ -20284,16 +20284,16 @@
         </is>
       </c>
       <c r="M249" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="N249" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O249" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P249" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="T249" t="n">
         <v>20</v>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E250" t="n">
         <v>16</v>
@@ -20367,13 +20367,13 @@
         <v>360</v>
       </c>
       <c r="N250" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O250" t="n">
         <v>15000</v>
       </c>
-      <c r="O250" t="n">
-        <v>16000</v>
-      </c>
       <c r="P250" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="T250" t="n">
         <v>20</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E251" t="n">
         <v>16</v>
@@ -20440,20 +20440,20 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M251" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="N251" t="n">
         <v>14000</v>
       </c>
       <c r="O251" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P251" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>725</v>
+        <v>700</v>
       </c>
       <c r="T251" t="n">
         <v>20</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44312</v>
+        <v>44260</v>
       </c>
       <c r="E252" t="n">
         <v>16</v>
@@ -20520,20 +20520,20 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M252" t="n">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="N252" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O252" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P252" t="n">
-        <v>11000</v>
+        <v>15500</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>550</v>
+        <v>775</v>
       </c>
       <c r="T252" t="n">
         <v>20</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E253" t="n">
         <v>16</v>
@@ -20604,16 +20604,16 @@
         </is>
       </c>
       <c r="M253" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N253" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O253" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P253" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="T253" t="n">
         <v>20</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E254" t="n">
         <v>16</v>
@@ -20684,16 +20684,16 @@
         </is>
       </c>
       <c r="M254" t="n">
-        <v>640</v>
+        <v>120</v>
       </c>
       <c r="N254" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="O254" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P254" t="n">
-        <v>9734</v>
+        <v>11000</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>487</v>
+        <v>550</v>
       </c>
       <c r="T254" t="n">
         <v>20</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E255" t="n">
         <v>16</v>
@@ -20764,16 +20764,16 @@
         </is>
       </c>
       <c r="M255" t="n">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="N255" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O255" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P255" t="n">
-        <v>11469</v>
+        <v>12500</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>573</v>
+        <v>625</v>
       </c>
       <c r="T255" t="n">
         <v>20</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E256" t="n">
         <v>16</v>
@@ -20844,16 +20844,16 @@
         </is>
       </c>
       <c r="M256" t="n">
-        <v>80</v>
+        <v>640</v>
       </c>
       <c r="N256" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="O256" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P256" t="n">
-        <v>11000</v>
+        <v>9734</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>550</v>
+        <v>487</v>
       </c>
       <c r="T256" t="n">
         <v>20</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E257" t="n">
         <v>16</v>
@@ -20924,16 +20924,16 @@
         </is>
       </c>
       <c r="M257" t="n">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="N257" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O257" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P257" t="n">
-        <v>13500</v>
+        <v>11469</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>675</v>
+        <v>573</v>
       </c>
       <c r="T257" t="n">
         <v>20</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E258" t="n">
         <v>16</v>
@@ -21004,16 +21004,16 @@
         </is>
       </c>
       <c r="M258" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N258" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O258" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P258" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="T258" t="n">
         <v>20</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E259" t="n">
         <v>16</v>
@@ -21087,13 +21087,13 @@
         <v>240</v>
       </c>
       <c r="N259" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O259" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P259" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="T259" t="n">
         <v>20</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E260" t="n">
         <v>16</v>
@@ -21164,16 +21164,16 @@
         </is>
       </c>
       <c r="M260" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N260" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O260" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P260" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="T260" t="n">
         <v>20</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E261" t="n">
         <v>16</v>
@@ -21244,16 +21244,16 @@
         </is>
       </c>
       <c r="M261" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N261" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O261" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P261" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="T261" t="n">
         <v>20</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E262" t="n">
         <v>16</v>
@@ -21327,13 +21327,13 @@
         <v>80</v>
       </c>
       <c r="N262" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O262" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P262" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="T262" t="n">
         <v>20</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E263" t="n">
         <v>16</v>
@@ -21404,16 +21404,16 @@
         </is>
       </c>
       <c r="M263" t="n">
-        <v>360</v>
+        <v>160</v>
       </c>
       <c r="N263" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O263" t="n">
         <v>15000</v>
       </c>
-      <c r="O263" t="n">
-        <v>16000</v>
-      </c>
       <c r="P263" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="T263" t="n">
         <v>20</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E264" t="n">
         <v>16</v>
@@ -21484,16 +21484,16 @@
         </is>
       </c>
       <c r="M264" t="n">
-        <v>540</v>
+        <v>80</v>
       </c>
       <c r="N264" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O264" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P264" t="n">
-        <v>12370</v>
+        <v>14000</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>618</v>
+        <v>700</v>
       </c>
       <c r="T264" t="n">
         <v>20</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E265" t="n">
         <v>16</v>
@@ -21564,16 +21564,16 @@
         </is>
       </c>
       <c r="M265" t="n">
-        <v>280</v>
+        <v>360</v>
       </c>
       <c r="N265" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O265" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P265" t="n">
-        <v>14536</v>
+        <v>15500</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>727</v>
+        <v>775</v>
       </c>
       <c r="T265" t="n">
         <v>20</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E266" t="n">
         <v>16</v>
@@ -21644,16 +21644,16 @@
         </is>
       </c>
       <c r="M266" t="n">
-        <v>80</v>
+        <v>540</v>
       </c>
       <c r="N266" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O266" t="n">
         <v>13000</v>
       </c>
       <c r="P266" t="n">
-        <v>13000</v>
+        <v>12370</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>650</v>
+        <v>618</v>
       </c>
       <c r="T266" t="n">
         <v>20</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E267" t="n">
         <v>16</v>
@@ -21724,7 +21724,7 @@
         </is>
       </c>
       <c r="M267" t="n">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="N267" t="n">
         <v>14000</v>
@@ -21733,7 +21733,7 @@
         <v>15000</v>
       </c>
       <c r="P267" t="n">
-        <v>14500</v>
+        <v>14536</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="T267" t="n">
         <v>20</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E268" t="n">
         <v>16</v>
@@ -21804,16 +21804,16 @@
         </is>
       </c>
       <c r="M268" t="n">
-        <v>660</v>
+        <v>80</v>
       </c>
       <c r="N268" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O268" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="P268" t="n">
-        <v>9273</v>
+        <v>13000</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>464</v>
+        <v>650</v>
       </c>
       <c r="T268" t="n">
         <v>20</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E269" t="n">
         <v>16</v>
@@ -21884,16 +21884,16 @@
         </is>
       </c>
       <c r="M269" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N269" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O269" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P269" t="n">
-        <v>10667</v>
+        <v>14500</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>533</v>
+        <v>725</v>
       </c>
       <c r="T269" t="n">
         <v>20</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E270" t="n">
         <v>16</v>
@@ -21964,16 +21964,16 @@
         </is>
       </c>
       <c r="M270" t="n">
-        <v>160</v>
+        <v>660</v>
       </c>
       <c r="N270" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O270" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="P270" t="n">
-        <v>8250</v>
+        <v>9273</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>412</v>
+        <v>464</v>
       </c>
       <c r="T270" t="n">
         <v>20</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E271" t="n">
         <v>16</v>
@@ -22044,16 +22044,16 @@
         </is>
       </c>
       <c r="M271" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N271" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="O271" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P271" t="n">
-        <v>9750</v>
+        <v>10667</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>488</v>
+        <v>533</v>
       </c>
       <c r="T271" t="n">
         <v>20</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E272" t="n">
         <v>16</v>
@@ -22124,16 +22124,16 @@
         </is>
       </c>
       <c r="M272" t="n">
-        <v>570</v>
+        <v>160</v>
       </c>
       <c r="N272" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O272" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="P272" t="n">
-        <v>9000</v>
+        <v>8250</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>450</v>
+        <v>412</v>
       </c>
       <c r="T272" t="n">
         <v>20</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E273" t="n">
         <v>16</v>
@@ -22204,16 +22204,16 @@
         </is>
       </c>
       <c r="M273" t="n">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="N273" t="n">
+        <v>9500</v>
+      </c>
+      <c r="O273" t="n">
         <v>10000</v>
       </c>
-      <c r="O273" t="n">
-        <v>11000</v>
-      </c>
       <c r="P273" t="n">
-        <v>10394</v>
+        <v>9750</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>520</v>
+        <v>488</v>
       </c>
       <c r="T273" t="n">
         <v>20</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E274" t="n">
         <v>16</v>
@@ -22284,16 +22284,16 @@
         </is>
       </c>
       <c r="M274" t="n">
-        <v>80</v>
+        <v>570</v>
       </c>
       <c r="N274" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O274" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P274" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="T274" t="n">
         <v>20</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E275" t="n">
         <v>16</v>
@@ -22364,16 +22364,16 @@
         </is>
       </c>
       <c r="M275" t="n">
-        <v>240</v>
+        <v>330</v>
       </c>
       <c r="N275" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O275" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P275" t="n">
-        <v>17500</v>
+        <v>10394</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>875</v>
+        <v>520</v>
       </c>
       <c r="T275" t="n">
         <v>20</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E276" t="n">
         <v>16</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E277" t="n">
         <v>16</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E278" t="n">
         <v>16</v>
@@ -22607,13 +22607,13 @@
         <v>80</v>
       </c>
       <c r="N278" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O278" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P278" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="T278" t="n">
         <v>20</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E279" t="n">
         <v>16</v>
@@ -22684,16 +22684,16 @@
         </is>
       </c>
       <c r="M279" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N279" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O279" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P279" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T279" t="n">
         <v>20</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E280" t="n">
         <v>16</v>
@@ -22764,16 +22764,16 @@
         </is>
       </c>
       <c r="M280" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N280" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="O280" t="n">
-        <v>11800</v>
+        <v>11000</v>
       </c>
       <c r="P280" t="n">
-        <v>11650</v>
+        <v>11000</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>582</v>
+        <v>550</v>
       </c>
       <c r="T280" t="n">
         <v>20</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E281" t="n">
         <v>16</v>
@@ -22844,16 +22844,16 @@
         </is>
       </c>
       <c r="M281" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N281" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="O281" t="n">
         <v>13000</v>
       </c>
       <c r="P281" t="n">
-        <v>12750</v>
+        <v>12500</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="T281" t="n">
         <v>20</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E282" t="n">
         <v>16</v>
@@ -22924,16 +22924,16 @@
         </is>
       </c>
       <c r="M282" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N282" t="n">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="O282" t="n">
-        <v>12000</v>
+        <v>11800</v>
       </c>
       <c r="P282" t="n">
-        <v>12000</v>
+        <v>11650</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="T282" t="n">
         <v>20</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E283" t="n">
         <v>16</v>
@@ -23007,13 +23007,13 @@
         <v>240</v>
       </c>
       <c r="N283" t="n">
+        <v>12500</v>
+      </c>
+      <c r="O283" t="n">
         <v>13000</v>
       </c>
-      <c r="O283" t="n">
-        <v>14000</v>
-      </c>
       <c r="P283" t="n">
-        <v>13500</v>
+        <v>12750</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>675</v>
+        <v>638</v>
       </c>
       <c r="T283" t="n">
         <v>20</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E284" t="n">
         <v>16</v>
@@ -23084,16 +23084,16 @@
         </is>
       </c>
       <c r="M284" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N284" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O284" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P284" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="T284" t="n">
         <v>20</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E285" t="n">
         <v>16</v>
@@ -23167,13 +23167,13 @@
         <v>240</v>
       </c>
       <c r="N285" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O285" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P285" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="T285" t="n">
         <v>20</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E286" t="n">
         <v>16</v>
@@ -23240,20 +23240,20 @@
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M286" t="n">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="N286" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="O286" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P286" t="n">
-        <v>14750</v>
+        <v>11000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>738</v>
+        <v>550</v>
       </c>
       <c r="T286" t="n">
         <v>20</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E287" t="n">
         <v>16</v>
@@ -23320,20 +23320,20 @@
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M287" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="N287" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O287" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P287" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="T287" t="n">
         <v>20</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E288" t="n">
         <v>16</v>
@@ -23407,13 +23407,13 @@
         <v>360</v>
       </c>
       <c r="N288" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="O288" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P288" t="n">
-        <v>12500</v>
+        <v>14750</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>625</v>
+        <v>738</v>
       </c>
       <c r="T288" t="n">
         <v>20</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E289" t="n">
         <v>16</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E290" t="n">
         <v>16</v>
@@ -23564,7 +23564,7 @@
         </is>
       </c>
       <c r="M290" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N290" t="n">
         <v>12000</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E291" t="n">
         <v>16</v>
@@ -23647,13 +23647,13 @@
         <v>80</v>
       </c>
       <c r="N291" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O291" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P291" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="T291" t="n">
         <v>20</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E292" t="n">
         <v>16</v>
@@ -23727,13 +23727,13 @@
         <v>240</v>
       </c>
       <c r="N292" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O292" t="n">
         <v>13000</v>
       </c>
-      <c r="O292" t="n">
-        <v>14000</v>
-      </c>
       <c r="P292" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="T292" t="n">
         <v>20</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E293" t="n">
         <v>16</v>
@@ -23804,7 +23804,7 @@
         </is>
       </c>
       <c r="M293" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N293" t="n">
         <v>12000</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E294" t="n">
         <v>16</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E295" t="n">
         <v>16</v>
@@ -23964,16 +23964,16 @@
         </is>
       </c>
       <c r="M295" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N295" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O295" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P295" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="T295" t="n">
         <v>20</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E296" t="n">
         <v>16</v>
@@ -24047,13 +24047,13 @@
         <v>240</v>
       </c>
       <c r="N296" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O296" t="n">
         <v>14000</v>
       </c>
-      <c r="O296" t="n">
-        <v>15000</v>
-      </c>
       <c r="P296" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="T296" t="n">
         <v>20</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E297" t="n">
         <v>16</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="M297" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N297" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O297" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P297" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="T297" t="n">
         <v>20</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E298" t="n">
         <v>16</v>
@@ -24207,13 +24207,13 @@
         <v>240</v>
       </c>
       <c r="N298" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O298" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P298" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="T298" t="n">
         <v>20</v>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E299" t="n">
         <v>16</v>
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="M299" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="N299" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O299" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P299" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T299" t="n">
         <v>20</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E300" t="n">
         <v>16</v>
@@ -24364,16 +24364,16 @@
         </is>
       </c>
       <c r="M300" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N300" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="O300" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P300" t="n">
-        <v>14750</v>
+        <v>13500</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>738</v>
+        <v>675</v>
       </c>
       <c r="T300" t="n">
         <v>20</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E301" t="n">
         <v>16</v>
@@ -24440,11 +24440,11 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M301" t="n">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="N301" t="n">
         <v>14000</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E302" t="n">
         <v>16</v>
@@ -24524,16 +24524,16 @@
         </is>
       </c>
       <c r="M302" t="n">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="N302" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="O302" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P302" t="n">
-        <v>13000</v>
+        <v>14750</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>650</v>
+        <v>738</v>
       </c>
       <c r="T302" t="n">
         <v>20</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E303" t="n">
         <v>16</v>
@@ -24600,20 +24600,20 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M303" t="n">
         <v>120</v>
       </c>
       <c r="N303" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O303" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P303" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T303" t="n">
         <v>20</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E304" t="n">
         <v>16</v>
@@ -24684,16 +24684,16 @@
         </is>
       </c>
       <c r="M304" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N304" t="n">
         <v>13000</v>
       </c>
       <c r="O304" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P304" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="T304" t="n">
         <v>20</v>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E305" t="n">
         <v>16</v>
@@ -24764,16 +24764,16 @@
         </is>
       </c>
       <c r="M305" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N305" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O305" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P305" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="T305" t="n">
         <v>20</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E306" t="n">
         <v>16</v>
@@ -24844,16 +24844,16 @@
         </is>
       </c>
       <c r="M306" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="N306" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O306" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P306" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="T306" t="n">
         <v>20</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E307" t="n">
         <v>16</v>
@@ -24924,16 +24924,16 @@
         </is>
       </c>
       <c r="M307" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="N307" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O307" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P307" t="n">
-        <v>16500</v>
+        <v>11000</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>825</v>
+        <v>550</v>
       </c>
       <c r="T307" t="n">
         <v>20</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E308" t="n">
         <v>16</v>
@@ -25004,16 +25004,16 @@
         </is>
       </c>
       <c r="M308" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N308" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O308" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P308" t="n">
-        <v>18500</v>
+        <v>12500</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>925</v>
+        <v>625</v>
       </c>
       <c r="T308" t="n">
         <v>20</v>
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E309" t="n">
         <v>16</v>
@@ -25084,16 +25084,16 @@
         </is>
       </c>
       <c r="M309" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="N309" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O309" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P309" t="n">
-        <v>11000</v>
+        <v>16500</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>550</v>
+        <v>825</v>
       </c>
       <c r="T309" t="n">
         <v>20</v>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E310" t="n">
         <v>16</v>
@@ -25164,16 +25164,16 @@
         </is>
       </c>
       <c r="M310" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N310" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O310" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P310" t="n">
-        <v>12500</v>
+        <v>18500</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>625</v>
+        <v>925</v>
       </c>
       <c r="T310" t="n">
         <v>20</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E311" t="n">
         <v>16</v>
@@ -25244,16 +25244,16 @@
         </is>
       </c>
       <c r="M311" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N311" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="O311" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P311" t="n">
-        <v>14750</v>
+        <v>11000</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>738</v>
+        <v>550</v>
       </c>
       <c r="T311" t="n">
         <v>20</v>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E312" t="n">
         <v>16</v>
@@ -25320,20 +25320,20 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M312" t="n">
         <v>160</v>
       </c>
       <c r="N312" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O312" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P312" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="T312" t="n">
         <v>20</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E313" t="n">
         <v>16</v>
@@ -25400,20 +25400,20 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M313" t="n">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="N313" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="O313" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P313" t="n">
-        <v>13500</v>
+        <v>14750</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>675</v>
+        <v>738</v>
       </c>
       <c r="T313" t="n">
         <v>20</v>
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E314" t="n">
         <v>16</v>
@@ -25484,16 +25484,16 @@
         </is>
       </c>
       <c r="M314" t="n">
-        <v>640</v>
+        <v>160</v>
       </c>
       <c r="N314" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O314" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P314" t="n">
-        <v>10469</v>
+        <v>11500</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>523</v>
+        <v>575</v>
       </c>
       <c r="T314" t="n">
         <v>20</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E315" t="n">
         <v>16</v>
@@ -25564,16 +25564,16 @@
         </is>
       </c>
       <c r="M315" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N315" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="O315" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P315" t="n">
-        <v>11750</v>
+        <v>13500</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>588</v>
+        <v>675</v>
       </c>
       <c r="T315" t="n">
         <v>20</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E316" t="n">
         <v>16</v>
@@ -25644,16 +25644,16 @@
         </is>
       </c>
       <c r="M316" t="n">
-        <v>480</v>
+        <v>640</v>
       </c>
       <c r="N316" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O316" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P316" t="n">
-        <v>14417</v>
+        <v>10469</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>721</v>
+        <v>523</v>
       </c>
       <c r="T316" t="n">
         <v>20</v>
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E317" t="n">
         <v>16</v>
@@ -25724,16 +25724,16 @@
         </is>
       </c>
       <c r="M317" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N317" t="n">
-        <v>15500</v>
+        <v>11500</v>
       </c>
       <c r="O317" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P317" t="n">
-        <v>15826</v>
+        <v>11750</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>791</v>
+        <v>588</v>
       </c>
       <c r="T317" t="n">
         <v>20</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E318" t="n">
         <v>16</v>
@@ -25804,16 +25804,16 @@
         </is>
       </c>
       <c r="M318" t="n">
-        <v>80</v>
+        <v>480</v>
       </c>
       <c r="N318" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O318" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P318" t="n">
-        <v>11000</v>
+        <v>14417</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>550</v>
+        <v>721</v>
       </c>
       <c r="T318" t="n">
         <v>20</v>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E319" t="n">
         <v>16</v>
@@ -25884,16 +25884,16 @@
         </is>
       </c>
       <c r="M319" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="N319" t="n">
-        <v>12000</v>
+        <v>15500</v>
       </c>
       <c r="O319" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P319" t="n">
-        <v>12500</v>
+        <v>15826</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>625</v>
+        <v>791</v>
       </c>
       <c r="T319" t="n">
         <v>20</v>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E320" t="n">
         <v>16</v>
@@ -25964,16 +25964,16 @@
         </is>
       </c>
       <c r="M320" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N320" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O320" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P320" t="n">
-        <v>15500</v>
+        <v>11000</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>775</v>
+        <v>550</v>
       </c>
       <c r="T320" t="n">
         <v>20</v>
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E321" t="n">
         <v>16</v>
@@ -26044,16 +26044,16 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N321" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O321" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P321" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>850</v>
+        <v>625</v>
       </c>
       <c r="T321" t="n">
         <v>20</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E322" t="n">
         <v>16</v>
@@ -26124,16 +26124,16 @@
         </is>
       </c>
       <c r="M322" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="N322" t="n">
         <v>15000</v>
       </c>
       <c r="O322" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P322" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="T322" t="n">
         <v>20</v>
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E323" t="n">
         <v>16</v>
@@ -26204,16 +26204,16 @@
         </is>
       </c>
       <c r="M323" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N323" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O323" t="n">
         <v>17000</v>
       </c>
       <c r="P323" t="n">
-        <v>16500</v>
+        <v>17000</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>825</v>
+        <v>850</v>
       </c>
       <c r="T323" t="n">
         <v>20</v>
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E324" t="n">
         <v>16</v>
@@ -26284,16 +26284,16 @@
         </is>
       </c>
       <c r="M324" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N324" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="O324" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P324" t="n">
-        <v>12750</v>
+        <v>15000</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>638</v>
+        <v>750</v>
       </c>
       <c r="T324" t="n">
         <v>20</v>
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E325" t="n">
         <v>16</v>
@@ -26364,16 +26364,16 @@
         </is>
       </c>
       <c r="M325" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="N325" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O325" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P325" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="T325" t="n">
         <v>20</v>
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E326" t="n">
         <v>16</v>
@@ -26444,16 +26444,16 @@
         </is>
       </c>
       <c r="M326" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N326" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="O326" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P326" t="n">
-        <v>11750</v>
+        <v>12750</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>588</v>
+        <v>638</v>
       </c>
       <c r="T326" t="n">
         <v>20</v>
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E327" t="n">
         <v>16</v>
@@ -26524,16 +26524,16 @@
         </is>
       </c>
       <c r="M327" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="N327" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O327" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P327" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="T327" t="n">
         <v>20</v>
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E328" t="n">
         <v>16</v>
@@ -26604,16 +26604,16 @@
         </is>
       </c>
       <c r="M328" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N328" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="O328" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P328" t="n">
-        <v>13000</v>
+        <v>11750</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>650</v>
+        <v>588</v>
       </c>
       <c r="T328" t="n">
         <v>20</v>
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E329" t="n">
         <v>16</v>
@@ -26684,16 +26684,16 @@
         </is>
       </c>
       <c r="M329" t="n">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="N329" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O329" t="n">
         <v>14000</v>
       </c>
-      <c r="O329" t="n">
-        <v>15000</v>
-      </c>
       <c r="P329" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="T329" t="n">
         <v>20</v>
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E330" t="n">
         <v>16</v>
@@ -26764,16 +26764,16 @@
         </is>
       </c>
       <c r="M330" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N330" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O330" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P330" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="T330" t="n">
         <v>20</v>
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E331" t="n">
         <v>16</v>
@@ -26844,16 +26844,16 @@
         </is>
       </c>
       <c r="M331" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N331" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O331" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P331" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="T331" t="n">
         <v>20</v>
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E332" t="n">
         <v>16</v>
@@ -26924,16 +26924,16 @@
         </is>
       </c>
       <c r="M332" t="n">
-        <v>640</v>
+        <v>120</v>
       </c>
       <c r="N332" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O332" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P332" t="n">
-        <v>13688</v>
+        <v>9000</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>684</v>
+        <v>450</v>
       </c>
       <c r="T332" t="n">
         <v>20</v>
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E333" t="n">
         <v>16</v>
@@ -27004,16 +27004,16 @@
         </is>
       </c>
       <c r="M333" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="N333" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="O333" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P333" t="n">
-        <v>14714</v>
+        <v>10500</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>736</v>
+        <v>525</v>
       </c>
       <c r="T333" t="n">
         <v>20</v>
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E334" t="n">
         <v>16</v>
@@ -27080,20 +27080,20 @@
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M334" t="n">
-        <v>160</v>
+        <v>640</v>
       </c>
       <c r="N334" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O334" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P334" t="n">
-        <v>11500</v>
+        <v>13688</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>575</v>
+        <v>684</v>
       </c>
       <c r="T334" t="n">
         <v>20</v>
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E335" t="n">
         <v>16</v>
@@ -27160,20 +27160,20 @@
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M335" t="n">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="N335" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="O335" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P335" t="n">
-        <v>11000</v>
+        <v>14714</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>550</v>
+        <v>736</v>
       </c>
       <c r="T335" t="n">
         <v>20</v>
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E336" t="n">
         <v>16</v>
@@ -27244,16 +27244,16 @@
         </is>
       </c>
       <c r="M336" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N336" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O336" t="n">
         <v>12000</v>
       </c>
-      <c r="O336" t="n">
-        <v>13000</v>
-      </c>
       <c r="P336" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="T336" t="n">
         <v>20</v>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E337" t="n">
         <v>16</v>
@@ -27320,20 +27320,20 @@
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M337" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N337" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O337" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P337" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>725</v>
+        <v>550</v>
       </c>
       <c r="T337" t="n">
         <v>20</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E338" t="n">
         <v>16</v>
@@ -27400,20 +27400,20 @@
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M338" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="N338" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O338" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P338" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="T338" t="n">
         <v>20</v>
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E339" t="n">
         <v>16</v>
@@ -27484,16 +27484,16 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N339" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O339" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P339" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="T339" t="n">
         <v>20</v>
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E340" t="n">
         <v>16</v>
@@ -27564,16 +27564,16 @@
         </is>
       </c>
       <c r="M340" t="n">
-        <v>640</v>
+        <v>80</v>
       </c>
       <c r="N340" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O340" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P340" t="n">
-        <v>12469</v>
+        <v>11000</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>623</v>
+        <v>550</v>
       </c>
       <c r="T340" t="n">
         <v>20</v>
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E341" t="n">
         <v>16</v>
@@ -27644,16 +27644,16 @@
         </is>
       </c>
       <c r="M341" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N341" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O341" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P341" t="n">
-        <v>14600</v>
+        <v>12500</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>730</v>
+        <v>625</v>
       </c>
       <c r="T341" t="n">
         <v>20</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E342" t="n">
         <v>16</v>
@@ -27724,16 +27724,16 @@
         </is>
       </c>
       <c r="M342" t="n">
-        <v>100</v>
+        <v>640</v>
       </c>
       <c r="N342" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O342" t="n">
         <v>13000</v>
       </c>
       <c r="P342" t="n">
-        <v>13000</v>
+        <v>12469</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>650</v>
+        <v>623</v>
       </c>
       <c r="T342" t="n">
         <v>20</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E343" t="n">
         <v>16</v>
@@ -27813,7 +27813,7 @@
         <v>15000</v>
       </c>
       <c r="P343" t="n">
-        <v>14500</v>
+        <v>14600</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="T343" t="n">
         <v>20</v>
@@ -27847,68 +27847,228 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E344" t="n">
+        <v>16</v>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G344" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I344" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>Pintón</t>
+        </is>
+      </c>
+      <c r="M344" t="n">
+        <v>100</v>
+      </c>
+      <c r="N344" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O344" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P344" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q344" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R344" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S344" t="n">
+        <v>650</v>
+      </c>
+      <c r="T344" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>7</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D345" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E345" t="n">
+        <v>16</v>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G345" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I345" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>Primera Pintón</t>
+        </is>
+      </c>
+      <c r="M345" t="n">
+        <v>300</v>
+      </c>
+      <c r="N345" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O345" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P345" t="n">
+        <v>14500</v>
+      </c>
+      <c r="Q345" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R345" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S345" t="n">
+        <v>725</v>
+      </c>
+      <c r="T345" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>7</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D346" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E344" t="n">
-        <v>16</v>
-      </c>
-      <c r="F344" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G344" t="n">
-        <v>100108</v>
-      </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>Tropicales y subtropicales</t>
-        </is>
-      </c>
-      <c r="I344" t="n">
-        <v>100108006</v>
-      </c>
-      <c r="J344" t="inlineStr">
-        <is>
-          <t>Plátano</t>
-        </is>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L344" t="inlineStr">
+      <c r="E346" t="n">
+        <v>16</v>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G346" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I346" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J346" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L346" t="inlineStr">
         <is>
           <t>Primera Pintón</t>
         </is>
       </c>
-      <c r="M344" t="n">
+      <c r="M346" t="n">
         <v>240</v>
       </c>
-      <c r="N344" t="n">
+      <c r="N346" t="n">
         <v>16000</v>
       </c>
-      <c r="O344" t="n">
+      <c r="O346" t="n">
         <v>17000</v>
       </c>
-      <c r="P344" t="n">
+      <c r="P346" t="n">
         <v>16500</v>
       </c>
-      <c r="Q344" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R344" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S344" t="n">
+      <c r="Q346" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R346" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S346" t="n">
         <v>825</v>
       </c>
-      <c r="T344" t="n">
+      <c r="T346" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T346"/>
+  <dimension ref="A1:T348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E320" t="n">
         <v>16</v>
@@ -25964,16 +25964,16 @@
         </is>
       </c>
       <c r="M320" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N320" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O320" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P320" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="T320" t="n">
         <v>20</v>
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E321" t="n">
         <v>16</v>
@@ -26044,16 +26044,16 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N321" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O321" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P321" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T321" t="n">
         <v>20</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E322" t="n">
         <v>16</v>
@@ -26124,16 +26124,16 @@
         </is>
       </c>
       <c r="M322" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N322" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O322" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P322" t="n">
-        <v>15500</v>
+        <v>11000</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>775</v>
+        <v>550</v>
       </c>
       <c r="T322" t="n">
         <v>20</v>
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E323" t="n">
         <v>16</v>
@@ -26204,16 +26204,16 @@
         </is>
       </c>
       <c r="M323" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N323" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O323" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P323" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>850</v>
+        <v>625</v>
       </c>
       <c r="T323" t="n">
         <v>20</v>
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E324" t="n">
         <v>16</v>
@@ -26284,16 +26284,16 @@
         </is>
       </c>
       <c r="M324" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="N324" t="n">
         <v>15000</v>
       </c>
       <c r="O324" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P324" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="T324" t="n">
         <v>20</v>
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E325" t="n">
         <v>16</v>
@@ -26364,16 +26364,16 @@
         </is>
       </c>
       <c r="M325" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N325" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O325" t="n">
         <v>17000</v>
       </c>
       <c r="P325" t="n">
-        <v>16500</v>
+        <v>17000</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>825</v>
+        <v>850</v>
       </c>
       <c r="T325" t="n">
         <v>20</v>
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E326" t="n">
         <v>16</v>
@@ -26444,16 +26444,16 @@
         </is>
       </c>
       <c r="M326" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N326" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="O326" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P326" t="n">
-        <v>12750</v>
+        <v>15000</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>638</v>
+        <v>750</v>
       </c>
       <c r="T326" t="n">
         <v>20</v>
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E327" t="n">
         <v>16</v>
@@ -26524,16 +26524,16 @@
         </is>
       </c>
       <c r="M327" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="N327" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O327" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P327" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="T327" t="n">
         <v>20</v>
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E328" t="n">
         <v>16</v>
@@ -26604,16 +26604,16 @@
         </is>
       </c>
       <c r="M328" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N328" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="O328" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P328" t="n">
-        <v>11750</v>
+        <v>12750</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>588</v>
+        <v>638</v>
       </c>
       <c r="T328" t="n">
         <v>20</v>
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E329" t="n">
         <v>16</v>
@@ -26684,16 +26684,16 @@
         </is>
       </c>
       <c r="M329" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="N329" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O329" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P329" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="T329" t="n">
         <v>20</v>
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E330" t="n">
         <v>16</v>
@@ -26764,16 +26764,16 @@
         </is>
       </c>
       <c r="M330" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N330" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="O330" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P330" t="n">
-        <v>13000</v>
+        <v>11750</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>650</v>
+        <v>588</v>
       </c>
       <c r="T330" t="n">
         <v>20</v>
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E331" t="n">
         <v>16</v>
@@ -26844,16 +26844,16 @@
         </is>
       </c>
       <c r="M331" t="n">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="N331" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O331" t="n">
         <v>14000</v>
       </c>
-      <c r="O331" t="n">
-        <v>15000</v>
-      </c>
       <c r="P331" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="T331" t="n">
         <v>20</v>
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E332" t="n">
         <v>16</v>
@@ -26924,16 +26924,16 @@
         </is>
       </c>
       <c r="M332" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N332" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O332" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P332" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="T332" t="n">
         <v>20</v>
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E333" t="n">
         <v>16</v>
@@ -27004,16 +27004,16 @@
         </is>
       </c>
       <c r="M333" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N333" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O333" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P333" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="T333" t="n">
         <v>20</v>
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E334" t="n">
         <v>16</v>
@@ -27084,16 +27084,16 @@
         </is>
       </c>
       <c r="M334" t="n">
-        <v>640</v>
+        <v>120</v>
       </c>
       <c r="N334" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O334" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P334" t="n">
-        <v>13688</v>
+        <v>9000</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>684</v>
+        <v>450</v>
       </c>
       <c r="T334" t="n">
         <v>20</v>
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E335" t="n">
         <v>16</v>
@@ -27164,16 +27164,16 @@
         </is>
       </c>
       <c r="M335" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="N335" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="O335" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P335" t="n">
-        <v>14714</v>
+        <v>10500</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>736</v>
+        <v>525</v>
       </c>
       <c r="T335" t="n">
         <v>20</v>
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E336" t="n">
         <v>16</v>
@@ -27240,20 +27240,20 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M336" t="n">
-        <v>160</v>
+        <v>640</v>
       </c>
       <c r="N336" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O336" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P336" t="n">
-        <v>11500</v>
+        <v>13688</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>575</v>
+        <v>684</v>
       </c>
       <c r="T336" t="n">
         <v>20</v>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E337" t="n">
         <v>16</v>
@@ -27320,20 +27320,20 @@
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M337" t="n">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="N337" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="O337" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P337" t="n">
-        <v>11000</v>
+        <v>14714</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>550</v>
+        <v>736</v>
       </c>
       <c r="T337" t="n">
         <v>20</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E338" t="n">
         <v>16</v>
@@ -27404,16 +27404,16 @@
         </is>
       </c>
       <c r="M338" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N338" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O338" t="n">
         <v>12000</v>
       </c>
-      <c r="O338" t="n">
-        <v>13000</v>
-      </c>
       <c r="P338" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="T338" t="n">
         <v>20</v>
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E339" t="n">
         <v>16</v>
@@ -27480,20 +27480,20 @@
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M339" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N339" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O339" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P339" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>725</v>
+        <v>550</v>
       </c>
       <c r="T339" t="n">
         <v>20</v>
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E340" t="n">
         <v>16</v>
@@ -27560,20 +27560,20 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M340" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="N340" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O340" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P340" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="T340" t="n">
         <v>20</v>
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E341" t="n">
         <v>16</v>
@@ -27644,16 +27644,16 @@
         </is>
       </c>
       <c r="M341" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N341" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O341" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P341" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="T341" t="n">
         <v>20</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E342" t="n">
         <v>16</v>
@@ -27724,16 +27724,16 @@
         </is>
       </c>
       <c r="M342" t="n">
-        <v>640</v>
+        <v>80</v>
       </c>
       <c r="N342" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O342" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P342" t="n">
-        <v>12469</v>
+        <v>11000</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>623</v>
+        <v>550</v>
       </c>
       <c r="T342" t="n">
         <v>20</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E343" t="n">
         <v>16</v>
@@ -27804,16 +27804,16 @@
         </is>
       </c>
       <c r="M343" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N343" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O343" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P343" t="n">
-        <v>14600</v>
+        <v>12500</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>730</v>
+        <v>625</v>
       </c>
       <c r="T343" t="n">
         <v>20</v>
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E344" t="n">
         <v>16</v>
@@ -27884,16 +27884,16 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>100</v>
+        <v>640</v>
       </c>
       <c r="N344" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O344" t="n">
         <v>13000</v>
       </c>
       <c r="P344" t="n">
-        <v>13000</v>
+        <v>12469</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>650</v>
+        <v>623</v>
       </c>
       <c r="T344" t="n">
         <v>20</v>
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E345" t="n">
         <v>16</v>
@@ -27973,7 +27973,7 @@
         <v>15000</v>
       </c>
       <c r="P345" t="n">
-        <v>14500</v>
+        <v>14600</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="T345" t="n">
         <v>20</v>
@@ -28007,68 +28007,228 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E346" t="n">
+        <v>16</v>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G346" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I346" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J346" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>Pintón</t>
+        </is>
+      </c>
+      <c r="M346" t="n">
+        <v>100</v>
+      </c>
+      <c r="N346" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O346" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P346" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q346" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R346" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S346" t="n">
+        <v>650</v>
+      </c>
+      <c r="T346" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>7</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D347" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E347" t="n">
+        <v>16</v>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G347" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I347" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J347" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>Primera Pintón</t>
+        </is>
+      </c>
+      <c r="M347" t="n">
+        <v>300</v>
+      </c>
+      <c r="N347" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O347" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P347" t="n">
+        <v>14500</v>
+      </c>
+      <c r="Q347" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R347" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S347" t="n">
+        <v>725</v>
+      </c>
+      <c r="T347" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>7</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D348" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E346" t="n">
-        <v>16</v>
-      </c>
-      <c r="F346" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G346" t="n">
-        <v>100108</v>
-      </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>Tropicales y subtropicales</t>
-        </is>
-      </c>
-      <c r="I346" t="n">
-        <v>100108006</v>
-      </c>
-      <c r="J346" t="inlineStr">
-        <is>
-          <t>Plátano</t>
-        </is>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L346" t="inlineStr">
+      <c r="E348" t="n">
+        <v>16</v>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G348" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I348" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J348" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L348" t="inlineStr">
         <is>
           <t>Primera Pintón</t>
         </is>
       </c>
-      <c r="M346" t="n">
+      <c r="M348" t="n">
         <v>240</v>
       </c>
-      <c r="N346" t="n">
+      <c r="N348" t="n">
         <v>16000</v>
       </c>
-      <c r="O346" t="n">
+      <c r="O348" t="n">
         <v>17000</v>
       </c>
-      <c r="P346" t="n">
+      <c r="P348" t="n">
         <v>16500</v>
       </c>
-      <c r="Q346" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R346" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S346" t="n">
+      <c r="Q348" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R348" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S348" t="n">
         <v>825</v>
       </c>
-      <c r="T346" t="n">
+      <c r="T348" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T348"/>
+  <dimension ref="A1:T350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E266" t="n">
         <v>16</v>
@@ -21644,16 +21644,16 @@
         </is>
       </c>
       <c r="M266" t="n">
-        <v>540</v>
+        <v>150</v>
       </c>
       <c r="N266" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O266" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P266" t="n">
-        <v>12370</v>
+        <v>14000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>618</v>
+        <v>700</v>
       </c>
       <c r="T266" t="n">
         <v>20</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E267" t="n">
         <v>16</v>
@@ -21724,16 +21724,16 @@
         </is>
       </c>
       <c r="M267" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="N267" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O267" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P267" t="n">
-        <v>14536</v>
+        <v>15500</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>727</v>
+        <v>775</v>
       </c>
       <c r="T267" t="n">
         <v>20</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E268" t="n">
         <v>16</v>
@@ -21804,16 +21804,16 @@
         </is>
       </c>
       <c r="M268" t="n">
-        <v>80</v>
+        <v>540</v>
       </c>
       <c r="N268" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O268" t="n">
         <v>13000</v>
       </c>
       <c r="P268" t="n">
-        <v>13000</v>
+        <v>12370</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>650</v>
+        <v>618</v>
       </c>
       <c r="T268" t="n">
         <v>20</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E269" t="n">
         <v>16</v>
@@ -21884,7 +21884,7 @@
         </is>
       </c>
       <c r="M269" t="n">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="N269" t="n">
         <v>14000</v>
@@ -21893,7 +21893,7 @@
         <v>15000</v>
       </c>
       <c r="P269" t="n">
-        <v>14500</v>
+        <v>14536</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="T269" t="n">
         <v>20</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E270" t="n">
         <v>16</v>
@@ -21964,16 +21964,16 @@
         </is>
       </c>
       <c r="M270" t="n">
-        <v>660</v>
+        <v>80</v>
       </c>
       <c r="N270" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O270" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="P270" t="n">
-        <v>9273</v>
+        <v>13000</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>464</v>
+        <v>650</v>
       </c>
       <c r="T270" t="n">
         <v>20</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E271" t="n">
         <v>16</v>
@@ -22044,16 +22044,16 @@
         </is>
       </c>
       <c r="M271" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N271" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O271" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P271" t="n">
-        <v>10667</v>
+        <v>14500</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>533</v>
+        <v>725</v>
       </c>
       <c r="T271" t="n">
         <v>20</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E272" t="n">
         <v>16</v>
@@ -22124,16 +22124,16 @@
         </is>
       </c>
       <c r="M272" t="n">
-        <v>160</v>
+        <v>660</v>
       </c>
       <c r="N272" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O272" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="P272" t="n">
-        <v>8250</v>
+        <v>9273</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>412</v>
+        <v>464</v>
       </c>
       <c r="T272" t="n">
         <v>20</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E273" t="n">
         <v>16</v>
@@ -22204,16 +22204,16 @@
         </is>
       </c>
       <c r="M273" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N273" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="O273" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P273" t="n">
-        <v>9750</v>
+        <v>10667</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>488</v>
+        <v>533</v>
       </c>
       <c r="T273" t="n">
         <v>20</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E274" t="n">
         <v>16</v>
@@ -22284,16 +22284,16 @@
         </is>
       </c>
       <c r="M274" t="n">
-        <v>570</v>
+        <v>160</v>
       </c>
       <c r="N274" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O274" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="P274" t="n">
-        <v>9000</v>
+        <v>8250</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>450</v>
+        <v>412</v>
       </c>
       <c r="T274" t="n">
         <v>20</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E275" t="n">
         <v>16</v>
@@ -22364,16 +22364,16 @@
         </is>
       </c>
       <c r="M275" t="n">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="N275" t="n">
+        <v>9500</v>
+      </c>
+      <c r="O275" t="n">
         <v>10000</v>
       </c>
-      <c r="O275" t="n">
-        <v>11000</v>
-      </c>
       <c r="P275" t="n">
-        <v>10394</v>
+        <v>9750</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>520</v>
+        <v>488</v>
       </c>
       <c r="T275" t="n">
         <v>20</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E276" t="n">
         <v>16</v>
@@ -22444,16 +22444,16 @@
         </is>
       </c>
       <c r="M276" t="n">
-        <v>80</v>
+        <v>570</v>
       </c>
       <c r="N276" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O276" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P276" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="T276" t="n">
         <v>20</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E277" t="n">
         <v>16</v>
@@ -22524,16 +22524,16 @@
         </is>
       </c>
       <c r="M277" t="n">
-        <v>240</v>
+        <v>330</v>
       </c>
       <c r="N277" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O277" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P277" t="n">
-        <v>17500</v>
+        <v>10394</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>875</v>
+        <v>520</v>
       </c>
       <c r="T277" t="n">
         <v>20</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E278" t="n">
         <v>16</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E279" t="n">
         <v>16</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E280" t="n">
         <v>16</v>
@@ -22767,13 +22767,13 @@
         <v>80</v>
       </c>
       <c r="N280" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O280" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P280" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="T280" t="n">
         <v>20</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E281" t="n">
         <v>16</v>
@@ -22844,16 +22844,16 @@
         </is>
       </c>
       <c r="M281" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N281" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O281" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P281" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T281" t="n">
         <v>20</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E282" t="n">
         <v>16</v>
@@ -22924,16 +22924,16 @@
         </is>
       </c>
       <c r="M282" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N282" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="O282" t="n">
-        <v>11800</v>
+        <v>11000</v>
       </c>
       <c r="P282" t="n">
-        <v>11650</v>
+        <v>11000</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>582</v>
+        <v>550</v>
       </c>
       <c r="T282" t="n">
         <v>20</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E283" t="n">
         <v>16</v>
@@ -23004,16 +23004,16 @@
         </is>
       </c>
       <c r="M283" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N283" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="O283" t="n">
         <v>13000</v>
       </c>
       <c r="P283" t="n">
-        <v>12750</v>
+        <v>12500</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="T283" t="n">
         <v>20</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E284" t="n">
         <v>16</v>
@@ -23084,16 +23084,16 @@
         </is>
       </c>
       <c r="M284" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N284" t="n">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="O284" t="n">
-        <v>12000</v>
+        <v>11800</v>
       </c>
       <c r="P284" t="n">
-        <v>12000</v>
+        <v>11650</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="T284" t="n">
         <v>20</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E285" t="n">
         <v>16</v>
@@ -23167,13 +23167,13 @@
         <v>240</v>
       </c>
       <c r="N285" t="n">
+        <v>12500</v>
+      </c>
+      <c r="O285" t="n">
         <v>13000</v>
       </c>
-      <c r="O285" t="n">
-        <v>14000</v>
-      </c>
       <c r="P285" t="n">
-        <v>13500</v>
+        <v>12750</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>675</v>
+        <v>638</v>
       </c>
       <c r="T285" t="n">
         <v>20</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E286" t="n">
         <v>16</v>
@@ -23244,16 +23244,16 @@
         </is>
       </c>
       <c r="M286" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N286" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O286" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P286" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="T286" t="n">
         <v>20</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E287" t="n">
         <v>16</v>
@@ -23327,13 +23327,13 @@
         <v>240</v>
       </c>
       <c r="N287" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O287" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P287" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="T287" t="n">
         <v>20</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E288" t="n">
         <v>16</v>
@@ -23400,20 +23400,20 @@
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M288" t="n">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="N288" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="O288" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P288" t="n">
-        <v>14750</v>
+        <v>11000</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>738</v>
+        <v>550</v>
       </c>
       <c r="T288" t="n">
         <v>20</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E289" t="n">
         <v>16</v>
@@ -23480,20 +23480,20 @@
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M289" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="N289" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O289" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P289" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="T289" t="n">
         <v>20</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E290" t="n">
         <v>16</v>
@@ -23567,13 +23567,13 @@
         <v>360</v>
       </c>
       <c r="N290" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="O290" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P290" t="n">
-        <v>12500</v>
+        <v>14750</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>625</v>
+        <v>738</v>
       </c>
       <c r="T290" t="n">
         <v>20</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E291" t="n">
         <v>16</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E292" t="n">
         <v>16</v>
@@ -23724,7 +23724,7 @@
         </is>
       </c>
       <c r="M292" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N292" t="n">
         <v>12000</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E293" t="n">
         <v>16</v>
@@ -23807,13 +23807,13 @@
         <v>80</v>
       </c>
       <c r="N293" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O293" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P293" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="T293" t="n">
         <v>20</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E294" t="n">
         <v>16</v>
@@ -23887,13 +23887,13 @@
         <v>240</v>
       </c>
       <c r="N294" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O294" t="n">
         <v>13000</v>
       </c>
-      <c r="O294" t="n">
-        <v>14000</v>
-      </c>
       <c r="P294" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="T294" t="n">
         <v>20</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E295" t="n">
         <v>16</v>
@@ -23964,7 +23964,7 @@
         </is>
       </c>
       <c r="M295" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N295" t="n">
         <v>12000</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E296" t="n">
         <v>16</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E297" t="n">
         <v>16</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="M297" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N297" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O297" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P297" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="T297" t="n">
         <v>20</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E298" t="n">
         <v>16</v>
@@ -24207,13 +24207,13 @@
         <v>240</v>
       </c>
       <c r="N298" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O298" t="n">
         <v>14000</v>
       </c>
-      <c r="O298" t="n">
-        <v>15000</v>
-      </c>
       <c r="P298" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="T298" t="n">
         <v>20</v>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E299" t="n">
         <v>16</v>
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="M299" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N299" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O299" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P299" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="T299" t="n">
         <v>20</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E300" t="n">
         <v>16</v>
@@ -24367,13 +24367,13 @@
         <v>240</v>
       </c>
       <c r="N300" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O300" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P300" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="T300" t="n">
         <v>20</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E301" t="n">
         <v>16</v>
@@ -24444,16 +24444,16 @@
         </is>
       </c>
       <c r="M301" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="N301" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O301" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P301" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T301" t="n">
         <v>20</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E302" t="n">
         <v>16</v>
@@ -24524,16 +24524,16 @@
         </is>
       </c>
       <c r="M302" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N302" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="O302" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P302" t="n">
-        <v>14750</v>
+        <v>13500</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>738</v>
+        <v>675</v>
       </c>
       <c r="T302" t="n">
         <v>20</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E303" t="n">
         <v>16</v>
@@ -24600,11 +24600,11 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M303" t="n">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="N303" t="n">
         <v>14000</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E304" t="n">
         <v>16</v>
@@ -24684,16 +24684,16 @@
         </is>
       </c>
       <c r="M304" t="n">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="N304" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="O304" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P304" t="n">
-        <v>13000</v>
+        <v>14750</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>650</v>
+        <v>738</v>
       </c>
       <c r="T304" t="n">
         <v>20</v>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E305" t="n">
         <v>16</v>
@@ -24760,20 +24760,20 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M305" t="n">
         <v>120</v>
       </c>
       <c r="N305" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O305" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P305" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T305" t="n">
         <v>20</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E306" t="n">
         <v>16</v>
@@ -24844,16 +24844,16 @@
         </is>
       </c>
       <c r="M306" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N306" t="n">
         <v>13000</v>
       </c>
       <c r="O306" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P306" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="T306" t="n">
         <v>20</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E307" t="n">
         <v>16</v>
@@ -24924,16 +24924,16 @@
         </is>
       </c>
       <c r="M307" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N307" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O307" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P307" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="T307" t="n">
         <v>20</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E308" t="n">
         <v>16</v>
@@ -25004,16 +25004,16 @@
         </is>
       </c>
       <c r="M308" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="N308" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O308" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P308" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="T308" t="n">
         <v>20</v>
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E309" t="n">
         <v>16</v>
@@ -25084,16 +25084,16 @@
         </is>
       </c>
       <c r="M309" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="N309" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O309" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P309" t="n">
-        <v>16500</v>
+        <v>11000</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>825</v>
+        <v>550</v>
       </c>
       <c r="T309" t="n">
         <v>20</v>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E310" t="n">
         <v>16</v>
@@ -25164,16 +25164,16 @@
         </is>
       </c>
       <c r="M310" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N310" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O310" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P310" t="n">
-        <v>18500</v>
+        <v>12500</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>925</v>
+        <v>625</v>
       </c>
       <c r="T310" t="n">
         <v>20</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E311" t="n">
         <v>16</v>
@@ -25244,16 +25244,16 @@
         </is>
       </c>
       <c r="M311" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="N311" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O311" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P311" t="n">
-        <v>11000</v>
+        <v>16500</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>550</v>
+        <v>825</v>
       </c>
       <c r="T311" t="n">
         <v>20</v>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E312" t="n">
         <v>16</v>
@@ -25324,16 +25324,16 @@
         </is>
       </c>
       <c r="M312" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N312" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O312" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P312" t="n">
-        <v>12500</v>
+        <v>18500</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>625</v>
+        <v>925</v>
       </c>
       <c r="T312" t="n">
         <v>20</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E313" t="n">
         <v>16</v>
@@ -25404,16 +25404,16 @@
         </is>
       </c>
       <c r="M313" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N313" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="O313" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P313" t="n">
-        <v>14750</v>
+        <v>11000</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>738</v>
+        <v>550</v>
       </c>
       <c r="T313" t="n">
         <v>20</v>
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E314" t="n">
         <v>16</v>
@@ -25480,20 +25480,20 @@
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M314" t="n">
         <v>160</v>
       </c>
       <c r="N314" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O314" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P314" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="T314" t="n">
         <v>20</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E315" t="n">
         <v>16</v>
@@ -25560,20 +25560,20 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M315" t="n">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="N315" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="O315" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P315" t="n">
-        <v>13500</v>
+        <v>14750</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>675</v>
+        <v>738</v>
       </c>
       <c r="T315" t="n">
         <v>20</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E316" t="n">
         <v>16</v>
@@ -25644,16 +25644,16 @@
         </is>
       </c>
       <c r="M316" t="n">
-        <v>640</v>
+        <v>160</v>
       </c>
       <c r="N316" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O316" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P316" t="n">
-        <v>10469</v>
+        <v>11500</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>523</v>
+        <v>575</v>
       </c>
       <c r="T316" t="n">
         <v>20</v>
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E317" t="n">
         <v>16</v>
@@ -25724,16 +25724,16 @@
         </is>
       </c>
       <c r="M317" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N317" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="O317" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P317" t="n">
-        <v>11750</v>
+        <v>13500</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>588</v>
+        <v>675</v>
       </c>
       <c r="T317" t="n">
         <v>20</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E318" t="n">
         <v>16</v>
@@ -25804,16 +25804,16 @@
         </is>
       </c>
       <c r="M318" t="n">
-        <v>480</v>
+        <v>640</v>
       </c>
       <c r="N318" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O318" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P318" t="n">
-        <v>14417</v>
+        <v>10469</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>721</v>
+        <v>523</v>
       </c>
       <c r="T318" t="n">
         <v>20</v>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E319" t="n">
         <v>16</v>
@@ -25884,16 +25884,16 @@
         </is>
       </c>
       <c r="M319" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N319" t="n">
-        <v>15500</v>
+        <v>11500</v>
       </c>
       <c r="O319" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P319" t="n">
-        <v>15826</v>
+        <v>11750</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>791</v>
+        <v>588</v>
       </c>
       <c r="T319" t="n">
         <v>20</v>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E320" t="n">
         <v>16</v>
@@ -25964,16 +25964,16 @@
         </is>
       </c>
       <c r="M320" t="n">
-        <v>150</v>
+        <v>480</v>
       </c>
       <c r="N320" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O320" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P320" t="n">
-        <v>16000</v>
+        <v>14417</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>800</v>
+        <v>721</v>
       </c>
       <c r="T320" t="n">
         <v>20</v>
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E321" t="n">
         <v>16</v>
@@ -26044,16 +26044,16 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N321" t="n">
-        <v>17000</v>
+        <v>15500</v>
       </c>
       <c r="O321" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P321" t="n">
-        <v>17500</v>
+        <v>15826</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>875</v>
+        <v>791</v>
       </c>
       <c r="T321" t="n">
         <v>20</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E322" t="n">
         <v>16</v>
@@ -26124,16 +26124,16 @@
         </is>
       </c>
       <c r="M322" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N322" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O322" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P322" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="T322" t="n">
         <v>20</v>
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E323" t="n">
         <v>16</v>
@@ -26204,16 +26204,16 @@
         </is>
       </c>
       <c r="M323" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N323" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O323" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P323" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T323" t="n">
         <v>20</v>
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E324" t="n">
         <v>16</v>
@@ -26284,16 +26284,16 @@
         </is>
       </c>
       <c r="M324" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N324" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O324" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P324" t="n">
-        <v>15500</v>
+        <v>11000</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>775</v>
+        <v>550</v>
       </c>
       <c r="T324" t="n">
         <v>20</v>
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E325" t="n">
         <v>16</v>
@@ -26364,16 +26364,16 @@
         </is>
       </c>
       <c r="M325" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N325" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O325" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P325" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>850</v>
+        <v>625</v>
       </c>
       <c r="T325" t="n">
         <v>20</v>
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E326" t="n">
         <v>16</v>
@@ -26444,16 +26444,16 @@
         </is>
       </c>
       <c r="M326" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="N326" t="n">
         <v>15000</v>
       </c>
       <c r="O326" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P326" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="T326" t="n">
         <v>20</v>
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E327" t="n">
         <v>16</v>
@@ -26524,16 +26524,16 @@
         </is>
       </c>
       <c r="M327" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N327" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O327" t="n">
         <v>17000</v>
       </c>
       <c r="P327" t="n">
-        <v>16500</v>
+        <v>17000</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>825</v>
+        <v>850</v>
       </c>
       <c r="T327" t="n">
         <v>20</v>
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E328" t="n">
         <v>16</v>
@@ -26604,16 +26604,16 @@
         </is>
       </c>
       <c r="M328" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N328" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="O328" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P328" t="n">
-        <v>12750</v>
+        <v>15000</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>638</v>
+        <v>750</v>
       </c>
       <c r="T328" t="n">
         <v>20</v>
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E329" t="n">
         <v>16</v>
@@ -26684,16 +26684,16 @@
         </is>
       </c>
       <c r="M329" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="N329" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O329" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P329" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="T329" t="n">
         <v>20</v>
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E330" t="n">
         <v>16</v>
@@ -26764,16 +26764,16 @@
         </is>
       </c>
       <c r="M330" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N330" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="O330" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P330" t="n">
-        <v>11750</v>
+        <v>12750</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>588</v>
+        <v>638</v>
       </c>
       <c r="T330" t="n">
         <v>20</v>
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E331" t="n">
         <v>16</v>
@@ -26844,16 +26844,16 @@
         </is>
       </c>
       <c r="M331" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="N331" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O331" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P331" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="T331" t="n">
         <v>20</v>
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E332" t="n">
         <v>16</v>
@@ -26924,16 +26924,16 @@
         </is>
       </c>
       <c r="M332" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N332" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="O332" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P332" t="n">
-        <v>13000</v>
+        <v>11750</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>650</v>
+        <v>588</v>
       </c>
       <c r="T332" t="n">
         <v>20</v>
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E333" t="n">
         <v>16</v>
@@ -27004,16 +27004,16 @@
         </is>
       </c>
       <c r="M333" t="n">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="N333" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O333" t="n">
         <v>14000</v>
       </c>
-      <c r="O333" t="n">
-        <v>15000</v>
-      </c>
       <c r="P333" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="T333" t="n">
         <v>20</v>
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E334" t="n">
         <v>16</v>
@@ -27084,16 +27084,16 @@
         </is>
       </c>
       <c r="M334" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N334" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O334" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P334" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="T334" t="n">
         <v>20</v>
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E335" t="n">
         <v>16</v>
@@ -27164,16 +27164,16 @@
         </is>
       </c>
       <c r="M335" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N335" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O335" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P335" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="T335" t="n">
         <v>20</v>
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E336" t="n">
         <v>16</v>
@@ -27244,16 +27244,16 @@
         </is>
       </c>
       <c r="M336" t="n">
-        <v>640</v>
+        <v>120</v>
       </c>
       <c r="N336" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O336" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P336" t="n">
-        <v>13688</v>
+        <v>9000</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>684</v>
+        <v>450</v>
       </c>
       <c r="T336" t="n">
         <v>20</v>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E337" t="n">
         <v>16</v>
@@ -27324,16 +27324,16 @@
         </is>
       </c>
       <c r="M337" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="N337" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="O337" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P337" t="n">
-        <v>14714</v>
+        <v>10500</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>736</v>
+        <v>525</v>
       </c>
       <c r="T337" t="n">
         <v>20</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E338" t="n">
         <v>16</v>
@@ -27400,20 +27400,20 @@
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M338" t="n">
-        <v>160</v>
+        <v>640</v>
       </c>
       <c r="N338" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O338" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P338" t="n">
-        <v>11500</v>
+        <v>13688</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>575</v>
+        <v>684</v>
       </c>
       <c r="T338" t="n">
         <v>20</v>
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E339" t="n">
         <v>16</v>
@@ -27480,20 +27480,20 @@
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M339" t="n">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="N339" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="O339" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P339" t="n">
-        <v>11000</v>
+        <v>14714</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>550</v>
+        <v>736</v>
       </c>
       <c r="T339" t="n">
         <v>20</v>
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E340" t="n">
         <v>16</v>
@@ -27564,16 +27564,16 @@
         </is>
       </c>
       <c r="M340" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N340" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O340" t="n">
         <v>12000</v>
       </c>
-      <c r="O340" t="n">
-        <v>13000</v>
-      </c>
       <c r="P340" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="T340" t="n">
         <v>20</v>
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E341" t="n">
         <v>16</v>
@@ -27640,20 +27640,20 @@
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M341" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N341" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O341" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P341" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>725</v>
+        <v>550</v>
       </c>
       <c r="T341" t="n">
         <v>20</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E342" t="n">
         <v>16</v>
@@ -27720,20 +27720,20 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M342" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="N342" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O342" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P342" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="T342" t="n">
         <v>20</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E343" t="n">
         <v>16</v>
@@ -27804,16 +27804,16 @@
         </is>
       </c>
       <c r="M343" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N343" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O343" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P343" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="T343" t="n">
         <v>20</v>
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E344" t="n">
         <v>16</v>
@@ -27884,16 +27884,16 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>640</v>
+        <v>80</v>
       </c>
       <c r="N344" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O344" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P344" t="n">
-        <v>12469</v>
+        <v>11000</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>623</v>
+        <v>550</v>
       </c>
       <c r="T344" t="n">
         <v>20</v>
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E345" t="n">
         <v>16</v>
@@ -27964,16 +27964,16 @@
         </is>
       </c>
       <c r="M345" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N345" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O345" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P345" t="n">
-        <v>14600</v>
+        <v>12500</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>730</v>
+        <v>625</v>
       </c>
       <c r="T345" t="n">
         <v>20</v>
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E346" t="n">
         <v>16</v>
@@ -28044,16 +28044,16 @@
         </is>
       </c>
       <c r="M346" t="n">
-        <v>100</v>
+        <v>640</v>
       </c>
       <c r="N346" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O346" t="n">
         <v>13000</v>
       </c>
       <c r="P346" t="n">
-        <v>13000</v>
+        <v>12469</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>650</v>
+        <v>623</v>
       </c>
       <c r="T346" t="n">
         <v>20</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E347" t="n">
         <v>16</v>
@@ -28133,7 +28133,7 @@
         <v>15000</v>
       </c>
       <c r="P347" t="n">
-        <v>14500</v>
+        <v>14600</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="T347" t="n">
         <v>20</v>
@@ -28167,68 +28167,228 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E348" t="n">
+        <v>16</v>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G348" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I348" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J348" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>Pintón</t>
+        </is>
+      </c>
+      <c r="M348" t="n">
+        <v>100</v>
+      </c>
+      <c r="N348" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O348" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P348" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q348" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R348" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S348" t="n">
+        <v>650</v>
+      </c>
+      <c r="T348" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>7</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D349" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E349" t="n">
+        <v>16</v>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G349" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I349" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>Primera Pintón</t>
+        </is>
+      </c>
+      <c r="M349" t="n">
+        <v>300</v>
+      </c>
+      <c r="N349" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O349" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P349" t="n">
+        <v>14500</v>
+      </c>
+      <c r="Q349" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R349" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S349" t="n">
+        <v>725</v>
+      </c>
+      <c r="T349" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>7</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D350" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E348" t="n">
-        <v>16</v>
-      </c>
-      <c r="F348" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G348" t="n">
-        <v>100108</v>
-      </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>Tropicales y subtropicales</t>
-        </is>
-      </c>
-      <c r="I348" t="n">
-        <v>100108006</v>
-      </c>
-      <c r="J348" t="inlineStr">
-        <is>
-          <t>Plátano</t>
-        </is>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L348" t="inlineStr">
+      <c r="E350" t="n">
+        <v>16</v>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G350" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I350" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J350" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L350" t="inlineStr">
         <is>
           <t>Primera Pintón</t>
         </is>
       </c>
-      <c r="M348" t="n">
+      <c r="M350" t="n">
         <v>240</v>
       </c>
-      <c r="N348" t="n">
+      <c r="N350" t="n">
         <v>16000</v>
       </c>
-      <c r="O348" t="n">
+      <c r="O350" t="n">
         <v>17000</v>
       </c>
-      <c r="P348" t="n">
+      <c r="P350" t="n">
         <v>16500</v>
       </c>
-      <c r="Q348" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R348" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S348" t="n">
+      <c r="Q350" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R350" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S350" t="n">
         <v>825</v>
       </c>
-      <c r="T348" t="n">
+      <c r="T350" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T350"/>
+  <dimension ref="A1:T352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E236" t="n">
         <v>16</v>
@@ -19244,16 +19244,16 @@
         </is>
       </c>
       <c r="M236" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N236" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O236" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P236" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="T236" t="n">
         <v>20</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E237" t="n">
         <v>16</v>
@@ -19324,16 +19324,16 @@
         </is>
       </c>
       <c r="M237" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="N237" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O237" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P237" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>625</v>
+        <v>775</v>
       </c>
       <c r="T237" t="n">
         <v>20</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E238" t="n">
         <v>16</v>
@@ -19404,16 +19404,16 @@
         </is>
       </c>
       <c r="M238" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="N238" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="O238" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P238" t="n">
-        <v>9750</v>
+        <v>11000</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>488</v>
+        <v>550</v>
       </c>
       <c r="T238" t="n">
         <v>20</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E239" t="n">
         <v>16</v>
@@ -19484,16 +19484,16 @@
         </is>
       </c>
       <c r="M239" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N239" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O239" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P239" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="T239" t="n">
         <v>20</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E240" t="n">
         <v>16</v>
@@ -19564,16 +19564,16 @@
         </is>
       </c>
       <c r="M240" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="N240" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="O240" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P240" t="n">
-        <v>14000</v>
+        <v>9750</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>700</v>
+        <v>488</v>
       </c>
       <c r="T240" t="n">
         <v>20</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E241" t="n">
         <v>16</v>
@@ -19647,13 +19647,13 @@
         <v>360</v>
       </c>
       <c r="N241" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O241" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P241" t="n">
-        <v>15500</v>
+        <v>11500</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="T241" t="n">
         <v>20</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E242" t="n">
         <v>16</v>
@@ -19727,13 +19727,13 @@
         <v>80</v>
       </c>
       <c r="N242" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O242" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P242" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="T242" t="n">
         <v>20</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E243" t="n">
         <v>16</v>
@@ -19804,16 +19804,16 @@
         </is>
       </c>
       <c r="M243" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="N243" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O243" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P243" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>625</v>
+        <v>775</v>
       </c>
       <c r="T243" t="n">
         <v>20</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E244" t="n">
         <v>16</v>
@@ -19884,16 +19884,16 @@
         </is>
       </c>
       <c r="M244" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N244" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O244" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P244" t="n">
-        <v>15500</v>
+        <v>11000</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>775</v>
+        <v>550</v>
       </c>
       <c r="T244" t="n">
         <v>20</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E245" t="n">
         <v>16</v>
@@ -19960,20 +19960,20 @@
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M245" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="N245" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O245" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P245" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="T245" t="n">
         <v>20</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E246" t="n">
         <v>16</v>
@@ -20040,20 +20040,20 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M246" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="N246" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O246" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P246" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>625</v>
+        <v>775</v>
       </c>
       <c r="T246" t="n">
         <v>20</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E247" t="n">
         <v>16</v>
@@ -20124,16 +20124,16 @@
         </is>
       </c>
       <c r="M247" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N247" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O247" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P247" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="T247" t="n">
         <v>20</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E248" t="n">
         <v>16</v>
@@ -20204,16 +20204,16 @@
         </is>
       </c>
       <c r="M248" t="n">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="N248" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O248" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P248" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T248" t="n">
         <v>20</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E249" t="n">
         <v>16</v>
@@ -20284,16 +20284,16 @@
         </is>
       </c>
       <c r="M249" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N249" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O249" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P249" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="T249" t="n">
         <v>20</v>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E250" t="n">
         <v>16</v>
@@ -20364,16 +20364,16 @@
         </is>
       </c>
       <c r="M250" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N250" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O250" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P250" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>725</v>
+        <v>875</v>
       </c>
       <c r="T250" t="n">
         <v>20</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E251" t="n">
         <v>16</v>
@@ -20444,16 +20444,16 @@
         </is>
       </c>
       <c r="M251" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="N251" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O251" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P251" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="T251" t="n">
         <v>20</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E252" t="n">
         <v>16</v>
@@ -20527,13 +20527,13 @@
         <v>360</v>
       </c>
       <c r="N252" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O252" t="n">
         <v>15000</v>
       </c>
-      <c r="O252" t="n">
-        <v>16000</v>
-      </c>
       <c r="P252" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="T252" t="n">
         <v>20</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E253" t="n">
         <v>16</v>
@@ -20600,20 +20600,20 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M253" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="N253" t="n">
         <v>14000</v>
       </c>
       <c r="O253" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P253" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>725</v>
+        <v>700</v>
       </c>
       <c r="T253" t="n">
         <v>20</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44312</v>
+        <v>44260</v>
       </c>
       <c r="E254" t="n">
         <v>16</v>
@@ -20680,20 +20680,20 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M254" t="n">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="N254" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O254" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P254" t="n">
-        <v>11000</v>
+        <v>15500</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>550</v>
+        <v>775</v>
       </c>
       <c r="T254" t="n">
         <v>20</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E255" t="n">
         <v>16</v>
@@ -20764,16 +20764,16 @@
         </is>
       </c>
       <c r="M255" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N255" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O255" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P255" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="T255" t="n">
         <v>20</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E256" t="n">
         <v>16</v>
@@ -20844,16 +20844,16 @@
         </is>
       </c>
       <c r="M256" t="n">
-        <v>640</v>
+        <v>120</v>
       </c>
       <c r="N256" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="O256" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P256" t="n">
-        <v>9734</v>
+        <v>11000</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>487</v>
+        <v>550</v>
       </c>
       <c r="T256" t="n">
         <v>20</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E257" t="n">
         <v>16</v>
@@ -20924,16 +20924,16 @@
         </is>
       </c>
       <c r="M257" t="n">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="N257" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O257" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P257" t="n">
-        <v>11469</v>
+        <v>12500</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>573</v>
+        <v>625</v>
       </c>
       <c r="T257" t="n">
         <v>20</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E258" t="n">
         <v>16</v>
@@ -21004,16 +21004,16 @@
         </is>
       </c>
       <c r="M258" t="n">
-        <v>80</v>
+        <v>640</v>
       </c>
       <c r="N258" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="O258" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P258" t="n">
-        <v>11000</v>
+        <v>9734</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>550</v>
+        <v>487</v>
       </c>
       <c r="T258" t="n">
         <v>20</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E259" t="n">
         <v>16</v>
@@ -21084,16 +21084,16 @@
         </is>
       </c>
       <c r="M259" t="n">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="N259" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O259" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P259" t="n">
-        <v>13500</v>
+        <v>11469</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>675</v>
+        <v>573</v>
       </c>
       <c r="T259" t="n">
         <v>20</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E260" t="n">
         <v>16</v>
@@ -21164,16 +21164,16 @@
         </is>
       </c>
       <c r="M260" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N260" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O260" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P260" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="T260" t="n">
         <v>20</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E261" t="n">
         <v>16</v>
@@ -21247,13 +21247,13 @@
         <v>240</v>
       </c>
       <c r="N261" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O261" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P261" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="T261" t="n">
         <v>20</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E262" t="n">
         <v>16</v>
@@ -21324,16 +21324,16 @@
         </is>
       </c>
       <c r="M262" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N262" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O262" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P262" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="T262" t="n">
         <v>20</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E263" t="n">
         <v>16</v>
@@ -21404,16 +21404,16 @@
         </is>
       </c>
       <c r="M263" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N263" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O263" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P263" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="T263" t="n">
         <v>20</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E264" t="n">
         <v>16</v>
@@ -21487,13 +21487,13 @@
         <v>80</v>
       </c>
       <c r="N264" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O264" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P264" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="T264" t="n">
         <v>20</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E265" t="n">
         <v>16</v>
@@ -21564,16 +21564,16 @@
         </is>
       </c>
       <c r="M265" t="n">
-        <v>360</v>
+        <v>160</v>
       </c>
       <c r="N265" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O265" t="n">
         <v>15000</v>
       </c>
-      <c r="O265" t="n">
-        <v>16000</v>
-      </c>
       <c r="P265" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="T265" t="n">
         <v>20</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E266" t="n">
         <v>16</v>
@@ -21644,7 +21644,7 @@
         </is>
       </c>
       <c r="M266" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N266" t="n">
         <v>14000</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E267" t="n">
         <v>16</v>
@@ -21724,7 +21724,7 @@
         </is>
       </c>
       <c r="M267" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="N267" t="n">
         <v>15000</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E268" t="n">
         <v>16</v>
@@ -21804,16 +21804,16 @@
         </is>
       </c>
       <c r="M268" t="n">
-        <v>540</v>
+        <v>150</v>
       </c>
       <c r="N268" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O268" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P268" t="n">
-        <v>12370</v>
+        <v>14000</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>618</v>
+        <v>700</v>
       </c>
       <c r="T268" t="n">
         <v>20</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E269" t="n">
         <v>16</v>
@@ -21884,16 +21884,16 @@
         </is>
       </c>
       <c r="M269" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="N269" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O269" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P269" t="n">
-        <v>14536</v>
+        <v>15500</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>727</v>
+        <v>775</v>
       </c>
       <c r="T269" t="n">
         <v>20</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E270" t="n">
         <v>16</v>
@@ -21964,16 +21964,16 @@
         </is>
       </c>
       <c r="M270" t="n">
-        <v>80</v>
+        <v>540</v>
       </c>
       <c r="N270" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O270" t="n">
         <v>13000</v>
       </c>
       <c r="P270" t="n">
-        <v>13000</v>
+        <v>12370</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>650</v>
+        <v>618</v>
       </c>
       <c r="T270" t="n">
         <v>20</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E271" t="n">
         <v>16</v>
@@ -22044,7 +22044,7 @@
         </is>
       </c>
       <c r="M271" t="n">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="N271" t="n">
         <v>14000</v>
@@ -22053,7 +22053,7 @@
         <v>15000</v>
       </c>
       <c r="P271" t="n">
-        <v>14500</v>
+        <v>14536</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="T271" t="n">
         <v>20</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E272" t="n">
         <v>16</v>
@@ -22124,16 +22124,16 @@
         </is>
       </c>
       <c r="M272" t="n">
-        <v>660</v>
+        <v>80</v>
       </c>
       <c r="N272" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O272" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="P272" t="n">
-        <v>9273</v>
+        <v>13000</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>464</v>
+        <v>650</v>
       </c>
       <c r="T272" t="n">
         <v>20</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E273" t="n">
         <v>16</v>
@@ -22204,16 +22204,16 @@
         </is>
       </c>
       <c r="M273" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N273" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O273" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P273" t="n">
-        <v>10667</v>
+        <v>14500</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>533</v>
+        <v>725</v>
       </c>
       <c r="T273" t="n">
         <v>20</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E274" t="n">
         <v>16</v>
@@ -22284,16 +22284,16 @@
         </is>
       </c>
       <c r="M274" t="n">
-        <v>160</v>
+        <v>660</v>
       </c>
       <c r="N274" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O274" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="P274" t="n">
-        <v>8250</v>
+        <v>9273</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>412</v>
+        <v>464</v>
       </c>
       <c r="T274" t="n">
         <v>20</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E275" t="n">
         <v>16</v>
@@ -22364,16 +22364,16 @@
         </is>
       </c>
       <c r="M275" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N275" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="O275" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P275" t="n">
-        <v>9750</v>
+        <v>10667</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>488</v>
+        <v>533</v>
       </c>
       <c r="T275" t="n">
         <v>20</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E276" t="n">
         <v>16</v>
@@ -22444,16 +22444,16 @@
         </is>
       </c>
       <c r="M276" t="n">
-        <v>570</v>
+        <v>160</v>
       </c>
       <c r="N276" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O276" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="P276" t="n">
-        <v>9000</v>
+        <v>8250</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>450</v>
+        <v>412</v>
       </c>
       <c r="T276" t="n">
         <v>20</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E277" t="n">
         <v>16</v>
@@ -22524,16 +22524,16 @@
         </is>
       </c>
       <c r="M277" t="n">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="N277" t="n">
+        <v>9500</v>
+      </c>
+      <c r="O277" t="n">
         <v>10000</v>
       </c>
-      <c r="O277" t="n">
-        <v>11000</v>
-      </c>
       <c r="P277" t="n">
-        <v>10394</v>
+        <v>9750</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>520</v>
+        <v>488</v>
       </c>
       <c r="T277" t="n">
         <v>20</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E278" t="n">
         <v>16</v>
@@ -22604,16 +22604,16 @@
         </is>
       </c>
       <c r="M278" t="n">
-        <v>80</v>
+        <v>570</v>
       </c>
       <c r="N278" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O278" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P278" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="T278" t="n">
         <v>20</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E279" t="n">
         <v>16</v>
@@ -22684,16 +22684,16 @@
         </is>
       </c>
       <c r="M279" t="n">
-        <v>240</v>
+        <v>330</v>
       </c>
       <c r="N279" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O279" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P279" t="n">
-        <v>17500</v>
+        <v>10394</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>875</v>
+        <v>520</v>
       </c>
       <c r="T279" t="n">
         <v>20</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E280" t="n">
         <v>16</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E281" t="n">
         <v>16</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E282" t="n">
         <v>16</v>
@@ -22927,13 +22927,13 @@
         <v>80</v>
       </c>
       <c r="N282" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O282" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P282" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="T282" t="n">
         <v>20</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E283" t="n">
         <v>16</v>
@@ -23004,16 +23004,16 @@
         </is>
       </c>
       <c r="M283" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N283" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O283" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P283" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T283" t="n">
         <v>20</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E284" t="n">
         <v>16</v>
@@ -23084,16 +23084,16 @@
         </is>
       </c>
       <c r="M284" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N284" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="O284" t="n">
-        <v>11800</v>
+        <v>11000</v>
       </c>
       <c r="P284" t="n">
-        <v>11650</v>
+        <v>11000</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>582</v>
+        <v>550</v>
       </c>
       <c r="T284" t="n">
         <v>20</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E285" t="n">
         <v>16</v>
@@ -23164,16 +23164,16 @@
         </is>
       </c>
       <c r="M285" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N285" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="O285" t="n">
         <v>13000</v>
       </c>
       <c r="P285" t="n">
-        <v>12750</v>
+        <v>12500</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="T285" t="n">
         <v>20</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E286" t="n">
         <v>16</v>
@@ -23244,16 +23244,16 @@
         </is>
       </c>
       <c r="M286" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N286" t="n">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="O286" t="n">
-        <v>12000</v>
+        <v>11800</v>
       </c>
       <c r="P286" t="n">
-        <v>12000</v>
+        <v>11650</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="T286" t="n">
         <v>20</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E287" t="n">
         <v>16</v>
@@ -23327,13 +23327,13 @@
         <v>240</v>
       </c>
       <c r="N287" t="n">
+        <v>12500</v>
+      </c>
+      <c r="O287" t="n">
         <v>13000</v>
       </c>
-      <c r="O287" t="n">
-        <v>14000</v>
-      </c>
       <c r="P287" t="n">
-        <v>13500</v>
+        <v>12750</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>675</v>
+        <v>638</v>
       </c>
       <c r="T287" t="n">
         <v>20</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E288" t="n">
         <v>16</v>
@@ -23404,16 +23404,16 @@
         </is>
       </c>
       <c r="M288" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N288" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O288" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P288" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="T288" t="n">
         <v>20</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E289" t="n">
         <v>16</v>
@@ -23487,13 +23487,13 @@
         <v>240</v>
       </c>
       <c r="N289" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O289" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P289" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="T289" t="n">
         <v>20</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E290" t="n">
         <v>16</v>
@@ -23560,20 +23560,20 @@
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M290" t="n">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="N290" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="O290" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P290" t="n">
-        <v>14750</v>
+        <v>11000</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>738</v>
+        <v>550</v>
       </c>
       <c r="T290" t="n">
         <v>20</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E291" t="n">
         <v>16</v>
@@ -23640,20 +23640,20 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M291" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="N291" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O291" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P291" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="T291" t="n">
         <v>20</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E292" t="n">
         <v>16</v>
@@ -23727,13 +23727,13 @@
         <v>360</v>
       </c>
       <c r="N292" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="O292" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P292" t="n">
-        <v>12500</v>
+        <v>14750</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>625</v>
+        <v>738</v>
       </c>
       <c r="T292" t="n">
         <v>20</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E293" t="n">
         <v>16</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E294" t="n">
         <v>16</v>
@@ -23884,7 +23884,7 @@
         </is>
       </c>
       <c r="M294" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N294" t="n">
         <v>12000</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E295" t="n">
         <v>16</v>
@@ -23967,13 +23967,13 @@
         <v>80</v>
       </c>
       <c r="N295" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O295" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P295" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="T295" t="n">
         <v>20</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E296" t="n">
         <v>16</v>
@@ -24047,13 +24047,13 @@
         <v>240</v>
       </c>
       <c r="N296" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O296" t="n">
         <v>13000</v>
       </c>
-      <c r="O296" t="n">
-        <v>14000</v>
-      </c>
       <c r="P296" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="T296" t="n">
         <v>20</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E297" t="n">
         <v>16</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="M297" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N297" t="n">
         <v>12000</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E298" t="n">
         <v>16</v>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E299" t="n">
         <v>16</v>
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="M299" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N299" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O299" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P299" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="T299" t="n">
         <v>20</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E300" t="n">
         <v>16</v>
@@ -24367,13 +24367,13 @@
         <v>240</v>
       </c>
       <c r="N300" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O300" t="n">
         <v>14000</v>
       </c>
-      <c r="O300" t="n">
-        <v>15000</v>
-      </c>
       <c r="P300" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="T300" t="n">
         <v>20</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E301" t="n">
         <v>16</v>
@@ -24444,16 +24444,16 @@
         </is>
       </c>
       <c r="M301" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N301" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O301" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P301" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="T301" t="n">
         <v>20</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E302" t="n">
         <v>16</v>
@@ -24527,13 +24527,13 @@
         <v>240</v>
       </c>
       <c r="N302" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O302" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P302" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="T302" t="n">
         <v>20</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E303" t="n">
         <v>16</v>
@@ -24604,16 +24604,16 @@
         </is>
       </c>
       <c r="M303" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="N303" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O303" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P303" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T303" t="n">
         <v>20</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E304" t="n">
         <v>16</v>
@@ -24684,16 +24684,16 @@
         </is>
       </c>
       <c r="M304" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N304" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="O304" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P304" t="n">
-        <v>14750</v>
+        <v>13500</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>738</v>
+        <v>675</v>
       </c>
       <c r="T304" t="n">
         <v>20</v>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E305" t="n">
         <v>16</v>
@@ -24760,11 +24760,11 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M305" t="n">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="N305" t="n">
         <v>14000</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E306" t="n">
         <v>16</v>
@@ -24844,16 +24844,16 @@
         </is>
       </c>
       <c r="M306" t="n">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="N306" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="O306" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P306" t="n">
-        <v>13000</v>
+        <v>14750</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>650</v>
+        <v>738</v>
       </c>
       <c r="T306" t="n">
         <v>20</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E307" t="n">
         <v>16</v>
@@ -24920,20 +24920,20 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M307" t="n">
         <v>120</v>
       </c>
       <c r="N307" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O307" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P307" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T307" t="n">
         <v>20</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E308" t="n">
         <v>16</v>
@@ -25004,16 +25004,16 @@
         </is>
       </c>
       <c r="M308" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N308" t="n">
         <v>13000</v>
       </c>
       <c r="O308" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P308" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="T308" t="n">
         <v>20</v>
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E309" t="n">
         <v>16</v>
@@ -25084,16 +25084,16 @@
         </is>
       </c>
       <c r="M309" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N309" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O309" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P309" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="T309" t="n">
         <v>20</v>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E310" t="n">
         <v>16</v>
@@ -25164,16 +25164,16 @@
         </is>
       </c>
       <c r="M310" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="N310" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O310" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P310" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="T310" t="n">
         <v>20</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E311" t="n">
         <v>16</v>
@@ -25244,16 +25244,16 @@
         </is>
       </c>
       <c r="M311" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="N311" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O311" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P311" t="n">
-        <v>16500</v>
+        <v>11000</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>825</v>
+        <v>550</v>
       </c>
       <c r="T311" t="n">
         <v>20</v>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E312" t="n">
         <v>16</v>
@@ -25324,16 +25324,16 @@
         </is>
       </c>
       <c r="M312" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N312" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O312" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P312" t="n">
-        <v>18500</v>
+        <v>12500</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>925</v>
+        <v>625</v>
       </c>
       <c r="T312" t="n">
         <v>20</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E313" t="n">
         <v>16</v>
@@ -25404,16 +25404,16 @@
         </is>
       </c>
       <c r="M313" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="N313" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O313" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P313" t="n">
-        <v>11000</v>
+        <v>16500</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>550</v>
+        <v>825</v>
       </c>
       <c r="T313" t="n">
         <v>20</v>
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E314" t="n">
         <v>16</v>
@@ -25484,16 +25484,16 @@
         </is>
       </c>
       <c r="M314" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N314" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O314" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P314" t="n">
-        <v>12500</v>
+        <v>18500</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>625</v>
+        <v>925</v>
       </c>
       <c r="T314" t="n">
         <v>20</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E315" t="n">
         <v>16</v>
@@ -25564,16 +25564,16 @@
         </is>
       </c>
       <c r="M315" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N315" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="O315" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P315" t="n">
-        <v>14750</v>
+        <v>11000</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>738</v>
+        <v>550</v>
       </c>
       <c r="T315" t="n">
         <v>20</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E316" t="n">
         <v>16</v>
@@ -25640,20 +25640,20 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M316" t="n">
         <v>160</v>
       </c>
       <c r="N316" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O316" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P316" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="T316" t="n">
         <v>20</v>
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E317" t="n">
         <v>16</v>
@@ -25720,20 +25720,20 @@
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M317" t="n">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="N317" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="O317" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P317" t="n">
-        <v>13500</v>
+        <v>14750</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>675</v>
+        <v>738</v>
       </c>
       <c r="T317" t="n">
         <v>20</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E318" t="n">
         <v>16</v>
@@ -25804,16 +25804,16 @@
         </is>
       </c>
       <c r="M318" t="n">
-        <v>640</v>
+        <v>160</v>
       </c>
       <c r="N318" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O318" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P318" t="n">
-        <v>10469</v>
+        <v>11500</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>523</v>
+        <v>575</v>
       </c>
       <c r="T318" t="n">
         <v>20</v>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E319" t="n">
         <v>16</v>
@@ -25884,16 +25884,16 @@
         </is>
       </c>
       <c r="M319" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N319" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="O319" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P319" t="n">
-        <v>11750</v>
+        <v>13500</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>588</v>
+        <v>675</v>
       </c>
       <c r="T319" t="n">
         <v>20</v>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E320" t="n">
         <v>16</v>
@@ -25964,16 +25964,16 @@
         </is>
       </c>
       <c r="M320" t="n">
-        <v>480</v>
+        <v>640</v>
       </c>
       <c r="N320" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O320" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P320" t="n">
-        <v>14417</v>
+        <v>10469</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>721</v>
+        <v>523</v>
       </c>
       <c r="T320" t="n">
         <v>20</v>
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E321" t="n">
         <v>16</v>
@@ -26044,16 +26044,16 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N321" t="n">
-        <v>15500</v>
+        <v>11500</v>
       </c>
       <c r="O321" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P321" t="n">
-        <v>15826</v>
+        <v>11750</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>791</v>
+        <v>588</v>
       </c>
       <c r="T321" t="n">
         <v>20</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E322" t="n">
         <v>16</v>
@@ -26124,16 +26124,16 @@
         </is>
       </c>
       <c r="M322" t="n">
-        <v>150</v>
+        <v>480</v>
       </c>
       <c r="N322" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O322" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P322" t="n">
-        <v>16000</v>
+        <v>14417</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>800</v>
+        <v>721</v>
       </c>
       <c r="T322" t="n">
         <v>20</v>
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E323" t="n">
         <v>16</v>
@@ -26204,16 +26204,16 @@
         </is>
       </c>
       <c r="M323" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N323" t="n">
-        <v>17000</v>
+        <v>15500</v>
       </c>
       <c r="O323" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P323" t="n">
-        <v>17500</v>
+        <v>15826</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>875</v>
+        <v>791</v>
       </c>
       <c r="T323" t="n">
         <v>20</v>
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E324" t="n">
         <v>16</v>
@@ -26284,16 +26284,16 @@
         </is>
       </c>
       <c r="M324" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N324" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O324" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P324" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="T324" t="n">
         <v>20</v>
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E325" t="n">
         <v>16</v>
@@ -26364,16 +26364,16 @@
         </is>
       </c>
       <c r="M325" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N325" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O325" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P325" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T325" t="n">
         <v>20</v>
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E326" t="n">
         <v>16</v>
@@ -26444,16 +26444,16 @@
         </is>
       </c>
       <c r="M326" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N326" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O326" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P326" t="n">
-        <v>15500</v>
+        <v>11000</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>775</v>
+        <v>550</v>
       </c>
       <c r="T326" t="n">
         <v>20</v>
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E327" t="n">
         <v>16</v>
@@ -26524,16 +26524,16 @@
         </is>
       </c>
       <c r="M327" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N327" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O327" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P327" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>850</v>
+        <v>625</v>
       </c>
       <c r="T327" t="n">
         <v>20</v>
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E328" t="n">
         <v>16</v>
@@ -26604,16 +26604,16 @@
         </is>
       </c>
       <c r="M328" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="N328" t="n">
         <v>15000</v>
       </c>
       <c r="O328" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P328" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="T328" t="n">
         <v>20</v>
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E329" t="n">
         <v>16</v>
@@ -26684,16 +26684,16 @@
         </is>
       </c>
       <c r="M329" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N329" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O329" t="n">
         <v>17000</v>
       </c>
       <c r="P329" t="n">
-        <v>16500</v>
+        <v>17000</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>825</v>
+        <v>850</v>
       </c>
       <c r="T329" t="n">
         <v>20</v>
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E330" t="n">
         <v>16</v>
@@ -26764,16 +26764,16 @@
         </is>
       </c>
       <c r="M330" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N330" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="O330" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P330" t="n">
-        <v>12750</v>
+        <v>15000</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>638</v>
+        <v>750</v>
       </c>
       <c r="T330" t="n">
         <v>20</v>
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E331" t="n">
         <v>16</v>
@@ -26844,16 +26844,16 @@
         </is>
       </c>
       <c r="M331" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="N331" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O331" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P331" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="T331" t="n">
         <v>20</v>
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E332" t="n">
         <v>16</v>
@@ -26924,16 +26924,16 @@
         </is>
       </c>
       <c r="M332" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N332" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="O332" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P332" t="n">
-        <v>11750</v>
+        <v>12750</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>588</v>
+        <v>638</v>
       </c>
       <c r="T332" t="n">
         <v>20</v>
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E333" t="n">
         <v>16</v>
@@ -27004,16 +27004,16 @@
         </is>
       </c>
       <c r="M333" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="N333" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O333" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P333" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="T333" t="n">
         <v>20</v>
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E334" t="n">
         <v>16</v>
@@ -27084,16 +27084,16 @@
         </is>
       </c>
       <c r="M334" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N334" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="O334" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P334" t="n">
-        <v>13000</v>
+        <v>11750</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>650</v>
+        <v>588</v>
       </c>
       <c r="T334" t="n">
         <v>20</v>
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E335" t="n">
         <v>16</v>
@@ -27164,16 +27164,16 @@
         </is>
       </c>
       <c r="M335" t="n">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="N335" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O335" t="n">
         <v>14000</v>
       </c>
-      <c r="O335" t="n">
-        <v>15000</v>
-      </c>
       <c r="P335" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="T335" t="n">
         <v>20</v>
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E336" t="n">
         <v>16</v>
@@ -27244,16 +27244,16 @@
         </is>
       </c>
       <c r="M336" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N336" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O336" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P336" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="T336" t="n">
         <v>20</v>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E337" t="n">
         <v>16</v>
@@ -27324,16 +27324,16 @@
         </is>
       </c>
       <c r="M337" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N337" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O337" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P337" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="T337" t="n">
         <v>20</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E338" t="n">
         <v>16</v>
@@ -27404,16 +27404,16 @@
         </is>
       </c>
       <c r="M338" t="n">
-        <v>640</v>
+        <v>120</v>
       </c>
       <c r="N338" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O338" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P338" t="n">
-        <v>13688</v>
+        <v>9000</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>684</v>
+        <v>450</v>
       </c>
       <c r="T338" t="n">
         <v>20</v>
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E339" t="n">
         <v>16</v>
@@ -27484,16 +27484,16 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="N339" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="O339" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P339" t="n">
-        <v>14714</v>
+        <v>10500</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>736</v>
+        <v>525</v>
       </c>
       <c r="T339" t="n">
         <v>20</v>
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E340" t="n">
         <v>16</v>
@@ -27560,20 +27560,20 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M340" t="n">
-        <v>160</v>
+        <v>640</v>
       </c>
       <c r="N340" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O340" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P340" t="n">
-        <v>11500</v>
+        <v>13688</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>575</v>
+        <v>684</v>
       </c>
       <c r="T340" t="n">
         <v>20</v>
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E341" t="n">
         <v>16</v>
@@ -27640,20 +27640,20 @@
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M341" t="n">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="N341" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="O341" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P341" t="n">
-        <v>11000</v>
+        <v>14714</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>550</v>
+        <v>736</v>
       </c>
       <c r="T341" t="n">
         <v>20</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E342" t="n">
         <v>16</v>
@@ -27724,16 +27724,16 @@
         </is>
       </c>
       <c r="M342" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N342" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O342" t="n">
         <v>12000</v>
       </c>
-      <c r="O342" t="n">
-        <v>13000</v>
-      </c>
       <c r="P342" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="T342" t="n">
         <v>20</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E343" t="n">
         <v>16</v>
@@ -27800,20 +27800,20 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M343" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N343" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O343" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P343" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>725</v>
+        <v>550</v>
       </c>
       <c r="T343" t="n">
         <v>20</v>
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E344" t="n">
         <v>16</v>
@@ -27880,20 +27880,20 @@
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M344" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="N344" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O344" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P344" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="T344" t="n">
         <v>20</v>
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E345" t="n">
         <v>16</v>
@@ -27964,16 +27964,16 @@
         </is>
       </c>
       <c r="M345" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N345" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O345" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P345" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="T345" t="n">
         <v>20</v>
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E346" t="n">
         <v>16</v>
@@ -28044,16 +28044,16 @@
         </is>
       </c>
       <c r="M346" t="n">
-        <v>640</v>
+        <v>80</v>
       </c>
       <c r="N346" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O346" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P346" t="n">
-        <v>12469</v>
+        <v>11000</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>623</v>
+        <v>550</v>
       </c>
       <c r="T346" t="n">
         <v>20</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E347" t="n">
         <v>16</v>
@@ -28124,16 +28124,16 @@
         </is>
       </c>
       <c r="M347" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N347" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O347" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P347" t="n">
-        <v>14600</v>
+        <v>12500</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>730</v>
+        <v>625</v>
       </c>
       <c r="T347" t="n">
         <v>20</v>
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E348" t="n">
         <v>16</v>
@@ -28204,16 +28204,16 @@
         </is>
       </c>
       <c r="M348" t="n">
-        <v>100</v>
+        <v>640</v>
       </c>
       <c r="N348" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O348" t="n">
         <v>13000</v>
       </c>
       <c r="P348" t="n">
-        <v>13000</v>
+        <v>12469</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>650</v>
+        <v>623</v>
       </c>
       <c r="T348" t="n">
         <v>20</v>
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E349" t="n">
         <v>16</v>
@@ -28293,7 +28293,7 @@
         <v>15000</v>
       </c>
       <c r="P349" t="n">
-        <v>14500</v>
+        <v>14600</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="T349" t="n">
         <v>20</v>
@@ -28327,68 +28327,228 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E350" t="n">
+        <v>16</v>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G350" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I350" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J350" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>Pintón</t>
+        </is>
+      </c>
+      <c r="M350" t="n">
+        <v>100</v>
+      </c>
+      <c r="N350" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O350" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P350" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q350" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R350" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S350" t="n">
+        <v>650</v>
+      </c>
+      <c r="T350" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>7</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D351" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E351" t="n">
+        <v>16</v>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G351" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I351" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J351" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>Primera Pintón</t>
+        </is>
+      </c>
+      <c r="M351" t="n">
+        <v>300</v>
+      </c>
+      <c r="N351" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O351" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P351" t="n">
+        <v>14500</v>
+      </c>
+      <c r="Q351" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R351" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S351" t="n">
+        <v>725</v>
+      </c>
+      <c r="T351" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>7</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D352" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E350" t="n">
-        <v>16</v>
-      </c>
-      <c r="F350" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G350" t="n">
-        <v>100108</v>
-      </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>Tropicales y subtropicales</t>
-        </is>
-      </c>
-      <c r="I350" t="n">
-        <v>100108006</v>
-      </c>
-      <c r="J350" t="inlineStr">
-        <is>
-          <t>Plátano</t>
-        </is>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L350" t="inlineStr">
+      <c r="E352" t="n">
+        <v>16</v>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G352" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I352" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J352" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L352" t="inlineStr">
         <is>
           <t>Primera Pintón</t>
         </is>
       </c>
-      <c r="M350" t="n">
+      <c r="M352" t="n">
         <v>240</v>
       </c>
-      <c r="N350" t="n">
+      <c r="N352" t="n">
         <v>16000</v>
       </c>
-      <c r="O350" t="n">
+      <c r="O352" t="n">
         <v>17000</v>
       </c>
-      <c r="P350" t="n">
+      <c r="P352" t="n">
         <v>16500</v>
       </c>
-      <c r="Q350" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R350" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S350" t="n">
+      <c r="Q352" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R352" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S352" t="n">
         <v>825</v>
       </c>
-      <c r="T350" t="n">
+      <c r="T352" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T352"/>
+  <dimension ref="A1:T354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44342</v>
+        <v>44467</v>
       </c>
       <c r="E146" t="n">
         <v>16</v>
@@ -12044,16 +12044,16 @@
         </is>
       </c>
       <c r="M146" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N146" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O146" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P146" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="T146" t="n">
         <v>20</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44342</v>
+        <v>44467</v>
       </c>
       <c r="E147" t="n">
         <v>16</v>
@@ -12124,16 +12124,16 @@
         </is>
       </c>
       <c r="M147" t="n">
-        <v>240</v>
+        <v>440</v>
       </c>
       <c r="N147" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O147" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P147" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>625</v>
+        <v>775</v>
       </c>
       <c r="T147" t="n">
         <v>20</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44225</v>
+        <v>44342</v>
       </c>
       <c r="E148" t="n">
         <v>16</v>
@@ -12207,13 +12207,13 @@
         <v>80</v>
       </c>
       <c r="N148" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O148" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P148" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="T148" t="n">
         <v>20</v>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44225</v>
+        <v>44342</v>
       </c>
       <c r="E149" t="n">
         <v>16</v>
@@ -12284,16 +12284,16 @@
         </is>
       </c>
       <c r="M149" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N149" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O149" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P149" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>775</v>
+        <v>625</v>
       </c>
       <c r="T149" t="n">
         <v>20</v>
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44434</v>
+        <v>44225</v>
       </c>
       <c r="E150" t="n">
         <v>16</v>
@@ -12364,16 +12364,16 @@
         </is>
       </c>
       <c r="M150" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="N150" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="O150" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P150" t="n">
-        <v>14750</v>
+        <v>14000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>738</v>
+        <v>700</v>
       </c>
       <c r="T150" t="n">
         <v>20</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44434</v>
+        <v>44225</v>
       </c>
       <c r="E151" t="n">
         <v>16</v>
@@ -12444,16 +12444,16 @@
         </is>
       </c>
       <c r="M151" t="n">
-        <v>600</v>
+        <v>160</v>
       </c>
       <c r="N151" t="n">
-        <v>15500</v>
+        <v>15000</v>
       </c>
       <c r="O151" t="n">
         <v>16000</v>
       </c>
       <c r="P151" t="n">
-        <v>15750</v>
+        <v>15500</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>788</v>
+        <v>775</v>
       </c>
       <c r="T151" t="n">
         <v>20</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44327</v>
+        <v>44434</v>
       </c>
       <c r="E152" t="n">
         <v>16</v>
@@ -12524,16 +12524,16 @@
         </is>
       </c>
       <c r="M152" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N152" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="O152" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P152" t="n">
-        <v>14000</v>
+        <v>14750</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>700</v>
+        <v>738</v>
       </c>
       <c r="T152" t="n">
         <v>20</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44327</v>
+        <v>44434</v>
       </c>
       <c r="E153" t="n">
         <v>16</v>
@@ -12604,7 +12604,7 @@
         </is>
       </c>
       <c r="M153" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="N153" t="n">
         <v>15500</v>
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44321</v>
+        <v>44327</v>
       </c>
       <c r="E154" t="n">
         <v>16</v>
@@ -12687,13 +12687,13 @@
         <v>120</v>
       </c>
       <c r="N154" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O154" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P154" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="T154" t="n">
         <v>20</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44321</v>
+        <v>44327</v>
       </c>
       <c r="E155" t="n">
         <v>16</v>
@@ -12764,16 +12764,16 @@
         </is>
       </c>
       <c r="M155" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N155" t="n">
-        <v>14000</v>
+        <v>15500</v>
       </c>
       <c r="O155" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P155" t="n">
-        <v>14500</v>
+        <v>15750</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>725</v>
+        <v>788</v>
       </c>
       <c r="T155" t="n">
         <v>20</v>
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44300</v>
+        <v>44321</v>
       </c>
       <c r="E156" t="n">
         <v>16</v>
@@ -12844,7 +12844,7 @@
         </is>
       </c>
       <c r="M156" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N156" t="n">
         <v>13000</v>
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44300</v>
+        <v>44321</v>
       </c>
       <c r="E157" t="n">
         <v>16</v>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44399</v>
+        <v>44300</v>
       </c>
       <c r="E158" t="n">
         <v>16</v>
@@ -13000,20 +13000,20 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M158" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N158" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O158" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P158" t="n">
-        <v>16500</v>
+        <v>13000</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>825</v>
+        <v>650</v>
       </c>
       <c r="T158" t="n">
         <v>20</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44452</v>
+        <v>44300</v>
       </c>
       <c r="E159" t="n">
         <v>16</v>
@@ -13080,20 +13080,20 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M159" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="N159" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O159" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P159" t="n">
-        <v>20000</v>
+        <v>14500</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         </is>
       </c>
       <c r="S159" t="n">
-        <v>1000</v>
+        <v>725</v>
       </c>
       <c r="T159" t="n">
         <v>20</v>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44452</v>
+        <v>44399</v>
       </c>
       <c r="E160" t="n">
         <v>16</v>
@@ -13167,13 +13167,13 @@
         <v>240</v>
       </c>
       <c r="N160" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O160" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P160" t="n">
-        <v>21500</v>
+        <v>16500</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>1075</v>
+        <v>825</v>
       </c>
       <c r="T160" t="n">
         <v>20</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44218</v>
+        <v>44452</v>
       </c>
       <c r="E161" t="n">
         <v>16</v>
@@ -13244,16 +13244,16 @@
         </is>
       </c>
       <c r="M161" t="n">
-        <v>720</v>
+        <v>80</v>
       </c>
       <c r="N161" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O161" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P161" t="n">
-        <v>11472</v>
+        <v>20000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>574</v>
+        <v>1000</v>
       </c>
       <c r="T161" t="n">
         <v>20</v>
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44218</v>
+        <v>44452</v>
       </c>
       <c r="E162" t="n">
         <v>16</v>
@@ -13324,16 +13324,16 @@
         </is>
       </c>
       <c r="M162" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N162" t="n">
-        <v>12500</v>
+        <v>21000</v>
       </c>
       <c r="O162" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P162" t="n">
-        <v>12733</v>
+        <v>21500</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>637</v>
+        <v>1075</v>
       </c>
       <c r="T162" t="n">
         <v>20</v>
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44383</v>
+        <v>44218</v>
       </c>
       <c r="E163" t="n">
         <v>16</v>
@@ -13404,16 +13404,16 @@
         </is>
       </c>
       <c r="M163" t="n">
-        <v>80</v>
+        <v>720</v>
       </c>
       <c r="N163" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O163" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P163" t="n">
-        <v>10000</v>
+        <v>11472</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>500</v>
+        <v>574</v>
       </c>
       <c r="T163" t="n">
         <v>20</v>
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44383</v>
+        <v>44218</v>
       </c>
       <c r="E164" t="n">
         <v>16</v>
@@ -13484,16 +13484,16 @@
         </is>
       </c>
       <c r="M164" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N164" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="O164" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P164" t="n">
-        <v>11500</v>
+        <v>12733</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>575</v>
+        <v>637</v>
       </c>
       <c r="T164" t="n">
         <v>20</v>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44223</v>
+        <v>44383</v>
       </c>
       <c r="E165" t="n">
         <v>16</v>
@@ -13564,16 +13564,16 @@
         </is>
       </c>
       <c r="M165" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N165" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O165" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P165" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T165" t="n">
         <v>20</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44223</v>
+        <v>44383</v>
       </c>
       <c r="E166" t="n">
         <v>16</v>
@@ -13644,16 +13644,16 @@
         </is>
       </c>
       <c r="M166" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N166" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="O166" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P166" t="n">
-        <v>13750</v>
+        <v>11500</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>688</v>
+        <v>575</v>
       </c>
       <c r="T166" t="n">
         <v>20</v>
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44441</v>
+        <v>44223</v>
       </c>
       <c r="E167" t="n">
         <v>16</v>
@@ -13724,16 +13724,16 @@
         </is>
       </c>
       <c r="M167" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N167" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="O167" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P167" t="n">
-        <v>13750</v>
+        <v>12000</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>688</v>
+        <v>600</v>
       </c>
       <c r="T167" t="n">
         <v>20</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44441</v>
+        <v>44223</v>
       </c>
       <c r="E168" t="n">
         <v>16</v>
@@ -13804,16 +13804,16 @@
         </is>
       </c>
       <c r="M168" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N168" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="O168" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P168" t="n">
-        <v>14750</v>
+        <v>13750</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>738</v>
+        <v>688</v>
       </c>
       <c r="T168" t="n">
         <v>20</v>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E169" t="n">
         <v>16</v>
@@ -13880,20 +13880,20 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M169" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N169" t="n">
-        <v>17000</v>
+        <v>13500</v>
       </c>
       <c r="O169" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P169" t="n">
-        <v>17500</v>
+        <v>13750</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>875</v>
+        <v>688</v>
       </c>
       <c r="T169" t="n">
         <v>20</v>
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44246</v>
+        <v>44441</v>
       </c>
       <c r="E170" t="n">
         <v>16</v>
@@ -13960,20 +13960,20 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M170" t="n">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="N170" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="O170" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P170" t="n">
-        <v>10000</v>
+        <v>14750</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>500</v>
+        <v>738</v>
       </c>
       <c r="T170" t="n">
         <v>20</v>
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44246</v>
+        <v>44405</v>
       </c>
       <c r="E171" t="n">
         <v>16</v>
@@ -14044,16 +14044,16 @@
         </is>
       </c>
       <c r="M171" t="n">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="N171" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="O171" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P171" t="n">
-        <v>11500</v>
+        <v>17500</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="T171" t="n">
         <v>20</v>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44161</v>
+        <v>44246</v>
       </c>
       <c r="E172" t="n">
         <v>16</v>
@@ -14127,13 +14127,13 @@
         <v>80</v>
       </c>
       <c r="N172" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O172" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P172" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T172" t="n">
         <v>20</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44161</v>
+        <v>44246</v>
       </c>
       <c r="E173" t="n">
         <v>16</v>
@@ -14204,16 +14204,16 @@
         </is>
       </c>
       <c r="M173" t="n">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="N173" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="O173" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P173" t="n">
-        <v>17500</v>
+        <v>11500</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>875</v>
+        <v>575</v>
       </c>
       <c r="T173" t="n">
         <v>20</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44407</v>
+        <v>44161</v>
       </c>
       <c r="E174" t="n">
         <v>16</v>
@@ -14287,13 +14287,13 @@
         <v>80</v>
       </c>
       <c r="N174" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O174" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P174" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T174" t="n">
         <v>20</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44407</v>
+        <v>44161</v>
       </c>
       <c r="E175" t="n">
         <v>16</v>
@@ -14367,13 +14367,13 @@
         <v>160</v>
       </c>
       <c r="N175" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O175" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P175" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>775</v>
+        <v>875</v>
       </c>
       <c r="T175" t="n">
         <v>20</v>
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44307</v>
+        <v>44407</v>
       </c>
       <c r="E176" t="n">
         <v>16</v>
@@ -14444,16 +14444,16 @@
         </is>
       </c>
       <c r="M176" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="N176" t="n">
-        <v>11500</v>
+        <v>14000</v>
       </c>
       <c r="O176" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P176" t="n">
-        <v>11750</v>
+        <v>14000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>588</v>
+        <v>700</v>
       </c>
       <c r="T176" t="n">
         <v>20</v>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44307</v>
+        <v>44407</v>
       </c>
       <c r="E177" t="n">
         <v>16</v>
@@ -14524,16 +14524,16 @@
         </is>
       </c>
       <c r="M177" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N177" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O177" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P177" t="n">
-        <v>13500</v>
+        <v>15500</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="T177" t="n">
         <v>20</v>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44193</v>
+        <v>44307</v>
       </c>
       <c r="E178" t="n">
         <v>16</v>
@@ -14604,16 +14604,16 @@
         </is>
       </c>
       <c r="M178" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="N178" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="O178" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P178" t="n">
-        <v>10000</v>
+        <v>11750</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>500</v>
+        <v>588</v>
       </c>
       <c r="T178" t="n">
         <v>20</v>
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44193</v>
+        <v>44307</v>
       </c>
       <c r="E179" t="n">
         <v>16</v>
@@ -14684,16 +14684,16 @@
         </is>
       </c>
       <c r="M179" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N179" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O179" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P179" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="T179" t="n">
         <v>20</v>
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44336</v>
+        <v>44193</v>
       </c>
       <c r="E180" t="n">
         <v>16</v>
@@ -14760,20 +14760,20 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M180" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N180" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O180" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P180" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T180" t="n">
         <v>20</v>
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44341</v>
+        <v>44193</v>
       </c>
       <c r="E181" t="n">
         <v>16</v>
@@ -14840,20 +14840,20 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M181" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="N181" t="n">
         <v>11000</v>
       </c>
       <c r="O181" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P181" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="T181" t="n">
         <v>20</v>
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44341</v>
+        <v>44336</v>
       </c>
       <c r="E182" t="n">
         <v>16</v>
@@ -14924,7 +14924,7 @@
         </is>
       </c>
       <c r="M182" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N182" t="n">
         <v>12000</v>
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44274</v>
+        <v>44341</v>
       </c>
       <c r="E183" t="n">
         <v>16</v>
@@ -15007,13 +15007,13 @@
         <v>80</v>
       </c>
       <c r="N183" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O183" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P183" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="T183" t="n">
         <v>20</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44274</v>
+        <v>44341</v>
       </c>
       <c r="E184" t="n">
         <v>16</v>
@@ -15087,13 +15087,13 @@
         <v>240</v>
       </c>
       <c r="N184" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O184" t="n">
         <v>13000</v>
       </c>
-      <c r="O184" t="n">
-        <v>14000</v>
-      </c>
       <c r="P184" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="T184" t="n">
         <v>20</v>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44426</v>
+        <v>44274</v>
       </c>
       <c r="E185" t="n">
         <v>16</v>
@@ -15164,16 +15164,16 @@
         </is>
       </c>
       <c r="M185" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N185" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O185" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P185" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="T185" t="n">
         <v>20</v>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44426</v>
+        <v>44274</v>
       </c>
       <c r="E186" t="n">
         <v>16</v>
@@ -15244,16 +15244,16 @@
         </is>
       </c>
       <c r="M186" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="N186" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O186" t="n">
         <v>14000</v>
       </c>
-      <c r="O186" t="n">
-        <v>15000</v>
-      </c>
       <c r="P186" t="n">
-        <v>14455</v>
+        <v>13500</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>723</v>
+        <v>675</v>
       </c>
       <c r="T186" t="n">
         <v>20</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44400</v>
+        <v>44426</v>
       </c>
       <c r="E187" t="n">
         <v>16</v>
@@ -15320,20 +15320,20 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M187" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N187" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="O187" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P187" t="n">
-        <v>19500</v>
+        <v>13000</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>975</v>
+        <v>650</v>
       </c>
       <c r="T187" t="n">
         <v>20</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44392</v>
+        <v>44426</v>
       </c>
       <c r="E188" t="n">
         <v>16</v>
@@ -15400,20 +15400,20 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M188" t="n">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="N188" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O188" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P188" t="n">
-        <v>11000</v>
+        <v>14455</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>550</v>
+        <v>723</v>
       </c>
       <c r="T188" t="n">
         <v>20</v>
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44392</v>
+        <v>44400</v>
       </c>
       <c r="E189" t="n">
         <v>16</v>
@@ -15487,13 +15487,13 @@
         <v>160</v>
       </c>
       <c r="N189" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="O189" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P189" t="n">
-        <v>12500</v>
+        <v>19500</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         </is>
       </c>
       <c r="S189" t="n">
-        <v>625</v>
+        <v>975</v>
       </c>
       <c r="T189" t="n">
         <v>20</v>
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E190" t="n">
         <v>16</v>
@@ -15564,16 +15564,16 @@
         </is>
       </c>
       <c r="M190" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N190" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="O190" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P190" t="n">
-        <v>13750</v>
+        <v>11000</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>688</v>
+        <v>550</v>
       </c>
       <c r="T190" t="n">
         <v>20</v>
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E191" t="n">
         <v>16</v>
@@ -15644,16 +15644,16 @@
         </is>
       </c>
       <c r="M191" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N191" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="O191" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P191" t="n">
-        <v>14750</v>
+        <v>12500</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         </is>
       </c>
       <c r="S191" t="n">
-        <v>738</v>
+        <v>625</v>
       </c>
       <c r="T191" t="n">
         <v>20</v>
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44453</v>
+        <v>44442</v>
       </c>
       <c r="E192" t="n">
         <v>16</v>
@@ -15724,16 +15724,16 @@
         </is>
       </c>
       <c r="M192" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N192" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="O192" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P192" t="n">
-        <v>18500</v>
+        <v>13750</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="S192" t="n">
-        <v>925</v>
+        <v>688</v>
       </c>
       <c r="T192" t="n">
         <v>20</v>
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44453</v>
+        <v>44442</v>
       </c>
       <c r="E193" t="n">
         <v>16</v>
@@ -15804,16 +15804,16 @@
         </is>
       </c>
       <c r="M193" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N193" t="n">
-        <v>20000</v>
+        <v>14500</v>
       </c>
       <c r="O193" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P193" t="n">
-        <v>20500</v>
+        <v>14750</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         </is>
       </c>
       <c r="S193" t="n">
-        <v>1025</v>
+        <v>738</v>
       </c>
       <c r="T193" t="n">
         <v>20</v>
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44309</v>
+        <v>44453</v>
       </c>
       <c r="E194" t="n">
         <v>16</v>
@@ -15880,20 +15880,20 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M194" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N194" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O194" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="P194" t="n">
-        <v>13500</v>
+        <v>18500</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         </is>
       </c>
       <c r="S194" t="n">
-        <v>675</v>
+        <v>925</v>
       </c>
       <c r="T194" t="n">
         <v>20</v>
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44200</v>
+        <v>44453</v>
       </c>
       <c r="E195" t="n">
         <v>16</v>
@@ -15960,20 +15960,20 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M195" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="N195" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O195" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P195" t="n">
-        <v>14500</v>
+        <v>20500</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         </is>
       </c>
       <c r="S195" t="n">
-        <v>725</v>
+        <v>1025</v>
       </c>
       <c r="T195" t="n">
         <v>20</v>
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44200</v>
+        <v>44309</v>
       </c>
       <c r="E196" t="n">
         <v>16</v>
@@ -16044,16 +16044,16 @@
         </is>
       </c>
       <c r="M196" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N196" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O196" t="n">
         <v>14000</v>
       </c>
-      <c r="O196" t="n">
-        <v>15000</v>
-      </c>
       <c r="P196" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         </is>
       </c>
       <c r="S196" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="T196" t="n">
         <v>20</v>
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44208</v>
+        <v>44200</v>
       </c>
       <c r="E197" t="n">
         <v>16</v>
@@ -16124,16 +16124,16 @@
         </is>
       </c>
       <c r="M197" t="n">
-        <v>840</v>
+        <v>160</v>
       </c>
       <c r="N197" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O197" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P197" t="n">
-        <v>12524</v>
+        <v>14500</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="S197" t="n">
-        <v>626</v>
+        <v>725</v>
       </c>
       <c r="T197" t="n">
         <v>20</v>
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44208</v>
+        <v>44200</v>
       </c>
       <c r="E198" t="n">
         <v>16</v>
@@ -16204,16 +16204,16 @@
         </is>
       </c>
       <c r="M198" t="n">
-        <v>450</v>
+        <v>240</v>
       </c>
       <c r="N198" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="O198" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P198" t="n">
-        <v>13778</v>
+        <v>14500</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         </is>
       </c>
       <c r="S198" t="n">
-        <v>689</v>
+        <v>725</v>
       </c>
       <c r="T198" t="n">
         <v>20</v>
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44448</v>
+        <v>44208</v>
       </c>
       <c r="E199" t="n">
         <v>16</v>
@@ -16284,16 +16284,16 @@
         </is>
       </c>
       <c r="M199" t="n">
-        <v>180</v>
+        <v>840</v>
       </c>
       <c r="N199" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="O199" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P199" t="n">
-        <v>19000</v>
+        <v>12524</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         </is>
       </c>
       <c r="S199" t="n">
-        <v>950</v>
+        <v>626</v>
       </c>
       <c r="T199" t="n">
         <v>20</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44448</v>
+        <v>44208</v>
       </c>
       <c r="E200" t="n">
         <v>16</v>
@@ -16364,16 +16364,16 @@
         </is>
       </c>
       <c r="M200" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="N200" t="n">
-        <v>20000</v>
+        <v>13500</v>
       </c>
       <c r="O200" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="P200" t="n">
-        <v>20500</v>
+        <v>13778</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         </is>
       </c>
       <c r="S200" t="n">
-        <v>1025</v>
+        <v>689</v>
       </c>
       <c r="T200" t="n">
         <v>20</v>
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44214</v>
+        <v>44448</v>
       </c>
       <c r="E201" t="n">
         <v>16</v>
@@ -16444,16 +16444,16 @@
         </is>
       </c>
       <c r="M201" t="n">
-        <v>740</v>
+        <v>180</v>
       </c>
       <c r="N201" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="O201" t="n">
-        <v>10500</v>
+        <v>19000</v>
       </c>
       <c r="P201" t="n">
-        <v>10230</v>
+        <v>19000</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         </is>
       </c>
       <c r="S201" t="n">
-        <v>512</v>
+        <v>950</v>
       </c>
       <c r="T201" t="n">
         <v>20</v>
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44214</v>
+        <v>44448</v>
       </c>
       <c r="E202" t="n">
         <v>16</v>
@@ -16524,16 +16524,16 @@
         </is>
       </c>
       <c r="M202" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="N202" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O202" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="P202" t="n">
-        <v>11429</v>
+        <v>20500</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="S202" t="n">
-        <v>571</v>
+        <v>1025</v>
       </c>
       <c r="T202" t="n">
         <v>20</v>
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44354</v>
+        <v>44214</v>
       </c>
       <c r="E203" t="n">
         <v>16</v>
@@ -16604,16 +16604,16 @@
         </is>
       </c>
       <c r="M203" t="n">
-        <v>80</v>
+        <v>740</v>
       </c>
       <c r="N203" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O203" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="P203" t="n">
-        <v>11000</v>
+        <v>10230</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         </is>
       </c>
       <c r="S203" t="n">
-        <v>550</v>
+        <v>512</v>
       </c>
       <c r="T203" t="n">
         <v>20</v>
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44354</v>
+        <v>44214</v>
       </c>
       <c r="E204" t="n">
         <v>16</v>
@@ -16684,16 +16684,16 @@
         </is>
       </c>
       <c r="M204" t="n">
-        <v>240</v>
+        <v>350</v>
       </c>
       <c r="N204" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O204" t="n">
         <v>12000</v>
       </c>
-      <c r="O204" t="n">
-        <v>13000</v>
-      </c>
       <c r="P204" t="n">
-        <v>12500</v>
+        <v>11429</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         </is>
       </c>
       <c r="S204" t="n">
-        <v>625</v>
+        <v>571</v>
       </c>
       <c r="T204" t="n">
         <v>20</v>
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44420</v>
+        <v>44354</v>
       </c>
       <c r="E205" t="n">
         <v>16</v>
@@ -16764,7 +16764,7 @@
         </is>
       </c>
       <c r="M205" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N205" t="n">
         <v>11000</v>
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44420</v>
+        <v>44354</v>
       </c>
       <c r="E206" t="n">
         <v>16</v>
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E207" t="n">
         <v>16</v>
@@ -16924,7 +16924,7 @@
         </is>
       </c>
       <c r="M207" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N207" t="n">
         <v>11000</v>
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E208" t="n">
         <v>16</v>
@@ -17004,7 +17004,7 @@
         </is>
       </c>
       <c r="M208" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="N208" t="n">
         <v>12000</v>
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44237</v>
+        <v>44370</v>
       </c>
       <c r="E209" t="n">
         <v>16</v>
@@ -17084,16 +17084,16 @@
         </is>
       </c>
       <c r="M209" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N209" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O209" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P209" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         </is>
       </c>
       <c r="S209" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="T209" t="n">
         <v>20</v>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44237</v>
+        <v>44370</v>
       </c>
       <c r="E210" t="n">
         <v>16</v>
@@ -17164,16 +17164,16 @@
         </is>
       </c>
       <c r="M210" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N210" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O210" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P210" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>775</v>
+        <v>625</v>
       </c>
       <c r="T210" t="n">
         <v>20</v>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44285</v>
+        <v>44237</v>
       </c>
       <c r="E211" t="n">
         <v>16</v>
@@ -17244,16 +17244,16 @@
         </is>
       </c>
       <c r="M211" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N211" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O211" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P211" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T211" t="n">
         <v>20</v>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44285</v>
+        <v>44237</v>
       </c>
       <c r="E212" t="n">
         <v>16</v>
@@ -17324,16 +17324,16 @@
         </is>
       </c>
       <c r="M212" t="n">
-        <v>360</v>
+        <v>160</v>
       </c>
       <c r="N212" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O212" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P212" t="n">
-        <v>13500</v>
+        <v>15500</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="T212" t="n">
         <v>20</v>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44167</v>
+        <v>44285</v>
       </c>
       <c r="E213" t="n">
         <v>16</v>
@@ -17404,16 +17404,16 @@
         </is>
       </c>
       <c r="M213" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N213" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O213" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P213" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         </is>
       </c>
       <c r="S213" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T213" t="n">
         <v>20</v>
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44167</v>
+        <v>44285</v>
       </c>
       <c r="E214" t="n">
         <v>16</v>
@@ -17484,16 +17484,16 @@
         </is>
       </c>
       <c r="M214" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="N214" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="O214" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P214" t="n">
-        <v>17500</v>
+        <v>13500</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         </is>
       </c>
       <c r="S214" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="T214" t="n">
         <v>20</v>
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44210</v>
+        <v>44167</v>
       </c>
       <c r="E215" t="n">
         <v>16</v>
@@ -17564,16 +17564,16 @@
         </is>
       </c>
       <c r="M215" t="n">
-        <v>760</v>
+        <v>80</v>
       </c>
       <c r="N215" t="n">
-        <v>11500</v>
+        <v>16000</v>
       </c>
       <c r="O215" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="P215" t="n">
-        <v>12079</v>
+        <v>16000</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         </is>
       </c>
       <c r="S215" t="n">
-        <v>604</v>
+        <v>800</v>
       </c>
       <c r="T215" t="n">
         <v>20</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44210</v>
+        <v>44167</v>
       </c>
       <c r="E216" t="n">
         <v>16</v>
@@ -17644,16 +17644,16 @@
         </is>
       </c>
       <c r="M216" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="N216" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O216" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="P216" t="n">
-        <v>13312</v>
+        <v>17500</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>666</v>
+        <v>875</v>
       </c>
       <c r="T216" t="n">
         <v>20</v>
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44344</v>
+        <v>44210</v>
       </c>
       <c r="E217" t="n">
         <v>16</v>
@@ -17724,16 +17724,16 @@
         </is>
       </c>
       <c r="M217" t="n">
-        <v>80</v>
+        <v>760</v>
       </c>
       <c r="N217" t="n">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="O217" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="P217" t="n">
-        <v>12000</v>
+        <v>12079</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="S217" t="n">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="T217" t="n">
         <v>20</v>
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44344</v>
+        <v>44210</v>
       </c>
       <c r="E218" t="n">
         <v>16</v>
@@ -17804,16 +17804,16 @@
         </is>
       </c>
       <c r="M218" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="N218" t="n">
         <v>13000</v>
       </c>
       <c r="O218" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="P218" t="n">
-        <v>13500</v>
+        <v>13312</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="T218" t="n">
         <v>20</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44266</v>
+        <v>44344</v>
       </c>
       <c r="E219" t="n">
         <v>16</v>
@@ -17884,16 +17884,16 @@
         </is>
       </c>
       <c r="M219" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N219" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O219" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P219" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T219" t="n">
         <v>20</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44266</v>
+        <v>44344</v>
       </c>
       <c r="E220" t="n">
         <v>16</v>
@@ -17964,16 +17964,16 @@
         </is>
       </c>
       <c r="M220" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N220" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O220" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P220" t="n">
-        <v>15500</v>
+        <v>13500</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="T220" t="n">
         <v>20</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44350</v>
+        <v>44266</v>
       </c>
       <c r="E221" t="n">
         <v>16</v>
@@ -18040,20 +18040,20 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M221" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="N221" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O221" t="n">
         <v>14000</v>
       </c>
       <c r="P221" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>675</v>
+        <v>700</v>
       </c>
       <c r="T221" t="n">
         <v>20</v>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44455</v>
+        <v>44266</v>
       </c>
       <c r="E222" t="n">
         <v>16</v>
@@ -18120,20 +18120,20 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M222" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N222" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O222" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P222" t="n">
-        <v>18500</v>
+        <v>15500</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>925</v>
+        <v>775</v>
       </c>
       <c r="T222" t="n">
         <v>20</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E223" t="n">
         <v>16</v>
@@ -18204,16 +18204,16 @@
         </is>
       </c>
       <c r="M223" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="N223" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O223" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="P223" t="n">
-        <v>20500</v>
+        <v>13500</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>1025</v>
+        <v>675</v>
       </c>
       <c r="T223" t="n">
         <v>20</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E224" t="n">
         <v>16</v>
@@ -18284,16 +18284,16 @@
         </is>
       </c>
       <c r="M224" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N224" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="O224" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="P224" t="n">
-        <v>11000</v>
+        <v>18500</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>550</v>
+        <v>925</v>
       </c>
       <c r="T224" t="n">
         <v>20</v>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E225" t="n">
         <v>16</v>
@@ -18367,13 +18367,13 @@
         <v>400</v>
       </c>
       <c r="N225" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O225" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="P225" t="n">
-        <v>12500</v>
+        <v>20500</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>625</v>
+        <v>1025</v>
       </c>
       <c r="T225" t="n">
         <v>20</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44460</v>
+        <v>44418</v>
       </c>
       <c r="E226" t="n">
         <v>16</v>
@@ -18444,16 +18444,16 @@
         </is>
       </c>
       <c r="M226" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N226" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="O226" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P226" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="T226" t="n">
         <v>20</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44460</v>
+        <v>44418</v>
       </c>
       <c r="E227" t="n">
         <v>16</v>
@@ -18524,16 +18524,16 @@
         </is>
       </c>
       <c r="M227" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="N227" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O227" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P227" t="n">
-        <v>18500</v>
+        <v>12500</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>925</v>
+        <v>625</v>
       </c>
       <c r="T227" t="n">
         <v>20</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E228" t="n">
         <v>16</v>
@@ -18604,16 +18604,16 @@
         </is>
       </c>
       <c r="M228" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N228" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="O228" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P228" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="T228" t="n">
         <v>20</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E229" t="n">
         <v>16</v>
@@ -18684,16 +18684,16 @@
         </is>
       </c>
       <c r="M229" t="n">
-        <v>800</v>
+        <v>360</v>
       </c>
       <c r="N229" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O229" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P229" t="n">
-        <v>12500</v>
+        <v>18500</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>625</v>
+        <v>925</v>
       </c>
       <c r="T229" t="n">
         <v>20</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E230" t="n">
         <v>16</v>
@@ -18764,16 +18764,16 @@
         </is>
       </c>
       <c r="M230" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N230" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O230" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P230" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="T230" t="n">
         <v>20</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E231" t="n">
         <v>16</v>
@@ -18844,16 +18844,16 @@
         </is>
       </c>
       <c r="M231" t="n">
-        <v>240</v>
+        <v>800</v>
       </c>
       <c r="N231" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O231" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P231" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T231" t="n">
         <v>20</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E232" t="n">
         <v>16</v>
@@ -18924,16 +18924,16 @@
         </is>
       </c>
       <c r="M232" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N232" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O232" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="P232" t="n">
-        <v>12250</v>
+        <v>16000</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>612</v>
+        <v>800</v>
       </c>
       <c r="T232" t="n">
         <v>20</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E233" t="n">
         <v>16</v>
@@ -19004,16 +19004,16 @@
         </is>
       </c>
       <c r="M233" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="N233" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O233" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P233" t="n">
-        <v>13500</v>
+        <v>17500</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="T233" t="n">
         <v>20</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E234" t="n">
         <v>16</v>
@@ -19084,16 +19084,16 @@
         </is>
       </c>
       <c r="M234" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="N234" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="O234" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="P234" t="n">
-        <v>15375</v>
+        <v>12250</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>769</v>
+        <v>612</v>
       </c>
       <c r="T234" t="n">
         <v>20</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E235" t="n">
         <v>16</v>
@@ -19164,16 +19164,16 @@
         </is>
       </c>
       <c r="M235" t="n">
-        <v>380</v>
+        <v>600</v>
       </c>
       <c r="N235" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="O235" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P235" t="n">
-        <v>17526</v>
+        <v>13500</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>876</v>
+        <v>675</v>
       </c>
       <c r="T235" t="n">
         <v>20</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44466</v>
+        <v>44172</v>
       </c>
       <c r="E236" t="n">
         <v>16</v>
@@ -19244,16 +19244,16 @@
         </is>
       </c>
       <c r="M236" t="n">
-        <v>150</v>
+        <v>480</v>
       </c>
       <c r="N236" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="O236" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P236" t="n">
-        <v>14000</v>
+        <v>15375</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>700</v>
+        <v>769</v>
       </c>
       <c r="T236" t="n">
         <v>20</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44466</v>
+        <v>44172</v>
       </c>
       <c r="E237" t="n">
         <v>16</v>
@@ -19324,16 +19324,16 @@
         </is>
       </c>
       <c r="M237" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="N237" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O237" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P237" t="n">
-        <v>15500</v>
+        <v>17526</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>775</v>
+        <v>876</v>
       </c>
       <c r="T237" t="n">
         <v>20</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E238" t="n">
         <v>16</v>
@@ -19404,16 +19404,16 @@
         </is>
       </c>
       <c r="M238" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N238" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O238" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P238" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="T238" t="n">
         <v>20</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E239" t="n">
         <v>16</v>
@@ -19484,16 +19484,16 @@
         </is>
       </c>
       <c r="M239" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="N239" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O239" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P239" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>625</v>
+        <v>775</v>
       </c>
       <c r="T239" t="n">
         <v>20</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E240" t="n">
         <v>16</v>
@@ -19564,16 +19564,16 @@
         </is>
       </c>
       <c r="M240" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="N240" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="O240" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P240" t="n">
-        <v>9750</v>
+        <v>11000</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>488</v>
+        <v>550</v>
       </c>
       <c r="T240" t="n">
         <v>20</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E241" t="n">
         <v>16</v>
@@ -19644,16 +19644,16 @@
         </is>
       </c>
       <c r="M241" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N241" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O241" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P241" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="T241" t="n">
         <v>20</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E242" t="n">
         <v>16</v>
@@ -19724,16 +19724,16 @@
         </is>
       </c>
       <c r="M242" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="N242" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="O242" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P242" t="n">
-        <v>14000</v>
+        <v>9750</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>700</v>
+        <v>488</v>
       </c>
       <c r="T242" t="n">
         <v>20</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E243" t="n">
         <v>16</v>
@@ -19807,13 +19807,13 @@
         <v>360</v>
       </c>
       <c r="N243" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O243" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P243" t="n">
-        <v>15500</v>
+        <v>11500</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="T243" t="n">
         <v>20</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E244" t="n">
         <v>16</v>
@@ -19887,13 +19887,13 @@
         <v>80</v>
       </c>
       <c r="N244" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O244" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P244" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="T244" t="n">
         <v>20</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E245" t="n">
         <v>16</v>
@@ -19964,16 +19964,16 @@
         </is>
       </c>
       <c r="M245" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="N245" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O245" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P245" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>625</v>
+        <v>775</v>
       </c>
       <c r="T245" t="n">
         <v>20</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E246" t="n">
         <v>16</v>
@@ -20044,16 +20044,16 @@
         </is>
       </c>
       <c r="M246" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N246" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O246" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P246" t="n">
-        <v>15500</v>
+        <v>11000</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>775</v>
+        <v>550</v>
       </c>
       <c r="T246" t="n">
         <v>20</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E247" t="n">
         <v>16</v>
@@ -20120,20 +20120,20 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M247" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="N247" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O247" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P247" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="T247" t="n">
         <v>20</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E248" t="n">
         <v>16</v>
@@ -20200,20 +20200,20 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M248" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="N248" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O248" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P248" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>625</v>
+        <v>775</v>
       </c>
       <c r="T248" t="n">
         <v>20</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E249" t="n">
         <v>16</v>
@@ -20284,16 +20284,16 @@
         </is>
       </c>
       <c r="M249" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N249" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O249" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P249" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="T249" t="n">
         <v>20</v>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E250" t="n">
         <v>16</v>
@@ -20364,16 +20364,16 @@
         </is>
       </c>
       <c r="M250" t="n">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="N250" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O250" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P250" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T250" t="n">
         <v>20</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E251" t="n">
         <v>16</v>
@@ -20444,16 +20444,16 @@
         </is>
       </c>
       <c r="M251" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N251" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O251" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P251" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="T251" t="n">
         <v>20</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E252" t="n">
         <v>16</v>
@@ -20524,16 +20524,16 @@
         </is>
       </c>
       <c r="M252" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N252" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O252" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P252" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>725</v>
+        <v>875</v>
       </c>
       <c r="T252" t="n">
         <v>20</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E253" t="n">
         <v>16</v>
@@ -20604,16 +20604,16 @@
         </is>
       </c>
       <c r="M253" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="N253" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O253" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P253" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="T253" t="n">
         <v>20</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E254" t="n">
         <v>16</v>
@@ -20687,13 +20687,13 @@
         <v>360</v>
       </c>
       <c r="N254" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O254" t="n">
         <v>15000</v>
       </c>
-      <c r="O254" t="n">
-        <v>16000</v>
-      </c>
       <c r="P254" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="T254" t="n">
         <v>20</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E255" t="n">
         <v>16</v>
@@ -20760,20 +20760,20 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M255" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="N255" t="n">
         <v>14000</v>
       </c>
       <c r="O255" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P255" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>725</v>
+        <v>700</v>
       </c>
       <c r="T255" t="n">
         <v>20</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44312</v>
+        <v>44260</v>
       </c>
       <c r="E256" t="n">
         <v>16</v>
@@ -20840,20 +20840,20 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M256" t="n">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="N256" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O256" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P256" t="n">
-        <v>11000</v>
+        <v>15500</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>550</v>
+        <v>775</v>
       </c>
       <c r="T256" t="n">
         <v>20</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E257" t="n">
         <v>16</v>
@@ -20924,16 +20924,16 @@
         </is>
       </c>
       <c r="M257" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N257" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O257" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P257" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="T257" t="n">
         <v>20</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E258" t="n">
         <v>16</v>
@@ -21004,16 +21004,16 @@
         </is>
       </c>
       <c r="M258" t="n">
-        <v>640</v>
+        <v>120</v>
       </c>
       <c r="N258" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="O258" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P258" t="n">
-        <v>9734</v>
+        <v>11000</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>487</v>
+        <v>550</v>
       </c>
       <c r="T258" t="n">
         <v>20</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E259" t="n">
         <v>16</v>
@@ -21084,16 +21084,16 @@
         </is>
       </c>
       <c r="M259" t="n">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="N259" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O259" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P259" t="n">
-        <v>11469</v>
+        <v>12500</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>573</v>
+        <v>625</v>
       </c>
       <c r="T259" t="n">
         <v>20</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E260" t="n">
         <v>16</v>
@@ -21164,16 +21164,16 @@
         </is>
       </c>
       <c r="M260" t="n">
-        <v>80</v>
+        <v>640</v>
       </c>
       <c r="N260" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="O260" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P260" t="n">
-        <v>11000</v>
+        <v>9734</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>550</v>
+        <v>487</v>
       </c>
       <c r="T260" t="n">
         <v>20</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E261" t="n">
         <v>16</v>
@@ -21244,16 +21244,16 @@
         </is>
       </c>
       <c r="M261" t="n">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="N261" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O261" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P261" t="n">
-        <v>13500</v>
+        <v>11469</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>675</v>
+        <v>573</v>
       </c>
       <c r="T261" t="n">
         <v>20</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E262" t="n">
         <v>16</v>
@@ -21324,16 +21324,16 @@
         </is>
       </c>
       <c r="M262" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N262" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O262" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P262" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="T262" t="n">
         <v>20</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E263" t="n">
         <v>16</v>
@@ -21407,13 +21407,13 @@
         <v>240</v>
       </c>
       <c r="N263" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O263" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P263" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="T263" t="n">
         <v>20</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E264" t="n">
         <v>16</v>
@@ -21484,16 +21484,16 @@
         </is>
       </c>
       <c r="M264" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N264" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O264" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P264" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="T264" t="n">
         <v>20</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E265" t="n">
         <v>16</v>
@@ -21564,16 +21564,16 @@
         </is>
       </c>
       <c r="M265" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N265" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O265" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P265" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="T265" t="n">
         <v>20</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E266" t="n">
         <v>16</v>
@@ -21647,13 +21647,13 @@
         <v>80</v>
       </c>
       <c r="N266" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O266" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P266" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="T266" t="n">
         <v>20</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E267" t="n">
         <v>16</v>
@@ -21724,16 +21724,16 @@
         </is>
       </c>
       <c r="M267" t="n">
-        <v>360</v>
+        <v>160</v>
       </c>
       <c r="N267" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O267" t="n">
         <v>15000</v>
       </c>
-      <c r="O267" t="n">
-        <v>16000</v>
-      </c>
       <c r="P267" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="T267" t="n">
         <v>20</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E268" t="n">
         <v>16</v>
@@ -21804,7 +21804,7 @@
         </is>
       </c>
       <c r="M268" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N268" t="n">
         <v>14000</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E269" t="n">
         <v>16</v>
@@ -21884,7 +21884,7 @@
         </is>
       </c>
       <c r="M269" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="N269" t="n">
         <v>15000</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E270" t="n">
         <v>16</v>
@@ -21964,16 +21964,16 @@
         </is>
       </c>
       <c r="M270" t="n">
-        <v>540</v>
+        <v>150</v>
       </c>
       <c r="N270" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O270" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P270" t="n">
-        <v>12370</v>
+        <v>14000</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>618</v>
+        <v>700</v>
       </c>
       <c r="T270" t="n">
         <v>20</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E271" t="n">
         <v>16</v>
@@ -22044,16 +22044,16 @@
         </is>
       </c>
       <c r="M271" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="N271" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O271" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P271" t="n">
-        <v>14536</v>
+        <v>15500</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>727</v>
+        <v>775</v>
       </c>
       <c r="T271" t="n">
         <v>20</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E272" t="n">
         <v>16</v>
@@ -22124,16 +22124,16 @@
         </is>
       </c>
       <c r="M272" t="n">
-        <v>80</v>
+        <v>540</v>
       </c>
       <c r="N272" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O272" t="n">
         <v>13000</v>
       </c>
       <c r="P272" t="n">
-        <v>13000</v>
+        <v>12370</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>650</v>
+        <v>618</v>
       </c>
       <c r="T272" t="n">
         <v>20</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E273" t="n">
         <v>16</v>
@@ -22204,7 +22204,7 @@
         </is>
       </c>
       <c r="M273" t="n">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="N273" t="n">
         <v>14000</v>
@@ -22213,7 +22213,7 @@
         <v>15000</v>
       </c>
       <c r="P273" t="n">
-        <v>14500</v>
+        <v>14536</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="T273" t="n">
         <v>20</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E274" t="n">
         <v>16</v>
@@ -22284,16 +22284,16 @@
         </is>
       </c>
       <c r="M274" t="n">
-        <v>660</v>
+        <v>80</v>
       </c>
       <c r="N274" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O274" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="P274" t="n">
-        <v>9273</v>
+        <v>13000</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>464</v>
+        <v>650</v>
       </c>
       <c r="T274" t="n">
         <v>20</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E275" t="n">
         <v>16</v>
@@ -22364,16 +22364,16 @@
         </is>
       </c>
       <c r="M275" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N275" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O275" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P275" t="n">
-        <v>10667</v>
+        <v>14500</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>533</v>
+        <v>725</v>
       </c>
       <c r="T275" t="n">
         <v>20</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E276" t="n">
         <v>16</v>
@@ -22444,16 +22444,16 @@
         </is>
       </c>
       <c r="M276" t="n">
-        <v>160</v>
+        <v>660</v>
       </c>
       <c r="N276" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O276" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="P276" t="n">
-        <v>8250</v>
+        <v>9273</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>412</v>
+        <v>464</v>
       </c>
       <c r="T276" t="n">
         <v>20</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E277" t="n">
         <v>16</v>
@@ -22524,16 +22524,16 @@
         </is>
       </c>
       <c r="M277" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N277" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="O277" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P277" t="n">
-        <v>9750</v>
+        <v>10667</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>488</v>
+        <v>533</v>
       </c>
       <c r="T277" t="n">
         <v>20</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E278" t="n">
         <v>16</v>
@@ -22604,16 +22604,16 @@
         </is>
       </c>
       <c r="M278" t="n">
-        <v>570</v>
+        <v>160</v>
       </c>
       <c r="N278" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O278" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="P278" t="n">
-        <v>9000</v>
+        <v>8250</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>450</v>
+        <v>412</v>
       </c>
       <c r="T278" t="n">
         <v>20</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E279" t="n">
         <v>16</v>
@@ -22684,16 +22684,16 @@
         </is>
       </c>
       <c r="M279" t="n">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="N279" t="n">
+        <v>9500</v>
+      </c>
+      <c r="O279" t="n">
         <v>10000</v>
       </c>
-      <c r="O279" t="n">
-        <v>11000</v>
-      </c>
       <c r="P279" t="n">
-        <v>10394</v>
+        <v>9750</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>520</v>
+        <v>488</v>
       </c>
       <c r="T279" t="n">
         <v>20</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E280" t="n">
         <v>16</v>
@@ -22764,16 +22764,16 @@
         </is>
       </c>
       <c r="M280" t="n">
-        <v>80</v>
+        <v>570</v>
       </c>
       <c r="N280" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O280" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P280" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="T280" t="n">
         <v>20</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E281" t="n">
         <v>16</v>
@@ -22844,16 +22844,16 @@
         </is>
       </c>
       <c r="M281" t="n">
-        <v>240</v>
+        <v>330</v>
       </c>
       <c r="N281" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O281" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P281" t="n">
-        <v>17500</v>
+        <v>10394</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>875</v>
+        <v>520</v>
       </c>
       <c r="T281" t="n">
         <v>20</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E282" t="n">
         <v>16</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E283" t="n">
         <v>16</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E284" t="n">
         <v>16</v>
@@ -23087,13 +23087,13 @@
         <v>80</v>
       </c>
       <c r="N284" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O284" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P284" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="T284" t="n">
         <v>20</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E285" t="n">
         <v>16</v>
@@ -23164,16 +23164,16 @@
         </is>
       </c>
       <c r="M285" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N285" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O285" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P285" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T285" t="n">
         <v>20</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E286" t="n">
         <v>16</v>
@@ -23244,16 +23244,16 @@
         </is>
       </c>
       <c r="M286" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N286" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="O286" t="n">
-        <v>11800</v>
+        <v>11000</v>
       </c>
       <c r="P286" t="n">
-        <v>11650</v>
+        <v>11000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>582</v>
+        <v>550</v>
       </c>
       <c r="T286" t="n">
         <v>20</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E287" t="n">
         <v>16</v>
@@ -23324,16 +23324,16 @@
         </is>
       </c>
       <c r="M287" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N287" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="O287" t="n">
         <v>13000</v>
       </c>
       <c r="P287" t="n">
-        <v>12750</v>
+        <v>12500</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="T287" t="n">
         <v>20</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E288" t="n">
         <v>16</v>
@@ -23404,16 +23404,16 @@
         </is>
       </c>
       <c r="M288" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N288" t="n">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="O288" t="n">
-        <v>12000</v>
+        <v>11800</v>
       </c>
       <c r="P288" t="n">
-        <v>12000</v>
+        <v>11650</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="T288" t="n">
         <v>20</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E289" t="n">
         <v>16</v>
@@ -23487,13 +23487,13 @@
         <v>240</v>
       </c>
       <c r="N289" t="n">
+        <v>12500</v>
+      </c>
+      <c r="O289" t="n">
         <v>13000</v>
       </c>
-      <c r="O289" t="n">
-        <v>14000</v>
-      </c>
       <c r="P289" t="n">
-        <v>13500</v>
+        <v>12750</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>675</v>
+        <v>638</v>
       </c>
       <c r="T289" t="n">
         <v>20</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E290" t="n">
         <v>16</v>
@@ -23564,16 +23564,16 @@
         </is>
       </c>
       <c r="M290" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N290" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O290" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P290" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="T290" t="n">
         <v>20</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E291" t="n">
         <v>16</v>
@@ -23647,13 +23647,13 @@
         <v>240</v>
       </c>
       <c r="N291" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O291" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P291" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="T291" t="n">
         <v>20</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E292" t="n">
         <v>16</v>
@@ -23720,20 +23720,20 @@
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M292" t="n">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="N292" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="O292" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P292" t="n">
-        <v>14750</v>
+        <v>11000</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>738</v>
+        <v>550</v>
       </c>
       <c r="T292" t="n">
         <v>20</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E293" t="n">
         <v>16</v>
@@ -23800,20 +23800,20 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M293" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="N293" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O293" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P293" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="T293" t="n">
         <v>20</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E294" t="n">
         <v>16</v>
@@ -23887,13 +23887,13 @@
         <v>360</v>
       </c>
       <c r="N294" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="O294" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P294" t="n">
-        <v>12500</v>
+        <v>14750</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>625</v>
+        <v>738</v>
       </c>
       <c r="T294" t="n">
         <v>20</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E295" t="n">
         <v>16</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E296" t="n">
         <v>16</v>
@@ -24044,7 +24044,7 @@
         </is>
       </c>
       <c r="M296" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N296" t="n">
         <v>12000</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E297" t="n">
         <v>16</v>
@@ -24127,13 +24127,13 @@
         <v>80</v>
       </c>
       <c r="N297" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O297" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P297" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="T297" t="n">
         <v>20</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E298" t="n">
         <v>16</v>
@@ -24207,13 +24207,13 @@
         <v>240</v>
       </c>
       <c r="N298" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O298" t="n">
         <v>13000</v>
       </c>
-      <c r="O298" t="n">
-        <v>14000</v>
-      </c>
       <c r="P298" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="T298" t="n">
         <v>20</v>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E299" t="n">
         <v>16</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="M299" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N299" t="n">
         <v>12000</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E300" t="n">
         <v>16</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E301" t="n">
         <v>16</v>
@@ -24444,16 +24444,16 @@
         </is>
       </c>
       <c r="M301" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N301" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O301" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P301" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="T301" t="n">
         <v>20</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E302" t="n">
         <v>16</v>
@@ -24527,13 +24527,13 @@
         <v>240</v>
       </c>
       <c r="N302" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O302" t="n">
         <v>14000</v>
       </c>
-      <c r="O302" t="n">
-        <v>15000</v>
-      </c>
       <c r="P302" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="T302" t="n">
         <v>20</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E303" t="n">
         <v>16</v>
@@ -24604,16 +24604,16 @@
         </is>
       </c>
       <c r="M303" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N303" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O303" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P303" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="T303" t="n">
         <v>20</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E304" t="n">
         <v>16</v>
@@ -24687,13 +24687,13 @@
         <v>240</v>
       </c>
       <c r="N304" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O304" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P304" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="T304" t="n">
         <v>20</v>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E305" t="n">
         <v>16</v>
@@ -24764,16 +24764,16 @@
         </is>
       </c>
       <c r="M305" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="N305" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O305" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P305" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T305" t="n">
         <v>20</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E306" t="n">
         <v>16</v>
@@ -24844,16 +24844,16 @@
         </is>
       </c>
       <c r="M306" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N306" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="O306" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P306" t="n">
-        <v>14750</v>
+        <v>13500</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>738</v>
+        <v>675</v>
       </c>
       <c r="T306" t="n">
         <v>20</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E307" t="n">
         <v>16</v>
@@ -24920,11 +24920,11 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M307" t="n">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="N307" t="n">
         <v>14000</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E308" t="n">
         <v>16</v>
@@ -25004,16 +25004,16 @@
         </is>
       </c>
       <c r="M308" t="n">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="N308" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="O308" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P308" t="n">
-        <v>13000</v>
+        <v>14750</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>650</v>
+        <v>738</v>
       </c>
       <c r="T308" t="n">
         <v>20</v>
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E309" t="n">
         <v>16</v>
@@ -25080,20 +25080,20 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M309" t="n">
         <v>120</v>
       </c>
       <c r="N309" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O309" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P309" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T309" t="n">
         <v>20</v>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E310" t="n">
         <v>16</v>
@@ -25164,16 +25164,16 @@
         </is>
       </c>
       <c r="M310" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N310" t="n">
         <v>13000</v>
       </c>
       <c r="O310" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P310" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="T310" t="n">
         <v>20</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E311" t="n">
         <v>16</v>
@@ -25244,16 +25244,16 @@
         </is>
       </c>
       <c r="M311" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N311" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O311" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P311" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="T311" t="n">
         <v>20</v>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E312" t="n">
         <v>16</v>
@@ -25324,16 +25324,16 @@
         </is>
       </c>
       <c r="M312" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="N312" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O312" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P312" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="T312" t="n">
         <v>20</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E313" t="n">
         <v>16</v>
@@ -25404,16 +25404,16 @@
         </is>
       </c>
       <c r="M313" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="N313" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O313" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P313" t="n">
-        <v>16500</v>
+        <v>11000</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>825</v>
+        <v>550</v>
       </c>
       <c r="T313" t="n">
         <v>20</v>
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E314" t="n">
         <v>16</v>
@@ -25484,16 +25484,16 @@
         </is>
       </c>
       <c r="M314" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N314" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O314" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P314" t="n">
-        <v>18500</v>
+        <v>12500</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>925</v>
+        <v>625</v>
       </c>
       <c r="T314" t="n">
         <v>20</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E315" t="n">
         <v>16</v>
@@ -25564,16 +25564,16 @@
         </is>
       </c>
       <c r="M315" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="N315" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O315" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P315" t="n">
-        <v>11000</v>
+        <v>16500</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>550</v>
+        <v>825</v>
       </c>
       <c r="T315" t="n">
         <v>20</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E316" t="n">
         <v>16</v>
@@ -25644,16 +25644,16 @@
         </is>
       </c>
       <c r="M316" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N316" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O316" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P316" t="n">
-        <v>12500</v>
+        <v>18500</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>625</v>
+        <v>925</v>
       </c>
       <c r="T316" t="n">
         <v>20</v>
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E317" t="n">
         <v>16</v>
@@ -25724,16 +25724,16 @@
         </is>
       </c>
       <c r="M317" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N317" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="O317" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P317" t="n">
-        <v>14750</v>
+        <v>11000</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>738</v>
+        <v>550</v>
       </c>
       <c r="T317" t="n">
         <v>20</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E318" t="n">
         <v>16</v>
@@ -25800,20 +25800,20 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M318" t="n">
         <v>160</v>
       </c>
       <c r="N318" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O318" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P318" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="T318" t="n">
         <v>20</v>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E319" t="n">
         <v>16</v>
@@ -25880,20 +25880,20 @@
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M319" t="n">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="N319" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="O319" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P319" t="n">
-        <v>13500</v>
+        <v>14750</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>675</v>
+        <v>738</v>
       </c>
       <c r="T319" t="n">
         <v>20</v>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E320" t="n">
         <v>16</v>
@@ -25964,16 +25964,16 @@
         </is>
       </c>
       <c r="M320" t="n">
-        <v>640</v>
+        <v>160</v>
       </c>
       <c r="N320" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O320" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P320" t="n">
-        <v>10469</v>
+        <v>11500</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>523</v>
+        <v>575</v>
       </c>
       <c r="T320" t="n">
         <v>20</v>
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E321" t="n">
         <v>16</v>
@@ -26044,16 +26044,16 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N321" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="O321" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P321" t="n">
-        <v>11750</v>
+        <v>13500</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>588</v>
+        <v>675</v>
       </c>
       <c r="T321" t="n">
         <v>20</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E322" t="n">
         <v>16</v>
@@ -26124,16 +26124,16 @@
         </is>
       </c>
       <c r="M322" t="n">
-        <v>480</v>
+        <v>640</v>
       </c>
       <c r="N322" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O322" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P322" t="n">
-        <v>14417</v>
+        <v>10469</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>721</v>
+        <v>523</v>
       </c>
       <c r="T322" t="n">
         <v>20</v>
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E323" t="n">
         <v>16</v>
@@ -26204,16 +26204,16 @@
         </is>
       </c>
       <c r="M323" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N323" t="n">
-        <v>15500</v>
+        <v>11500</v>
       </c>
       <c r="O323" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P323" t="n">
-        <v>15826</v>
+        <v>11750</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>791</v>
+        <v>588</v>
       </c>
       <c r="T323" t="n">
         <v>20</v>
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E324" t="n">
         <v>16</v>
@@ -26284,16 +26284,16 @@
         </is>
       </c>
       <c r="M324" t="n">
-        <v>150</v>
+        <v>480</v>
       </c>
       <c r="N324" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O324" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P324" t="n">
-        <v>16000</v>
+        <v>14417</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>800</v>
+        <v>721</v>
       </c>
       <c r="T324" t="n">
         <v>20</v>
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E325" t="n">
         <v>16</v>
@@ -26364,16 +26364,16 @@
         </is>
       </c>
       <c r="M325" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N325" t="n">
-        <v>17000</v>
+        <v>15500</v>
       </c>
       <c r="O325" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P325" t="n">
-        <v>17500</v>
+        <v>15826</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>875</v>
+        <v>791</v>
       </c>
       <c r="T325" t="n">
         <v>20</v>
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E326" t="n">
         <v>16</v>
@@ -26444,16 +26444,16 @@
         </is>
       </c>
       <c r="M326" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N326" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O326" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P326" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="T326" t="n">
         <v>20</v>
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E327" t="n">
         <v>16</v>
@@ -26524,16 +26524,16 @@
         </is>
       </c>
       <c r="M327" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N327" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O327" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P327" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T327" t="n">
         <v>20</v>
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E328" t="n">
         <v>16</v>
@@ -26604,16 +26604,16 @@
         </is>
       </c>
       <c r="M328" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N328" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O328" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P328" t="n">
-        <v>15500</v>
+        <v>11000</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>775</v>
+        <v>550</v>
       </c>
       <c r="T328" t="n">
         <v>20</v>
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E329" t="n">
         <v>16</v>
@@ -26684,16 +26684,16 @@
         </is>
       </c>
       <c r="M329" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N329" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O329" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P329" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>850</v>
+        <v>625</v>
       </c>
       <c r="T329" t="n">
         <v>20</v>
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E330" t="n">
         <v>16</v>
@@ -26764,16 +26764,16 @@
         </is>
       </c>
       <c r="M330" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="N330" t="n">
         <v>15000</v>
       </c>
       <c r="O330" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P330" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="T330" t="n">
         <v>20</v>
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E331" t="n">
         <v>16</v>
@@ -26844,16 +26844,16 @@
         </is>
       </c>
       <c r="M331" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N331" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O331" t="n">
         <v>17000</v>
       </c>
       <c r="P331" t="n">
-        <v>16500</v>
+        <v>17000</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>825</v>
+        <v>850</v>
       </c>
       <c r="T331" t="n">
         <v>20</v>
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E332" t="n">
         <v>16</v>
@@ -26924,16 +26924,16 @@
         </is>
       </c>
       <c r="M332" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N332" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="O332" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P332" t="n">
-        <v>12750</v>
+        <v>15000</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>638</v>
+        <v>750</v>
       </c>
       <c r="T332" t="n">
         <v>20</v>
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E333" t="n">
         <v>16</v>
@@ -27004,16 +27004,16 @@
         </is>
       </c>
       <c r="M333" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="N333" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O333" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P333" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="T333" t="n">
         <v>20</v>
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E334" t="n">
         <v>16</v>
@@ -27084,16 +27084,16 @@
         </is>
       </c>
       <c r="M334" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N334" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="O334" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P334" t="n">
-        <v>11750</v>
+        <v>12750</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>588</v>
+        <v>638</v>
       </c>
       <c r="T334" t="n">
         <v>20</v>
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E335" t="n">
         <v>16</v>
@@ -27164,16 +27164,16 @@
         </is>
       </c>
       <c r="M335" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="N335" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O335" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P335" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="T335" t="n">
         <v>20</v>
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E336" t="n">
         <v>16</v>
@@ -27244,16 +27244,16 @@
         </is>
       </c>
       <c r="M336" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N336" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="O336" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P336" t="n">
-        <v>13000</v>
+        <v>11750</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>650</v>
+        <v>588</v>
       </c>
       <c r="T336" t="n">
         <v>20</v>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E337" t="n">
         <v>16</v>
@@ -27324,16 +27324,16 @@
         </is>
       </c>
       <c r="M337" t="n">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="N337" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O337" t="n">
         <v>14000</v>
       </c>
-      <c r="O337" t="n">
-        <v>15000</v>
-      </c>
       <c r="P337" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="T337" t="n">
         <v>20</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E338" t="n">
         <v>16</v>
@@ -27404,16 +27404,16 @@
         </is>
       </c>
       <c r="M338" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N338" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O338" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P338" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="T338" t="n">
         <v>20</v>
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E339" t="n">
         <v>16</v>
@@ -27484,16 +27484,16 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N339" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O339" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P339" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="T339" t="n">
         <v>20</v>
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E340" t="n">
         <v>16</v>
@@ -27564,16 +27564,16 @@
         </is>
       </c>
       <c r="M340" t="n">
-        <v>640</v>
+        <v>120</v>
       </c>
       <c r="N340" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O340" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P340" t="n">
-        <v>13688</v>
+        <v>9000</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>684</v>
+        <v>450</v>
       </c>
       <c r="T340" t="n">
         <v>20</v>
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E341" t="n">
         <v>16</v>
@@ -27644,16 +27644,16 @@
         </is>
       </c>
       <c r="M341" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="N341" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="O341" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P341" t="n">
-        <v>14714</v>
+        <v>10500</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>736</v>
+        <v>525</v>
       </c>
       <c r="T341" t="n">
         <v>20</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E342" t="n">
         <v>16</v>
@@ -27720,20 +27720,20 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M342" t="n">
-        <v>160</v>
+        <v>640</v>
       </c>
       <c r="N342" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O342" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P342" t="n">
-        <v>11500</v>
+        <v>13688</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>575</v>
+        <v>684</v>
       </c>
       <c r="T342" t="n">
         <v>20</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E343" t="n">
         <v>16</v>
@@ -27800,20 +27800,20 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M343" t="n">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="N343" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="O343" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P343" t="n">
-        <v>11000</v>
+        <v>14714</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>550</v>
+        <v>736</v>
       </c>
       <c r="T343" t="n">
         <v>20</v>
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E344" t="n">
         <v>16</v>
@@ -27884,16 +27884,16 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N344" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O344" t="n">
         <v>12000</v>
       </c>
-      <c r="O344" t="n">
-        <v>13000</v>
-      </c>
       <c r="P344" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="T344" t="n">
         <v>20</v>
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E345" t="n">
         <v>16</v>
@@ -27960,20 +27960,20 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M345" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N345" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O345" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P345" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>725</v>
+        <v>550</v>
       </c>
       <c r="T345" t="n">
         <v>20</v>
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E346" t="n">
         <v>16</v>
@@ -28040,20 +28040,20 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M346" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="N346" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O346" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P346" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="T346" t="n">
         <v>20</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E347" t="n">
         <v>16</v>
@@ -28124,16 +28124,16 @@
         </is>
       </c>
       <c r="M347" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N347" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O347" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P347" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="T347" t="n">
         <v>20</v>
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E348" t="n">
         <v>16</v>
@@ -28204,16 +28204,16 @@
         </is>
       </c>
       <c r="M348" t="n">
-        <v>640</v>
+        <v>80</v>
       </c>
       <c r="N348" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O348" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P348" t="n">
-        <v>12469</v>
+        <v>11000</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>623</v>
+        <v>550</v>
       </c>
       <c r="T348" t="n">
         <v>20</v>
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E349" t="n">
         <v>16</v>
@@ -28284,16 +28284,16 @@
         </is>
       </c>
       <c r="M349" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N349" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O349" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P349" t="n">
-        <v>14600</v>
+        <v>12500</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>730</v>
+        <v>625</v>
       </c>
       <c r="T349" t="n">
         <v>20</v>
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E350" t="n">
         <v>16</v>
@@ -28364,16 +28364,16 @@
         </is>
       </c>
       <c r="M350" t="n">
-        <v>100</v>
+        <v>640</v>
       </c>
       <c r="N350" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O350" t="n">
         <v>13000</v>
       </c>
       <c r="P350" t="n">
-        <v>13000</v>
+        <v>12469</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>650</v>
+        <v>623</v>
       </c>
       <c r="T350" t="n">
         <v>20</v>
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E351" t="n">
         <v>16</v>
@@ -28453,7 +28453,7 @@
         <v>15000</v>
       </c>
       <c r="P351" t="n">
-        <v>14500</v>
+        <v>14600</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="T351" t="n">
         <v>20</v>
@@ -28487,68 +28487,228 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E352" t="n">
+        <v>16</v>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G352" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I352" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J352" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>Pintón</t>
+        </is>
+      </c>
+      <c r="M352" t="n">
+        <v>100</v>
+      </c>
+      <c r="N352" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O352" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P352" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q352" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R352" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S352" t="n">
+        <v>650</v>
+      </c>
+      <c r="T352" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>7</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D353" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E353" t="n">
+        <v>16</v>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G353" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I353" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J353" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>Primera Pintón</t>
+        </is>
+      </c>
+      <c r="M353" t="n">
+        <v>300</v>
+      </c>
+      <c r="N353" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O353" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P353" t="n">
+        <v>14500</v>
+      </c>
+      <c r="Q353" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R353" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S353" t="n">
+        <v>725</v>
+      </c>
+      <c r="T353" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>7</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D354" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E352" t="n">
-        <v>16</v>
-      </c>
-      <c r="F352" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G352" t="n">
-        <v>100108</v>
-      </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>Tropicales y subtropicales</t>
-        </is>
-      </c>
-      <c r="I352" t="n">
-        <v>100108006</v>
-      </c>
-      <c r="J352" t="inlineStr">
-        <is>
-          <t>Plátano</t>
-        </is>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L352" t="inlineStr">
+      <c r="E354" t="n">
+        <v>16</v>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G354" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I354" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J354" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L354" t="inlineStr">
         <is>
           <t>Primera Pintón</t>
         </is>
       </c>
-      <c r="M352" t="n">
+      <c r="M354" t="n">
         <v>240</v>
       </c>
-      <c r="N352" t="n">
+      <c r="N354" t="n">
         <v>16000</v>
       </c>
-      <c r="O352" t="n">
+      <c r="O354" t="n">
         <v>17000</v>
       </c>
-      <c r="P352" t="n">
+      <c r="P354" t="n">
         <v>16500</v>
       </c>
-      <c r="Q352" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R352" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S352" t="n">
+      <c r="Q354" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R354" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S354" t="n">
         <v>825</v>
       </c>
-      <c r="T352" t="n">
+      <c r="T354" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T354"/>
+  <dimension ref="A1:T356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E258" t="n">
         <v>16</v>
@@ -21004,16 +21004,16 @@
         </is>
       </c>
       <c r="M258" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N258" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O258" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P258" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="T258" t="n">
         <v>20</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E259" t="n">
         <v>16</v>
@@ -21084,16 +21084,16 @@
         </is>
       </c>
       <c r="M259" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="N259" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O259" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P259" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="T259" t="n">
         <v>20</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E260" t="n">
         <v>16</v>
@@ -21164,16 +21164,16 @@
         </is>
       </c>
       <c r="M260" t="n">
-        <v>640</v>
+        <v>120</v>
       </c>
       <c r="N260" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="O260" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P260" t="n">
-        <v>9734</v>
+        <v>11000</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>487</v>
+        <v>550</v>
       </c>
       <c r="T260" t="n">
         <v>20</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E261" t="n">
         <v>16</v>
@@ -21244,16 +21244,16 @@
         </is>
       </c>
       <c r="M261" t="n">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="N261" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O261" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P261" t="n">
-        <v>11469</v>
+        <v>12500</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>573</v>
+        <v>625</v>
       </c>
       <c r="T261" t="n">
         <v>20</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E262" t="n">
         <v>16</v>
@@ -21324,16 +21324,16 @@
         </is>
       </c>
       <c r="M262" t="n">
-        <v>80</v>
+        <v>640</v>
       </c>
       <c r="N262" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="O262" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P262" t="n">
-        <v>11000</v>
+        <v>9734</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>550</v>
+        <v>487</v>
       </c>
       <c r="T262" t="n">
         <v>20</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E263" t="n">
         <v>16</v>
@@ -21404,16 +21404,16 @@
         </is>
       </c>
       <c r="M263" t="n">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="N263" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O263" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P263" t="n">
-        <v>13500</v>
+        <v>11469</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>675</v>
+        <v>573</v>
       </c>
       <c r="T263" t="n">
         <v>20</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E264" t="n">
         <v>16</v>
@@ -21484,16 +21484,16 @@
         </is>
       </c>
       <c r="M264" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N264" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O264" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P264" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="T264" t="n">
         <v>20</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E265" t="n">
         <v>16</v>
@@ -21567,13 +21567,13 @@
         <v>240</v>
       </c>
       <c r="N265" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O265" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P265" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="T265" t="n">
         <v>20</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E266" t="n">
         <v>16</v>
@@ -21644,16 +21644,16 @@
         </is>
       </c>
       <c r="M266" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N266" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O266" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P266" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="T266" t="n">
         <v>20</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E267" t="n">
         <v>16</v>
@@ -21724,16 +21724,16 @@
         </is>
       </c>
       <c r="M267" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N267" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O267" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P267" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="T267" t="n">
         <v>20</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E268" t="n">
         <v>16</v>
@@ -21807,13 +21807,13 @@
         <v>80</v>
       </c>
       <c r="N268" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O268" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P268" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="T268" t="n">
         <v>20</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E269" t="n">
         <v>16</v>
@@ -21884,16 +21884,16 @@
         </is>
       </c>
       <c r="M269" t="n">
-        <v>360</v>
+        <v>160</v>
       </c>
       <c r="N269" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O269" t="n">
         <v>15000</v>
       </c>
-      <c r="O269" t="n">
-        <v>16000</v>
-      </c>
       <c r="P269" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="T269" t="n">
         <v>20</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E270" t="n">
         <v>16</v>
@@ -21964,7 +21964,7 @@
         </is>
       </c>
       <c r="M270" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N270" t="n">
         <v>14000</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E271" t="n">
         <v>16</v>
@@ -22044,7 +22044,7 @@
         </is>
       </c>
       <c r="M271" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="N271" t="n">
         <v>15000</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E272" t="n">
         <v>16</v>
@@ -22124,16 +22124,16 @@
         </is>
       </c>
       <c r="M272" t="n">
-        <v>540</v>
+        <v>150</v>
       </c>
       <c r="N272" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O272" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P272" t="n">
-        <v>12370</v>
+        <v>14000</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>618</v>
+        <v>700</v>
       </c>
       <c r="T272" t="n">
         <v>20</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E273" t="n">
         <v>16</v>
@@ -22204,16 +22204,16 @@
         </is>
       </c>
       <c r="M273" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="N273" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O273" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P273" t="n">
-        <v>14536</v>
+        <v>15500</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>727</v>
+        <v>775</v>
       </c>
       <c r="T273" t="n">
         <v>20</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E274" t="n">
         <v>16</v>
@@ -22284,16 +22284,16 @@
         </is>
       </c>
       <c r="M274" t="n">
-        <v>80</v>
+        <v>540</v>
       </c>
       <c r="N274" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O274" t="n">
         <v>13000</v>
       </c>
       <c r="P274" t="n">
-        <v>13000</v>
+        <v>12370</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>650</v>
+        <v>618</v>
       </c>
       <c r="T274" t="n">
         <v>20</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E275" t="n">
         <v>16</v>
@@ -22364,7 +22364,7 @@
         </is>
       </c>
       <c r="M275" t="n">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="N275" t="n">
         <v>14000</v>
@@ -22373,7 +22373,7 @@
         <v>15000</v>
       </c>
       <c r="P275" t="n">
-        <v>14500</v>
+        <v>14536</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="T275" t="n">
         <v>20</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E276" t="n">
         <v>16</v>
@@ -22444,16 +22444,16 @@
         </is>
       </c>
       <c r="M276" t="n">
-        <v>660</v>
+        <v>80</v>
       </c>
       <c r="N276" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O276" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="P276" t="n">
-        <v>9273</v>
+        <v>13000</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>464</v>
+        <v>650</v>
       </c>
       <c r="T276" t="n">
         <v>20</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E277" t="n">
         <v>16</v>
@@ -22524,16 +22524,16 @@
         </is>
       </c>
       <c r="M277" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N277" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O277" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P277" t="n">
-        <v>10667</v>
+        <v>14500</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>533</v>
+        <v>725</v>
       </c>
       <c r="T277" t="n">
         <v>20</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E278" t="n">
         <v>16</v>
@@ -22604,16 +22604,16 @@
         </is>
       </c>
       <c r="M278" t="n">
-        <v>160</v>
+        <v>660</v>
       </c>
       <c r="N278" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O278" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="P278" t="n">
-        <v>8250</v>
+        <v>9273</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>412</v>
+        <v>464</v>
       </c>
       <c r="T278" t="n">
         <v>20</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E279" t="n">
         <v>16</v>
@@ -22684,16 +22684,16 @@
         </is>
       </c>
       <c r="M279" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N279" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="O279" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P279" t="n">
-        <v>9750</v>
+        <v>10667</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>488</v>
+        <v>533</v>
       </c>
       <c r="T279" t="n">
         <v>20</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E280" t="n">
         <v>16</v>
@@ -22764,16 +22764,16 @@
         </is>
       </c>
       <c r="M280" t="n">
-        <v>570</v>
+        <v>160</v>
       </c>
       <c r="N280" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O280" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="P280" t="n">
-        <v>9000</v>
+        <v>8250</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>450</v>
+        <v>412</v>
       </c>
       <c r="T280" t="n">
         <v>20</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E281" t="n">
         <v>16</v>
@@ -22844,16 +22844,16 @@
         </is>
       </c>
       <c r="M281" t="n">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="N281" t="n">
+        <v>9500</v>
+      </c>
+      <c r="O281" t="n">
         <v>10000</v>
       </c>
-      <c r="O281" t="n">
-        <v>11000</v>
-      </c>
       <c r="P281" t="n">
-        <v>10394</v>
+        <v>9750</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>520</v>
+        <v>488</v>
       </c>
       <c r="T281" t="n">
         <v>20</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E282" t="n">
         <v>16</v>
@@ -22924,16 +22924,16 @@
         </is>
       </c>
       <c r="M282" t="n">
-        <v>80</v>
+        <v>570</v>
       </c>
       <c r="N282" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O282" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P282" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="T282" t="n">
         <v>20</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E283" t="n">
         <v>16</v>
@@ -23004,16 +23004,16 @@
         </is>
       </c>
       <c r="M283" t="n">
-        <v>240</v>
+        <v>330</v>
       </c>
       <c r="N283" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O283" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P283" t="n">
-        <v>17500</v>
+        <v>10394</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>875</v>
+        <v>520</v>
       </c>
       <c r="T283" t="n">
         <v>20</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E284" t="n">
         <v>16</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E285" t="n">
         <v>16</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E286" t="n">
         <v>16</v>
@@ -23247,13 +23247,13 @@
         <v>80</v>
       </c>
       <c r="N286" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O286" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P286" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="T286" t="n">
         <v>20</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E287" t="n">
         <v>16</v>
@@ -23324,16 +23324,16 @@
         </is>
       </c>
       <c r="M287" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N287" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O287" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P287" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T287" t="n">
         <v>20</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E288" t="n">
         <v>16</v>
@@ -23404,16 +23404,16 @@
         </is>
       </c>
       <c r="M288" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N288" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="O288" t="n">
-        <v>11800</v>
+        <v>11000</v>
       </c>
       <c r="P288" t="n">
-        <v>11650</v>
+        <v>11000</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>582</v>
+        <v>550</v>
       </c>
       <c r="T288" t="n">
         <v>20</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E289" t="n">
         <v>16</v>
@@ -23484,16 +23484,16 @@
         </is>
       </c>
       <c r="M289" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N289" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="O289" t="n">
         <v>13000</v>
       </c>
       <c r="P289" t="n">
-        <v>12750</v>
+        <v>12500</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="T289" t="n">
         <v>20</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E290" t="n">
         <v>16</v>
@@ -23564,16 +23564,16 @@
         </is>
       </c>
       <c r="M290" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N290" t="n">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="O290" t="n">
-        <v>12000</v>
+        <v>11800</v>
       </c>
       <c r="P290" t="n">
-        <v>12000</v>
+        <v>11650</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="T290" t="n">
         <v>20</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E291" t="n">
         <v>16</v>
@@ -23647,13 +23647,13 @@
         <v>240</v>
       </c>
       <c r="N291" t="n">
+        <v>12500</v>
+      </c>
+      <c r="O291" t="n">
         <v>13000</v>
       </c>
-      <c r="O291" t="n">
-        <v>14000</v>
-      </c>
       <c r="P291" t="n">
-        <v>13500</v>
+        <v>12750</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>675</v>
+        <v>638</v>
       </c>
       <c r="T291" t="n">
         <v>20</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E292" t="n">
         <v>16</v>
@@ -23724,16 +23724,16 @@
         </is>
       </c>
       <c r="M292" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N292" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O292" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P292" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="T292" t="n">
         <v>20</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E293" t="n">
         <v>16</v>
@@ -23807,13 +23807,13 @@
         <v>240</v>
       </c>
       <c r="N293" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O293" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P293" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="T293" t="n">
         <v>20</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E294" t="n">
         <v>16</v>
@@ -23880,20 +23880,20 @@
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M294" t="n">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="N294" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="O294" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P294" t="n">
-        <v>14750</v>
+        <v>11000</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>738</v>
+        <v>550</v>
       </c>
       <c r="T294" t="n">
         <v>20</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E295" t="n">
         <v>16</v>
@@ -23960,20 +23960,20 @@
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M295" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="N295" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O295" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P295" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="T295" t="n">
         <v>20</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E296" t="n">
         <v>16</v>
@@ -24047,13 +24047,13 @@
         <v>360</v>
       </c>
       <c r="N296" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="O296" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P296" t="n">
-        <v>12500</v>
+        <v>14750</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>625</v>
+        <v>738</v>
       </c>
       <c r="T296" t="n">
         <v>20</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E297" t="n">
         <v>16</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E298" t="n">
         <v>16</v>
@@ -24204,7 +24204,7 @@
         </is>
       </c>
       <c r="M298" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N298" t="n">
         <v>12000</v>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E299" t="n">
         <v>16</v>
@@ -24287,13 +24287,13 @@
         <v>80</v>
       </c>
       <c r="N299" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O299" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P299" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="T299" t="n">
         <v>20</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E300" t="n">
         <v>16</v>
@@ -24367,13 +24367,13 @@
         <v>240</v>
       </c>
       <c r="N300" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O300" t="n">
         <v>13000</v>
       </c>
-      <c r="O300" t="n">
-        <v>14000</v>
-      </c>
       <c r="P300" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="T300" t="n">
         <v>20</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E301" t="n">
         <v>16</v>
@@ -24444,7 +24444,7 @@
         </is>
       </c>
       <c r="M301" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N301" t="n">
         <v>12000</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E302" t="n">
         <v>16</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E303" t="n">
         <v>16</v>
@@ -24604,16 +24604,16 @@
         </is>
       </c>
       <c r="M303" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N303" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O303" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P303" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="T303" t="n">
         <v>20</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E304" t="n">
         <v>16</v>
@@ -24687,13 +24687,13 @@
         <v>240</v>
       </c>
       <c r="N304" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O304" t="n">
         <v>14000</v>
       </c>
-      <c r="O304" t="n">
-        <v>15000</v>
-      </c>
       <c r="P304" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="T304" t="n">
         <v>20</v>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E305" t="n">
         <v>16</v>
@@ -24764,16 +24764,16 @@
         </is>
       </c>
       <c r="M305" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N305" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O305" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P305" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="T305" t="n">
         <v>20</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E306" t="n">
         <v>16</v>
@@ -24847,13 +24847,13 @@
         <v>240</v>
       </c>
       <c r="N306" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O306" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P306" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="T306" t="n">
         <v>20</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E307" t="n">
         <v>16</v>
@@ -24924,16 +24924,16 @@
         </is>
       </c>
       <c r="M307" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="N307" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O307" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P307" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T307" t="n">
         <v>20</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E308" t="n">
         <v>16</v>
@@ -25004,16 +25004,16 @@
         </is>
       </c>
       <c r="M308" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N308" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="O308" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P308" t="n">
-        <v>14750</v>
+        <v>13500</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>738</v>
+        <v>675</v>
       </c>
       <c r="T308" t="n">
         <v>20</v>
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E309" t="n">
         <v>16</v>
@@ -25080,11 +25080,11 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M309" t="n">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="N309" t="n">
         <v>14000</v>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E310" t="n">
         <v>16</v>
@@ -25164,16 +25164,16 @@
         </is>
       </c>
       <c r="M310" t="n">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="N310" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="O310" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P310" t="n">
-        <v>13000</v>
+        <v>14750</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>650</v>
+        <v>738</v>
       </c>
       <c r="T310" t="n">
         <v>20</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E311" t="n">
         <v>16</v>
@@ -25240,20 +25240,20 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M311" t="n">
         <v>120</v>
       </c>
       <c r="N311" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O311" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P311" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T311" t="n">
         <v>20</v>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E312" t="n">
         <v>16</v>
@@ -25324,16 +25324,16 @@
         </is>
       </c>
       <c r="M312" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N312" t="n">
         <v>13000</v>
       </c>
       <c r="O312" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P312" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="T312" t="n">
         <v>20</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E313" t="n">
         <v>16</v>
@@ -25404,16 +25404,16 @@
         </is>
       </c>
       <c r="M313" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N313" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O313" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P313" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="T313" t="n">
         <v>20</v>
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E314" t="n">
         <v>16</v>
@@ -25484,16 +25484,16 @@
         </is>
       </c>
       <c r="M314" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="N314" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O314" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P314" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="T314" t="n">
         <v>20</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E315" t="n">
         <v>16</v>
@@ -25564,16 +25564,16 @@
         </is>
       </c>
       <c r="M315" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="N315" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O315" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P315" t="n">
-        <v>16500</v>
+        <v>11000</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>825</v>
+        <v>550</v>
       </c>
       <c r="T315" t="n">
         <v>20</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E316" t="n">
         <v>16</v>
@@ -25644,16 +25644,16 @@
         </is>
       </c>
       <c r="M316" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N316" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O316" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P316" t="n">
-        <v>18500</v>
+        <v>12500</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>925</v>
+        <v>625</v>
       </c>
       <c r="T316" t="n">
         <v>20</v>
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E317" t="n">
         <v>16</v>
@@ -25724,16 +25724,16 @@
         </is>
       </c>
       <c r="M317" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="N317" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O317" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P317" t="n">
-        <v>11000</v>
+        <v>16500</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>550</v>
+        <v>825</v>
       </c>
       <c r="T317" t="n">
         <v>20</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E318" t="n">
         <v>16</v>
@@ -25804,16 +25804,16 @@
         </is>
       </c>
       <c r="M318" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N318" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O318" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P318" t="n">
-        <v>12500</v>
+        <v>18500</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>625</v>
+        <v>925</v>
       </c>
       <c r="T318" t="n">
         <v>20</v>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E319" t="n">
         <v>16</v>
@@ -25884,16 +25884,16 @@
         </is>
       </c>
       <c r="M319" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N319" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="O319" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P319" t="n">
-        <v>14750</v>
+        <v>11000</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>738</v>
+        <v>550</v>
       </c>
       <c r="T319" t="n">
         <v>20</v>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E320" t="n">
         <v>16</v>
@@ -25960,20 +25960,20 @@
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M320" t="n">
         <v>160</v>
       </c>
       <c r="N320" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O320" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P320" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="T320" t="n">
         <v>20</v>
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E321" t="n">
         <v>16</v>
@@ -26040,20 +26040,20 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M321" t="n">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="N321" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="O321" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P321" t="n">
-        <v>13500</v>
+        <v>14750</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>675</v>
+        <v>738</v>
       </c>
       <c r="T321" t="n">
         <v>20</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E322" t="n">
         <v>16</v>
@@ -26124,16 +26124,16 @@
         </is>
       </c>
       <c r="M322" t="n">
-        <v>640</v>
+        <v>160</v>
       </c>
       <c r="N322" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O322" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P322" t="n">
-        <v>10469</v>
+        <v>11500</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>523</v>
+        <v>575</v>
       </c>
       <c r="T322" t="n">
         <v>20</v>
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E323" t="n">
         <v>16</v>
@@ -26204,16 +26204,16 @@
         </is>
       </c>
       <c r="M323" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N323" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="O323" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P323" t="n">
-        <v>11750</v>
+        <v>13500</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>588</v>
+        <v>675</v>
       </c>
       <c r="T323" t="n">
         <v>20</v>
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E324" t="n">
         <v>16</v>
@@ -26284,16 +26284,16 @@
         </is>
       </c>
       <c r="M324" t="n">
-        <v>480</v>
+        <v>640</v>
       </c>
       <c r="N324" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O324" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P324" t="n">
-        <v>14417</v>
+        <v>10469</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>721</v>
+        <v>523</v>
       </c>
       <c r="T324" t="n">
         <v>20</v>
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E325" t="n">
         <v>16</v>
@@ -26364,16 +26364,16 @@
         </is>
       </c>
       <c r="M325" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N325" t="n">
-        <v>15500</v>
+        <v>11500</v>
       </c>
       <c r="O325" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P325" t="n">
-        <v>15826</v>
+        <v>11750</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>791</v>
+        <v>588</v>
       </c>
       <c r="T325" t="n">
         <v>20</v>
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E326" t="n">
         <v>16</v>
@@ -26444,16 +26444,16 @@
         </is>
       </c>
       <c r="M326" t="n">
-        <v>150</v>
+        <v>480</v>
       </c>
       <c r="N326" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O326" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P326" t="n">
-        <v>16000</v>
+        <v>14417</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>800</v>
+        <v>721</v>
       </c>
       <c r="T326" t="n">
         <v>20</v>
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E327" t="n">
         <v>16</v>
@@ -26524,16 +26524,16 @@
         </is>
       </c>
       <c r="M327" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N327" t="n">
-        <v>17000</v>
+        <v>15500</v>
       </c>
       <c r="O327" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P327" t="n">
-        <v>17500</v>
+        <v>15826</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>875</v>
+        <v>791</v>
       </c>
       <c r="T327" t="n">
         <v>20</v>
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E328" t="n">
         <v>16</v>
@@ -26604,16 +26604,16 @@
         </is>
       </c>
       <c r="M328" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N328" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O328" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P328" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="T328" t="n">
         <v>20</v>
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E329" t="n">
         <v>16</v>
@@ -26684,16 +26684,16 @@
         </is>
       </c>
       <c r="M329" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N329" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O329" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P329" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T329" t="n">
         <v>20</v>
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E330" t="n">
         <v>16</v>
@@ -26764,16 +26764,16 @@
         </is>
       </c>
       <c r="M330" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N330" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O330" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P330" t="n">
-        <v>15500</v>
+        <v>11000</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>775</v>
+        <v>550</v>
       </c>
       <c r="T330" t="n">
         <v>20</v>
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E331" t="n">
         <v>16</v>
@@ -26844,16 +26844,16 @@
         </is>
       </c>
       <c r="M331" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N331" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O331" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P331" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>850</v>
+        <v>625</v>
       </c>
       <c r="T331" t="n">
         <v>20</v>
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E332" t="n">
         <v>16</v>
@@ -26924,16 +26924,16 @@
         </is>
       </c>
       <c r="M332" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="N332" t="n">
         <v>15000</v>
       </c>
       <c r="O332" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P332" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="T332" t="n">
         <v>20</v>
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E333" t="n">
         <v>16</v>
@@ -27004,16 +27004,16 @@
         </is>
       </c>
       <c r="M333" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N333" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O333" t="n">
         <v>17000</v>
       </c>
       <c r="P333" t="n">
-        <v>16500</v>
+        <v>17000</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>825</v>
+        <v>850</v>
       </c>
       <c r="T333" t="n">
         <v>20</v>
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E334" t="n">
         <v>16</v>
@@ -27084,16 +27084,16 @@
         </is>
       </c>
       <c r="M334" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N334" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="O334" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P334" t="n">
-        <v>12750</v>
+        <v>15000</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>638</v>
+        <v>750</v>
       </c>
       <c r="T334" t="n">
         <v>20</v>
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E335" t="n">
         <v>16</v>
@@ -27164,16 +27164,16 @@
         </is>
       </c>
       <c r="M335" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="N335" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O335" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P335" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="T335" t="n">
         <v>20</v>
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E336" t="n">
         <v>16</v>
@@ -27244,16 +27244,16 @@
         </is>
       </c>
       <c r="M336" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N336" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="O336" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P336" t="n">
-        <v>11750</v>
+        <v>12750</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>588</v>
+        <v>638</v>
       </c>
       <c r="T336" t="n">
         <v>20</v>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E337" t="n">
         <v>16</v>
@@ -27324,16 +27324,16 @@
         </is>
       </c>
       <c r="M337" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="N337" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O337" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P337" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="T337" t="n">
         <v>20</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E338" t="n">
         <v>16</v>
@@ -27404,16 +27404,16 @@
         </is>
       </c>
       <c r="M338" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N338" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="O338" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P338" t="n">
-        <v>13000</v>
+        <v>11750</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>650</v>
+        <v>588</v>
       </c>
       <c r="T338" t="n">
         <v>20</v>
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E339" t="n">
         <v>16</v>
@@ -27484,16 +27484,16 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="N339" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O339" t="n">
         <v>14000</v>
       </c>
-      <c r="O339" t="n">
-        <v>15000</v>
-      </c>
       <c r="P339" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="T339" t="n">
         <v>20</v>
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E340" t="n">
         <v>16</v>
@@ -27564,16 +27564,16 @@
         </is>
       </c>
       <c r="M340" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N340" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O340" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P340" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="T340" t="n">
         <v>20</v>
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E341" t="n">
         <v>16</v>
@@ -27644,16 +27644,16 @@
         </is>
       </c>
       <c r="M341" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N341" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O341" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P341" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="T341" t="n">
         <v>20</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E342" t="n">
         <v>16</v>
@@ -27724,16 +27724,16 @@
         </is>
       </c>
       <c r="M342" t="n">
-        <v>640</v>
+        <v>120</v>
       </c>
       <c r="N342" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O342" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P342" t="n">
-        <v>13688</v>
+        <v>9000</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>684</v>
+        <v>450</v>
       </c>
       <c r="T342" t="n">
         <v>20</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E343" t="n">
         <v>16</v>
@@ -27804,16 +27804,16 @@
         </is>
       </c>
       <c r="M343" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="N343" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="O343" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P343" t="n">
-        <v>14714</v>
+        <v>10500</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>736</v>
+        <v>525</v>
       </c>
       <c r="T343" t="n">
         <v>20</v>
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E344" t="n">
         <v>16</v>
@@ -27880,20 +27880,20 @@
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M344" t="n">
-        <v>160</v>
+        <v>640</v>
       </c>
       <c r="N344" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O344" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P344" t="n">
-        <v>11500</v>
+        <v>13688</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>575</v>
+        <v>684</v>
       </c>
       <c r="T344" t="n">
         <v>20</v>
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E345" t="n">
         <v>16</v>
@@ -27960,20 +27960,20 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M345" t="n">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="N345" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="O345" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P345" t="n">
-        <v>11000</v>
+        <v>14714</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>550</v>
+        <v>736</v>
       </c>
       <c r="T345" t="n">
         <v>20</v>
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E346" t="n">
         <v>16</v>
@@ -28044,16 +28044,16 @@
         </is>
       </c>
       <c r="M346" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N346" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O346" t="n">
         <v>12000</v>
       </c>
-      <c r="O346" t="n">
-        <v>13000</v>
-      </c>
       <c r="P346" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="T346" t="n">
         <v>20</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E347" t="n">
         <v>16</v>
@@ -28120,20 +28120,20 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M347" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N347" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O347" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P347" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>725</v>
+        <v>550</v>
       </c>
       <c r="T347" t="n">
         <v>20</v>
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E348" t="n">
         <v>16</v>
@@ -28200,20 +28200,20 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M348" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="N348" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O348" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P348" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="T348" t="n">
         <v>20</v>
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E349" t="n">
         <v>16</v>
@@ -28284,16 +28284,16 @@
         </is>
       </c>
       <c r="M349" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N349" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O349" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P349" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="T349" t="n">
         <v>20</v>
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E350" t="n">
         <v>16</v>
@@ -28364,16 +28364,16 @@
         </is>
       </c>
       <c r="M350" t="n">
-        <v>640</v>
+        <v>80</v>
       </c>
       <c r="N350" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O350" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P350" t="n">
-        <v>12469</v>
+        <v>11000</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>623</v>
+        <v>550</v>
       </c>
       <c r="T350" t="n">
         <v>20</v>
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E351" t="n">
         <v>16</v>
@@ -28444,16 +28444,16 @@
         </is>
       </c>
       <c r="M351" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N351" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O351" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P351" t="n">
-        <v>14600</v>
+        <v>12500</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>730</v>
+        <v>625</v>
       </c>
       <c r="T351" t="n">
         <v>20</v>
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E352" t="n">
         <v>16</v>
@@ -28524,16 +28524,16 @@
         </is>
       </c>
       <c r="M352" t="n">
-        <v>100</v>
+        <v>640</v>
       </c>
       <c r="N352" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O352" t="n">
         <v>13000</v>
       </c>
       <c r="P352" t="n">
-        <v>13000</v>
+        <v>12469</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         </is>
       </c>
       <c r="S352" t="n">
-        <v>650</v>
+        <v>623</v>
       </c>
       <c r="T352" t="n">
         <v>20</v>
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E353" t="n">
         <v>16</v>
@@ -28613,7 +28613,7 @@
         <v>15000</v>
       </c>
       <c r="P353" t="n">
-        <v>14500</v>
+        <v>14600</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="T353" t="n">
         <v>20</v>
@@ -28647,68 +28647,228 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E354" t="n">
+        <v>16</v>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G354" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I354" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J354" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>Pintón</t>
+        </is>
+      </c>
+      <c r="M354" t="n">
+        <v>100</v>
+      </c>
+      <c r="N354" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O354" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P354" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q354" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R354" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S354" t="n">
+        <v>650</v>
+      </c>
+      <c r="T354" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>7</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D355" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E355" t="n">
+        <v>16</v>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G355" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I355" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J355" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>Primera Pintón</t>
+        </is>
+      </c>
+      <c r="M355" t="n">
+        <v>300</v>
+      </c>
+      <c r="N355" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O355" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P355" t="n">
+        <v>14500</v>
+      </c>
+      <c r="Q355" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R355" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S355" t="n">
+        <v>725</v>
+      </c>
+      <c r="T355" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>7</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D356" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E354" t="n">
-        <v>16</v>
-      </c>
-      <c r="F354" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G354" t="n">
-        <v>100108</v>
-      </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>Tropicales y subtropicales</t>
-        </is>
-      </c>
-      <c r="I354" t="n">
-        <v>100108006</v>
-      </c>
-      <c r="J354" t="inlineStr">
-        <is>
-          <t>Plátano</t>
-        </is>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L354" t="inlineStr">
+      <c r="E356" t="n">
+        <v>16</v>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G356" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I356" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J356" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L356" t="inlineStr">
         <is>
           <t>Primera Pintón</t>
         </is>
       </c>
-      <c r="M354" t="n">
+      <c r="M356" t="n">
         <v>240</v>
       </c>
-      <c r="N354" t="n">
+      <c r="N356" t="n">
         <v>16000</v>
       </c>
-      <c r="O354" t="n">
+      <c r="O356" t="n">
         <v>17000</v>
       </c>
-      <c r="P354" t="n">
+      <c r="P356" t="n">
         <v>16500</v>
       </c>
-      <c r="Q354" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R354" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S354" t="n">
+      <c r="Q356" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R356" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S356" t="n">
         <v>825</v>
       </c>
-      <c r="T354" t="n">
+      <c r="T356" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T356"/>
+  <dimension ref="A1:T358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44299</v>
+        <v>44469</v>
       </c>
       <c r="E118" t="n">
         <v>16</v>
@@ -9804,7 +9804,7 @@
         </is>
       </c>
       <c r="M118" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N118" t="n">
         <v>13000</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44299</v>
+        <v>44469</v>
       </c>
       <c r="E119" t="n">
         <v>16</v>
@@ -9884,7 +9884,7 @@
         </is>
       </c>
       <c r="M119" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="N119" t="n">
         <v>14000</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44320</v>
+        <v>44299</v>
       </c>
       <c r="E120" t="n">
         <v>16</v>
@@ -9960,20 +9960,20 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N120" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O120" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P120" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>725</v>
+        <v>650</v>
       </c>
       <c r="T120" t="n">
         <v>20</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44385</v>
+        <v>44299</v>
       </c>
       <c r="E121" t="n">
         <v>16</v>
@@ -10040,20 +10040,20 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="N121" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O121" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P121" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>550</v>
+        <v>725</v>
       </c>
       <c r="T121" t="n">
         <v>20</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44385</v>
+        <v>44320</v>
       </c>
       <c r="E122" t="n">
         <v>16</v>
@@ -10127,13 +10127,13 @@
         <v>240</v>
       </c>
       <c r="N122" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O122" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P122" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="T122" t="n">
         <v>20</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44284</v>
+        <v>44385</v>
       </c>
       <c r="E123" t="n">
         <v>16</v>
@@ -10204,16 +10204,16 @@
         </is>
       </c>
       <c r="M123" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N123" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O123" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P123" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="T123" t="n">
         <v>20</v>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44284</v>
+        <v>44385</v>
       </c>
       <c r="E124" t="n">
         <v>16</v>
@@ -10284,16 +10284,16 @@
         </is>
       </c>
       <c r="M124" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N124" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O124" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P124" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="T124" t="n">
         <v>20</v>
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44391</v>
+        <v>44284</v>
       </c>
       <c r="E125" t="n">
         <v>16</v>
@@ -10367,13 +10367,13 @@
         <v>120</v>
       </c>
       <c r="N125" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O125" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P125" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="T125" t="n">
         <v>20</v>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44391</v>
+        <v>44284</v>
       </c>
       <c r="E126" t="n">
         <v>16</v>
@@ -10444,16 +10444,16 @@
         </is>
       </c>
       <c r="M126" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N126" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O126" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P126" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="T126" t="n">
         <v>20</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44417</v>
+        <v>44391</v>
       </c>
       <c r="E127" t="n">
         <v>16</v>
@@ -10524,7 +10524,7 @@
         </is>
       </c>
       <c r="M127" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="N127" t="n">
         <v>11000</v>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44417</v>
+        <v>44391</v>
       </c>
       <c r="E128" t="n">
         <v>16</v>
@@ -10604,7 +10604,7 @@
         </is>
       </c>
       <c r="M128" t="n">
-        <v>680</v>
+        <v>240</v>
       </c>
       <c r="N128" t="n">
         <v>12000</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44216</v>
+        <v>44417</v>
       </c>
       <c r="E129" t="n">
         <v>16</v>
@@ -10684,16 +10684,16 @@
         </is>
       </c>
       <c r="M129" t="n">
-        <v>740</v>
+        <v>400</v>
       </c>
       <c r="N129" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O129" t="n">
         <v>11000</v>
       </c>
       <c r="P129" t="n">
-        <v>10405</v>
+        <v>11000</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         </is>
       </c>
       <c r="S129" t="n">
-        <v>520</v>
+        <v>550</v>
       </c>
       <c r="T129" t="n">
         <v>20</v>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44216</v>
+        <v>44417</v>
       </c>
       <c r="E130" t="n">
         <v>16</v>
@@ -10764,16 +10764,16 @@
         </is>
       </c>
       <c r="M130" t="n">
-        <v>450</v>
+        <v>680</v>
       </c>
       <c r="N130" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="O130" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P130" t="n">
-        <v>11667</v>
+        <v>12500</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>583</v>
+        <v>625</v>
       </c>
       <c r="T130" t="n">
         <v>20</v>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44340</v>
+        <v>44216</v>
       </c>
       <c r="E131" t="n">
         <v>16</v>
@@ -10844,16 +10844,16 @@
         </is>
       </c>
       <c r="M131" t="n">
-        <v>120</v>
+        <v>740</v>
       </c>
       <c r="N131" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O131" t="n">
         <v>11000</v>
       </c>
       <c r="P131" t="n">
-        <v>11000</v>
+        <v>10405</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         </is>
       </c>
       <c r="S131" t="n">
-        <v>550</v>
+        <v>520</v>
       </c>
       <c r="T131" t="n">
         <v>20</v>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44340</v>
+        <v>44216</v>
       </c>
       <c r="E132" t="n">
         <v>16</v>
@@ -10924,16 +10924,16 @@
         </is>
       </c>
       <c r="M132" t="n">
-        <v>240</v>
+        <v>450</v>
       </c>
       <c r="N132" t="n">
+        <v>11500</v>
+      </c>
+      <c r="O132" t="n">
         <v>12000</v>
       </c>
-      <c r="O132" t="n">
-        <v>13000</v>
-      </c>
       <c r="P132" t="n">
-        <v>12500</v>
+        <v>11667</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="S132" t="n">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="T132" t="n">
         <v>20</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44229</v>
+        <v>44340</v>
       </c>
       <c r="E133" t="n">
         <v>16</v>
@@ -11004,16 +11004,16 @@
         </is>
       </c>
       <c r="M133" t="n">
-        <v>590</v>
+        <v>120</v>
       </c>
       <c r="N133" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="O133" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P133" t="n">
-        <v>11703</v>
+        <v>11000</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         </is>
       </c>
       <c r="S133" t="n">
-        <v>585</v>
+        <v>550</v>
       </c>
       <c r="T133" t="n">
         <v>20</v>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44229</v>
+        <v>44340</v>
       </c>
       <c r="E134" t="n">
         <v>16</v>
@@ -11084,16 +11084,16 @@
         </is>
       </c>
       <c r="M134" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N134" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="O134" t="n">
         <v>13000</v>
       </c>
       <c r="P134" t="n">
-        <v>12812</v>
+        <v>12500</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="T134" t="n">
         <v>20</v>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44253</v>
+        <v>44229</v>
       </c>
       <c r="E135" t="n">
         <v>16</v>
@@ -11164,16 +11164,16 @@
         </is>
       </c>
       <c r="M135" t="n">
-        <v>740</v>
+        <v>590</v>
       </c>
       <c r="N135" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="O135" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="P135" t="n">
-        <v>9216</v>
+        <v>11703</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>461</v>
+        <v>585</v>
       </c>
       <c r="T135" t="n">
         <v>20</v>
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44253</v>
+        <v>44229</v>
       </c>
       <c r="E136" t="n">
         <v>16</v>
@@ -11244,16 +11244,16 @@
         </is>
       </c>
       <c r="M136" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="N136" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="O136" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="P136" t="n">
-        <v>10286</v>
+        <v>12812</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>514</v>
+        <v>641</v>
       </c>
       <c r="T136" t="n">
         <v>20</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44245</v>
+        <v>44253</v>
       </c>
       <c r="E137" t="n">
         <v>16</v>
@@ -11324,16 +11324,16 @@
         </is>
       </c>
       <c r="M137" t="n">
-        <v>80</v>
+        <v>740</v>
       </c>
       <c r="N137" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O137" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="P137" t="n">
-        <v>10000</v>
+        <v>9216</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="S137" t="n">
-        <v>500</v>
+        <v>461</v>
       </c>
       <c r="T137" t="n">
         <v>20</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44245</v>
+        <v>44253</v>
       </c>
       <c r="E138" t="n">
         <v>16</v>
@@ -11400,20 +11400,20 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M138" t="n">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="N138" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O138" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="P138" t="n">
-        <v>12000</v>
+        <v>10286</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         </is>
       </c>
       <c r="S138" t="n">
-        <v>600</v>
+        <v>514</v>
       </c>
       <c r="T138" t="n">
         <v>20</v>
@@ -11480,20 +11480,20 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M139" t="n">
         <v>80</v>
       </c>
       <c r="N139" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O139" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P139" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="T139" t="n">
         <v>20</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44334</v>
+        <v>44245</v>
       </c>
       <c r="E140" t="n">
         <v>16</v>
@@ -11560,20 +11560,20 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M140" t="n">
         <v>80</v>
       </c>
       <c r="N140" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O140" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P140" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="T140" t="n">
         <v>20</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44334</v>
+        <v>44245</v>
       </c>
       <c r="E141" t="n">
         <v>16</v>
@@ -11644,16 +11644,16 @@
         </is>
       </c>
       <c r="M141" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N141" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O141" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P141" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="T141" t="n">
         <v>20</v>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44419</v>
+        <v>44334</v>
       </c>
       <c r="E142" t="n">
         <v>16</v>
@@ -11724,7 +11724,7 @@
         </is>
       </c>
       <c r="M142" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="N142" t="n">
         <v>11000</v>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44419</v>
+        <v>44334</v>
       </c>
       <c r="E143" t="n">
         <v>16</v>
@@ -11804,7 +11804,7 @@
         </is>
       </c>
       <c r="M143" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="N143" t="n">
         <v>12000</v>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44281</v>
+        <v>44419</v>
       </c>
       <c r="E144" t="n">
         <v>16</v>
@@ -11884,7 +11884,7 @@
         </is>
       </c>
       <c r="M144" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N144" t="n">
         <v>11000</v>
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44281</v>
+        <v>44419</v>
       </c>
       <c r="E145" t="n">
         <v>16</v>
@@ -11964,7 +11964,7 @@
         </is>
       </c>
       <c r="M145" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
       <c r="N145" t="n">
         <v>12000</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44467</v>
+        <v>44281</v>
       </c>
       <c r="E146" t="n">
         <v>16</v>
@@ -12044,16 +12044,16 @@
         </is>
       </c>
       <c r="M146" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N146" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O146" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P146" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="T146" t="n">
         <v>20</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44467</v>
+        <v>44281</v>
       </c>
       <c r="E147" t="n">
         <v>16</v>
@@ -12124,16 +12124,16 @@
         </is>
       </c>
       <c r="M147" t="n">
-        <v>440</v>
+        <v>160</v>
       </c>
       <c r="N147" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O147" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P147" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>775</v>
+        <v>625</v>
       </c>
       <c r="T147" t="n">
         <v>20</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44342</v>
+        <v>44467</v>
       </c>
       <c r="E148" t="n">
         <v>16</v>
@@ -12204,16 +12204,16 @@
         </is>
       </c>
       <c r="M148" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N148" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O148" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P148" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="T148" t="n">
         <v>20</v>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44342</v>
+        <v>44467</v>
       </c>
       <c r="E149" t="n">
         <v>16</v>
@@ -12284,16 +12284,16 @@
         </is>
       </c>
       <c r="M149" t="n">
-        <v>240</v>
+        <v>440</v>
       </c>
       <c r="N149" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O149" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P149" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>625</v>
+        <v>775</v>
       </c>
       <c r="T149" t="n">
         <v>20</v>
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44225</v>
+        <v>44342</v>
       </c>
       <c r="E150" t="n">
         <v>16</v>
@@ -12367,13 +12367,13 @@
         <v>80</v>
       </c>
       <c r="N150" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O150" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P150" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="T150" t="n">
         <v>20</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44225</v>
+        <v>44342</v>
       </c>
       <c r="E151" t="n">
         <v>16</v>
@@ -12444,16 +12444,16 @@
         </is>
       </c>
       <c r="M151" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N151" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O151" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P151" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>775</v>
+        <v>625</v>
       </c>
       <c r="T151" t="n">
         <v>20</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44434</v>
+        <v>44225</v>
       </c>
       <c r="E152" t="n">
         <v>16</v>
@@ -12524,16 +12524,16 @@
         </is>
       </c>
       <c r="M152" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="N152" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="O152" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P152" t="n">
-        <v>14750</v>
+        <v>14000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>738</v>
+        <v>700</v>
       </c>
       <c r="T152" t="n">
         <v>20</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44434</v>
+        <v>44225</v>
       </c>
       <c r="E153" t="n">
         <v>16</v>
@@ -12604,16 +12604,16 @@
         </is>
       </c>
       <c r="M153" t="n">
-        <v>600</v>
+        <v>160</v>
       </c>
       <c r="N153" t="n">
-        <v>15500</v>
+        <v>15000</v>
       </c>
       <c r="O153" t="n">
         <v>16000</v>
       </c>
       <c r="P153" t="n">
-        <v>15750</v>
+        <v>15500</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         </is>
       </c>
       <c r="S153" t="n">
-        <v>788</v>
+        <v>775</v>
       </c>
       <c r="T153" t="n">
         <v>20</v>
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44327</v>
+        <v>44434</v>
       </c>
       <c r="E154" t="n">
         <v>16</v>
@@ -12684,16 +12684,16 @@
         </is>
       </c>
       <c r="M154" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N154" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="O154" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P154" t="n">
-        <v>14000</v>
+        <v>14750</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>700</v>
+        <v>738</v>
       </c>
       <c r="T154" t="n">
         <v>20</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44327</v>
+        <v>44434</v>
       </c>
       <c r="E155" t="n">
         <v>16</v>
@@ -12764,7 +12764,7 @@
         </is>
       </c>
       <c r="M155" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="N155" t="n">
         <v>15500</v>
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44321</v>
+        <v>44327</v>
       </c>
       <c r="E156" t="n">
         <v>16</v>
@@ -12847,13 +12847,13 @@
         <v>120</v>
       </c>
       <c r="N156" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O156" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P156" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         </is>
       </c>
       <c r="S156" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="T156" t="n">
         <v>20</v>
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44321</v>
+        <v>44327</v>
       </c>
       <c r="E157" t="n">
         <v>16</v>
@@ -12924,16 +12924,16 @@
         </is>
       </c>
       <c r="M157" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N157" t="n">
-        <v>14000</v>
+        <v>15500</v>
       </c>
       <c r="O157" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P157" t="n">
-        <v>14500</v>
+        <v>15750</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="S157" t="n">
-        <v>725</v>
+        <v>788</v>
       </c>
       <c r="T157" t="n">
         <v>20</v>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44300</v>
+        <v>44321</v>
       </c>
       <c r="E158" t="n">
         <v>16</v>
@@ -13004,7 +13004,7 @@
         </is>
       </c>
       <c r="M158" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N158" t="n">
         <v>13000</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44300</v>
+        <v>44321</v>
       </c>
       <c r="E159" t="n">
         <v>16</v>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44399</v>
+        <v>44300</v>
       </c>
       <c r="E160" t="n">
         <v>16</v>
@@ -13160,20 +13160,20 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M160" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N160" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O160" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P160" t="n">
-        <v>16500</v>
+        <v>13000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>825</v>
+        <v>650</v>
       </c>
       <c r="T160" t="n">
         <v>20</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44452</v>
+        <v>44300</v>
       </c>
       <c r="E161" t="n">
         <v>16</v>
@@ -13240,20 +13240,20 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M161" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="N161" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O161" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P161" t="n">
-        <v>20000</v>
+        <v>14500</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>1000</v>
+        <v>725</v>
       </c>
       <c r="T161" t="n">
         <v>20</v>
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44452</v>
+        <v>44399</v>
       </c>
       <c r="E162" t="n">
         <v>16</v>
@@ -13327,13 +13327,13 @@
         <v>240</v>
       </c>
       <c r="N162" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O162" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P162" t="n">
-        <v>21500</v>
+        <v>16500</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>1075</v>
+        <v>825</v>
       </c>
       <c r="T162" t="n">
         <v>20</v>
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44218</v>
+        <v>44452</v>
       </c>
       <c r="E163" t="n">
         <v>16</v>
@@ -13404,16 +13404,16 @@
         </is>
       </c>
       <c r="M163" t="n">
-        <v>720</v>
+        <v>80</v>
       </c>
       <c r="N163" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O163" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P163" t="n">
-        <v>11472</v>
+        <v>20000</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>574</v>
+        <v>1000</v>
       </c>
       <c r="T163" t="n">
         <v>20</v>
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44218</v>
+        <v>44452</v>
       </c>
       <c r="E164" t="n">
         <v>16</v>
@@ -13484,16 +13484,16 @@
         </is>
       </c>
       <c r="M164" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N164" t="n">
-        <v>12500</v>
+        <v>21000</v>
       </c>
       <c r="O164" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P164" t="n">
-        <v>12733</v>
+        <v>21500</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>637</v>
+        <v>1075</v>
       </c>
       <c r="T164" t="n">
         <v>20</v>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44383</v>
+        <v>44218</v>
       </c>
       <c r="E165" t="n">
         <v>16</v>
@@ -13564,16 +13564,16 @@
         </is>
       </c>
       <c r="M165" t="n">
-        <v>80</v>
+        <v>720</v>
       </c>
       <c r="N165" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O165" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P165" t="n">
-        <v>10000</v>
+        <v>11472</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>500</v>
+        <v>574</v>
       </c>
       <c r="T165" t="n">
         <v>20</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44383</v>
+        <v>44218</v>
       </c>
       <c r="E166" t="n">
         <v>16</v>
@@ -13644,16 +13644,16 @@
         </is>
       </c>
       <c r="M166" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N166" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="O166" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P166" t="n">
-        <v>11500</v>
+        <v>12733</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>575</v>
+        <v>637</v>
       </c>
       <c r="T166" t="n">
         <v>20</v>
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44223</v>
+        <v>44383</v>
       </c>
       <c r="E167" t="n">
         <v>16</v>
@@ -13724,16 +13724,16 @@
         </is>
       </c>
       <c r="M167" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N167" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O167" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P167" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T167" t="n">
         <v>20</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44223</v>
+        <v>44383</v>
       </c>
       <c r="E168" t="n">
         <v>16</v>
@@ -13804,16 +13804,16 @@
         </is>
       </c>
       <c r="M168" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N168" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="O168" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P168" t="n">
-        <v>13750</v>
+        <v>11500</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>688</v>
+        <v>575</v>
       </c>
       <c r="T168" t="n">
         <v>20</v>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44441</v>
+        <v>44223</v>
       </c>
       <c r="E169" t="n">
         <v>16</v>
@@ -13884,16 +13884,16 @@
         </is>
       </c>
       <c r="M169" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N169" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="O169" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P169" t="n">
-        <v>13750</v>
+        <v>12000</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>688</v>
+        <v>600</v>
       </c>
       <c r="T169" t="n">
         <v>20</v>
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44441</v>
+        <v>44223</v>
       </c>
       <c r="E170" t="n">
         <v>16</v>
@@ -13964,16 +13964,16 @@
         </is>
       </c>
       <c r="M170" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N170" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="O170" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P170" t="n">
-        <v>14750</v>
+        <v>13750</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>738</v>
+        <v>688</v>
       </c>
       <c r="T170" t="n">
         <v>20</v>
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E171" t="n">
         <v>16</v>
@@ -14040,20 +14040,20 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M171" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N171" t="n">
-        <v>17000</v>
+        <v>13500</v>
       </c>
       <c r="O171" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P171" t="n">
-        <v>17500</v>
+        <v>13750</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>875</v>
+        <v>688</v>
       </c>
       <c r="T171" t="n">
         <v>20</v>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44246</v>
+        <v>44441</v>
       </c>
       <c r="E172" t="n">
         <v>16</v>
@@ -14120,20 +14120,20 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M172" t="n">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="N172" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="O172" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P172" t="n">
-        <v>10000</v>
+        <v>14750</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>500</v>
+        <v>738</v>
       </c>
       <c r="T172" t="n">
         <v>20</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44246</v>
+        <v>44405</v>
       </c>
       <c r="E173" t="n">
         <v>16</v>
@@ -14204,16 +14204,16 @@
         </is>
       </c>
       <c r="M173" t="n">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="N173" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="O173" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P173" t="n">
-        <v>11500</v>
+        <v>17500</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="T173" t="n">
         <v>20</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44161</v>
+        <v>44246</v>
       </c>
       <c r="E174" t="n">
         <v>16</v>
@@ -14287,13 +14287,13 @@
         <v>80</v>
       </c>
       <c r="N174" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O174" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P174" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T174" t="n">
         <v>20</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44161</v>
+        <v>44246</v>
       </c>
       <c r="E175" t="n">
         <v>16</v>
@@ -14364,16 +14364,16 @@
         </is>
       </c>
       <c r="M175" t="n">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="N175" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="O175" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P175" t="n">
-        <v>17500</v>
+        <v>11500</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>875</v>
+        <v>575</v>
       </c>
       <c r="T175" t="n">
         <v>20</v>
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44407</v>
+        <v>44161</v>
       </c>
       <c r="E176" t="n">
         <v>16</v>
@@ -14447,13 +14447,13 @@
         <v>80</v>
       </c>
       <c r="N176" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O176" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P176" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T176" t="n">
         <v>20</v>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44407</v>
+        <v>44161</v>
       </c>
       <c r="E177" t="n">
         <v>16</v>
@@ -14527,13 +14527,13 @@
         <v>160</v>
       </c>
       <c r="N177" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O177" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P177" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>775</v>
+        <v>875</v>
       </c>
       <c r="T177" t="n">
         <v>20</v>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44307</v>
+        <v>44407</v>
       </c>
       <c r="E178" t="n">
         <v>16</v>
@@ -14604,16 +14604,16 @@
         </is>
       </c>
       <c r="M178" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="N178" t="n">
-        <v>11500</v>
+        <v>14000</v>
       </c>
       <c r="O178" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P178" t="n">
-        <v>11750</v>
+        <v>14000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>588</v>
+        <v>700</v>
       </c>
       <c r="T178" t="n">
         <v>20</v>
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44307</v>
+        <v>44407</v>
       </c>
       <c r="E179" t="n">
         <v>16</v>
@@ -14684,16 +14684,16 @@
         </is>
       </c>
       <c r="M179" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N179" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O179" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P179" t="n">
-        <v>13500</v>
+        <v>15500</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="T179" t="n">
         <v>20</v>
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44193</v>
+        <v>44307</v>
       </c>
       <c r="E180" t="n">
         <v>16</v>
@@ -14764,16 +14764,16 @@
         </is>
       </c>
       <c r="M180" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="N180" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="O180" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P180" t="n">
-        <v>10000</v>
+        <v>11750</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>500</v>
+        <v>588</v>
       </c>
       <c r="T180" t="n">
         <v>20</v>
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44193</v>
+        <v>44307</v>
       </c>
       <c r="E181" t="n">
         <v>16</v>
@@ -14844,16 +14844,16 @@
         </is>
       </c>
       <c r="M181" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N181" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O181" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P181" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="T181" t="n">
         <v>20</v>
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44336</v>
+        <v>44193</v>
       </c>
       <c r="E182" t="n">
         <v>16</v>
@@ -14920,20 +14920,20 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M182" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N182" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O182" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P182" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T182" t="n">
         <v>20</v>
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44341</v>
+        <v>44193</v>
       </c>
       <c r="E183" t="n">
         <v>16</v>
@@ -15000,20 +15000,20 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M183" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="N183" t="n">
         <v>11000</v>
       </c>
       <c r="O183" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P183" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="T183" t="n">
         <v>20</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44341</v>
+        <v>44336</v>
       </c>
       <c r="E184" t="n">
         <v>16</v>
@@ -15084,7 +15084,7 @@
         </is>
       </c>
       <c r="M184" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N184" t="n">
         <v>12000</v>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44274</v>
+        <v>44341</v>
       </c>
       <c r="E185" t="n">
         <v>16</v>
@@ -15167,13 +15167,13 @@
         <v>80</v>
       </c>
       <c r="N185" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O185" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P185" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="T185" t="n">
         <v>20</v>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44274</v>
+        <v>44341</v>
       </c>
       <c r="E186" t="n">
         <v>16</v>
@@ -15247,13 +15247,13 @@
         <v>240</v>
       </c>
       <c r="N186" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O186" t="n">
         <v>13000</v>
       </c>
-      <c r="O186" t="n">
-        <v>14000</v>
-      </c>
       <c r="P186" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="T186" t="n">
         <v>20</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44426</v>
+        <v>44274</v>
       </c>
       <c r="E187" t="n">
         <v>16</v>
@@ -15324,16 +15324,16 @@
         </is>
       </c>
       <c r="M187" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N187" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O187" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P187" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="T187" t="n">
         <v>20</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44426</v>
+        <v>44274</v>
       </c>
       <c r="E188" t="n">
         <v>16</v>
@@ -15404,16 +15404,16 @@
         </is>
       </c>
       <c r="M188" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="N188" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O188" t="n">
         <v>14000</v>
       </c>
-      <c r="O188" t="n">
-        <v>15000</v>
-      </c>
       <c r="P188" t="n">
-        <v>14455</v>
+        <v>13500</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>723</v>
+        <v>675</v>
       </c>
       <c r="T188" t="n">
         <v>20</v>
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44400</v>
+        <v>44426</v>
       </c>
       <c r="E189" t="n">
         <v>16</v>
@@ -15480,20 +15480,20 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M189" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N189" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="O189" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P189" t="n">
-        <v>19500</v>
+        <v>13000</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         </is>
       </c>
       <c r="S189" t="n">
-        <v>975</v>
+        <v>650</v>
       </c>
       <c r="T189" t="n">
         <v>20</v>
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44392</v>
+        <v>44426</v>
       </c>
       <c r="E190" t="n">
         <v>16</v>
@@ -15560,20 +15560,20 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M190" t="n">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="N190" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O190" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P190" t="n">
-        <v>11000</v>
+        <v>14455</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>550</v>
+        <v>723</v>
       </c>
       <c r="T190" t="n">
         <v>20</v>
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44392</v>
+        <v>44400</v>
       </c>
       <c r="E191" t="n">
         <v>16</v>
@@ -15647,13 +15647,13 @@
         <v>160</v>
       </c>
       <c r="N191" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="O191" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P191" t="n">
-        <v>12500</v>
+        <v>19500</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         </is>
       </c>
       <c r="S191" t="n">
-        <v>625</v>
+        <v>975</v>
       </c>
       <c r="T191" t="n">
         <v>20</v>
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E192" t="n">
         <v>16</v>
@@ -15724,16 +15724,16 @@
         </is>
       </c>
       <c r="M192" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N192" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="O192" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P192" t="n">
-        <v>13750</v>
+        <v>11000</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="S192" t="n">
-        <v>688</v>
+        <v>550</v>
       </c>
       <c r="T192" t="n">
         <v>20</v>
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E193" t="n">
         <v>16</v>
@@ -15804,16 +15804,16 @@
         </is>
       </c>
       <c r="M193" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N193" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="O193" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P193" t="n">
-        <v>14750</v>
+        <v>12500</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         </is>
       </c>
       <c r="S193" t="n">
-        <v>738</v>
+        <v>625</v>
       </c>
       <c r="T193" t="n">
         <v>20</v>
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44453</v>
+        <v>44442</v>
       </c>
       <c r="E194" t="n">
         <v>16</v>
@@ -15884,16 +15884,16 @@
         </is>
       </c>
       <c r="M194" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N194" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="O194" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P194" t="n">
-        <v>18500</v>
+        <v>13750</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         </is>
       </c>
       <c r="S194" t="n">
-        <v>925</v>
+        <v>688</v>
       </c>
       <c r="T194" t="n">
         <v>20</v>
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44453</v>
+        <v>44442</v>
       </c>
       <c r="E195" t="n">
         <v>16</v>
@@ -15964,16 +15964,16 @@
         </is>
       </c>
       <c r="M195" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N195" t="n">
-        <v>20000</v>
+        <v>14500</v>
       </c>
       <c r="O195" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P195" t="n">
-        <v>20500</v>
+        <v>14750</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         </is>
       </c>
       <c r="S195" t="n">
-        <v>1025</v>
+        <v>738</v>
       </c>
       <c r="T195" t="n">
         <v>20</v>
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44309</v>
+        <v>44453</v>
       </c>
       <c r="E196" t="n">
         <v>16</v>
@@ -16040,20 +16040,20 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M196" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N196" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O196" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="P196" t="n">
-        <v>13500</v>
+        <v>18500</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         </is>
       </c>
       <c r="S196" t="n">
-        <v>675</v>
+        <v>925</v>
       </c>
       <c r="T196" t="n">
         <v>20</v>
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44200</v>
+        <v>44453</v>
       </c>
       <c r="E197" t="n">
         <v>16</v>
@@ -16120,20 +16120,20 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M197" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="N197" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O197" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P197" t="n">
-        <v>14500</v>
+        <v>20500</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="S197" t="n">
-        <v>725</v>
+        <v>1025</v>
       </c>
       <c r="T197" t="n">
         <v>20</v>
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44200</v>
+        <v>44309</v>
       </c>
       <c r="E198" t="n">
         <v>16</v>
@@ -16204,16 +16204,16 @@
         </is>
       </c>
       <c r="M198" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N198" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O198" t="n">
         <v>14000</v>
       </c>
-      <c r="O198" t="n">
-        <v>15000</v>
-      </c>
       <c r="P198" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         </is>
       </c>
       <c r="S198" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="T198" t="n">
         <v>20</v>
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44208</v>
+        <v>44200</v>
       </c>
       <c r="E199" t="n">
         <v>16</v>
@@ -16284,16 +16284,16 @@
         </is>
       </c>
       <c r="M199" t="n">
-        <v>840</v>
+        <v>160</v>
       </c>
       <c r="N199" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O199" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P199" t="n">
-        <v>12524</v>
+        <v>14500</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         </is>
       </c>
       <c r="S199" t="n">
-        <v>626</v>
+        <v>725</v>
       </c>
       <c r="T199" t="n">
         <v>20</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44208</v>
+        <v>44200</v>
       </c>
       <c r="E200" t="n">
         <v>16</v>
@@ -16364,16 +16364,16 @@
         </is>
       </c>
       <c r="M200" t="n">
-        <v>450</v>
+        <v>240</v>
       </c>
       <c r="N200" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="O200" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P200" t="n">
-        <v>13778</v>
+        <v>14500</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         </is>
       </c>
       <c r="S200" t="n">
-        <v>689</v>
+        <v>725</v>
       </c>
       <c r="T200" t="n">
         <v>20</v>
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44448</v>
+        <v>44208</v>
       </c>
       <c r="E201" t="n">
         <v>16</v>
@@ -16444,16 +16444,16 @@
         </is>
       </c>
       <c r="M201" t="n">
-        <v>180</v>
+        <v>840</v>
       </c>
       <c r="N201" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="O201" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P201" t="n">
-        <v>19000</v>
+        <v>12524</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         </is>
       </c>
       <c r="S201" t="n">
-        <v>950</v>
+        <v>626</v>
       </c>
       <c r="T201" t="n">
         <v>20</v>
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44448</v>
+        <v>44208</v>
       </c>
       <c r="E202" t="n">
         <v>16</v>
@@ -16524,16 +16524,16 @@
         </is>
       </c>
       <c r="M202" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="N202" t="n">
-        <v>20000</v>
+        <v>13500</v>
       </c>
       <c r="O202" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="P202" t="n">
-        <v>20500</v>
+        <v>13778</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="S202" t="n">
-        <v>1025</v>
+        <v>689</v>
       </c>
       <c r="T202" t="n">
         <v>20</v>
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44214</v>
+        <v>44448</v>
       </c>
       <c r="E203" t="n">
         <v>16</v>
@@ -16604,16 +16604,16 @@
         </is>
       </c>
       <c r="M203" t="n">
-        <v>740</v>
+        <v>180</v>
       </c>
       <c r="N203" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="O203" t="n">
-        <v>10500</v>
+        <v>19000</v>
       </c>
       <c r="P203" t="n">
-        <v>10230</v>
+        <v>19000</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         </is>
       </c>
       <c r="S203" t="n">
-        <v>512</v>
+        <v>950</v>
       </c>
       <c r="T203" t="n">
         <v>20</v>
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44214</v>
+        <v>44448</v>
       </c>
       <c r="E204" t="n">
         <v>16</v>
@@ -16684,16 +16684,16 @@
         </is>
       </c>
       <c r="M204" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="N204" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O204" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="P204" t="n">
-        <v>11429</v>
+        <v>20500</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         </is>
       </c>
       <c r="S204" t="n">
-        <v>571</v>
+        <v>1025</v>
       </c>
       <c r="T204" t="n">
         <v>20</v>
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44354</v>
+        <v>44214</v>
       </c>
       <c r="E205" t="n">
         <v>16</v>
@@ -16764,16 +16764,16 @@
         </is>
       </c>
       <c r="M205" t="n">
-        <v>80</v>
+        <v>740</v>
       </c>
       <c r="N205" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O205" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="P205" t="n">
-        <v>11000</v>
+        <v>10230</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         </is>
       </c>
       <c r="S205" t="n">
-        <v>550</v>
+        <v>512</v>
       </c>
       <c r="T205" t="n">
         <v>20</v>
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44354</v>
+        <v>44214</v>
       </c>
       <c r="E206" t="n">
         <v>16</v>
@@ -16844,16 +16844,16 @@
         </is>
       </c>
       <c r="M206" t="n">
-        <v>240</v>
+        <v>350</v>
       </c>
       <c r="N206" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O206" t="n">
         <v>12000</v>
       </c>
-      <c r="O206" t="n">
-        <v>13000</v>
-      </c>
       <c r="P206" t="n">
-        <v>12500</v>
+        <v>11429</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         </is>
       </c>
       <c r="S206" t="n">
-        <v>625</v>
+        <v>571</v>
       </c>
       <c r="T206" t="n">
         <v>20</v>
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44420</v>
+        <v>44354</v>
       </c>
       <c r="E207" t="n">
         <v>16</v>
@@ -16924,7 +16924,7 @@
         </is>
       </c>
       <c r="M207" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N207" t="n">
         <v>11000</v>
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44420</v>
+        <v>44354</v>
       </c>
       <c r="E208" t="n">
         <v>16</v>
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E209" t="n">
         <v>16</v>
@@ -17084,7 +17084,7 @@
         </is>
       </c>
       <c r="M209" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N209" t="n">
         <v>11000</v>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E210" t="n">
         <v>16</v>
@@ -17164,7 +17164,7 @@
         </is>
       </c>
       <c r="M210" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="N210" t="n">
         <v>12000</v>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44237</v>
+        <v>44370</v>
       </c>
       <c r="E211" t="n">
         <v>16</v>
@@ -17244,16 +17244,16 @@
         </is>
       </c>
       <c r="M211" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N211" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O211" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P211" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="T211" t="n">
         <v>20</v>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44237</v>
+        <v>44370</v>
       </c>
       <c r="E212" t="n">
         <v>16</v>
@@ -17324,16 +17324,16 @@
         </is>
       </c>
       <c r="M212" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N212" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O212" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P212" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>775</v>
+        <v>625</v>
       </c>
       <c r="T212" t="n">
         <v>20</v>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44285</v>
+        <v>44237</v>
       </c>
       <c r="E213" t="n">
         <v>16</v>
@@ -17404,16 +17404,16 @@
         </is>
       </c>
       <c r="M213" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N213" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O213" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P213" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         </is>
       </c>
       <c r="S213" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T213" t="n">
         <v>20</v>
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44285</v>
+        <v>44237</v>
       </c>
       <c r="E214" t="n">
         <v>16</v>
@@ -17484,16 +17484,16 @@
         </is>
       </c>
       <c r="M214" t="n">
-        <v>360</v>
+        <v>160</v>
       </c>
       <c r="N214" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O214" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P214" t="n">
-        <v>13500</v>
+        <v>15500</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         </is>
       </c>
       <c r="S214" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="T214" t="n">
         <v>20</v>
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44167</v>
+        <v>44285</v>
       </c>
       <c r="E215" t="n">
         <v>16</v>
@@ -17564,16 +17564,16 @@
         </is>
       </c>
       <c r="M215" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N215" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O215" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P215" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         </is>
       </c>
       <c r="S215" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T215" t="n">
         <v>20</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44167</v>
+        <v>44285</v>
       </c>
       <c r="E216" t="n">
         <v>16</v>
@@ -17644,16 +17644,16 @@
         </is>
       </c>
       <c r="M216" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="N216" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="O216" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P216" t="n">
-        <v>17500</v>
+        <v>13500</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="T216" t="n">
         <v>20</v>
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44210</v>
+        <v>44167</v>
       </c>
       <c r="E217" t="n">
         <v>16</v>
@@ -17724,16 +17724,16 @@
         </is>
       </c>
       <c r="M217" t="n">
-        <v>760</v>
+        <v>80</v>
       </c>
       <c r="N217" t="n">
-        <v>11500</v>
+        <v>16000</v>
       </c>
       <c r="O217" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="P217" t="n">
-        <v>12079</v>
+        <v>16000</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="S217" t="n">
-        <v>604</v>
+        <v>800</v>
       </c>
       <c r="T217" t="n">
         <v>20</v>
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44210</v>
+        <v>44167</v>
       </c>
       <c r="E218" t="n">
         <v>16</v>
@@ -17804,16 +17804,16 @@
         </is>
       </c>
       <c r="M218" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="N218" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O218" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="P218" t="n">
-        <v>13312</v>
+        <v>17500</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>666</v>
+        <v>875</v>
       </c>
       <c r="T218" t="n">
         <v>20</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44344</v>
+        <v>44210</v>
       </c>
       <c r="E219" t="n">
         <v>16</v>
@@ -17884,16 +17884,16 @@
         </is>
       </c>
       <c r="M219" t="n">
-        <v>80</v>
+        <v>760</v>
       </c>
       <c r="N219" t="n">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="O219" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="P219" t="n">
-        <v>12000</v>
+        <v>12079</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="T219" t="n">
         <v>20</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44344</v>
+        <v>44210</v>
       </c>
       <c r="E220" t="n">
         <v>16</v>
@@ -17964,16 +17964,16 @@
         </is>
       </c>
       <c r="M220" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="N220" t="n">
         <v>13000</v>
       </c>
       <c r="O220" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="P220" t="n">
-        <v>13500</v>
+        <v>13312</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="T220" t="n">
         <v>20</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44266</v>
+        <v>44344</v>
       </c>
       <c r="E221" t="n">
         <v>16</v>
@@ -18044,16 +18044,16 @@
         </is>
       </c>
       <c r="M221" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N221" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O221" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P221" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T221" t="n">
         <v>20</v>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44266</v>
+        <v>44344</v>
       </c>
       <c r="E222" t="n">
         <v>16</v>
@@ -18124,16 +18124,16 @@
         </is>
       </c>
       <c r="M222" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N222" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O222" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P222" t="n">
-        <v>15500</v>
+        <v>13500</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="T222" t="n">
         <v>20</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44350</v>
+        <v>44266</v>
       </c>
       <c r="E223" t="n">
         <v>16</v>
@@ -18200,20 +18200,20 @@
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M223" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="N223" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O223" t="n">
         <v>14000</v>
       </c>
       <c r="P223" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>675</v>
+        <v>700</v>
       </c>
       <c r="T223" t="n">
         <v>20</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44455</v>
+        <v>44266</v>
       </c>
       <c r="E224" t="n">
         <v>16</v>
@@ -18280,20 +18280,20 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M224" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N224" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O224" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P224" t="n">
-        <v>18500</v>
+        <v>15500</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>925</v>
+        <v>775</v>
       </c>
       <c r="T224" t="n">
         <v>20</v>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E225" t="n">
         <v>16</v>
@@ -18364,16 +18364,16 @@
         </is>
       </c>
       <c r="M225" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="N225" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O225" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="P225" t="n">
-        <v>20500</v>
+        <v>13500</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>1025</v>
+        <v>675</v>
       </c>
       <c r="T225" t="n">
         <v>20</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E226" t="n">
         <v>16</v>
@@ -18444,16 +18444,16 @@
         </is>
       </c>
       <c r="M226" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N226" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="O226" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="P226" t="n">
-        <v>11000</v>
+        <v>18500</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>550</v>
+        <v>925</v>
       </c>
       <c r="T226" t="n">
         <v>20</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E227" t="n">
         <v>16</v>
@@ -18527,13 +18527,13 @@
         <v>400</v>
       </c>
       <c r="N227" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O227" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="P227" t="n">
-        <v>12500</v>
+        <v>20500</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>625</v>
+        <v>1025</v>
       </c>
       <c r="T227" t="n">
         <v>20</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44460</v>
+        <v>44418</v>
       </c>
       <c r="E228" t="n">
         <v>16</v>
@@ -18604,16 +18604,16 @@
         </is>
       </c>
       <c r="M228" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N228" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="O228" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P228" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="T228" t="n">
         <v>20</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44460</v>
+        <v>44418</v>
       </c>
       <c r="E229" t="n">
         <v>16</v>
@@ -18684,16 +18684,16 @@
         </is>
       </c>
       <c r="M229" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="N229" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O229" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P229" t="n">
-        <v>18500</v>
+        <v>12500</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>925</v>
+        <v>625</v>
       </c>
       <c r="T229" t="n">
         <v>20</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E230" t="n">
         <v>16</v>
@@ -18764,16 +18764,16 @@
         </is>
       </c>
       <c r="M230" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N230" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="O230" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P230" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="T230" t="n">
         <v>20</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E231" t="n">
         <v>16</v>
@@ -18844,16 +18844,16 @@
         </is>
       </c>
       <c r="M231" t="n">
-        <v>800</v>
+        <v>360</v>
       </c>
       <c r="N231" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O231" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P231" t="n">
-        <v>12500</v>
+        <v>18500</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>625</v>
+        <v>925</v>
       </c>
       <c r="T231" t="n">
         <v>20</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E232" t="n">
         <v>16</v>
@@ -18924,16 +18924,16 @@
         </is>
       </c>
       <c r="M232" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N232" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O232" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P232" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="T232" t="n">
         <v>20</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E233" t="n">
         <v>16</v>
@@ -19004,16 +19004,16 @@
         </is>
       </c>
       <c r="M233" t="n">
-        <v>240</v>
+        <v>800</v>
       </c>
       <c r="N233" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O233" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P233" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T233" t="n">
         <v>20</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E234" t="n">
         <v>16</v>
@@ -19084,16 +19084,16 @@
         </is>
       </c>
       <c r="M234" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N234" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O234" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="P234" t="n">
-        <v>12250</v>
+        <v>16000</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>612</v>
+        <v>800</v>
       </c>
       <c r="T234" t="n">
         <v>20</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E235" t="n">
         <v>16</v>
@@ -19164,16 +19164,16 @@
         </is>
       </c>
       <c r="M235" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="N235" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O235" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P235" t="n">
-        <v>13500</v>
+        <v>17500</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="T235" t="n">
         <v>20</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E236" t="n">
         <v>16</v>
@@ -19244,16 +19244,16 @@
         </is>
       </c>
       <c r="M236" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="N236" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="O236" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="P236" t="n">
-        <v>15375</v>
+        <v>12250</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>769</v>
+        <v>612</v>
       </c>
       <c r="T236" t="n">
         <v>20</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E237" t="n">
         <v>16</v>
@@ -19324,16 +19324,16 @@
         </is>
       </c>
       <c r="M237" t="n">
-        <v>380</v>
+        <v>600</v>
       </c>
       <c r="N237" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="O237" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P237" t="n">
-        <v>17526</v>
+        <v>13500</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>876</v>
+        <v>675</v>
       </c>
       <c r="T237" t="n">
         <v>20</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44466</v>
+        <v>44172</v>
       </c>
       <c r="E238" t="n">
         <v>16</v>
@@ -19404,16 +19404,16 @@
         </is>
       </c>
       <c r="M238" t="n">
-        <v>150</v>
+        <v>480</v>
       </c>
       <c r="N238" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="O238" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P238" t="n">
-        <v>14000</v>
+        <v>15375</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>700</v>
+        <v>769</v>
       </c>
       <c r="T238" t="n">
         <v>20</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44466</v>
+        <v>44172</v>
       </c>
       <c r="E239" t="n">
         <v>16</v>
@@ -19484,16 +19484,16 @@
         </is>
       </c>
       <c r="M239" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="N239" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O239" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P239" t="n">
-        <v>15500</v>
+        <v>17526</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>775</v>
+        <v>876</v>
       </c>
       <c r="T239" t="n">
         <v>20</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E240" t="n">
         <v>16</v>
@@ -19564,16 +19564,16 @@
         </is>
       </c>
       <c r="M240" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N240" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O240" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P240" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="T240" t="n">
         <v>20</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E241" t="n">
         <v>16</v>
@@ -19644,16 +19644,16 @@
         </is>
       </c>
       <c r="M241" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="N241" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O241" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P241" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>625</v>
+        <v>775</v>
       </c>
       <c r="T241" t="n">
         <v>20</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E242" t="n">
         <v>16</v>
@@ -19724,16 +19724,16 @@
         </is>
       </c>
       <c r="M242" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="N242" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="O242" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P242" t="n">
-        <v>9750</v>
+        <v>11000</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>488</v>
+        <v>550</v>
       </c>
       <c r="T242" t="n">
         <v>20</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E243" t="n">
         <v>16</v>
@@ -19804,16 +19804,16 @@
         </is>
       </c>
       <c r="M243" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N243" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O243" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P243" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="T243" t="n">
         <v>20</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E244" t="n">
         <v>16</v>
@@ -19884,16 +19884,16 @@
         </is>
       </c>
       <c r="M244" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="N244" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="O244" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P244" t="n">
-        <v>14000</v>
+        <v>9750</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>700</v>
+        <v>488</v>
       </c>
       <c r="T244" t="n">
         <v>20</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E245" t="n">
         <v>16</v>
@@ -19967,13 +19967,13 @@
         <v>360</v>
       </c>
       <c r="N245" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O245" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P245" t="n">
-        <v>15500</v>
+        <v>11500</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="T245" t="n">
         <v>20</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E246" t="n">
         <v>16</v>
@@ -20047,13 +20047,13 @@
         <v>80</v>
       </c>
       <c r="N246" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O246" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P246" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="T246" t="n">
         <v>20</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E247" t="n">
         <v>16</v>
@@ -20124,16 +20124,16 @@
         </is>
       </c>
       <c r="M247" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="N247" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O247" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P247" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>625</v>
+        <v>775</v>
       </c>
       <c r="T247" t="n">
         <v>20</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E248" t="n">
         <v>16</v>
@@ -20204,16 +20204,16 @@
         </is>
       </c>
       <c r="M248" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N248" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O248" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P248" t="n">
-        <v>15500</v>
+        <v>11000</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>775</v>
+        <v>550</v>
       </c>
       <c r="T248" t="n">
         <v>20</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E249" t="n">
         <v>16</v>
@@ -20280,20 +20280,20 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M249" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="N249" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O249" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P249" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="T249" t="n">
         <v>20</v>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E250" t="n">
         <v>16</v>
@@ -20360,20 +20360,20 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M250" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="N250" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O250" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P250" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>625</v>
+        <v>775</v>
       </c>
       <c r="T250" t="n">
         <v>20</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E251" t="n">
         <v>16</v>
@@ -20444,16 +20444,16 @@
         </is>
       </c>
       <c r="M251" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N251" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O251" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P251" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="T251" t="n">
         <v>20</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E252" t="n">
         <v>16</v>
@@ -20524,16 +20524,16 @@
         </is>
       </c>
       <c r="M252" t="n">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="N252" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O252" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P252" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T252" t="n">
         <v>20</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E253" t="n">
         <v>16</v>
@@ -20604,16 +20604,16 @@
         </is>
       </c>
       <c r="M253" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N253" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O253" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P253" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="T253" t="n">
         <v>20</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E254" t="n">
         <v>16</v>
@@ -20684,16 +20684,16 @@
         </is>
       </c>
       <c r="M254" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N254" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O254" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P254" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>725</v>
+        <v>875</v>
       </c>
       <c r="T254" t="n">
         <v>20</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E255" t="n">
         <v>16</v>
@@ -20764,16 +20764,16 @@
         </is>
       </c>
       <c r="M255" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="N255" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O255" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P255" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="T255" t="n">
         <v>20</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E256" t="n">
         <v>16</v>
@@ -20847,13 +20847,13 @@
         <v>360</v>
       </c>
       <c r="N256" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O256" t="n">
         <v>15000</v>
       </c>
-      <c r="O256" t="n">
-        <v>16000</v>
-      </c>
       <c r="P256" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="T256" t="n">
         <v>20</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E257" t="n">
         <v>16</v>
@@ -20920,20 +20920,20 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M257" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="N257" t="n">
         <v>14000</v>
       </c>
       <c r="O257" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P257" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>725</v>
+        <v>700</v>
       </c>
       <c r="T257" t="n">
         <v>20</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44468</v>
+        <v>44260</v>
       </c>
       <c r="E258" t="n">
         <v>16</v>
@@ -21000,20 +21000,20 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M258" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="N258" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O258" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P258" t="n">
-        <v>13000</v>
+        <v>15500</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>650</v>
+        <v>775</v>
       </c>
       <c r="T258" t="n">
         <v>20</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44468</v>
+        <v>44267</v>
       </c>
       <c r="E259" t="n">
         <v>16</v>
@@ -21084,7 +21084,7 @@
         </is>
       </c>
       <c r="M259" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="N259" t="n">
         <v>14000</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E260" t="n">
         <v>16</v>
@@ -21164,16 +21164,16 @@
         </is>
       </c>
       <c r="M260" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N260" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O260" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P260" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="T260" t="n">
         <v>20</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E261" t="n">
         <v>16</v>
@@ -21244,16 +21244,16 @@
         </is>
       </c>
       <c r="M261" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="N261" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O261" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P261" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="T261" t="n">
         <v>20</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E262" t="n">
         <v>16</v>
@@ -21324,16 +21324,16 @@
         </is>
       </c>
       <c r="M262" t="n">
-        <v>640</v>
+        <v>120</v>
       </c>
       <c r="N262" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="O262" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P262" t="n">
-        <v>9734</v>
+        <v>11000</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>487</v>
+        <v>550</v>
       </c>
       <c r="T262" t="n">
         <v>20</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E263" t="n">
         <v>16</v>
@@ -21404,16 +21404,16 @@
         </is>
       </c>
       <c r="M263" t="n">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="N263" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O263" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P263" t="n">
-        <v>11469</v>
+        <v>12500</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>573</v>
+        <v>625</v>
       </c>
       <c r="T263" t="n">
         <v>20</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E264" t="n">
         <v>16</v>
@@ -21484,16 +21484,16 @@
         </is>
       </c>
       <c r="M264" t="n">
-        <v>80</v>
+        <v>640</v>
       </c>
       <c r="N264" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="O264" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P264" t="n">
-        <v>11000</v>
+        <v>9734</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>550</v>
+        <v>487</v>
       </c>
       <c r="T264" t="n">
         <v>20</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E265" t="n">
         <v>16</v>
@@ -21564,16 +21564,16 @@
         </is>
       </c>
       <c r="M265" t="n">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="N265" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O265" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P265" t="n">
-        <v>13500</v>
+        <v>11469</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>675</v>
+        <v>573</v>
       </c>
       <c r="T265" t="n">
         <v>20</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E266" t="n">
         <v>16</v>
@@ -21644,16 +21644,16 @@
         </is>
       </c>
       <c r="M266" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N266" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O266" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P266" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="T266" t="n">
         <v>20</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E267" t="n">
         <v>16</v>
@@ -21727,13 +21727,13 @@
         <v>240</v>
       </c>
       <c r="N267" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O267" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P267" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="T267" t="n">
         <v>20</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E268" t="n">
         <v>16</v>
@@ -21804,16 +21804,16 @@
         </is>
       </c>
       <c r="M268" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N268" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O268" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P268" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="T268" t="n">
         <v>20</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E269" t="n">
         <v>16</v>
@@ -21884,16 +21884,16 @@
         </is>
       </c>
       <c r="M269" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N269" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O269" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P269" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="T269" t="n">
         <v>20</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E270" t="n">
         <v>16</v>
@@ -21967,13 +21967,13 @@
         <v>80</v>
       </c>
       <c r="N270" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O270" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P270" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="T270" t="n">
         <v>20</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E271" t="n">
         <v>16</v>
@@ -22044,16 +22044,16 @@
         </is>
       </c>
       <c r="M271" t="n">
-        <v>360</v>
+        <v>160</v>
       </c>
       <c r="N271" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O271" t="n">
         <v>15000</v>
       </c>
-      <c r="O271" t="n">
-        <v>16000</v>
-      </c>
       <c r="P271" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="T271" t="n">
         <v>20</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E272" t="n">
         <v>16</v>
@@ -22124,7 +22124,7 @@
         </is>
       </c>
       <c r="M272" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N272" t="n">
         <v>14000</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E273" t="n">
         <v>16</v>
@@ -22204,7 +22204,7 @@
         </is>
       </c>
       <c r="M273" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="N273" t="n">
         <v>15000</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E274" t="n">
         <v>16</v>
@@ -22284,16 +22284,16 @@
         </is>
       </c>
       <c r="M274" t="n">
-        <v>540</v>
+        <v>150</v>
       </c>
       <c r="N274" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O274" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P274" t="n">
-        <v>12370</v>
+        <v>14000</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>618</v>
+        <v>700</v>
       </c>
       <c r="T274" t="n">
         <v>20</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E275" t="n">
         <v>16</v>
@@ -22364,16 +22364,16 @@
         </is>
       </c>
       <c r="M275" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="N275" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O275" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P275" t="n">
-        <v>14536</v>
+        <v>15500</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>727</v>
+        <v>775</v>
       </c>
       <c r="T275" t="n">
         <v>20</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E276" t="n">
         <v>16</v>
@@ -22444,16 +22444,16 @@
         </is>
       </c>
       <c r="M276" t="n">
-        <v>80</v>
+        <v>540</v>
       </c>
       <c r="N276" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O276" t="n">
         <v>13000</v>
       </c>
       <c r="P276" t="n">
-        <v>13000</v>
+        <v>12370</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>650</v>
+        <v>618</v>
       </c>
       <c r="T276" t="n">
         <v>20</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E277" t="n">
         <v>16</v>
@@ -22524,7 +22524,7 @@
         </is>
       </c>
       <c r="M277" t="n">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="N277" t="n">
         <v>14000</v>
@@ -22533,7 +22533,7 @@
         <v>15000</v>
       </c>
       <c r="P277" t="n">
-        <v>14500</v>
+        <v>14536</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="T277" t="n">
         <v>20</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E278" t="n">
         <v>16</v>
@@ -22604,16 +22604,16 @@
         </is>
       </c>
       <c r="M278" t="n">
-        <v>660</v>
+        <v>80</v>
       </c>
       <c r="N278" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O278" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="P278" t="n">
-        <v>9273</v>
+        <v>13000</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>464</v>
+        <v>650</v>
       </c>
       <c r="T278" t="n">
         <v>20</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E279" t="n">
         <v>16</v>
@@ -22684,16 +22684,16 @@
         </is>
       </c>
       <c r="M279" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N279" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O279" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P279" t="n">
-        <v>10667</v>
+        <v>14500</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>533</v>
+        <v>725</v>
       </c>
       <c r="T279" t="n">
         <v>20</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E280" t="n">
         <v>16</v>
@@ -22764,16 +22764,16 @@
         </is>
       </c>
       <c r="M280" t="n">
-        <v>160</v>
+        <v>660</v>
       </c>
       <c r="N280" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O280" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="P280" t="n">
-        <v>8250</v>
+        <v>9273</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>412</v>
+        <v>464</v>
       </c>
       <c r="T280" t="n">
         <v>20</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E281" t="n">
         <v>16</v>
@@ -22844,16 +22844,16 @@
         </is>
       </c>
       <c r="M281" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N281" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="O281" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P281" t="n">
-        <v>9750</v>
+        <v>10667</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>488</v>
+        <v>533</v>
       </c>
       <c r="T281" t="n">
         <v>20</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E282" t="n">
         <v>16</v>
@@ -22924,16 +22924,16 @@
         </is>
       </c>
       <c r="M282" t="n">
-        <v>570</v>
+        <v>160</v>
       </c>
       <c r="N282" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O282" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="P282" t="n">
-        <v>9000</v>
+        <v>8250</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>450</v>
+        <v>412</v>
       </c>
       <c r="T282" t="n">
         <v>20</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E283" t="n">
         <v>16</v>
@@ -23004,16 +23004,16 @@
         </is>
       </c>
       <c r="M283" t="n">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="N283" t="n">
+        <v>9500</v>
+      </c>
+      <c r="O283" t="n">
         <v>10000</v>
       </c>
-      <c r="O283" t="n">
-        <v>11000</v>
-      </c>
       <c r="P283" t="n">
-        <v>10394</v>
+        <v>9750</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>520</v>
+        <v>488</v>
       </c>
       <c r="T283" t="n">
         <v>20</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E284" t="n">
         <v>16</v>
@@ -23084,16 +23084,16 @@
         </is>
       </c>
       <c r="M284" t="n">
-        <v>80</v>
+        <v>570</v>
       </c>
       <c r="N284" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O284" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P284" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="T284" t="n">
         <v>20</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E285" t="n">
         <v>16</v>
@@ -23164,16 +23164,16 @@
         </is>
       </c>
       <c r="M285" t="n">
-        <v>240</v>
+        <v>330</v>
       </c>
       <c r="N285" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O285" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P285" t="n">
-        <v>17500</v>
+        <v>10394</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>875</v>
+        <v>520</v>
       </c>
       <c r="T285" t="n">
         <v>20</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E286" t="n">
         <v>16</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E287" t="n">
         <v>16</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E288" t="n">
         <v>16</v>
@@ -23407,13 +23407,13 @@
         <v>80</v>
       </c>
       <c r="N288" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O288" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P288" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="T288" t="n">
         <v>20</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E289" t="n">
         <v>16</v>
@@ -23484,16 +23484,16 @@
         </is>
       </c>
       <c r="M289" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N289" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O289" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P289" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T289" t="n">
         <v>20</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E290" t="n">
         <v>16</v>
@@ -23564,16 +23564,16 @@
         </is>
       </c>
       <c r="M290" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N290" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="O290" t="n">
-        <v>11800</v>
+        <v>11000</v>
       </c>
       <c r="P290" t="n">
-        <v>11650</v>
+        <v>11000</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>582</v>
+        <v>550</v>
       </c>
       <c r="T290" t="n">
         <v>20</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E291" t="n">
         <v>16</v>
@@ -23644,16 +23644,16 @@
         </is>
       </c>
       <c r="M291" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N291" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="O291" t="n">
         <v>13000</v>
       </c>
       <c r="P291" t="n">
-        <v>12750</v>
+        <v>12500</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="T291" t="n">
         <v>20</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E292" t="n">
         <v>16</v>
@@ -23724,16 +23724,16 @@
         </is>
       </c>
       <c r="M292" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N292" t="n">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="O292" t="n">
-        <v>12000</v>
+        <v>11800</v>
       </c>
       <c r="P292" t="n">
-        <v>12000</v>
+        <v>11650</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="T292" t="n">
         <v>20</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E293" t="n">
         <v>16</v>
@@ -23807,13 +23807,13 @@
         <v>240</v>
       </c>
       <c r="N293" t="n">
+        <v>12500</v>
+      </c>
+      <c r="O293" t="n">
         <v>13000</v>
       </c>
-      <c r="O293" t="n">
-        <v>14000</v>
-      </c>
       <c r="P293" t="n">
-        <v>13500</v>
+        <v>12750</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>675</v>
+        <v>638</v>
       </c>
       <c r="T293" t="n">
         <v>20</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E294" t="n">
         <v>16</v>
@@ -23884,16 +23884,16 @@
         </is>
       </c>
       <c r="M294" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N294" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O294" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P294" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="T294" t="n">
         <v>20</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E295" t="n">
         <v>16</v>
@@ -23967,13 +23967,13 @@
         <v>240</v>
       </c>
       <c r="N295" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O295" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P295" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="T295" t="n">
         <v>20</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E296" t="n">
         <v>16</v>
@@ -24040,20 +24040,20 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M296" t="n">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="N296" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="O296" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P296" t="n">
-        <v>14750</v>
+        <v>11000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>738</v>
+        <v>550</v>
       </c>
       <c r="T296" t="n">
         <v>20</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E297" t="n">
         <v>16</v>
@@ -24120,20 +24120,20 @@
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M297" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="N297" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O297" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P297" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="T297" t="n">
         <v>20</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E298" t="n">
         <v>16</v>
@@ -24207,13 +24207,13 @@
         <v>360</v>
       </c>
       <c r="N298" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="O298" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P298" t="n">
-        <v>12500</v>
+        <v>14750</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>625</v>
+        <v>738</v>
       </c>
       <c r="T298" t="n">
         <v>20</v>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E299" t="n">
         <v>16</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E300" t="n">
         <v>16</v>
@@ -24364,7 +24364,7 @@
         </is>
       </c>
       <c r="M300" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N300" t="n">
         <v>12000</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E301" t="n">
         <v>16</v>
@@ -24447,13 +24447,13 @@
         <v>80</v>
       </c>
       <c r="N301" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O301" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P301" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="T301" t="n">
         <v>20</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E302" t="n">
         <v>16</v>
@@ -24527,13 +24527,13 @@
         <v>240</v>
       </c>
       <c r="N302" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O302" t="n">
         <v>13000</v>
       </c>
-      <c r="O302" t="n">
-        <v>14000</v>
-      </c>
       <c r="P302" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="T302" t="n">
         <v>20</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E303" t="n">
         <v>16</v>
@@ -24604,7 +24604,7 @@
         </is>
       </c>
       <c r="M303" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N303" t="n">
         <v>12000</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E304" t="n">
         <v>16</v>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E305" t="n">
         <v>16</v>
@@ -24764,16 +24764,16 @@
         </is>
       </c>
       <c r="M305" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N305" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O305" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P305" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="T305" t="n">
         <v>20</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E306" t="n">
         <v>16</v>
@@ -24847,13 +24847,13 @@
         <v>240</v>
       </c>
       <c r="N306" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O306" t="n">
         <v>14000</v>
       </c>
-      <c r="O306" t="n">
-        <v>15000</v>
-      </c>
       <c r="P306" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="T306" t="n">
         <v>20</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E307" t="n">
         <v>16</v>
@@ -24924,16 +24924,16 @@
         </is>
       </c>
       <c r="M307" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N307" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O307" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P307" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="T307" t="n">
         <v>20</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E308" t="n">
         <v>16</v>
@@ -25007,13 +25007,13 @@
         <v>240</v>
       </c>
       <c r="N308" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O308" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P308" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="T308" t="n">
         <v>20</v>
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E309" t="n">
         <v>16</v>
@@ -25084,16 +25084,16 @@
         </is>
       </c>
       <c r="M309" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="N309" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O309" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P309" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T309" t="n">
         <v>20</v>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E310" t="n">
         <v>16</v>
@@ -25164,16 +25164,16 @@
         </is>
       </c>
       <c r="M310" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N310" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="O310" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P310" t="n">
-        <v>14750</v>
+        <v>13500</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>738</v>
+        <v>675</v>
       </c>
       <c r="T310" t="n">
         <v>20</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E311" t="n">
         <v>16</v>
@@ -25240,11 +25240,11 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M311" t="n">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="N311" t="n">
         <v>14000</v>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E312" t="n">
         <v>16</v>
@@ -25324,16 +25324,16 @@
         </is>
       </c>
       <c r="M312" t="n">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="N312" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="O312" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P312" t="n">
-        <v>13000</v>
+        <v>14750</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>650</v>
+        <v>738</v>
       </c>
       <c r="T312" t="n">
         <v>20</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E313" t="n">
         <v>16</v>
@@ -25400,20 +25400,20 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M313" t="n">
         <v>120</v>
       </c>
       <c r="N313" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O313" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P313" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T313" t="n">
         <v>20</v>
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E314" t="n">
         <v>16</v>
@@ -25484,16 +25484,16 @@
         </is>
       </c>
       <c r="M314" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N314" t="n">
         <v>13000</v>
       </c>
       <c r="O314" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P314" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="T314" t="n">
         <v>20</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E315" t="n">
         <v>16</v>
@@ -25564,16 +25564,16 @@
         </is>
       </c>
       <c r="M315" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N315" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O315" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P315" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="T315" t="n">
         <v>20</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E316" t="n">
         <v>16</v>
@@ -25644,16 +25644,16 @@
         </is>
       </c>
       <c r="M316" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="N316" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O316" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P316" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="T316" t="n">
         <v>20</v>
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E317" t="n">
         <v>16</v>
@@ -25724,16 +25724,16 @@
         </is>
       </c>
       <c r="M317" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="N317" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O317" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P317" t="n">
-        <v>16500</v>
+        <v>11000</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>825</v>
+        <v>550</v>
       </c>
       <c r="T317" t="n">
         <v>20</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E318" t="n">
         <v>16</v>
@@ -25804,16 +25804,16 @@
         </is>
       </c>
       <c r="M318" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N318" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O318" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P318" t="n">
-        <v>18500</v>
+        <v>12500</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>925</v>
+        <v>625</v>
       </c>
       <c r="T318" t="n">
         <v>20</v>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E319" t="n">
         <v>16</v>
@@ -25884,16 +25884,16 @@
         </is>
       </c>
       <c r="M319" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="N319" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O319" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P319" t="n">
-        <v>11000</v>
+        <v>16500</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>550</v>
+        <v>825</v>
       </c>
       <c r="T319" t="n">
         <v>20</v>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E320" t="n">
         <v>16</v>
@@ -25964,16 +25964,16 @@
         </is>
       </c>
       <c r="M320" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N320" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O320" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P320" t="n">
-        <v>12500</v>
+        <v>18500</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>625</v>
+        <v>925</v>
       </c>
       <c r="T320" t="n">
         <v>20</v>
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E321" t="n">
         <v>16</v>
@@ -26044,16 +26044,16 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N321" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="O321" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P321" t="n">
-        <v>14750</v>
+        <v>11000</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>738</v>
+        <v>550</v>
       </c>
       <c r="T321" t="n">
         <v>20</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E322" t="n">
         <v>16</v>
@@ -26120,20 +26120,20 @@
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M322" t="n">
         <v>160</v>
       </c>
       <c r="N322" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O322" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P322" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="T322" t="n">
         <v>20</v>
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E323" t="n">
         <v>16</v>
@@ -26200,20 +26200,20 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M323" t="n">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="N323" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="O323" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P323" t="n">
-        <v>13500</v>
+        <v>14750</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>675</v>
+        <v>738</v>
       </c>
       <c r="T323" t="n">
         <v>20</v>
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E324" t="n">
         <v>16</v>
@@ -26284,16 +26284,16 @@
         </is>
       </c>
       <c r="M324" t="n">
-        <v>640</v>
+        <v>160</v>
       </c>
       <c r="N324" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O324" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P324" t="n">
-        <v>10469</v>
+        <v>11500</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>523</v>
+        <v>575</v>
       </c>
       <c r="T324" t="n">
         <v>20</v>
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E325" t="n">
         <v>16</v>
@@ -26364,16 +26364,16 @@
         </is>
       </c>
       <c r="M325" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N325" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="O325" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P325" t="n">
-        <v>11750</v>
+        <v>13500</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>588</v>
+        <v>675</v>
       </c>
       <c r="T325" t="n">
         <v>20</v>
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E326" t="n">
         <v>16</v>
@@ -26444,16 +26444,16 @@
         </is>
       </c>
       <c r="M326" t="n">
-        <v>480</v>
+        <v>640</v>
       </c>
       <c r="N326" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O326" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P326" t="n">
-        <v>14417</v>
+        <v>10469</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>721</v>
+        <v>523</v>
       </c>
       <c r="T326" t="n">
         <v>20</v>
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E327" t="n">
         <v>16</v>
@@ -26524,16 +26524,16 @@
         </is>
       </c>
       <c r="M327" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N327" t="n">
-        <v>15500</v>
+        <v>11500</v>
       </c>
       <c r="O327" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P327" t="n">
-        <v>15826</v>
+        <v>11750</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>791</v>
+        <v>588</v>
       </c>
       <c r="T327" t="n">
         <v>20</v>
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E328" t="n">
         <v>16</v>
@@ -26604,16 +26604,16 @@
         </is>
       </c>
       <c r="M328" t="n">
-        <v>150</v>
+        <v>480</v>
       </c>
       <c r="N328" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O328" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P328" t="n">
-        <v>16000</v>
+        <v>14417</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>800</v>
+        <v>721</v>
       </c>
       <c r="T328" t="n">
         <v>20</v>
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E329" t="n">
         <v>16</v>
@@ -26684,16 +26684,16 @@
         </is>
       </c>
       <c r="M329" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N329" t="n">
-        <v>17000</v>
+        <v>15500</v>
       </c>
       <c r="O329" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P329" t="n">
-        <v>17500</v>
+        <v>15826</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>875</v>
+        <v>791</v>
       </c>
       <c r="T329" t="n">
         <v>20</v>
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E330" t="n">
         <v>16</v>
@@ -26764,16 +26764,16 @@
         </is>
       </c>
       <c r="M330" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N330" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O330" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P330" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="T330" t="n">
         <v>20</v>
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E331" t="n">
         <v>16</v>
@@ -26844,16 +26844,16 @@
         </is>
       </c>
       <c r="M331" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N331" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O331" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P331" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T331" t="n">
         <v>20</v>
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E332" t="n">
         <v>16</v>
@@ -26924,16 +26924,16 @@
         </is>
       </c>
       <c r="M332" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N332" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O332" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P332" t="n">
-        <v>15500</v>
+        <v>11000</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>775</v>
+        <v>550</v>
       </c>
       <c r="T332" t="n">
         <v>20</v>
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E333" t="n">
         <v>16</v>
@@ -27004,16 +27004,16 @@
         </is>
       </c>
       <c r="M333" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N333" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O333" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P333" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>850</v>
+        <v>625</v>
       </c>
       <c r="T333" t="n">
         <v>20</v>
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E334" t="n">
         <v>16</v>
@@ -27084,16 +27084,16 @@
         </is>
       </c>
       <c r="M334" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="N334" t="n">
         <v>15000</v>
       </c>
       <c r="O334" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P334" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="T334" t="n">
         <v>20</v>
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E335" t="n">
         <v>16</v>
@@ -27164,16 +27164,16 @@
         </is>
       </c>
       <c r="M335" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N335" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O335" t="n">
         <v>17000</v>
       </c>
       <c r="P335" t="n">
-        <v>16500</v>
+        <v>17000</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>825</v>
+        <v>850</v>
       </c>
       <c r="T335" t="n">
         <v>20</v>
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E336" t="n">
         <v>16</v>
@@ -27244,16 +27244,16 @@
         </is>
       </c>
       <c r="M336" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N336" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="O336" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P336" t="n">
-        <v>12750</v>
+        <v>15000</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>638</v>
+        <v>750</v>
       </c>
       <c r="T336" t="n">
         <v>20</v>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E337" t="n">
         <v>16</v>
@@ -27324,16 +27324,16 @@
         </is>
       </c>
       <c r="M337" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="N337" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O337" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P337" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="T337" t="n">
         <v>20</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E338" t="n">
         <v>16</v>
@@ -27404,16 +27404,16 @@
         </is>
       </c>
       <c r="M338" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N338" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="O338" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P338" t="n">
-        <v>11750</v>
+        <v>12750</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>588</v>
+        <v>638</v>
       </c>
       <c r="T338" t="n">
         <v>20</v>
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E339" t="n">
         <v>16</v>
@@ -27484,16 +27484,16 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="N339" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O339" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P339" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="T339" t="n">
         <v>20</v>
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E340" t="n">
         <v>16</v>
@@ -27564,16 +27564,16 @@
         </is>
       </c>
       <c r="M340" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N340" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="O340" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P340" t="n">
-        <v>13000</v>
+        <v>11750</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>650</v>
+        <v>588</v>
       </c>
       <c r="T340" t="n">
         <v>20</v>
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E341" t="n">
         <v>16</v>
@@ -27644,16 +27644,16 @@
         </is>
       </c>
       <c r="M341" t="n">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="N341" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O341" t="n">
         <v>14000</v>
       </c>
-      <c r="O341" t="n">
-        <v>15000</v>
-      </c>
       <c r="P341" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="T341" t="n">
         <v>20</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E342" t="n">
         <v>16</v>
@@ -27724,16 +27724,16 @@
         </is>
       </c>
       <c r="M342" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N342" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O342" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P342" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="T342" t="n">
         <v>20</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E343" t="n">
         <v>16</v>
@@ -27804,16 +27804,16 @@
         </is>
       </c>
       <c r="M343" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N343" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O343" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P343" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="T343" t="n">
         <v>20</v>
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E344" t="n">
         <v>16</v>
@@ -27884,16 +27884,16 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>640</v>
+        <v>120</v>
       </c>
       <c r="N344" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O344" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P344" t="n">
-        <v>13688</v>
+        <v>9000</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>684</v>
+        <v>450</v>
       </c>
       <c r="T344" t="n">
         <v>20</v>
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E345" t="n">
         <v>16</v>
@@ -27964,16 +27964,16 @@
         </is>
       </c>
       <c r="M345" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="N345" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="O345" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P345" t="n">
-        <v>14714</v>
+        <v>10500</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>736</v>
+        <v>525</v>
       </c>
       <c r="T345" t="n">
         <v>20</v>
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E346" t="n">
         <v>16</v>
@@ -28040,20 +28040,20 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M346" t="n">
-        <v>160</v>
+        <v>640</v>
       </c>
       <c r="N346" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O346" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P346" t="n">
-        <v>11500</v>
+        <v>13688</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>575</v>
+        <v>684</v>
       </c>
       <c r="T346" t="n">
         <v>20</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E347" t="n">
         <v>16</v>
@@ -28120,20 +28120,20 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M347" t="n">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="N347" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="O347" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P347" t="n">
-        <v>11000</v>
+        <v>14714</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>550</v>
+        <v>736</v>
       </c>
       <c r="T347" t="n">
         <v>20</v>
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E348" t="n">
         <v>16</v>
@@ -28204,16 +28204,16 @@
         </is>
       </c>
       <c r="M348" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N348" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O348" t="n">
         <v>12000</v>
       </c>
-      <c r="O348" t="n">
-        <v>13000</v>
-      </c>
       <c r="P348" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="T348" t="n">
         <v>20</v>
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E349" t="n">
         <v>16</v>
@@ -28280,20 +28280,20 @@
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M349" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N349" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O349" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P349" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>725</v>
+        <v>550</v>
       </c>
       <c r="T349" t="n">
         <v>20</v>
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E350" t="n">
         <v>16</v>
@@ -28360,20 +28360,20 @@
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M350" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="N350" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O350" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P350" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="T350" t="n">
         <v>20</v>
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E351" t="n">
         <v>16</v>
@@ -28444,16 +28444,16 @@
         </is>
       </c>
       <c r="M351" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N351" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O351" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P351" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="T351" t="n">
         <v>20</v>
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E352" t="n">
         <v>16</v>
@@ -28524,16 +28524,16 @@
         </is>
       </c>
       <c r="M352" t="n">
-        <v>640</v>
+        <v>80</v>
       </c>
       <c r="N352" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O352" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P352" t="n">
-        <v>12469</v>
+        <v>11000</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         </is>
       </c>
       <c r="S352" t="n">
-        <v>623</v>
+        <v>550</v>
       </c>
       <c r="T352" t="n">
         <v>20</v>
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E353" t="n">
         <v>16</v>
@@ -28604,16 +28604,16 @@
         </is>
       </c>
       <c r="M353" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N353" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O353" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P353" t="n">
-        <v>14600</v>
+        <v>12500</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>730</v>
+        <v>625</v>
       </c>
       <c r="T353" t="n">
         <v>20</v>
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E354" t="n">
         <v>16</v>
@@ -28684,16 +28684,16 @@
         </is>
       </c>
       <c r="M354" t="n">
-        <v>100</v>
+        <v>640</v>
       </c>
       <c r="N354" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O354" t="n">
         <v>13000</v>
       </c>
       <c r="P354" t="n">
-        <v>13000</v>
+        <v>12469</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         </is>
       </c>
       <c r="S354" t="n">
-        <v>650</v>
+        <v>623</v>
       </c>
       <c r="T354" t="n">
         <v>20</v>
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E355" t="n">
         <v>16</v>
@@ -28773,7 +28773,7 @@
         <v>15000</v>
       </c>
       <c r="P355" t="n">
-        <v>14500</v>
+        <v>14600</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="T355" t="n">
         <v>20</v>
@@ -28807,68 +28807,228 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E356" t="n">
+        <v>16</v>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G356" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I356" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J356" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>Pintón</t>
+        </is>
+      </c>
+      <c r="M356" t="n">
+        <v>100</v>
+      </c>
+      <c r="N356" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O356" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P356" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q356" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R356" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S356" t="n">
+        <v>650</v>
+      </c>
+      <c r="T356" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>7</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D357" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E357" t="n">
+        <v>16</v>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G357" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I357" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J357" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>Primera Pintón</t>
+        </is>
+      </c>
+      <c r="M357" t="n">
+        <v>300</v>
+      </c>
+      <c r="N357" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O357" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P357" t="n">
+        <v>14500</v>
+      </c>
+      <c r="Q357" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R357" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S357" t="n">
+        <v>725</v>
+      </c>
+      <c r="T357" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>7</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D358" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E356" t="n">
-        <v>16</v>
-      </c>
-      <c r="F356" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G356" t="n">
-        <v>100108</v>
-      </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>Tropicales y subtropicales</t>
-        </is>
-      </c>
-      <c r="I356" t="n">
-        <v>100108006</v>
-      </c>
-      <c r="J356" t="inlineStr">
-        <is>
-          <t>Plátano</t>
-        </is>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L356" t="inlineStr">
+      <c r="E358" t="n">
+        <v>16</v>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G358" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I358" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J358" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L358" t="inlineStr">
         <is>
           <t>Primera Pintón</t>
         </is>
       </c>
-      <c r="M356" t="n">
+      <c r="M358" t="n">
         <v>240</v>
       </c>
-      <c r="N356" t="n">
+      <c r="N358" t="n">
         <v>16000</v>
       </c>
-      <c r="O356" t="n">
+      <c r="O358" t="n">
         <v>17000</v>
       </c>
-      <c r="P356" t="n">
+      <c r="P358" t="n">
         <v>16500</v>
       </c>
-      <c r="Q356" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R356" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S356" t="n">
+      <c r="Q358" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R358" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S358" t="n">
         <v>825</v>
       </c>
-      <c r="T356" t="n">
+      <c r="T358" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T360"/>
+  <dimension ref="A1:T362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E313" t="n">
         <v>16</v>
@@ -25404,16 +25404,16 @@
         </is>
       </c>
       <c r="M313" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N313" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O313" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P313" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="T313" t="n">
         <v>20</v>
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E314" t="n">
         <v>16</v>
@@ -25484,16 +25484,16 @@
         </is>
       </c>
       <c r="M314" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="N314" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="O314" t="n">
         <v>15000</v>
       </c>
       <c r="P314" t="n">
-        <v>14750</v>
+        <v>14500</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>738</v>
+        <v>725</v>
       </c>
       <c r="T314" t="n">
         <v>20</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E315" t="n">
         <v>16</v>
@@ -25560,11 +25560,11 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M315" t="n">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="N315" t="n">
         <v>14000</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E316" t="n">
         <v>16</v>
@@ -25644,16 +25644,16 @@
         </is>
       </c>
       <c r="M316" t="n">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="N316" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="O316" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P316" t="n">
-        <v>13000</v>
+        <v>14750</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>650</v>
+        <v>738</v>
       </c>
       <c r="T316" t="n">
         <v>20</v>
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E317" t="n">
         <v>16</v>
@@ -25720,20 +25720,20 @@
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M317" t="n">
         <v>120</v>
       </c>
       <c r="N317" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O317" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P317" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T317" t="n">
         <v>20</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E318" t="n">
         <v>16</v>
@@ -25804,16 +25804,16 @@
         </is>
       </c>
       <c r="M318" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N318" t="n">
         <v>13000</v>
       </c>
       <c r="O318" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P318" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="T318" t="n">
         <v>20</v>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E319" t="n">
         <v>16</v>
@@ -25884,16 +25884,16 @@
         </is>
       </c>
       <c r="M319" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N319" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O319" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P319" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="T319" t="n">
         <v>20</v>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E320" t="n">
         <v>16</v>
@@ -25964,16 +25964,16 @@
         </is>
       </c>
       <c r="M320" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="N320" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O320" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P320" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="T320" t="n">
         <v>20</v>
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E321" t="n">
         <v>16</v>
@@ -26044,16 +26044,16 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="N321" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O321" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P321" t="n">
-        <v>16500</v>
+        <v>11000</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>825</v>
+        <v>550</v>
       </c>
       <c r="T321" t="n">
         <v>20</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E322" t="n">
         <v>16</v>
@@ -26124,16 +26124,16 @@
         </is>
       </c>
       <c r="M322" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N322" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O322" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P322" t="n">
-        <v>18500</v>
+        <v>12500</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>925</v>
+        <v>625</v>
       </c>
       <c r="T322" t="n">
         <v>20</v>
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E323" t="n">
         <v>16</v>
@@ -26204,16 +26204,16 @@
         </is>
       </c>
       <c r="M323" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="N323" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O323" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P323" t="n">
-        <v>11000</v>
+        <v>16500</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>550</v>
+        <v>825</v>
       </c>
       <c r="T323" t="n">
         <v>20</v>
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E324" t="n">
         <v>16</v>
@@ -26284,16 +26284,16 @@
         </is>
       </c>
       <c r="M324" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N324" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O324" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P324" t="n">
-        <v>12500</v>
+        <v>18500</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>625</v>
+        <v>925</v>
       </c>
       <c r="T324" t="n">
         <v>20</v>
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E325" t="n">
         <v>16</v>
@@ -26364,16 +26364,16 @@
         </is>
       </c>
       <c r="M325" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N325" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="O325" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P325" t="n">
-        <v>14750</v>
+        <v>11000</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>738</v>
+        <v>550</v>
       </c>
       <c r="T325" t="n">
         <v>20</v>
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E326" t="n">
         <v>16</v>
@@ -26440,20 +26440,20 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M326" t="n">
         <v>160</v>
       </c>
       <c r="N326" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O326" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P326" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="T326" t="n">
         <v>20</v>
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E327" t="n">
         <v>16</v>
@@ -26520,20 +26520,20 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M327" t="n">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="N327" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="O327" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P327" t="n">
-        <v>13500</v>
+        <v>14750</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>675</v>
+        <v>738</v>
       </c>
       <c r="T327" t="n">
         <v>20</v>
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E328" t="n">
         <v>16</v>
@@ -26604,16 +26604,16 @@
         </is>
       </c>
       <c r="M328" t="n">
-        <v>640</v>
+        <v>160</v>
       </c>
       <c r="N328" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O328" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P328" t="n">
-        <v>10469</v>
+        <v>11500</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>523</v>
+        <v>575</v>
       </c>
       <c r="T328" t="n">
         <v>20</v>
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E329" t="n">
         <v>16</v>
@@ -26684,16 +26684,16 @@
         </is>
       </c>
       <c r="M329" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N329" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="O329" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P329" t="n">
-        <v>11750</v>
+        <v>13500</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>588</v>
+        <v>675</v>
       </c>
       <c r="T329" t="n">
         <v>20</v>
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E330" t="n">
         <v>16</v>
@@ -26764,16 +26764,16 @@
         </is>
       </c>
       <c r="M330" t="n">
-        <v>480</v>
+        <v>640</v>
       </c>
       <c r="N330" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O330" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P330" t="n">
-        <v>14417</v>
+        <v>10469</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>721</v>
+        <v>523</v>
       </c>
       <c r="T330" t="n">
         <v>20</v>
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E331" t="n">
         <v>16</v>
@@ -26844,16 +26844,16 @@
         </is>
       </c>
       <c r="M331" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N331" t="n">
-        <v>15500</v>
+        <v>11500</v>
       </c>
       <c r="O331" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P331" t="n">
-        <v>15826</v>
+        <v>11750</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>791</v>
+        <v>588</v>
       </c>
       <c r="T331" t="n">
         <v>20</v>
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E332" t="n">
         <v>16</v>
@@ -26924,16 +26924,16 @@
         </is>
       </c>
       <c r="M332" t="n">
-        <v>150</v>
+        <v>480</v>
       </c>
       <c r="N332" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O332" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P332" t="n">
-        <v>16000</v>
+        <v>14417</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>800</v>
+        <v>721</v>
       </c>
       <c r="T332" t="n">
         <v>20</v>
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E333" t="n">
         <v>16</v>
@@ -27004,16 +27004,16 @@
         </is>
       </c>
       <c r="M333" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N333" t="n">
-        <v>17000</v>
+        <v>15500</v>
       </c>
       <c r="O333" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P333" t="n">
-        <v>17500</v>
+        <v>15826</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>875</v>
+        <v>791</v>
       </c>
       <c r="T333" t="n">
         <v>20</v>
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E334" t="n">
         <v>16</v>
@@ -27084,16 +27084,16 @@
         </is>
       </c>
       <c r="M334" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N334" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O334" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P334" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="T334" t="n">
         <v>20</v>
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E335" t="n">
         <v>16</v>
@@ -27164,16 +27164,16 @@
         </is>
       </c>
       <c r="M335" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N335" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O335" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P335" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T335" t="n">
         <v>20</v>
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E336" t="n">
         <v>16</v>
@@ -27244,16 +27244,16 @@
         </is>
       </c>
       <c r="M336" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N336" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O336" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P336" t="n">
-        <v>15500</v>
+        <v>11000</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>775</v>
+        <v>550</v>
       </c>
       <c r="T336" t="n">
         <v>20</v>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E337" t="n">
         <v>16</v>
@@ -27324,16 +27324,16 @@
         </is>
       </c>
       <c r="M337" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N337" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O337" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P337" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>850</v>
+        <v>625</v>
       </c>
       <c r="T337" t="n">
         <v>20</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E338" t="n">
         <v>16</v>
@@ -27404,16 +27404,16 @@
         </is>
       </c>
       <c r="M338" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="N338" t="n">
         <v>15000</v>
       </c>
       <c r="O338" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P338" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="T338" t="n">
         <v>20</v>
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E339" t="n">
         <v>16</v>
@@ -27484,16 +27484,16 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N339" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O339" t="n">
         <v>17000</v>
       </c>
       <c r="P339" t="n">
-        <v>16500</v>
+        <v>17000</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>825</v>
+        <v>850</v>
       </c>
       <c r="T339" t="n">
         <v>20</v>
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E340" t="n">
         <v>16</v>
@@ -27564,16 +27564,16 @@
         </is>
       </c>
       <c r="M340" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N340" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="O340" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P340" t="n">
-        <v>12750</v>
+        <v>15000</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>638</v>
+        <v>750</v>
       </c>
       <c r="T340" t="n">
         <v>20</v>
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E341" t="n">
         <v>16</v>
@@ -27644,16 +27644,16 @@
         </is>
       </c>
       <c r="M341" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="N341" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O341" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P341" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="T341" t="n">
         <v>20</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E342" t="n">
         <v>16</v>
@@ -27724,16 +27724,16 @@
         </is>
       </c>
       <c r="M342" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N342" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="O342" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P342" t="n">
-        <v>11750</v>
+        <v>12750</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>588</v>
+        <v>638</v>
       </c>
       <c r="T342" t="n">
         <v>20</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E343" t="n">
         <v>16</v>
@@ -27804,16 +27804,16 @@
         </is>
       </c>
       <c r="M343" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="N343" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O343" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P343" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="T343" t="n">
         <v>20</v>
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E344" t="n">
         <v>16</v>
@@ -27884,16 +27884,16 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N344" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="O344" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P344" t="n">
-        <v>13000</v>
+        <v>11750</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>650</v>
+        <v>588</v>
       </c>
       <c r="T344" t="n">
         <v>20</v>
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E345" t="n">
         <v>16</v>
@@ -27964,16 +27964,16 @@
         </is>
       </c>
       <c r="M345" t="n">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="N345" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O345" t="n">
         <v>14000</v>
       </c>
-      <c r="O345" t="n">
-        <v>15000</v>
-      </c>
       <c r="P345" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="T345" t="n">
         <v>20</v>
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E346" t="n">
         <v>16</v>
@@ -28044,16 +28044,16 @@
         </is>
       </c>
       <c r="M346" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N346" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O346" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P346" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="T346" t="n">
         <v>20</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E347" t="n">
         <v>16</v>
@@ -28124,16 +28124,16 @@
         </is>
       </c>
       <c r="M347" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N347" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O347" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P347" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="T347" t="n">
         <v>20</v>
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E348" t="n">
         <v>16</v>
@@ -28204,16 +28204,16 @@
         </is>
       </c>
       <c r="M348" t="n">
-        <v>640</v>
+        <v>120</v>
       </c>
       <c r="N348" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O348" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P348" t="n">
-        <v>13688</v>
+        <v>9000</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>684</v>
+        <v>450</v>
       </c>
       <c r="T348" t="n">
         <v>20</v>
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E349" t="n">
         <v>16</v>
@@ -28284,16 +28284,16 @@
         </is>
       </c>
       <c r="M349" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="N349" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="O349" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P349" t="n">
-        <v>14714</v>
+        <v>10500</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>736</v>
+        <v>525</v>
       </c>
       <c r="T349" t="n">
         <v>20</v>
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E350" t="n">
         <v>16</v>
@@ -28360,20 +28360,20 @@
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M350" t="n">
-        <v>160</v>
+        <v>640</v>
       </c>
       <c r="N350" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O350" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P350" t="n">
-        <v>11500</v>
+        <v>13688</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>575</v>
+        <v>684</v>
       </c>
       <c r="T350" t="n">
         <v>20</v>
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E351" t="n">
         <v>16</v>
@@ -28440,20 +28440,20 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M351" t="n">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="N351" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="O351" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P351" t="n">
-        <v>11000</v>
+        <v>14714</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>550</v>
+        <v>736</v>
       </c>
       <c r="T351" t="n">
         <v>20</v>
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E352" t="n">
         <v>16</v>
@@ -28524,16 +28524,16 @@
         </is>
       </c>
       <c r="M352" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N352" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O352" t="n">
         <v>12000</v>
       </c>
-      <c r="O352" t="n">
-        <v>13000</v>
-      </c>
       <c r="P352" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         </is>
       </c>
       <c r="S352" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="T352" t="n">
         <v>20</v>
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E353" t="n">
         <v>16</v>
@@ -28600,20 +28600,20 @@
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M353" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N353" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O353" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P353" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>725</v>
+        <v>550</v>
       </c>
       <c r="T353" t="n">
         <v>20</v>
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E354" t="n">
         <v>16</v>
@@ -28680,20 +28680,20 @@
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M354" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="N354" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O354" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P354" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         </is>
       </c>
       <c r="S354" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="T354" t="n">
         <v>20</v>
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E355" t="n">
         <v>16</v>
@@ -28764,16 +28764,16 @@
         </is>
       </c>
       <c r="M355" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N355" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O355" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P355" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="T355" t="n">
         <v>20</v>
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E356" t="n">
         <v>16</v>
@@ -28844,16 +28844,16 @@
         </is>
       </c>
       <c r="M356" t="n">
-        <v>640</v>
+        <v>80</v>
       </c>
       <c r="N356" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O356" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P356" t="n">
-        <v>12469</v>
+        <v>11000</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>623</v>
+        <v>550</v>
       </c>
       <c r="T356" t="n">
         <v>20</v>
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E357" t="n">
         <v>16</v>
@@ -28924,16 +28924,16 @@
         </is>
       </c>
       <c r="M357" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N357" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O357" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P357" t="n">
-        <v>14600</v>
+        <v>12500</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>730</v>
+        <v>625</v>
       </c>
       <c r="T357" t="n">
         <v>20</v>
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E358" t="n">
         <v>16</v>
@@ -29004,16 +29004,16 @@
         </is>
       </c>
       <c r="M358" t="n">
-        <v>100</v>
+        <v>640</v>
       </c>
       <c r="N358" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O358" t="n">
         <v>13000</v>
       </c>
       <c r="P358" t="n">
-        <v>13000</v>
+        <v>12469</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>650</v>
+        <v>623</v>
       </c>
       <c r="T358" t="n">
         <v>20</v>
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E359" t="n">
         <v>16</v>
@@ -29093,7 +29093,7 @@
         <v>15000</v>
       </c>
       <c r="P359" t="n">
-        <v>14500</v>
+        <v>14600</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="T359" t="n">
         <v>20</v>
@@ -29127,68 +29127,228 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E360" t="n">
+        <v>16</v>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G360" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I360" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J360" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>Pintón</t>
+        </is>
+      </c>
+      <c r="M360" t="n">
+        <v>100</v>
+      </c>
+      <c r="N360" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O360" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P360" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q360" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R360" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S360" t="n">
+        <v>650</v>
+      </c>
+      <c r="T360" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>7</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D361" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E361" t="n">
+        <v>16</v>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G361" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I361" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J361" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>Primera Pintón</t>
+        </is>
+      </c>
+      <c r="M361" t="n">
+        <v>300</v>
+      </c>
+      <c r="N361" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O361" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P361" t="n">
+        <v>14500</v>
+      </c>
+      <c r="Q361" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R361" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S361" t="n">
+        <v>725</v>
+      </c>
+      <c r="T361" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>7</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D362" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E360" t="n">
-        <v>16</v>
-      </c>
-      <c r="F360" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G360" t="n">
-        <v>100108</v>
-      </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>Tropicales y subtropicales</t>
-        </is>
-      </c>
-      <c r="I360" t="n">
-        <v>100108006</v>
-      </c>
-      <c r="J360" t="inlineStr">
-        <is>
-          <t>Plátano</t>
-        </is>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L360" t="inlineStr">
+      <c r="E362" t="n">
+        <v>16</v>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G362" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I362" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J362" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L362" t="inlineStr">
         <is>
           <t>Primera Pintón</t>
         </is>
       </c>
-      <c r="M360" t="n">
+      <c r="M362" t="n">
         <v>240</v>
       </c>
-      <c r="N360" t="n">
+      <c r="N362" t="n">
         <v>16000</v>
       </c>
-      <c r="O360" t="n">
+      <c r="O362" t="n">
         <v>17000</v>
       </c>
-      <c r="P360" t="n">
+      <c r="P362" t="n">
         <v>16500</v>
       </c>
-      <c r="Q360" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R360" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S360" t="n">
+      <c r="Q362" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R362" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S362" t="n">
         <v>825</v>
       </c>
-      <c r="T360" t="n">
+      <c r="T362" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T364"/>
+  <dimension ref="A1:T366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E306" t="n">
         <v>16</v>
@@ -24844,16 +24844,16 @@
         </is>
       </c>
       <c r="M306" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="N306" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O306" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P306" t="n">
-        <v>13000</v>
+        <v>17500</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>650</v>
+        <v>875</v>
       </c>
       <c r="T306" t="n">
         <v>20</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E307" t="n">
         <v>16</v>
@@ -24924,16 +24924,16 @@
         </is>
       </c>
       <c r="M307" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N307" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="O307" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P307" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>725</v>
+        <v>975</v>
       </c>
       <c r="T307" t="n">
         <v>20</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E308" t="n">
         <v>16</v>
@@ -25004,16 +25004,16 @@
         </is>
       </c>
       <c r="M308" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N308" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O308" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P308" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="T308" t="n">
         <v>20</v>
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E309" t="n">
         <v>16</v>
@@ -25084,16 +25084,16 @@
         </is>
       </c>
       <c r="M309" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="N309" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O309" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P309" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="T309" t="n">
         <v>20</v>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E310" t="n">
         <v>16</v>
@@ -25164,16 +25164,16 @@
         </is>
       </c>
       <c r="M310" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N310" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O310" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P310" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="T310" t="n">
         <v>20</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E311" t="n">
         <v>16</v>
@@ -25244,7 +25244,7 @@
         </is>
       </c>
       <c r="M311" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N311" t="n">
         <v>12000</v>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E312" t="n">
         <v>16</v>
@@ -25327,13 +25327,13 @@
         <v>80</v>
       </c>
       <c r="N312" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O312" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P312" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="T312" t="n">
         <v>20</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E313" t="n">
         <v>16</v>
@@ -25407,13 +25407,13 @@
         <v>160</v>
       </c>
       <c r="N313" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O313" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P313" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>775</v>
+        <v>625</v>
       </c>
       <c r="T313" t="n">
         <v>20</v>
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E314" t="n">
         <v>16</v>
@@ -25487,13 +25487,13 @@
         <v>80</v>
       </c>
       <c r="N314" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O314" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P314" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T314" t="n">
         <v>20</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E315" t="n">
         <v>16</v>
@@ -25564,16 +25564,16 @@
         </is>
       </c>
       <c r="M315" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N315" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O315" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P315" t="n">
-        <v>13500</v>
+        <v>15500</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="T315" t="n">
         <v>20</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E316" t="n">
         <v>16</v>
@@ -25644,16 +25644,16 @@
         </is>
       </c>
       <c r="M316" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="N316" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O316" t="n">
         <v>12000</v>
       </c>
       <c r="P316" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>575</v>
+        <v>600</v>
       </c>
       <c r="T316" t="n">
         <v>20</v>
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E317" t="n">
         <v>16</v>
@@ -25724,7 +25724,7 @@
         </is>
       </c>
       <c r="M317" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N317" t="n">
         <v>13000</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E318" t="n">
         <v>16</v>
@@ -25804,16 +25804,16 @@
         </is>
       </c>
       <c r="M318" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="N318" t="n">
         <v>11000</v>
       </c>
       <c r="O318" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P318" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="T318" t="n">
         <v>20</v>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E319" t="n">
         <v>16</v>
@@ -25884,16 +25884,16 @@
         </is>
       </c>
       <c r="M319" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="N319" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O319" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P319" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="T319" t="n">
         <v>20</v>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E320" t="n">
         <v>16</v>
@@ -25964,16 +25964,16 @@
         </is>
       </c>
       <c r="M320" t="n">
-        <v>480</v>
+        <v>80</v>
       </c>
       <c r="N320" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="O320" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P320" t="n">
-        <v>15375</v>
+        <v>11000</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>769</v>
+        <v>550</v>
       </c>
       <c r="T320" t="n">
         <v>20</v>
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E321" t="n">
         <v>16</v>
@@ -26044,16 +26044,16 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>380</v>
+        <v>160</v>
       </c>
       <c r="N321" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O321" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P321" t="n">
-        <v>17526</v>
+        <v>12500</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>876</v>
+        <v>625</v>
       </c>
       <c r="T321" t="n">
         <v>20</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E322" t="n">
         <v>16</v>
@@ -26124,16 +26124,16 @@
         </is>
       </c>
       <c r="M322" t="n">
-        <v>80</v>
+        <v>480</v>
       </c>
       <c r="N322" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="O322" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P322" t="n">
-        <v>13000</v>
+        <v>15375</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>650</v>
+        <v>769</v>
       </c>
       <c r="T322" t="n">
         <v>20</v>
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E323" t="n">
         <v>16</v>
@@ -26204,16 +26204,16 @@
         </is>
       </c>
       <c r="M323" t="n">
-        <v>160</v>
+        <v>380</v>
       </c>
       <c r="N323" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O323" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P323" t="n">
-        <v>14500</v>
+        <v>17526</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>725</v>
+        <v>876</v>
       </c>
       <c r="T323" t="n">
         <v>20</v>
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E324" t="n">
         <v>16</v>
@@ -26287,13 +26287,13 @@
         <v>80</v>
       </c>
       <c r="N324" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O324" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P324" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="T324" t="n">
         <v>20</v>
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E325" t="n">
         <v>16</v>
@@ -26367,13 +26367,13 @@
         <v>160</v>
       </c>
       <c r="N325" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O325" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P325" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="T325" t="n">
         <v>20</v>
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E326" t="n">
         <v>16</v>
@@ -26444,16 +26444,16 @@
         </is>
       </c>
       <c r="M326" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N326" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O326" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P326" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="T326" t="n">
         <v>20</v>
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E327" t="n">
         <v>16</v>
@@ -26524,16 +26524,16 @@
         </is>
       </c>
       <c r="M327" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N327" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O327" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P327" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="T327" t="n">
         <v>20</v>
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E328" t="n">
         <v>16</v>
@@ -26607,13 +26607,13 @@
         <v>120</v>
       </c>
       <c r="N328" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O328" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P328" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="T328" t="n">
         <v>20</v>
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E329" t="n">
         <v>16</v>
@@ -26687,13 +26687,13 @@
         <v>240</v>
       </c>
       <c r="N329" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="O329" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P329" t="n">
-        <v>13750</v>
+        <v>14500</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>688</v>
+        <v>725</v>
       </c>
       <c r="T329" t="n">
         <v>20</v>
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E330" t="n">
         <v>16</v>
@@ -26764,7 +26764,7 @@
         </is>
       </c>
       <c r="M330" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N330" t="n">
         <v>12000</v>
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E331" t="n">
         <v>16</v>
@@ -26847,13 +26847,13 @@
         <v>240</v>
       </c>
       <c r="N331" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="O331" t="n">
         <v>14000</v>
       </c>
       <c r="P331" t="n">
-        <v>13500</v>
+        <v>13750</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>675</v>
+        <v>688</v>
       </c>
       <c r="T331" t="n">
         <v>20</v>
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E332" t="n">
         <v>16</v>
@@ -26927,13 +26927,13 @@
         <v>80</v>
       </c>
       <c r="N332" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O332" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P332" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="T332" t="n">
         <v>20</v>
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E333" t="n">
         <v>16</v>
@@ -27007,13 +27007,13 @@
         <v>240</v>
       </c>
       <c r="N333" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O333" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P333" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="T333" t="n">
         <v>20</v>
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E334" t="n">
         <v>16</v>
@@ -27084,7 +27084,7 @@
         </is>
       </c>
       <c r="M334" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="N334" t="n">
         <v>11000</v>
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E335" t="n">
         <v>16</v>
@@ -27164,7 +27164,7 @@
         </is>
       </c>
       <c r="M335" t="n">
-        <v>800</v>
+        <v>240</v>
       </c>
       <c r="N335" t="n">
         <v>12000</v>
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E336" t="n">
         <v>16</v>
@@ -27240,20 +27240,20 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M336" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N336" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O336" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P336" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="T336" t="n">
         <v>20</v>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E337" t="n">
         <v>16</v>
@@ -27324,16 +27324,16 @@
         </is>
       </c>
       <c r="M337" t="n">
-        <v>120</v>
+        <v>800</v>
       </c>
       <c r="N337" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O337" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P337" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="T337" t="n">
         <v>20</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E338" t="n">
         <v>16</v>
@@ -27400,20 +27400,20 @@
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M338" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="N338" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O338" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P338" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>550</v>
+        <v>675</v>
       </c>
       <c r="T338" t="n">
         <v>20</v>
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E339" t="n">
         <v>16</v>
@@ -27484,16 +27484,16 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N339" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O339" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P339" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="T339" t="n">
         <v>20</v>
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E340" t="n">
         <v>16</v>
@@ -27564,16 +27564,16 @@
         </is>
       </c>
       <c r="M340" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N340" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O340" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P340" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="T340" t="n">
         <v>20</v>
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E341" t="n">
         <v>16</v>
@@ -27644,16 +27644,16 @@
         </is>
       </c>
       <c r="M341" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N341" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O341" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P341" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="T341" t="n">
         <v>20</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E342" t="n">
         <v>16</v>
@@ -27724,16 +27724,16 @@
         </is>
       </c>
       <c r="M342" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N342" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O342" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P342" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="T342" t="n">
         <v>20</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E343" t="n">
         <v>16</v>
@@ -27804,16 +27804,16 @@
         </is>
       </c>
       <c r="M343" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N343" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O343" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P343" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="T343" t="n">
         <v>20</v>
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E344" t="n">
         <v>16</v>
@@ -27884,16 +27884,16 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>640</v>
+        <v>80</v>
       </c>
       <c r="N344" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="O344" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P344" t="n">
-        <v>9734</v>
+        <v>11000</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>487</v>
+        <v>550</v>
       </c>
       <c r="T344" t="n">
         <v>20</v>
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E345" t="n">
         <v>16</v>
@@ -27964,16 +27964,16 @@
         </is>
       </c>
       <c r="M345" t="n">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="N345" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O345" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P345" t="n">
-        <v>11469</v>
+        <v>13500</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>573</v>
+        <v>675</v>
       </c>
       <c r="T345" t="n">
         <v>20</v>
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E346" t="n">
         <v>16</v>
@@ -28044,16 +28044,16 @@
         </is>
       </c>
       <c r="M346" t="n">
-        <v>150</v>
+        <v>640</v>
       </c>
       <c r="N346" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="O346" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P346" t="n">
-        <v>14000</v>
+        <v>9734</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>700</v>
+        <v>487</v>
       </c>
       <c r="T346" t="n">
         <v>20</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E347" t="n">
         <v>16</v>
@@ -28124,16 +28124,16 @@
         </is>
       </c>
       <c r="M347" t="n">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="N347" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O347" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P347" t="n">
-        <v>15500</v>
+        <v>11469</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>775</v>
+        <v>573</v>
       </c>
       <c r="T347" t="n">
         <v>20</v>
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E348" t="n">
         <v>16</v>
@@ -28204,16 +28204,16 @@
         </is>
       </c>
       <c r="M348" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N348" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O348" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P348" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="T348" t="n">
         <v>20</v>
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E349" t="n">
         <v>16</v>
@@ -28284,16 +28284,16 @@
         </is>
       </c>
       <c r="M349" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="N349" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O349" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P349" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="T349" t="n">
         <v>20</v>
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E350" t="n">
         <v>16</v>
@@ -28364,16 +28364,16 @@
         </is>
       </c>
       <c r="M350" t="n">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="N350" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O350" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P350" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="T350" t="n">
         <v>20</v>
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E351" t="n">
         <v>16</v>
@@ -28447,13 +28447,13 @@
         <v>360</v>
       </c>
       <c r="N351" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="O351" t="n">
         <v>15000</v>
       </c>
       <c r="P351" t="n">
-        <v>14750</v>
+        <v>14500</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>738</v>
+        <v>725</v>
       </c>
       <c r="T351" t="n">
         <v>20</v>
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E352" t="n">
         <v>16</v>
@@ -28524,16 +28524,16 @@
         </is>
       </c>
       <c r="M352" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="N352" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O352" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P352" t="n">
-        <v>15500</v>
+        <v>14000</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         </is>
       </c>
       <c r="S352" t="n">
-        <v>775</v>
+        <v>700</v>
       </c>
       <c r="T352" t="n">
         <v>20</v>
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E353" t="n">
         <v>16</v>
@@ -28600,20 +28600,20 @@
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M353" t="n">
-        <v>150</v>
+        <v>360</v>
       </c>
       <c r="N353" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="O353" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P353" t="n">
-        <v>16000</v>
+        <v>14750</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>800</v>
+        <v>738</v>
       </c>
       <c r="T353" t="n">
         <v>20</v>
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E354" t="n">
         <v>16</v>
@@ -28680,20 +28680,20 @@
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M354" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N354" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O354" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P354" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         </is>
       </c>
       <c r="S354" t="n">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="T354" t="n">
         <v>20</v>
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E355" t="n">
         <v>16</v>
@@ -28764,16 +28764,16 @@
         </is>
       </c>
       <c r="M355" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="N355" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O355" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P355" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T355" t="n">
         <v>20</v>
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E356" t="n">
         <v>16</v>
@@ -28844,16 +28844,16 @@
         </is>
       </c>
       <c r="M356" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N356" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="O356" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P356" t="n">
-        <v>11500</v>
+        <v>17500</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="T356" t="n">
         <v>20</v>
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E357" t="n">
         <v>16</v>
@@ -28924,16 +28924,16 @@
         </is>
       </c>
       <c r="M357" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N357" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O357" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P357" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T357" t="n">
         <v>20</v>
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E358" t="n">
         <v>16</v>
@@ -29004,16 +29004,16 @@
         </is>
       </c>
       <c r="M358" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="N358" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O358" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P358" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="T358" t="n">
         <v>20</v>
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E359" t="n">
         <v>16</v>
@@ -29084,16 +29084,16 @@
         </is>
       </c>
       <c r="M359" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N359" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O359" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P359" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="T359" t="n">
         <v>20</v>
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E360" t="n">
         <v>16</v>
@@ -29167,13 +29167,13 @@
         <v>240</v>
       </c>
       <c r="N360" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O360" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P360" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="T360" t="n">
         <v>20</v>
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E361" t="n">
         <v>16</v>
@@ -29244,7 +29244,7 @@
         </is>
       </c>
       <c r="M361" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N361" t="n">
         <v>11000</v>
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E362" t="n">
         <v>16</v>
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44432</v>
+        <v>44312</v>
       </c>
       <c r="E363" t="n">
         <v>16</v>
@@ -29404,16 +29404,16 @@
         </is>
       </c>
       <c r="M363" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N363" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="O363" t="n">
-        <v>11800</v>
+        <v>11000</v>
       </c>
       <c r="P363" t="n">
-        <v>11650</v>
+        <v>11000</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>582</v>
+        <v>550</v>
       </c>
       <c r="T363" t="n">
         <v>20</v>
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44432</v>
+        <v>44312</v>
       </c>
       <c r="E364" t="n">
         <v>16</v>
@@ -29484,31 +29484,191 @@
         </is>
       </c>
       <c r="M364" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N364" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="O364" t="n">
         <v>13000</v>
       </c>
       <c r="P364" t="n">
+        <v>12500</v>
+      </c>
+      <c r="Q364" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R364" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S364" t="n">
+        <v>625</v>
+      </c>
+      <c r="T364" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>7</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D365" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E365" t="n">
+        <v>16</v>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G365" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I365" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J365" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>Pintón</t>
+        </is>
+      </c>
+      <c r="M365" t="n">
+        <v>240</v>
+      </c>
+      <c r="N365" t="n">
+        <v>11500</v>
+      </c>
+      <c r="O365" t="n">
+        <v>11800</v>
+      </c>
+      <c r="P365" t="n">
+        <v>11650</v>
+      </c>
+      <c r="Q365" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R365" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S365" t="n">
+        <v>582</v>
+      </c>
+      <c r="T365" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>7</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Terminal Hortofrutícola Agro Chillán</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="D366" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E366" t="n">
+        <v>16</v>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G366" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I366" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J366" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>Primera Pintón</t>
+        </is>
+      </c>
+      <c r="M366" t="n">
+        <v>300</v>
+      </c>
+      <c r="N366" t="n">
+        <v>12500</v>
+      </c>
+      <c r="O366" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P366" t="n">
         <v>12750</v>
       </c>
-      <c r="Q364" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R364" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S364" t="n">
+      <c r="Q366" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R366" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S366" t="n">
         <v>638</v>
       </c>
-      <c r="T364" t="n">
+      <c r="T366" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal Hortofrutícola Agro Chillán - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T366"/>
+  <dimension ref="A1:T368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44424</v>
+        <v>44477</v>
       </c>
       <c r="E135" t="n">
         <v>16</v>
@@ -11164,16 +11164,16 @@
         </is>
       </c>
       <c r="M135" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N135" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O135" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P135" t="n">
-        <v>12000</v>
+        <v>17500</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>600</v>
+        <v>875</v>
       </c>
       <c r="T135" t="n">
         <v>20</v>
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44424</v>
+        <v>44477</v>
       </c>
       <c r="E136" t="n">
         <v>16</v>
@@ -11244,16 +11244,16 @@
         </is>
       </c>
       <c r="M136" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="N136" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="O136" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P136" t="n">
-        <v>13571</v>
+        <v>19500</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>679</v>
+        <v>975</v>
       </c>
       <c r="T136" t="n">
         <v>20</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44245</v>
+        <v>44424</v>
       </c>
       <c r="E137" t="n">
         <v>16</v>
@@ -11324,16 +11324,16 @@
         </is>
       </c>
       <c r="M137" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N137" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O137" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P137" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="S137" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T137" t="n">
         <v>20</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44245</v>
+        <v>44424</v>
       </c>
       <c r="E138" t="n">
         <v>16</v>
@@ -11400,20 +11400,20 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M138" t="n">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="N138" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O138" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P138" t="n">
-        <v>12000</v>
+        <v>13571</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         </is>
       </c>
       <c r="S138" t="n">
-        <v>600</v>
+        <v>679</v>
       </c>
       <c r="T138" t="n">
         <v>20</v>
@@ -11480,20 +11480,20 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M139" t="n">
         <v>80</v>
       </c>
       <c r="N139" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O139" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P139" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="T139" t="n">
         <v>20</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44230</v>
+        <v>44245</v>
       </c>
       <c r="E140" t="n">
         <v>16</v>
@@ -11560,20 +11560,20 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M140" t="n">
-        <v>740</v>
+        <v>80</v>
       </c>
       <c r="N140" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="O140" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P140" t="n">
-        <v>12770</v>
+        <v>12000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>638</v>
+        <v>600</v>
       </c>
       <c r="T140" t="n">
         <v>20</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44230</v>
+        <v>44245</v>
       </c>
       <c r="E141" t="n">
         <v>16</v>
@@ -11644,16 +11644,16 @@
         </is>
       </c>
       <c r="M141" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="N141" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="O141" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P141" t="n">
-        <v>13667</v>
+        <v>11000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>683</v>
+        <v>550</v>
       </c>
       <c r="T141" t="n">
         <v>20</v>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44382</v>
+        <v>44230</v>
       </c>
       <c r="E142" t="n">
         <v>16</v>
@@ -11724,16 +11724,16 @@
         </is>
       </c>
       <c r="M142" t="n">
-        <v>80</v>
+        <v>740</v>
       </c>
       <c r="N142" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="O142" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P142" t="n">
-        <v>10000</v>
+        <v>12770</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>500</v>
+        <v>638</v>
       </c>
       <c r="T142" t="n">
         <v>20</v>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44382</v>
+        <v>44230</v>
       </c>
       <c r="E143" t="n">
         <v>16</v>
@@ -11804,16 +11804,16 @@
         </is>
       </c>
       <c r="M143" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N143" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="O143" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P143" t="n">
-        <v>11500</v>
+        <v>13667</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
@@ -11826,7 +11826,7 @@
         </is>
       </c>
       <c r="S143" t="n">
-        <v>575</v>
+        <v>683</v>
       </c>
       <c r="T143" t="n">
         <v>20</v>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44216</v>
+        <v>44382</v>
       </c>
       <c r="E144" t="n">
         <v>16</v>
@@ -11884,16 +11884,16 @@
         </is>
       </c>
       <c r="M144" t="n">
-        <v>740</v>
+        <v>80</v>
       </c>
       <c r="N144" t="n">
         <v>10000</v>
       </c>
       <c r="O144" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P144" t="n">
-        <v>10405</v>
+        <v>10000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         </is>
       </c>
       <c r="S144" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="T144" t="n">
         <v>20</v>
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44216</v>
+        <v>44382</v>
       </c>
       <c r="E145" t="n">
         <v>16</v>
@@ -11964,16 +11964,16 @@
         </is>
       </c>
       <c r="M145" t="n">
-        <v>450</v>
+        <v>240</v>
       </c>
       <c r="N145" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="O145" t="n">
         <v>12000</v>
       </c>
       <c r="P145" t="n">
-        <v>11667</v>
+        <v>11500</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="T145" t="n">
         <v>20</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44370</v>
+        <v>44216</v>
       </c>
       <c r="E146" t="n">
         <v>16</v>
@@ -12044,16 +12044,16 @@
         </is>
       </c>
       <c r="M146" t="n">
-        <v>60</v>
+        <v>740</v>
       </c>
       <c r="N146" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O146" t="n">
         <v>11000</v>
       </c>
       <c r="P146" t="n">
-        <v>11000</v>
+        <v>10405</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>550</v>
+        <v>520</v>
       </c>
       <c r="T146" t="n">
         <v>20</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44370</v>
+        <v>44216</v>
       </c>
       <c r="E147" t="n">
         <v>16</v>
@@ -12124,16 +12124,16 @@
         </is>
       </c>
       <c r="M147" t="n">
-        <v>120</v>
+        <v>450</v>
       </c>
       <c r="N147" t="n">
+        <v>11500</v>
+      </c>
+      <c r="O147" t="n">
         <v>12000</v>
       </c>
-      <c r="O147" t="n">
-        <v>13000</v>
-      </c>
       <c r="P147" t="n">
-        <v>12500</v>
+        <v>11667</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="T147" t="n">
         <v>20</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44284</v>
+        <v>44370</v>
       </c>
       <c r="E148" t="n">
         <v>16</v>
@@ -12204,16 +12204,16 @@
         </is>
       </c>
       <c r="M148" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N148" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O148" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P148" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="T148" t="n">
         <v>20</v>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44284</v>
+        <v>44370</v>
       </c>
       <c r="E149" t="n">
         <v>16</v>
@@ -12284,16 +12284,16 @@
         </is>
       </c>
       <c r="M149" t="n">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="N149" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O149" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P149" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="T149" t="n">
         <v>20</v>
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44174</v>
+        <v>44284</v>
       </c>
       <c r="E150" t="n">
         <v>16</v>
@@ -12364,16 +12364,16 @@
         </is>
       </c>
       <c r="M150" t="n">
-        <v>640</v>
+        <v>120</v>
       </c>
       <c r="N150" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O150" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P150" t="n">
-        <v>14469</v>
+        <v>13000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>723</v>
+        <v>650</v>
       </c>
       <c r="T150" t="n">
         <v>20</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44174</v>
+        <v>44284</v>
       </c>
       <c r="E151" t="n">
         <v>16</v>
@@ -12444,16 +12444,16 @@
         </is>
       </c>
       <c r="M151" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N151" t="n">
-        <v>15500</v>
+        <v>14000</v>
       </c>
       <c r="O151" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P151" t="n">
-        <v>15667</v>
+        <v>14500</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>783</v>
+        <v>725</v>
       </c>
       <c r="T151" t="n">
         <v>20</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44244</v>
+        <v>44174</v>
       </c>
       <c r="E152" t="n">
         <v>16</v>
@@ -12524,16 +12524,16 @@
         </is>
       </c>
       <c r="M152" t="n">
-        <v>120</v>
+        <v>640</v>
       </c>
       <c r="N152" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O152" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P152" t="n">
-        <v>9000</v>
+        <v>14469</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>450</v>
+        <v>723</v>
       </c>
       <c r="T152" t="n">
         <v>20</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44244</v>
+        <v>44174</v>
       </c>
       <c r="E153" t="n">
         <v>16</v>
@@ -12604,16 +12604,16 @@
         </is>
       </c>
       <c r="M153" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N153" t="n">
-        <v>10000</v>
+        <v>15500</v>
       </c>
       <c r="O153" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P153" t="n">
-        <v>10500</v>
+        <v>15667</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         </is>
       </c>
       <c r="S153" t="n">
-        <v>525</v>
+        <v>783</v>
       </c>
       <c r="T153" t="n">
         <v>20</v>
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44412</v>
+        <v>44244</v>
       </c>
       <c r="E154" t="n">
         <v>16</v>
@@ -12684,16 +12684,16 @@
         </is>
       </c>
       <c r="M154" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N154" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="O154" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P154" t="n">
-        <v>11750</v>
+        <v>9000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>588</v>
+        <v>450</v>
       </c>
       <c r="T154" t="n">
         <v>20</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44412</v>
+        <v>44244</v>
       </c>
       <c r="E155" t="n">
         <v>16</v>
@@ -12764,16 +12764,16 @@
         </is>
       </c>
       <c r="M155" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N155" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O155" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P155" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="T155" t="n">
         <v>20</v>
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E156" t="n">
         <v>16</v>
@@ -12840,20 +12840,20 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M156" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N156" t="n">
+        <v>11500</v>
+      </c>
+      <c r="O156" t="n">
         <v>12000</v>
       </c>
-      <c r="O156" t="n">
-        <v>13000</v>
-      </c>
       <c r="P156" t="n">
-        <v>12500</v>
+        <v>11750</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         </is>
       </c>
       <c r="S156" t="n">
-        <v>625</v>
+        <v>588</v>
       </c>
       <c r="T156" t="n">
         <v>20</v>
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44271</v>
+        <v>44412</v>
       </c>
       <c r="E157" t="n">
         <v>16</v>
@@ -12920,20 +12920,20 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M157" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N157" t="n">
         <v>13000</v>
       </c>
       <c r="O157" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P157" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="S157" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="T157" t="n">
         <v>20</v>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44271</v>
+        <v>44336</v>
       </c>
       <c r="E158" t="n">
         <v>16</v>
@@ -13004,16 +13004,16 @@
         </is>
       </c>
       <c r="M158" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N158" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O158" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P158" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="T158" t="n">
         <v>20</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44308</v>
+        <v>44271</v>
       </c>
       <c r="E159" t="n">
         <v>16</v>
@@ -13084,7 +13084,7 @@
         </is>
       </c>
       <c r="M159" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N159" t="n">
         <v>13000</v>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44308</v>
+        <v>44271</v>
       </c>
       <c r="E160" t="n">
         <v>16</v>
@@ -13164,7 +13164,7 @@
         </is>
       </c>
       <c r="M160" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N160" t="n">
         <v>14000</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44330</v>
+        <v>44308</v>
       </c>
       <c r="E161" t="n">
         <v>16</v>
@@ -13244,16 +13244,16 @@
         </is>
       </c>
       <c r="M161" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N161" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O161" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P161" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="T161" t="n">
         <v>20</v>
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44330</v>
+        <v>44308</v>
       </c>
       <c r="E162" t="n">
         <v>16</v>
@@ -13324,16 +13324,16 @@
         </is>
       </c>
       <c r="M162" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N162" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O162" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P162" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="T162" t="n">
         <v>20</v>
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44463</v>
+        <v>44330</v>
       </c>
       <c r="E163" t="n">
         <v>16</v>
@@ -13404,16 +13404,16 @@
         </is>
       </c>
       <c r="M163" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N163" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O163" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P163" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T163" t="n">
         <v>20</v>
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44463</v>
+        <v>44330</v>
       </c>
       <c r="E164" t="n">
         <v>16</v>
@@ -13484,16 +13484,16 @@
         </is>
       </c>
       <c r="M164" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N164" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O164" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P164" t="n">
-        <v>15500</v>
+        <v>13500</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="T164" t="n">
         <v>20</v>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44322</v>
+        <v>44463</v>
       </c>
       <c r="E165" t="n">
         <v>16</v>
@@ -13564,16 +13564,16 @@
         </is>
       </c>
       <c r="M165" t="n">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="N165" t="n">
         <v>14000</v>
       </c>
       <c r="O165" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P165" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>725</v>
+        <v>700</v>
       </c>
       <c r="T165" t="n">
         <v>20</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44265</v>
+        <v>44463</v>
       </c>
       <c r="E166" t="n">
         <v>16</v>
@@ -13640,20 +13640,20 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M166" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="N166" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O166" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P166" t="n">
-        <v>14000</v>
+        <v>15500</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>700</v>
+        <v>775</v>
       </c>
       <c r="T166" t="n">
         <v>20</v>
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44265</v>
+        <v>44322</v>
       </c>
       <c r="E167" t="n">
         <v>16</v>
@@ -13720,20 +13720,20 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M167" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N167" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O167" t="n">
         <v>15000</v>
       </c>
-      <c r="O167" t="n">
-        <v>16000</v>
-      </c>
       <c r="P167" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="T167" t="n">
         <v>20</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44224</v>
+        <v>44265</v>
       </c>
       <c r="E168" t="n">
         <v>16</v>
@@ -13804,16 +13804,16 @@
         </is>
       </c>
       <c r="M168" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N168" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O168" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P168" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="T168" t="n">
         <v>20</v>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44224</v>
+        <v>44265</v>
       </c>
       <c r="E169" t="n">
         <v>16</v>
@@ -13884,16 +13884,16 @@
         </is>
       </c>
       <c r="M169" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N169" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O169" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P169" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="T169" t="n">
         <v>20</v>
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44264</v>
+        <v>44224</v>
       </c>
       <c r="E170" t="n">
         <v>16</v>
@@ -13964,16 +13964,16 @@
         </is>
       </c>
       <c r="M170" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N170" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O170" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P170" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="T170" t="n">
         <v>20</v>
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44264</v>
+        <v>44224</v>
       </c>
       <c r="E171" t="n">
         <v>16</v>
@@ -14044,16 +14044,16 @@
         </is>
       </c>
       <c r="M171" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N171" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O171" t="n">
         <v>15000</v>
       </c>
-      <c r="O171" t="n">
-        <v>16000</v>
-      </c>
       <c r="P171" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="T171" t="n">
         <v>20</v>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44315</v>
+        <v>44264</v>
       </c>
       <c r="E172" t="n">
         <v>16</v>
@@ -14127,13 +14127,13 @@
         <v>80</v>
       </c>
       <c r="N172" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O172" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P172" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="T172" t="n">
         <v>20</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44315</v>
+        <v>44264</v>
       </c>
       <c r="E173" t="n">
         <v>16</v>
@@ -14204,16 +14204,16 @@
         </is>
       </c>
       <c r="M173" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N173" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O173" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P173" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="T173" t="n">
         <v>20</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E174" t="n">
         <v>16</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E175" t="n">
         <v>16</v>
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E176" t="n">
         <v>16</v>
@@ -14447,13 +14447,13 @@
         <v>80</v>
       </c>
       <c r="N176" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O176" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P176" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="T176" t="n">
         <v>20</v>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E177" t="n">
         <v>16</v>
@@ -14524,16 +14524,16 @@
         </is>
       </c>
       <c r="M177" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N177" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O177" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P177" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="T177" t="n">
         <v>20</v>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44195</v>
+        <v>44343</v>
       </c>
       <c r="E178" t="n">
         <v>16</v>
@@ -14604,16 +14604,16 @@
         </is>
       </c>
       <c r="M178" t="n">
-        <v>590</v>
+        <v>80</v>
       </c>
       <c r="N178" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="O178" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P178" t="n">
-        <v>12797</v>
+        <v>11000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>640</v>
+        <v>550</v>
       </c>
       <c r="T178" t="n">
         <v>20</v>
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44195</v>
+        <v>44343</v>
       </c>
       <c r="E179" t="n">
         <v>16</v>
@@ -14684,16 +14684,16 @@
         </is>
       </c>
       <c r="M179" t="n">
-        <v>450</v>
+        <v>160</v>
       </c>
       <c r="N179" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O179" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P179" t="n">
-        <v>14556</v>
+        <v>12500</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>728</v>
+        <v>625</v>
       </c>
       <c r="T179" t="n">
         <v>20</v>
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44447</v>
+        <v>44195</v>
       </c>
       <c r="E180" t="n">
         <v>16</v>
@@ -14764,16 +14764,16 @@
         </is>
       </c>
       <c r="M180" t="n">
-        <v>150</v>
+        <v>590</v>
       </c>
       <c r="N180" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="O180" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P180" t="n">
-        <v>16000</v>
+        <v>12797</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>800</v>
+        <v>640</v>
       </c>
       <c r="T180" t="n">
         <v>20</v>
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44447</v>
+        <v>44195</v>
       </c>
       <c r="E181" t="n">
         <v>16</v>
@@ -14844,16 +14844,16 @@
         </is>
       </c>
       <c r="M181" t="n">
-        <v>240</v>
+        <v>450</v>
       </c>
       <c r="N181" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O181" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P181" t="n">
-        <v>17500</v>
+        <v>14556</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>875</v>
+        <v>728</v>
       </c>
       <c r="T181" t="n">
         <v>20</v>
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44421</v>
+        <v>44447</v>
       </c>
       <c r="E182" t="n">
         <v>16</v>
@@ -14924,16 +14924,16 @@
         </is>
       </c>
       <c r="M182" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N182" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O182" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P182" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T182" t="n">
         <v>20</v>
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44421</v>
+        <v>44447</v>
       </c>
       <c r="E183" t="n">
         <v>16</v>
@@ -15004,16 +15004,16 @@
         </is>
       </c>
       <c r="M183" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="N183" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O183" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P183" t="n">
-        <v>13500</v>
+        <v>17500</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="T183" t="n">
         <v>20</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44294</v>
+        <v>44421</v>
       </c>
       <c r="E184" t="n">
         <v>16</v>
@@ -15084,16 +15084,16 @@
         </is>
       </c>
       <c r="M184" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N184" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O184" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P184" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="T184" t="n">
         <v>20</v>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44294</v>
+        <v>44421</v>
       </c>
       <c r="E185" t="n">
         <v>16</v>
@@ -15164,16 +15164,16 @@
         </is>
       </c>
       <c r="M185" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
       <c r="N185" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O185" t="n">
         <v>14000</v>
       </c>
-      <c r="O185" t="n">
-        <v>15000</v>
-      </c>
       <c r="P185" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="T185" t="n">
         <v>20</v>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44232</v>
+        <v>44294</v>
       </c>
       <c r="E186" t="n">
         <v>16</v>
@@ -15244,16 +15244,16 @@
         </is>
       </c>
       <c r="M186" t="n">
-        <v>760</v>
+        <v>80</v>
       </c>
       <c r="N186" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="O186" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P186" t="n">
-        <v>14789</v>
+        <v>13000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>739</v>
+        <v>650</v>
       </c>
       <c r="T186" t="n">
         <v>20</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44232</v>
+        <v>44294</v>
       </c>
       <c r="E187" t="n">
         <v>16</v>
@@ -15324,16 +15324,16 @@
         </is>
       </c>
       <c r="M187" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="N187" t="n">
-        <v>15500</v>
+        <v>14000</v>
       </c>
       <c r="O187" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P187" t="n">
-        <v>15750</v>
+        <v>14500</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>788</v>
+        <v>725</v>
       </c>
       <c r="T187" t="n">
         <v>20</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44316</v>
+        <v>44232</v>
       </c>
       <c r="E188" t="n">
         <v>16</v>
@@ -15400,11 +15400,11 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M188" t="n">
-        <v>360</v>
+        <v>760</v>
       </c>
       <c r="N188" t="n">
         <v>14500</v>
@@ -15413,7 +15413,7 @@
         <v>15000</v>
       </c>
       <c r="P188" t="n">
-        <v>14750</v>
+        <v>14789</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="T188" t="n">
         <v>20</v>
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44356</v>
+        <v>44232</v>
       </c>
       <c r="E189" t="n">
         <v>16</v>
@@ -15480,20 +15480,20 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M189" t="n">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="N189" t="n">
-        <v>11000</v>
+        <v>15500</v>
       </c>
       <c r="O189" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P189" t="n">
-        <v>11000</v>
+        <v>15750</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         </is>
       </c>
       <c r="S189" t="n">
-        <v>550</v>
+        <v>788</v>
       </c>
       <c r="T189" t="n">
         <v>20</v>
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44356</v>
+        <v>44316</v>
       </c>
       <c r="E190" t="n">
         <v>16</v>
@@ -15564,16 +15564,16 @@
         </is>
       </c>
       <c r="M190" t="n">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="N190" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="O190" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P190" t="n">
-        <v>12500</v>
+        <v>14750</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>625</v>
+        <v>738</v>
       </c>
       <c r="T190" t="n">
         <v>20</v>
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44169</v>
+        <v>44356</v>
       </c>
       <c r="E191" t="n">
         <v>16</v>
@@ -15644,16 +15644,16 @@
         </is>
       </c>
       <c r="M191" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N191" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="O191" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P191" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         </is>
       </c>
       <c r="S191" t="n">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="T191" t="n">
         <v>20</v>
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44169</v>
+        <v>44356</v>
       </c>
       <c r="E192" t="n">
         <v>16</v>
@@ -15724,16 +15724,16 @@
         </is>
       </c>
       <c r="M192" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N192" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O192" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P192" t="n">
-        <v>18500</v>
+        <v>12500</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="S192" t="n">
-        <v>925</v>
+        <v>625</v>
       </c>
       <c r="T192" t="n">
         <v>20</v>
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44454</v>
+        <v>44169</v>
       </c>
       <c r="E193" t="n">
         <v>16</v>
@@ -15804,16 +15804,16 @@
         </is>
       </c>
       <c r="M193" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N193" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O193" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P193" t="n">
-        <v>18500</v>
+        <v>17000</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         </is>
       </c>
       <c r="S193" t="n">
-        <v>925</v>
+        <v>850</v>
       </c>
       <c r="T193" t="n">
         <v>20</v>
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44454</v>
+        <v>44169</v>
       </c>
       <c r="E194" t="n">
         <v>16</v>
@@ -15884,16 +15884,16 @@
         </is>
       </c>
       <c r="M194" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N194" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O194" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="P194" t="n">
-        <v>20500</v>
+        <v>18500</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         </is>
       </c>
       <c r="S194" t="n">
-        <v>1025</v>
+        <v>925</v>
       </c>
       <c r="T194" t="n">
         <v>20</v>
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44410</v>
+        <v>44454</v>
       </c>
       <c r="E195" t="n">
         <v>16</v>
@@ -15964,16 +15964,16 @@
         </is>
       </c>
       <c r="M195" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N195" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="O195" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P195" t="n">
-        <v>12750</v>
+        <v>18500</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         </is>
       </c>
       <c r="S195" t="n">
-        <v>638</v>
+        <v>925</v>
       </c>
       <c r="T195" t="n">
         <v>20</v>
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44410</v>
+        <v>44454</v>
       </c>
       <c r="E196" t="n">
         <v>16</v>
@@ -16044,16 +16044,16 @@
         </is>
       </c>
       <c r="M196" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N196" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O196" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P196" t="n">
-        <v>14500</v>
+        <v>20500</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         </is>
       </c>
       <c r="S196" t="n">
-        <v>725</v>
+        <v>1025</v>
       </c>
       <c r="T196" t="n">
         <v>20</v>
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44467</v>
+        <v>44410</v>
       </c>
       <c r="E197" t="n">
         <v>16</v>
@@ -16124,16 +16124,16 @@
         </is>
       </c>
       <c r="M197" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N197" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="O197" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P197" t="n">
-        <v>14000</v>
+        <v>12750</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="S197" t="n">
-        <v>700</v>
+        <v>638</v>
       </c>
       <c r="T197" t="n">
         <v>20</v>
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44467</v>
+        <v>44410</v>
       </c>
       <c r="E198" t="n">
         <v>16</v>
@@ -16204,16 +16204,16 @@
         </is>
       </c>
       <c r="M198" t="n">
-        <v>440</v>
+        <v>600</v>
       </c>
       <c r="N198" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O198" t="n">
         <v>15000</v>
       </c>
-      <c r="O198" t="n">
-        <v>16000</v>
-      </c>
       <c r="P198" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         </is>
       </c>
       <c r="S198" t="n">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="T198" t="n">
         <v>20</v>
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44427</v>
+        <v>44467</v>
       </c>
       <c r="E199" t="n">
         <v>16</v>
@@ -16284,16 +16284,16 @@
         </is>
       </c>
       <c r="M199" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N199" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O199" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="P199" t="n">
-        <v>12250</v>
+        <v>14000</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         </is>
       </c>
       <c r="S199" t="n">
-        <v>612</v>
+        <v>700</v>
       </c>
       <c r="T199" t="n">
         <v>20</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44427</v>
+        <v>44467</v>
       </c>
       <c r="E200" t="n">
         <v>16</v>
@@ -16364,16 +16364,16 @@
         </is>
       </c>
       <c r="M200" t="n">
-        <v>600</v>
+        <v>440</v>
       </c>
       <c r="N200" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O200" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P200" t="n">
-        <v>13500</v>
+        <v>15500</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         </is>
       </c>
       <c r="S200" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="T200" t="n">
         <v>20</v>
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44319</v>
+        <v>44427</v>
       </c>
       <c r="E201" t="n">
         <v>16</v>
@@ -16444,16 +16444,16 @@
         </is>
       </c>
       <c r="M201" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N201" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O201" t="n">
-        <v>13000</v>
+        <v>12500</v>
       </c>
       <c r="P201" t="n">
-        <v>13000</v>
+        <v>12250</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         </is>
       </c>
       <c r="S201" t="n">
-        <v>650</v>
+        <v>612</v>
       </c>
       <c r="T201" t="n">
         <v>20</v>
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44319</v>
+        <v>44427</v>
       </c>
       <c r="E202" t="n">
         <v>16</v>
@@ -16524,16 +16524,16 @@
         </is>
       </c>
       <c r="M202" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="N202" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="O202" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P202" t="n">
-        <v>14750</v>
+        <v>13500</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="S202" t="n">
-        <v>738</v>
+        <v>675</v>
       </c>
       <c r="T202" t="n">
         <v>20</v>
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44473</v>
+        <v>44319</v>
       </c>
       <c r="E203" t="n">
         <v>16</v>
@@ -16604,7 +16604,7 @@
         </is>
       </c>
       <c r="M203" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N203" t="n">
         <v>13000</v>
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44473</v>
+        <v>44319</v>
       </c>
       <c r="E204" t="n">
         <v>16</v>
@@ -16684,16 +16684,16 @@
         </is>
       </c>
       <c r="M204" t="n">
-        <v>440</v>
+        <v>240</v>
       </c>
       <c r="N204" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="O204" t="n">
         <v>15000</v>
       </c>
       <c r="P204" t="n">
-        <v>14500</v>
+        <v>14750</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         </is>
       </c>
       <c r="S204" t="n">
-        <v>725</v>
+        <v>738</v>
       </c>
       <c r="T204" t="n">
         <v>20</v>
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44273</v>
+        <v>44473</v>
       </c>
       <c r="E205" t="n">
         <v>16</v>
@@ -16764,16 +16764,16 @@
         </is>
       </c>
       <c r="M205" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N205" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O205" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P205" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         </is>
       </c>
       <c r="S205" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="T205" t="n">
         <v>20</v>
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44273</v>
+        <v>44473</v>
       </c>
       <c r="E206" t="n">
         <v>16</v>
@@ -16844,16 +16844,16 @@
         </is>
       </c>
       <c r="M206" t="n">
-        <v>240</v>
+        <v>440</v>
       </c>
       <c r="N206" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O206" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P206" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         </is>
       </c>
       <c r="S206" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="T206" t="n">
         <v>20</v>
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44411</v>
+        <v>44273</v>
       </c>
       <c r="E207" t="n">
         <v>16</v>
@@ -16924,16 +16924,16 @@
         </is>
       </c>
       <c r="M207" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N207" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="O207" t="n">
         <v>12000</v>
       </c>
       <c r="P207" t="n">
-        <v>11750</v>
+        <v>12000</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="S207" t="n">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="T207" t="n">
         <v>20</v>
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44411</v>
+        <v>44273</v>
       </c>
       <c r="E208" t="n">
         <v>16</v>
@@ -17004,7 +17004,7 @@
         </is>
       </c>
       <c r="M208" t="n">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="N208" t="n">
         <v>13000</v>
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44236</v>
+        <v>44411</v>
       </c>
       <c r="E209" t="n">
         <v>16</v>
@@ -17084,16 +17084,16 @@
         </is>
       </c>
       <c r="M209" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="N209" t="n">
-        <v>14000</v>
+        <v>11500</v>
       </c>
       <c r="O209" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P209" t="n">
-        <v>14000</v>
+        <v>11750</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         </is>
       </c>
       <c r="S209" t="n">
-        <v>700</v>
+        <v>588</v>
       </c>
       <c r="T209" t="n">
         <v>20</v>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44236</v>
+        <v>44411</v>
       </c>
       <c r="E210" t="n">
         <v>16</v>
@@ -17164,16 +17164,16 @@
         </is>
       </c>
       <c r="M210" t="n">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="N210" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O210" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P210" t="n">
-        <v>15500</v>
+        <v>13500</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="T210" t="n">
         <v>20</v>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44215</v>
+        <v>44236</v>
       </c>
       <c r="E211" t="n">
         <v>16</v>
@@ -17244,16 +17244,16 @@
         </is>
       </c>
       <c r="M211" t="n">
-        <v>640</v>
+        <v>80</v>
       </c>
       <c r="N211" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O211" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P211" t="n">
-        <v>10469</v>
+        <v>14000</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>523</v>
+        <v>700</v>
       </c>
       <c r="T211" t="n">
         <v>20</v>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44215</v>
+        <v>44236</v>
       </c>
       <c r="E212" t="n">
         <v>16</v>
@@ -17324,16 +17324,16 @@
         </is>
       </c>
       <c r="M212" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N212" t="n">
-        <v>11500</v>
+        <v>15000</v>
       </c>
       <c r="O212" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P212" t="n">
-        <v>11750</v>
+        <v>15500</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>588</v>
+        <v>775</v>
       </c>
       <c r="T212" t="n">
         <v>20</v>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44235</v>
+        <v>44215</v>
       </c>
       <c r="E213" t="n">
         <v>16</v>
@@ -17404,16 +17404,16 @@
         </is>
       </c>
       <c r="M213" t="n">
-        <v>240</v>
+        <v>640</v>
       </c>
       <c r="N213" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O213" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P213" t="n">
-        <v>15000</v>
+        <v>10469</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         </is>
       </c>
       <c r="S213" t="n">
-        <v>750</v>
+        <v>523</v>
       </c>
       <c r="T213" t="n">
         <v>20</v>
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44235</v>
+        <v>44215</v>
       </c>
       <c r="E214" t="n">
         <v>16</v>
@@ -17484,16 +17484,16 @@
         </is>
       </c>
       <c r="M214" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N214" t="n">
-        <v>16000</v>
+        <v>11500</v>
       </c>
       <c r="O214" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P214" t="n">
-        <v>16500</v>
+        <v>11750</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         </is>
       </c>
       <c r="S214" t="n">
-        <v>825</v>
+        <v>588</v>
       </c>
       <c r="T214" t="n">
         <v>20</v>
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44203</v>
+        <v>44235</v>
       </c>
       <c r="E215" t="n">
         <v>16</v>
@@ -17570,10 +17570,10 @@
         <v>15000</v>
       </c>
       <c r="O215" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P215" t="n">
-        <v>15500</v>
+        <v>15000</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         </is>
       </c>
       <c r="S215" t="n">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="T215" t="n">
         <v>20</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44203</v>
+        <v>44235</v>
       </c>
       <c r="E216" t="n">
         <v>16</v>
@@ -17644,16 +17644,16 @@
         </is>
       </c>
       <c r="M216" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N216" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O216" t="n">
         <v>17000</v>
       </c>
       <c r="P216" t="n">
-        <v>17000</v>
+        <v>16500</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>850</v>
+        <v>825</v>
       </c>
       <c r="T216" t="n">
         <v>20</v>
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44413</v>
+        <v>44203</v>
       </c>
       <c r="E217" t="n">
         <v>16</v>
@@ -17724,16 +17724,16 @@
         </is>
       </c>
       <c r="M217" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N217" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O217" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P217" t="n">
-        <v>11000</v>
+        <v>15500</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="S217" t="n">
-        <v>550</v>
+        <v>775</v>
       </c>
       <c r="T217" t="n">
         <v>20</v>
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44413</v>
+        <v>44203</v>
       </c>
       <c r="E218" t="n">
         <v>16</v>
@@ -17804,16 +17804,16 @@
         </is>
       </c>
       <c r="M218" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="N218" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O218" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P218" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>625</v>
+        <v>850</v>
       </c>
       <c r="T218" t="n">
         <v>20</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44291</v>
+        <v>44413</v>
       </c>
       <c r="E219" t="n">
         <v>16</v>
@@ -17884,16 +17884,16 @@
         </is>
       </c>
       <c r="M219" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N219" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O219" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P219" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="T219" t="n">
         <v>20</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44291</v>
+        <v>44413</v>
       </c>
       <c r="E220" t="n">
         <v>16</v>
@@ -17964,16 +17964,16 @@
         </is>
       </c>
       <c r="M220" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="N220" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O220" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P220" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="T220" t="n">
         <v>20</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44426</v>
+        <v>44291</v>
       </c>
       <c r="E221" t="n">
         <v>16</v>
@@ -18044,7 +18044,7 @@
         </is>
       </c>
       <c r="M221" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N221" t="n">
         <v>13000</v>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44426</v>
+        <v>44291</v>
       </c>
       <c r="E222" t="n">
         <v>16</v>
@@ -18124,7 +18124,7 @@
         </is>
       </c>
       <c r="M222" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="N222" t="n">
         <v>14000</v>
@@ -18133,7 +18133,7 @@
         <v>15000</v>
       </c>
       <c r="P222" t="n">
-        <v>14455</v>
+        <v>14500</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="T222" t="n">
         <v>20</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E223" t="n">
         <v>16</v>
@@ -18204,7 +18204,7 @@
         </is>
       </c>
       <c r="M223" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N223" t="n">
         <v>13000</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E224" t="n">
         <v>16</v>
@@ -18284,7 +18284,7 @@
         </is>
       </c>
       <c r="M224" t="n">
-        <v>400</v>
+        <v>220</v>
       </c>
       <c r="N224" t="n">
         <v>14000</v>
@@ -18293,7 +18293,7 @@
         <v>15000</v>
       </c>
       <c r="P224" t="n">
-        <v>14500</v>
+        <v>14455</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="T224" t="n">
         <v>20</v>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E225" t="n">
         <v>16</v>
@@ -18364,16 +18364,16 @@
         </is>
       </c>
       <c r="M225" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N225" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O225" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P225" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="T225" t="n">
         <v>20</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E226" t="n">
         <v>16</v>
@@ -18444,16 +18444,16 @@
         </is>
       </c>
       <c r="M226" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="N226" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O226" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P226" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>875</v>
+        <v>725</v>
       </c>
       <c r="T226" t="n">
         <v>20</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E227" t="n">
         <v>16</v>
@@ -18524,16 +18524,16 @@
         </is>
       </c>
       <c r="M227" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="N227" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="O227" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P227" t="n">
-        <v>14750</v>
+        <v>16000</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>738</v>
+        <v>800</v>
       </c>
       <c r="T227" t="n">
         <v>20</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E228" t="n">
         <v>16</v>
@@ -18604,16 +18604,16 @@
         </is>
       </c>
       <c r="M228" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="N228" t="n">
-        <v>15500</v>
+        <v>17000</v>
       </c>
       <c r="O228" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P228" t="n">
-        <v>15750</v>
+        <v>17500</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>788</v>
+        <v>875</v>
       </c>
       <c r="T228" t="n">
         <v>20</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44292</v>
+        <v>44434</v>
       </c>
       <c r="E229" t="n">
         <v>16</v>
@@ -18680,20 +18680,20 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M229" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N229" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="O229" t="n">
         <v>15000</v>
       </c>
       <c r="P229" t="n">
-        <v>14500</v>
+        <v>14750</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>725</v>
+        <v>738</v>
       </c>
       <c r="T229" t="n">
         <v>20</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44161</v>
+        <v>44434</v>
       </c>
       <c r="E230" t="n">
         <v>16</v>
@@ -18760,20 +18760,20 @@
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M230" t="n">
-        <v>80</v>
+        <v>600</v>
       </c>
       <c r="N230" t="n">
-        <v>16000</v>
+        <v>15500</v>
       </c>
       <c r="O230" t="n">
         <v>16000</v>
       </c>
       <c r="P230" t="n">
-        <v>16000</v>
+        <v>15750</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>800</v>
+        <v>788</v>
       </c>
       <c r="T230" t="n">
         <v>20</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44161</v>
+        <v>44292</v>
       </c>
       <c r="E231" t="n">
         <v>16</v>
@@ -18844,16 +18844,16 @@
         </is>
       </c>
       <c r="M231" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N231" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O231" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P231" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>875</v>
+        <v>725</v>
       </c>
       <c r="T231" t="n">
         <v>20</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E232" t="n">
         <v>16</v>
@@ -18927,13 +18927,13 @@
         <v>80</v>
       </c>
       <c r="N232" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O232" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P232" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="T232" t="n">
         <v>20</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E233" t="n">
         <v>16</v>
@@ -19007,13 +19007,13 @@
         <v>160</v>
       </c>
       <c r="N233" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O233" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P233" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T233" t="n">
         <v>20</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44214</v>
+        <v>44351</v>
       </c>
       <c r="E234" t="n">
         <v>16</v>
@@ -19084,16 +19084,16 @@
         </is>
       </c>
       <c r="M234" t="n">
-        <v>740</v>
+        <v>80</v>
       </c>
       <c r="N234" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O234" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="P234" t="n">
-        <v>10230</v>
+        <v>11000</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>512</v>
+        <v>550</v>
       </c>
       <c r="T234" t="n">
         <v>20</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44214</v>
+        <v>44351</v>
       </c>
       <c r="E235" t="n">
         <v>16</v>
@@ -19164,16 +19164,16 @@
         </is>
       </c>
       <c r="M235" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="N235" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O235" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P235" t="n">
-        <v>11429</v>
+        <v>12500</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>571</v>
+        <v>625</v>
       </c>
       <c r="T235" t="n">
         <v>20</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E236" t="n">
         <v>16</v>
@@ -19244,16 +19244,16 @@
         </is>
       </c>
       <c r="M236" t="n">
-        <v>80</v>
+        <v>740</v>
       </c>
       <c r="N236" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O236" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="P236" t="n">
-        <v>11000</v>
+        <v>10230</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>550</v>
+        <v>512</v>
       </c>
       <c r="T236" t="n">
         <v>20</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E237" t="n">
         <v>16</v>
@@ -19324,16 +19324,16 @@
         </is>
       </c>
       <c r="M237" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="N237" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O237" t="n">
         <v>12000</v>
       </c>
-      <c r="O237" t="n">
-        <v>13000</v>
-      </c>
       <c r="P237" t="n">
-        <v>12500</v>
+        <v>11429</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>625</v>
+        <v>571</v>
       </c>
       <c r="T237" t="n">
         <v>20</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44274</v>
+        <v>44280</v>
       </c>
       <c r="E238" t="n">
         <v>16</v>
@@ -19407,13 +19407,13 @@
         <v>80</v>
       </c>
       <c r="N238" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O238" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P238" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="T238" t="n">
         <v>20</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44274</v>
+        <v>44280</v>
       </c>
       <c r="E239" t="n">
         <v>16</v>
@@ -19484,16 +19484,16 @@
         </is>
       </c>
       <c r="M239" t="n">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="N239" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O239" t="n">
         <v>13000</v>
       </c>
-      <c r="O239" t="n">
-        <v>14000</v>
-      </c>
       <c r="P239" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="T239" t="n">
         <v>20</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44445</v>
+        <v>44274</v>
       </c>
       <c r="E240" t="n">
         <v>16</v>
@@ -19564,16 +19564,16 @@
         </is>
       </c>
       <c r="M240" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="N240" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="O240" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P240" t="n">
-        <v>13750</v>
+        <v>12000</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>688</v>
+        <v>600</v>
       </c>
       <c r="T240" t="n">
         <v>20</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44445</v>
+        <v>44274</v>
       </c>
       <c r="E241" t="n">
         <v>16</v>
@@ -19644,16 +19644,16 @@
         </is>
       </c>
       <c r="M241" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N241" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="O241" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P241" t="n">
-        <v>14750</v>
+        <v>13500</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>738</v>
+        <v>675</v>
       </c>
       <c r="T241" t="n">
         <v>20</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44229</v>
+        <v>44445</v>
       </c>
       <c r="E242" t="n">
         <v>16</v>
@@ -19724,16 +19724,16 @@
         </is>
       </c>
       <c r="M242" t="n">
-        <v>590</v>
+        <v>300</v>
       </c>
       <c r="N242" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="O242" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P242" t="n">
-        <v>11703</v>
+        <v>13750</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>585</v>
+        <v>688</v>
       </c>
       <c r="T242" t="n">
         <v>20</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44229</v>
+        <v>44445</v>
       </c>
       <c r="E243" t="n">
         <v>16</v>
@@ -19804,16 +19804,16 @@
         </is>
       </c>
       <c r="M243" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N243" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="O243" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P243" t="n">
-        <v>12812</v>
+        <v>14750</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>641</v>
+        <v>738</v>
       </c>
       <c r="T243" t="n">
         <v>20</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44344</v>
+        <v>44229</v>
       </c>
       <c r="E244" t="n">
         <v>16</v>
@@ -19884,16 +19884,16 @@
         </is>
       </c>
       <c r="M244" t="n">
-        <v>80</v>
+        <v>590</v>
       </c>
       <c r="N244" t="n">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="O244" t="n">
         <v>12000</v>
       </c>
       <c r="P244" t="n">
-        <v>12000</v>
+        <v>11703</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="T244" t="n">
         <v>20</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44344</v>
+        <v>44229</v>
       </c>
       <c r="E245" t="n">
         <v>16</v>
@@ -19964,16 +19964,16 @@
         </is>
       </c>
       <c r="M245" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="N245" t="n">
+        <v>12500</v>
+      </c>
+      <c r="O245" t="n">
         <v>13000</v>
       </c>
-      <c r="O245" t="n">
-        <v>14000</v>
-      </c>
       <c r="P245" t="n">
-        <v>13500</v>
+        <v>12812</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>675</v>
+        <v>641</v>
       </c>
       <c r="T245" t="n">
         <v>20</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E246" t="n">
         <v>16</v>
@@ -20047,13 +20047,13 @@
         <v>80</v>
       </c>
       <c r="N246" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O246" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P246" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T246" t="n">
         <v>20</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E247" t="n">
         <v>16</v>
@@ -20127,13 +20127,13 @@
         <v>160</v>
       </c>
       <c r="N247" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O247" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P247" t="n">
-        <v>15500</v>
+        <v>13500</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="T247" t="n">
         <v>20</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E248" t="n">
         <v>16</v>
@@ -20207,13 +20207,13 @@
         <v>80</v>
       </c>
       <c r="N248" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O248" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P248" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="T248" t="n">
         <v>20</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E249" t="n">
         <v>16</v>
@@ -20287,13 +20287,13 @@
         <v>160</v>
       </c>
       <c r="N249" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O249" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P249" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>625</v>
+        <v>775</v>
       </c>
       <c r="T249" t="n">
         <v>20</v>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E250" t="n">
         <v>16</v>
@@ -20364,7 +20364,7 @@
         </is>
       </c>
       <c r="M250" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N250" t="n">
         <v>11000</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E251" t="n">
         <v>16</v>
@@ -20444,7 +20444,7 @@
         </is>
       </c>
       <c r="M251" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N251" t="n">
         <v>12000</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E252" t="n">
         <v>16</v>
@@ -20524,16 +20524,16 @@
         </is>
       </c>
       <c r="M252" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N252" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O252" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P252" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="T252" t="n">
         <v>20</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E253" t="n">
         <v>16</v>
@@ -20607,13 +20607,13 @@
         <v>240</v>
       </c>
       <c r="N253" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O253" t="n">
         <v>13000</v>
       </c>
-      <c r="O253" t="n">
-        <v>14000</v>
-      </c>
       <c r="P253" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="T253" t="n">
         <v>20</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44165</v>
+        <v>44335</v>
       </c>
       <c r="E254" t="n">
         <v>16</v>
@@ -20684,16 +20684,16 @@
         </is>
       </c>
       <c r="M254" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N254" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O254" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P254" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T254" t="n">
         <v>20</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44165</v>
+        <v>44335</v>
       </c>
       <c r="E255" t="n">
         <v>16</v>
@@ -20767,13 +20767,13 @@
         <v>240</v>
       </c>
       <c r="N255" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="O255" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P255" t="n">
-        <v>17500</v>
+        <v>13500</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="T255" t="n">
         <v>20</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44231</v>
+        <v>44165</v>
       </c>
       <c r="E256" t="n">
         <v>16</v>
@@ -20844,16 +20844,16 @@
         </is>
       </c>
       <c r="M256" t="n">
-        <v>740</v>
+        <v>120</v>
       </c>
       <c r="N256" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O256" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P256" t="n">
-        <v>13541</v>
+        <v>16000</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>677</v>
+        <v>800</v>
       </c>
       <c r="T256" t="n">
         <v>20</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44231</v>
+        <v>44165</v>
       </c>
       <c r="E257" t="n">
         <v>16</v>
@@ -20924,16 +20924,16 @@
         </is>
       </c>
       <c r="M257" t="n">
-        <v>390</v>
+        <v>240</v>
       </c>
       <c r="N257" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O257" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P257" t="n">
-        <v>15641</v>
+        <v>17500</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>782</v>
+        <v>875</v>
       </c>
       <c r="T257" t="n">
         <v>20</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E258" t="n">
         <v>16</v>
@@ -21000,20 +21000,20 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M258" t="n">
-        <v>240</v>
+        <v>740</v>
       </c>
       <c r="N258" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O258" t="n">
         <v>14000</v>
       </c>
-      <c r="O258" t="n">
-        <v>15000</v>
-      </c>
       <c r="P258" t="n">
-        <v>14500</v>
+        <v>13541</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>725</v>
+        <v>677</v>
       </c>
       <c r="T258" t="n">
         <v>20</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44258</v>
+        <v>44231</v>
       </c>
       <c r="E259" t="n">
         <v>16</v>
@@ -21084,16 +21084,16 @@
         </is>
       </c>
       <c r="M259" t="n">
-        <v>160</v>
+        <v>390</v>
       </c>
       <c r="N259" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="O259" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P259" t="n">
-        <v>14750</v>
+        <v>15641</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>738</v>
+        <v>782</v>
       </c>
       <c r="T259" t="n">
         <v>20</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44475</v>
+        <v>44320</v>
       </c>
       <c r="E260" t="n">
         <v>16</v>
@@ -21160,20 +21160,20 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M260" t="n">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="N260" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O260" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P260" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>650</v>
+        <v>725</v>
       </c>
       <c r="T260" t="n">
         <v>20</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E261" t="n">
         <v>16</v>
@@ -21244,16 +21244,16 @@
         </is>
       </c>
       <c r="M261" t="n">
-        <v>480</v>
+        <v>160</v>
       </c>
       <c r="N261" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="O261" t="n">
         <v>15000</v>
       </c>
       <c r="P261" t="n">
-        <v>14500</v>
+        <v>14750</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>725</v>
+        <v>738</v>
       </c>
       <c r="T261" t="n">
         <v>20</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E262" t="n">
         <v>16</v>
@@ -21324,7 +21324,7 @@
         </is>
       </c>
       <c r="M262" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N262" t="n">
         <v>13000</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E263" t="n">
         <v>16</v>
@@ -21404,7 +21404,7 @@
         </is>
       </c>
       <c r="M263" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N263" t="n">
         <v>14000</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E264" t="n">
         <v>16</v>
@@ -21484,16 +21484,16 @@
         </is>
       </c>
       <c r="M264" t="n">
-        <v>570</v>
+        <v>200</v>
       </c>
       <c r="N264" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O264" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P264" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="T264" t="n">
         <v>20</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E265" t="n">
         <v>16</v>
@@ -21564,16 +21564,16 @@
         </is>
       </c>
       <c r="M265" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="N265" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O265" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P265" t="n">
-        <v>10394</v>
+        <v>14500</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>520</v>
+        <v>725</v>
       </c>
       <c r="T265" t="n">
         <v>20</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E266" t="n">
         <v>16</v>
@@ -21644,16 +21644,16 @@
         </is>
       </c>
       <c r="M266" t="n">
-        <v>120</v>
+        <v>570</v>
       </c>
       <c r="N266" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O266" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P266" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="T266" t="n">
         <v>20</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E267" t="n">
         <v>16</v>
@@ -21724,16 +21724,16 @@
         </is>
       </c>
       <c r="M267" t="n">
-        <v>240</v>
+        <v>330</v>
       </c>
       <c r="N267" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O267" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P267" t="n">
-        <v>16500</v>
+        <v>10394</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>825</v>
+        <v>520</v>
       </c>
       <c r="T267" t="n">
         <v>20</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E268" t="n">
         <v>16</v>
@@ -21804,16 +21804,16 @@
         </is>
       </c>
       <c r="M268" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N268" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O268" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P268" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="T268" t="n">
         <v>20</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E269" t="n">
         <v>16</v>
@@ -21884,16 +21884,16 @@
         </is>
       </c>
       <c r="M269" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N269" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O269" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P269" t="n">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>625</v>
+        <v>825</v>
       </c>
       <c r="T269" t="n">
         <v>20</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E270" t="n">
         <v>16</v>
@@ -21967,13 +21967,13 @@
         <v>80</v>
       </c>
       <c r="N270" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O270" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P270" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="T270" t="n">
         <v>20</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E271" t="n">
         <v>16</v>
@@ -22044,16 +22044,16 @@
         </is>
       </c>
       <c r="M271" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N271" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O271" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P271" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="T271" t="n">
         <v>20</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44186</v>
+        <v>44300</v>
       </c>
       <c r="E272" t="n">
         <v>16</v>
@@ -22124,16 +22124,16 @@
         </is>
       </c>
       <c r="M272" t="n">
-        <v>740</v>
+        <v>80</v>
       </c>
       <c r="N272" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O272" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="P272" t="n">
-        <v>10297</v>
+        <v>13000</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>515</v>
+        <v>650</v>
       </c>
       <c r="T272" t="n">
         <v>20</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44186</v>
+        <v>44300</v>
       </c>
       <c r="E273" t="n">
         <v>16</v>
@@ -22204,16 +22204,16 @@
         </is>
       </c>
       <c r="M273" t="n">
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="N273" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O273" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P273" t="n">
-        <v>11571</v>
+        <v>14500</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>579</v>
+        <v>725</v>
       </c>
       <c r="T273" t="n">
         <v>20</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44349</v>
+        <v>44186</v>
       </c>
       <c r="E274" t="n">
         <v>16</v>
@@ -22284,16 +22284,16 @@
         </is>
       </c>
       <c r="M274" t="n">
-        <v>120</v>
+        <v>740</v>
       </c>
       <c r="N274" t="n">
         <v>10000</v>
       </c>
       <c r="O274" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="P274" t="n">
-        <v>10500</v>
+        <v>10297</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="T274" t="n">
         <v>20</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44349</v>
+        <v>44186</v>
       </c>
       <c r="E275" t="n">
         <v>16</v>
@@ -22364,16 +22364,16 @@
         </is>
       </c>
       <c r="M275" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="N275" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O275" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P275" t="n">
-        <v>13500</v>
+        <v>11571</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>675</v>
+        <v>579</v>
       </c>
       <c r="T275" t="n">
         <v>20</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E276" t="n">
         <v>16</v>
@@ -22440,20 +22440,20 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M276" t="n">
         <v>120</v>
       </c>
       <c r="N276" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O276" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P276" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>700</v>
+        <v>525</v>
       </c>
       <c r="T276" t="n">
         <v>20</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E277" t="n">
         <v>16</v>
@@ -22524,16 +22524,16 @@
         </is>
       </c>
       <c r="M277" t="n">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="N277" t="n">
         <v>13000</v>
       </c>
       <c r="O277" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P277" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="T277" t="n">
         <v>20</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E278" t="n">
         <v>16</v>
@@ -22600,20 +22600,20 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M278" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N278" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O278" t="n">
         <v>14000</v>
       </c>
       <c r="P278" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>675</v>
+        <v>700</v>
       </c>
       <c r="T278" t="n">
         <v>20</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44448</v>
+        <v>44372</v>
       </c>
       <c r="E279" t="n">
         <v>16</v>
@@ -22680,20 +22680,20 @@
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M279" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N279" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="O279" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P279" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>950</v>
+        <v>650</v>
       </c>
       <c r="T279" t="n">
         <v>20</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E280" t="n">
         <v>16</v>
@@ -22764,16 +22764,16 @@
         </is>
       </c>
       <c r="M280" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="N280" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O280" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="P280" t="n">
-        <v>20500</v>
+        <v>13500</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>1025</v>
+        <v>675</v>
       </c>
       <c r="T280" t="n">
         <v>20</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44243</v>
+        <v>44448</v>
       </c>
       <c r="E281" t="n">
         <v>16</v>
@@ -22844,16 +22844,16 @@
         </is>
       </c>
       <c r="M281" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="N281" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="O281" t="n">
-        <v>8500</v>
+        <v>19000</v>
       </c>
       <c r="P281" t="n">
-        <v>8250</v>
+        <v>19000</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>412</v>
+        <v>950</v>
       </c>
       <c r="T281" t="n">
         <v>20</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44243</v>
+        <v>44448</v>
       </c>
       <c r="E282" t="n">
         <v>16</v>
@@ -22924,16 +22924,16 @@
         </is>
       </c>
       <c r="M282" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="N282" t="n">
-        <v>9500</v>
+        <v>20000</v>
       </c>
       <c r="O282" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="P282" t="n">
-        <v>9750</v>
+        <v>20500</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>488</v>
+        <v>1025</v>
       </c>
       <c r="T282" t="n">
         <v>20</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44385</v>
+        <v>44243</v>
       </c>
       <c r="E283" t="n">
         <v>16</v>
@@ -23004,16 +23004,16 @@
         </is>
       </c>
       <c r="M283" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="N283" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O283" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="P283" t="n">
-        <v>11000</v>
+        <v>8250</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>550</v>
+        <v>412</v>
       </c>
       <c r="T283" t="n">
         <v>20</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44385</v>
+        <v>44243</v>
       </c>
       <c r="E284" t="n">
         <v>16</v>
@@ -23084,16 +23084,16 @@
         </is>
       </c>
       <c r="M284" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N284" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="O284" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P284" t="n">
-        <v>12500</v>
+        <v>9750</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>625</v>
+        <v>488</v>
       </c>
       <c r="T284" t="n">
         <v>20</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E285" t="n">
         <v>16</v>
@@ -23167,13 +23167,13 @@
         <v>80</v>
       </c>
       <c r="N285" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O285" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="P285" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="T285" t="n">
         <v>20</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E286" t="n">
         <v>16</v>
@@ -23247,13 +23247,13 @@
         <v>240</v>
       </c>
       <c r="N286" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="O286" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="P286" t="n">
-        <v>21500</v>
+        <v>12500</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>1075</v>
+        <v>625</v>
       </c>
       <c r="T286" t="n">
         <v>20</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44202</v>
+        <v>44452</v>
       </c>
       <c r="E287" t="n">
         <v>16</v>
@@ -23324,16 +23324,16 @@
         </is>
       </c>
       <c r="M287" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="N287" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O287" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P287" t="n">
-        <v>15500</v>
+        <v>20000</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>775</v>
+        <v>1000</v>
       </c>
       <c r="T287" t="n">
         <v>20</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44453</v>
+        <v>44452</v>
       </c>
       <c r="E288" t="n">
         <v>16</v>
@@ -23400,20 +23400,20 @@
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M288" t="n">
         <v>240</v>
       </c>
       <c r="N288" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O288" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P288" t="n">
-        <v>18500</v>
+        <v>21500</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>925</v>
+        <v>1075</v>
       </c>
       <c r="T288" t="n">
         <v>20</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44453</v>
+        <v>44202</v>
       </c>
       <c r="E289" t="n">
         <v>16</v>
@@ -23480,20 +23480,20 @@
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M289" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N289" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O289" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="P289" t="n">
-        <v>20500</v>
+        <v>15500</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>1025</v>
+        <v>775</v>
       </c>
       <c r="T289" t="n">
         <v>20</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E290" t="n">
         <v>16</v>
@@ -23564,16 +23564,16 @@
         </is>
       </c>
       <c r="M290" t="n">
-        <v>1340</v>
+        <v>240</v>
       </c>
       <c r="N290" t="n">
-        <v>11500</v>
+        <v>18000</v>
       </c>
       <c r="O290" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P290" t="n">
-        <v>13177</v>
+        <v>18500</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>659</v>
+        <v>925</v>
       </c>
       <c r="T290" t="n">
         <v>20</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E291" t="n">
         <v>16</v>
@@ -23644,16 +23644,16 @@
         </is>
       </c>
       <c r="M291" t="n">
-        <v>2020</v>
+        <v>400</v>
       </c>
       <c r="N291" t="n">
-        <v>12500</v>
+        <v>20000</v>
       </c>
       <c r="O291" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="P291" t="n">
-        <v>14505</v>
+        <v>20500</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>725</v>
+        <v>1025</v>
       </c>
       <c r="T291" t="n">
         <v>20</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44242</v>
+        <v>44435</v>
       </c>
       <c r="E292" t="n">
         <v>16</v>
@@ -23724,16 +23724,16 @@
         </is>
       </c>
       <c r="M292" t="n">
-        <v>80</v>
+        <v>1340</v>
       </c>
       <c r="N292" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="O292" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P292" t="n">
-        <v>8000</v>
+        <v>13177</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>400</v>
+        <v>659</v>
       </c>
       <c r="T292" t="n">
         <v>20</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44242</v>
+        <v>44435</v>
       </c>
       <c r="E293" t="n">
         <v>16</v>
@@ -23804,16 +23804,16 @@
         </is>
       </c>
       <c r="M293" t="n">
-        <v>300</v>
+        <v>2020</v>
       </c>
       <c r="N293" t="n">
-        <v>9000</v>
+        <v>12500</v>
       </c>
       <c r="O293" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P293" t="n">
-        <v>9500</v>
+        <v>14505</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>475</v>
+        <v>725</v>
       </c>
       <c r="T293" t="n">
         <v>20</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44377</v>
+        <v>44242</v>
       </c>
       <c r="E